--- a/scraper/data/betclever_predictions.xlsx
+++ b/scraper/data/betclever_predictions.xlsx
@@ -475,85 +475,85 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>27-02-2025 01:30</t>
+          <t>27-02-2025 20:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>MOROCCO</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>COPA DO NORDESTE</t>
+          <t>BOTOLA PRO</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>CSA - Nautico Recife</t>
+          <t>CODM Meknès - Hassania Agadir</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>71.7</v>
+        <v>70</v>
       </c>
       <c r="F2" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>27-02-2025 20:00</t>
+          <t>27-02-2025 18:00</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>MOROCCO</t>
+          <t>POLAND</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>BOTOLA PRO</t>
+          <t>CUP</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>CODM Meknès - Hassania Agadir</t>
+          <t>Polonia Warszawa - Puszcza Niepołomice</t>
         </is>
       </c>
       <c r="E3" t="n">
         <v>70</v>
       </c>
       <c r="F3" t="n">
-        <v>2.05</v>
+        <v>2.95</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>27-02-2025 18:00</t>
+          <t>28-02-2025 10:15</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>POLAND</t>
+          <t>AUSTRALIA</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>CUP</t>
+          <t>NEW SOUTH WALES NPL 2</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Polonia Warszawa - Puszcza Niepołomice</t>
+          <t>Blacktown Spartans - Bonnyrigg White Eagles</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>70</v>
+        <v>75.7</v>
       </c>
       <c r="F4" t="n">
-        <v>2.95</v>
+        <v>2.2</v>
       </c>
     </row>
   </sheetData>
@@ -646,7 +646,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -689,82 +689,82 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>27-02-2025 00:30</t>
+          <t>27-02-2025 23:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>COPA VERDE</t>
+          <t>CONMEBOL LIBERTADORES</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Manaus FC - Paysandu</t>
+          <t>Cerro Porteno - Monagas SC</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>81.09999999999999</v>
+        <v>84</v>
       </c>
       <c r="F2" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>27-02-2025 01:30</t>
+          <t>27-02-2025 18:00</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>EGYPT</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CONMEBOL LIBERTADORES</t>
+          <t>PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Corinthians - UCV</t>
+          <t>Zamalek SC - Masr</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>76</v>
+        <v>76.7</v>
       </c>
       <c r="F3" t="n">
-        <v>3.5</v>
+        <v>2.15</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>27-02-2025 23:00</t>
+          <t>28-02-2025 21:00</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>CONMEBOL LIBERTADORES</t>
+          <t>FA CUP</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Cerro Porteno - Monagas SC</t>
+          <t>Aston Villa - Cardiff</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>84</v>
+        <v>88.3</v>
       </c>
       <c r="F4" t="n">
         <v>2.1</v>
@@ -773,85 +773,141 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>27-02-2025 01:00</t>
+          <t>01-03-2025 00:00</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>CHILE</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>COPA DO BRASIL</t>
+          <t>PRIMERA DIVISIÓN</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Humaitá - Operario-PR</t>
+          <t>Deportes Limache - Coquimbo Unido</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F5" t="n">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>27-02-2025 18:00</t>
+          <t>28-02-2025 19:30</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>EGYPT</t>
+          <t>FRANCE</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>PREMIER LEAGUE</t>
+          <t>NATIONAL 1</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Zamalek SC - Masr</t>
+          <t>Orleans - Sochaux</t>
         </is>
       </c>
       <c r="E6" t="n">
         <v>76.7</v>
       </c>
       <c r="F6" t="n">
-        <v>2.15</v>
+        <v>1.83</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>27-02-2025 04:05</t>
+          <t>28-02-2025 18:30</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>MEXICO</t>
+          <t>GERMANY</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>LIGA MX</t>
+          <t>2. BUNDESLIGA</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Atletico San Luis - Guadalajara Chivas</t>
+          <t>FC Schalke 04 - Preußen Münster</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="F7" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>28-02-2025 20:45</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>IRELAND</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>FIRST DIVISION</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Treaty United - Finn Harps</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>76.7</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>28-02-2025 20:30</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>ITALY</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>SERIE C - GIRONE A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Giana Erminio - Lumezzane</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>90</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1.9</v>
       </c>
     </row>
   </sheetData>
@@ -865,7 +921,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -986,69 +1042,171 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>27-02-2025 04:05</t>
+          <t>28-02-2025 09:35</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MEXICO</t>
+          <t>AUSTRALIA</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>LIGA MX</t>
+          <t>A-LEAGUE</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Atletico San Luis - Guadalajara Chivas</t>
+          <t>Central Coast Mariners - Western United</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="F4" t="n">
-        <v>1.95</v>
+        <v>1.62</v>
       </c>
       <c r="G4" t="n">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="H4" t="n">
-        <v>3.4</v>
+        <v>2.62</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>27-02-2025 04:30</t>
+          <t>28-02-2025 18:00</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>AUSTRIA</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>CONCACAF CHAMPIONS LEAGUE</t>
+          <t>2. LIGA</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Seattle Sounders - Antigua GFC</t>
+          <t>Rapid Wien II - Austria Lustenau</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>66.7</v>
+        <v>85</v>
       </c>
       <c r="F5" t="n">
-        <v>1.53</v>
+        <v>1.77</v>
       </c>
       <c r="G5" t="n">
-        <v>66.7</v>
+        <v>45</v>
       </c>
       <c r="H5" t="n">
-        <v>2.45</v>
+        <v>2.95</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>28-02-2025 20:30</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>AUSTRIA</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>2. LIGA</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Ried - Floridsdorfer AC</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>85</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="G6" t="n">
+        <v>40</v>
+      </c>
+      <c r="H6" t="n">
+        <v>2.95</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>28-02-2025 18:00</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>CYPRUS</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>1. DIVISION</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Anorthosis - Karmiotissa</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="G7" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="H7" t="n">
+        <v>2.88</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>28-02-2025 20:20</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>GERMANY</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>REGIONALLIGA - NORDOST</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>FSV Zwickau - Lokomotive Leipzig</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>75</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="G8" t="n">
+        <v>70</v>
+      </c>
+      <c r="H8" t="n">
+        <v>2.88</v>
       </c>
     </row>
   </sheetData>
@@ -1062,7 +1220,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:G48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1110,69 +1268,69 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>26-02-2025 12:00</t>
+          <t>27-02-2025 21:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>TANZANIA</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>LIGI KUU BARA</t>
+          <t>LEAGUE TWO</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Singida Big Stars - Tanzania Prisons</t>
+          <t>Barrow - Carlisle</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F2" t="n">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="G2" t="n">
-        <v>0.05</v>
+        <v>-0.01</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>27-02-2025 21:00</t>
+          <t>27-02-2025 17:00</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>ALGERIA</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>LEAGUE TWO</t>
+          <t>LIGUE 1</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Barrow - Carlisle</t>
+          <t>JS Saoura - Oued Akbou</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F3" t="n">
         <v>1.8</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.01</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>27-02-2025 17:00</t>
+          <t>27-02-2025 14:00</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1182,22 +1340,22 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>LIGUE 1</t>
+          <t>LIGUE 2</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>JS Saoura - Oued Akbou</t>
+          <t>RC Arba - GC Mascara</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>60</v>
+        <v>56.7</v>
       </c>
       <c r="F4" t="n">
         <v>1.8</v>
       </c>
       <c r="G4" t="n">
-        <v>0.08</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="5">
@@ -1234,162 +1392,162 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>27-02-2025 01:30</t>
+          <t>27-02-2025 19:00</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>DENMARK</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>COPA DO NORDESTE</t>
+          <t>1. DIVISION</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>CSA - Nautico Recife</t>
+          <t>Hvidovre - FC Fredericia</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>71.7</v>
+        <v>53.3</v>
       </c>
       <c r="F6" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="G6" t="n">
-        <v>0.43</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>27-02-2025 19:00</t>
+          <t>27-02-2025 15:00</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>DENMARK</t>
+          <t>EGYPT</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>1. DIVISION</t>
+          <t>PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Hvidovre - FC Fredericia</t>
+          <t>Smouha SC - AL Masry</t>
         </is>
       </c>
       <c r="E7" t="n">
         <v>53.3</v>
       </c>
       <c r="F7" t="n">
-        <v>2.1</v>
+        <v>2.9</v>
       </c>
       <c r="G7" t="n">
-        <v>0.12</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>27-02-2025 15:00</t>
+          <t>27-02-2025 20:00</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>EGYPT</t>
+          <t>HUNGARY</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>PREMIER LEAGUE</t>
+          <t>MAGYAR KUPA</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Smouha SC - AL Masry</t>
+          <t>Gyori ETO FC - Ferencvarosi TC</t>
         </is>
       </c>
       <c r="E8" t="n">
         <v>53.3</v>
       </c>
       <c r="F8" t="n">
-        <v>2.9</v>
+        <v>4</v>
       </c>
       <c r="G8" t="n">
-        <v>0.55</v>
+        <v>1.13</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>27-02-2025 20:00</t>
+          <t>27-02-2025 17:15</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>HUNGARY</t>
+          <t>ICELAND</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>MAGYAR KUPA</t>
+          <t>LEAGUE CUP</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Gyori ETO FC - Ferencvarosi TC</t>
+          <t>KA Akureyri - Fram Reykjavik</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>53.3</v>
+        <v>60</v>
       </c>
       <c r="F9" t="n">
-        <v>4</v>
+        <v>2.2</v>
       </c>
       <c r="G9" t="n">
-        <v>1.13</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>27-02-2025 17:15</t>
+          <t>27-02-2025 18:00</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ICELAND</t>
+          <t>MOROCCO</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>LEAGUE CUP</t>
+          <t>BOTOLA PRO</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>KA Akureyri - Fram Reykjavik</t>
+          <t>Ittihad Tanger - Riadi Salmi</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>60</v>
+        <v>57.7</v>
       </c>
       <c r="F10" t="n">
-        <v>2.2</v>
+        <v>1.77</v>
       </c>
       <c r="G10" t="n">
-        <v>0.32</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>27-02-2025 18:00</t>
+          <t>27-02-2025 20:00</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1404,23 +1562,23 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Ittihad Tanger - Riadi Salmi</t>
+          <t>CODM Meknès - Hassania Agadir</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>57.7</v>
+        <v>70</v>
       </c>
       <c r="F11" t="n">
-        <v>1.77</v>
+        <v>2.05</v>
       </c>
       <c r="G11" t="n">
-        <v>0.02</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>27-02-2025 20:00</t>
+          <t>27-02-2025 22:00</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1435,17 +1593,17 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>CODM Meknès - Hassania Agadir</t>
+          <t>Difaa EL Jadida - UTS Rabat</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="F12" t="n">
-        <v>2.05</v>
+        <v>2.4</v>
       </c>
       <c r="G12" t="n">
-        <v>0.43</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="13">
@@ -1456,120 +1614,120 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>MOROCCO</t>
+          <t>PANAMA</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>BOTOLA PRO</t>
+          <t>LIGA PANAMEÑA DE FÚTBOL</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Difaa EL Jadida - UTS Rabat</t>
+          <t>UMECIT - Costa Del Este</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>60</v>
+        <v>53.3</v>
       </c>
       <c r="F13" t="n">
-        <v>2.4</v>
+        <v>1.95</v>
       </c>
       <c r="G13" t="n">
-        <v>0.44</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>27-02-2025 02:30</t>
+          <t>27-02-2025 18:00</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>PANAMA</t>
+          <t>POLAND</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>LIGA PANAMEÑA DE FÚTBOL</t>
+          <t>CUP</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Sporting San Miguelito - Veraguas</t>
+          <t>Polonia Warszawa - Puszcza Niepołomice</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="F14" t="n">
-        <v>1.73</v>
+        <v>2.95</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.14</v>
+        <v>1.06</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>27-02-2025 22:00</t>
+          <t>27-02-2025 14:00</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>PANAMA</t>
+          <t>SERBIA</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>LIGA PANAMEÑA DE FÚTBOL</t>
+          <t>PRVA LIGA</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>UMECIT - Costa Del Este</t>
+          <t>Radnički Sr. Mitrovica - Radnik Surdulica</t>
         </is>
       </c>
       <c r="E15" t="n">
         <v>53.3</v>
       </c>
       <c r="F15" t="n">
-        <v>1.95</v>
+        <v>3</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>27-02-2025 18:00</t>
+          <t>27-02-2025 12:45</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>POLAND</t>
+          <t>SINGAPORE</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>CUP</t>
+          <t>PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Polonia Warszawa - Puszcza Niepołomice</t>
+          <t>Albirex Niigata S - Balestier Khalsa</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>70</v>
+        <v>53.3</v>
       </c>
       <c r="F16" t="n">
-        <v>2.95</v>
+        <v>2.7</v>
       </c>
       <c r="G16" t="n">
-        <v>1.06</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="17">
@@ -1580,58 +1738,58 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>SERBIA</t>
+          <t>TUNISIA</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>PRVA LIGA</t>
+          <t>LIGUE 1</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Radnički Sr. Mitrovica - Radnik Surdulica</t>
+          <t>US Tataouine - EGS Gafsa</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>53.3</v>
+        <v>66.7</v>
       </c>
       <c r="F17" t="n">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="G17" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>27-02-2025 12:45</t>
+          <t>27-02-2025 14:00</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>SINGAPORE</t>
+          <t>TUNISIA</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>PREMIER LEAGUE</t>
+          <t>LIGUE 1</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Albirex Niigata S - Balestier Khalsa</t>
+          <t>Olympique Béja - CS Sfaxien</t>
         </is>
       </c>
       <c r="E18" t="n">
         <v>53.3</v>
       </c>
       <c r="F18" t="n">
-        <v>2.7</v>
+        <v>2.25</v>
       </c>
       <c r="G18" t="n">
-        <v>0.44</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="19">
@@ -1652,17 +1810,17 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>US Tataouine - EGS Gafsa</t>
+          <t>US Monastirienne - Club Africain</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>66.7</v>
+        <v>53.3</v>
       </c>
       <c r="F19" t="n">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="G19" t="n">
-        <v>0.4</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="20">
@@ -1673,89 +1831,89 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>TUNISIA</t>
+          <t>TURKEY</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>LIGUE 1</t>
+          <t>CUP</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Olympique Béja - CS Sfaxien</t>
+          <t>Kasimpasa - Goztepe</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>53.3</v>
+        <v>60</v>
       </c>
       <c r="F20" t="n">
-        <v>2.25</v>
+        <v>16</v>
       </c>
       <c r="G20" t="n">
-        <v>0.2</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>27-02-2025 14:00</t>
+          <t>27-02-2025 14:25</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>TUNISIA</t>
+          <t>UNITED-ARAB-EMIRATES</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>LIGUE 1</t>
+          <t>DIVISION 1</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>US Monastirienne - Club Africain</t>
+          <t>Hatta SC - Dubai United</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>53.3</v>
+        <v>50</v>
       </c>
       <c r="F21" t="n">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>27-02-2025 14:00</t>
+          <t>27-02-2025 17:15</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>TURKEY</t>
+          <t>UNITED-ARAB-EMIRATES</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>CUP</t>
+          <t>PRO LEAGUE</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Kasimpasa - Goztepe</t>
+          <t>Al Wahda FC - Al Ain</t>
         </is>
       </c>
       <c r="E22" t="n">
         <v>60</v>
       </c>
       <c r="F22" t="n">
-        <v>16</v>
+        <v>2.5</v>
       </c>
       <c r="G22" t="n">
-        <v>8.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="23">
@@ -1776,48 +1934,792 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Al Wahda FC - Al Ain</t>
+          <t>Ajman - Al Nasr</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>60</v>
+        <v>53.3</v>
       </c>
       <c r="F23" t="n">
-        <v>2.5</v>
+        <v>2.64</v>
       </c>
       <c r="G23" t="n">
-        <v>0.5</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>27-02-2025 17:15</t>
+          <t>28-02-2025 20:00</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>UNITED-ARAB-EMIRATES</t>
+          <t>NETHERLANDS</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>PRO LEAGUE</t>
+          <t>EREDIVISIE</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Ajman - Al Nasr</t>
+          <t>Waalwijk - Fortuna Sittard</t>
         </is>
       </c>
       <c r="E24" t="n">
         <v>53.3</v>
       </c>
       <c r="F24" t="n">
-        <v>2.64</v>
+        <v>2</v>
       </c>
       <c r="G24" t="n">
-        <v>0.41</v>
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>28-02-2025 21:00</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>SPAIN</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>LA LIGA</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Valladolid - Las Palmas</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>56.7</v>
+      </c>
+      <c r="F25" t="n">
+        <v>3</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>28-02-2025 20:00</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>FRANCE</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>LIGUE 2</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Annecy - Paris FC</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>50</v>
+      </c>
+      <c r="F26" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>28-02-2025 16:00</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>ROMANIA</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>LIGA I</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Unirea Slobozia - Oţelul</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="F27" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>28-02-2025 01:30</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>WORLD</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>CONMEBOL LIBERTADORES</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>FBC Melgar - Deportes Tolima</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>60</v>
+      </c>
+      <c r="F28" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>28-02-2025 01:30</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>WORLD</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>CONMEBOL RECOPA</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Botafogo - Racing Club</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>50</v>
+      </c>
+      <c r="F29" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="G29" t="n">
+        <v>-0.1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>28-02-2025 19:00</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>ALGERIA</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>LIGUE 1</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>MC Alger - CS Constantine</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>60</v>
+      </c>
+      <c r="F30" t="n">
+        <v>2</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>28-02-2025 21:00</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>ARGENTINA</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>PRIMERA NACIONAL</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Arsenal Sarandi - Atlanta</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>60</v>
+      </c>
+      <c r="F31" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>28-02-2025 10:15</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>AUSTRALIA</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>NEW SOUTH WALES NPL 2</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Blacktown Spartans - Bonnyrigg White Eagles</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="F32" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>28-02-2025 18:00</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>AUSTRIA</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>2. LIGA</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>First Vienna - Stripfing</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>58</v>
+      </c>
+      <c r="F33" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>28-02-2025 11:00</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>AZERBAIJAN</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>BIRINCI DASTA</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Qaradağ Lökbatan - Mil-Muğan</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="F34" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="G34" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>28-02-2025 18:00</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>CYPRUS</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>1. DIVISION</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>AEL - Enosis</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>53.3</v>
+      </c>
+      <c r="F35" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="G35" t="n">
+        <v>-0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>28-02-2025 15:00</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>EGYPT</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>PREMIER LEAGUE</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Ghazl El Mehalla - Enppi</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="F36" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>28-02-2025 19:30</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>FRANCE</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>NATIONAL 1</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Rouen - Concarneau</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>50</v>
+      </c>
+      <c r="F37" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="G37" t="n">
+        <v>-0.12</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>28-02-2025 19:30</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>FRANCE</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>NATIONAL 1</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Valenciennes - Versailles</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>60</v>
+      </c>
+      <c r="F38" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>28-02-2025 18:30</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>GERMANY</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>2. BUNDESLIGA</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>FC Schalke 04 - Preußen Münster</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>50</v>
+      </c>
+      <c r="F39" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="G39" t="n">
+        <v>-0.14</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>28-02-2025 19:00</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>GERMANY</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>REGIONALLIGA - NORDOST</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>BFC Dynamo - Greifswalder FC</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
+        <v>56.7</v>
+      </c>
+      <c r="F40" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>28-02-2025 20:20</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>GERMANY</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>REGIONALLIGA - NORDOST</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>FSV Zwickau - Lokomotive Leipzig</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v>53.3</v>
+      </c>
+      <c r="F41" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="G41" t="n">
+        <v>1.03</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>28-02-2025 20:30</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>ITALY</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>SERIE C - GIRONE A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Giana Erminio - Lumezzane</t>
+        </is>
+      </c>
+      <c r="E42" t="n">
+        <v>60</v>
+      </c>
+      <c r="F42" t="n">
+        <v>2</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>28-02-2025 22:15</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>PARAGUAY</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>DIVISION PROFESIONAL - APERTURA</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Deportivo Recoleta - Sportivo Ameliano</t>
+        </is>
+      </c>
+      <c r="E43" t="n">
+        <v>50</v>
+      </c>
+      <c r="F43" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>28-02-2025 18:00</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>POLAND</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>EKSTRAKLASA</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Radomiak Radom - Widzew Łódź</t>
+        </is>
+      </c>
+      <c r="E44" t="n">
+        <v>56.7</v>
+      </c>
+      <c r="F44" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>28-02-2025 18:00</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>POLAND</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>I LIGA</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Pogoń Siedlce - Wisla Plock</t>
+        </is>
+      </c>
+      <c r="E45" t="n">
+        <v>50</v>
+      </c>
+      <c r="F45" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="G45" t="n">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>28-02-2025 20:30</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>POLAND</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>I LIGA</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Arka Gdynia - Wisla Krakow</t>
+        </is>
+      </c>
+      <c r="E46" t="n">
+        <v>53.3</v>
+      </c>
+      <c r="F46" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>28-02-2025 18:30</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>SOUTH-AFRICA</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>PREMIER SOCCER LEAGUE</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Stellenbosch - Polokwane City</t>
+        </is>
+      </c>
+      <c r="E47" t="n">
+        <v>60</v>
+      </c>
+      <c r="F47" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>28-02-2025 13:15</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>VIETNAM</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>V.LEAGUE 1</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Viettel - Nam Dinh</t>
+        </is>
+      </c>
+      <c r="E48" t="n">
+        <v>60</v>
+      </c>
+      <c r="F48" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.86</v>
       </c>
     </row>
   </sheetData>
@@ -1831,7 +2733,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1879,32 +2781,32 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>26-02-2025 17:00</t>
+          <t>27-02-2025 14:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MALI</t>
+          <t>ALGERIA</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>PREMIÈRE DIVISION</t>
+          <t>LIGUE 2</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>US Bougouba - Stade Malien Bamako</t>
+          <t>MB Rouisset - Usm El Harrach</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>53.3</v>
+        <v>50</v>
       </c>
       <c r="F2" t="n">
-        <v>2.15</v>
+        <v>3.75</v>
       </c>
       <c r="G2" t="n">
-        <v>0.15</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="3">
@@ -1941,125 +2843,342 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>27-02-2025 01:30</t>
+          <t>27-02-2025 18:00</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>ROMANIA</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>COPA DO BRASIL</t>
+          <t>LIGA II</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Concórdia - Ponte Preta</t>
+          <t>Ceahlăul Piatra Neamţ - CSA Steaua Bucureşti</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="F4" t="n">
-        <v>1.9</v>
+        <v>2.02</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.05</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>27-02-2025 22:00</t>
+          <t>27-02-2025 19:00</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>HONDURAS</t>
+          <t>SERBIA</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>LIGA NACIONAL</t>
+          <t>SUPER LIGA</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Juticalpa - Real Espana</t>
+          <t>TSC Backa Topola - Cukaricki</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>60</v>
+        <v>53.3</v>
       </c>
       <c r="F5" t="n">
-        <v>1.91</v>
+        <v>2.55</v>
       </c>
       <c r="G5" t="n">
-        <v>0.15</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>27-02-2025 18:00</t>
+          <t>28-02-2025 20:45</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ROMANIA</t>
+          <t>SCOTLAND</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>LIGA II</t>
+          <t>CHAMPIONSHIP</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Ceahlăul Piatra Neamţ - CSA Steaua Bucureşti</t>
+          <t>Partick - Livingston</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F6" t="n">
-        <v>2.02</v>
+        <v>2.3</v>
       </c>
       <c r="G6" t="n">
-        <v>0.21</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>27-02-2025 19:00</t>
+          <t>28-02-2025 01:30</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>SERBIA</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>SUPER LIGA</t>
+          <t>CONMEBOL RECOPA</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>TSC Backa Topola - Cukaricki</t>
+          <t>Botafogo - Racing Club</t>
         </is>
       </c>
       <c r="E7" t="n">
+        <v>50</v>
+      </c>
+      <c r="F7" t="n">
+        <v>4</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>28-02-2025 18:00</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>AUSTRIA</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>2. LIGA</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>SKU Amstetten - SKN ST. Polten</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>62.3</v>
+      </c>
+      <c r="F8" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>28-02-2025 18:00</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>AUSTRIA</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>2. LIGA</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Rapid Wien II - Austria Lustenau</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>60</v>
+      </c>
+      <c r="F9" t="n">
+        <v>3</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>28-02-2025 18:00</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>AUSTRIA</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>2. LIGA</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>SV Horn - Voitsberg</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>60</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>28-02-2025 20:45</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>BELGIUM</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>JUPILER PRO LEAGUE</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Charleroi - Genk</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
         <v>53.3</v>
       </c>
-      <c r="F7" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0.36</v>
+      <c r="F11" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>28-02-2025 01:30</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>BRAZIL</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>COPA DO BRASIL</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Inter De Limeira - Vila Nova</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>60</v>
+      </c>
+      <c r="F12" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>01-03-2025 00:00</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>CHILE</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>PRIMERA DIVISIÓN</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Deportes Limache - Coquimbo Unido</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>50</v>
+      </c>
+      <c r="F13" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>28-02-2025 04:00</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>WORLD</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>CONCACAF CHAMPIONS LEAGUE</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Vancouver Whitecaps - Deportivo Saprissa</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>50</v>
+      </c>
+      <c r="F14" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="G14" t="n">
+        <v>1.95</v>
       </c>
     </row>
   </sheetData>
@@ -2068,155 +3187,6 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:G4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Date</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Country</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Championship</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Match</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Over 2.5 (%)</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Odds 2.5</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>EV over 2.5</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>27-02-2025 17:00</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>BULGARIA</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>CUP</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Ludogorets - Botev Plovdiv</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
-        <v>70</v>
-      </c>
-      <c r="F2" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>27-02-2025 04:05</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>MEXICO</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>LIGA MX</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Atletico San Luis - Guadalajara Chivas</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>80</v>
-      </c>
-      <c r="F3" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>27-02-2025 14:35</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>UNITED-ARAB-EMIRATES</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>PRO LEAGUE</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Al Bataeh - Al-Ittihad Kalba</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>71.8</v>
-      </c>
-      <c r="F4" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.22</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2253,390 +3223,1345 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Btts (%)</t>
+          <t>Over 2.5 (%)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Odds btts</t>
+          <t>Odds 2.5</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>EV btts</t>
+          <t>EV over 2.5</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>27-02-2025 00:30</t>
+          <t>27-02-2025 17:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>BULGARIA</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>COPA VERDE</t>
+          <t>CUP</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Manaus FC - Paysandu</t>
+          <t>Ludogorets - Botev Plovdiv</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>81.09999999999999</v>
+        <v>70</v>
       </c>
       <c r="F2" t="n">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="G2" t="n">
-        <v>0.62</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>27-02-2025 14:35</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>UNITED-ARAB-EMIRATES</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>PRO LEAGUE</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Al Bataeh - Al-Ittihad Kalba</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>71.8</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>28-02-2025 18:00</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>AUSTRIA</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>2. LIGA</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Rapid Wien II - Austria Lustenau</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>85</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>28-02-2025 20:30</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>AUSTRIA</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>2. LIGA</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Ried - Floridsdorfer AC</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>85</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>28-02-2025 18:00</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>AUSTRIA</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>2. LIGA</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>First Vienna - Stripfing</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>73.3</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>28-02-2025 20:45</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>BELGIUM</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>JUPILER PRO LEAGUE</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Charleroi - Genk</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>70</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>28-02-2025 18:00</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>CYPRUS</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>1. DIVISION</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Anorthosis - Karmiotissa</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>28-02-2025 20:20</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>GERMANY</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>REGIONALLIGA - NORDOST</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>FSV Zwickau - Lokomotive Leipzig</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>75</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>28-02-2025 20:45</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>IRELAND</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>FIRST DIVISION</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Treaty United - Finn Harps</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>71.3</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>28-02-2025 20:30</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>ITALY</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>SERIE C - GIRONE A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Giana Erminio - Lumezzane</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>75</v>
+      </c>
+      <c r="F11" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>28-02-2025 14:30</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>UKRAINE</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>PREMIER LEAGUE</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Vorskla Poltava - Dynamo Kyiv</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>70</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>28-02-2025 04:00</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>WORLD</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>CONCACAF CHAMPIONS LEAGUE</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Vancouver Whitecaps - Deportivo Saprissa</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>73.3</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.39</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Country</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Championship</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Match</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Btts (%)</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Odds btts</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>EV btts</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
           <t>27-02-2025 21:00</t>
         </is>
       </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>ENGLAND</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>PREMIER LEAGUE</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>West Ham - Leicester</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>73.3</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>27-02-2025 20:45</t>
+        </is>
+      </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>ITALY</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>PREMIER LEAGUE</t>
+          <t>SERIE A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>West Ham - Leicester</t>
+          <t>Bologna - AC Milan</t>
         </is>
       </c>
       <c r="E3" t="n">
         <v>73.3</v>
       </c>
       <c r="F3" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="G3" t="n">
-        <v>0.25</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>27-02-2025 20:45</t>
+          <t>27-02-2025 20:00</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ITALY</t>
+          <t>NETHERLANDS</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>SERIE A</t>
+          <t>KNVB BEKER</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Bologna - AC Milan</t>
+          <t>Heracles - AZ Alkmaar</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>73.3</v>
+        <v>70</v>
       </c>
       <c r="F4" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="G4" t="n">
-        <v>0.28</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>27-02-2025 20:00</t>
+          <t>27-02-2025 23:00</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>NETHERLANDS</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>KNVB BEKER</t>
+          <t>CONMEBOL LIBERTADORES</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Heracles - AZ Alkmaar</t>
+          <t>Cerro Porteno - Monagas SC</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="F5" t="n">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="G5" t="n">
-        <v>0.29</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>27-02-2025 01:30</t>
+          <t>27-02-2025 14:00</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>ALGERIA</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>CONMEBOL LIBERTADORES</t>
+          <t>LIGUE 2</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Corinthians - UCV</t>
+          <t>JS Jijel - HB Chelghoum Laïd</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F6" t="n">
-        <v>3.5</v>
+        <v>2.3</v>
       </c>
       <c r="G6" t="n">
-        <v>1.66</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>27-02-2025 23:00</t>
+          <t>27-02-2025 17:00</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>BULGARIA</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>CONMEBOL LIBERTADORES</t>
+          <t>CUP</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Cerro Porteno - Monagas SC</t>
+          <t>Ludogorets - Botev Plovdiv</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>84</v>
+        <v>66.7</v>
       </c>
       <c r="F7" t="n">
         <v>2.1</v>
       </c>
       <c r="G7" t="n">
-        <v>0.76</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>27-02-2025 14:00</t>
+          <t>27-02-2025 18:00</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ALGERIA</t>
+          <t>EGYPT</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>LIGUE 2</t>
+          <t>PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>JS Jijel - HB Chelghoum Laïd</t>
+          <t>Zamalek SC - Masr</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>72</v>
+        <v>76.7</v>
       </c>
       <c r="F8" t="n">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="G8" t="n">
-        <v>0.66</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>27-02-2025 01:00</t>
+          <t>27-02-2025 15:00</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>SERBIA</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>COPA DO BRASIL</t>
+          <t>PRVA LIGA</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Humaitá - Operario-PR</t>
+          <t>Zemun - Semendrija 1924</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>84</v>
+        <v>73.3</v>
       </c>
       <c r="F9" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="G9" t="n">
-        <v>0.89</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>27-02-2025 17:00</t>
+          <t>28-02-2025 21:00</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>BULGARIA</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>CUP</t>
+          <t>CHAMPIONSHIP</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Ludogorets - Botev Plovdiv</t>
+          <t>Sheffield Wednesday - Sunderland</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>66.7</v>
+        <v>73.3</v>
       </c>
       <c r="F10" t="n">
-        <v>2.1</v>
+        <v>1.83</v>
       </c>
       <c r="G10" t="n">
-        <v>0.4</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>27-02-2025 18:00</t>
+          <t>28-02-2025 21:00</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>EGYPT</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>PREMIER LEAGUE</t>
+          <t>FA CUP</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Zamalek SC - Masr</t>
+          <t>Aston Villa - Cardiff</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>76.7</v>
+        <v>88.3</v>
       </c>
       <c r="F11" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="G11" t="n">
-        <v>0.65</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>27-02-2025 04:05</t>
+          <t>28-02-2025 19:00</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>MEXICO</t>
+          <t>DENMARK</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>LIGA MX</t>
+          <t>SUPERLIGA</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Atletico San Luis - Guadalajara Chivas</t>
+          <t>Randers FC - Aarhus</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="F12" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="G12" t="n">
-        <v>0.4</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>27-02-2025 15:00</t>
+          <t>28-02-2025 20:00</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>SERBIA</t>
+          <t>FRANCE</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>PRVA LIGA</t>
+          <t>LIGUE 2</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Zemun - Semendrija 1924</t>
+          <t>Clermont Foot - Caen</t>
         </is>
       </c>
       <c r="E13" t="n">
+        <v>70</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>28-02-2025 19:30</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>ITALY</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>SERIE B</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Sudtirol - Spezia</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="F14" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>28-02-2025 20:00</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>NETHERLANDS</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>EERSTE DIVISIE</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Cambuur - VVV Venlo</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>71.7</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>28-02-2025 20:45</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>SCOTLAND</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>CHAMPIONSHIP</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Partick - Livingston</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>71.7</v>
+      </c>
+      <c r="F16" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.29</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>28-02-2025 18:00</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>AUSTRIA</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>2. LIGA</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>SV Lafnitz - Admira Wacker</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
         <v>73.3</v>
       </c>
-      <c r="F13" t="n">
+      <c r="F17" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>28-02-2025 22:00</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>CHILE</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>PRIMERA B</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Santiago Morning - Deportes Temuco</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="F18" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>01-03-2025 00:00</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>CHILE</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>PRIMERA DIVISIÓN</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Deportes Limache - Coquimbo Unido</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>80</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>28-02-2025 15:00</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>CROATIA</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>FIRST NL</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Sesvete - Rudes</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="F20" t="n">
         <v>2.2</v>
       </c>
-      <c r="G13" t="n">
-        <v>0.61</v>
+      <c r="G20" t="n">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>28-02-2025 19:30</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>FRANCE</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>NATIONAL 1</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Orleans - Sochaux</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>76.7</v>
+      </c>
+      <c r="F21" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>28-02-2025 18:30</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>GERMANY</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>2. BUNDESLIGA</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>FC Schalke 04 - Preußen Münster</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>88</v>
+      </c>
+      <c r="F22" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>28-02-2025 20:45</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>IRELAND</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>FIRST DIVISION</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Treaty United - Finn Harps</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>76.7</v>
+      </c>
+      <c r="F23" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>28-02-2025 20:45</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>IRELAND</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>PREMIER DIVISION</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Cork City - Bohemians</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>73.3</v>
+      </c>
+      <c r="F24" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>28-02-2025 20:45</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>IRELAND</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>PREMIER DIVISION</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Derry City - Waterford</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>70</v>
+      </c>
+      <c r="F25" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>28-02-2025 20:30</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>ITALY</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>SERIE C - GIRONE A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Giana Erminio - Lumezzane</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>90</v>
+      </c>
+      <c r="F26" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>28-02-2025 20:30</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>POLAND</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>EKSTRAKLASA</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Gornik Zabrze - Cracovia Krakow</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>70</v>
+      </c>
+      <c r="F27" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>28-02-2025 18:00</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>POLAND</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>I LIGA</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Pogoń Siedlce - Wisla Plock</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>68</v>
+      </c>
+      <c r="F28" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>28-02-2025 14:30</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>UKRAINE</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>PREMIER LEAGUE</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Vorskla Poltava - Dynamo Kyiv</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="F29" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.57</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>28-02-2025 13:15</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>VIETNAM</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>V.LEAGUE 1</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Viettel - Nam Dinh</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="F30" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.17</v>
       </c>
     </row>
   </sheetData>

--- a/scraper/data/betclever_predictions.xlsx
+++ b/scraper/data/betclever_predictions.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,57 +475,57 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>03-03-2025 14:30</t>
+          <t>04-03-2025 20:45</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>INDIA</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>I-LEAGUE</t>
+          <t>LEAGUE ONE</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Gokulam - Shillong Lajong</t>
+          <t>Charlton - Barnsley</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>73.3</v>
+        <v>86.7</v>
       </c>
       <c r="F2" t="n">
-        <v>1.73</v>
+        <v>1.95</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>03-03-2025 18:30</t>
+          <t>04-03-2025 20:45</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>TURKEY</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1. LIG</t>
+          <t>LEAGUE TWO</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Kocaelispor - İstanbulspor</t>
+          <t>Grimsby - Tranmere</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="F3" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="4">
@@ -541,25 +541,25 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>LEAGUE ONE</t>
+          <t>LEAGUE TWO</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Charlton - Barnsley</t>
+          <t>Port Vale - Harrogate Town</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>86.7</v>
+        <v>76.7</v>
       </c>
       <c r="F4" t="n">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>04-03-2025 20:45</t>
+          <t>11-01-2025 16:00</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -569,103 +569,215 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>LEAGUE TWO</t>
+          <t>NATIONAL LEAGUE - NORTH</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Grimsby - Tranmere</t>
+          <t>Southport - Leamington</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>70</v>
+        <v>75.7</v>
       </c>
       <c r="F5" t="n">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>04-03-2025 20:45</t>
+          <t>04-03-2025 13:30</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>INDONESIA</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>LEAGUE TWO</t>
+          <t>LIGA 1</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Port Vale - Harrogate Town</t>
+          <t>Malut United - Arema FC</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>76.7</v>
+        <v>70</v>
       </c>
       <c r="F6" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>11-01-2025 16:00</t>
+          <t>04-03-2025 16:00</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>PORTUGAL</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE - NORTH</t>
+          <t>LIGA REVELAÇÃO U23</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Southport - Leamington</t>
+          <t>Academico Viseu U23 - Portimonense U23</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>75.7</v>
+        <v>73.3</v>
       </c>
       <c r="F7" t="n">
-        <v>2.1</v>
+        <v>1.77</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>04-03-2025 13:30</t>
+          <t>05-03-2025 20:45</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>INDONESIA</t>
+          <t>SCOTLAND</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>LIGA 1</t>
+          <t>CHAMPIONSHIP</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Malut United - Arema FC</t>
+          <t>Livingston - Raith Rovers</t>
         </is>
       </c>
       <c r="E8" t="n">
+        <v>73.3</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>05-03-2025 23:00</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>WORLD</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>CONMEBOL LIBERTADORES</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>FBC Melgar - Cerro Porteno</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
         <v>70</v>
       </c>
-      <c r="F8" t="n">
-        <v>2</v>
+      <c r="F9" t="n">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>05-03-2025 23:00</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>WORLD</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>CONMEBOL SUDAMERICANA</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Aurora - Gualberto Villarroel SJ</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>73.3</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1.73</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>05-03-2025 14:00</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>TURKEY</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>1. LIG</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Yeni Çorumspor - Boluspor</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>73.3</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1.95</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>05-03-2025 18:30</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>TURKEY</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>1. LIG</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Fatih Karagümrük - Bandırmaspor</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>80</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1.91</v>
       </c>
     </row>
   </sheetData>
@@ -814,7 +926,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -857,119 +969,119 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>03-03-2025 21:00</t>
+          <t>04-03-2025 21:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SPAIN</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>LA LIGA</t>
+          <t>UEFA CHAMPIONS LEAGUE</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Villarreal - Espanyol</t>
+          <t>Real Madrid - Atletico Madrid</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>76.7</v>
+        <v>80</v>
       </c>
       <c r="F2" t="n">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>04-03-2025 00:00</t>
+          <t>04-03-2025 20:45</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>PAULISTA - A1</t>
+          <t>CHAMPIONSHIP</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Sao Paulo - Novorizontino</t>
+          <t>Hull City - Plymouth</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>83.3</v>
+        <v>75</v>
       </c>
       <c r="F3" t="n">
-        <v>2.05</v>
+        <v>1.91</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>03-03-2025 20:00</t>
+          <t>04-03-2025 20:45</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SAUDI-ARABIA</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>DIVISION 1</t>
+          <t>LEAGUE TWO</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Al Suqoor - Al Safa</t>
+          <t>Colchester - Chesterfield</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>80</v>
+        <v>76.7</v>
       </c>
       <c r="F4" t="n">
-        <v>2.25</v>
+        <v>1.83</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>04-03-2025 21:00</t>
+          <t>04-03-2025 20:45</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>UEFA CHAMPIONS LEAGUE</t>
+          <t>LEAGUE TWO</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Real Madrid - Atletico Madrid</t>
+          <t>Grimsby - Tranmere</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>80</v>
+        <v>79.2</v>
       </c>
       <c r="F5" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>04-03-2025 20:45</t>
+          <t>28-01-2025 20:45</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -979,44 +1091,44 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>CHAMPIONSHIP</t>
+          <t>NATIONAL LEAGUE - SOUTH</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Hull City - Plymouth</t>
+          <t>Chippenham Town - Torquay</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="F6" t="n">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>04-03-2025 20:45</t>
+          <t>04-03-2025 14:30</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>INDONESIA</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>LEAGUE TWO</t>
+          <t>LIGA 1</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Colchester - Chesterfield</t>
+          <t>Persija - PSIS Semarang</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>76.7</v>
+        <v>77.8</v>
       </c>
       <c r="F7" t="n">
         <v>1.83</v>
@@ -1030,108 +1142,52 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>NORTHERN-IRELAND</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>LEAGUE TWO</t>
+          <t>PREMIERSHIP</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Grimsby - Tranmere</t>
+          <t>Loughgall - Glenavon FC</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>79.2</v>
+        <v>75.8</v>
       </c>
       <c r="F8" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>28-01-2025 20:45</t>
+          <t>04-03-2025 20:00</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>SAUDI-ARABIA</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE - SOUTH</t>
+          <t>DIVISION 1</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Chippenham Town - Torquay</t>
+          <t>Al-Adalah - Al Jubail</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F9" t="n">
-        <v>1.75</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>04-03-2025 14:30</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>INDONESIA</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>LIGA 1</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Persija - PSIS Semarang</t>
-        </is>
-      </c>
-      <c r="E10" t="n">
-        <v>77.8</v>
-      </c>
-      <c r="F10" t="n">
-        <v>1.83</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>04-03-2025 20:45</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>NORTHERN-IRELAND</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>PREMIERSHIP</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Loughgall - Glenavon FC</t>
-        </is>
-      </c>
-      <c r="E11" t="n">
-        <v>75.8</v>
-      </c>
-      <c r="F11" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
     </row>
   </sheetData>
@@ -1145,7 +1201,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1198,171 +1254,137 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>03-03-2025 14:30</t>
+          <t>04-03-2025 20:45</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>INDONESIA</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>LIGA 1</t>
+          <t>NATIONAL LEAGUE - SOUTH</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>PSS Sleman - Barito Putera</t>
+          <t>Worthing - Bath City</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>83.8</v>
+        <v>81.8</v>
       </c>
       <c r="F2" t="n">
-        <v>1.85</v>
+        <v>1.73</v>
       </c>
       <c r="G2" t="n">
-        <v>52.5</v>
+        <v>36.8</v>
       </c>
       <c r="H2" t="n">
-        <v>3.2</v>
+        <v>2.88</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>03-03-2025 20:00</t>
+          <t>04-03-2025 20:45</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SAUDI-ARABIA</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>DIVISION 1</t>
+          <t>NON LEAGUE PREMIER - ISTHMIAN</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Al Suqoor - Al Safa</t>
+          <t>Cray Valley PM - Hendon</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="F3" t="n">
-        <v>1.7</v>
+        <v>1.57</v>
       </c>
       <c r="G3" t="n">
-        <v>53.3</v>
+        <v>60</v>
       </c>
       <c r="H3" t="n">
-        <v>2.75</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>03-03-2025 14:00</t>
+          <t>04-03-2025 20:00</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>TURKEY</t>
+          <t>SAUDI-ARABIA</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>SÜPER LIG</t>
+          <t>DIVISION 1</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Konyaspor - Trabzonspor</t>
+          <t>Al-Adalah - Al Jubail</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>75</v>
+        <v>73.3</v>
       </c>
       <c r="F4" t="n">
         <v>1.85</v>
       </c>
       <c r="G4" t="n">
-        <v>60</v>
+        <v>66.7</v>
       </c>
       <c r="H4" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>04-03-2025 20:45</t>
+          <t>05-03-2025 20:45</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>SCOTLAND</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE - SOUTH</t>
+          <t>CHAMPIONSHIP</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Worthing - Bath City</t>
+          <t>Livingston - Raith Rovers</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>81.8</v>
+        <v>80</v>
       </c>
       <c r="F5" t="n">
-        <v>1.73</v>
+        <v>2</v>
       </c>
       <c r="G5" t="n">
-        <v>36.8</v>
+        <v>25</v>
       </c>
       <c r="H5" t="n">
-        <v>2.88</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>04-03-2025 20:45</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>ENGLAND</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>NON LEAGUE PREMIER - ISTHMIAN</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Cray Valley PM - Hendon</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>60</v>
-      </c>
-      <c r="F6" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="G6" t="n">
-        <v>60</v>
-      </c>
-      <c r="H6" t="n">
-        <v>2.4</v>
+        <v>3.4</v>
       </c>
     </row>
   </sheetData>
@@ -1376,7 +1398,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G44"/>
+  <dimension ref="A1:G48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1424,162 +1446,162 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>03-03-2025 20:00</t>
+          <t>04-03-2025 18:45</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>NETHERLANDS</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>EERSTE DIVISIE</t>
+          <t>UEFA CHAMPIONS LEAGUE</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Jong AZ - Telstar</t>
+          <t>Club Brugge KV - Aston Villa</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>53.3</v>
+        <v>66.7</v>
       </c>
       <c r="F2" t="n">
-        <v>2.9</v>
+        <v>2.75</v>
       </c>
       <c r="G2" t="n">
-        <v>0.55</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>03-03-2025 21:00</t>
+          <t>04-03-2025 20:45</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ARGENTINA</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>PRIMERA B METROPOLITANA</t>
+          <t>CHAMPIONSHIP</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Acassuso - Midland</t>
+          <t>Preston - Swansea</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>53.3</v>
+        <v>60</v>
       </c>
       <c r="F3" t="n">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="G3" t="n">
-        <v>0.6</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>03-03-2025 14:00</t>
+          <t>04-03-2025 20:45</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>BULGARIA</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>FIRST LEAGUE</t>
+          <t>LEAGUE ONE</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Slavia Sofia - Botev Plovdiv</t>
+          <t>Charlton - Barnsley</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>60</v>
+        <v>86.7</v>
       </c>
       <c r="F4" t="n">
-        <v>2.6</v>
+        <v>1.95</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.6899999999999999</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>04-03-2025 00:30</t>
+          <t>04-03-2025 20:45</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>CHILE</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>SEGUNDA DIVISIÓN</t>
+          <t>LEAGUE ONE</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Deportes Rengo - Provincial Ovalle</t>
+          <t>Northampton - Stockport County</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>66.7</v>
+        <v>53.3</v>
       </c>
       <c r="F5" t="n">
-        <v>2.45</v>
+        <v>5</v>
       </c>
       <c r="G5" t="n">
-        <v>0.63</v>
+        <v>1.66</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>03-03-2025 20:00</t>
+          <t>04-03-2025 20:45</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>EGYPT</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>PREMIER LEAGUE</t>
+          <t>LEAGUE ONE</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>National Bank Of Egypt - Haras El Hodood</t>
+          <t>Shrewsbury - Bristol Rovers</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>66.7</v>
+        <v>53.3</v>
       </c>
       <c r="F6" t="n">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>03-03-2025 14:00</t>
+          <t>04-03-2025 21:00</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1589,28 +1611,28 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>PREMIER LEAGUE 2 DIVISION ONE</t>
+          <t>LEAGUE ONE</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>West Bromwich Albion U21 - Sunderland U21</t>
+          <t>Reading - Exeter City</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>50</v>
+        <v>66.7</v>
       </c>
       <c r="F7" t="n">
-        <v>3</v>
+        <v>1.95</v>
       </c>
       <c r="G7" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>03-03-2025 20:00</t>
+          <t>04-03-2025 20:45</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1620,28 +1642,28 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>PREMIER LEAGUE 2 DIVISION ONE</t>
+          <t>LEAGUE TWO</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Crystal Palace U21 - Arsenal U21</t>
+          <t>Accrington ST - Milton Keynes Dons</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>66.7</v>
+        <v>53.3</v>
       </c>
       <c r="F8" t="n">
-        <v>2.2</v>
+        <v>2.45</v>
       </c>
       <c r="G8" t="n">
-        <v>0.47</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>03-03-2025 20:00</t>
+          <t>04-03-2025 20:45</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1651,865 +1673,865 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>PREMIER LEAGUE 2 DIVISION ONE</t>
+          <t>LEAGUE TWO</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Leeds United U21 - Brighton U21</t>
+          <t>Grimsby - Tranmere</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="F9" t="n">
-        <v>2.6</v>
+        <v>1.9</v>
       </c>
       <c r="G9" t="n">
-        <v>0.3</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>03-03-2025 14:30</t>
+          <t>04-03-2025 20:45</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>INDIA</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>I-LEAGUE</t>
+          <t>LEAGUE TWO</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Gokulam - Shillong Lajong</t>
+          <t>Newport County - Gillingham</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>73.3</v>
+        <v>60</v>
       </c>
       <c r="F10" t="n">
-        <v>1.73</v>
+        <v>3.5</v>
       </c>
       <c r="G10" t="n">
-        <v>0.27</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>03-03-2025 14:30</t>
+          <t>04-03-2025 20:45</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>INDONESIA</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>LIGA 1</t>
+          <t>LEAGUE TWO</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>PSS Sleman - Barito Putera</t>
+          <t>Port Vale - Harrogate Town</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>58.3</v>
+        <v>76.7</v>
       </c>
       <c r="F11" t="n">
-        <v>2.15</v>
+        <v>1.8</v>
       </c>
       <c r="G11" t="n">
-        <v>0.25</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>03-03-2025 20:45</t>
+          <t>04-03-2025 20:45</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>IRELAND</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>PREMIER DIVISION</t>
+          <t>NATIONAL LEAGUE</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>St Patrick's Athl. - Derry City</t>
+          <t>Aldershot Town - Dagenham &amp; Redbridge</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>53.3</v>
+        <v>60</v>
       </c>
       <c r="F12" t="n">
-        <v>2.63</v>
+        <v>1.95</v>
       </c>
       <c r="G12" t="n">
-        <v>0.4</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>03-03-2025 19:30</t>
+          <t>04-03-2025 20:45</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>ISRAEL</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>LIGAT HA'AL</t>
+          <t>NATIONAL LEAGUE</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Hapoel Beer Sheva - Maccabi Haifa</t>
+          <t>FC Halifax Town - Forest Green</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>53.3</v>
+        <v>50</v>
       </c>
       <c r="F13" t="n">
-        <v>2.15</v>
+        <v>3</v>
       </c>
       <c r="G13" t="n">
-        <v>0.15</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>03-03-2025 20:30</t>
+          <t>04-03-2025 23:00</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>ITALY</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>SERIE C - GIRONE A</t>
+          <t>CONMEBOL LIBERTADORES</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Renate - Atalanta II</t>
+          <t>Deportes Iquique - Alianza Lima</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>66.7</v>
+        <v>50</v>
       </c>
       <c r="F14" t="n">
-        <v>2.9</v>
+        <v>2.6</v>
       </c>
       <c r="G14" t="n">
-        <v>0.93</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>03-03-2025 19:00</t>
+          <t>04-03-2025 19:30</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>POLAND</t>
+          <t>BAHRAIN</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>I LIGA</t>
+          <t>PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Ruch Chorzów - Nieciecza</t>
+          <t>Bahrain SC - Al Ahli</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>60</v>
+        <v>53.3</v>
       </c>
       <c r="F15" t="n">
-        <v>2.7</v>
+        <v>4.33</v>
       </c>
       <c r="G15" t="n">
-        <v>0.62</v>
+        <v>1.31</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>03-03-2025 20:00</t>
+          <t>04-03-2025 19:00</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>SAUDI-ARABIA</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>DIVISION 1</t>
+          <t>PAULISTA - A3</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Al-Ain - Al Jandal</t>
+          <t>Rio Branco SP - USAC</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F16" t="n">
-        <v>2.7</v>
+        <v>1.75</v>
       </c>
       <c r="G16" t="n">
-        <v>0.62</v>
+        <v>-0.12</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>03-03-2025 14:00</t>
+          <t>04-03-2025 20:30</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>SERBIA</t>
+          <t>EGYPT</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>SUPER LIGA</t>
+          <t>PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Jedinstvo Ub - TSC Backa Topola</t>
+          <t>Masr - Ismaily SC</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>50</v>
+        <v>56.7</v>
       </c>
       <c r="F17" t="n">
-        <v>4.75</v>
+        <v>1.91</v>
       </c>
       <c r="G17" t="n">
-        <v>1.38</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>03-03-2025 20:00</t>
+          <t>11-01-2025 16:00</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>SERBIA</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>SUPER LIGA</t>
+          <t>NATIONAL LEAGUE - NORTH</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Cukaricki - Radnicki 1923</t>
+          <t>Southport - Leamington</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>60</v>
+        <v>75.7</v>
       </c>
       <c r="F18" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="G18" t="n">
-        <v>0.29</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>03-03-2025 16:30</t>
+          <t>28-01-2025 20:45</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>SERBIA</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>SUPER LIGA</t>
+          <t>NATIONAL LEAGUE - SOUTH</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Novi Pazar - Napredak</t>
+          <t>Farnborough - AFC Hornchurch</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>53.3</v>
+        <v>50</v>
       </c>
       <c r="F19" t="n">
-        <v>2.2</v>
+        <v>1.85</v>
       </c>
       <c r="G19" t="n">
-        <v>0.17</v>
+        <v>-0.07000000000000001</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>03-03-2025 18:30</t>
+          <t>04-03-2025 20:45</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>SERBIA</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>SUPER LIGA</t>
+          <t>NON LEAGUE PREMIER - SOUTHERN CENTRAL</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Mladost Lucani - Železničar Pančevo</t>
+          <t>Stamford - Redditch United</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>53.3</v>
+        <v>50</v>
       </c>
       <c r="F20" t="n">
-        <v>2.5</v>
+        <v>2.05</v>
       </c>
       <c r="G20" t="n">
-        <v>0.33</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>03-03-2025 20:30</t>
+          <t>04-03-2025 20:45</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>SPAIN</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>SEGUNDA DIVISIÓN</t>
+          <t>NON LEAGUE PREMIER - SOUTHERN SOUTH</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Mirandes - Tenerife</t>
+          <t>Swindon Supermarine - Walton &amp; Hersham</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>66.7</v>
+        <v>60</v>
       </c>
       <c r="F21" t="n">
-        <v>1.9</v>
+        <v>2.88</v>
       </c>
       <c r="G21" t="n">
-        <v>0.27</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>03-03-2025 18:30</t>
+          <t>04-03-2025 15:00</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>TURKEY</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>1. LIG</t>
+          <t>PROFESSIONAL DEVELOPMENT LEAGUE</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Kocaelispor - İstanbulspor</t>
+          <t>Cardiff City U21 - Millwall U21</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="F22" t="n">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="G22" t="n">
-        <v>0.44</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>03-03-2025 18:30</t>
+          <t>04-03-2025 13:30</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>TURKEY</t>
+          <t>INDONESIA</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>SÜPER LIG</t>
+          <t>LIGA 1</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Goztepe - Samsunspor</t>
+          <t>Malut United - Arema FC</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>66.7</v>
+        <v>70</v>
       </c>
       <c r="F23" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="G23" t="n">
-        <v>0.35</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>03-03-2025 14:00</t>
+          <t>04-03-2025 16:00</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>TURKEY</t>
+          <t>PORTUGAL</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>SÜPER LIG</t>
+          <t>LIGA REVELAÇÃO U23</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Gazişehir Gaziantep - Eyüpspor</t>
+          <t>Vizela U23 - Estrela U23</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>60</v>
+        <v>51.3</v>
       </c>
       <c r="F24" t="n">
-        <v>2.36</v>
+        <v>2.15</v>
       </c>
       <c r="G24" t="n">
-        <v>0.42</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>04-03-2025 18:45</t>
+          <t>04-03-2025 16:00</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>PORTUGAL</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>UEFA CHAMPIONS LEAGUE</t>
+          <t>LIGA REVELAÇÃO U23</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Club Brugge KV - Aston Villa</t>
+          <t>Academico Viseu U23 - Portimonense U23</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>66.7</v>
+        <v>73.3</v>
       </c>
       <c r="F25" t="n">
-        <v>2.75</v>
+        <v>1.77</v>
       </c>
       <c r="G25" t="n">
-        <v>0.83</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>04-03-2025 20:45</t>
+          <t>04-03-2025 12:00</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>PORTUGAL</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>CHAMPIONSHIP</t>
+          <t>LIGA REVELAÇÃO U23</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Preston - Swansea</t>
+          <t>Rio Ave U23 - Farense U23</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>60</v>
+        <v>53.3</v>
       </c>
       <c r="F26" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="G26" t="n">
-        <v>0.35</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>04-03-2025 20:45</t>
+          <t>04-03-2025 20:00</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>SAUDI-ARABIA</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>LEAGUE ONE</t>
+          <t>DIVISION 1</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Charlton - Barnsley</t>
+          <t>Al Jabalain - Jeddah Club</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>86.7</v>
+        <v>60</v>
       </c>
       <c r="F27" t="n">
-        <v>1.95</v>
+        <v>1.83</v>
       </c>
       <c r="G27" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>04-03-2025 20:45</t>
+          <t>04-03-2025 18:30</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>SOUTH-AFRICA</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>LEAGUE ONE</t>
+          <t>PREMIER SOCCER LEAGUE</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Northampton - Stockport County</t>
+          <t>Marumo Gallants - Stellenbosch</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>53.3</v>
+        <v>58.3</v>
       </c>
       <c r="F28" t="n">
-        <v>5</v>
+        <v>4.25</v>
       </c>
       <c r="G28" t="n">
-        <v>1.66</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>04-03-2025 20:45</t>
+          <t>04-03-2025 17:00</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>LEAGUE ONE</t>
+          <t>AFC CUP</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Shrewsbury - Bristol Rovers</t>
+          <t>Tractor Sazi - Al Taawon</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>53.3</v>
+        <v>50</v>
       </c>
       <c r="F29" t="n">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04</v>
+        <v>-0.1</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>04-03-2025 21:00</t>
+          <t>05-03-2025 00:30</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>LEAGUE ONE</t>
+          <t>CONCACAF CHAMPIONS LEAGUE</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Reading - Exeter City</t>
+          <t>FC Cincinnati - Tigres UANL</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>66.7</v>
+        <v>60</v>
       </c>
       <c r="F30" t="n">
-        <v>1.95</v>
+        <v>2.52</v>
       </c>
       <c r="G30" t="n">
-        <v>0.3</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>04-03-2025 20:45</t>
+          <t>04-03-2025 14:00</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>LEAGUE TWO</t>
+          <t>UEFA YOUTH LEAGUE</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Accrington ST - Milton Keynes Dons</t>
+          <t>Salzburg U19 - Atlético Madrid U19</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>53.3</v>
+        <v>50</v>
       </c>
       <c r="F31" t="n">
-        <v>2.45</v>
+        <v>2.55</v>
       </c>
       <c r="G31" t="n">
-        <v>0.31</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>04-03-2025 20:45</t>
+          <t>05-03-2025 18:45</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>LEAGUE TWO</t>
+          <t>UEFA CHAMPIONS LEAGUE</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Grimsby - Tranmere</t>
+          <t>Feyenoord - Inter</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="F32" t="n">
-        <v>1.9</v>
+        <v>5.25</v>
       </c>
       <c r="G32" t="n">
-        <v>0.33</v>
+        <v>2.15</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>04-03-2025 20:45</t>
+          <t>05-03-2025 21:00</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>LEAGUE TWO</t>
+          <t>UEFA CHAMPIONS LEAGUE</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Newport County - Gillingham</t>
+          <t>Paris Saint Germain - Liverpool</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>60</v>
+        <v>66.7</v>
       </c>
       <c r="F33" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="G33" t="n">
-        <v>1.1</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>04-03-2025 20:45</t>
+          <t>05-03-2025 20:45</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>SCOTLAND</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>LEAGUE TWO</t>
+          <t>CHAMPIONSHIP</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Port Vale - Harrogate Town</t>
+          <t>Livingston - Raith Rovers</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>76.7</v>
+        <v>73.3</v>
       </c>
       <c r="F34" t="n">
         <v>1.8</v>
       </c>
       <c r="G34" t="n">
-        <v>0.38</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>04-03-2025 20:45</t>
+          <t>05-03-2025 23:00</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE</t>
+          <t>CONMEBOL LIBERTADORES</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Aldershot Town - Dagenham &amp; Redbridge</t>
+          <t>FBC Melgar - Cerro Porteno</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="F35" t="n">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="G35" t="n">
-        <v>0.17</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>04-03-2025 20:45</t>
+          <t>05-03-2025 23:00</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE</t>
+          <t>CONMEBOL SUDAMERICANA</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>FC Halifax Town - Forest Green</t>
+          <t>Union Espanola - Everton De Vina</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>50</v>
+        <v>53.3</v>
       </c>
       <c r="F36" t="n">
-        <v>3</v>
+        <v>2.35</v>
       </c>
       <c r="G36" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>04-03-2025 23:00</t>
+          <t>05-03-2025 23:00</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -2519,59 +2541,59 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>CONMEBOL LIBERTADORES</t>
+          <t>CONMEBOL SUDAMERICANA</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Deportes Iquique - Alianza Lima</t>
+          <t>Aurora - Gualberto Villarroel SJ</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>50</v>
+        <v>73.3</v>
       </c>
       <c r="F37" t="n">
-        <v>2.6</v>
+        <v>1.73</v>
       </c>
       <c r="G37" t="n">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>04-03-2025 02:00</t>
+          <t>05-03-2025 17:00</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>COSTA-RICA</t>
+          <t>CROATIA</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>PRIMERA DIVISIÓN</t>
+          <t>CUP</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Sporting San Jose - AD Guanacasteca</t>
+          <t>NK Slaven Belupo - HNK Gorica</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>53.3</v>
+        <v>60</v>
       </c>
       <c r="F38" t="n">
-        <v>1.91</v>
+        <v>1.76</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>04-03-2025 20:30</t>
+          <t>05-03-2025 20:00</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -2586,45 +2608,45 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Masr - Ismaily SC</t>
+          <t>Petrojet - Ghazl El Mehalla</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>56.7</v>
+        <v>50</v>
       </c>
       <c r="F39" t="n">
-        <v>1.91</v>
+        <v>2.2</v>
       </c>
       <c r="G39" t="n">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>11-01-2025 16:00</t>
+          <t>05-03-2025 19:00</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>GERMANY</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE - NORTH</t>
+          <t>REGIONALLIGA - NORD</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Southport - Leamington</t>
+          <t>SSV Jeddeloh - Weiche Flensburg</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>75.7</v>
+        <v>56.7</v>
       </c>
       <c r="F40" t="n">
-        <v>2.1</v>
+        <v>2.8</v>
       </c>
       <c r="G40" t="n">
         <v>0.59</v>
@@ -2633,125 +2655,249 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>28-01-2025 20:45</t>
+          <t>05-03-2025 19:00</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>GERMANY</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE - SOUTH</t>
+          <t>REGIONALLIGA - WEST</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Farnborough - AFC Hornchurch</t>
+          <t>FC Gutersloh - Sportfreunde Lotte</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>50</v>
+        <v>66.7</v>
       </c>
       <c r="F41" t="n">
-        <v>1.85</v>
+        <v>3.75</v>
       </c>
       <c r="G41" t="n">
-        <v>-0.07000000000000001</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>04-03-2025 20:45</t>
+          <t>05-03-2025 15:00</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>INDIA</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>NON LEAGUE PREMIER - SOUTHERN CENTRAL</t>
+          <t>INDIAN SUPER LEAGUE</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Stamford - Redditch United</t>
+          <t>Jamshedpur - Odisha</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>50</v>
+        <v>53.3</v>
       </c>
       <c r="F42" t="n">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="G42" t="n">
-        <v>0.02</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>04-03-2025 20:45</t>
+          <t>05-03-2025 18:30</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>SOUTH-AFRICA</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>NON LEAGUE PREMIER - SOUTHERN SOUTH</t>
+          <t>PREMIER SOCCER LEAGUE</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Swindon Supermarine - Walton &amp; Hersham</t>
+          <t>Cape Town City - TS Galaxy</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>60</v>
+        <v>58.3</v>
       </c>
       <c r="F43" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="G43" t="n">
-        <v>0.73</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>04-03-2025 13:30</t>
+          <t>05-03-2025 14:00</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>INDONESIA</t>
+          <t>TURKEY</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>LIGA 1</t>
+          <t>1. LIG</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Malut United - Arema FC</t>
+          <t>Yeni Çorumspor - Boluspor</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>70</v>
+        <v>73.3</v>
       </c>
       <c r="F44" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4</v>
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>05-03-2025 18:30</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>TURKEY</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>1. LIG</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Fatih Karagümrük - Bandırmaspor</t>
+        </is>
+      </c>
+      <c r="E45" t="n">
+        <v>80</v>
+      </c>
+      <c r="F45" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>05-03-2025 14:00</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>TURKEY</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>1. LIG</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Şanlıurfaspor - Adanaspor</t>
+        </is>
+      </c>
+      <c r="E46" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="F46" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>05-03-2025 13:00</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>WORLD</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>AFC CHAMPIONS LEAGUE</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Shanghai Shenhua - Kawasaki Frontale</t>
+        </is>
+      </c>
+      <c r="E47" t="n">
+        <v>53.3</v>
+      </c>
+      <c r="F47" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>05-03-2025 04:30</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>WORLD</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>CONCACAF CHAMPIONS LEAGUE</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Los Angeles FC - Columbus Crew</t>
+        </is>
+      </c>
+      <c r="E48" t="n">
+        <v>56.7</v>
+      </c>
+      <c r="F48" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.05</v>
       </c>
     </row>
   </sheetData>
@@ -2765,7 +2911,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2813,38 +2959,38 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>03-03-2025 20:00</t>
+          <t>04-03-2025 20:45</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>GOIANO - 1</t>
+          <t>LEAGUE ONE</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Jataiense - Vila Nova</t>
+          <t>Cambridge United - Stevenage</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>60</v>
+        <v>53.3</v>
       </c>
       <c r="F2" t="n">
-        <v>1.91</v>
+        <v>2.5</v>
       </c>
       <c r="G2" t="n">
-        <v>0.15</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>03-03-2025 14:00</t>
+          <t>04-03-2025 20:45</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -2854,115 +3000,115 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>PROFESSIONAL DEVELOPMENT LEAGUE</t>
+          <t>LEAGUE ONE</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Crewe Alexandra U21 - Fleetwood Town U21</t>
+          <t>Huddersfield - Wrexham</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="F3" t="n">
-        <v>1.8</v>
+        <v>3.5</v>
       </c>
       <c r="G3" t="n">
-        <v>0.08</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>03-03-2025 20:45</t>
+          <t>04-03-2025 20:45</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>IRELAND</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>PREMIER DIVISION</t>
+          <t>LEAGUE ONE</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Waterford - Cork City</t>
+          <t>Mansfield Town - Wigan</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>53.3</v>
+        <v>80</v>
       </c>
       <c r="F4" t="n">
         <v>3.5</v>
       </c>
       <c r="G4" t="n">
-        <v>0.87</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>03-03-2025 20:30</t>
+          <t>04-03-2025 20:45</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ITALY</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>SERIE C - GIRONE C</t>
+          <t>LEAGUE ONE</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Cavese - Casertana</t>
+          <t>Rotherham - Leyton Orient</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>55.7</v>
+        <v>50</v>
       </c>
       <c r="F5" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="G5" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>03-03-2025 13:30</t>
+          <t>04-03-2025 20:45</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>SINGAPORE</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>CUP</t>
+          <t>LEAGUE TWO</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>DPMM FC - Albirex Niigata S</t>
+          <t>Bromley - Doncaster</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="F6" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="G6" t="n">
-        <v>0.35</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="7">
@@ -2978,22 +3124,22 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>LEAGUE ONE</t>
+          <t>NATIONAL LEAGUE</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Cambridge United - Stevenage</t>
+          <t>Maidenhead - Braintree</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>53.3</v>
+        <v>66.7</v>
       </c>
       <c r="F7" t="n">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="G7" t="n">
-        <v>0.33</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="8">
@@ -3009,22 +3155,22 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>LEAGUE ONE</t>
+          <t>NATIONAL LEAGUE</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Huddersfield - Wrexham</t>
+          <t>Tamworth - Wealdstone</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="F8" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="G8" t="n">
-        <v>1.45</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="9">
@@ -3040,22 +3186,22 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>LEAGUE ONE</t>
+          <t>NATIONAL LEAGUE</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Mansfield Town - Wigan</t>
+          <t>York - Altrincham</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>80</v>
+        <v>53.3</v>
       </c>
       <c r="F9" t="n">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="G9" t="n">
-        <v>1.8</v>
+        <v>1.53</v>
       </c>
     </row>
     <row r="10">
@@ -3066,95 +3212,95 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>SCOTLAND</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>LEAGUE ONE</t>
+          <t>CHAMPIONSHIP</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Rotherham - Leyton Orient</t>
+          <t>Queen's Park - Ayr Utd</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="F10" t="n">
-        <v>3</v>
+        <v>1.91</v>
       </c>
       <c r="G10" t="n">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>04-03-2025 20:45</t>
+          <t>04-03-2025 14:30</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>AZERBAIJAN</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>LEAGUE TWO</t>
+          <t>PREMYER LIQA</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Bromley - Doncaster</t>
+          <t>Turan - Zira</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>70</v>
+        <v>53.3</v>
       </c>
       <c r="F11" t="n">
         <v>2.2</v>
       </c>
       <c r="G11" t="n">
-        <v>0.54</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>04-03-2025 20:45</t>
+          <t>04-03-2025 20:30</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>EGYPT</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE</t>
+          <t>PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Maidenhead - Braintree</t>
+          <t>Al Ittihad - Smouha SC</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>66.7</v>
+        <v>53.3</v>
       </c>
       <c r="F12" t="n">
         <v>2.7</v>
       </c>
       <c r="G12" t="n">
-        <v>0.8</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>04-03-2025 20:45</t>
+          <t>11-01-2025 16:00</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -3164,22 +3310,22 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE</t>
+          <t>NATIONAL LEAGUE - NORTH</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Tamworth - Wealdstone</t>
+          <t>Radcliffe - South Shields</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>50</v>
+        <v>53.3</v>
       </c>
       <c r="F13" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="G13" t="n">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="14">
@@ -3195,239 +3341,332 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE</t>
+          <t>NON LEAGUE PREMIER - ISTHMIAN</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>York - Altrincham</t>
+          <t>Chatham Town - Hastings United</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>53.3</v>
+        <v>60</v>
       </c>
       <c r="F14" t="n">
-        <v>4.75</v>
+        <v>6.5</v>
       </c>
       <c r="G14" t="n">
-        <v>1.53</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>04-03-2025 20:45</t>
+          <t>04-03-2025 14:00</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>SCOTLAND</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>CHAMPIONSHIP</t>
+          <t>PROFESSIONAL DEVELOPMENT LEAGUE</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Queen's Park - Ayr Utd</t>
+          <t>Wigan Athletic U21 - Hull City U21</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F15" t="n">
-        <v>1.91</v>
+        <v>2.63</v>
       </c>
       <c r="G15" t="n">
-        <v>0.15</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>04-03-2025 14:30</t>
+          <t>26-02-2025 17:00</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>AZERBAIJAN</t>
+          <t>MALI</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>PREMYER LIQA</t>
+          <t>PREMIÈRE DIVISION</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Turan - Zira</t>
+          <t>US Bougouba - Stade Malien Bamako</t>
         </is>
       </c>
       <c r="E16" t="n">
         <v>53.3</v>
       </c>
       <c r="F16" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="G16" t="n">
-        <v>0.17</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>04-03-2025 20:30</t>
+          <t>04-03-2025 20:45</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>EGYPT</t>
+          <t>NORTHERN-IRELAND</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>PREMIER LEAGUE</t>
+          <t>PREMIERSHIP</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Al Ittihad - Smouha SC</t>
+          <t>Carrick Rangers - Larne</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>53.3</v>
+        <v>66.7</v>
       </c>
       <c r="F17" t="n">
-        <v>2.7</v>
+        <v>2</v>
       </c>
       <c r="G17" t="n">
-        <v>0.44</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>11-01-2025 16:00</t>
+          <t>04-03-2025 12:00</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>PORTUGAL</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE - NORTH</t>
+          <t>LIGA REVELAÇÃO U23</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Radcliffe - South Shields</t>
+          <t>Leixões U23 - Santa Clara U23</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>53.3</v>
+        <v>60</v>
       </c>
       <c r="F18" t="n">
-        <v>2.5</v>
+        <v>3.1</v>
       </c>
       <c r="G18" t="n">
-        <v>0.33</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>04-03-2025 20:45</t>
+          <t>04-03-2025 16:00</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>PORTUGAL</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>NON LEAGUE PREMIER - ISTHMIAN</t>
+          <t>LIGA REVELAÇÃO U23</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Chatham Town - Hastings United</t>
+          <t>Mafra U23 - Sporting Braga U23</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>60</v>
+        <v>53.3</v>
       </c>
       <c r="F19" t="n">
-        <v>6.5</v>
+        <v>1.85</v>
       </c>
       <c r="G19" t="n">
-        <v>2.9</v>
+        <v>-0.01</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>26-02-2025 17:00</t>
+          <t>04-03-2025 15:00</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>MALI</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>PREMIÈRE DIVISION</t>
+          <t>AFC CHAMPIONS LEAGUE</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>US Bougouba - Stade Malien Bamako</t>
+          <t>Buriram United - Johor Darul Takzim FC</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>53.3</v>
+        <v>60</v>
       </c>
       <c r="F20" t="n">
-        <v>2.15</v>
+        <v>2.55</v>
       </c>
       <c r="G20" t="n">
-        <v>0.15</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>04-03-2025 20:45</t>
+          <t>05-03-2025 21:00</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>NORTHERN-IRELAND</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>PREMIERSHIP</t>
+          <t>UEFA CHAMPIONS LEAGUE</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Carrick Rangers - Larne</t>
+          <t>Benfica - Barcelona</t>
         </is>
       </c>
       <c r="E21" t="n">
+        <v>50</v>
+      </c>
+      <c r="F21" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="G21" t="n">
+        <v>-0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>05-03-2025 01:30</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>WORLD</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>CONMEBOL SUDAMERICANA</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>U. Catolica - Palestino</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>53.3</v>
+      </c>
+      <c r="F22" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>16-02-2025 13:00</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>SLOVENIA</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>1. SNL</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Primorje - Koper</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
         <v>66.7</v>
       </c>
-      <c r="F21" t="n">
-        <v>2</v>
-      </c>
-      <c r="G21" t="n">
-        <v>0.33</v>
+      <c r="F23" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>05-03-2025 11:00</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>WORLD</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>AFC CUP</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Sanfrecce Hiroshima - Home United</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>50</v>
+      </c>
+      <c r="F24" t="n">
+        <v>17</v>
+      </c>
+      <c r="G24" t="n">
+        <v>7.5</v>
       </c>
     </row>
   </sheetData>
@@ -3441,7 +3680,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3489,249 +3728,187 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>03-03-2025 20:00</t>
+          <t>04-03-2025 20:45</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>GOIANO - 1</t>
+          <t>NATIONAL LEAGUE</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Jataiense - Vila Nova</t>
+          <t>York - Altrincham</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="F2" t="n">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="G2" t="n">
-        <v>0.65</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>03-03-2025 14:30</t>
+          <t>04-03-2025 20:45</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>INDONESIA</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>LIGA 1</t>
+          <t>NATIONAL LEAGUE - SOUTH</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>PSS Sleman - Barito Putera</t>
+          <t>Worthing - Bath City</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>83.8</v>
+        <v>81.8</v>
       </c>
       <c r="F3" t="n">
-        <v>1.85</v>
+        <v>1.73</v>
       </c>
       <c r="G3" t="n">
-        <v>0.55</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>03-03-2025 20:00</t>
+          <t>04-03-2025 20:45</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SAUDI-ARABIA</t>
+          <t>NORTHERN-IRELAND</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>DIVISION 1</t>
+          <t>PREMIERSHIP</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Al Suqoor - Al Safa</t>
+          <t>Loughgall - Glenavon FC</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="F4" t="n">
-        <v>1.7</v>
+        <v>1.95</v>
       </c>
       <c r="G4" t="n">
-        <v>0.36</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>03-03-2025 14:00</t>
+          <t>04-03-2025 20:00</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>TURKEY</t>
+          <t>SAUDI-ARABIA</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>SÜPER LIG</t>
+          <t>DIVISION 1</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Konyaspor - Trabzonspor</t>
+          <t>Al-Adalah - Al Jubail</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>75</v>
+        <v>73.3</v>
       </c>
       <c r="F5" t="n">
         <v>1.85</v>
       </c>
       <c r="G5" t="n">
-        <v>0.39</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>04-03-2025 20:45</t>
+          <t>05-03-2025 20:45</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>SCOTLAND</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE</t>
+          <t>CHAMPIONSHIP</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>York - Altrincham</t>
+          <t>Livingston - Raith Rovers</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F6" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="G6" t="n">
-        <v>0.26</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>04-03-2025 01:00</t>
+          <t>05-03-2025 20:30</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ECUADOR</t>
+          <t>EGYPT</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>LIGA PRO</t>
+          <t>PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Manta FC - Delfin SC</t>
+          <t>Pyramids FC - Ceramica Cleopatra</t>
         </is>
       </c>
       <c r="E7" t="n">
         <v>70</v>
       </c>
       <c r="F7" t="n">
-        <v>2.25</v>
+        <v>2.05</v>
       </c>
       <c r="G7" t="n">
-        <v>0.57</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>04-03-2025 20:45</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>ENGLAND</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>NATIONAL LEAGUE - SOUTH</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Worthing - Bath City</t>
-        </is>
-      </c>
-      <c r="E8" t="n">
-        <v>81.8</v>
-      </c>
-      <c r="F8" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0.42</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>04-03-2025 20:45</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>NORTHERN-IRELAND</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>PREMIERSHIP</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Loughgall - Glenavon FC</t>
-        </is>
-      </c>
-      <c r="E9" t="n">
-        <v>75</v>
-      </c>
-      <c r="F9" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
     </row>
   </sheetData>
@@ -3745,7 +3922,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G34"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3793,379 +3970,379 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>03-03-2025 21:00</t>
+          <t>04-03-2025 21:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SPAIN</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>LA LIGA</t>
+          <t>UEFA CHAMPIONS LEAGUE</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Villarreal - Espanyol</t>
+          <t>Real Madrid - Atletico Madrid</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>76.7</v>
+        <v>80</v>
       </c>
       <c r="F2" t="n">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="G2" t="n">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>03-03-2025 21:15</t>
+          <t>04-03-2025 20:45</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>PORTUGAL</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>PRIMEIRA LIGA</t>
+          <t>CHAMPIONSHIP</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Sporting CP - Estoril</t>
+          <t>Hull City - Plymouth</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>73.3</v>
+        <v>75</v>
       </c>
       <c r="F3" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="G3" t="n">
-        <v>0.47</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>03-03-2025 21:00</t>
+          <t>04-03-2025 20:45</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ARGENTINA</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>PRIMERA B METROPOLITANA</t>
+          <t>CHAMPIONSHIP</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Acassuso - Midland</t>
+          <t>Millwall - Bristol City</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>70</v>
+        <v>66.7</v>
       </c>
       <c r="F4" t="n">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="G4" t="n">
-        <v>0.57</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>04-03-2025 00:00</t>
+          <t>04-03-2025 20:45</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>PAULISTA - A1</t>
+          <t>LEAGUE ONE</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Sao Paulo - Novorizontino</t>
+          <t>Northampton - Stockport County</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>83.3</v>
+        <v>70</v>
       </c>
       <c r="F5" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="G5" t="n">
-        <v>0.71</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>03-03-2025 11:30</t>
+          <t>04-03-2025 20:45</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>BULGARIA</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>FIRST LEAGUE</t>
+          <t>LEAGUE ONE</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Arda Kardzhali - CSKA 1948</t>
+          <t>Rotherham - Leyton Orient</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>66.7</v>
+        <v>72</v>
       </c>
       <c r="F6" t="n">
-        <v>1.83</v>
+        <v>1.95</v>
       </c>
       <c r="G6" t="n">
-        <v>0.22</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>03-03-2025 20:45</t>
+          <t>04-03-2025 20:45</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>IRELAND</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>PREMIER DIVISION</t>
+          <t>LEAGUE ONE</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Waterford - Cork City</t>
+          <t>Shrewsbury - Bristol Rovers</t>
         </is>
       </c>
       <c r="E7" t="n">
         <v>66.7</v>
       </c>
       <c r="F7" t="n">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="G7" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>03-03-2025 19:00</t>
+          <t>04-03-2025 20:45</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>POLAND</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>EKSTRAKLASA</t>
+          <t>LEAGUE TWO</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Raków Częstochowa - Lechia Gdansk</t>
+          <t>Colchester - Chesterfield</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>67.5</v>
+        <v>76.7</v>
       </c>
       <c r="F8" t="n">
-        <v>2.05</v>
+        <v>1.83</v>
       </c>
       <c r="G8" t="n">
-        <v>0.38</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>03-03-2025 19:00</t>
+          <t>04-03-2025 20:45</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>PORTUGAL</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>SEGUNDA LIGA</t>
+          <t>LEAGUE TWO</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Pacos Ferreira - Oliveirense</t>
+          <t>Crewe - Fleetwood Town</t>
         </is>
       </c>
       <c r="E9" t="n">
         <v>66.7</v>
       </c>
       <c r="F9" t="n">
-        <v>1.75</v>
+        <v>1.91</v>
       </c>
       <c r="G9" t="n">
-        <v>0.17</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>03-03-2025 20:00</t>
+          <t>04-03-2025 20:45</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>SAUDI-ARABIA</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>DIVISION 1</t>
+          <t>LEAGUE TWO</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Al Suqoor - Al Safa</t>
+          <t>Grimsby - Tranmere</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>80</v>
+        <v>79.2</v>
       </c>
       <c r="F10" t="n">
-        <v>2.25</v>
+        <v>1.83</v>
       </c>
       <c r="G10" t="n">
-        <v>0.8</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>03-03-2025 16:30</t>
+          <t>04-03-2025 20:45</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>SERBIA</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>SUPER LIGA</t>
+          <t>LEAGUE TWO</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Novi Pazar - Napredak</t>
+          <t>Swindon Town - Salford City</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>73.3</v>
+        <v>67.8</v>
       </c>
       <c r="F11" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="G11" t="n">
-        <v>0.27</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>03-03-2025 20:30</t>
+          <t>04-03-2025 20:45</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>SPAIN</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>SEGUNDA DIVISIÓN</t>
+          <t>NATIONAL LEAGUE</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Mirandes - Tenerife</t>
+          <t>Barnet - Yeovil Town</t>
         </is>
       </c>
       <c r="E12" t="n">
         <v>66.7</v>
       </c>
       <c r="F12" t="n">
-        <v>2.25</v>
+        <v>2.05</v>
       </c>
       <c r="G12" t="n">
-        <v>0.5</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>03-03-2025 14:00</t>
+          <t>04-03-2025 20:45</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>TUNISIA</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>LIGUE 1</t>
+          <t>NATIONAL LEAGUE</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Jeunesse Sportive Omrane - Stade Tunisien</t>
+          <t>Boston United - Oldham</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="F13" t="n">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
       <c r="G13" t="n">
-        <v>0.7</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>03-03-2025 23:00</t>
+          <t>04-03-2025 23:00</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -4175,50 +4352,50 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>CONMEBOL LIBERTADORES U20</t>
+          <t>CONMEBOL LIBERTADORES</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Independiente U20 - Cerro Porteño U20</t>
+          <t>Deportes Iquique - Alianza Lima</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F14" t="n">
-        <v>1.75</v>
+        <v>1.93</v>
       </c>
       <c r="G14" t="n">
-        <v>0.14</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>04-03-2025 21:00</t>
+          <t>04-03-2025 19:00</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>UEFA CHAMPIONS LEAGUE</t>
+          <t>PAULISTA - A3</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Real Madrid - Atletico Madrid</t>
+          <t>Rio Branco SP - USAC</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="F15" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="G15" t="n">
         <v>0.44</v>
@@ -4227,69 +4404,69 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>04-03-2025 20:45</t>
+          <t>02-02-2025 22:00</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>CHILE</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>CHAMPIONSHIP</t>
+          <t>COPA CHILE</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Hull City - Plymouth</t>
+          <t>Santiago Morning - Recoleta</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>75</v>
+        <v>65.8</v>
       </c>
       <c r="F16" t="n">
-        <v>1.91</v>
+        <v>1.73</v>
       </c>
       <c r="G16" t="n">
-        <v>0.43</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>04-03-2025 20:45</t>
+          <t>04-03-2025 18:00</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>CZECH-REPUBLIC</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>CHAMPIONSHIP</t>
+          <t>CUP</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Millwall - Bristol City</t>
+          <t>Sigma Olomouc - Hanácká</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>66.7</v>
+        <v>68</v>
       </c>
       <c r="F17" t="n">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="G17" t="n">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>04-03-2025 20:45</t>
+          <t>28-01-2025 20:45</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -4299,19 +4476,19 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>LEAGUE ONE</t>
+          <t>NATIONAL LEAGUE - SOUTH</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Northampton - Stockport County</t>
+          <t>Chippenham Town - Torquay</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F18" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="G18" t="n">
         <v>0.4</v>
@@ -4330,53 +4507,53 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>LEAGUE ONE</t>
+          <t>NATIONAL LEAGUE - SOUTH</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Rotherham - Leyton Orient</t>
+          <t>Truro City - Boreham Wood</t>
         </is>
       </c>
       <c r="E19" t="n">
         <v>72</v>
       </c>
       <c r="F19" t="n">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="G19" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>04-03-2025 20:45</t>
+          <t>04-03-2025 14:30</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>INDONESIA</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>LEAGUE ONE</t>
+          <t>LIGA 1</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Shrewsbury - Bristol Rovers</t>
+          <t>Persija - PSIS Semarang</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>66.7</v>
+        <v>77.8</v>
       </c>
       <c r="F20" t="n">
-        <v>1.95</v>
+        <v>1.83</v>
       </c>
       <c r="G20" t="n">
-        <v>0.3</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="21">
@@ -4387,430 +4564,213 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>NORTHERN-IRELAND</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>LEAGUE TWO</t>
+          <t>PREMIERSHIP</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Colchester - Chesterfield</t>
+          <t>Loughgall - Glenavon FC</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>76.7</v>
+        <v>75.8</v>
       </c>
       <c r="F21" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="G21" t="n">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>04-03-2025 20:45</t>
+          <t>04-03-2025 16:00</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>PORTUGAL</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>LEAGUE TWO</t>
+          <t>LIGA REVELAÇÃO U23</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Crewe - Fleetwood Town</t>
+          <t>Vizela U23 - Estrela U23</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>66.7</v>
+        <v>70</v>
       </c>
       <c r="F22" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="G22" t="n">
-        <v>0.27</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>04-03-2025 20:45</t>
+          <t>04-03-2025 20:00</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>SAUDI-ARABIA</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>LEAGUE TWO</t>
+          <t>DIVISION 1</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Grimsby - Tranmere</t>
+          <t>Al-Adalah - Al Jubail</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>79.2</v>
+        <v>76</v>
       </c>
       <c r="F23" t="n">
-        <v>1.83</v>
+        <v>1.9</v>
       </c>
       <c r="G23" t="n">
-        <v>0.45</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>04-03-2025 20:45</t>
+          <t>04-03-2025 20:00</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>SAUDI-ARABIA</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>LEAGUE TWO</t>
+          <t>DIVISION 1</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Swindon Town - Salford City</t>
+          <t>Abha - Al-Hazm</t>
         </is>
       </c>
       <c r="E24" t="n">
         <v>67.8</v>
       </c>
       <c r="F24" t="n">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="G24" t="n">
-        <v>0.24</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>04-03-2025 20:45</t>
+          <t>05-03-2025 18:30</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>SOUTH-AFRICA</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE</t>
+          <t>PREMIER SOCCER LEAGUE</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Barnet - Yeovil Town</t>
+          <t>Golden Arrows - Mamelodi Sundowns</t>
         </is>
       </c>
       <c r="E25" t="n">
         <v>66.7</v>
       </c>
       <c r="F25" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="G25" t="n">
-        <v>0.37</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>04-03-2025 20:45</t>
+          <t>05-03-2025 18:30</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>SOUTH-AFRICA</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE</t>
+          <t>PREMIER SOCCER LEAGUE</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Boston United - Oldham</t>
+          <t>Cape Town City - TS Galaxy</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="F26" t="n">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="G26" t="n">
-        <v>0.3</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>04-03-2025 23:00</t>
+          <t>05-03-2025 20:00</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>SPAIN</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>CONMEBOL LIBERTADORES</t>
+          <t>SEGUNDA DIVISIÓN</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Deportes Iquique - Alianza Lima</t>
+          <t>Racing Ferrol - Burgos</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>68</v>
+        <v>66.7</v>
       </c>
       <c r="F27" t="n">
-        <v>1.93</v>
+        <v>2.25</v>
       </c>
       <c r="G27" t="n">
-        <v>0.31</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>02-02-2025 22:00</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>CHILE</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>COPA CHILE</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>Santiago Morning - Recoleta</t>
-        </is>
-      </c>
-      <c r="E28" t="n">
-        <v>65.8</v>
-      </c>
-      <c r="F28" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="G28" t="n">
-        <v>0.14</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>04-03-2025 02:00</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>COSTA-RICA</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>PRIMERA DIVISIÓN</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>Sporting San Jose - AD Guanacasteca</t>
-        </is>
-      </c>
-      <c r="E29" t="n">
-        <v>73.3</v>
-      </c>
-      <c r="F29" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0.34</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>04-03-2025 01:00</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>ECUADOR</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>LIGA PRO</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>Manta FC - Delfin SC</t>
-        </is>
-      </c>
-      <c r="E30" t="n">
-        <v>66.7</v>
-      </c>
-      <c r="F30" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="G30" t="n">
-        <v>0.23</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>28-01-2025 20:45</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>ENGLAND</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>NATIONAL LEAGUE - SOUTH</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>Chippenham Town - Torquay</t>
-        </is>
-      </c>
-      <c r="E31" t="n">
-        <v>80</v>
-      </c>
-      <c r="F31" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="G31" t="n">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>04-03-2025 20:45</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>ENGLAND</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>NATIONAL LEAGUE - SOUTH</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>Truro City - Boreham Wood</t>
-        </is>
-      </c>
-      <c r="E32" t="n">
-        <v>72</v>
-      </c>
-      <c r="F32" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>04-03-2025 14:30</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>INDONESIA</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>LIGA 1</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>Persija - PSIS Semarang</t>
-        </is>
-      </c>
-      <c r="E33" t="n">
-        <v>77.8</v>
-      </c>
-      <c r="F33" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="G33" t="n">
-        <v>0.42</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>04-03-2025 20:45</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>NORTHERN-IRELAND</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>PREMIERSHIP</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>Loughgall - Glenavon FC</t>
-        </is>
-      </c>
-      <c r="E34" t="n">
-        <v>75.8</v>
-      </c>
-      <c r="F34" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="G34" t="n">
-        <v>0.36</v>
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>

--- a/scraper/data/betclever_predictions.xlsx
+++ b/scraper/data/betclever_predictions.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,203 +475,203 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>04-03-2025 20:45</t>
+          <t>05-03-2025 20:45</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>SCOTLAND</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>LEAGUE ONE</t>
+          <t>CHAMPIONSHIP</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Charlton - Barnsley</t>
+          <t>Livingston - Raith Rovers</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>86.7</v>
+        <v>73.3</v>
       </c>
       <c r="F2" t="n">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>04-03-2025 20:45</t>
+          <t>05-03-2025 23:00</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>LEAGUE TWO</t>
+          <t>CONMEBOL LIBERTADORES</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Grimsby - Tranmere</t>
+          <t>FBC Melgar - Cerro Porteno</t>
         </is>
       </c>
       <c r="E3" t="n">
         <v>70</v>
       </c>
       <c r="F3" t="n">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>04-03-2025 20:45</t>
+          <t>05-03-2025 23:00</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>LEAGUE TWO</t>
+          <t>CONMEBOL SUDAMERICANA</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Port Vale - Harrogate Town</t>
+          <t>Aurora - Gualberto Villarroel SJ</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>76.7</v>
+        <v>73.3</v>
       </c>
       <c r="F4" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>11-01-2025 16:00</t>
+          <t>05-03-2025 19:15</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE - NORTH</t>
+          <t>SERGIPANO</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Southport - Leamington</t>
+          <t>América SE - Guarany SE</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>75.7</v>
+        <v>80</v>
       </c>
       <c r="F5" t="n">
-        <v>2.1</v>
+        <v>1.77</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>04-03-2025 13:30</t>
+          <t>05-03-2025 14:00</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>INDONESIA</t>
+          <t>TURKEY</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>LIGA 1</t>
+          <t>1. LIG</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Malut United - Arema FC</t>
+          <t>Yeni Çorumspor - Boluspor</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>70</v>
+        <v>73.3</v>
       </c>
       <c r="F6" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>04-03-2025 16:00</t>
+          <t>05-03-2025 18:30</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>PORTUGAL</t>
+          <t>TURKEY</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>LIGA REVELAÇÃO U23</t>
+          <t>1. LIG</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Academico Viseu U23 - Portimonense U23</t>
+          <t>Fatih Karagümrük - Bandırmaspor</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>73.3</v>
+        <v>80</v>
       </c>
       <c r="F7" t="n">
-        <v>1.77</v>
+        <v>1.91</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>05-03-2025 20:45</t>
+          <t>06-03-2025 18:45</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>SCOTLAND</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>CHAMPIONSHIP</t>
+          <t>UEFA EUROPA CONFERENCE LEAGUE</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Livingston - Raith Rovers</t>
+          <t>Panathinaikos - Fiorentina</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>73.3</v>
+        <v>80</v>
       </c>
       <c r="F8" t="n">
-        <v>1.8</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>05-03-2025 23:00</t>
+          <t>06-03-2025 18:45</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -681,25 +681,25 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>CONMEBOL LIBERTADORES</t>
+          <t>UEFA EUROPA CONFERENCE LEAGUE</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>FBC Melgar - Cerro Porteno</t>
+          <t>FC Copenhagen - Chelsea</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F9" t="n">
-        <v>1.75</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>05-03-2025 23:00</t>
+          <t>06-03-2025 21:00</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -709,75 +709,103 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>CONMEBOL SUDAMERICANA</t>
+          <t>UEFA EUROPA CONFERENCE LEAGUE</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Aurora - Gualberto Villarroel SJ</t>
+          <t>Borac Banja Luka - Rapid Vienna</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>73.3</v>
+        <v>70</v>
       </c>
       <c r="F10" t="n">
-        <v>1.73</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>05-03-2025 14:00</t>
+          <t>06-03-2025 21:00</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>TURKEY</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>1. LIG</t>
+          <t>UEFA EUROPA LEAGUE</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Yeni Çorumspor - Boluspor</t>
+          <t>Ajax - Eintracht Frankfurt</t>
         </is>
       </c>
       <c r="E11" t="n">
         <v>73.3</v>
       </c>
       <c r="F11" t="n">
-        <v>1.95</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>05-03-2025 18:30</t>
+          <t>06-03-2025 20:00</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>TURKEY</t>
+          <t>SAUDI-ARABIA</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>1. LIG</t>
+          <t>PRO LEAGUE</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Fatih Karagümrük - Bandırmaspor</t>
+          <t>Al Kholood - Al-Fateh</t>
         </is>
       </c>
       <c r="E12" t="n">
         <v>80</v>
       </c>
       <c r="F12" t="n">
-        <v>1.91</v>
+        <v>2.65</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>06-03-2025 02:30</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>WORLD</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>CONCACAF CHAMPIONS LEAGUE</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>CS Herediano - Los Angeles Galaxy</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>70</v>
+      </c>
+      <c r="F13" t="n">
+        <v>2.45</v>
       </c>
     </row>
   </sheetData>
@@ -791,7 +819,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -834,85 +862,29 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>04-03-2025 20:45</t>
+          <t>05-03-2025 23:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>LEAGUE ONE</t>
+          <t>PAULISTA - A3</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Huddersfield - Wrexham</t>
+          <t>XV De Jau - Itapirense</t>
         </is>
       </c>
       <c r="E2" t="n">
         <v>70</v>
       </c>
       <c r="F2" t="n">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>04-03-2025 20:45</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>ENGLAND</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>LEAGUE ONE</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Mansfield Town - Wigan</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>80</v>
-      </c>
-      <c r="F3" t="n">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>04-03-2025 20:45</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>ENGLAND</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>LEAGUE TWO</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Bromley - Doncaster</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>70</v>
-      </c>
-      <c r="F4" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
     </row>
   </sheetData>
@@ -926,7 +898,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -969,225 +941,169 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>04-03-2025 21:00</t>
+          <t>05-03-2025 23:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>UEFA CHAMPIONS LEAGUE</t>
+          <t>GAÚCHO - 1</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Real Madrid - Atletico Madrid</t>
+          <t>Sao Jose - Avenida</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>80</v>
+        <v>76.7</v>
       </c>
       <c r="F2" t="n">
-        <v>1.8</v>
+        <v>2.35</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>04-03-2025 20:45</t>
+          <t>05-03-2025 18:00</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>ESTONIA</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CHAMPIONSHIP</t>
+          <t>CUP</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Hull City - Plymouth</t>
+          <t>FC Tallinn - Tallinna Kalev</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F3" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>04-03-2025 20:45</t>
+          <t>06-03-2025 00:15</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>HONDURAS</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>LEAGUE TWO</t>
+          <t>LIGA NACIONAL</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Colchester - Chesterfield</t>
+          <t>Olancho - Victoria</t>
         </is>
       </c>
       <c r="E4" t="n">
         <v>76.7</v>
       </c>
       <c r="F4" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>04-03-2025 20:45</t>
+          <t>06-03-2025 21:00</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>LEAGUE TWO</t>
+          <t>UEFA EUROPA LEAGUE</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Grimsby - Tranmere</t>
+          <t>AS Roma - Athletic Club</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>79.2</v>
+        <v>76.7</v>
       </c>
       <c r="F5" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>28-01-2025 20:45</t>
+          <t>06-03-2025 14:30</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>UKRAINE</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE - SOUTH</t>
+          <t>PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Chippenham Town - Torquay</t>
+          <t>LNZ Cherkasy - Dynamo Kyiv</t>
         </is>
       </c>
       <c r="E6" t="n">
         <v>80</v>
       </c>
       <c r="F6" t="n">
-        <v>1.75</v>
+        <v>1.93</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>04-03-2025 14:30</t>
+          <t>06-03-2025 02:30</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>INDONESIA</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>LIGA 1</t>
+          <t>CONCACAF CHAMPIONS LEAGUE</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Persija - PSIS Semarang</t>
+          <t>CS Herediano - Los Angeles Galaxy</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>77.8</v>
+        <v>76</v>
       </c>
       <c r="F7" t="n">
-        <v>1.83</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>04-03-2025 20:45</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>NORTHERN-IRELAND</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>PREMIERSHIP</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Loughgall - Glenavon FC</t>
-        </is>
-      </c>
-      <c r="E8" t="n">
-        <v>75.8</v>
-      </c>
-      <c r="F8" t="n">
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>04-03-2025 20:00</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>SAUDI-ARABIA</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>DIVISION 1</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Al-Adalah - Al Jubail</t>
-        </is>
-      </c>
-      <c r="E9" t="n">
-        <v>76</v>
-      </c>
-      <c r="F9" t="n">
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
     </row>
   </sheetData>
@@ -1201,7 +1117,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1254,137 +1170,409 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>04-03-2025 20:45</t>
+          <t>05-03-2025 20:45</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>SCOTLAND</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE - SOUTH</t>
+          <t>CHAMPIONSHIP</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Worthing - Bath City</t>
+          <t>Livingston - Raith Rovers</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>81.8</v>
+        <v>80</v>
       </c>
       <c r="F2" t="n">
-        <v>1.73</v>
+        <v>2</v>
       </c>
       <c r="G2" t="n">
-        <v>36.8</v>
+        <v>25</v>
       </c>
       <c r="H2" t="n">
-        <v>2.88</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>04-03-2025 20:45</t>
+          <t>05-03-2025 21:00</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>ICELAND</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>NON LEAGUE PREMIER - ISTHMIAN</t>
+          <t>LEAGUE CUP</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Cray Valley PM - Hendon</t>
+          <t>Fjolnir - Grindavik</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="F3" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="G3" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="H3" t="n">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>04-03-2025 20:00</t>
+          <t>05-03-2025 20:00</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SAUDI-ARABIA</t>
+          <t>ICELAND</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>DIVISION 1</t>
+          <t>LEAGUE CUP</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Al-Adalah - Al Jubail</t>
+          <t>Fylkir - Njardvik</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>73.3</v>
+        <v>65</v>
       </c>
       <c r="F4" t="n">
-        <v>1.85</v>
+        <v>1.48</v>
       </c>
       <c r="G4" t="n">
-        <v>66.7</v>
+        <v>60</v>
       </c>
       <c r="H4" t="n">
-        <v>3.2</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>05-03-2025 20:45</t>
+          <t>05-03-2025 12:00</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SCOTLAND</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>CHAMPIONSHIP</t>
+          <t>UEFA YOUTH LEAGUE</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Livingston - Raith Rovers</t>
+          <t>Trabzonspor U19 - Atalanta U19</t>
         </is>
       </c>
       <c r="E5" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="G5" t="n">
+        <v>60</v>
+      </c>
+      <c r="H5" t="n">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>06-03-2025 21:00</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>WORLD</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>UEFA EUROPA CONFERENCE LEAGUE</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Celje - FC Lugano</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>86.7</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="G6" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="H6" t="n">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>06-03-2025 18:45</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>WORLD</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>UEFA EUROPA LEAGUE</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Fenerbahce - Rangers</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>93.3</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="G7" t="n">
+        <v>60</v>
+      </c>
+      <c r="H7" t="n">
+        <v>2.62</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>06-03-2025 21:00</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>WORLD</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>UEFA EUROPA LEAGUE</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Bodo/Glimt - Olympiakos Piraeus</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
         <v>80</v>
       </c>
-      <c r="F5" t="n">
-        <v>2</v>
-      </c>
-      <c r="G5" t="n">
-        <v>25</v>
-      </c>
-      <c r="H5" t="n">
-        <v>3.4</v>
+      <c r="F8" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="G8" t="n">
+        <v>60</v>
+      </c>
+      <c r="H8" t="n">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>06-03-2025 14:30</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>INDIA</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>I-LEAGUE</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Inter Kashi - Namdhari</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>75</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="G9" t="n">
+        <v>75</v>
+      </c>
+      <c r="H9" t="n">
+        <v>2.65</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>06-03-2025 14:30</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>INDONESIA</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>LIGA 1</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>PSBS Biak Numfor - Pusamania Borneo</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>73.3</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="G10" t="n">
+        <v>60</v>
+      </c>
+      <c r="H10" t="n">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>06-03-2025 12:30</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>WORLD</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>AFC CHALLENGE LEAGUE</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Svay Rieng - Shan United</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>70</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="G11" t="n">
+        <v>70</v>
+      </c>
+      <c r="H11" t="n">
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>06-03-2025 12:00</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>WORLD</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>AFC CHALLENGE LEAGUE</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Tainan City - Persepam Madura Utd</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>80</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="G12" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="H12" t="n">
+        <v>2.55</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>06-03-2025 04:30</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>WORLD</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>CONCACAF CHAMPIONS LEAGUE</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Seattle Sounders - Cruz Azul</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>80</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="G13" t="n">
+        <v>73.3</v>
+      </c>
+      <c r="H13" t="n">
+        <v>2.95</v>
       </c>
     </row>
   </sheetData>
@@ -1398,7 +1586,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G48"/>
+  <dimension ref="A1:G55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1446,7 +1634,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>04-03-2025 18:45</t>
+          <t>05-03-2025 18:45</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -1461,426 +1649,426 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Club Brugge KV - Aston Villa</t>
+          <t>Feyenoord - Inter</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>66.7</v>
+        <v>60</v>
       </c>
       <c r="F2" t="n">
-        <v>2.75</v>
+        <v>5.25</v>
       </c>
       <c r="G2" t="n">
-        <v>0.83</v>
+        <v>2.15</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>04-03-2025 20:45</t>
+          <t>05-03-2025 21:00</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CHAMPIONSHIP</t>
+          <t>UEFA CHAMPIONS LEAGUE</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Preston - Swansea</t>
+          <t>Paris Saint Germain - Liverpool</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>60</v>
+        <v>66.7</v>
       </c>
       <c r="F3" t="n">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="G3" t="n">
-        <v>0.35</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>04-03-2025 20:45</t>
+          <t>05-03-2025 20:45</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>SCOTLAND</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>LEAGUE ONE</t>
+          <t>CHAMPIONSHIP</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Charlton - Barnsley</t>
+          <t>Livingston - Raith Rovers</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>86.7</v>
+        <v>73.3</v>
       </c>
       <c r="F4" t="n">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>04-03-2025 20:45</t>
+          <t>05-03-2025 23:00</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>LEAGUE ONE</t>
+          <t>CONMEBOL LIBERTADORES</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Northampton - Stockport County</t>
+          <t>FBC Melgar - Cerro Porteno</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>53.3</v>
+        <v>70</v>
       </c>
       <c r="F5" t="n">
-        <v>5</v>
+        <v>1.75</v>
       </c>
       <c r="G5" t="n">
-        <v>1.66</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>04-03-2025 20:45</t>
+          <t>05-03-2025 23:00</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>LEAGUE ONE</t>
+          <t>CONMEBOL SUDAMERICANA</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Shrewsbury - Bristol Rovers</t>
+          <t>Union Espanola - Everton De Vina</t>
         </is>
       </c>
       <c r="E6" t="n">
         <v>53.3</v>
       </c>
       <c r="F6" t="n">
-        <v>1.95</v>
+        <v>2.35</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>04-03-2025 21:00</t>
+          <t>05-03-2025 23:00</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>LEAGUE ONE</t>
+          <t>CONMEBOL SUDAMERICANA</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Reading - Exeter City</t>
+          <t>Aurora - Gualberto Villarroel SJ</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>66.7</v>
+        <v>73.3</v>
       </c>
       <c r="F7" t="n">
-        <v>1.95</v>
+        <v>1.73</v>
       </c>
       <c r="G7" t="n">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>04-03-2025 20:45</t>
+          <t>05-03-2025 15:00</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>ALGERIA</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>LEAGUE TWO</t>
+          <t>U21 LEAGUE 1</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Accrington ST - Milton Keynes Dons</t>
+          <t>Olympique Akbou U21 - Paradou AC U21</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>53.3</v>
+        <v>60</v>
       </c>
       <c r="F8" t="n">
-        <v>2.45</v>
+        <v>1.7</v>
       </c>
       <c r="G8" t="n">
-        <v>0.31</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>04-03-2025 20:45</t>
+          <t>05-03-2025 15:00</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>ALGERIA</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>LEAGUE TWO</t>
+          <t>U21 LEAGUE 1</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Grimsby - Tranmere</t>
+          <t>Khenchela U21 - ASO Chlef U21</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>70</v>
+        <v>63.3</v>
       </c>
       <c r="F9" t="n">
-        <v>1.9</v>
+        <v>2.2</v>
       </c>
       <c r="G9" t="n">
-        <v>0.33</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>04-03-2025 20:45</t>
+          <t>05-03-2025 13:00</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>ARMENIA</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>LEAGUE TWO</t>
+          <t>CUP</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Newport County - Gillingham</t>
+          <t>FC Urartu - Ararat-Armenia</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>60</v>
+        <v>53.3</v>
       </c>
       <c r="F10" t="n">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="G10" t="n">
-        <v>1.1</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>04-03-2025 20:45</t>
+          <t>04-03-2025 19:30</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>BAHRAIN</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>LEAGUE TWO</t>
+          <t>PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Port Vale - Harrogate Town</t>
+          <t>Bahrain SC - Al Ahli</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>76.7</v>
+        <v>53.3</v>
       </c>
       <c r="F11" t="n">
-        <v>1.8</v>
+        <v>4.33</v>
       </c>
       <c r="G11" t="n">
-        <v>0.38</v>
+        <v>1.31</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>04-03-2025 20:45</t>
+          <t>06-03-2025 00:00</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE</t>
+          <t>MATOGROSSENSE</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Aldershot Town - Dagenham &amp; Redbridge</t>
+          <t>Primavera MG - Nova Mutum EC</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F12" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="G12" t="n">
-        <v>0.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>04-03-2025 20:45</t>
+          <t>05-03-2025 19:00</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE</t>
+          <t>PAULISTA - A3</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>FC Halifax Town - Forest Green</t>
+          <t>Monte Azul - Sertãozinho</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="F13" t="n">
-        <v>3</v>
+        <v>2.05</v>
       </c>
       <c r="G13" t="n">
-        <v>0.5</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>04-03-2025 23:00</t>
+          <t>06-03-2025 00:00</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>CONMEBOL LIBERTADORES</t>
+          <t>PAULISTA - A3</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Deportes Iquique - Alianza Lima</t>
+          <t>Comercial - Bandeirante SP</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="F14" t="n">
-        <v>2.6</v>
+        <v>2.88</v>
       </c>
       <c r="G14" t="n">
-        <v>0.3</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>04-03-2025 19:30</t>
+          <t>05-03-2025 23:15</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>BAHRAIN</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>PREMIER LEAGUE</t>
+          <t>PAULISTA - A3</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Bahrain SC - Al Ahli</t>
+          <t>União São João - Catanduva</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>53.3</v>
+        <v>50</v>
       </c>
       <c r="F15" t="n">
-        <v>4.33</v>
+        <v>2.8</v>
       </c>
       <c r="G15" t="n">
-        <v>1.31</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>04-03-2025 19:00</t>
+          <t>05-03-2025 19:15</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1890,400 +2078,400 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>PAULISTA - A3</t>
+          <t>SERGIPANO</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Rio Branco SP - USAC</t>
+          <t>América SE - Guarany SE</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="F16" t="n">
-        <v>1.75</v>
+        <v>1.77</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.12</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>04-03-2025 20:30</t>
+          <t>06-03-2025 00:30</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>EGYPT</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>PREMIER LEAGUE</t>
+          <t>SERGIPANO</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Masr - Ismaily SC</t>
+          <t>AO Itabaiana - Sergipe</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>56.7</v>
+        <v>53.3</v>
       </c>
       <c r="F17" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="G17" t="n">
-        <v>0.08</v>
+        <v>-0.04</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>11-01-2025 16:00</t>
+          <t>05-03-2025 17:00</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>CROATIA</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE - NORTH</t>
+          <t>CUP</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Southport - Leamington</t>
+          <t>NK Slaven Belupo - HNK Gorica</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>75.7</v>
+        <v>60</v>
       </c>
       <c r="F18" t="n">
-        <v>2.1</v>
+        <v>1.76</v>
       </c>
       <c r="G18" t="n">
-        <v>0.59</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>28-01-2025 20:45</t>
+          <t>05-03-2025 20:00</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>EGYPT</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE - SOUTH</t>
+          <t>PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Farnborough - AFC Hornchurch</t>
+          <t>Petrojet - Ghazl El Mehalla</t>
         </is>
       </c>
       <c r="E19" t="n">
         <v>50</v>
       </c>
       <c r="F19" t="n">
-        <v>1.85</v>
+        <v>2.2</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.07000000000000001</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>04-03-2025 20:45</t>
+          <t>05-03-2025 18:00</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>ESTONIA</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>NON LEAGUE PREMIER - SOUTHERN CENTRAL</t>
+          <t>CUP</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Stamford - Redditch United</t>
+          <t>FC Tallinn - Tallinna Kalev</t>
         </is>
       </c>
       <c r="E20" t="n">
         <v>50</v>
       </c>
       <c r="F20" t="n">
-        <v>2.05</v>
+        <v>7.5</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02</v>
+        <v>2.75</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>04-03-2025 20:45</t>
+          <t>05-03-2025 19:00</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>GERMANY</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>NON LEAGUE PREMIER - SOUTHERN SOUTH</t>
+          <t>REGIONALLIGA - NORD</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Swindon Supermarine - Walton &amp; Hersham</t>
+          <t>SSV Jeddeloh - Weiche Flensburg</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>60</v>
+        <v>56.7</v>
       </c>
       <c r="F21" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="G21" t="n">
-        <v>0.73</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>04-03-2025 15:00</t>
+          <t>05-03-2025 19:00</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>GERMANY</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>PROFESSIONAL DEVELOPMENT LEAGUE</t>
+          <t>REGIONALLIGA - WEST</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Cardiff City U21 - Millwall U21</t>
+          <t>FC Gutersloh - Sportfreunde Lotte</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>50</v>
+        <v>66.7</v>
       </c>
       <c r="F22" t="n">
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="G22" t="n">
-        <v>0.25</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>04-03-2025 13:30</t>
+          <t>05-03-2025 21:00</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>INDONESIA</t>
+          <t>ICELAND</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>LIGA 1</t>
+          <t>LEAGUE CUP</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Malut United - Arema FC</t>
+          <t>Fjolnir - Grindavik</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>70</v>
+        <v>53.3</v>
       </c>
       <c r="F23" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="G23" t="n">
-        <v>0.4</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>04-03-2025 16:00</t>
+          <t>05-03-2025 15:00</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>PORTUGAL</t>
+          <t>INDIA</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>LIGA REVELAÇÃO U23</t>
+          <t>INDIAN SUPER LEAGUE</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Vizela U23 - Estrela U23</t>
+          <t>Jamshedpur - Odisha</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>51.3</v>
+        <v>53.3</v>
       </c>
       <c r="F24" t="n">
         <v>2.15</v>
       </c>
       <c r="G24" t="n">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>04-03-2025 16:00</t>
+          <t>05-03-2025 18:30</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>PORTUGAL</t>
+          <t>SOUTH-AFRICA</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>LIGA REVELAÇÃO U23</t>
+          <t>PREMIER SOCCER LEAGUE</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Academico Viseu U23 - Portimonense U23</t>
+          <t>Cape Town City - TS Galaxy</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>73.3</v>
+        <v>58.3</v>
       </c>
       <c r="F25" t="n">
-        <v>1.77</v>
+        <v>2.75</v>
       </c>
       <c r="G25" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>04-03-2025 12:00</t>
+          <t>05-03-2025 14:00</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>PORTUGAL</t>
+          <t>TURKEY</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>LIGA REVELAÇÃO U23</t>
+          <t>1. LIG</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Rio Ave U23 - Farense U23</t>
+          <t>Yeni Çorumspor - Boluspor</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>53.3</v>
+        <v>73.3</v>
       </c>
       <c r="F26" t="n">
-        <v>2.2</v>
+        <v>1.95</v>
       </c>
       <c r="G26" t="n">
-        <v>0.17</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>04-03-2025 20:00</t>
+          <t>05-03-2025 18:30</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>SAUDI-ARABIA</t>
+          <t>TURKEY</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>DIVISION 1</t>
+          <t>1. LIG</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Al Jabalain - Jeddah Club</t>
+          <t>Fatih Karagümrük - Bandırmaspor</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="F27" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="G27" t="n">
-        <v>0.1</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>04-03-2025 18:30</t>
+          <t>05-03-2025 14:00</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>SOUTH-AFRICA</t>
+          <t>TURKEY</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>PREMIER SOCCER LEAGUE</t>
+          <t>1. LIG</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Marumo Gallants - Stellenbosch</t>
+          <t>Şanlıurfaspor - Adanaspor</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>58.3</v>
+        <v>66.7</v>
       </c>
       <c r="F28" t="n">
-        <v>4.25</v>
+        <v>1.95</v>
       </c>
       <c r="G28" t="n">
-        <v>1.48</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>04-03-2025 17:00</t>
+          <t>05-03-2025 13:00</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -2293,28 +2481,28 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>AFC CUP</t>
+          <t>AFC CHAMPIONS LEAGUE</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Tractor Sazi - Al Taawon</t>
+          <t>Shanghai Shenhua - Kawasaki Frontale</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>50</v>
+        <v>53.3</v>
       </c>
       <c r="F29" t="n">
-        <v>1.8</v>
+        <v>3.2</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.1</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>05-03-2025 00:30</t>
+          <t>05-03-2025 17:00</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -2324,28 +2512,28 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>CONCACAF CHAMPIONS LEAGUE</t>
+          <t>AFC CUP</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>FC Cincinnati - Tigres UANL</t>
+          <t>Shabab Al Ahli Dubai - Sharjah FC</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>60</v>
+        <v>66.7</v>
       </c>
       <c r="F30" t="n">
-        <v>2.52</v>
+        <v>1.73</v>
       </c>
       <c r="G30" t="n">
-        <v>0.51</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>04-03-2025 14:00</t>
+          <t>05-03-2025 12:00</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -2360,23 +2548,23 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Salzburg U19 - Atlético Madrid U19</t>
+          <t>Trabzonspor U19 - Atalanta U19</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="F31" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="G31" t="n">
-        <v>0.27</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>05-03-2025 18:45</t>
+          <t>05-03-2025 16:00</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -2386,28 +2574,28 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>UEFA CHAMPIONS LEAGUE</t>
+          <t>UEFA YOUTH LEAGUE</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Feyenoord - Inter</t>
+          <t>Bayern München U19 - Internazionale U19</t>
         </is>
       </c>
       <c r="E32" t="n">
         <v>60</v>
       </c>
       <c r="F32" t="n">
-        <v>5.25</v>
+        <v>2.8</v>
       </c>
       <c r="G32" t="n">
-        <v>2.15</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>05-03-2025 21:00</t>
+          <t>06-03-2025 18:45</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -2417,59 +2605,59 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>UEFA CHAMPIONS LEAGUE</t>
+          <t>UEFA EUROPA CONFERENCE LEAGUE</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Paris Saint Germain - Liverpool</t>
+          <t>Panathinaikos - Fiorentina</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>66.7</v>
+        <v>80</v>
       </c>
       <c r="F33" t="n">
-        <v>2.5</v>
+        <v>3.1</v>
       </c>
       <c r="G33" t="n">
-        <v>0.67</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>05-03-2025 20:45</t>
+          <t>06-03-2025 18:45</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>SCOTLAND</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>CHAMPIONSHIP</t>
+          <t>UEFA EUROPA CONFERENCE LEAGUE</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Livingston - Raith Rovers</t>
+          <t>Molde - Legia Warszawa</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>73.3</v>
+        <v>66.7</v>
       </c>
       <c r="F34" t="n">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="G34" t="n">
-        <v>0.32</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>05-03-2025 23:00</t>
+          <t>06-03-2025 18:45</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -2479,28 +2667,28 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>CONMEBOL LIBERTADORES</t>
+          <t>UEFA EUROPA CONFERENCE LEAGUE</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>FBC Melgar - Cerro Porteno</t>
+          <t>FC Copenhagen - Chelsea</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F35" t="n">
-        <v>1.75</v>
+        <v>5</v>
       </c>
       <c r="G35" t="n">
-        <v>0.22</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>05-03-2025 23:00</t>
+          <t>06-03-2025 21:00</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -2510,28 +2698,28 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>CONMEBOL SUDAMERICANA</t>
+          <t>UEFA EUROPA CONFERENCE LEAGUE</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Union Espanola - Everton De Vina</t>
+          <t>Jagiellonia - Cercle Brugge</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>53.3</v>
+        <v>60</v>
       </c>
       <c r="F36" t="n">
-        <v>2.35</v>
+        <v>2.05</v>
       </c>
       <c r="G36" t="n">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>05-03-2025 23:00</t>
+          <t>06-03-2025 21:00</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -2541,298 +2729,298 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>CONMEBOL SUDAMERICANA</t>
+          <t>UEFA EUROPA CONFERENCE LEAGUE</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Aurora - Gualberto Villarroel SJ</t>
+          <t>Celje - FC Lugano</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>73.3</v>
+        <v>50</v>
       </c>
       <c r="F37" t="n">
-        <v>1.73</v>
+        <v>2.7</v>
       </c>
       <c r="G37" t="n">
-        <v>0.27</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>05-03-2025 17:00</t>
+          <t>06-03-2025 21:00</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>CROATIA</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>CUP</t>
+          <t>UEFA EUROPA CONFERENCE LEAGUE</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>NK Slaven Belupo - HNK Gorica</t>
+          <t>Borac Banja Luka - Rapid Vienna</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="F38" t="n">
-        <v>1.76</v>
+        <v>3.6</v>
       </c>
       <c r="G38" t="n">
-        <v>0.06</v>
+        <v>1.52</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>05-03-2025 20:00</t>
+          <t>06-03-2025 18:45</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>EGYPT</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>PREMIER LEAGUE</t>
+          <t>UEFA EUROPA LEAGUE</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Petrojet - Ghazl El Mehalla</t>
+          <t>AZ Alkmaar - Tottenham</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="F39" t="n">
-        <v>2.2</v>
+        <v>3.25</v>
       </c>
       <c r="G39" t="n">
-        <v>0.1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>05-03-2025 19:00</t>
+          <t>06-03-2025 21:00</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>GERMANY</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>REGIONALLIGA - NORD</t>
+          <t>UEFA EUROPA LEAGUE</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>SSV Jeddeloh - Weiche Flensburg</t>
+          <t>Plzen - Lazio</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>56.7</v>
+        <v>60</v>
       </c>
       <c r="F40" t="n">
-        <v>2.8</v>
+        <v>3.8</v>
       </c>
       <c r="G40" t="n">
-        <v>0.59</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>05-03-2025 19:00</t>
+          <t>06-03-2025 21:00</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>GERMANY</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>REGIONALLIGA - WEST</t>
+          <t>UEFA EUROPA LEAGUE</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>FC Gutersloh - Sportfreunde Lotte</t>
+          <t>Ajax - Eintracht Frankfurt</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>66.7</v>
+        <v>73.3</v>
       </c>
       <c r="F41" t="n">
-        <v>3.75</v>
+        <v>2.5</v>
       </c>
       <c r="G41" t="n">
-        <v>1.5</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>05-03-2025 15:00</t>
+          <t>06-03-2025 03:00</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>INDIA</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>INDIAN SUPER LEAGUE</t>
+          <t>CONMEBOL SUDAMERICANA</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Jamshedpur - Odisha</t>
+          <t>Mushuc Runa SC - Orense SC</t>
         </is>
       </c>
       <c r="E42" t="n">
         <v>53.3</v>
       </c>
       <c r="F42" t="n">
-        <v>2.15</v>
+        <v>1.85</v>
       </c>
       <c r="G42" t="n">
-        <v>0.15</v>
+        <v>-0.01</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>05-03-2025 18:30</t>
+          <t>06-03-2025 23:00</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>SOUTH-AFRICA</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>PREMIER SOCCER LEAGUE</t>
+          <t>CONMEBOL SUDAMERICANA</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Cape Town City - TS Galaxy</t>
+          <t>Cerro Largo - Danubio</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>58.3</v>
+        <v>53.3</v>
       </c>
       <c r="F43" t="n">
-        <v>2.75</v>
+        <v>2.45</v>
       </c>
       <c r="G43" t="n">
-        <v>0.6</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>05-03-2025 14:00</t>
+          <t>06-03-2025 01:30</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>TURKEY</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>1. LIG</t>
+          <t>CONMEBOL SUDAMERICANA</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Yeni Çorumspor - Boluspor</t>
+          <t>Once Caldas - Millonarios</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>73.3</v>
+        <v>53.3</v>
       </c>
       <c r="F44" t="n">
-        <v>1.95</v>
+        <v>3.1</v>
       </c>
       <c r="G44" t="n">
-        <v>0.43</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>05-03-2025 18:30</t>
+          <t>06-03-2025 01:30</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>TURKEY</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>1. LIG</t>
+          <t>CATARINENSE - 1</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Fatih Karagümrük - Bandırmaspor</t>
+          <t>Avai - Figueirense</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="F45" t="n">
-        <v>1.91</v>
+        <v>2.1</v>
       </c>
       <c r="G45" t="n">
-        <v>0.53</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>05-03-2025 14:00</t>
+          <t>06-03-2025 14:30</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>TURKEY</t>
+          <t>INDONESIA</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>1. LIG</t>
+          <t>LIGA 1</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Şanlıurfaspor - Adanaspor</t>
+          <t>PSBS Biak Numfor - Pusamania Borneo</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>66.7</v>
+        <v>50</v>
       </c>
       <c r="F46" t="n">
-        <v>1.95</v>
+        <v>2.6</v>
       </c>
       <c r="G46" t="n">
         <v>0.3</v>
@@ -2841,63 +3029,280 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>05-03-2025 13:00</t>
+          <t>06-03-2025 14:30</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>INDONESIA</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>AFC CHAMPIONS LEAGUE</t>
+          <t>LIGA 1</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Shanghai Shenhua - Kawasaki Frontale</t>
+          <t>Persis Solo - Bali United</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>53.3</v>
+        <v>60</v>
       </c>
       <c r="F47" t="n">
-        <v>3.2</v>
+        <v>2.25</v>
       </c>
       <c r="G47" t="n">
-        <v>0.71</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>05-03-2025 04:30</t>
+          <t>06-03-2025 03:00</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>MEXICO</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>CONCACAF CHAMPIONS LEAGUE</t>
+          <t>LIGA DE EXPANSIÓN MX</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Los Angeles FC - Columbus Crew</t>
+          <t>Venados FC - Tapatío</t>
         </is>
       </c>
       <c r="E48" t="n">
         <v>56.7</v>
       </c>
       <c r="F48" t="n">
-        <v>1.86</v>
+        <v>2.05</v>
       </c>
       <c r="G48" t="n">
-        <v>0.05</v>
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>06-03-2025 20:00</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>SAUDI-ARABIA</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>PRO LEAGUE</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Al Kholood - Al-Fateh</t>
+        </is>
+      </c>
+      <c r="E49" t="n">
+        <v>80</v>
+      </c>
+      <c r="F49" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="G49" t="n">
+        <v>1.12</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>06-03-2025 14:00</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>TURKEY</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>1. LIG</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>İstanbulspor - Sakaryaspor</t>
+        </is>
+      </c>
+      <c r="E50" t="n">
+        <v>50</v>
+      </c>
+      <c r="F50" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="G50" t="n">
+        <v>-0.05</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>06-03-2025 18:30</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>TURKEY</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>1. LIG</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Ümraniyespor - Kocaelispor</t>
+        </is>
+      </c>
+      <c r="E51" t="n">
+        <v>60</v>
+      </c>
+      <c r="F51" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="G51" t="n">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>06-03-2025 12:00</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>UKRAINE</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>PREMIER LEAGUE</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Vorskla Poltava - Karpaty</t>
+        </is>
+      </c>
+      <c r="E52" t="n">
+        <v>58</v>
+      </c>
+      <c r="F52" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>06-03-2025 12:00</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>WORLD</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>AFC CHALLENGE LEAGUE</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Tainan City - Persepam Madura Utd</t>
+        </is>
+      </c>
+      <c r="E53" t="n">
+        <v>60</v>
+      </c>
+      <c r="F53" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>06-03-2025 02:30</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>WORLD</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>CONCACAF CHAMPIONS LEAGUE</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>CS Herediano - Los Angeles Galaxy</t>
+        </is>
+      </c>
+      <c r="E54" t="n">
+        <v>70</v>
+      </c>
+      <c r="F54" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>06-03-2025 04:30</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>WORLD</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>CONCACAF CHAMPIONS LEAGUE</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Vancouver Whitecaps - Monterrey</t>
+        </is>
+      </c>
+      <c r="E55" t="n">
+        <v>60</v>
+      </c>
+      <c r="F55" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0.51</v>
       </c>
     </row>
   </sheetData>
@@ -2911,7 +3316,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2959,122 +3364,122 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>04-03-2025 20:45</t>
+          <t>05-03-2025 21:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>LEAGUE ONE</t>
+          <t>UEFA CHAMPIONS LEAGUE</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Cambridge United - Stevenage</t>
+          <t>Benfica - Barcelona</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>53.3</v>
+        <v>50</v>
       </c>
       <c r="F2" t="n">
-        <v>2.5</v>
+        <v>1.85</v>
       </c>
       <c r="G2" t="n">
-        <v>0.33</v>
+        <v>-0.07000000000000001</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>04-03-2025 20:45</t>
+          <t>05-03-2025 19:30</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>BAHRAIN</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>LEAGUE ONE</t>
+          <t>PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Huddersfield - Wrexham</t>
+          <t>A'Ali - Sitra</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="F3" t="n">
-        <v>3.5</v>
+        <v>1.75</v>
       </c>
       <c r="G3" t="n">
-        <v>1.45</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>04-03-2025 20:45</t>
+          <t>05-03-2025 23:30</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>LEAGUE ONE</t>
+          <t>PAULISTA - A2</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Mansfield Town - Wigan</t>
+          <t>Linense - Votuporanguense</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>80</v>
+        <v>53.3</v>
       </c>
       <c r="F4" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="G4" t="n">
-        <v>1.8</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>04-03-2025 20:45</t>
+          <t>05-03-2025 23:00</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>LEAGUE ONE</t>
+          <t>PAULISTA - A3</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Rotherham - Leyton Orient</t>
+          <t>XV De Jau - Itapirense</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="F5" t="n">
-        <v>3</v>
+        <v>2.15</v>
       </c>
       <c r="G5" t="n">
         <v>0.5</v>
@@ -3083,590 +3488,249 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>04-03-2025 20:45</t>
+          <t>05-03-2025 07:30</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>ETHIOPIA</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>LEAGUE TWO</t>
+          <t>PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Bromley - Doncaster</t>
+          <t>Suhul Shire - Ethiopia Nigd Bank</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="F6" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="G6" t="n">
-        <v>0.54</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>04-03-2025 20:45</t>
+          <t>16-02-2025 13:00</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>SLOVENIA</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE</t>
+          <t>1. SNL</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Maidenhead - Braintree</t>
+          <t>Primorje - Koper</t>
         </is>
       </c>
       <c r="E7" t="n">
         <v>66.7</v>
       </c>
       <c r="F7" t="n">
-        <v>2.7</v>
+        <v>2.05</v>
       </c>
       <c r="G7" t="n">
-        <v>0.8</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>04-03-2025 20:45</t>
+          <t>05-03-2025 19:30</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE</t>
+          <t>AFC CHALLENGE LEAGUE</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Tamworth - Wealdstone</t>
+          <t>Al Arabi - Al Seeb</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>50</v>
+        <v>66.7</v>
       </c>
       <c r="F8" t="n">
-        <v>3</v>
+        <v>2.85</v>
       </c>
       <c r="G8" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>04-03-2025 20:45</t>
+          <t>05-03-2025 11:00</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE</t>
+          <t>AFC CUP</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>York - Altrincham</t>
+          <t>Sanfrecce Hiroshima - Home United</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>53.3</v>
+        <v>50</v>
       </c>
       <c r="F9" t="n">
-        <v>4.75</v>
+        <v>17</v>
       </c>
       <c r="G9" t="n">
-        <v>1.53</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>04-03-2025 20:45</t>
+          <t>05-03-2025 15:30</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>SCOTLAND</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>CHAMPIONSHIP</t>
+          <t>UEFA YOUTH LEAGUE</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Queen's Park - Ayr Utd</t>
+          <t>Sturm Graz U19 - Olympiakos Piraeus U19</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>60</v>
+        <v>56.5</v>
       </c>
       <c r="F10" t="n">
-        <v>1.91</v>
+        <v>5</v>
       </c>
       <c r="G10" t="n">
-        <v>0.15</v>
+        <v>1.82</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>04-03-2025 14:30</t>
+          <t>06-03-2025 18:45</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>AZERBAIJAN</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>PREMYER LIQA</t>
+          <t>UEFA EUROPA LEAGUE</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Turan - Zira</t>
+          <t>Real Sociedad - Manchester United</t>
         </is>
       </c>
       <c r="E11" t="n">
         <v>53.3</v>
       </c>
       <c r="F11" t="n">
-        <v>2.2</v>
+        <v>3.2</v>
       </c>
       <c r="G11" t="n">
-        <v>0.17</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>04-03-2025 20:30</t>
+          <t>06-03-2025 21:00</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>EGYPT</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>PREMIER LEAGUE</t>
+          <t>UEFA EUROPA LEAGUE</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Al Ittihad - Smouha SC</t>
+          <t>Bodo/Glimt - Olympiakos Piraeus</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>53.3</v>
+        <v>50</v>
       </c>
       <c r="F12" t="n">
-        <v>2.7</v>
+        <v>3.2</v>
       </c>
       <c r="G12" t="n">
-        <v>0.44</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>11-01-2025 16:00</t>
+          <t>06-03-2025 22:30</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE - NORTH</t>
+          <t>CAPIXABA</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Radcliffe - South Shields</t>
+          <t>Vitória ES - Rio Branco-VN</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>53.3</v>
+        <v>55.7</v>
       </c>
       <c r="F13" t="n">
-        <v>2.5</v>
+        <v>3.95</v>
       </c>
       <c r="G13" t="n">
-        <v>0.33</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>04-03-2025 20:45</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>ENGLAND</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>NON LEAGUE PREMIER - ISTHMIAN</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>Chatham Town - Hastings United</t>
-        </is>
-      </c>
-      <c r="E14" t="n">
-        <v>60</v>
-      </c>
-      <c r="F14" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="G14" t="n">
-        <v>2.9</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>04-03-2025 14:00</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>ENGLAND</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>PROFESSIONAL DEVELOPMENT LEAGUE</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>Wigan Athletic U21 - Hull City U21</t>
-        </is>
-      </c>
-      <c r="E15" t="n">
-        <v>50</v>
-      </c>
-      <c r="F15" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0.31</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>26-02-2025 17:00</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>MALI</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>PREMIÈRE DIVISION</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>US Bougouba - Stade Malien Bamako</t>
-        </is>
-      </c>
-      <c r="E16" t="n">
-        <v>53.3</v>
-      </c>
-      <c r="F16" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>04-03-2025 20:45</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>NORTHERN-IRELAND</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>PREMIERSHIP</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>Carrick Rangers - Larne</t>
-        </is>
-      </c>
-      <c r="E17" t="n">
-        <v>66.7</v>
-      </c>
-      <c r="F17" t="n">
-        <v>2</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0.33</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>04-03-2025 12:00</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>PORTUGAL</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>LIGA REVELAÇÃO U23</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>Leixões U23 - Santa Clara U23</t>
-        </is>
-      </c>
-      <c r="E18" t="n">
-        <v>60</v>
-      </c>
-      <c r="F18" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0.86</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>04-03-2025 16:00</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>PORTUGAL</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>LIGA REVELAÇÃO U23</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>Mafra U23 - Sporting Braga U23</t>
-        </is>
-      </c>
-      <c r="E19" t="n">
-        <v>53.3</v>
-      </c>
-      <c r="F19" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="G19" t="n">
-        <v>-0.01</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>04-03-2025 15:00</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>WORLD</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>AFC CHAMPIONS LEAGUE</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>Buriram United - Johor Darul Takzim FC</t>
-        </is>
-      </c>
-      <c r="E20" t="n">
-        <v>60</v>
-      </c>
-      <c r="F20" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0.53</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>05-03-2025 21:00</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>WORLD</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>UEFA CHAMPIONS LEAGUE</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>Benfica - Barcelona</t>
-        </is>
-      </c>
-      <c r="E21" t="n">
-        <v>50</v>
-      </c>
-      <c r="F21" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="G21" t="n">
-        <v>-0.07000000000000001</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>05-03-2025 01:30</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>WORLD</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>CONMEBOL SUDAMERICANA</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>U. Catolica - Palestino</t>
-        </is>
-      </c>
-      <c r="E22" t="n">
-        <v>53.3</v>
-      </c>
-      <c r="F22" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0.49</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>16-02-2025 13:00</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>SLOVENIA</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>1. SNL</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>Primorje - Koper</t>
-        </is>
-      </c>
-      <c r="E23" t="n">
-        <v>66.7</v>
-      </c>
-      <c r="F23" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0.37</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>05-03-2025 11:00</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>WORLD</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>AFC CUP</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>Sanfrecce Hiroshima - Home United</t>
-        </is>
-      </c>
-      <c r="E24" t="n">
-        <v>50</v>
-      </c>
-      <c r="F24" t="n">
-        <v>17</v>
-      </c>
-      <c r="G24" t="n">
-        <v>7.5</v>
+        <v>1.2</v>
       </c>
     </row>
   </sheetData>
@@ -3680,7 +3744,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3728,187 +3792,311 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>04-03-2025 20:45</t>
+          <t>05-03-2025 20:45</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>SCOTLAND</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE</t>
+          <t>CHAMPIONSHIP</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>York - Altrincham</t>
+          <t>Livingston - Raith Rovers</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F2" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="G2" t="n">
-        <v>0.26</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>04-03-2025 20:45</t>
+          <t>05-03-2025 13:00</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>ARMENIA</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE - SOUTH</t>
+          <t>CUP</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Worthing - Bath City</t>
+          <t>FC Urartu - Ararat-Armenia</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>81.8</v>
+        <v>75</v>
       </c>
       <c r="F3" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="G3" t="n">
-        <v>0.42</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>04-03-2025 20:45</t>
+          <t>05-03-2025 19:15</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>NORTHERN-IRELAND</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>PREMIERSHIP</t>
+          <t>SERGIPANO</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Loughgall - Glenavon FC</t>
+          <t>América SE - Guarany SE</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="F4" t="n">
-        <v>1.95</v>
+        <v>2.15</v>
       </c>
       <c r="G4" t="n">
-        <v>0.46</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>04-03-2025 20:00</t>
+          <t>05-03-2025 20:30</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SAUDI-ARABIA</t>
+          <t>EGYPT</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>DIVISION 1</t>
+          <t>PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Al-Adalah - Al Jubail</t>
+          <t>Pyramids FC - Ceramica Cleopatra</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>73.3</v>
+        <v>70</v>
       </c>
       <c r="F5" t="n">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="G5" t="n">
-        <v>0.36</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>05-03-2025 20:45</t>
+          <t>06-03-2025 21:00</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>SCOTLAND</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>CHAMPIONSHIP</t>
+          <t>UEFA EUROPA LEAGUE</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Livingston - Raith Rovers</t>
+          <t>Bodo/Glimt - Olympiakos Piraeus</t>
         </is>
       </c>
       <c r="E6" t="n">
         <v>80</v>
       </c>
       <c r="F6" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="G6" t="n">
-        <v>0.6</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>05-03-2025 20:30</t>
+          <t>06-03-2025 14:30</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>EGYPT</t>
+          <t>INDONESIA</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>PREMIER LEAGUE</t>
+          <t>LIGA 1</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Pyramids FC - Ceramica Cleopatra</t>
+          <t>PSBS Biak Numfor - Pusamania Borneo</t>
         </is>
       </c>
       <c r="E7" t="n">
+        <v>73.3</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>06-03-2025 12:30</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>WORLD</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>AFC CHALLENGE LEAGUE</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Svay Rieng - Shan United</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
         <v>70</v>
       </c>
-      <c r="F7" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0.43</v>
+      <c r="F8" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>06-03-2025 04:30</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>WORLD</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>CONCACAF CHAMPIONS LEAGUE</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Seattle Sounders - Cruz Azul</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>80</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>06-03-2025 02:30</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>WORLD</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>CONCACAF CHAMPIONS LEAGUE</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>CS Herediano - Los Angeles Galaxy</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>73.3</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>06-03-2025 04:30</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>WORLD</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>CONCACAF CHAMPIONS LEAGUE</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Vancouver Whitecaps - Monterrey</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>73.3</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.3</v>
       </c>
     </row>
   </sheetData>
@@ -3922,7 +4110,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3970,379 +4158,379 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>04-03-2025 21:00</t>
+          <t>05-03-2025 14:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>AZERBAIJAN</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>UEFA CHAMPIONS LEAGUE</t>
+          <t>PREMYER LIQA</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Real Madrid - Atletico Madrid</t>
+          <t>Kapaz - Neftchi Baku</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>80</v>
+        <v>66.7</v>
       </c>
       <c r="F2" t="n">
         <v>1.8</v>
       </c>
       <c r="G2" t="n">
-        <v>0.44</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>04-03-2025 20:45</t>
+          <t>05-03-2025 19:30</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>BAHRAIN</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CHAMPIONSHIP</t>
+          <t>PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Hull City - Plymouth</t>
+          <t>A'Ali - Sitra</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F3" t="n">
-        <v>1.91</v>
+        <v>1.7</v>
       </c>
       <c r="G3" t="n">
-        <v>0.43</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>04-03-2025 20:45</t>
+          <t>05-03-2025 23:00</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>CHAMPIONSHIP</t>
+          <t>GAÚCHO - 1</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Millwall - Bristol City</t>
+          <t>Sao Jose - Avenida</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>66.7</v>
+        <v>76.7</v>
       </c>
       <c r="F4" t="n">
-        <v>2.1</v>
+        <v>2.35</v>
       </c>
       <c r="G4" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>04-03-2025 20:45</t>
+          <t>06-03-2025 00:00</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>LEAGUE ONE</t>
+          <t>MATOGROSSENSE</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Northampton - Stockport County</t>
+          <t>Primavera MG - Nova Mutum EC</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F5" t="n">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="G5" t="n">
-        <v>0.4</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>04-03-2025 20:45</t>
+          <t>05-03-2025 18:00</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>ESTONIA</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>LEAGUE ONE</t>
+          <t>CUP</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Rotherham - Leyton Orient</t>
+          <t>FC Tallinn - Tallinna Kalev</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F6" t="n">
         <v>1.95</v>
       </c>
       <c r="G6" t="n">
-        <v>0.4</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>04-03-2025 20:45</t>
+          <t>06-03-2025 00:15</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>HONDURAS</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>LEAGUE ONE</t>
+          <t>LIGA NACIONAL</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Shrewsbury - Bristol Rovers</t>
+          <t>Olancho - Victoria</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>66.7</v>
+        <v>76.7</v>
       </c>
       <c r="F7" t="n">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="G7" t="n">
-        <v>0.3</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>04-03-2025 20:45</t>
+          <t>06-03-2025 00:00</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>JAMAICA</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>LEAGUE TWO</t>
+          <t>PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Colchester - Chesterfield</t>
+          <t>Montego Bay United - Harbour View</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>76.7</v>
+        <v>70</v>
       </c>
       <c r="F8" t="n">
-        <v>1.83</v>
+        <v>2.2</v>
       </c>
       <c r="G8" t="n">
-        <v>0.4</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>04-03-2025 20:45</t>
+          <t>05-03-2025 18:30</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>SOUTH-AFRICA</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>LEAGUE TWO</t>
+          <t>PREMIER SOCCER LEAGUE</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Crewe - Fleetwood Town</t>
+          <t>Golden Arrows - Mamelodi Sundowns</t>
         </is>
       </c>
       <c r="E9" t="n">
         <v>66.7</v>
       </c>
       <c r="F9" t="n">
-        <v>1.91</v>
+        <v>2.1</v>
       </c>
       <c r="G9" t="n">
-        <v>0.27</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>04-03-2025 20:45</t>
+          <t>05-03-2025 18:30</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>SOUTH-AFRICA</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>LEAGUE TWO</t>
+          <t>PREMIER SOCCER LEAGUE</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Grimsby - Tranmere</t>
+          <t>Cape Town City - TS Galaxy</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>79.2</v>
+        <v>65</v>
       </c>
       <c r="F10" t="n">
-        <v>1.83</v>
+        <v>2.05</v>
       </c>
       <c r="G10" t="n">
-        <v>0.45</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>04-03-2025 20:45</t>
+          <t>05-03-2025 20:00</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>SPAIN</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>LEAGUE TWO</t>
+          <t>SEGUNDA DIVISIÓN</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Swindon Town - Salford City</t>
+          <t>Racing Ferrol - Burgos</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>67.8</v>
+        <v>66.7</v>
       </c>
       <c r="F11" t="n">
-        <v>1.83</v>
+        <v>2.25</v>
       </c>
       <c r="G11" t="n">
-        <v>0.24</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>04-03-2025 20:45</t>
+          <t>06-03-2025 18:45</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE</t>
+          <t>UEFA EUROPA CONFERENCE LEAGUE</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Barnet - Yeovil Town</t>
+          <t>Real Betis - Guimaraes</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>66.7</v>
+        <v>68</v>
       </c>
       <c r="F12" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="G12" t="n">
-        <v>0.37</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>04-03-2025 20:45</t>
+          <t>06-03-2025 21:00</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE</t>
+          <t>UEFA EUROPA CONFERENCE LEAGUE</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Boston United - Oldham</t>
+          <t>Pafos - Djurgardens IF</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F13" t="n">
         <v>1.8</v>
       </c>
       <c r="G13" t="n">
-        <v>0.3</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>04-03-2025 23:00</t>
+          <t>06-03-2025 21:00</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -4352,425 +4540,270 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>CONMEBOL LIBERTADORES</t>
+          <t>UEFA EUROPA LEAGUE</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Deportes Iquique - Alianza Lima</t>
+          <t>Bodo/Glimt - Olympiakos Piraeus</t>
         </is>
       </c>
       <c r="E14" t="n">
         <v>68</v>
       </c>
       <c r="F14" t="n">
-        <v>1.93</v>
+        <v>1.7</v>
       </c>
       <c r="G14" t="n">
-        <v>0.31</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>04-03-2025 19:00</t>
+          <t>06-03-2025 21:00</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>PAULISTA - A3</t>
+          <t>UEFA EUROPA LEAGUE</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Rio Branco SP - USAC</t>
+          <t>AS Roma - Athletic Club</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>72</v>
+        <v>76.7</v>
       </c>
       <c r="F15" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="G15" t="n">
-        <v>0.44</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>02-02-2025 22:00</t>
+          <t>06-03-2025 23:00</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>CHILE</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>COPA CHILE</t>
+          <t>CONMEBOL SUDAMERICANA</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Santiago Morning - Recoleta</t>
+          <t>Club Guarani - 2 De Mayo</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>65.8</v>
+        <v>65</v>
       </c>
       <c r="F16" t="n">
-        <v>1.73</v>
+        <v>1.95</v>
       </c>
       <c r="G16" t="n">
-        <v>0.14</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>04-03-2025 18:00</t>
+          <t>06-03-2025 01:30</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>CZECH-REPUBLIC</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>CUP</t>
+          <t>CONMEBOL SUDAMERICANA</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Sigma Olomouc - Hanácká</t>
+          <t>Once Caldas - Millonarios</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>68</v>
+        <v>66.7</v>
       </c>
       <c r="F17" t="n">
-        <v>2.5</v>
+        <v>2.05</v>
       </c>
       <c r="G17" t="n">
-        <v>0.7</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>28-01-2025 20:45</t>
+          <t>06-03-2025 02:00</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>GUATEMALA</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE - SOUTH</t>
+          <t>LIGA NACIONAL</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Chippenham Town - Torquay</t>
+          <t>Xelajú - Achuapa</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>80</v>
+        <v>66.7</v>
       </c>
       <c r="F18" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="G18" t="n">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>04-03-2025 20:45</t>
+          <t>06-03-2025 14:30</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>UKRAINE</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE - SOUTH</t>
+          <t>PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Truro City - Boreham Wood</t>
+          <t>LNZ Cherkasy - Dynamo Kyiv</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="F19" t="n">
-        <v>1.8</v>
+        <v>1.93</v>
       </c>
       <c r="G19" t="n">
-        <v>0.3</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>04-03-2025 14:30</t>
+          <t>06-03-2025 12:00</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>INDONESIA</t>
+          <t>UKRAINE</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>LIGA 1</t>
+          <t>PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Persija - PSIS Semarang</t>
+          <t>Vorskla Poltava - Karpaty</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>77.8</v>
+        <v>67.8</v>
       </c>
       <c r="F20" t="n">
-        <v>1.83</v>
+        <v>1.93</v>
       </c>
       <c r="G20" t="n">
-        <v>0.42</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>04-03-2025 20:45</t>
+          <t>06-03-2025 02:30</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>NORTHERN-IRELAND</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>PREMIERSHIP</t>
+          <t>CONCACAF CHAMPIONS LEAGUE</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Loughgall - Glenavon FC</t>
+          <t>Guadalajara Chivas - Club America</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>75.8</v>
+        <v>66.7</v>
       </c>
       <c r="F21" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="G21" t="n">
-        <v>0.36</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>04-03-2025 16:00</t>
+          <t>06-03-2025 02:30</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>PORTUGAL</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>LIGA REVELAÇÃO U23</t>
+          <t>CONCACAF CHAMPIONS LEAGUE</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Vizela U23 - Estrela U23</t>
+          <t>CS Herediano - Los Angeles Galaxy</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="F22" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="G22" t="n">
-        <v>0.26</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>04-03-2025 20:00</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>SAUDI-ARABIA</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>DIVISION 1</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>Al-Adalah - Al Jubail</t>
-        </is>
-      </c>
-      <c r="E23" t="n">
-        <v>76</v>
-      </c>
-      <c r="F23" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0.44</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>04-03-2025 20:00</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>SAUDI-ARABIA</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>DIVISION 1</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>Abha - Al-Hazm</t>
-        </is>
-      </c>
-      <c r="E24" t="n">
-        <v>67.8</v>
-      </c>
-      <c r="F24" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="G24" t="n">
-        <v>0.17</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>05-03-2025 18:30</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>SOUTH-AFRICA</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>PREMIER SOCCER LEAGUE</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>Golden Arrows - Mamelodi Sundowns</t>
-        </is>
-      </c>
-      <c r="E25" t="n">
-        <v>66.7</v>
-      </c>
-      <c r="F25" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>05-03-2025 18:30</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>SOUTH-AFRICA</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>PREMIER SOCCER LEAGUE</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>Cape Town City - TS Galaxy</t>
-        </is>
-      </c>
-      <c r="E26" t="n">
-        <v>65</v>
-      </c>
-      <c r="F26" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0.33</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>05-03-2025 20:00</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>SPAIN</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>SEGUNDA DIVISIÓN</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>Racing Ferrol - Burgos</t>
-        </is>
-      </c>
-      <c r="E27" t="n">
-        <v>66.7</v>
-      </c>
-      <c r="F27" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="G27" t="n">
-        <v>0.5</v>
+        <v>0.29</v>
       </c>
     </row>
   </sheetData>

--- a/scraper/data/betclever_predictions.xlsx
+++ b/scraper/data/betclever_predictions.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,35 +475,35 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>05-03-2025 20:45</t>
+          <t>06-03-2025 18:45</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SCOTLAND</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>CHAMPIONSHIP</t>
+          <t>UEFA EUROPA CONFERENCE LEAGUE</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Livingston - Raith Rovers</t>
+          <t>Panathinaikos - Fiorentina</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>73.3</v>
+        <v>80</v>
       </c>
       <c r="F2" t="n">
-        <v>1.8</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>05-03-2025 23:00</t>
+          <t>06-03-2025 18:45</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -513,25 +513,25 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CONMEBOL LIBERTADORES</t>
+          <t>UEFA EUROPA CONFERENCE LEAGUE</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>FBC Melgar - Cerro Porteno</t>
+          <t>FC Copenhagen - Chelsea</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F3" t="n">
-        <v>1.75</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>05-03-2025 23:00</t>
+          <t>06-03-2025 21:00</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -541,271 +541,243 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>CONMEBOL SUDAMERICANA</t>
+          <t>UEFA EUROPA CONFERENCE LEAGUE</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Aurora - Gualberto Villarroel SJ</t>
+          <t>Borac Banja Luka - Rapid Vienna</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>73.3</v>
+        <v>70</v>
       </c>
       <c r="F4" t="n">
-        <v>1.73</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>05-03-2025 19:15</t>
+          <t>06-03-2025 21:00</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>SERGIPANO</t>
+          <t>UEFA EUROPA LEAGUE</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>América SE - Guarany SE</t>
+          <t>Ajax - Eintracht Frankfurt</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>80</v>
+        <v>73.3</v>
       </c>
       <c r="F5" t="n">
-        <v>1.77</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>05-03-2025 14:00</t>
+          <t>06-03-2025 17:00</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>TURKEY</t>
+          <t>GEORGIA</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>1. LIG</t>
+          <t>EROVNULI LIGA</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Yeni Çorumspor - Boluspor</t>
+          <t>Gareji - Dinamo Batumi</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>73.3</v>
+        <v>80</v>
       </c>
       <c r="F6" t="n">
-        <v>1.95</v>
+        <v>2.88</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>05-03-2025 18:30</t>
+          <t>06-03-2025 20:00</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>TURKEY</t>
+          <t>SAUDI-ARABIA</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>1. LIG</t>
+          <t>PRO LEAGUE</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Fatih Karagümrük - Bandırmaspor</t>
+          <t>Al Kholood - Al-Fateh</t>
         </is>
       </c>
       <c r="E7" t="n">
         <v>80</v>
       </c>
       <c r="F7" t="n">
-        <v>1.91</v>
+        <v>2.65</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>06-03-2025 18:45</t>
+          <t>06-03-2025 14:00</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>TANZANIA</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>UEFA EUROPA CONFERENCE LEAGUE</t>
+          <t>LIGI KUU BARA</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Panathinaikos - Fiorentina</t>
+          <t>KMC - Singida Big Stars</t>
         </is>
       </c>
       <c r="E8" t="n">
         <v>80</v>
       </c>
       <c r="F8" t="n">
-        <v>3.1</v>
+        <v>1.95</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>06-03-2025 18:45</t>
+          <t>07-03-2025 18:00</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>AUSTRIA</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>UEFA EUROPA CONFERENCE LEAGUE</t>
+          <t>2. LIGA</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>FC Copenhagen - Chelsea</t>
+          <t>SKN ST. Polten - SV Kapfenberg</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>80</v>
+        <v>73.3</v>
       </c>
       <c r="F9" t="n">
-        <v>5</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>06-03-2025 21:00</t>
+          <t>07-03-2025 14:30</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>INDONESIA</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>UEFA EUROPA CONFERENCE LEAGUE</t>
+          <t>LIGA 1</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Borac Banja Luka - Rapid Vienna</t>
+          <t>PSM Makassar - Persebaya Surabaya</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F10" t="n">
-        <v>3.6</v>
+        <v>1.91</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>06-03-2025 21:00</t>
+          <t>07-03-2025 20:45</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>IRELAND</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>UEFA EUROPA LEAGUE</t>
+          <t>PREMIER DIVISION</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Ajax - Eintracht Frankfurt</t>
+          <t>Cork City - Sligo Rovers</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>73.3</v>
+        <v>80</v>
       </c>
       <c r="F11" t="n">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>06-03-2025 20:00</t>
+          <t>07-03-2025 16:00</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>SAUDI-ARABIA</t>
+          <t>MEXICO</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>PRO LEAGUE</t>
+          <t>U23 LEAGUE</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Al Kholood - Al-Fateh</t>
+          <t>Atlético San Luis U23 - Juarez U23</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="F12" t="n">
-        <v>2.65</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>06-03-2025 02:30</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>WORLD</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>CONCACAF CHAMPIONS LEAGUE</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>CS Herediano - Los Angeles Galaxy</t>
-        </is>
-      </c>
-      <c r="E13" t="n">
-        <v>70</v>
-      </c>
-      <c r="F13" t="n">
-        <v>2.45</v>
+        <v>1.85</v>
       </c>
     </row>
   </sheetData>
@@ -862,29 +834,29 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>05-03-2025 23:00</t>
+          <t>07-03-2025 19:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>GERMANY</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>PAULISTA - A3</t>
+          <t>REGIONALLIGA - NORDOST</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>XV De Jau - Itapirense</t>
+          <t>Eilenburg - FSV Zwickau</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>70</v>
+        <v>73.3</v>
       </c>
       <c r="F2" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
     </row>
   </sheetData>
@@ -898,7 +870,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -941,113 +913,113 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>05-03-2025 23:00</t>
+          <t>06-03-2025 21:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>GAÚCHO - 1</t>
+          <t>UEFA EUROPA LEAGUE</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Sao Jose - Avenida</t>
+          <t>AS Roma - Athletic Club</t>
         </is>
       </c>
       <c r="E2" t="n">
         <v>76.7</v>
       </c>
       <c r="F2" t="n">
-        <v>2.35</v>
+        <v>1.91</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>05-03-2025 18:00</t>
+          <t>06-03-2025 15:30</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ESTONIA</t>
+          <t>ALGERIA</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CUP</t>
+          <t>LIGUE 1</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>FC Tallinn - Tallinna Kalev</t>
+          <t>El Bayadh - CR Belouizdad</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>76</v>
+        <v>76.7</v>
       </c>
       <c r="F3" t="n">
-        <v>1.95</v>
+        <v>1.86</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>06-03-2025 00:15</t>
+          <t>06-03-2025 15:00</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>HONDURAS</t>
+          <t>ALGERIA</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>LIGA NACIONAL</t>
+          <t>U21 LEAGUE 1</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Olancho - Victoria</t>
+          <t>ES Sétif U21 - JS Saoura U21</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>76.7</v>
+        <v>79.2</v>
       </c>
       <c r="F4" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>06-03-2025 21:00</t>
+          <t>06-03-2025 17:00</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>LATVIA</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>UEFA EUROPA LEAGUE</t>
+          <t>VIRSLIGA</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>AS Roma - Athletic Club</t>
+          <t>Grobiņa - FS Jelgava</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>76.7</v>
+        <v>77.8</v>
       </c>
       <c r="F5" t="n">
-        <v>1.91</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="6">
@@ -1081,29 +1053,169 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>06-03-2025 02:30</t>
+          <t>07-03-2025 20:45</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>SCOTLAND</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>FA CUP</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Heart Of Midlothian - Dundee</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>80</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1.83</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>07-03-2025 18:00</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>AUSTRIA</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>2. LIGA</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Austria Lustenau - SV Horn</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>80</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1.85</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>07-03-2025 20:30</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>AUSTRIA</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>2. LIGA</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Admira Wacker - Schwarz-Weiß Bregenz</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>80</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1.85</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>07-03-2025 20:45</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>IRELAND</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>PREMIER DIVISION</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Cork City - Sligo Rovers</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>80</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1.85</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>07-03-2025 19:00</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>SPAIN</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>SEGUNDA DIVISIÓN</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Eibar - Almeria</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>78.3</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>07-03-2025 02:00</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
           <t>WORLD</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>CONCACAF CHAMPIONS LEAGUE</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>CS Herediano - Los Angeles Galaxy</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
-        <v>76</v>
-      </c>
-      <c r="F7" t="n">
-        <v>1.7</v>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Inter Miami - Cavalier</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>80</v>
+      </c>
+      <c r="F12" t="n">
+        <v>2.8</v>
       </c>
     </row>
   </sheetData>
@@ -1117,7 +1229,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1170,409 +1282,613 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>05-03-2025 20:45</t>
+          <t>06-03-2025 21:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SCOTLAND</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>CHAMPIONSHIP</t>
+          <t>UEFA EUROPA CONFERENCE LEAGUE</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Livingston - Raith Rovers</t>
+          <t>Celje - FC Lugano</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>80</v>
+        <v>86.7</v>
       </c>
       <c r="F2" t="n">
-        <v>2</v>
+        <v>1.62</v>
       </c>
       <c r="G2" t="n">
-        <v>25</v>
+        <v>66.7</v>
       </c>
       <c r="H2" t="n">
-        <v>3.4</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>05-03-2025 21:00</t>
+          <t>06-03-2025 18:45</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ICELAND</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>LEAGUE CUP</t>
+          <t>UEFA EUROPA LEAGUE</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Fjolnir - Grindavik</t>
+          <t>Fenerbahce - Rangers</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>85</v>
+        <v>93.3</v>
       </c>
       <c r="F3" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="G3" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="H3" t="n">
-        <v>2.2</v>
+        <v>2.62</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>05-03-2025 20:00</t>
+          <t>06-03-2025 21:00</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ICELAND</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>LEAGUE CUP</t>
+          <t>UEFA EUROPA LEAGUE</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Fylkir - Njardvik</t>
+          <t>Bodo/Glimt - Olympiakos Piraeus</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="F4" t="n">
-        <v>1.48</v>
+        <v>1.91</v>
       </c>
       <c r="G4" t="n">
         <v>60</v>
       </c>
       <c r="H4" t="n">
-        <v>2.3</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>05-03-2025 12:00</t>
+          <t>06-03-2025 19:30</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>UEFA YOUTH LEAGUE</t>
+          <t>MARANHENSE</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Trabzonspor U19 - Atalanta U19</t>
+          <t>Maranhão - Tuntum</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>66.7</v>
+        <v>80</v>
       </c>
       <c r="F5" t="n">
-        <v>1.5</v>
+        <v>1.9</v>
       </c>
       <c r="G5" t="n">
-        <v>60</v>
+        <v>42.5</v>
       </c>
       <c r="H5" t="n">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>06-03-2025 21:00</t>
+          <t>06-03-2025 17:00</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>GEORGIA</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>UEFA EUROPA CONFERENCE LEAGUE</t>
+          <t>EROVNULI LIGA</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Celje - FC Lugano</t>
+          <t>Gareji - Dinamo Batumi</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>86.7</v>
+        <v>80</v>
       </c>
       <c r="F6" t="n">
-        <v>1.62</v>
+        <v>2.15</v>
       </c>
       <c r="G6" t="n">
         <v>66.7</v>
       </c>
       <c r="H6" t="n">
-        <v>2.5</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>06-03-2025 18:45</t>
+          <t>06-03-2025 14:30</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>INDIA</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>UEFA EUROPA LEAGUE</t>
+          <t>I-LEAGUE</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Fenerbahce - Rangers</t>
+          <t>Inter Kashi - Namdhari</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>93.3</v>
+        <v>75</v>
       </c>
       <c r="F7" t="n">
-        <v>1.62</v>
+        <v>1.66</v>
       </c>
       <c r="G7" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="H7" t="n">
-        <v>2.62</v>
+        <v>2.65</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>06-03-2025 21:00</t>
+          <t>06-03-2025 14:30</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>INDONESIA</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>UEFA EUROPA LEAGUE</t>
+          <t>LIGA 1</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Bodo/Glimt - Olympiakos Piraeus</t>
+          <t>PSBS Biak Numfor - Pusamania Borneo</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>80</v>
+        <v>73.3</v>
       </c>
       <c r="F8" t="n">
-        <v>1.91</v>
+        <v>1.85</v>
       </c>
       <c r="G8" t="n">
         <v>60</v>
       </c>
       <c r="H8" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>06-03-2025 14:30</t>
+          <t>06-03-2025 12:30</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>INDIA</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>I-LEAGUE</t>
+          <t>AFC CHALLENGE LEAGUE</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Inter Kashi - Namdhari</t>
+          <t>Svay Rieng - Shan United</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="F9" t="n">
-        <v>1.66</v>
+        <v>1.7</v>
       </c>
       <c r="G9" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="H9" t="n">
-        <v>2.65</v>
+        <v>2.75</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>06-03-2025 14:30</t>
+          <t>06-03-2025 12:00</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>INDONESIA</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>LIGA 1</t>
+          <t>AFC CHALLENGE LEAGUE</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>PSBS Biak Numfor - Pusamania Borneo</t>
+          <t>Tainan City - Persepam Madura Utd</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>73.3</v>
+        <v>80</v>
       </c>
       <c r="F10" t="n">
-        <v>1.85</v>
+        <v>1.62</v>
       </c>
       <c r="G10" t="n">
-        <v>60</v>
+        <v>66.7</v>
       </c>
       <c r="H10" t="n">
-        <v>3.1</v>
+        <v>2.55</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>06-03-2025 12:30</t>
+          <t>07-03-2025 20:45</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>SCOTLAND</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>AFC CHALLENGE LEAGUE</t>
+          <t>FA CUP</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Svay Rieng - Shan United</t>
+          <t>Heart Of Midlothian - Dundee</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F11" t="n">
-        <v>1.7</v>
+        <v>1.91</v>
       </c>
       <c r="G11" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="H11" t="n">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>06-03-2025 12:00</t>
+          <t>07-03-2025 20:30</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>AUSTRIA</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>AFC CHALLENGE LEAGUE</t>
+          <t>2. LIGA</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Tainan City - Persepam Madura Utd</t>
+          <t>Admira Wacker - Schwarz-Weiß Bregenz</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="F12" t="n">
-        <v>1.62</v>
+        <v>1.87</v>
       </c>
       <c r="G12" t="n">
-        <v>66.7</v>
+        <v>55</v>
       </c>
       <c r="H12" t="n">
-        <v>2.55</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>06-03-2025 04:30</t>
+          <t>07-03-2025 19:00</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>DENMARK</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>CONCACAF CHAMPIONS LEAGUE</t>
+          <t>1. DIVISION</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Seattle Sounders - Cruz Azul</t>
+          <t>B 93 - HB Koge</t>
         </is>
       </c>
       <c r="E13" t="n">
+        <v>90</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="G13" t="n">
+        <v>65</v>
+      </c>
+      <c r="H13" t="n">
+        <v>2.88</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>07-03-2025 19:00</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>GERMANY</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>REGIONALLIGA - NORDOST</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>FC Rot-Weiß Erfurt - ZFC Meuselwitz</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>82.5</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="G14" t="n">
+        <v>45</v>
+      </c>
+      <c r="H14" t="n">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>07-03-2025 19:00</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>GERMANY</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>REGIONALLIGA - SUDWEST</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Eintracht Trier - TSV Steinbach</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>85</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="G15" t="n">
+        <v>65</v>
+      </c>
+      <c r="H15" t="n">
+        <v>2.85</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>07-03-2025 20:45</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>IRELAND</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>PREMIER DIVISION</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Cork City - Sligo Rovers</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>95</v>
+      </c>
+      <c r="F16" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="G16" t="n">
+        <v>55</v>
+      </c>
+      <c r="H16" t="n">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>07-03-2025 16:00</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>MEXICO</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>U23 LEAGUE</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Atlético San Luis U23 - Juarez U23</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
         <v>80</v>
       </c>
-      <c r="F13" t="n">
+      <c r="F17" t="n">
         <v>1.8</v>
       </c>
-      <c r="G13" t="n">
-        <v>73.3</v>
-      </c>
-      <c r="H13" t="n">
-        <v>2.95</v>
+      <c r="G17" t="n">
+        <v>50</v>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>07-03-2025 20:30</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>POLAND</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>I LIGA</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Tychy 71 - Pogoń Siedlce</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="F18" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="G18" t="n">
+        <v>60</v>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>07-03-2025 20:00</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>SAUDI-ARABIA</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>PRO LEAGUE</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Al-Nassr - Al Shabab</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>95</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="G19" t="n">
+        <v>75</v>
+      </c>
+      <c r="H19" t="n">
+        <v>2.23</v>
       </c>
     </row>
   </sheetData>
@@ -1586,7 +1902,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G55"/>
+  <dimension ref="A1:G68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1634,7 +1950,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>05-03-2025 18:45</t>
+          <t>06-03-2025 18:45</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -1644,28 +1960,28 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>UEFA CHAMPIONS LEAGUE</t>
+          <t>UEFA EUROPA CONFERENCE LEAGUE</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Feyenoord - Inter</t>
+          <t>Panathinaikos - Fiorentina</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="F2" t="n">
-        <v>5.25</v>
+        <v>3.1</v>
       </c>
       <c r="G2" t="n">
-        <v>2.15</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>05-03-2025 21:00</t>
+          <t>06-03-2025 18:45</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -1675,59 +1991,59 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>UEFA CHAMPIONS LEAGUE</t>
+          <t>UEFA EUROPA CONFERENCE LEAGUE</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Paris Saint Germain - Liverpool</t>
+          <t>Molde - Legia Warszawa</t>
         </is>
       </c>
       <c r="E3" t="n">
         <v>66.7</v>
       </c>
       <c r="F3" t="n">
-        <v>2.5</v>
+        <v>2.05</v>
       </c>
       <c r="G3" t="n">
-        <v>0.67</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>05-03-2025 20:45</t>
+          <t>06-03-2025 18:45</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SCOTLAND</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>CHAMPIONSHIP</t>
+          <t>UEFA EUROPA CONFERENCE LEAGUE</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Livingston - Raith Rovers</t>
+          <t>FC Copenhagen - Chelsea</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>73.3</v>
+        <v>80</v>
       </c>
       <c r="F4" t="n">
-        <v>1.8</v>
+        <v>5</v>
       </c>
       <c r="G4" t="n">
-        <v>0.32</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>05-03-2025 23:00</t>
+          <t>06-03-2025 21:00</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1737,28 +2053,28 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>CONMEBOL LIBERTADORES</t>
+          <t>UEFA EUROPA CONFERENCE LEAGUE</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>FBC Melgar - Cerro Porteno</t>
+          <t>Jagiellonia - Cercle Brugge</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="F5" t="n">
-        <v>1.75</v>
+        <v>2.05</v>
       </c>
       <c r="G5" t="n">
-        <v>0.22</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>05-03-2025 23:00</t>
+          <t>06-03-2025 21:00</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1768,28 +2084,28 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>CONMEBOL SUDAMERICANA</t>
+          <t>UEFA EUROPA CONFERENCE LEAGUE</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Union Espanola - Everton De Vina</t>
+          <t>Celje - FC Lugano</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>53.3</v>
+        <v>50</v>
       </c>
       <c r="F6" t="n">
-        <v>2.35</v>
+        <v>2.7</v>
       </c>
       <c r="G6" t="n">
-        <v>0.25</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>05-03-2025 23:00</t>
+          <t>06-03-2025 21:00</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1799,710 +2115,710 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>CONMEBOL SUDAMERICANA</t>
+          <t>UEFA EUROPA CONFERENCE LEAGUE</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Aurora - Gualberto Villarroel SJ</t>
+          <t>Borac Banja Luka - Rapid Vienna</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>73.3</v>
+        <v>70</v>
       </c>
       <c r="F7" t="n">
-        <v>1.73</v>
+        <v>3.6</v>
       </c>
       <c r="G7" t="n">
-        <v>0.27</v>
+        <v>1.52</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>05-03-2025 15:00</t>
+          <t>06-03-2025 18:45</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ALGERIA</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>U21 LEAGUE 1</t>
+          <t>UEFA EUROPA LEAGUE</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Olympique Akbou U21 - Paradou AC U21</t>
+          <t>AZ Alkmaar - Tottenham</t>
         </is>
       </c>
       <c r="E8" t="n">
         <v>60</v>
       </c>
       <c r="F8" t="n">
-        <v>1.7</v>
+        <v>3.25</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>05-03-2025 15:00</t>
+          <t>06-03-2025 21:00</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ALGERIA</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>U21 LEAGUE 1</t>
+          <t>UEFA EUROPA LEAGUE</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Khenchela U21 - ASO Chlef U21</t>
+          <t>Plzen - Lazio</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>63.3</v>
+        <v>60</v>
       </c>
       <c r="F9" t="n">
-        <v>2.2</v>
+        <v>3.8</v>
       </c>
       <c r="G9" t="n">
-        <v>0.39</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>05-03-2025 13:00</t>
+          <t>06-03-2025 21:00</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ARMENIA</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>CUP</t>
+          <t>UEFA EUROPA LEAGUE</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>FC Urartu - Ararat-Armenia</t>
+          <t>Ajax - Eintracht Frankfurt</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>53.3</v>
+        <v>73.3</v>
       </c>
       <c r="F10" t="n">
-        <v>4.2</v>
+        <v>2.5</v>
       </c>
       <c r="G10" t="n">
-        <v>1.24</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>04-03-2025 19:30</t>
+          <t>06-03-2025 23:00</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>BAHRAIN</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>PREMIER LEAGUE</t>
+          <t>CONMEBOL SUDAMERICANA</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Bahrain SC - Al Ahli</t>
+          <t>Cerro Largo - Danubio</t>
         </is>
       </c>
       <c r="E11" t="n">
         <v>53.3</v>
       </c>
       <c r="F11" t="n">
-        <v>4.33</v>
+        <v>2.45</v>
       </c>
       <c r="G11" t="n">
-        <v>1.31</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>06-03-2025 00:00</t>
+          <t>06-03-2025 15:30</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>ALGERIA</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>MATOGROSSENSE</t>
+          <t>LIGUE 1</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Primavera MG - Nova Mutum EC</t>
+          <t>El Bayadh - CR Belouizdad</t>
         </is>
       </c>
       <c r="E12" t="n">
         <v>50</v>
       </c>
       <c r="F12" t="n">
-        <v>2</v>
+        <v>2.26</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>05-03-2025 19:00</t>
+          <t>06-03-2025 15:00</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>ALGERIA</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>PAULISTA - A3</t>
+          <t>LIGUE 2</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Monte Azul - Sertãozinho</t>
+          <t>RB Ouargla - US Chaouia</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>60</v>
+        <v>56.7</v>
       </c>
       <c r="F13" t="n">
-        <v>2.05</v>
+        <v>1.81</v>
       </c>
       <c r="G13" t="n">
-        <v>0.23</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>06-03-2025 00:00</t>
+          <t>06-03-2025 17:00</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>GEORGIA</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>PAULISTA - A3</t>
+          <t>EROVNULI LIGA</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Comercial - Bandeirante SP</t>
+          <t>Gareji - Dinamo Batumi</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="F14" t="n">
         <v>2.88</v>
       </c>
       <c r="G14" t="n">
-        <v>0.73</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>05-03-2025 23:15</t>
+          <t>06-03-2025 20:00</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>ICELAND</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>PAULISTA - A3</t>
+          <t>LEAGUE CUP</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>União São João - Catanduva</t>
+          <t>HK Kopavogur - IR Reykjavik</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>50</v>
+        <v>66.7</v>
       </c>
       <c r="F15" t="n">
-        <v>2.8</v>
+        <v>5.5</v>
       </c>
       <c r="G15" t="n">
-        <v>0.4</v>
+        <v>2.67</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>05-03-2025 19:15</t>
+          <t>06-03-2025 14:30</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>INDONESIA</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>SERGIPANO</t>
+          <t>LIGA 1</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>América SE - Guarany SE</t>
+          <t>PSBS Biak Numfor - Pusamania Borneo</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="F16" t="n">
-        <v>1.77</v>
+        <v>2.6</v>
       </c>
       <c r="G16" t="n">
-        <v>0.42</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>06-03-2025 00:30</t>
+          <t>06-03-2025 14:30</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>INDONESIA</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>SERGIPANO</t>
+          <t>LIGA 1</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>AO Itabaiana - Sergipe</t>
+          <t>Persis Solo - Bali United</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>53.3</v>
+        <v>60</v>
       </c>
       <c r="F17" t="n">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.04</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>05-03-2025 17:00</t>
+          <t>06-03-2025 16:15</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>CROATIA</t>
+          <t>IRAN</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>CUP</t>
+          <t>PERSIAN GULF PRO LEAGUE</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>NK Slaven Belupo - HNK Gorica</t>
+          <t>Gol Gohar - Kheybar Khorramabad</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>60</v>
+        <v>56.7</v>
       </c>
       <c r="F18" t="n">
-        <v>1.76</v>
+        <v>2.15</v>
       </c>
       <c r="G18" t="n">
-        <v>0.06</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>05-03-2025 20:00</t>
+          <t>06-03-2025 20:00</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>EGYPT</t>
+          <t>SAUDI-ARABIA</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>PREMIER LEAGUE</t>
+          <t>PRO LEAGUE</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Petrojet - Ghazl El Mehalla</t>
+          <t>Al Kholood - Al-Fateh</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="F19" t="n">
-        <v>2.2</v>
+        <v>2.65</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1</v>
+        <v>1.12</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>05-03-2025 18:00</t>
+          <t>06-03-2025 14:00</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>ESTONIA</t>
+          <t>TANZANIA</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>CUP</t>
+          <t>LIGI KUU BARA</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>FC Tallinn - Tallinna Kalev</t>
+          <t>KMC - Singida Big Stars</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="F20" t="n">
-        <v>7.5</v>
+        <v>1.95</v>
       </c>
       <c r="G20" t="n">
-        <v>2.75</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>05-03-2025 19:00</t>
+          <t>06-03-2025 14:00</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>GERMANY</t>
+          <t>TURKEY</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>REGIONALLIGA - NORD</t>
+          <t>1. LIG</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>SSV Jeddeloh - Weiche Flensburg</t>
+          <t>İstanbulspor - Sakaryaspor</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>56.7</v>
+        <v>50</v>
       </c>
       <c r="F21" t="n">
-        <v>2.8</v>
+        <v>1.9</v>
       </c>
       <c r="G21" t="n">
-        <v>0.59</v>
+        <v>-0.05</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>05-03-2025 19:00</t>
+          <t>06-03-2025 18:30</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>GERMANY</t>
+          <t>TURKEY</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>REGIONALLIGA - WEST</t>
+          <t>1. LIG</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>FC Gutersloh - Sportfreunde Lotte</t>
+          <t>Ümraniyespor - Kocaelispor</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>66.7</v>
+        <v>60</v>
       </c>
       <c r="F22" t="n">
-        <v>3.75</v>
+        <v>3.45</v>
       </c>
       <c r="G22" t="n">
-        <v>1.5</v>
+        <v>1.07</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>05-03-2025 21:00</t>
+          <t>06-03-2025 12:00</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>ICELAND</t>
+          <t>UKRAINE</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>LEAGUE CUP</t>
+          <t>PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Fjolnir - Grindavik</t>
+          <t>Vorskla Poltava - Karpaty</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>53.3</v>
+        <v>58</v>
       </c>
       <c r="F23" t="n">
-        <v>2.1</v>
+        <v>3.1</v>
       </c>
       <c r="G23" t="n">
-        <v>0.12</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>05-03-2025 15:00</t>
+          <t>06-03-2025 12:00</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>INDIA</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>INDIAN SUPER LEAGUE</t>
+          <t>AFC CHALLENGE LEAGUE</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Jamshedpur - Odisha</t>
+          <t>Tainan City - Persepam Madura Utd</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>53.3</v>
+        <v>60</v>
       </c>
       <c r="F24" t="n">
-        <v>2.15</v>
+        <v>2.35</v>
       </c>
       <c r="G24" t="n">
-        <v>0.15</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>05-03-2025 18:30</t>
+          <t>06-03-2025 23:00</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>SOUTH-AFRICA</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>PREMIER SOCCER LEAGUE</t>
+          <t>CONMEBOL LIBERTADORES U20</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Cape Town City - TS Galaxy</t>
+          <t>Cerro Porteño U20 - Palmeiras U20</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>58.3</v>
+        <v>60</v>
       </c>
       <c r="F25" t="n">
-        <v>2.75</v>
+        <v>7.5</v>
       </c>
       <c r="G25" t="n">
-        <v>0.6</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>05-03-2025 14:00</t>
+          <t>07-03-2025 20:00</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>TURKEY</t>
+          <t>NETHERLANDS</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>1. LIG</t>
+          <t>EERSTE DIVISIE</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Yeni Çorumspor - Boluspor</t>
+          <t>De Graafschap - Excelsior</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>73.3</v>
+        <v>60</v>
       </c>
       <c r="F26" t="n">
-        <v>1.95</v>
+        <v>2.2</v>
       </c>
       <c r="G26" t="n">
-        <v>0.43</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>05-03-2025 18:30</t>
+          <t>07-03-2025 20:00</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>TURKEY</t>
+          <t>NETHERLANDS</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>1. LIG</t>
+          <t>EERSTE DIVISIE</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Fatih Karagümrük - Bandırmaspor</t>
+          <t>FC Eindhoven - Vitesse</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="F27" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="G27" t="n">
-        <v>0.53</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>05-03-2025 14:00</t>
+          <t>07-03-2025 20:00</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>TURKEY</t>
+          <t>NETHERLANDS</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>1. LIG</t>
+          <t>EERSTE DIVISIE</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Şanlıurfaspor - Adanaspor</t>
+          <t>Telstar - Dordrecht</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>66.7</v>
+        <v>53.3</v>
       </c>
       <c r="F28" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="G28" t="n">
-        <v>0.3</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>05-03-2025 13:00</t>
+          <t>07-03-2025 21:15</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>PORTUGAL</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>AFC CHAMPIONS LEAGUE</t>
+          <t>PRIMEIRA LIGA</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Shanghai Shenhua - Kawasaki Frontale</t>
+          <t>Estrela - GIL Vicente</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>53.3</v>
+        <v>60</v>
       </c>
       <c r="F29" t="n">
-        <v>3.2</v>
+        <v>2.66</v>
       </c>
       <c r="G29" t="n">
-        <v>0.71</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>05-03-2025 17:00</t>
+          <t>07-03-2025 01:30</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -2512,28 +2828,28 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>AFC CUP</t>
+          <t>CONMEBOL SUDAMERICANA</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Shabab Al Ahli Dubai - Sharjah FC</t>
+          <t>Junior - America De Cali</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>66.7</v>
+        <v>60</v>
       </c>
       <c r="F30" t="n">
-        <v>1.73</v>
+        <v>2.1</v>
       </c>
       <c r="G30" t="n">
-        <v>0.15</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>05-03-2025 12:00</t>
+          <t>07-03-2025 01:30</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -2543,12 +2859,12 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>UEFA YOUTH LEAGUE</t>
+          <t>CONMEBOL SUDAMERICANA</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Trabzonspor U19 - Atalanta U19</t>
+          <t>Real Esppor Club - Caracas FC</t>
         </is>
       </c>
       <c r="E31" t="n">
@@ -2564,745 +2880,1148 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>05-03-2025 16:00</t>
+          <t>07-03-2025 15:00</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>ALGERIA</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>UEFA YOUTH LEAGUE</t>
+          <t>LIGUE 1</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Bayern München U19 - Internazionale U19</t>
+          <t>Khenchela - ASO Chlef</t>
         </is>
       </c>
       <c r="E32" t="n">
         <v>60</v>
       </c>
       <c r="F32" t="n">
-        <v>2.8</v>
+        <v>2.15</v>
       </c>
       <c r="G32" t="n">
-        <v>0.68</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>06-03-2025 18:45</t>
+          <t>07-03-2025 15:00</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>ALGERIA</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>UEFA EUROPA CONFERENCE LEAGUE</t>
+          <t>LIGUE 2</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Panathinaikos - Fiorentina</t>
+          <t>MO Constantine - Khroub</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>80</v>
+        <v>58</v>
       </c>
       <c r="F33" t="n">
-        <v>3.1</v>
+        <v>2.14</v>
       </c>
       <c r="G33" t="n">
-        <v>1.48</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>06-03-2025 18:45</t>
+          <t>07-03-2025 10:00</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>AUSTRALIA</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>UEFA EUROPA CONFERENCE LEAGUE</t>
+          <t>NORTHERN NSW NPL</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Molde - Legia Warszawa</t>
+          <t>Belmont Swansea - Cooks Hill United</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>66.7</v>
+        <v>60</v>
       </c>
       <c r="F34" t="n">
-        <v>2.05</v>
+        <v>2.75</v>
       </c>
       <c r="G34" t="n">
-        <v>0.37</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>06-03-2025 18:45</t>
+          <t>07-03-2025 10:00</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>AUSTRALIA</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>UEFA EUROPA CONFERENCE LEAGUE</t>
+          <t>VICTORIA NPL 2</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>FC Copenhagen - Chelsea</t>
+          <t>Brunswick City - Sunshine Georgies</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="F35" t="n">
-        <v>5</v>
+        <v>2.1</v>
       </c>
       <c r="G35" t="n">
-        <v>3</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>06-03-2025 21:00</t>
+          <t>07-03-2025 18:00</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>AUSTRIA</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>UEFA EUROPA CONFERENCE LEAGUE</t>
+          <t>2. LIGA</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Jagiellonia - Cercle Brugge</t>
+          <t>Voitsberg - Rapid Wien II</t>
         </is>
       </c>
       <c r="E36" t="n">
         <v>60</v>
       </c>
       <c r="F36" t="n">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="G36" t="n">
-        <v>0.23</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>06-03-2025 21:00</t>
+          <t>07-03-2025 18:00</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>AUSTRIA</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>UEFA EUROPA CONFERENCE LEAGUE</t>
+          <t>2. LIGA</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Celje - FC Lugano</t>
+          <t>SKN ST. Polten - SV Kapfenberg</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>50</v>
+        <v>73.3</v>
       </c>
       <c r="F37" t="n">
-        <v>2.7</v>
+        <v>1.75</v>
       </c>
       <c r="G37" t="n">
-        <v>0.35</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>06-03-2025 21:00</t>
+          <t>07-03-2025 01:30</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>UEFA EUROPA CONFERENCE LEAGUE</t>
+          <t>COPA DO BRASIL</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Borac Banja Luka - Rapid Vienna</t>
+          <t>Olaria - Brusque</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="F38" t="n">
-        <v>3.6</v>
+        <v>4.1</v>
       </c>
       <c r="G38" t="n">
-        <v>1.52</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>06-03-2025 18:45</t>
+          <t>08-03-2025 00:00</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>CHILE</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>UEFA EUROPA LEAGUE</t>
+          <t>PRIMERA DIVISIÓN</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>AZ Alkmaar - Tottenham</t>
+          <t>Union La Calera - Huachipato</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>60</v>
+        <v>53.3</v>
       </c>
       <c r="F39" t="n">
-        <v>3.25</v>
+        <v>2.15</v>
       </c>
       <c r="G39" t="n">
-        <v>0.95</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>06-03-2025 21:00</t>
+          <t>07-03-2025 18:00</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>CZECH-REPUBLIC</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>UEFA EUROPA LEAGUE</t>
+          <t>FNL</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Plzen - Lazio</t>
+          <t>Prostějov - Viktoria Žižkov</t>
         </is>
       </c>
       <c r="E40" t="n">
         <v>60</v>
       </c>
       <c r="F40" t="n">
-        <v>3.8</v>
+        <v>2.6</v>
       </c>
       <c r="G40" t="n">
-        <v>1.28</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>06-03-2025 21:00</t>
+          <t>07-03-2025 19:00</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>DENMARK</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>UEFA EUROPA LEAGUE</t>
+          <t>1. DIVISION</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Ajax - Eintracht Frankfurt</t>
+          <t>B 93 - HB Koge</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>73.3</v>
+        <v>55.7</v>
       </c>
       <c r="F41" t="n">
-        <v>2.5</v>
+        <v>2.15</v>
       </c>
       <c r="G41" t="n">
-        <v>0.83</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>06-03-2025 03:00</t>
+          <t>10-01-2025 20:00</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>CONMEBOL SUDAMERICANA</t>
+          <t>PREMIER LEAGUE 2 DIVISION ONE</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Mushuc Runa SC - Orense SC</t>
+          <t>Middlesbrough U21 - Newcastle United U21</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>53.3</v>
+        <v>50</v>
       </c>
       <c r="F42" t="n">
-        <v>1.85</v>
+        <v>2.65</v>
       </c>
       <c r="G42" t="n">
-        <v>-0.01</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>06-03-2025 23:00</t>
+          <t>07-03-2025 15:00</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>CONMEBOL SUDAMERICANA</t>
+          <t>PROFESSIONAL DEVELOPMENT LEAGUE</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Cerro Largo - Danubio</t>
+          <t>Queens Park Rangers U21 - AFC Bournemouth U21</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>53.3</v>
+        <v>50</v>
       </c>
       <c r="F43" t="n">
-        <v>2.45</v>
+        <v>2.05</v>
       </c>
       <c r="G43" t="n">
-        <v>0.31</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>06-03-2025 01:30</t>
+          <t>07-03-2025 19:30</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>FRANCE</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>CONMEBOL SUDAMERICANA</t>
+          <t>NATIONAL 1</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Once Caldas - Millonarios</t>
+          <t>Boulogne - Aubagne</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>53.3</v>
+        <v>50</v>
       </c>
       <c r="F44" t="n">
-        <v>3.1</v>
+        <v>2.05</v>
       </c>
       <c r="G44" t="n">
-        <v>0.65</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>06-03-2025 01:30</t>
+          <t>07-03-2025 19:30</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>FRANCE</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>CATARINENSE - 1</t>
+          <t>NATIONAL 1</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Avai - Figueirense</t>
+          <t>Dijon - Orleans</t>
         </is>
       </c>
       <c r="E45" t="n">
         <v>60</v>
       </c>
       <c r="F45" t="n">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="G45" t="n">
-        <v>0.26</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>06-03-2025 14:30</t>
+          <t>07-03-2025 19:30</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>INDONESIA</t>
+          <t>FRANCE</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>LIGA 1</t>
+          <t>NATIONAL 1</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>PSBS Biak Numfor - Pusamania Borneo</t>
+          <t>Sochaux - Nimes</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>50</v>
+        <v>53.3</v>
       </c>
       <c r="F46" t="n">
-        <v>2.6</v>
+        <v>1.9</v>
       </c>
       <c r="G46" t="n">
-        <v>0.3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>06-03-2025 14:30</t>
+          <t>07-03-2025 19:30</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>INDONESIA</t>
+          <t>FRANCE</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>LIGA 1</t>
+          <t>NATIONAL 1</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Persis Solo - Bali United</t>
+          <t>Chateauroux - Concarneau</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>60</v>
+        <v>62.3</v>
       </c>
       <c r="F47" t="n">
-        <v>2.25</v>
+        <v>2.45</v>
       </c>
       <c r="G47" t="n">
-        <v>0.35</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>06-03-2025 03:00</t>
+          <t>07-03-2025 18:30</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>MEXICO</t>
+          <t>GERMANY</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>LIGA DE EXPANSIÓN MX</t>
+          <t>2. BUNDESLIGA</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Venados FC - Tapatío</t>
+          <t>1. FC Kaiserslautern - SV Elversberg</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>56.7</v>
+        <v>66.7</v>
       </c>
       <c r="F48" t="n">
-        <v>2.05</v>
+        <v>2.3</v>
       </c>
       <c r="G48" t="n">
-        <v>0.16</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>06-03-2025 20:00</t>
+          <t>07-03-2025 19:00</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>SAUDI-ARABIA</t>
+          <t>GERMANY</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>PRO LEAGUE</t>
+          <t>REGIONALLIGA - BAYERN</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Al Kholood - Al-Fateh</t>
+          <t>Buchbach - Schwaben Augsburg</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="F49" t="n">
-        <v>2.65</v>
+        <v>1.77</v>
       </c>
       <c r="G49" t="n">
-        <v>1.12</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>06-03-2025 14:00</t>
+          <t>07-03-2025 19:00</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>TURKEY</t>
+          <t>GERMANY</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>1. LIG</t>
+          <t>REGIONALLIGA - NORDOST</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>İstanbulspor - Sakaryaspor</t>
+          <t>FC Rot-Weiß Erfurt - ZFC Meuselwitz</t>
         </is>
       </c>
       <c r="E50" t="n">
         <v>50</v>
       </c>
       <c r="F50" t="n">
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="G50" t="n">
-        <v>-0.05</v>
+        <v>-0.15</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>06-03-2025 18:30</t>
+          <t>07-03-2025 02:00</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>TURKEY</t>
+          <t>GUATEMALA</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>1. LIG</t>
+          <t>LIGA NACIONAL</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Ümraniyespor - Kocaelispor</t>
+          <t>Malacateco - Cobán Imperial</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>60</v>
+        <v>66.7</v>
       </c>
       <c r="F51" t="n">
-        <v>3.45</v>
+        <v>1.85</v>
       </c>
       <c r="G51" t="n">
-        <v>1.07</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>06-03-2025 12:00</t>
+          <t>07-03-2025 20:00</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>UKRAINE</t>
+          <t>HUNGARY</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>PREMIER LEAGUE</t>
+          <t>NB I</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Vorskla Poltava - Karpaty</t>
+          <t>Kecskeméti TE - Fehérvár FC</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="F52" t="n">
-        <v>3.1</v>
+        <v>2.25</v>
       </c>
       <c r="G52" t="n">
-        <v>0.8</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>06-03-2025 12:00</t>
+          <t>07-03-2025 14:30</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>INDONESIA</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>AFC CHALLENGE LEAGUE</t>
+          <t>LIGA 1</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Tainan City - Persepam Madura Utd</t>
+          <t>PSM Makassar - Persebaya Surabaya</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="F53" t="n">
-        <v>2.35</v>
+        <v>1.91</v>
       </c>
       <c r="G53" t="n">
-        <v>0.41</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>06-03-2025 02:30</t>
+          <t>07-03-2025 14:30</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>INDONESIA</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>CONCACAF CHAMPIONS LEAGUE</t>
+          <t>LIGA 1</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>CS Herediano - Los Angeles Galaxy</t>
+          <t>Persita - PSS Sleman</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F54" t="n">
-        <v>2.45</v>
+        <v>2.6</v>
       </c>
       <c r="G54" t="n">
-        <v>0.72</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>06-03-2025 04:30</t>
+          <t>07-03-2025 20:45</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>IRELAND</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>CONCACAF CHAMPIONS LEAGUE</t>
+          <t>FIRST DIVISION</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Vancouver Whitecaps - Monterrey</t>
+          <t>Wexford - Athlone Town</t>
         </is>
       </c>
       <c r="E55" t="n">
+        <v>53.3</v>
+      </c>
+      <c r="F55" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="G55" t="n">
+        <v>-0.01</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>07-03-2025 20:45</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>IRELAND</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>PREMIER DIVISION</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Cork City - Sligo Rovers</t>
+        </is>
+      </c>
+      <c r="E56" t="n">
+        <v>80</v>
+      </c>
+      <c r="F56" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>07-03-2025 20:45</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>IRELAND</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>PREMIER DIVISION</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Shelbourne - Drogheda United</t>
+        </is>
+      </c>
+      <c r="E57" t="n">
+        <v>53.3</v>
+      </c>
+      <c r="F57" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="G57" t="n">
+        <v>-0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>07-03-2025 02:00</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>MEXICO</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>LIGA DE EXPANSIÓN MX</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Correcaminos Uat - Tepatitlán</t>
+        </is>
+      </c>
+      <c r="E58" t="n">
         <v>60</v>
       </c>
-      <c r="F55" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="G55" t="n">
-        <v>0.51</v>
+      <c r="F58" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0.58</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>07-03-2025 16:00</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>MEXICO</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>U23 LEAGUE</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Atlético San Luis U23 - Juarez U23</t>
+        </is>
+      </c>
+      <c r="E59" t="n">
+        <v>70</v>
+      </c>
+      <c r="F59" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0.29</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>07-03-2025 18:00</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>POLAND</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>EKSTRAKLASA</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Korona Kielce - Puszcza Niepołomice</t>
+        </is>
+      </c>
+      <c r="E60" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="F60" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>07-03-2025 20:30</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>POLAND</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>I LIGA</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Tychy 71 - Pogoń Siedlce</t>
+        </is>
+      </c>
+      <c r="E61" t="n">
+        <v>50</v>
+      </c>
+      <c r="F61" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="G61" t="n">
+        <v>-0.14</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>07-03-2025 17:00</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>SLOVAKIA</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>2. LIGA</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Pohronie - Šamorín</t>
+        </is>
+      </c>
+      <c r="E62" t="n">
+        <v>58</v>
+      </c>
+      <c r="F62" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>07-03-2025 20:30</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>SPAIN</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>PRIMERA DIVISIÓN RFEF - GROUP 2</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Atlético Madrid II - Real Murcia</t>
+        </is>
+      </c>
+      <c r="E63" t="n">
+        <v>60</v>
+      </c>
+      <c r="F63" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>07-03-2025 19:00</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>SPAIN</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>SEGUNDA DIVISIÓN</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Eibar - Almeria</t>
+        </is>
+      </c>
+      <c r="E64" t="n">
+        <v>53.3</v>
+      </c>
+      <c r="F64" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>07-03-2025 13:00</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>THAILAND</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>THAI LEAGUE 2</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Police Tero - Bangkok</t>
+        </is>
+      </c>
+      <c r="E65" t="n">
+        <v>50</v>
+      </c>
+      <c r="F65" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>07-03-2025 18:30</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>TURKEY</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>SÜPER LIG</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>BB Bodrumspor - Kasimpasa</t>
+        </is>
+      </c>
+      <c r="E66" t="n">
+        <v>50</v>
+      </c>
+      <c r="F66" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>07-03-2025 12:00</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>UKRAINE</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>PREMIER LEAGUE</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Livyi Bereh - Veres Rivne</t>
+        </is>
+      </c>
+      <c r="E67" t="n">
+        <v>50</v>
+      </c>
+      <c r="F67" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>07-03-2025 20:45</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>WALES</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>PREMIER LEAGUE</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Newtown AFC - Flint Town United</t>
+        </is>
+      </c>
+      <c r="E68" t="n">
+        <v>53.3</v>
+      </c>
+      <c r="F68" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0.17</v>
       </c>
     </row>
   </sheetData>
@@ -3316,7 +4035,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3364,7 +4083,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>05-03-2025 21:00</t>
+          <t>06-03-2025 18:45</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -3374,276 +4093,276 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>UEFA CHAMPIONS LEAGUE</t>
+          <t>UEFA EUROPA LEAGUE</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Benfica - Barcelona</t>
+          <t>Real Sociedad - Manchester United</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>50</v>
+        <v>53.3</v>
       </c>
       <c r="F2" t="n">
-        <v>1.85</v>
+        <v>3.2</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.07000000000000001</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>05-03-2025 19:30</t>
+          <t>06-03-2025 21:00</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>BAHRAIN</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>PREMIER LEAGUE</t>
+          <t>UEFA EUROPA LEAGUE</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>A'Ali - Sitra</t>
+          <t>Bodo/Glimt - Olympiakos Piraeus</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F3" t="n">
-        <v>1.75</v>
+        <v>3.2</v>
       </c>
       <c r="G3" t="n">
-        <v>0.05</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>05-03-2025 23:30</t>
+          <t>06-03-2025 15:00</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>ALGERIA</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>PAULISTA - A2</t>
+          <t>LIGUE 2</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Linense - Votuporanguense</t>
+          <t>GC Mascara - Ben Aknoun</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>53.3</v>
+        <v>50</v>
       </c>
       <c r="F4" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>05-03-2025 23:00</t>
+          <t>06-03-2025 12:00</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>ALGERIA</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>PAULISTA - A3</t>
+          <t>U21 LEAGUE 1</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>XV De Jau - Itapirense</t>
+          <t>El Bayadh U21 - CR Belouizdad U21</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="F5" t="n">
-        <v>2.15</v>
+        <v>1.83</v>
       </c>
       <c r="G5" t="n">
-        <v>0.5</v>
+        <v>-0.08</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>05-03-2025 07:30</t>
+          <t>06-03-2025 22:30</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ETHIOPIA</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>PREMIER LEAGUE</t>
+          <t>CAPIXABA</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Suhul Shire - Ethiopia Nigd Bank</t>
+          <t>Vitória ES - Rio Branco-VN</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>50</v>
+        <v>55.7</v>
       </c>
       <c r="F6" t="n">
-        <v>2.1</v>
+        <v>3.95</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>16-02-2025 13:00</t>
+          <t>06-03-2025 21:30</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>SLOVENIA</t>
+          <t>COSTA-RICA</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>1. SNL</t>
+          <t>LIGA DE ASCENSO</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Primorje - Koper</t>
+          <t>AD Carmelita - Municipal Grecia</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>66.7</v>
+        <v>53.3</v>
       </c>
       <c r="F7" t="n">
-        <v>2.05</v>
+        <v>2.25</v>
       </c>
       <c r="G7" t="n">
-        <v>0.37</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>05-03-2025 19:30</t>
+          <t>06-03-2025 21:00</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>COSTA-RICA</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>AFC CHALLENGE LEAGUE</t>
+          <t>LIGA DE ASCENSO</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Al Arabi - Al Seeb</t>
+          <t>Escorpiones Belén - Limón Black Star</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>66.7</v>
+        <v>53.3</v>
       </c>
       <c r="F8" t="n">
-        <v>2.85</v>
+        <v>4.75</v>
       </c>
       <c r="G8" t="n">
-        <v>0.9</v>
+        <v>1.53</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>05-03-2025 11:00</t>
+          <t>07-03-2025 20:00</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>FRANCE</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>AFC CUP</t>
+          <t>LIGUE 2</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Sanfrecce Hiroshima - Home United</t>
+          <t>Guingamp - Clermont Foot</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="F9" t="n">
-        <v>17</v>
+        <v>3.9</v>
       </c>
       <c r="G9" t="n">
-        <v>7.5</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>05-03-2025 15:30</t>
+          <t>07-03-2025 20:00</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>NETHERLANDS</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>UEFA YOUTH LEAGUE</t>
+          <t>EERSTE DIVISIE</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Sturm Graz U19 - Olympiakos Piraeus U19</t>
+          <t>Emmen - ADO Den Haag</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>56.5</v>
+        <v>53.3</v>
       </c>
       <c r="F10" t="n">
-        <v>5</v>
+        <v>2.63</v>
       </c>
       <c r="G10" t="n">
-        <v>1.82</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>06-03-2025 18:45</t>
+          <t>07-03-2025 01:30</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -3653,84 +4372,332 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>UEFA EUROPA LEAGUE</t>
+          <t>CONMEBOL LIBERTADORES</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Real Sociedad - Manchester United</t>
+          <t>Boston River - Bahia</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>53.3</v>
+        <v>50</v>
       </c>
       <c r="F11" t="n">
-        <v>3.2</v>
+        <v>1.75</v>
       </c>
       <c r="G11" t="n">
-        <v>0.71</v>
+        <v>-0.12</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>06-03-2025 21:00</t>
+          <t>07-03-2025 09:30</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>AUSTRALIA</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>UEFA EUROPA LEAGUE</t>
+          <t>VICTORIA NPL</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Bodo/Glimt - Olympiakos Piraeus</t>
+          <t>Green Gully - Dandenong City</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>50</v>
+        <v>55.7</v>
       </c>
       <c r="F12" t="n">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="G12" t="n">
-        <v>0.6</v>
+        <v>1.09</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>06-03-2025 22:30</t>
+          <t>07-03-2025 10:30</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>AUSTRALIA</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>CAPIXABA</t>
+          <t>VICTORIA NPL 2</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Vitória ES - Rio Branco-VN</t>
+          <t>Bentleigh Greens - Western United II</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>55.7</v>
+        <v>66.7</v>
       </c>
       <c r="F13" t="n">
-        <v>3.95</v>
+        <v>1.85</v>
       </c>
       <c r="G13" t="n">
-        <v>1.2</v>
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>07-03-2025 18:00</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>AUSTRIA</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>2. LIGA</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Austria Lustenau - SV Horn</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>53.3</v>
+      </c>
+      <c r="F14" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="G14" t="n">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>07-03-2025 20:30</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>AUSTRIA</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>2. LIGA</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Admira Wacker - Schwarz-Weiß Bregenz</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>53.3</v>
+      </c>
+      <c r="F15" t="n">
+        <v>5</v>
+      </c>
+      <c r="G15" t="n">
+        <v>1.66</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>07-03-2025 19:00</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>GERMANY</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>REGIONALLIGA - BAYERN</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>FC Schweinfurt 05 - Illertissen</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="F16" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="G16" t="n">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>07-03-2025 19:00</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>GERMANY</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>REGIONALLIGA - NORDOST</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Eilenburg - FSV Zwickau</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>73.3</v>
+      </c>
+      <c r="F17" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>07-03-2025 19:00</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>GERMANY</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>REGIONALLIGA - SUDWEST</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Eintracht Trier - TSV Steinbach</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>60</v>
+      </c>
+      <c r="F18" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>07-03-2025 20:45</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>IRELAND</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>FIRST DIVISION</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Dundalk - Treaty United</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>60</v>
+      </c>
+      <c r="F19" t="n">
+        <v>7</v>
+      </c>
+      <c r="G19" t="n">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>07-03-2025 20:30</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>ITALY</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>SERIE C - GIRONE B</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Athletic Carpi - Vis Pesaro</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>50</v>
+      </c>
+      <c r="F20" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>07-03-2025 02:00</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>WORLD</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>CONCACAF CHAMPIONS LEAGUE</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Inter Miami - Cavalier</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>50</v>
+      </c>
+      <c r="F21" t="n">
+        <v>33</v>
+      </c>
+      <c r="G21" t="n">
+        <v>15.5</v>
       </c>
     </row>
   </sheetData>
@@ -3744,7 +4711,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3792,131 +4759,131 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>05-03-2025 20:45</t>
+          <t>06-03-2025 21:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SCOTLAND</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>CHAMPIONSHIP</t>
+          <t>UEFA EUROPA LEAGUE</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Livingston - Raith Rovers</t>
+          <t>Bodo/Glimt - Olympiakos Piraeus</t>
         </is>
       </c>
       <c r="E2" t="n">
         <v>80</v>
       </c>
       <c r="F2" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="G2" t="n">
-        <v>0.6</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>05-03-2025 13:00</t>
+          <t>06-03-2025 19:30</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ARMENIA</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CUP</t>
+          <t>MARANHENSE</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>FC Urartu - Ararat-Armenia</t>
+          <t>Maranhão - Tuntum</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="F3" t="n">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="G3" t="n">
-        <v>0.31</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>05-03-2025 19:15</t>
+          <t>06-03-2025 17:00</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>GEORGIA</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>SERGIPANO</t>
+          <t>EROVNULI LIGA</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>América SE - Guarany SE</t>
+          <t>Gareji - Dinamo Batumi</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F4" t="n">
         <v>2.15</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>05-03-2025 20:30</t>
+          <t>06-03-2025 14:30</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>EGYPT</t>
+          <t>INDONESIA</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>PREMIER LEAGUE</t>
+          <t>LIGA 1</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Pyramids FC - Ceramica Cleopatra</t>
+          <t>PSBS Biak Numfor - Pusamania Borneo</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>70</v>
+        <v>73.3</v>
       </c>
       <c r="F5" t="n">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="G5" t="n">
-        <v>0.43</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>06-03-2025 21:00</t>
+          <t>06-03-2025 12:30</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -3926,50 +4893,50 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>UEFA EUROPA LEAGUE</t>
+          <t>AFC CHALLENGE LEAGUE</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Bodo/Glimt - Olympiakos Piraeus</t>
+          <t>Svay Rieng - Shan United</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="F6" t="n">
-        <v>1.91</v>
+        <v>1.7</v>
       </c>
       <c r="G6" t="n">
-        <v>0.53</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>06-03-2025 14:30</t>
+          <t>07-03-2025 20:00</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>INDONESIA</t>
+          <t>FRANCE</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>LIGA 1</t>
+          <t>LIGUE 2</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>PSBS Biak Numfor - Pusamania Borneo</t>
+          <t>Guingamp - Clermont Foot</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>73.3</v>
+        <v>70</v>
       </c>
       <c r="F7" t="n">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="G7" t="n">
         <v>0.36</v>
@@ -3978,38 +4945,38 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>06-03-2025 12:30</t>
+          <t>07-03-2025 20:45</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>SCOTLAND</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>AFC CHALLENGE LEAGUE</t>
+          <t>FA CUP</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Svay Rieng - Shan United</t>
+          <t>Heart Of Midlothian - Dundee</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F8" t="n">
-        <v>1.7</v>
+        <v>1.91</v>
       </c>
       <c r="G8" t="n">
-        <v>0.19</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>06-03-2025 04:30</t>
+          <t>07-03-2025 01:30</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -4019,84 +4986,363 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>CONCACAF CHAMPIONS LEAGUE</t>
+          <t>CONMEBOL SUDAMERICANA</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Seattle Sounders - Cruz Azul</t>
+          <t>Atletico Grau - Cusco</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>80</v>
+        <v>71.8</v>
       </c>
       <c r="F9" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="G9" t="n">
-        <v>0.44</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>06-03-2025 02:30</t>
+          <t>07-03-2025 18:00</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>AUSTRIA</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>CONCACAF CHAMPIONS LEAGUE</t>
+          <t>2. LIGA</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>CS Herediano - Los Angeles Galaxy</t>
+          <t>Austria Lustenau - SV Horn</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>73.3</v>
+        <v>70</v>
       </c>
       <c r="F10" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="G10" t="n">
-        <v>0.32</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>06-03-2025 04:30</t>
+          <t>07-03-2025 20:30</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>AUSTRIA</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>CONCACAF CHAMPIONS LEAGUE</t>
+          <t>2. LIGA</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Vancouver Whitecaps - Monterrey</t>
+          <t>Admira Wacker - Schwarz-Weiß Bregenz</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>73.3</v>
+        <v>90</v>
       </c>
       <c r="F11" t="n">
-        <v>1.77</v>
+        <v>1.87</v>
       </c>
       <c r="G11" t="n">
-        <v>0.3</v>
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>07-03-2025 19:00</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>DENMARK</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>1. DIVISION</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>B 93 - HB Koge</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>90</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.58</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>07-03-2025 19:00</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>GERMANY</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>REGIONALLIGA - NORDOST</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>FC Rot-Weiß Erfurt - ZFC Meuselwitz</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>82.5</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>07-03-2025 19:00</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>GERMANY</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>REGIONALLIGA - SUDWEST</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Eintracht Trier - TSV Steinbach</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>85</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>07-03-2025 20:45</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>IRELAND</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>PREMIER DIVISION</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Cork City - Sligo Rovers</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>95</v>
+      </c>
+      <c r="F15" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="G15" t="n">
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>07-03-2025 20:45</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>IRELAND</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>PREMIER DIVISION</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Shamrock Rovers - St Patrick's Athl.</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>75</v>
+      </c>
+      <c r="F16" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>07-03-2025 01:00</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>JAMAICA</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>PREMIER LEAGUE</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Chapelton - Arnett Gardens</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>75</v>
+      </c>
+      <c r="F17" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>07-03-2025 16:00</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>MEXICO</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>U23 LEAGUE</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Atlético San Luis U23 - Juarez U23</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>80</v>
+      </c>
+      <c r="F18" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>07-03-2025 16:00</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>MEXICO</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>U23 LEAGUE</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Puebla U23 - U.N.A.M.- Pumas U23</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>75</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>07-03-2025 20:45</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>NORTHERN-IRELAND</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>PREMIERSHIP</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Crusaders FC - Linfield</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>70</v>
+      </c>
+      <c r="F20" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.31</v>
       </c>
     </row>
   </sheetData>
@@ -4110,7 +5356,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4158,60 +5404,60 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>05-03-2025 14:00</t>
+          <t>06-03-2025 18:45</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>AZERBAIJAN</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>PREMYER LIQA</t>
+          <t>UEFA EUROPA CONFERENCE LEAGUE</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Kapaz - Neftchi Baku</t>
+          <t>Real Betis - Guimaraes</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>66.7</v>
+        <v>68</v>
       </c>
       <c r="F2" t="n">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>05-03-2025 19:30</t>
+          <t>06-03-2025 21:00</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>BAHRAIN</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>PREMIER LEAGUE</t>
+          <t>UEFA EUROPA CONFERENCE LEAGUE</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>A'Ali - Sitra</t>
+          <t>Pafos - Djurgardens IF</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F3" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="G3" t="n">
         <v>0.22</v>
@@ -4220,370 +5466,370 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>05-03-2025 23:00</t>
+          <t>06-03-2025 21:00</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>GAÚCHO - 1</t>
+          <t>UEFA EUROPA LEAGUE</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Sao Jose - Avenida</t>
+          <t>Bodo/Glimt - Olympiakos Piraeus</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>76.7</v>
+        <v>68</v>
       </c>
       <c r="F4" t="n">
-        <v>2.35</v>
+        <v>1.7</v>
       </c>
       <c r="G4" t="n">
-        <v>0.8</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>06-03-2025 00:00</t>
+          <t>06-03-2025 21:00</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>MATOGROSSENSE</t>
+          <t>UEFA EUROPA LEAGUE</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Primavera MG - Nova Mutum EC</t>
+          <t>AS Roma - Athletic Club</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>68</v>
+        <v>76.7</v>
       </c>
       <c r="F5" t="n">
-        <v>2.25</v>
+        <v>1.91</v>
       </c>
       <c r="G5" t="n">
-        <v>0.53</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>05-03-2025 18:00</t>
+          <t>06-03-2025 23:00</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ESTONIA</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>CUP</t>
+          <t>CONMEBOL SUDAMERICANA</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>FC Tallinn - Tallinna Kalev</t>
+          <t>Club Guarani - 2 De Mayo</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="F6" t="n">
         <v>1.95</v>
       </c>
       <c r="G6" t="n">
-        <v>0.48</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>06-03-2025 00:15</t>
+          <t>06-03-2025 15:30</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>HONDURAS</t>
+          <t>ALGERIA</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>LIGA NACIONAL</t>
+          <t>LIGUE 1</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Olancho - Victoria</t>
+          <t>El Bayadh - CR Belouizdad</t>
         </is>
       </c>
       <c r="E7" t="n">
         <v>76.7</v>
       </c>
       <c r="F7" t="n">
-        <v>1.8</v>
+        <v>1.86</v>
       </c>
       <c r="G7" t="n">
-        <v>0.38</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>06-03-2025 00:00</t>
+          <t>06-03-2025 15:00</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>JAMAICA</t>
+          <t>ALGERIA</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>PREMIER LEAGUE</t>
+          <t>U21 LEAGUE 1</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Montego Bay United - Harbour View</t>
+          <t>ES Sétif U21 - JS Saoura U21</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>70</v>
+        <v>79.2</v>
       </c>
       <c r="F8" t="n">
-        <v>2.2</v>
+        <v>1.85</v>
       </c>
       <c r="G8" t="n">
-        <v>0.54</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>05-03-2025 18:30</t>
+          <t>06-03-2025 00:00</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>SOUTH-AFRICA</t>
+          <t>JAMAICA</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>PREMIER SOCCER LEAGUE</t>
+          <t>PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Golden Arrows - Mamelodi Sundowns</t>
+          <t>Montego Bay United - Harbour View</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>66.7</v>
+        <v>70</v>
       </c>
       <c r="F9" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="G9" t="n">
-        <v>0.4</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>05-03-2025 18:30</t>
+          <t>06-03-2025 17:00</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>SOUTH-AFRICA</t>
+          <t>LATVIA</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>PREMIER SOCCER LEAGUE</t>
+          <t>VIRSLIGA</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Cape Town City - TS Galaxy</t>
+          <t>Grobiņa - FS Jelgava</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>65</v>
+        <v>77.8</v>
       </c>
       <c r="F10" t="n">
-        <v>2.05</v>
+        <v>1.7</v>
       </c>
       <c r="G10" t="n">
-        <v>0.33</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>05-03-2025 20:00</t>
+          <t>06-03-2025 14:30</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>SPAIN</t>
+          <t>UKRAINE</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>SEGUNDA DIVISIÓN</t>
+          <t>PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Racing Ferrol - Burgos</t>
+          <t>LNZ Cherkasy - Dynamo Kyiv</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>66.7</v>
+        <v>80</v>
       </c>
       <c r="F11" t="n">
-        <v>2.25</v>
+        <v>1.93</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>06-03-2025 18:45</t>
+          <t>06-03-2025 12:00</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>UKRAINE</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>UEFA EUROPA CONFERENCE LEAGUE</t>
+          <t>PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Real Betis - Guimaraes</t>
+          <t>Vorskla Poltava - Karpaty</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>68</v>
+        <v>67.8</v>
       </c>
       <c r="F12" t="n">
-        <v>2.1</v>
+        <v>1.93</v>
       </c>
       <c r="G12" t="n">
-        <v>0.43</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>06-03-2025 21:00</t>
+          <t>07-03-2025 20:45</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>ITALY</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>UEFA EUROPA CONFERENCE LEAGUE</t>
+          <t>SERIE A</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Pafos - Djurgardens IF</t>
+          <t>Cagliari - Genoa</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F13" t="n">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="G13" t="n">
-        <v>0.22</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>06-03-2025 21:00</t>
+          <t>07-03-2025 20:00</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>FRANCE</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>UEFA EUROPA LEAGUE</t>
+          <t>LIGUE 2</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Bodo/Glimt - Olympiakos Piraeus</t>
+          <t>RED Star FC 93 - Amiens</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>68</v>
+        <v>66.7</v>
       </c>
       <c r="F14" t="n">
-        <v>1.7</v>
+        <v>1.85</v>
       </c>
       <c r="G14" t="n">
-        <v>0.16</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>06-03-2025 21:00</t>
+          <t>07-03-2025 20:45</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>SCOTLAND</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>UEFA EUROPA LEAGUE</t>
+          <t>FA CUP</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>AS Roma - Athletic Club</t>
+          <t>Heart Of Midlothian - Dundee</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>76.7</v>
+        <v>80</v>
       </c>
       <c r="F15" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="G15" t="n">
         <v>0.46</v>
@@ -4592,218 +5838,435 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>06-03-2025 23:00</t>
+          <t>07-03-2025 18:00</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>AUSTRIA</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>CONMEBOL SUDAMERICANA</t>
+          <t>2. LIGA</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Club Guarani - 2 De Mayo</t>
+          <t>Stripfing - SV Lafnitz</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="F16" t="n">
-        <v>1.95</v>
+        <v>1.73</v>
       </c>
       <c r="G16" t="n">
-        <v>0.27</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>06-03-2025 01:30</t>
+          <t>07-03-2025 18:00</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>AUSTRIA</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>CONMEBOL SUDAMERICANA</t>
+          <t>2. LIGA</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Once Caldas - Millonarios</t>
+          <t>Austria Lustenau - SV Horn</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>66.7</v>
+        <v>80</v>
       </c>
       <c r="F17" t="n">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="G17" t="n">
-        <v>0.37</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>06-03-2025 02:00</t>
+          <t>07-03-2025 20:30</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>GUATEMALA</t>
+          <t>AUSTRIA</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>LIGA NACIONAL</t>
+          <t>2. LIGA</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Xelajú - Achuapa</t>
+          <t>Admira Wacker - Schwarz-Weiß Bregenz</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>66.7</v>
+        <v>80</v>
       </c>
       <c r="F18" t="n">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="G18" t="n">
-        <v>0.33</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>06-03-2025 14:30</t>
+          <t>07-03-2025 20:45</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>UKRAINE</t>
+          <t>BELGIUM</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>PREMIER LEAGUE</t>
+          <t>JUPILER PRO LEAGUE</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>LNZ Cherkasy - Dynamo Kyiv</t>
+          <t>St. Truiden - Beerschot Wilrijk</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>80</v>
+        <v>74.5</v>
       </c>
       <c r="F19" t="n">
-        <v>1.93</v>
+        <v>1.75</v>
       </c>
       <c r="G19" t="n">
-        <v>0.54</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>06-03-2025 12:00</t>
+          <t>07-03-2025 19:00</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>UKRAINE</t>
+          <t>GERMANY</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>PREMIER LEAGUE</t>
+          <t>REGIONALLIGA - SUDWEST</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Vorskla Poltava - Karpaty</t>
+          <t>Eintracht Frankfurt II - FC 08 Villingen</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>67.8</v>
+        <v>68</v>
       </c>
       <c r="F20" t="n">
-        <v>1.93</v>
+        <v>1.77</v>
       </c>
       <c r="G20" t="n">
-        <v>0.31</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>06-03-2025 02:30</t>
+          <t>07-03-2025 14:30</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>INDONESIA</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>CONCACAF CHAMPIONS LEAGUE</t>
+          <t>LIGA 1</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Guadalajara Chivas - Club America</t>
+          <t>Persita - PSS Sleman</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>66.7</v>
+        <v>71.09999999999999</v>
       </c>
       <c r="F21" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="G21" t="n">
-        <v>0.15</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>06-03-2025 02:30</t>
+          <t>07-03-2025 20:45</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
+          <t>IRELAND</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>PREMIER DIVISION</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Cork City - Sligo Rovers</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>80</v>
+      </c>
+      <c r="F22" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>07-03-2025 20:45</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>IRELAND</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>PREMIER DIVISION</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Shelbourne - Drogheda United</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="F23" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>07-03-2025 20:45</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>IRELAND</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>PREMIER DIVISION</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Waterford - Bohemians</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="F24" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>07-03-2025 20:45</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>NORTHERN-IRELAND</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>PREMIERSHIP</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Crusaders FC - Linfield</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>70</v>
+      </c>
+      <c r="F25" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>07-03-2025 20:30</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>POLAND</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>I LIGA</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Tychy 71 - Pogoń Siedlce</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>72</v>
+      </c>
+      <c r="F26" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>07-03-2025 20:00</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>SAUDI-ARABIA</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>PRO LEAGUE</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Al-Ahli Jeddah - Al Khaleej Saihat</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>65</v>
+      </c>
+      <c r="F27" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>07-03-2025 19:00</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>SPAIN</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>SEGUNDA DIVISIÓN</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Eibar - Almeria</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>78.3</v>
+      </c>
+      <c r="F28" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>07-03-2025 02:00</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
           <t>WORLD</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="C29" t="inlineStr">
         <is>
           <t>CONCACAF CHAMPIONS LEAGUE</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>CS Herediano - Los Angeles Galaxy</t>
-        </is>
-      </c>
-      <c r="E22" t="n">
-        <v>76</v>
-      </c>
-      <c r="F22" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0.29</v>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Inter Miami - Cavalier</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>80</v>
+      </c>
+      <c r="F29" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="G29" t="n">
+        <v>1.24</v>
       </c>
     </row>
   </sheetData>

--- a/scraper/data/betclever_predictions.xlsx
+++ b/scraper/data/betclever_predictions.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,57 +475,113 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>10-03-2025 14:30</t>
+          <t>11-03-2025 19:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>INDONESIA</t>
+          <t>GERMANY</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>LIGA 1</t>
+          <t>3. LIGA</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Dewa United - Pusamania Borneo</t>
+          <t>FC Ingolstadt 04 - Alemannia Aachen</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>93.3</v>
+        <v>70</v>
       </c>
       <c r="F2" t="n">
-        <v>1.77</v>
+        <v>1.95</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>11-03-2025 19:00</t>
+          <t>11-03-2025 14:30</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>SOUTH-AFRICA</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>1ST DIVISION</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Highbury - Leruma United</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>80</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1.71</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>11-03-2025 20:45</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>WALES</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>PREMIER LEAGUE</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Briton Ferry - Newtown AFC</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>73.3</v>
+      </c>
+      <c r="F4" t="n">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>12-03-2025 19:00</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>GERMANY</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>3. LIGA</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>FC Ingolstadt 04 - Alemannia Aachen</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>70</v>
-      </c>
-      <c r="F3" t="n">
-        <v>1.95</v>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Waldhof Mannheim - SV Sandhausen</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>73.3</v>
+      </c>
+      <c r="F5" t="n">
+        <v>2.05</v>
       </c>
     </row>
   </sheetData>
@@ -618,7 +674,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -661,22 +717,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>10-03-2025 20:45</t>
+          <t>11-03-2025 20:45</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ITALY</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>SERIE A</t>
+          <t>NATIONAL LEAGUE</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Lazio - Udinese</t>
+          <t>Yeovil Town - Boston United</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -689,57 +745,57 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>10-03-2025 16:00</t>
+          <t>11-03-2025 20:45</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ROMANIA</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>LIGA I</t>
+          <t>NATIONAL LEAGUE - NORTH</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>FC Botosani - Unirea Slobozia</t>
+          <t>Peterborough Sports - South Shields</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F3" t="n">
-        <v>2</v>
+        <v>1.73</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>10-03-2025 19:00</t>
+          <t>11-03-2025 20:45</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>PORTUGAL</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>SEGUNDA LIGA</t>
+          <t>NATIONAL LEAGUE - SOUTH</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Leixoes - Tondela</t>
+          <t>Chesham United - Tonbridge Angels</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>86.7</v>
+        <v>92</v>
       </c>
       <c r="F4" t="n">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
     </row>
     <row r="5">
@@ -755,19 +811,19 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE</t>
+          <t>NATIONAL LEAGUE - SOUTH</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Yeovil Town - Boston United</t>
+          <t>Torquay - Salisbury</t>
         </is>
       </c>
       <c r="E5" t="n">
         <v>80</v>
       </c>
       <c r="F5" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
     </row>
     <row r="6">
@@ -783,186 +839,130 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE - NORTH</t>
+          <t>NATIONAL LEAGUE - SOUTH</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Peterborough Sports - South Shields</t>
+          <t>Weymouth - Weston-super-Mare</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>80</v>
+        <v>86.7</v>
       </c>
       <c r="F6" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>11-03-2025 20:45</t>
+          <t>11-03-2025 19:00</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>GERMANY</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE - SOUTH</t>
+          <t>3. LIGA</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Chesham United - Tonbridge Angels</t>
+          <t>FC Ingolstadt 04 - Alemannia Aachen</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="F7" t="n">
-        <v>1.85</v>
+        <v>1.73</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>11-03-2025 20:45</t>
+          <t>11-03-2025 14:30</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>INDONESIA</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE - SOUTH</t>
+          <t>LIGA 1</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Torquay - Salisbury</t>
+          <t>Bali United - PSBS Biak Numfor</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="F8" t="n">
-        <v>1.85</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>11-03-2025 20:45</t>
+          <t>11-03-2025 14:30</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>SOUTH-AFRICA</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE - SOUTH</t>
+          <t>1ST DIVISION</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Weymouth - Weston-super-Mare</t>
+          <t>Milford FC - Hungry Lions</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>86.7</v>
+        <v>76.7</v>
       </c>
       <c r="F9" t="n">
-        <v>1.75</v>
+        <v>1.84</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>11-03-2025 19:00</t>
+          <t>11-03-2025 12:00</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>GERMANY</t>
+          <t>UKRAINE</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>3. LIGA</t>
+          <t>PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>FC Ingolstadt 04 - Alemannia Aachen</t>
+          <t>Oleksandria - Obolon'-Brovar</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>84</v>
+        <v>76.7</v>
       </c>
       <c r="F10" t="n">
-        <v>1.73</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>11-03-2025 14:30</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>INDONESIA</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>LIGA 1</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Bali United - PSBS Biak Numfor</t>
-        </is>
-      </c>
-      <c r="E11" t="n">
-        <v>88</v>
-      </c>
-      <c r="F11" t="n">
-        <v>1.7</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>11-03-2025 12:00</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>UKRAINE</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>PREMIER LEAGUE</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>Oleksandria - Obolon'-Brovar</t>
-        </is>
-      </c>
-      <c r="E12" t="n">
-        <v>76.7</v>
-      </c>
-      <c r="F12" t="n">
         <v>2.4</v>
       </c>
     </row>
@@ -977,7 +977,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1030,41 +1030,41 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>10-03-2025 11:30</t>
+          <t>01-01-2025 16:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>TURKEY</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1. LIG</t>
+          <t>NATIONAL LEAGUE</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Keçiörengücü - Erzurum BB</t>
+          <t>Rochdale - Altrincham</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>82.5</v>
+        <v>90</v>
       </c>
       <c r="F2" t="n">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="G2" t="n">
-        <v>62.5</v>
+        <v>35</v>
       </c>
       <c r="H2" t="n">
-        <v>3.8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>01-01-2025 16:00</t>
+          <t>11-01-2025 16:00</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -1079,17 +1079,17 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Rochdale - Altrincham</t>
+          <t>Oldham - Eastleigh</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>90</v>
+        <v>82.5</v>
       </c>
       <c r="F3" t="n">
         <v>1.8</v>
       </c>
       <c r="G3" t="n">
-        <v>35</v>
+        <v>77.5</v>
       </c>
       <c r="H3" t="n">
         <v>3</v>
@@ -1098,32 +1098,32 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>11-01-2025 16:00</t>
+          <t>11-03-2025 20:45</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>SCOTLAND</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE</t>
+          <t>CHAMPIONSHIP</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Oldham - Eastleigh</t>
+          <t>Queen's Park - Partick</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>82.5</v>
+        <v>95</v>
       </c>
       <c r="F4" t="n">
         <v>1.8</v>
       </c>
       <c r="G4" t="n">
-        <v>77.5</v>
+        <v>55</v>
       </c>
       <c r="H4" t="n">
         <v>3</v>
@@ -1137,30 +1137,30 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SCOTLAND</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>CHAMPIONSHIP</t>
+          <t>NATIONAL LEAGUE - NORTH</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Queen's Park - Partick</t>
+          <t>Alfreton Town - Scunthorpe</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="F5" t="n">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="G5" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -1181,17 +1181,17 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Alfreton Town - Scunthorpe</t>
+          <t>King's Lynn Town - Brackley Town</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="F6" t="n">
         <v>2.2</v>
       </c>
       <c r="G6" t="n">
-        <v>60</v>
+        <v>52.5</v>
       </c>
       <c r="H6" t="n">
         <v>4</v>
@@ -1210,25 +1210,25 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE - NORTH</t>
+          <t>NATIONAL LEAGUE - SOUTH</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>King's Lynn Town - Brackley Town</t>
+          <t>Chesham United - Tonbridge Angels</t>
         </is>
       </c>
       <c r="E7" t="n">
+        <v>86.7</v>
+      </c>
+      <c r="F7" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="G7" t="n">
         <v>80</v>
       </c>
-      <c r="F7" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="G7" t="n">
-        <v>52.5</v>
-      </c>
       <c r="H7" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="8">
@@ -1249,20 +1249,20 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Chesham United - Tonbridge Angels</t>
+          <t>Farnborough - Boreham Wood</t>
         </is>
       </c>
       <c r="E8" t="n">
         <v>86.7</v>
       </c>
       <c r="F8" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="G8" t="n">
-        <v>80</v>
+        <v>33.3</v>
       </c>
       <c r="H8" t="n">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="9">
@@ -1283,17 +1283,17 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Farnborough - Boreham Wood</t>
+          <t>Weymouth - Weston-super-Mare</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>86.7</v>
+        <v>85</v>
       </c>
       <c r="F9" t="n">
         <v>2</v>
       </c>
       <c r="G9" t="n">
-        <v>33.3</v>
+        <v>65</v>
       </c>
       <c r="H9" t="n">
         <v>3.6</v>
@@ -1302,7 +1302,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>11-03-2025 20:45</t>
+          <t>25-02-2025 20:45</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1312,59 +1312,59 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE - SOUTH</t>
+          <t>NON LEAGUE PREMIER - ISTHMIAN</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Weymouth - Weston-super-Mare</t>
+          <t>Folkestone Invicta - Chichester City</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="F10" t="n">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="G10" t="n">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="H10" t="n">
-        <v>3.6</v>
+        <v>2.75</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>25-02-2025 20:45</t>
+          <t>11-03-2025 19:00</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>GERMANY</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>NON LEAGUE PREMIER - ISTHMIAN</t>
+          <t>3. LIGA</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Folkestone Invicta - Chichester City</t>
+          <t>Arminia Bielefeld - FC Saarbrücken</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="F11" t="n">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="G11" t="n">
         <v>45</v>
       </c>
       <c r="H11" t="n">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
     </row>
     <row r="12">
@@ -1380,25 +1380,25 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>3. LIGA</t>
+          <t>REGIONALLIGA - NORDOST</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Arminia Bielefeld - FC Saarbrücken</t>
+          <t>BFC Dynamo - Luckenwalde</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>80</v>
+        <v>71.8</v>
       </c>
       <c r="F12" t="n">
-        <v>1.9</v>
+        <v>1.62</v>
       </c>
       <c r="G12" t="n">
-        <v>45</v>
+        <v>61.8</v>
       </c>
       <c r="H12" t="n">
-        <v>3.25</v>
+        <v>2.63</v>
       </c>
     </row>
     <row r="13">
@@ -1467,6 +1467,74 @@
       </c>
       <c r="H14" t="n">
         <v>2.9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>12-03-2025 01:30</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>BRAZIL</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>COPA DO BRASIL</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Botafogo PB - Concórdia</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>80</v>
+      </c>
+      <c r="F15" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="G15" t="n">
+        <v>40</v>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>12-03-2025 18:00</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>SLOVAKIA</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>CUP</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>FK Košice - Slovan Bratislava</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>68.3</v>
+      </c>
+      <c r="F16" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="G16" t="n">
+        <v>63.3</v>
+      </c>
+      <c r="H16" t="n">
+        <v>2.63</v>
       </c>
     </row>
   </sheetData>
@@ -1480,7 +1548,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G37"/>
+  <dimension ref="A1:G39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1528,549 +1596,549 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>10-03-2025 16:00</t>
+          <t>11-03-2025 21:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ROMANIA</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>LIGA I</t>
+          <t>UEFA CHAMPIONS LEAGUE</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>FC Botosani - Unirea Slobozia</t>
+          <t>Liverpool - Paris Saint Germain</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>50</v>
+        <v>66.7</v>
       </c>
       <c r="F2" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.08</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>10-03-2025 20:45</t>
+          <t>11-03-2025 20:45</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SCOTLAND</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>FA CUP</t>
+          <t>CHAMPIONSHIP</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Livingston - ST Johnstone</t>
+          <t>Cardiff - Luton</t>
         </is>
       </c>
       <c r="E3" t="n">
         <v>60</v>
       </c>
       <c r="F3" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="G3" t="n">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>10-03-2025 21:00</t>
+          <t>11-03-2025 20:45</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ARGENTINA</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>PRIMERA C</t>
+          <t>CHAMPIONSHIP</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Central Ballester - Deportivo Camioneros</t>
+          <t>Norwich - Sheffield Wednesday</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>60</v>
+        <v>53.3</v>
       </c>
       <c r="F4" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="G4" t="n">
-        <v>0.29</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>10-03-2025 21:00</t>
+          <t>01-01-2025 16:00</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ARGENTINA</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>PRIMERA NACIONAL</t>
+          <t>LEAGUE ONE</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>San Telmo - Talleres Remedios</t>
+          <t>Crawley Town - Charlton</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>66.7</v>
+        <v>53.3</v>
       </c>
       <c r="F5" t="n">
-        <v>2.2</v>
+        <v>3.9</v>
       </c>
       <c r="G5" t="n">
-        <v>0.47</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>10-03-2025 16:30</t>
+          <t>11-01-2025 13:30</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>AZERBAIJAN</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>PREMYER LIQA</t>
+          <t>LEAGUE TWO</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Neftchi Baku - Turan</t>
+          <t>Grimsby - Notts County</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>66.7</v>
+        <v>60</v>
       </c>
       <c r="F6" t="n">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="G6" t="n">
-        <v>0.67</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>10-03-2025 23:00</t>
+          <t>11-03-2025 20:45</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>CAPIXABA</t>
+          <t>LEAGUE TWO</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Real Noroeste - Porto Vitória</t>
+          <t>Salford City - Chesterfield</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>53.3</v>
+        <v>50</v>
       </c>
       <c r="F7" t="n">
-        <v>1.75</v>
+        <v>2.6</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.07000000000000001</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>10-03-2025 16:30</t>
+          <t>01-01-2025 16:00</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>BULGARIA</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>FIRST LEAGUE</t>
+          <t>NATIONAL LEAGUE</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Septemvri Sofia - Hebar 1918</t>
+          <t>Rochdale - Altrincham</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>56.7</v>
+        <v>66.7</v>
       </c>
       <c r="F8" t="n">
-        <v>1.83</v>
+        <v>1.9</v>
       </c>
       <c r="G8" t="n">
-        <v>0.04</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>10-03-2025 14:30</t>
+          <t>11-03-2025 20:00</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>BULGARIA</t>
+          <t>NETHERLANDS</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>SECOND LEAGUE</t>
+          <t>EERSTE DIVISIE</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Botev Plovdiv II - Marek</t>
+          <t>FC Volendam - Telstar</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>53.3</v>
+        <v>66.7</v>
       </c>
       <c r="F9" t="n">
-        <v>2.5</v>
+        <v>1.75</v>
       </c>
       <c r="G9" t="n">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>10-03-2025 14:30</t>
+          <t>11-03-2025 20:00</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>BULGARIA</t>
+          <t>NETHERLANDS</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>SECOND LEAGUE</t>
+          <t>EERSTE DIVISIE</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Ludogorets II - Sportist Svoge</t>
+          <t>Jong Ajax - Emmen</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>56.7</v>
+        <v>53.3</v>
       </c>
       <c r="F10" t="n">
-        <v>1.8</v>
+        <v>3.3</v>
       </c>
       <c r="G10" t="n">
-        <v>0.02</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>10-03-2025 21:00</t>
+          <t>12-03-2025 00:10</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>COLOMBIA</t>
+          <t>ARGENTINA</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>PRIMERA B</t>
+          <t>PRIMERA NACIONAL</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Bogota FC - Huila</t>
+          <t>Atlanta - Colegiales</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>55.7</v>
+        <v>66.7</v>
       </c>
       <c r="F11" t="n">
-        <v>3.6</v>
+        <v>1.8</v>
       </c>
       <c r="G11" t="n">
-        <v>1.01</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>10-03-2025 20:45</t>
+          <t>11-03-2025 18:00</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>CZECH-REPUBLIC</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE - SOUTH</t>
+          <t>CUP</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Hemel Hempstead Town - AFC Hornchurch</t>
+          <t>Hlučín - Teplice</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="F12" t="n">
-        <v>2.4</v>
+        <v>7</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>10-03-2025 20:00</t>
+          <t>11-03-2025 20:30</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>EGYPT</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>PROFESSIONAL DEVELOPMENT LEAGUE</t>
+          <t>PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Swansea City U21 - Ipswich Town U21</t>
+          <t>El Gouna FC - Al Ittihad</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>66.7</v>
+        <v>53.3</v>
       </c>
       <c r="F13" t="n">
-        <v>1.91</v>
+        <v>2.85</v>
       </c>
       <c r="G13" t="n">
-        <v>0.27</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>10-03-2025 18:00</t>
+          <t>11-03-2025 20:45</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>GEORGIA</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>EROVNULI LIGA</t>
+          <t>NATIONAL LEAGUE - NORTH</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Dinamo Batumi - Gagra</t>
+          <t>Curzon Ashton - Chorley</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>53.3</v>
+        <v>51.7</v>
       </c>
       <c r="F14" t="n">
-        <v>2.3</v>
+        <v>1.91</v>
       </c>
       <c r="G14" t="n">
-        <v>0.23</v>
+        <v>-0.01</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>10-03-2025 14:30</t>
+          <t>11-03-2025 20:45</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>INDONESIA</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>LIGA 1</t>
+          <t>NATIONAL LEAGUE - NORTH</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Dewa United - Pusamania Borneo</t>
+          <t>King's Lynn Town - Brackley Town</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>93.3</v>
+        <v>56.7</v>
       </c>
       <c r="F15" t="n">
-        <v>1.77</v>
+        <v>2.3</v>
       </c>
       <c r="G15" t="n">
-        <v>0.65</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>10-03-2025 23:00</t>
+          <t>11-03-2025 20:45</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>MOROCCO</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>BOTOLA PRO</t>
+          <t>NATIONAL LEAGUE - SOUTH</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>CODM Meknès - Raja Casablanca</t>
+          <t>Enfield Town - Hampton &amp; Richmond</t>
         </is>
       </c>
       <c r="E16" t="n">
         <v>50</v>
       </c>
       <c r="F16" t="n">
-        <v>4.33</v>
+        <v>2.6</v>
       </c>
       <c r="G16" t="n">
-        <v>1.16</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>10-03-2025 20:30</t>
+          <t>11-03-2025 20:45</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>SPAIN</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>SEGUNDA DIVISIÓN</t>
+          <t>NATIONAL LEAGUE - SOUTH</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Burgos - Albacete</t>
+          <t>Farnborough - Boreham Wood</t>
         </is>
       </c>
       <c r="E17" t="n">
         <v>50</v>
       </c>
       <c r="F17" t="n">
-        <v>2.05</v>
+        <v>3.4</v>
       </c>
       <c r="G17" t="n">
-        <v>0.02</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>10-03-2025 14:00</t>
+          <t>25-02-2025 20:45</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>TURKEY</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>1. LIG</t>
+          <t>NON LEAGUE PREMIER - ISTHMIAN</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Pendikspor - Amed</t>
+          <t>Folkestone Invicta - Chichester City</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>50</v>
+        <v>66.7</v>
       </c>
       <c r="F18" t="n">
-        <v>2.38</v>
+        <v>2.2</v>
       </c>
       <c r="G18" t="n">
-        <v>0.19</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>11-03-2025 21:00</t>
+          <t>11-03-2025 14:00</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>UEFA CHAMPIONS LEAGUE</t>
+          <t>PROFESSIONAL DEVELOPMENT LEAGUE</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Liverpool - Paris Saint Germain</t>
+          <t>AFC Bournemouth U21 - Cardiff City U21</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -2086,322 +2154,322 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>11-03-2025 20:45</t>
+          <t>11-03-2025 19:00</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>GERMANY</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>CHAMPIONSHIP</t>
+          <t>3. LIGA</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Cardiff - Luton</t>
+          <t>FC Ingolstadt 04 - Alemannia Aachen</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="F20" t="n">
-        <v>2.45</v>
+        <v>1.95</v>
       </c>
       <c r="G20" t="n">
-        <v>0.47</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>11-03-2025 20:45</t>
+          <t>11-03-2025 16:30</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>IRAN</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>CHAMPIONSHIP</t>
+          <t>AZADEGAN LEAGUE</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Norwich - Sheffield Wednesday</t>
+          <t>Naft Gachsaran - Pars Jonoubi JAM</t>
         </is>
       </c>
       <c r="E21" t="n">
         <v>53.3</v>
       </c>
       <c r="F21" t="n">
-        <v>2.1</v>
+        <v>2.62</v>
       </c>
       <c r="G21" t="n">
-        <v>0.12</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>01-01-2025 16:00</t>
+          <t>11-03-2025 18:30</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>ITALY</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>LEAGUE ONE</t>
+          <t>SERIE C - GIRONE B</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Crawley Town - Charlton</t>
+          <t>Pianese - Spal</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>53.3</v>
+        <v>50</v>
       </c>
       <c r="F22" t="n">
-        <v>3.9</v>
+        <v>1.91</v>
       </c>
       <c r="G22" t="n">
-        <v>1.08</v>
+        <v>-0.05</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>11-01-2025 13:30</t>
+          <t>11-03-2025 16:00</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>PORTUGAL</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>LEAGUE TWO</t>
+          <t>LIGA REVELAÇÃO U23</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Grimsby - Notts County</t>
+          <t>Sporting CP U23 - Torreense U23</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>60</v>
+        <v>53.3</v>
       </c>
       <c r="F23" t="n">
-        <v>3.25</v>
+        <v>2.05</v>
       </c>
       <c r="G23" t="n">
-        <v>0.95</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>11-03-2025 20:45</t>
+          <t>11-03-2025 17:00</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>PORTUGAL</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>LEAGUE TWO</t>
+          <t>LIGA REVELAÇÃO U23</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Salford City - Chesterfield</t>
+          <t>Farense U23 - Mafra U23</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>50</v>
+        <v>53.3</v>
       </c>
       <c r="F24" t="n">
-        <v>2.6</v>
+        <v>1.95</v>
       </c>
       <c r="G24" t="n">
-        <v>0.3</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>01-01-2025 16:00</t>
+          <t>11-03-2025 16:00</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>SLOVAKIA</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE</t>
+          <t>CUP</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Rochdale - Altrincham</t>
+          <t>Zlaté Moravce - Ružomberok</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>66.7</v>
+        <v>53.3</v>
       </c>
       <c r="F25" t="n">
-        <v>1.9</v>
+        <v>3.1</v>
       </c>
       <c r="G25" t="n">
-        <v>0.27</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>11-03-2025 20:00</t>
+          <t>11-03-2025 14:30</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>NETHERLANDS</t>
+          <t>SOUTH-AFRICA</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>EERSTE DIVISIE</t>
+          <t>1ST DIVISION</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>FC Volendam - Telstar</t>
+          <t>Highbury - Leruma United</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>66.7</v>
+        <v>80</v>
       </c>
       <c r="F26" t="n">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="G26" t="n">
-        <v>0.17</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>11-03-2025 20:00</t>
+          <t>11-03-2025 14:30</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>NETHERLANDS</t>
+          <t>SOUTH-AFRICA</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>EERSTE DIVISIE</t>
+          <t>1ST DIVISION</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Jong Ajax - Emmen</t>
+          <t>Pretoria Callies - Casric Stars</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>53.3</v>
+        <v>50</v>
       </c>
       <c r="F27" t="n">
-        <v>3.3</v>
+        <v>2.8</v>
       </c>
       <c r="G27" t="n">
-        <v>0.76</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>12-03-2025 00:10</t>
+          <t>11-03-2025 14:30</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>ARGENTINA</t>
+          <t>SOUTH-AFRICA</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>PRIMERA NACIONAL</t>
+          <t>1ST DIVISION</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Atlanta - Colegiales</t>
+          <t>Kruger United - Baroka FC</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>66.7</v>
+        <v>50</v>
       </c>
       <c r="F28" t="n">
-        <v>1.8</v>
+        <v>2.35</v>
       </c>
       <c r="G28" t="n">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>11-03-2025 02:30</t>
+          <t>11-03-2025 14:30</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>COLOMBIA</t>
+          <t>UKRAINE</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>PRIMERA A</t>
+          <t>PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Deportes Tolima - Once Caldas</t>
+          <t>Veres Rivne - Polessya</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>53.3</v>
+        <v>50</v>
       </c>
       <c r="F29" t="n">
-        <v>1.75</v>
+        <v>3.95</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.07000000000000001</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>11-03-2025 20:30</t>
+          <t>11-03-2025 20:45</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>EGYPT</t>
+          <t>WALES</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -2411,54 +2479,54 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>El Gouna FC - Al Ittihad</t>
+          <t>Briton Ferry - Newtown AFC</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>53.3</v>
+        <v>73.3</v>
       </c>
       <c r="F30" t="n">
-        <v>2.85</v>
+        <v>2.6</v>
       </c>
       <c r="G30" t="n">
-        <v>0.52</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>11-03-2025 20:45</t>
+          <t>12-03-2025 18:45</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE - NORTH</t>
+          <t>UEFA CHAMPIONS LEAGUE</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Curzon Ashton - Chorley</t>
+          <t>Lille - Borussia Dortmund</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>51.7</v>
+        <v>50</v>
       </c>
       <c r="F31" t="n">
-        <v>1.91</v>
+        <v>2.55</v>
       </c>
       <c r="G31" t="n">
-        <v>-0.01</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>11-03-2025 20:45</t>
+          <t>12-03-2025 20:45</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -2468,28 +2536,28 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE - NORTH</t>
+          <t>CHAMPIONSHIP</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>King's Lynn Town - Brackley Town</t>
+          <t>Portsmouth - Plymouth</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>56.7</v>
+        <v>53.3</v>
       </c>
       <c r="F32" t="n">
-        <v>2.3</v>
+        <v>1.9</v>
       </c>
       <c r="G32" t="n">
-        <v>0.3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>11-03-2025 20:45</t>
+          <t>12-03-2025 20:45</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -2499,90 +2567,90 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE - SOUTH</t>
+          <t>CHAMPIONSHIP</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Enfield Town - Hampton &amp; Richmond</t>
+          <t>Hull City - Oxford United</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>50</v>
+        <v>53.3</v>
       </c>
       <c r="F33" t="n">
-        <v>2.6</v>
+        <v>1.73</v>
       </c>
       <c r="G33" t="n">
-        <v>0.3</v>
+        <v>-0.08</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>11-03-2025 20:45</t>
+          <t>12-03-2025 23:30</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE - SOUTH</t>
+          <t>COPA DO BRASIL</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Farnborough - Boreham Wood</t>
+          <t>Athletic Club - Gremio</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="F34" t="n">
-        <v>3.4</v>
+        <v>3.9</v>
       </c>
       <c r="G34" t="n">
-        <v>0.7</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>25-02-2025 20:45</t>
+          <t>12-03-2025 01:30</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>COLOMBIA</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>NON LEAGUE PREMIER - ISTHMIAN</t>
+          <t>PRIMERA B</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Folkestone Invicta - Chichester City</t>
+          <t>Leones FC - Internacional Palmira</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>66.7</v>
+        <v>60</v>
       </c>
       <c r="F35" t="n">
-        <v>2.2</v>
+        <v>2.7</v>
       </c>
       <c r="G35" t="n">
-        <v>0.47</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>11-03-2025 19:00</t>
+          <t>12-03-2025 19:00</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -2597,48 +2665,110 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>FC Ingolstadt 04 - Alemannia Aachen</t>
+          <t>Waldhof Mannheim - SV Sandhausen</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>70</v>
+        <v>73.3</v>
       </c>
       <c r="F36" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="G36" t="n">
-        <v>0.36</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>11-03-2025 14:30</t>
+          <t>12-03-2025 14:30</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>UKRAINE</t>
+          <t>SOUTH-AFRICA</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>PREMIER LEAGUE</t>
+          <t>1ST DIVISION</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Veres Rivne - Polessya</t>
+          <t>Upington City - Black Leopards</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>50</v>
+        <v>66.7</v>
       </c>
       <c r="F37" t="n">
-        <v>3.95</v>
+        <v>2.28</v>
       </c>
       <c r="G37" t="n">
-        <v>0.98</v>
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>12-03-2025 18:30</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>SOUTH-AFRICA</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>PREMIER SOCCER LEAGUE</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Kaizer Chiefs - Cape Town City</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>60</v>
+      </c>
+      <c r="F38" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>12-03-2025 01:30</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>WORLD</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>CONCACAF CHAMPIONS LEAGUE</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Columbus Crew - Los Angeles FC</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>56.7</v>
+      </c>
+      <c r="F39" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.08</v>
       </c>
     </row>
   </sheetData>
@@ -2652,7 +2782,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2700,7 +2830,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>10-03-2025 21:00</t>
+          <t>11-03-2025 20:45</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -2710,146 +2840,146 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>PREMIER LEAGUE</t>
+          <t>CHAMPIONSHIP</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>West Ham - Newcastle</t>
+          <t>Derby - Coventry</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>60</v>
+        <v>53.3</v>
       </c>
       <c r="F2" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="G2" t="n">
-        <v>0.32</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>10-03-2025 19:00</t>
+          <t>11-03-2025 20:45</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ROMANIA</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>LIGA I</t>
+          <t>CHAMPIONSHIP</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Uta Arad - Dinamo Bucuresti</t>
+          <t>Middlesbrough - QPR</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>56.7</v>
+        <v>60</v>
       </c>
       <c r="F3" t="n">
-        <v>2.15</v>
+        <v>5</v>
       </c>
       <c r="G3" t="n">
-        <v>0.22</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>10-03-2025 19:30</t>
+          <t>11-03-2025 20:45</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>SCOTLAND</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>CEARENSE - 2</t>
+          <t>LEAGUE ONE</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Tiradentes CE - Caucaia</t>
+          <t>Kelty Hearts - Cove Rangers</t>
         </is>
       </c>
       <c r="E4" t="n">
         <v>60</v>
       </c>
       <c r="F4" t="n">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="G4" t="n">
-        <v>0.35</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>10-03-2025 19:30</t>
+          <t>11-03-2025 13:30</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ISRAEL</t>
+          <t>ALBANIA</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>LIGAT HA'AL</t>
+          <t>SUPERLIGA</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Beitar Jerusalem - Hapoel Beer Sheva</t>
+          <t>Laci - Egnatia Rrogozhinë</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>53.3</v>
+        <v>60</v>
       </c>
       <c r="F5" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="G5" t="n">
-        <v>0.09</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>11-03-2025 20:45</t>
+          <t>11-03-2025 20:30</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>EGYPT</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>CHAMPIONSHIP</t>
+          <t>PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Derby - Coventry</t>
+          <t>Zamalek SC - Al Ahly</t>
         </is>
       </c>
       <c r="E6" t="n">
         <v>53.3</v>
       </c>
       <c r="F6" t="n">
-        <v>2.15</v>
+        <v>1.76</v>
       </c>
       <c r="G6" t="n">
-        <v>0.15</v>
+        <v>-0.06</v>
       </c>
     </row>
     <row r="7">
@@ -2865,22 +2995,22 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>CHAMPIONSHIP</t>
+          <t>NATIONAL LEAGUE - NORTH</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Middlesbrough - QPR</t>
+          <t>Buxton - Spennymoor Town</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>60</v>
+        <v>56.7</v>
       </c>
       <c r="F7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G7" t="n">
-        <v>2</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="8">
@@ -2891,89 +3021,89 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>SCOTLAND</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>LEAGUE ONE</t>
+          <t>NATIONAL LEAGUE - NORTH</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Kelty Hearts - Cove Rangers</t>
+          <t>Marine - Southport</t>
         </is>
       </c>
       <c r="E8" t="n">
         <v>60</v>
       </c>
       <c r="F8" t="n">
-        <v>2.4</v>
+        <v>3.3</v>
       </c>
       <c r="G8" t="n">
-        <v>0.44</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>11-03-2025 01:15</t>
+          <t>11-03-2025 20:45</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ARGENTINA</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>LIGA PROFESIONAL ARGENTINA</t>
+          <t>NATIONAL LEAGUE - NORTH</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Talleres Cordoba - Rosario Central</t>
+          <t>Rushall Olympic - Hereford</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>53.3</v>
+        <v>73.3</v>
       </c>
       <c r="F9" t="n">
-        <v>4.33</v>
+        <v>1.73</v>
       </c>
       <c r="G9" t="n">
-        <v>1.31</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>11-03-2025 20:30</t>
+          <t>11-03-2025 20:45</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>EGYPT</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>PREMIER LEAGUE</t>
+          <t>NATIONAL LEAGUE - SOUTH</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Zamalek SC - Al Ahly</t>
+          <t>Enfield Town - Hampton &amp; Richmond</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>53.3</v>
+        <v>50</v>
       </c>
       <c r="F10" t="n">
-        <v>1.76</v>
+        <v>2.4</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.06</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="11">
@@ -2989,28 +3119,28 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE - NORTH</t>
+          <t>NATIONAL LEAGUE - SOUTH</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Buxton - Spennymoor Town</t>
+          <t>Maidstone Utd - Dorking Wanderers</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>56.7</v>
+        <v>65</v>
       </c>
       <c r="F11" t="n">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="G11" t="n">
-        <v>0.7</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>11-03-2025 20:45</t>
+          <t>22-02-2025 16:00</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -3020,28 +3150,28 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE - NORTH</t>
+          <t>NON LEAGUE PREMIER - ISTHMIAN</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Marine - Southport</t>
+          <t>Hastings United - Wingate &amp; Finchley</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F12" t="n">
-        <v>3.3</v>
+        <v>2.2</v>
       </c>
       <c r="G12" t="n">
-        <v>0.98</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>11-03-2025 20:45</t>
+          <t>11-01-2025 16:00</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -3051,28 +3181,28 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE - NORTH</t>
+          <t>NON LEAGUE PREMIER - SOUTHERN SOUTH</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Rushall Olympic - Hereford</t>
+          <t>Frome Town - Hanwell Town</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>73.3</v>
+        <v>50</v>
       </c>
       <c r="F13" t="n">
-        <v>1.73</v>
+        <v>2.3</v>
       </c>
       <c r="G13" t="n">
-        <v>0.27</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>11-03-2025 20:45</t>
+          <t>11-03-2025 14:00</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -3082,28 +3212,28 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE - SOUTH</t>
+          <t>PROFESSIONAL DEVELOPMENT LEAGUE</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Enfield Town - Hampton &amp; Richmond</t>
+          <t>Peterborough United U21 - Bristol City U21</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>50</v>
+        <v>66.7</v>
       </c>
       <c r="F14" t="n">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="G14" t="n">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>11-03-2025 20:45</t>
+          <t>11-03-2025 14:00</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -3113,84 +3243,84 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE - SOUTH</t>
+          <t>PROFESSIONAL DEVELOPMENT LEAGUE</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Maidstone Utd - Dorking Wanderers</t>
+          <t>Fleetwood Town U21 - Barnsley U21</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="F15" t="n">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="G15" t="n">
-        <v>0.76</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>22-02-2025 16:00</t>
+          <t>11-03-2025 13:00</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>ETHIOPIA</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>NON LEAGUE PREMIER - ISTHMIAN</t>
+          <t>PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Hastings United - Wingate &amp; Finchley</t>
+          <t>Ethiopian Medhin - Ethiopia Nigd Bank</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>50</v>
+        <v>66.7</v>
       </c>
       <c r="F16" t="n">
-        <v>2.2</v>
+        <v>3.8</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1</v>
+        <v>1.53</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>11-01-2025 16:00</t>
+          <t>11-03-2025 19:00</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>GERMANY</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>NON LEAGUE PREMIER - SOUTHERN SOUTH</t>
+          <t>3. LIGA</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Frome Town - Hanwell Town</t>
+          <t>Stuttgart II - VfL Osnabrück</t>
         </is>
       </c>
       <c r="E17" t="n">
         <v>50</v>
       </c>
       <c r="F17" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="G17" t="n">
-        <v>0.15</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="18">
@@ -3211,17 +3341,17 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Stuttgart II - VfL Osnabrück</t>
+          <t>SpVgg Unterhaching - Verl</t>
         </is>
       </c>
       <c r="E18" t="n">
         <v>50</v>
       </c>
       <c r="F18" t="n">
-        <v>2.25</v>
+        <v>1.91</v>
       </c>
       <c r="G18" t="n">
-        <v>0.12</v>
+        <v>-0.05</v>
       </c>
     </row>
     <row r="19">
@@ -3242,79 +3372,265 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>SpVgg Unterhaching - Verl</t>
+          <t>Arminia Bielefeld - FC Saarbrücken</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="F19" t="n">
-        <v>1.91</v>
+        <v>2.85</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.05</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>11-03-2025 19:00</t>
+          <t>11-03-2025 15:00</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>GERMANY</t>
+          <t>INDIA</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>3. LIGA</t>
+          <t>INDIAN SUPER LEAGUE</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Arminia Bielefeld - FC Saarbrücken</t>
+          <t>Bengaluru - Mumbai City</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>60</v>
+        <v>53.3</v>
       </c>
       <c r="F20" t="n">
-        <v>2.85</v>
+        <v>2.25</v>
       </c>
       <c r="G20" t="n">
-        <v>0.71</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>11-03-2025 15:00</t>
+          <t>11-03-2025 14:30</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>INDIA</t>
+          <t>SOUTH-AFRICA</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>INDIAN SUPER LEAGUE</t>
+          <t>1ST DIVISION</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Bengaluru - Mumbai City</t>
+          <t>Milford FC - Hungry Lions</t>
         </is>
       </c>
       <c r="E21" t="n">
+        <v>60</v>
+      </c>
+      <c r="F21" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="G21" t="n">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>12-03-2025 23:00</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>WORLD</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>CONMEBOL LIBERTADORES</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Cerro Porteno - FBC Melgar</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>50</v>
+      </c>
+      <c r="F22" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>08-02-2025 16:00</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>CZECH-REPUBLIC</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>CZECH LIGA</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Dukla Praha - Karviná</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>50</v>
+      </c>
+      <c r="F23" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>24-01-2025 13:15</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>MALAYSIA</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>SUPER LEAGUE</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Kuching FA - Kedah</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
         <v>53.3</v>
       </c>
-      <c r="F21" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="G21" t="n">
-        <v>0.2</v>
+      <c r="F24" t="n">
+        <v>7</v>
+      </c>
+      <c r="G24" t="n">
+        <v>2.73</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>12-01-2025 18:00</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>MEXICO</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>LIGA PREMIER SERIE B</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Cañoneros Marina - Real Zamora</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>60</v>
+      </c>
+      <c r="F25" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>12-03-2025 15:30</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>SLOVAKIA</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>CUP</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Dukla Banská Bystrica - Tatran Prešov</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>60</v>
+      </c>
+      <c r="F26" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="G26" t="n">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>12-03-2025 19:00</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>WORLD</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>AFC CHALLENGE LEAGUE</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Al Seeb - Al Arabi</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>60</v>
+      </c>
+      <c r="F27" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.44</v>
       </c>
     </row>
   </sheetData>
@@ -3328,7 +3644,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3376,156 +3692,156 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>10-03-2025 16:30</t>
+          <t>11-03-2025 21:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>BULGARIA</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>FIRST LEAGUE</t>
+          <t>UEFA CHAMPIONS LEAGUE</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Septemvri Sofia - Hebar 1918</t>
+          <t>Bayer Leverkusen - Bayern München</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>72.5</v>
+        <v>70</v>
       </c>
       <c r="F2" t="n">
-        <v>2.15</v>
+        <v>1.73</v>
       </c>
       <c r="G2" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>10-03-2025 21:00</t>
+          <t>11-03-2025 20:45</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>COLOMBIA</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>PRIMERA B</t>
+          <t>LEAGUE ONE</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Bogota FC - Huila</t>
+          <t>Exeter City - Mansfield Town</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>71.8</v>
+        <v>70</v>
       </c>
       <c r="F3" t="n">
-        <v>2.15</v>
+        <v>1.73</v>
       </c>
       <c r="G3" t="n">
-        <v>0.54</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>10-03-2025 19:00</t>
+          <t>01-01-2025 16:00</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>POLAND</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>EKSTRAKLASA</t>
+          <t>LEAGUE ONE</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Motor Lublin - Legia Warszawa</t>
+          <t>Crawley Town - Charlton</t>
         </is>
       </c>
       <c r="E4" t="n">
         <v>70</v>
       </c>
       <c r="F4" t="n">
-        <v>1.73</v>
+        <v>2</v>
       </c>
       <c r="G4" t="n">
-        <v>0.21</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>10-03-2025 11:30</t>
+          <t>01-01-2025 16:00</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>TURKEY</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>1. LIG</t>
+          <t>NATIONAL LEAGUE</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Keçiörengücü - Erzurum BB</t>
+          <t>Rochdale - Altrincham</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>82.5</v>
+        <v>90</v>
       </c>
       <c r="F5" t="n">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="G5" t="n">
-        <v>0.73</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>11-03-2025 21:00</t>
+          <t>11-01-2025 16:00</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>UEFA CHAMPIONS LEAGUE</t>
+          <t>NATIONAL LEAGUE</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Bayer Leverkusen - Bayern München</t>
+          <t>Oldham - Eastleigh</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>70</v>
+        <v>82.5</v>
       </c>
       <c r="F6" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="G6" t="n">
-        <v>0.21</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="7">
@@ -3536,64 +3852,64 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>SCOTLAND</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>LEAGUE ONE</t>
+          <t>CHAMPIONSHIP</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Exeter City - Mansfield Town</t>
+          <t>Queen's Park - Partick</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="F7" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="G7" t="n">
-        <v>0.21</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>01-01-2025 16:00</t>
+          <t>04-01-2025 16:00</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>SCOTLAND</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>LEAGUE ONE</t>
+          <t>LEAGUE TWO</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Crawley Town - Charlton</t>
+          <t>Elgin City - Spartans</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>70</v>
+        <v>71.8</v>
       </c>
       <c r="F8" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="G8" t="n">
-        <v>0.4</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>01-01-2025 16:00</t>
+          <t>11-03-2025 20:45</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -3603,28 +3919,28 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE</t>
+          <t>NATIONAL LEAGUE - NORTH</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Rochdale - Altrincham</t>
+          <t>King's Lynn Town - Brackley Town</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="F9" t="n">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="G9" t="n">
-        <v>0.62</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>11-01-2025 16:00</t>
+          <t>11-03-2025 20:45</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -3634,22 +3950,22 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE</t>
+          <t>NATIONAL LEAGUE - SOUTH</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Oldham - Eastleigh</t>
+          <t>Chesham United - Tonbridge Angels</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>82.5</v>
+        <v>86.7</v>
       </c>
       <c r="F10" t="n">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="G10" t="n">
-        <v>0.48</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="11">
@@ -3660,58 +3976,58 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>SCOTLAND</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>CHAMPIONSHIP</t>
+          <t>NATIONAL LEAGUE - SOUTH</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Queen's Park - Partick</t>
+          <t>Farnborough - Boreham Wood</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>95</v>
+        <v>86.7</v>
       </c>
       <c r="F11" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="G11" t="n">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>04-01-2025 16:00</t>
+          <t>11-03-2025 20:45</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>SCOTLAND</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>LEAGUE TWO</t>
+          <t>NATIONAL LEAGUE - SOUTH</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Elgin City - Spartans</t>
+          <t>Torquay - Salisbury</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>71.8</v>
+        <v>73.3</v>
       </c>
       <c r="F12" t="n">
-        <v>1.93</v>
+        <v>1.85</v>
       </c>
       <c r="G12" t="n">
-        <v>0.39</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="13">
@@ -3727,28 +4043,28 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE - NORTH</t>
+          <t>NATIONAL LEAGUE - SOUTH</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>King's Lynn Town - Brackley Town</t>
+          <t>Weymouth - Weston-super-Mare</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="F13" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="G13" t="n">
-        <v>0.76</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>11-03-2025 20:45</t>
+          <t>25-02-2025 20:45</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -3758,301 +4074,332 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE - SOUTH</t>
+          <t>NON LEAGUE PREMIER - ISTHMIAN</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Chesham United - Tonbridge Angels</t>
+          <t>Folkestone Invicta - Chichester City</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>86.7</v>
+        <v>95</v>
       </c>
       <c r="F14" t="n">
-        <v>2.1</v>
+        <v>1.7</v>
       </c>
       <c r="G14" t="n">
-        <v>0.82</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>11-03-2025 20:45</t>
+          <t>11-03-2025 19:00</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>GERMANY</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE - SOUTH</t>
+          <t>3. LIGA</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Farnborough - Boreham Wood</t>
+          <t>Stuttgart II - VfL Osnabrück</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>86.7</v>
+        <v>73.3</v>
       </c>
       <c r="F15" t="n">
-        <v>2</v>
+        <v>1.73</v>
       </c>
       <c r="G15" t="n">
-        <v>0.73</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>11-03-2025 20:45</t>
+          <t>11-03-2025 19:00</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>GERMANY</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE - SOUTH</t>
+          <t>3. LIGA</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Torquay - Salisbury</t>
+          <t>Arminia Bielefeld - FC Saarbrücken</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>73.3</v>
+        <v>80</v>
       </c>
       <c r="F16" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="G16" t="n">
-        <v>0.36</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>11-03-2025 20:45</t>
+          <t>11-03-2025 14:30</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>INDONESIA</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE - SOUTH</t>
+          <t>LIGA 1</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Weymouth - Weston-super-Mare</t>
+          <t>PSS Sleman - Persis Solo</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="F17" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="G17" t="n">
-        <v>0.7</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>25-02-2025 20:45</t>
+          <t>11-03-2025 12:00</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>UKRAINE</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>NON LEAGUE PREMIER - ISTHMIAN</t>
+          <t>PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Folkestone Invicta - Chichester City</t>
+          <t>Oleksandria - Obolon'-Brovar</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="F18" t="n">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="G18" t="n">
-        <v>0.61</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>11-03-2025 19:00</t>
+          <t>11-03-2025 17:00</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>GERMANY</t>
+          <t>UKRAINE</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>3. LIGA</t>
+          <t>PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Stuttgart II - VfL Osnabrück</t>
+          <t>Karpaty - Shakhtar Donetsk</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>73.3</v>
+        <v>80</v>
       </c>
       <c r="F19" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="G19" t="n">
-        <v>0.27</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>11-03-2025 19:00</t>
+          <t>12-03-2025 21:00</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>GERMANY</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>3. LIGA</t>
+          <t>UEFA CHAMPIONS LEAGUE</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Arminia Bielefeld - FC Saarbrücken</t>
+          <t>Arsenal - PSV Eindhoven</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>80</v>
+        <v>77.5</v>
       </c>
       <c r="F20" t="n">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="G20" t="n">
-        <v>0.52</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>11-03-2025 14:30</t>
+          <t>12-03-2025 01:30</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>INDONESIA</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>LIGA 1</t>
+          <t>COPA DO BRASIL</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>PSS Sleman - Persis Solo</t>
+          <t>Botafogo PB - Concórdia</t>
         </is>
       </c>
       <c r="E21" t="n">
         <v>80</v>
       </c>
       <c r="F21" t="n">
-        <v>1.9</v>
+        <v>2.2</v>
       </c>
       <c r="G21" t="n">
-        <v>0.52</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>11-03-2025 12:00</t>
+          <t>08-02-2025 16:00</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>UKRAINE</t>
+          <t>CZECH-REPUBLIC</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>PREMIER LEAGUE</t>
+          <t>CZECH LIGA</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Oleksandria - Obolon'-Brovar</t>
+          <t>Dukla Praha - Karviná</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="F22" t="n">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="G22" t="n">
-        <v>0.5</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>11-03-2025 17:00</t>
+          <t>12-03-2025 19:00</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>UKRAINE</t>
+          <t>GERMANY</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>PREMIER LEAGUE</t>
+          <t>3. LIGA</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Karpaty - Shakhtar Donetsk</t>
+          <t>Waldhof Mannheim - SV Sandhausen</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="F23" t="n">
-        <v>1.75</v>
+        <v>1.77</v>
       </c>
       <c r="G23" t="n">
-        <v>0.4</v>
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>12-03-2025 03:30</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>WORLD</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>CONCACAF CHAMPIONS LEAGUE</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Tigres UANL - FC Cincinnati</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>73.3</v>
+      </c>
+      <c r="F24" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.39</v>
       </c>
     </row>
   </sheetData>
@@ -4114,348 +4461,348 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>10-03-2025 20:45</t>
+          <t>07-12-2024 16:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ITALY</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>SERIE A</t>
+          <t>LEAGUE ONE</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Lazio - Udinese</t>
+          <t>Bristol Rovers - Bolton</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>80</v>
+        <v>68.3</v>
       </c>
       <c r="F2" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="G2" t="n">
-        <v>0.44</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>10-03-2025 21:00</t>
+          <t>11-01-2025 16:00</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SPAIN</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>LA LIGA</t>
+          <t>LEAGUE ONE</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Espanyol - Girona</t>
+          <t>Blackpool - Cambridge United</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>66.7</v>
+        <v>65</v>
       </c>
       <c r="F3" t="n">
         <v>1.91</v>
       </c>
       <c r="G3" t="n">
-        <v>0.27</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>10-03-2025 20:45</t>
+          <t>11-01-2025 16:00</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>FRANCE</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>LIGUE 2</t>
+          <t>LEAGUE TWO</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Rodez - Dunkerque</t>
+          <t>AFC Wimbledon - Cheltenham</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>66.7</v>
+        <v>70</v>
       </c>
       <c r="F4" t="n">
-        <v>1.73</v>
+        <v>1.91</v>
       </c>
       <c r="G4" t="n">
-        <v>0.15</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>10-03-2025 19:00</t>
+          <t>11-03-2025 20:45</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ROMANIA</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>LIGA I</t>
+          <t>LEAGUE TWO</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Uta Arad - Dinamo Bucuresti</t>
+          <t>Salford City - Chesterfield</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>68.3</v>
+        <v>71.7</v>
       </c>
       <c r="F5" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="G5" t="n">
-        <v>0.37</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>10-03-2025 16:00</t>
+          <t>11-01-2025 16:00</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ROMANIA</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>LIGA I</t>
+          <t>NATIONAL LEAGUE</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>FC Botosani - Unirea Slobozia</t>
+          <t>Oldham - Eastleigh</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>84</v>
+        <v>73.3</v>
       </c>
       <c r="F6" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="G6" t="n">
-        <v>0.68</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>10-03-2025 21:00</t>
+          <t>11-03-2025 20:45</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>COLOMBIA</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>PRIMERA B</t>
+          <t>NATIONAL LEAGUE</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Bogota FC - Huila</t>
+          <t>Yeovil Town - Boston United</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>72.2</v>
+        <v>80</v>
       </c>
       <c r="F7" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="G7" t="n">
-        <v>0.34</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>10-03-2025 15:00</t>
+          <t>04-01-2025 16:00</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>INDONESIA</t>
+          <t>SCOTLAND</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>LIGA 1</t>
+          <t>LEAGUE TWO</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Semen Padang - Persib Bandung</t>
+          <t>Elgin City - Spartans</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>66.7</v>
+        <v>74.5</v>
       </c>
       <c r="F8" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="G8" t="n">
-        <v>0.15</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>10-03-2025 23:00</t>
+          <t>11-03-2025 20:30</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>MOROCCO</t>
+          <t>EGYPT</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>BOTOLA PRO</t>
+          <t>PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Hassania Agadir - Difaa EL Jadida</t>
+          <t>Zamalek SC - Al Ahly</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>70</v>
+        <v>66.7</v>
       </c>
       <c r="F9" t="n">
-        <v>2.1</v>
+        <v>1.72</v>
       </c>
       <c r="G9" t="n">
-        <v>0.47</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>10-03-2025 19:00</t>
+          <t>11-03-2025 20:45</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>PORTUGAL</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>SEGUNDA LIGA</t>
+          <t>NATIONAL LEAGUE - NORTH</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Leixoes - Tondela</t>
+          <t>Alfreton Town - Scunthorpe</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>86.7</v>
+        <v>73.3</v>
       </c>
       <c r="F10" t="n">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="G10" t="n">
-        <v>0.82</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>10-03-2025 20:00</t>
+          <t>11-03-2025 20:45</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>SAUDI-ARABIA</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>DIVISION 1</t>
+          <t>NATIONAL LEAGUE - NORTH</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Al Jubail - Al-Ain</t>
+          <t>Marine - Southport</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>72</v>
+        <v>66.7</v>
       </c>
       <c r="F11" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="G11" t="n">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>10-03-2025 21:00</t>
+          <t>11-03-2025 20:45</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>URUGUAY</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>SEGUNDA DIVISIÓN</t>
+          <t>NATIONAL LEAGUE - NORTH</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Atenas - Uruguay Montevideo</t>
+          <t>Peterborough Sports - South Shields</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>66.7</v>
+        <v>80</v>
       </c>
       <c r="F12" t="n">
-        <v>1.85</v>
+        <v>1.73</v>
       </c>
       <c r="G12" t="n">
-        <v>0.23</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>07-12-2024 16:00</t>
+          <t>11-03-2025 20:45</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -4465,28 +4812,28 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>LEAGUE ONE</t>
+          <t>NATIONAL LEAGUE - SOUTH</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Bristol Rovers - Bolton</t>
+          <t>Chesham United - Tonbridge Angels</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>68.3</v>
+        <v>92</v>
       </c>
       <c r="F13" t="n">
-        <v>1.7</v>
+        <v>1.85</v>
       </c>
       <c r="G13" t="n">
-        <v>0.16</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>11-01-2025 16:00</t>
+          <t>11-03-2025 20:45</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -4496,28 +4843,28 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>LEAGUE ONE</t>
+          <t>NATIONAL LEAGUE - SOUTH</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Blackpool - Cambridge United</t>
+          <t>Torquay - Salisbury</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="F14" t="n">
-        <v>1.91</v>
+        <v>1.85</v>
       </c>
       <c r="G14" t="n">
-        <v>0.24</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>11-01-2025 16:00</t>
+          <t>11-03-2025 20:45</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -4527,177 +4874,177 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>LEAGUE TWO</t>
+          <t>NATIONAL LEAGUE - SOUTH</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>AFC Wimbledon - Cheltenham</t>
+          <t>Weymouth - Weston-super-Mare</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>70</v>
+        <v>86.7</v>
       </c>
       <c r="F15" t="n">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="G15" t="n">
-        <v>0.34</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>11-03-2025 20:45</t>
+          <t>11-03-2025 19:00</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>GERMANY</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>LEAGUE TWO</t>
+          <t>3. LIGA</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Salford City - Chesterfield</t>
+          <t>FC Ingolstadt 04 - Alemannia Aachen</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>71.7</v>
+        <v>84</v>
       </c>
       <c r="F16" t="n">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="G16" t="n">
-        <v>0.31</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>11-01-2025 16:00</t>
+          <t>11-03-2025 14:30</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>INDONESIA</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE</t>
+          <t>LIGA 1</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Oldham - Eastleigh</t>
+          <t>Bali United - PSBS Biak Numfor</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>73.3</v>
+        <v>88</v>
       </c>
       <c r="F17" t="n">
-        <v>1.91</v>
+        <v>1.7</v>
       </c>
       <c r="G17" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>11-03-2025 20:45</t>
+          <t>11-03-2025 14:30</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>INDONESIA</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE</t>
+          <t>LIGA 1</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Yeovil Town - Boston United</t>
+          <t>Persik Kediri - PSM Makassar</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>80</v>
+        <v>72.5</v>
       </c>
       <c r="F18" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="G18" t="n">
-        <v>0.44</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>04-01-2025 16:00</t>
+          <t>11-03-2025 20:45</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>SCOTLAND</t>
+          <t>ITALY</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>LEAGUE TWO</t>
+          <t>SERIE C - GIRONE B</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Elgin City - Spartans</t>
+          <t>Città Di Campobasso - Ascoli</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>74.5</v>
+        <v>68</v>
       </c>
       <c r="F19" t="n">
-        <v>1.7</v>
+        <v>1.95</v>
       </c>
       <c r="G19" t="n">
-        <v>0.27</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>11-03-2025 20:30</t>
+          <t>11-03-2025 20:45</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>EGYPT</t>
+          <t>ITALY</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>PREMIER LEAGUE</t>
+          <t>SERIE C - GIRONE B</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Zamalek SC - Al Ahly</t>
+          <t>Ternana - Sestri Levante</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>66.7</v>
+        <v>72</v>
       </c>
       <c r="F20" t="n">
-        <v>1.72</v>
+        <v>2.3</v>
       </c>
       <c r="G20" t="n">
-        <v>0.15</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="21">
@@ -4708,120 +5055,120 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>ITALY</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE - NORTH</t>
+          <t>SERIE C - GIRONE B</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Alfreton Town - Scunthorpe</t>
+          <t>Lucchese - Virtus Entella</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>73.3</v>
+        <v>67.5</v>
       </c>
       <c r="F21" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="G21" t="n">
-        <v>0.4</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>11-03-2025 20:45</t>
+          <t>11-03-2025 14:30</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>SOUTH-AFRICA</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE - NORTH</t>
+          <t>1ST DIVISION</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Marine - Southport</t>
+          <t>Milford FC - Hungry Lions</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>66.7</v>
+        <v>76.7</v>
       </c>
       <c r="F22" t="n">
-        <v>1.91</v>
+        <v>1.84</v>
       </c>
       <c r="G22" t="n">
-        <v>0.27</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>11-03-2025 20:45</t>
+          <t>11-03-2025 12:00</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>UKRAINE</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE - NORTH</t>
+          <t>PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Peterborough Sports - South Shields</t>
+          <t>Oleksandria - Obolon'-Brovar</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>80</v>
+        <v>76.7</v>
       </c>
       <c r="F23" t="n">
-        <v>1.73</v>
+        <v>2.4</v>
       </c>
       <c r="G23" t="n">
-        <v>0.38</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>11-03-2025 20:45</t>
+          <t>11-03-2025 17:00</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>UKRAINE</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE - SOUTH</t>
+          <t>PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Chesham United - Tonbridge Angels</t>
+          <t>Karpaty - Shakhtar Donetsk</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>92</v>
+        <v>65</v>
       </c>
       <c r="F24" t="n">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="G24" t="n">
-        <v>0.7</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="25">
@@ -4832,27 +5179,27 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>WALES</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE - SOUTH</t>
+          <t>PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Torquay - Salisbury</t>
+          <t>The New Saints - Caernarfon Town</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="F25" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="G25" t="n">
-        <v>0.48</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="26">
@@ -4863,213 +5210,213 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>WALES</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE - SOUTH</t>
+          <t>PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Weymouth - Weston-super-Mare</t>
+          <t>Barry Town - Aberystwyth Town</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>86.7</v>
+        <v>70</v>
       </c>
       <c r="F26" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="G26" t="n">
-        <v>0.52</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>11-03-2025 19:00</t>
+          <t>11-03-2025 21:00</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>GERMANY</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>3. LIGA</t>
+          <t>AFC CHAMPIONS LEAGUE</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>FC Ingolstadt 04 - Alemannia Aachen</t>
+          <t>Al-Hilal Saudi FC - Pakhtakor</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="F27" t="n">
-        <v>1.73</v>
+        <v>2.5</v>
       </c>
       <c r="G27" t="n">
-        <v>0.45</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>11-03-2025 14:30</t>
+          <t>12-03-2025 18:45</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>INDONESIA</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>LIGA 1</t>
+          <t>UEFA CHAMPIONS LEAGUE</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Bali United - PSBS Biak Numfor</t>
+          <t>Lille - Borussia Dortmund</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="F28" t="n">
         <v>1.7</v>
       </c>
       <c r="G28" t="n">
-        <v>0.5</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>11-03-2025 14:30</t>
+          <t>12-03-2025 21:00</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>INDONESIA</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>LIGA 1</t>
+          <t>UEFA CHAMPIONS LEAGUE</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Persik Kediri - PSM Makassar</t>
+          <t>Arsenal - PSV Eindhoven</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>72.5</v>
+        <v>66.7</v>
       </c>
       <c r="F29" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="G29" t="n">
-        <v>0.27</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>11-03-2025 02:30</t>
+          <t>12-03-2025 14:30</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>PANAMA</t>
+          <t>INDONESIA</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>LIGA PANAMEÑA DE FÚTBOL</t>
+          <t>LIGA 1</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Costa Del Este - San Francisco FC</t>
+          <t>Persebaya Surabaya - PSIS Semarang</t>
         </is>
       </c>
       <c r="E30" t="n">
         <v>66.7</v>
       </c>
       <c r="F30" t="n">
-        <v>2.15</v>
+        <v>1.8</v>
       </c>
       <c r="G30" t="n">
-        <v>0.43</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>11-03-2025 12:00</t>
+          <t>12-03-2025 11:00</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>UKRAINE</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>PREMIER LEAGUE</t>
+          <t>AFC CHAMPIONS LEAGUE</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Oleksandria - Obolon'-Brovar</t>
+          <t>Gwangju FC - Vissel Kobe</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>76.7</v>
+        <v>68</v>
       </c>
       <c r="F31" t="n">
-        <v>2.4</v>
+        <v>1.73</v>
       </c>
       <c r="G31" t="n">
-        <v>0.84</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>11-03-2025 17:00</t>
+          <t>12-03-2025 03:30</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>UKRAINE</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>PREMIER LEAGUE</t>
+          <t>CONCACAF CHAMPIONS LEAGUE</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Karpaty - Shakhtar Donetsk</t>
+          <t>Tigres UANL - FC Cincinnati</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F32" t="n">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="G32" t="n">
-        <v>0.27</v>
+        <v>0.26</v>
       </c>
     </row>
   </sheetData>

--- a/scraper/data/betclever_predictions.xlsx
+++ b/scraper/data/betclever_predictions.xlsx
@@ -475,57 +475,57 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>12-03-2025 19:00</t>
+          <t>13-03-2025 15:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>GERMANY</t>
+          <t>ALGERIA</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>3. LIGA</t>
+          <t>U21 LEAGUE 1</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Waldhof Mannheim - SV Sandhausen</t>
+          <t>ASO Chlef U21 - Olympique Akbou U21</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>73.3</v>
+        <v>70</v>
       </c>
       <c r="F2" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>12-03-2025 20:30</t>
+          <t>14-03-2025 23:30</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ITALY</t>
+          <t>PARAGUAY</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>SERIE C - GIRONE C</t>
+          <t>DIVISION PROFESIONAL - APERTURA</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Avellino - Trapani 1905</t>
+          <t>Club Guarani - Atlético Tembetary</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>80</v>
+        <v>73.3</v>
       </c>
       <c r="F3" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
     </row>
   </sheetData>
@@ -582,29 +582,29 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>12-03-2025 14:00</t>
+          <t>14-03-2025 20:30</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ZAMBIA</t>
+          <t>GERMANY</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>SUPER LEAGUE</t>
+          <t>BUNDESLIGA</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Mutondo Stars - Power Dynamos</t>
+          <t>FC St. Pauli - 1899 Hoffenheim</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>73.3</v>
+        <v>70</v>
       </c>
       <c r="F2" t="n">
-        <v>1.85</v>
+        <v>3.25</v>
       </c>
     </row>
   </sheetData>
@@ -618,7 +618,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -661,169 +661,281 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>12-03-2025 18:30</t>
+          <t>13-03-2025 15:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ITALY</t>
+          <t>ALGERIA</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>SERIE C - GIRONE C</t>
+          <t>U21 LEAGUE 1</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Giugliano - AZ Picerno</t>
+          <t>Mostaganem U21 - ES Sétif U21</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="F2" t="n">
-        <v>2.05</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>12-03-2025 18:30</t>
+          <t>13-03-2025 12:00</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ITALY</t>
+          <t>AZERBAIJAN</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>SERIE C - GIRONE C</t>
+          <t>BIRINCI DASTA</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Team Altamura - Casertana</t>
+          <t>Zaqatala - Qabala</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F3" t="n">
-        <v>1.9</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>13-03-2025 12:00</t>
+          <t>13-03-2025 18:30</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>AZERBAIJAN</t>
+          <t>ITALY</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>BIRINCI DASTA</t>
+          <t>SERIE C - GIRONE A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Zaqatala - Qabala</t>
+          <t>Giana Erminio - Caldiero Terme</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>76</v>
+        <v>93.3</v>
       </c>
       <c r="F4" t="n">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>13-03-2025 18:30</t>
+          <t>13-03-2025 20:00</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ITALY</t>
+          <t>SAUDI-ARABIA</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>SERIE C - GIRONE A</t>
+          <t>PRO LEAGUE</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Giana Erminio - Caldiero Terme</t>
+          <t>Al-Ittihad FC - Al Riyadh</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>93.3</v>
+        <v>76.7</v>
       </c>
       <c r="F5" t="n">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>13-03-2025 20:00</t>
+          <t>13-03-2025 15:30</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>SAUDI-ARABIA</t>
+          <t>SLOVENIA</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>PRO LEAGUE</t>
+          <t>1. SNL</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Al-Ittihad FC - Al Riyadh</t>
+          <t>Nafta - NK Domzale</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>76.7</v>
+        <v>80</v>
       </c>
       <c r="F6" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>13-03-2025 15:30</t>
+          <t>14-03-2025 22:00</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>SLOVENIA</t>
+          <t>CHILE</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>1. SNL</t>
+          <t>PRIMERA DIVISIÓN</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Nafta - NK Domzale</t>
+          <t>A. Italiano - Universidad De Chile</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>80</v>
+        <v>86.7</v>
       </c>
       <c r="F7" t="n">
+        <v>1.85</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>14-03-2025 19:30</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>FRANCE</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>NATIONAL 1</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Orleans - Boulogne</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>75</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1.91</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>14-03-2025 19:00</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>GERMANY</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>3. LIGA</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>FC Saarbrücken - Stuttgart II</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>84</v>
+      </c>
+      <c r="F9" t="n">
         <v>1.73</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>14-03-2025 20:45</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>IRELAND</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>PREMIER DIVISION</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Galway United - Waterford</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>83.3</v>
+      </c>
+      <c r="F10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>14-03-2025 23:30</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>PARAGUAY</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>DIVISION PROFESIONAL - APERTURA</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Club Guarani - Atlético Tembetary</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>76.7</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1.93</v>
       </c>
     </row>
   </sheetData>
@@ -837,7 +949,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -890,69 +1002,69 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>12-03-2025 18:00</t>
+          <t>13-03-2025 21:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SLOVAKIA</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>CUP</t>
+          <t>UEFA EUROPA CONFERENCE LEAGUE</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>FK Košice - Slovan Bratislava</t>
+          <t>Chelsea - FC Copenhagen</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>68.3</v>
+        <v>86.7</v>
       </c>
       <c r="F2" t="n">
         <v>1.62</v>
       </c>
       <c r="G2" t="n">
-        <v>63.3</v>
+        <v>66.7</v>
       </c>
       <c r="H2" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>13-03-2025 21:00</t>
+          <t>13-03-2025 15:00</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>ALGERIA</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>UEFA EUROPA CONFERENCE LEAGUE</t>
+          <t>U21 LEAGUE 1</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Chelsea - FC Copenhagen</t>
+          <t>Mostaganem U21 - ES Sétif U21</t>
         </is>
       </c>
       <c r="E3" t="n">
         <v>86.7</v>
       </c>
       <c r="F3" t="n">
-        <v>1.62</v>
+        <v>1.91</v>
       </c>
       <c r="G3" t="n">
-        <v>66.7</v>
+        <v>40</v>
       </c>
       <c r="H3" t="n">
-        <v>2.5</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="4">
@@ -987,6 +1099,244 @@
       </c>
       <c r="H4" t="n">
         <v>2.5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>14-03-2025 20:00</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>NETHERLANDS</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>EERSTE DIVISIE</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>FC Eindhoven - Excelsior</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>88.8</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="G5" t="n">
+        <v>63.8</v>
+      </c>
+      <c r="H5" t="n">
+        <v>2.55</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>14-03-2025 10:15</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>AUSTRALIA</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>NEW SOUTH WALES NPL 2</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Blacktown Spartans - Bulls Academy</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>75</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="G6" t="n">
+        <v>65</v>
+      </c>
+      <c r="H6" t="n">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>14-03-2025 20:30</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>AUSTRIA</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>2. LIGA</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>SKN ST. Polten - First Vienna</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>90</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="G7" t="n">
+        <v>67.5</v>
+      </c>
+      <c r="H7" t="n">
+        <v>2.95</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>14-03-2025 22:00</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>CHILE</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>PRIMERA DIVISIÓN</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>A. Italiano - Universidad De Chile</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>80</v>
+      </c>
+      <c r="F8" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="G8" t="n">
+        <v>60</v>
+      </c>
+      <c r="H8" t="n">
+        <v>3.65</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>14-03-2025 19:00</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>GERMANY</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>REGIONALLIGA - BAYERN</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Wacker Burghausen - Buchbach</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>61.3</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="G9" t="n">
+        <v>61.3</v>
+      </c>
+      <c r="H9" t="n">
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>14-03-2025 20:45</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>IRELAND</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>FIRST DIVISION</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Athlone Town - UCD</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>68.8</v>
+      </c>
+      <c r="F10" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="G10" t="n">
+        <v>68.8</v>
+      </c>
+      <c r="H10" t="n">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>14-03-2025 20:45</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>IRELAND</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>FIRST DIVISION</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Treaty United - Wexford</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>85</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="G11" t="n">
+        <v>65</v>
+      </c>
+      <c r="H11" t="n">
+        <v>2.65</v>
       </c>
     </row>
   </sheetData>
@@ -995,6 +1345,1581 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G50"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Country</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Championship</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Match</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Home Win (%)</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Home Odds</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>EV home win</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>13-03-2025 21:00</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>ENGLAND</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>LEAGUE TWO</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Bromley - Walsall</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>50</v>
+      </c>
+      <c r="F2" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>13-03-2025 15:00</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>ALGERIA</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>U21 LEAGUE 1</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>ASO Chlef U21 - Olympique Akbou U21</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>70</v>
+      </c>
+      <c r="F3" t="n">
+        <v>2</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>13-03-2025 18:30</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>ITALY</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>SERIE C - GIRONE A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Virtus Verona - Trento</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>55.7</v>
+      </c>
+      <c r="F4" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>02-03-2025 21:30</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>JAMAICA</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>PREMIER LEAGUE</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Harbour View - Chapelton</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>50</v>
+      </c>
+      <c r="F5" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>13-03-2025 18:30</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>MALTA</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>PREMIER LEAGUE</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Mosta - Melita</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>50</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="G6" t="n">
+        <v>-0.1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>13-03-2025 14:00</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>SERBIA</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>PRVA LIGA</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Dubočica - Sloboda Uzice</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>50</v>
+      </c>
+      <c r="F7" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>13-03-2025 15:30</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>SLOVENIA</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>1. SNL</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Nafta - NK Domzale</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="F8" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>13-03-2025 14:00</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>TUNISIA</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>LIGUE 1</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>EGS Gafsa - ES Metlaoui</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="F9" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>13-03-2025 14:00</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>ZAMBIA</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>SUPER LEAGUE</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>NAPSA Stars - Zanaco</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>50</v>
+      </c>
+      <c r="F10" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>14-03-2025 20:45</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>ITALY</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>SERIE A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Genoa - Lecce</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="F11" t="n">
+        <v>2</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>14-03-2025 20:00</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>NETHERLANDS</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>EERSTE DIVISIE</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>FC Eindhoven - Excelsior</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>56.7</v>
+      </c>
+      <c r="F12" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="G12" t="n">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>14-03-2025 20:00</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>NETHERLANDS</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>EERSTE DIVISIE</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Telstar - Roda</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>60</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>14-03-2025 19:00</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>ROMANIA</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>LIGA I</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Universitatea Craiova - Universitatea Cluj</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>50</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="G14" t="n">
+        <v>-0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>14-03-2025 16:00</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>ROMANIA</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>LIGA I</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Petrolul Ploiesti - FC Botosani</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="F15" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.57</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>14-03-2025 20:45</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>SCOTLAND</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>CHAMPIONSHIP</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Raith Rovers - Dunfermline</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="F16" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>14-03-2025 10:15</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>AUSTRALIA</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>VICTORIA NPL</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Port Melbourne - Melbourne Victory II</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>50</v>
+      </c>
+      <c r="F17" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>14-03-2025 18:00</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>AUSTRIA</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>2. LIGA</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Schwarz-Weiß Bregenz - SKU Amstetten</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>60</v>
+      </c>
+      <c r="F18" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>14-03-2025 18:00</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>AUSTRIA</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>2. LIGA</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Rapid Wien II - Admira Wacker</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>60</v>
+      </c>
+      <c r="F19" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>14-03-2025 18:00</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>AUSTRIA</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>2. LIGA</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>SV Horn - Stripfing</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>56.7</v>
+      </c>
+      <c r="F20" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>14-03-2025 18:00</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>AUSTRIA</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>2. LIGA</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Floridsdorfer AC - Austria Lustenau</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>53.3</v>
+      </c>
+      <c r="F21" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>14-03-2025 20:30</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>AUSTRIA</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>2. LIGA</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>SKN ST. Polten - First Vienna</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>63.3</v>
+      </c>
+      <c r="F22" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>14-03-2025 18:00</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>AUSTRIA</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>2. LIGA</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Sturm Graz II - FC Liefering</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>56.7</v>
+      </c>
+      <c r="F23" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>14-03-2025 14:15</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>BULGARIA</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>FIRST LEAGUE</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Slavia Sofia - Beroe</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>60</v>
+      </c>
+      <c r="F24" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>14-03-2025 16:45</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>BULGARIA</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>FIRST LEAGUE</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Levski Krumovgrad - Lokomotiv Plovdiv</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>53.3</v>
+      </c>
+      <c r="F25" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>14-03-2025 22:00</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>CHILE</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>PRIMERA DIVISIÓN</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>A. Italiano - Universidad De Chile</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>53.3</v>
+      </c>
+      <c r="F26" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="G26" t="n">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>14-03-2025 15:30</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>CROATIA</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>FIRST NL</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Sesvete - Jarun</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>55.7</v>
+      </c>
+      <c r="F27" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>14-03-2025 17:30</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>CZECH-REPUBLIC</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>FNL</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Vlašim - Prostějov</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="F28" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>14-03-2025 17:00</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>CZECH-REPUBLIC</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>FNL</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Vysočina Jihlava - Sigma Olomouc II</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>62.3</v>
+      </c>
+      <c r="F29" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>14-03-2025 19:00</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>DENMARK</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>1. DIVISION</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Kolding IF - Hobro</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>53.3</v>
+      </c>
+      <c r="F30" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="G30" t="n">
+        <v>-0.08</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>14-03-2025 19:30</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>FRANCE</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>NATIONAL 1</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Concarneau - Versailles</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>60</v>
+      </c>
+      <c r="F31" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>14-03-2025 19:30</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>FRANCE</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>NATIONAL 1</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Valenciennes - Sochaux</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>53.3</v>
+      </c>
+      <c r="F32" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>14-03-2025 19:30</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>FRANCE</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>NATIONAL 1</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Orleans - Boulogne</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>60</v>
+      </c>
+      <c r="F33" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>14-03-2025 18:30</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>GERMANY</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>2. BUNDESLIGA</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>FC Schalke 04 - Hannover 96</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>53.3</v>
+      </c>
+      <c r="F34" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>14-03-2025 20:45</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>IRELAND</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>PREMIER DIVISION</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Galway United - Waterford</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>60</v>
+      </c>
+      <c r="F35" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>14-03-2025 14:00</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>ISRAEL</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>LIGA LEUMIT</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Hapoel Afula - Hapoel Umm Al-Fahm</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>53.3</v>
+      </c>
+      <c r="F36" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>14-03-2025 16:00</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>MEXICO</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>U23 LEAGUE</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Necaxa U23 - Club León U23</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>60</v>
+      </c>
+      <c r="F37" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>14-03-2025 23:30</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>PARAGUAY</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>DIVISION PROFESIONAL - APERTURA</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Club Guarani - Atlético Tembetary</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>73.3</v>
+      </c>
+      <c r="F38" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>14-03-2025 20:30</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>POLAND</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>EKSTRAKLASA</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Pogon Szczecin - Cracovia Krakow</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>60</v>
+      </c>
+      <c r="F39" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>14-03-2025 18:00</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>POLAND</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>EKSTRAKLASA</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Radomiak Radom - Lechia Gdansk</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
+        <v>53.3</v>
+      </c>
+      <c r="F40" t="n">
+        <v>2</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>14-03-2025 20:30</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>POLAND</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>I LIGA</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Chrobry Głogów - ŁKS Łódź</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v>56.7</v>
+      </c>
+      <c r="F41" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="G41" t="n">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>14-03-2025 18:00</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>POLAND</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>I LIGA</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Miedz Legnica - Wisla Krakow</t>
+        </is>
+      </c>
+      <c r="E42" t="n">
+        <v>50</v>
+      </c>
+      <c r="F42" t="n">
+        <v>3</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>14-03-2025 19:45</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>PORTUGAL</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>SEGUNDA LIGA</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Portimonense - Feirense</t>
+        </is>
+      </c>
+      <c r="E43" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="F43" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>14-03-2025 20:00</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>SAUDI-ARABIA</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>DIVISION 1</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Al Baten - Al Safa</t>
+        </is>
+      </c>
+      <c r="E44" t="n">
+        <v>53.3</v>
+      </c>
+      <c r="F44" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>14-03-2025 19:00</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>SERBIA</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>SUPER LIGA</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Jedinstvo Ub - Radnicki 1923</t>
+        </is>
+      </c>
+      <c r="E45" t="n">
+        <v>50</v>
+      </c>
+      <c r="F45" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="G45" t="n">
+        <v>1.88</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>14-03-2025 18:30</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>SOUTH-AFRICA</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>PREMIER SOCCER LEAGUE</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Amazulu - TS Galaxy</t>
+        </is>
+      </c>
+      <c r="E46" t="n">
+        <v>60</v>
+      </c>
+      <c r="F46" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>14-03-2025 20:30</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>SPAIN</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>PRIMERA DIVISIÓN RFEF - GROUP 1</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Celta De Vigo II - Sestao River</t>
+        </is>
+      </c>
+      <c r="E47" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="F47" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>14-03-2025 20:30</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>SPAIN</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>PRIMERA DIVISIÓN RFEF - GROUP 2</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Villarreal II - Mérida AD</t>
+        </is>
+      </c>
+      <c r="E48" t="n">
+        <v>50</v>
+      </c>
+      <c r="F48" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="G48" t="n">
+        <v>-0.12</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>14-03-2025 13:00</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>THAILAND</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>THAI LEAGUE 1</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Bangkok Glass - Lamphun Warrior</t>
+        </is>
+      </c>
+      <c r="E49" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="F49" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>14-03-2025 03:00</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>WORLD</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>CONCACAF CHAMPIONS LEAGUE</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>LD Alajuelense - U.N.A.M. - Pumas</t>
+        </is>
+      </c>
+      <c r="E50" t="n">
+        <v>50</v>
+      </c>
+      <c r="F50" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.62</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1031,24 +2956,24 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Home Win (%)</t>
+          <t>Away Win (%)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Home Odds</t>
+          <t>Away Odds</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>EV home win</t>
+          <t>EV away win</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>12-03-2025 18:45</t>
+          <t>13-03-2025 21:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -1058,121 +2983,121 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>UEFA CHAMPIONS LEAGUE</t>
+          <t>UEFA EUROPA LEAGUE</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Lille - Borussia Dortmund</t>
+          <t>Rangers - Fenerbahce</t>
         </is>
       </c>
       <c r="E2" t="n">
         <v>50</v>
       </c>
       <c r="F2" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="G2" t="n">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>12-03-2025 20:45</t>
+          <t>13-03-2025 18:45</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CHAMPIONSHIP</t>
+          <t>UEFA EUROPA LEAGUE</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Portsmouth - Plymouth</t>
+          <t>Eintracht Frankfurt - Ajax</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>53.3</v>
+        <v>50</v>
       </c>
       <c r="F3" t="n">
-        <v>1.9</v>
+        <v>3.9</v>
       </c>
       <c r="G3" t="n">
-        <v>0.01</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>12-03-2025 20:45</t>
+          <t>13-03-2025 15:00</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>ALGERIA</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>CHAMPIONSHIP</t>
+          <t>U21 LEAGUE 1</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Hull City - Oxford United</t>
+          <t>NC Magra U21 - El Bayadh U21</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>53.3</v>
+        <v>60</v>
       </c>
       <c r="F4" t="n">
-        <v>1.73</v>
+        <v>3.5</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.08</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>12-03-2025 23:30</t>
+          <t>13-03-2025 15:00</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>ALGERIA</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>COPA DO BRASIL</t>
+          <t>U21 LEAGUE 1</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Athletic Club - Gremio</t>
+          <t>Mostaganem U21 - ES Sétif U21</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F5" t="n">
-        <v>3.9</v>
+        <v>1.8</v>
       </c>
       <c r="G5" t="n">
-        <v>1.34</v>
+        <v>-0.1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>13-03-2025 00:00</t>
+          <t>13-03-2025 19:30</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1182,915 +3107,487 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>PAULISTA - A4</t>
+          <t>CEARENSE - 2</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Barretos - Penapolense</t>
+          <t>Tiradentes CE - Maranguape</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>53.3</v>
+        <v>56.7</v>
       </c>
       <c r="F6" t="n">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.01</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>12-03-2025 01:00</t>
+          <t>13-03-2025 18:30</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>ITALY</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>RORAIMENSE</t>
+          <t>SERIE C - GIRONE A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Sao Raimundo - Monte Roraima</t>
+          <t>Pergolettese - Lumezzane</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>60</v>
+        <v>53.3</v>
       </c>
       <c r="F7" t="n">
-        <v>3.7</v>
+        <v>3</v>
       </c>
       <c r="G7" t="n">
-        <v>1.22</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>12-03-2025 19:00</t>
+          <t>13-03-2025 20:45</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>GERMANY</t>
+          <t>MALTA</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>3. LIGA</t>
+          <t>PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Waldhof Mannheim - SV Sandhausen</t>
+          <t>Zabbar St. Patrick - Gzira United</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>73.3</v>
+        <v>60</v>
       </c>
       <c r="F8" t="n">
-        <v>2.05</v>
+        <v>1.92</v>
       </c>
       <c r="G8" t="n">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>12-03-2025 15:05</t>
+          <t>13-03-2025 14:00</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ISRAEL</t>
+          <t>UGANDA</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>LIGA ALEF</t>
+          <t>PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Hapoel Herzliya - FC Jerusalem</t>
+          <t>UPDF - KCCA</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>50</v>
+        <v>51.7</v>
       </c>
       <c r="F9" t="n">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.12</v>
+        <v>-0.02</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>12-03-2025 18:30</t>
+          <t>13-03-2025 11:30</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ITALY</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>SERIE C - GIRONE C</t>
+          <t>AFC CHALLENGE LEAGUE</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Team Altamura - Casertana</t>
+          <t>Shan United - Svay Rieng</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>53.3</v>
+        <v>50</v>
       </c>
       <c r="F10" t="n">
-        <v>2.38</v>
+        <v>2.05</v>
       </c>
       <c r="G10" t="n">
-        <v>0.27</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>12-03-2025 20:30</t>
+          <t>13-03-2025 14:30</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ITALY</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>SERIE C - GIRONE C</t>
+          <t>AFC CHALLENGE LEAGUE</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Avellino - Trapani 1905</t>
+          <t>Persepam Madura Utd - Tainan City</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="F11" t="n">
-        <v>1.8</v>
+        <v>9</v>
       </c>
       <c r="G11" t="n">
-        <v>0.44</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>12-03-2025 14:30</t>
+          <t>14-03-2025 20:30</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>ITALY</t>
+          <t>GERMANY</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>SERIE D - GIRONE E</t>
+          <t>BUNDESLIGA</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Fezzanese - Sporting Trestina</t>
+          <t>FC St. Pauli - 1899 Hoffenheim</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="F12" t="n">
-        <v>2.7</v>
+        <v>3.25</v>
       </c>
       <c r="G12" t="n">
-        <v>0.35</v>
+        <v>1.27</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>12-03-2025 12:00</t>
+          <t>14-03-2025 20:00</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>PORTUGAL</t>
+          <t>NETHERLANDS</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>LIGA REVELAÇÃO U23</t>
+          <t>EREDIVISIE</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Famalicão U23 - Vizela U23</t>
+          <t>Almere City FC - NAC Breda</t>
         </is>
       </c>
       <c r="E13" t="n">
         <v>53.3</v>
       </c>
       <c r="F13" t="n">
-        <v>2.05</v>
+        <v>2.7</v>
       </c>
       <c r="G13" t="n">
-        <v>0.09</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>12-03-2025 14:00</t>
+          <t>14-03-2025 20:00</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>SERBIA</t>
+          <t>FRANCE</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>PRVA LIGA</t>
+          <t>LIGUE 2</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>OFK Vršac - Radnički Sr. Mitrovica</t>
+          <t>Annecy - Rodez</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>66.7</v>
+        <v>60</v>
       </c>
       <c r="F14" t="n">
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
       <c r="G14" t="n">
-        <v>0.2</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>12-03-2025 14:00</t>
+          <t>14-03-2025 20:00</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>SERBIA</t>
+          <t>FRANCE</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>PRVA LIGA</t>
+          <t>LIGUE 2</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Borac Cacak - Zemun</t>
+          <t>Estac Troyes - Guingamp</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>56.7</v>
+        <v>58.3</v>
       </c>
       <c r="F15" t="n">
-        <v>1.95</v>
+        <v>3</v>
       </c>
       <c r="G15" t="n">
-        <v>0.11</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>12-03-2025 14:30</t>
+          <t>14-03-2025 19:00</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>SOUTH-AFRICA</t>
+          <t>DENMARK</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>1ST DIVISION</t>
+          <t>1. DIVISION</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Upington City - Black Leopards</t>
+          <t>HB Koge - Roskilde</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>66.7</v>
+        <v>60</v>
       </c>
       <c r="F16" t="n">
-        <v>2.28</v>
+        <v>2.75</v>
       </c>
       <c r="G16" t="n">
-        <v>0.52</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>12-03-2025 18:30</t>
+          <t>25-02-2025 14:00</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>SOUTH-AFRICA</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>PREMIER SOCCER LEAGUE</t>
+          <t>PROFESSIONAL DEVELOPMENT LEAGUE</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Kaizer Chiefs - Cape Town City</t>
+          <t>AFC Bournemouth U21 - Ipswich Town U21</t>
         </is>
       </c>
       <c r="E17" t="n">
         <v>60</v>
       </c>
       <c r="F17" t="n">
-        <v>1.83</v>
+        <v>2.25</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>13-03-2025 21:00</t>
+          <t>14-03-2025 19:30</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>FRANCE</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>LEAGUE TWO</t>
+          <t>NATIONAL 1</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Bromley - Walsall</t>
+          <t>Nancy - Quevilly</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="F18" t="n">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="G18" t="n">
-        <v>0.75</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>13-03-2025 18:30</t>
+          <t>14-03-2025 19:00</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>ITALY</t>
+          <t>GERMANY</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>SERIE C - GIRONE A</t>
+          <t>REGIONALLIGA - NORDOST</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Virtus Verona - Trento</t>
+          <t>Hertha BSC II - Hallescher FC</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>55.7</v>
+        <v>50</v>
       </c>
       <c r="F19" t="n">
-        <v>2.45</v>
+        <v>2.05</v>
       </c>
       <c r="G19" t="n">
-        <v>0.36</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>13-03-2025 15:30</t>
+          <t>14-03-2025 20:45</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>SLOVENIA</t>
+          <t>IRELAND</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>1. SNL</t>
+          <t>FIRST DIVISION</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Nafta - NK Domzale</t>
+          <t>Bray Wanderers - Dundalk</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>66.7</v>
+        <v>53.3</v>
       </c>
       <c r="F20" t="n">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="G20" t="n">
-        <v>0.5</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>13-03-2025 01:30</t>
+          <t>14-03-2025 20:15</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>SWITZERLAND</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>CONCACAF CHAMPIONS LEAGUE</t>
+          <t>CHALLENGE LEAGUE</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Monterrey - Vancouver Whitecaps</t>
+          <t>Étoile Carouge - FC Thun</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>50</v>
+        <v>53.3</v>
       </c>
       <c r="F21" t="n">
-        <v>1.73</v>
+        <v>2.3</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.14</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:G13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Date</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Country</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Championship</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Match</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Away Win (%)</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Away Odds</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>EV away win</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>12-03-2025 23:00</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>WORLD</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>CONMEBOL LIBERTADORES</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Cerro Porteno - FBC Melgar</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
-        <v>50</v>
-      </c>
-      <c r="F2" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="G2" t="n">
-        <v>1.55</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>08-02-2025 16:00</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>CZECH-REPUBLIC</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>CZECH LIGA</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Dukla Praha - Karviná</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>50</v>
-      </c>
-      <c r="F3" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>12-01-2025 18:00</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>MEXICO</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>LIGA PREMIER SERIE B</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Cañoneros Marina - Real Zamora</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>60</v>
-      </c>
-      <c r="F4" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.74</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>12-03-2025 15:30</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>SLOVAKIA</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>CUP</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Dukla Banská Bystrica - Tatran Prešov</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>60</v>
-      </c>
-      <c r="F5" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="G5" t="n">
-        <v>1.1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>12-03-2025 19:00</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>WORLD</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>AFC CHALLENGE LEAGUE</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Al Seeb - Al Arabi</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>60</v>
-      </c>
-      <c r="F6" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.44</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>12-03-2025 14:00</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>ZAMBIA</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>SUPER LEAGUE</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Mutondo Stars - Power Dynamos</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
-        <v>73.3</v>
-      </c>
-      <c r="F7" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0.36</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>13-03-2025 21:00</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>WORLD</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>UEFA EUROPA LEAGUE</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Rangers - Fenerbahce</t>
-        </is>
-      </c>
-      <c r="E8" t="n">
-        <v>50</v>
-      </c>
-      <c r="F8" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>13-03-2025 18:45</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>WORLD</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>UEFA EUROPA LEAGUE</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Eintracht Frankfurt - Ajax</t>
-        </is>
-      </c>
-      <c r="E9" t="n">
-        <v>50</v>
-      </c>
-      <c r="F9" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0.95</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>13-03-2025 18:30</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>ITALY</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>SERIE C - GIRONE A</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Pergolettese - Lumezzane</t>
-        </is>
-      </c>
-      <c r="E10" t="n">
-        <v>53.3</v>
-      </c>
-      <c r="F10" t="n">
-        <v>3</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>13-03-2025 11:30</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>WORLD</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>AFC CHALLENGE LEAGUE</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Shan United - Svay Rieng</t>
-        </is>
-      </c>
-      <c r="E11" t="n">
-        <v>50</v>
-      </c>
-      <c r="F11" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>13-03-2025 14:30</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>WORLD</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>AFC CHALLENGE LEAGUE</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>Persepam Madura Utd - Tainan City</t>
-        </is>
-      </c>
-      <c r="E12" t="n">
-        <v>50</v>
-      </c>
-      <c r="F12" t="n">
-        <v>9</v>
-      </c>
-      <c r="G12" t="n">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>13-03-2025 03:30</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>WORLD</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>CONCACAF CHAMPIONS LEAGUE</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>Los Angeles Galaxy - CS Herediano</t>
-        </is>
-      </c>
-      <c r="E13" t="n">
-        <v>50</v>
-      </c>
-      <c r="F13" t="n">
-        <v>5.25</v>
-      </c>
-      <c r="G13" t="n">
-        <v>1.62</v>
+        <v>0.23</v>
       </c>
     </row>
   </sheetData>
@@ -2104,7 +3601,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2152,187 +3649,404 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>12-03-2025 21:00</t>
+          <t>13-03-2025 15:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>ALGERIA</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>UEFA CHAMPIONS LEAGUE</t>
+          <t>U21 LEAGUE 1</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Arsenal - PSV Eindhoven</t>
+          <t>Mostaganem U21 - ES Sétif U21</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>77.5</v>
+        <v>86.7</v>
       </c>
       <c r="F2" t="n">
-        <v>1.73</v>
+        <v>1.91</v>
       </c>
       <c r="G2" t="n">
-        <v>0.34</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>08-02-2025 16:00</t>
+          <t>13-03-2025 12:00</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CZECH-REPUBLIC</t>
+          <t>AZERBAIJAN</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CZECH LIGA</t>
+          <t>BIRINCI DASTA</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Dukla Praha - Karviná</t>
+          <t>Zaqatala - Qabala</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>70</v>
+        <v>73.3</v>
       </c>
       <c r="F3" t="n">
-        <v>1.85</v>
+        <v>2.3</v>
       </c>
       <c r="G3" t="n">
-        <v>0.29</v>
+        <v>0.6899999999999999</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>12-03-2025 19:00</t>
+          <t>13-03-2025 15:30</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>GERMANY</t>
+          <t>SLOVENIA</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>3. LIGA</t>
+          <t>1. SNL</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Waldhof Mannheim - SV Sandhausen</t>
+          <t>Nafta - NK Domzale</t>
         </is>
       </c>
       <c r="E4" t="n">
         <v>70</v>
       </c>
       <c r="F4" t="n">
-        <v>1.77</v>
+        <v>1.95</v>
       </c>
       <c r="G4" t="n">
-        <v>0.24</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>12-03-2025 18:30</t>
+          <t>14-03-2025 18:00</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GERMANY</t>
+          <t>AUSTRIA</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>REGIONALLIGA - NORDOST</t>
+          <t>2. LIGA</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>ZFC Meuselwitz - Greifswalder FC</t>
+          <t>Rapid Wien II - Admira Wacker</t>
         </is>
       </c>
       <c r="E5" t="n">
         <v>75</v>
       </c>
       <c r="F5" t="n">
-        <v>1.8</v>
+        <v>1.87</v>
       </c>
       <c r="G5" t="n">
-        <v>0.35</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>13-03-2025 12:00</t>
+          <t>14-03-2025 20:30</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>AZERBAIJAN</t>
+          <t>AUSTRIA</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>BIRINCI DASTA</t>
+          <t>2. LIGA</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Zaqatala - Qabala</t>
+          <t>SKN ST. Polten - First Vienna</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>73.3</v>
+        <v>90</v>
       </c>
       <c r="F6" t="n">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="G6" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>13-03-2025 15:30</t>
+          <t>15-03-2025 00:30</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>SLOVENIA</t>
+          <t>CHILE</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>1. SNL</t>
+          <t>PRIMERA B</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Nafta - NK Domzale</t>
+          <t>Universidad De Concepcion - San Luis</t>
         </is>
       </c>
       <c r="E7" t="n">
         <v>70</v>
       </c>
       <c r="F7" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="G7" t="n">
-        <v>0.36</v>
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>14-03-2025 22:00</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>CHILE</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>PRIMERA DIVISIÓN</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>A. Italiano - Universidad De Chile</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>80</v>
+      </c>
+      <c r="F8" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>14-03-2025 15:30</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>CROATIA</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>FIRST NL</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Sesvete - Jarun</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>70</v>
+      </c>
+      <c r="F9" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>14-03-2025 17:30</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>CZECH-REPUBLIC</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>FNL</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Vlašim - Prostějov</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>70</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>14-03-2025 19:30</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>FRANCE</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>NATIONAL 1</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Concarneau - Versailles</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>70</v>
+      </c>
+      <c r="F11" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>14-03-2025 18:30</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>GERMANY</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>2. BUNDESLIGA</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>FC Schalke 04 - Hannover 96</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>75</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>14-03-2025 18:00</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>HUNGARY</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>NB I</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Gyori ETO FC - Debreceni VSC</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>73.8</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>14-03-2025 20:30</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>SPAIN</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>PRIMERA DIVISIÓN RFEF - GROUP 1</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Celta De Vigo II - Sestao River</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>70</v>
+      </c>
+      <c r="F14" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
@@ -2346,7 +4060,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2394,7 +4108,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>12-03-2025 18:45</t>
+          <t>13-03-2025 18:45</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -2404,28 +4118,28 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>UEFA CHAMPIONS LEAGUE</t>
+          <t>UEFA EUROPA CONFERENCE LEAGUE</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Lille - Borussia Dortmund</t>
+          <t>Cercle Brugge - Jagiellonia</t>
         </is>
       </c>
       <c r="E2" t="n">
         <v>68</v>
       </c>
       <c r="F2" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="G2" t="n">
-        <v>0.16</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>12-03-2025 21:00</t>
+          <t>13-03-2025 21:00</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -2435,152 +4149,152 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>UEFA CHAMPIONS LEAGUE</t>
+          <t>UEFA EUROPA LEAGUE</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Arsenal - PSV Eindhoven</t>
+          <t>Manchester United - Real Sociedad</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>66.7</v>
+        <v>70</v>
       </c>
       <c r="F3" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="G3" t="n">
-        <v>0.33</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>13-03-2025 00:15</t>
+          <t>13-03-2025 18:45</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>HONDURAS</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>LIGA NACIONAL</t>
+          <t>UEFA EUROPA LEAGUE</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Lobos Upnfm - Génesis</t>
+          <t>Lazio - Plzen</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>68.90000000000001</v>
+        <v>72</v>
       </c>
       <c r="F4" t="n">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="G4" t="n">
-        <v>0.27</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>12-03-2025 14:30</t>
+          <t>13-03-2025 15:00</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>INDONESIA</t>
+          <t>ALGERIA</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>LIGA 1</t>
+          <t>U21 LEAGUE 1</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Persebaya Surabaya - PSIS Semarang</t>
+          <t>Mostaganem U21 - ES Sétif U21</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>66.7</v>
+        <v>88</v>
       </c>
       <c r="F5" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>12-03-2025 18:30</t>
+          <t>13-03-2025 12:00</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ITALY</t>
+          <t>AZERBAIJAN</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>SERIE C - GIRONE C</t>
+          <t>BIRINCI DASTA</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Giugliano - AZ Picerno</t>
+          <t>Zaqatala - Qabala</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F6" t="n">
-        <v>2.05</v>
+        <v>2.4</v>
       </c>
       <c r="G6" t="n">
-        <v>0.64</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>12-03-2025 18:30</t>
+          <t>13-03-2025 19:30</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ITALY</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>SERIE C - GIRONE C</t>
+          <t>CEARENSE - 2</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Team Altamura - Casertana</t>
+          <t>Tiradentes CE - Maranguape</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="F7" t="n">
-        <v>1.9</v>
+        <v>2.2</v>
       </c>
       <c r="G7" t="n">
-        <v>0.52</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>12-03-2025 18:30</t>
+          <t>13-03-2025 18:30</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -2590,28 +4304,28 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>SERIE C - GIRONE C</t>
+          <t>SERIE C - GIRONE A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Sorrento - Juventus U23</t>
+          <t>Pro Patria - Arzignano Valchiampo</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>72</v>
+        <v>73.3</v>
       </c>
       <c r="F8" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="G8" t="n">
-        <v>0.3</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>12-03-2025 18:30</t>
+          <t>13-03-2025 18:30</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2621,363 +4335,642 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>SERIE C - GIRONE C</t>
+          <t>SERIE C - GIRONE A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>SS Monopoli - Latina</t>
+          <t>Giana Erminio - Caldiero Terme</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>67.5</v>
+        <v>93.3</v>
       </c>
       <c r="F9" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="G9" t="n">
-        <v>0.45</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>12-03-2025 11:00</t>
+          <t>13-03-2025 20:00</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>SAUDI-ARABIA</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>AFC CHAMPIONS LEAGUE</t>
+          <t>PRO LEAGUE</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Gwangju FC - Vissel Kobe</t>
+          <t>Al-Ittihad FC - Al Riyadh</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>68</v>
+        <v>76.7</v>
       </c>
       <c r="F10" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="G10" t="n">
-        <v>0.18</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>12-03-2025 14:00</t>
+          <t>13-03-2025 14:00</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ZAMBIA</t>
+          <t>SERBIA</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>SUPER LEAGUE</t>
+          <t>PRVA LIGA</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Nkwazi - Forest Rangers</t>
+          <t>Dubočica - Sloboda Uzice</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>73.3</v>
+        <v>68.3</v>
       </c>
       <c r="F11" t="n">
-        <v>2.62</v>
+        <v>2.05</v>
       </c>
       <c r="G11" t="n">
-        <v>0.92</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>13-03-2025 18:45</t>
+          <t>13-03-2025 15:30</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>SLOVENIA</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>UEFA EUROPA CONFERENCE LEAGUE</t>
+          <t>1. SNL</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Cercle Brugge - Jagiellonia</t>
+          <t>Nafta - NK Domzale</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="F12" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="G12" t="n">
-        <v>0.22</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>13-03-2025 21:00</t>
+          <t>14-03-2025 21:00</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>SPAIN</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>UEFA EUROPA LEAGUE</t>
+          <t>LA LIGA</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Manchester United - Real Sociedad</t>
+          <t>Las Palmas - Alaves</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>70</v>
+        <v>71.7</v>
       </c>
       <c r="F13" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="G13" t="n">
-        <v>0.43</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>13-03-2025 18:45</t>
+          <t>14-03-2025 20:00</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>FRANCE</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>UEFA EUROPA LEAGUE</t>
+          <t>LIGUE 2</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Lazio - Plzen</t>
+          <t>Clermont Foot - Grenoble</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>72</v>
+        <v>67.8</v>
       </c>
       <c r="F14" t="n">
-        <v>2.05</v>
+        <v>1.77</v>
       </c>
       <c r="G14" t="n">
-        <v>0.48</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>13-03-2025 12:00</t>
+          <t>14-03-2025 20:00</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>AZERBAIJAN</t>
+          <t>NETHERLANDS</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>BIRINCI DASTA</t>
+          <t>EERSTE DIVISIE</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Zaqatala - Qabala</t>
+          <t>Emmen - Jong Utrecht</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>76</v>
+        <v>66.7</v>
       </c>
       <c r="F15" t="n">
-        <v>2.4</v>
+        <v>1.75</v>
       </c>
       <c r="G15" t="n">
-        <v>0.82</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>13-03-2025 18:30</t>
+          <t>14-03-2025 18:00</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>ITALY</t>
+          <t>AUSTRIA</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>SERIE C - GIRONE A</t>
+          <t>2. LIGA</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Pro Patria - Arzignano Valchiampo</t>
+          <t>Floridsdorfer AC - Austria Lustenau</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>73.3</v>
+        <v>66.7</v>
       </c>
       <c r="F16" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="G16" t="n">
-        <v>0.47</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>13-03-2025 18:30</t>
+          <t>15-03-2025 00:30</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>ITALY</t>
+          <t>CHILE</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>SERIE C - GIRONE A</t>
+          <t>PRIMERA DIVISIÓN</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Giana Erminio - Caldiero Terme</t>
+          <t>Deportes Limache - Huachipato</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>93.3</v>
+        <v>68</v>
       </c>
       <c r="F17" t="n">
-        <v>2.1</v>
+        <v>1.7</v>
       </c>
       <c r="G17" t="n">
-        <v>0.96</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>13-03-2025 20:00</t>
+          <t>14-03-2025 22:00</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>SAUDI-ARABIA</t>
+          <t>CHILE</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>PRO LEAGUE</t>
+          <t>PRIMERA DIVISIÓN</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Al-Ittihad FC - Al Riyadh</t>
+          <t>A. Italiano - Universidad De Chile</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>76.7</v>
+        <v>86.7</v>
       </c>
       <c r="F18" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="G18" t="n">
-        <v>0.38</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>13-03-2025 15:30</t>
+          <t>14-03-2025 19:30</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>SLOVENIA</t>
+          <t>FRANCE</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>1. SNL</t>
+          <t>NATIONAL 1</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Nafta - NK Domzale</t>
+          <t>Orleans - Boulogne</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="F19" t="n">
-        <v>1.73</v>
+        <v>1.91</v>
       </c>
       <c r="G19" t="n">
-        <v>0.38</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>13-03-2025 03:30</t>
+          <t>14-03-2025 19:00</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>GERMANY</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>CONCACAF CHAMPIONS LEAGUE</t>
+          <t>3. LIGA</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Los Angeles Galaxy - CS Herediano</t>
+          <t>FC Saarbrücken - Stuttgart II</t>
         </is>
       </c>
       <c r="E20" t="n">
+        <v>84</v>
+      </c>
+      <c r="F20" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>14-03-2025 02:30</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>HONDURAS</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>LIGA NACIONAL</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Real Espana - CD Real Sociedad</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="F21" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>14-03-2025 20:45</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>IRELAND</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>PREMIER DIVISION</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Galway United - Waterford</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>83.3</v>
+      </c>
+      <c r="F22" t="n">
+        <v>2</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>14-03-2025 20:45</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>IRELAND</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>PREMIER DIVISION</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Shelbourne - Cork City</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>73.3</v>
+      </c>
+      <c r="F23" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>14-03-2025 16:00</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>MEXICO</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>U23 LEAGUE</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Queretaro U23 - Mazatlan FC U23</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="F24" t="n">
+        <v>2</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>14-03-2025 23:30</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>PARAGUAY</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>DIVISION PROFESIONAL - APERTURA</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Club Guarani - Atlético Tembetary</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>76.7</v>
+      </c>
+      <c r="F25" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>14-03-2025 19:45</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>PORTUGAL</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>SEGUNDA LIGA</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Portimonense - Feirense</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>65</v>
+      </c>
+      <c r="F26" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>14-03-2025 20:00</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>SAUDI-ARABIA</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>PRO LEAGUE</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Al Khaleej Saihat - Al Wehda Club</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>70</v>
+      </c>
+      <c r="F27" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>14-03-2025 20:00</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>SAUDI-ARABIA</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>PRO LEAGUE</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Al-Nassr - Al Kholood</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
         <v>68</v>
       </c>
-      <c r="F20" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0.26</v>
+      <c r="F28" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>14-03-2025 20:30</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>SPAIN</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>PRIMERA DIVISIÓN RFEF - GROUP 2</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Hércules - Real Madrid II</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>68</v>
+      </c>
+      <c r="F29" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.22</v>
       </c>
     </row>
   </sheetData>

--- a/scraper/data/betclever_predictions.xlsx
+++ b/scraper/data/betclever_predictions.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,449 +475,29 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>16-03-2025 17:15</t>
+          <t>19-03-2025 19:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ITALY</t>
+          <t>SPAIN</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>SERIE B</t>
+          <t>PRIMERA DIVISIÓN RFEF - GROUP 1</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Catanzaro - Cosenza</t>
+          <t>Celta De Vigo II - Lugo</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>80</v>
+        <v>73.3</v>
       </c>
       <c r="F2" t="n">
-        <v>2.1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>16-03-2025 19:30</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>ARGENTINA</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>PRIMERA C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>JJ Urquiza - Central Cordoba</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>70</v>
-      </c>
-      <c r="F3" t="n">
-        <v>2.1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>17-03-2025 00:30</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>ARGENTINA</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>PRIMERA NACIONAL</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Atletico Mitre - Almirante Brown</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>73.3</v>
-      </c>
-      <c r="F4" t="n">
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>16-03-2025 20:00</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>ARGENTINA</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>TORNEO FEDERAL A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Germinal De Rawson - Guillermo Brown</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>70</v>
-      </c>
-      <c r="F5" t="n">
-        <v>2.8</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>16-03-2025 20:00</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>BRAZIL</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>GAÚCHO - 1</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Internacional - Gremio</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>73.3</v>
-      </c>
-      <c r="F6" t="n">
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>16-03-2025 16:30</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>GERMANY</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>3. LIGA</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Erzgebirge Aue - Waldhof Mannheim</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
-        <v>73.3</v>
-      </c>
-      <c r="F7" t="n">
-        <v>2.6</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>16-03-2025 15:00</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>ITALY</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>SERIE C - GIRONE C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Foggia - Cavese</t>
-        </is>
-      </c>
-      <c r="E8" t="n">
-        <v>73.3</v>
-      </c>
-      <c r="F8" t="n">
-        <v>2.25</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>16-03-2025 16:00</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>PORTUGAL</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>CAMPEONATO DE PORTUGAL PRIO - GROUP A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Brito - Atlético Arcos</t>
-        </is>
-      </c>
-      <c r="E9" t="n">
-        <v>70</v>
-      </c>
-      <c r="F9" t="n">
-        <v>1.75</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>16-03-2025 12:00</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>SPAIN</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>PRIMERA DIVISIÓN RFEF - GROUP 1</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Amorebieta - FC Andorra</t>
-        </is>
-      </c>
-      <c r="E10" t="n">
-        <v>80</v>
-      </c>
-      <c r="F10" t="n">
-        <v>3.25</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>16-03-2025 12:00</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>SPAIN</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>SEGUNDA DIVISIÓN RFEF - GROUP 5</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Navalcarnero - Móstoles</t>
-        </is>
-      </c>
-      <c r="E11" t="n">
-        <v>80</v>
-      </c>
-      <c r="F11" t="n">
-        <v>1.9</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>16-03-2025 17:00</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>SPAIN</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>SEGUNDA DIVISIÓN RFEF - GROUP 5</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>CD Coria - Colonia Moscardó</t>
-        </is>
-      </c>
-      <c r="E12" t="n">
-        <v>70</v>
-      </c>
-      <c r="F12" t="n">
-        <v>1.75</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>16-03-2025 12:00</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>SPAIN</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>TERCERA DIVISIÓN RFEF - GROUP 10</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>Pozoblanco - Coria CF</t>
-        </is>
-      </c>
-      <c r="E13" t="n">
-        <v>70</v>
-      </c>
-      <c r="F13" t="n">
-        <v>1.7</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>16-03-2025 12:00</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>THAILAND</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>THAI LEAGUE 1</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>Chiangrai United - Rayong FC</t>
-        </is>
-      </c>
-      <c r="E14" t="n">
-        <v>73.3</v>
-      </c>
-      <c r="F14" t="n">
-        <v>2.1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>16-03-2025 14:00</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>TUNISIA</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>LIGUE 2</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>CS Hammam-Lif - EM Mahdia</t>
-        </is>
-      </c>
-      <c r="E15" t="n">
-        <v>80</v>
-      </c>
-      <c r="F15" t="n">
-        <v>2.2</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>16-03-2025 14:00</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>TURKEY</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>SÜPER LIG</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>Goztepe - Eyüpspor</t>
-        </is>
-      </c>
-      <c r="E16" t="n">
-        <v>73.3</v>
-      </c>
-      <c r="F16" t="n">
-        <v>1.76</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>17-03-2025 01:00</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>ARGENTINA</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>LIGA PROFESIONAL ARGENTINA</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>Lanus - Instituto Cordoba</t>
-        </is>
-      </c>
-      <c r="E17" t="n">
-        <v>73.3</v>
-      </c>
-      <c r="F17" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
     </row>
   </sheetData>
@@ -1010,7 +590,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1053,57 +633,29 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>17-03-2025 20:30</t>
+          <t>19-03-2025 19:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ITALY</t>
+          <t>SPAIN</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>SERIE C - GIRONE C</t>
+          <t>PRIMERA DIVISIÓN RFEF - GROUP 1</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Potenza - Team Altamura</t>
+          <t>Celta De Vigo II - Lugo</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>83.3</v>
+        <v>86.7</v>
       </c>
       <c r="F2" t="n">
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>17-03-2025 16:00</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>NIGERIA</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>NPFL</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Sunshine Stars - Plateau United</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>79.2</v>
-      </c>
-      <c r="F3" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
     </row>
   </sheetData>
@@ -1117,7 +669,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1170,103 +722,137 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>17-03-2025 22:00</t>
+          <t>15-03-2025 19:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>CHILE</t>
+          <t>AUSTRIA</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>PRIMERA B</t>
+          <t>REGIONALLIGA - MITTE</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Antofagasta - Deportes Temuco</t>
+          <t>Gleisdorf 09 - Wildon</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>86.8</v>
+        <v>80</v>
       </c>
       <c r="F2" t="n">
-        <v>2.1</v>
+        <v>1.67</v>
       </c>
       <c r="G2" t="n">
-        <v>71.8</v>
+        <v>66.7</v>
       </c>
       <c r="H2" t="n">
-        <v>3.8</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>17-03-2025 14:00</t>
+          <t>19-03-2025 00:00</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ISRAEL</t>
+          <t>MEXICO</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>LIGA LEUMIT</t>
+          <t>LIGA PREMIER SERIE A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Maccabi Herzliya - Hapoel Acre</t>
+          <t>Tecos - Real Apodaca</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="F3" t="n">
-        <v>1.85</v>
+        <v>1.7</v>
       </c>
       <c r="G3" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H3" t="n">
-        <v>3.1</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>19-03-2025 00:00</t>
+          <t>19-03-2025 01:30</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MEXICO</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>LIGA PREMIER SERIE A</t>
+          <t>COPA DO NORDESTE</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Tecos - Real Apodaca</t>
+          <t>CRB - Ferroviario</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>85</v>
+        <v>73.3</v>
       </c>
       <c r="F4" t="n">
-        <v>1.7</v>
+        <v>2.2</v>
       </c>
       <c r="G4" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="H4" t="n">
-        <v>2.7</v>
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>19-03-2025 12:00</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>INDIA</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>I-LEAGUE</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Dempo - Churchill Brothers</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>80</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="G5" t="n">
+        <v>73.3</v>
+      </c>
+      <c r="H5" t="n">
+        <v>2.63</v>
       </c>
     </row>
   </sheetData>
@@ -1280,7 +866,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1328,224 +914,224 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>17-03-2025 23:00</t>
+          <t>18-03-2025 20:45</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ARGENTINA</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>LIGA PROFESIONAL ARGENTINA</t>
+          <t>NATIONAL LEAGUE</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Union Santa Fe - Banfield</t>
+          <t>Altrincham - Wealdstone</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>53.3</v>
+        <v>58.3</v>
       </c>
       <c r="F2" t="n">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="G2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>17-03-2025 23:00</t>
+          <t>18-03-2025 20:45</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ARGENTINA</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>LIGA PROFESIONAL ARGENTINA</t>
+          <t>NATIONAL LEAGUE</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Tigre - Central Cordoba De Santiago</t>
+          <t>FC Halifax Town - Dagenham &amp; Redbridge</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>57.7</v>
+        <v>66.7</v>
       </c>
       <c r="F3" t="n">
-        <v>2.3</v>
+        <v>1.85</v>
       </c>
       <c r="G3" t="n">
-        <v>0.33</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>17-03-2025 10:45</t>
+          <t>15-03-2025 19:00</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>AUSTRALIA</t>
+          <t>AUSTRIA</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>SOUTH AUSTRALIA NPL</t>
+          <t>REGIONALLIGA - MITTE</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Adelaide Comets - Croydon Kings</t>
+          <t>Gleisdorf 09 - Wildon</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>53.3</v>
+        <v>60</v>
       </c>
       <c r="F4" t="n">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="G4" t="n">
-        <v>0.12</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>17-03-2025 18:00</t>
+          <t>18-03-2025 23:00</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ISRAEL</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>LIGA LEUMIT</t>
+          <t>COPA DO NORDESTE</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Hapoel Rishon LeZion - Hapoel Nazareth Illit</t>
+          <t>Nautico Recife - America-RN</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>60</v>
+        <v>63.3</v>
       </c>
       <c r="F5" t="n">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="G5" t="n">
-        <v>0.32</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>17-03-2025 18:00</t>
+          <t>18-03-2025 20:45</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ISRAEL</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>LIGA LEUMIT</t>
+          <t>NATIONAL LEAGUE - NORTH</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Hapoel Kfar Saba - Kafr Qasim</t>
+          <t>Curzon Ashton - Radcliffe</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>53.3</v>
+        <v>50</v>
       </c>
       <c r="F6" t="n">
-        <v>3.1</v>
+        <v>1.75</v>
       </c>
       <c r="G6" t="n">
-        <v>0.65</v>
+        <v>-0.12</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>17-03-2025 20:30</t>
+          <t>18-03-2025 20:45</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ITALY</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>SERIE C - GIRONE A</t>
+          <t>NATIONAL LEAGUE - NORTH</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Lecco - Vicenza Virtus</t>
+          <t>South Shields - Oxford City</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>53.3</v>
+        <v>60</v>
       </c>
       <c r="F7" t="n">
-        <v>4.5</v>
+        <v>1.91</v>
       </c>
       <c r="G7" t="n">
-        <v>1.4</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>17-03-2025 23:00</t>
+          <t>18-03-2025 20:45</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>URUGUAY</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>PRIMERA DIVISIÓN - APERTURA</t>
+          <t>NATIONAL LEAGUE - SOUTH</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Cerro Largo - Cerro</t>
+          <t>St Albans City - Hampton &amp; Richmond</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>60</v>
+        <v>66.7</v>
       </c>
       <c r="F8" t="n">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>18-03-2025 20:45</t>
+          <t>18-03-2025 14:00</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1555,301 +1141,239 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE</t>
+          <t>PROFESSIONAL DEVELOPMENT LEAGUE</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Altrincham - Wealdstone</t>
+          <t>Wigan Athletic U21 - Birmingham City U21</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>58.3</v>
+        <v>63.3</v>
       </c>
       <c r="F9" t="n">
-        <v>1.85</v>
+        <v>1.91</v>
       </c>
       <c r="G9" t="n">
-        <v>0.08</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>18-03-2025 20:45</t>
+          <t>19-03-2025 00:00</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>MEXICO</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE</t>
+          <t>LIGA PREMIER SERIE A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>FC Halifax Town - Dagenham &amp; Redbridge</t>
+          <t>Tecos - Real Apodaca</t>
         </is>
       </c>
       <c r="E10" t="n">
         <v>66.7</v>
       </c>
       <c r="F10" t="n">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="G10" t="n">
-        <v>0.23</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>18-03-2025 01:15</t>
+          <t>18-03-2025 12:00</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ARGENTINA</t>
+          <t>PORTUGAL</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>LIGA PROFESIONAL ARGENTINA</t>
+          <t>LIGA REVELAÇÃO U23</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Atletico Tucuman - Velez Sarsfield</t>
+          <t>Farense U23 - Academico Viseu U23</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>53.3</v>
+        <v>60</v>
       </c>
       <c r="F11" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="G11" t="n">
-        <v>0.28</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>18-03-2025 23:00</t>
+          <t>18-03-2025 15:15</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>SLOVAKIA</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>COPA DO NORDESTE</t>
+          <t>2. LIGA</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Nautico Recife - America-RN</t>
+          <t>Lokomotíva Zvolen - Považská Bystrica</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>63.3</v>
+        <v>50</v>
       </c>
       <c r="F12" t="n">
-        <v>2.05</v>
+        <v>2.4</v>
       </c>
       <c r="G12" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>18-03-2025 02:00</t>
+          <t>19-03-2025 23:00</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>COLOMBIA</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>PRIMERA B</t>
+          <t>COPA DO NORDESTE</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Barranquilla - Jaguares</t>
+          <t>Confiança - Sampaio Correa</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>66.7</v>
+        <v>53.3</v>
       </c>
       <c r="F13" t="n">
-        <v>3.1</v>
+        <v>2</v>
       </c>
       <c r="G13" t="n">
-        <v>1.07</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>18-03-2025 20:45</t>
+          <t>20-03-2025 00:30</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>COLOMBIA</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE - NORTH</t>
+          <t>PRIMERA A</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Curzon Ashton - Radcliffe</t>
+          <t>Santa Fe - Bucaramanga</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>50</v>
+        <v>53.3</v>
       </c>
       <c r="F14" t="n">
-        <v>1.75</v>
+        <v>1.91</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.12</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>18-03-2025 20:45</t>
+          <t>19-03-2025 19:00</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>SPAIN</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE - NORTH</t>
+          <t>PRIMERA DIVISIÓN RFEF - GROUP 1</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>South Shields - Oxford City</t>
+          <t>Celta De Vigo II - Lugo</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>60</v>
+        <v>73.3</v>
       </c>
       <c r="F15" t="n">
-        <v>1.91</v>
+        <v>1.85</v>
       </c>
       <c r="G15" t="n">
-        <v>0.15</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>18-03-2025 20:45</t>
+          <t>19-03-2025 20:30</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>SPAIN</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE - SOUTH</t>
+          <t>SEGUNDA DIVISIÓN RFEF - GROUP 1</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>St Albans City - Hampton &amp; Richmond</t>
+          <t>Pontevedra - Numancia</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>66.7</v>
+        <v>50</v>
       </c>
       <c r="F16" t="n">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="G16" t="n">
-        <v>0.53</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>19-03-2025 00:00</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>MEXICO</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>LIGA PREMIER SERIE A</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>Tecos - Real Apodaca</t>
-        </is>
-      </c>
-      <c r="E17" t="n">
-        <v>66.7</v>
-      </c>
-      <c r="F17" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>18-03-2025 12:00</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>PORTUGAL</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>LIGA REVELAÇÃO U23</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>Farense U23 - Academico Viseu U23</t>
-        </is>
-      </c>
-      <c r="E18" t="n">
-        <v>60</v>
-      </c>
-      <c r="F18" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0.5</v>
+        <v>-0.1</v>
       </c>
     </row>
   </sheetData>
@@ -1863,7 +1387,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1911,187 +1435,187 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>17-03-2025 19:30</t>
+          <t>18-03-2025 20:45</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ARGENTINA</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>PRIMERA C</t>
+          <t>NATIONAL LEAGUE</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Deportivo Español - Berazategui</t>
+          <t>Maidenhead - Aldershot Town</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="F2" t="n">
-        <v>3.1</v>
+        <v>2.38</v>
       </c>
       <c r="G2" t="n">
-        <v>0.55</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>17-03-2025 19:30</t>
+          <t>18-03-2025 20:45</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ARGENTINA</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>PRIMERA C</t>
+          <t>NATIONAL LEAGUE - NORTH</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Deportivo Paraguayo - Centro Español</t>
+          <t>Kidderminster Harriers - Scunthorpe</t>
         </is>
       </c>
       <c r="E3" t="n">
         <v>60</v>
       </c>
       <c r="F3" t="n">
-        <v>2.15</v>
+        <v>2.63</v>
       </c>
       <c r="G3" t="n">
-        <v>0.29</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>18-03-2025 00:00</t>
+          <t>18-03-2025 20:45</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>CBF BRASILEIRO U20</t>
+          <t>NATIONAL LEAGUE - SOUTH</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Atlético Mineiro U20 - Santos U20</t>
+          <t>Welling United - Hemel Hempstead Town</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>50</v>
+        <v>51.7</v>
       </c>
       <c r="F4" t="n">
-        <v>2.7</v>
+        <v>2.65</v>
       </c>
       <c r="G4" t="n">
-        <v>0.35</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>17-03-2025 21:30</t>
+          <t>18-03-2025 20:45</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>COLOMBIA</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>PRIMERA B</t>
+          <t>NON LEAGUE PREMIER - SOUTHERN CENTRAL</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Real Santander - Leones FC</t>
+          <t>Biggleswade Town - Leiston</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>53.3</v>
+        <v>70</v>
       </c>
       <c r="F5" t="n">
-        <v>2.75</v>
+        <v>2.2</v>
       </c>
       <c r="G5" t="n">
-        <v>0.47</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>17-03-2025 14:00</t>
+          <t>18-03-2025 20:00</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ISRAEL</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>LIGA LEUMIT</t>
+          <t>PROFESSIONAL DEVELOPMENT LEAGUE</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Maccabi Herzliya - Hapoel Acre</t>
+          <t>Ipswich Town U21 - Millwall U21</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>60</v>
+        <v>56.7</v>
       </c>
       <c r="F6" t="n">
-        <v>3.1</v>
+        <v>2.05</v>
       </c>
       <c r="G6" t="n">
-        <v>0.86</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>17-03-2025 20:30</t>
+          <t>18-03-2025 20:45</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>SPAIN</t>
+          <t>NORTHERN-IRELAND</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>SEGUNDA DIVISIÓN</t>
+          <t>CHAMPIONSHIP</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Castellón - Deportivo La Coruna</t>
+          <t>Dundela - Annagh United</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>56.7</v>
+        <v>53.3</v>
       </c>
       <c r="F7" t="n">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="G7" t="n">
-        <v>0.76</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="8">
@@ -2102,213 +1626,151 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>NORTHERN-IRELAND</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE</t>
+          <t>PREMIERSHIP</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Maidenhead - Aldershot Town</t>
+          <t>Glentoran - Larne</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>60</v>
+        <v>53.3</v>
       </c>
       <c r="F8" t="n">
-        <v>2.38</v>
+        <v>2.7</v>
       </c>
       <c r="G8" t="n">
-        <v>0.43</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>18-03-2025 01:00</t>
+          <t>19-03-2025 01:10</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ECUADOR</t>
+          <t>ARGENTINA</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>LIGA PRO</t>
+          <t>PRIMERA B METROPOLITANA</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Tecnico Universitario - Barcelona SC</t>
+          <t>Argentino De Merlo - Villa San Carlos</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>53.3</v>
+        <v>50</v>
       </c>
       <c r="F9" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="G9" t="n">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>18-03-2025 20:45</t>
+          <t>19-03-2025 19:00</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>GERMANY</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE - NORTH</t>
+          <t>REGIONALLIGA - NORDOST</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Kidderminster Harriers - Scunthorpe</t>
+          <t>Plauen - FSV Zwickau</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F10" t="n">
-        <v>2.63</v>
+        <v>2.15</v>
       </c>
       <c r="G10" t="n">
-        <v>0.58</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>18-03-2025 20:45</t>
+          <t>19-03-2025 11:30</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>SOUTH-KOREA</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE - SOUTH</t>
+          <t>FA CUP</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Welling United - Hemel Hempstead Town</t>
+          <t>Suwon Bluewings - Seoul E-Land FC</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>51.7</v>
+        <v>53.3</v>
       </c>
       <c r="F11" t="n">
-        <v>2.65</v>
+        <v>2.4</v>
       </c>
       <c r="G11" t="n">
-        <v>0.37</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>18-03-2025 20:45</t>
+          <t>19-03-2025 20:00</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>SPAIN</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>NON LEAGUE PREMIER - SOUTHERN CENTRAL</t>
+          <t>TERCERA DIVISIÓN RFEF - GROUP 9</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Biggleswade Town - Leiston</t>
+          <t>Motril - Mancha Real</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>70</v>
+        <v>66.7</v>
       </c>
       <c r="F12" t="n">
-        <v>2.2</v>
+        <v>4.5</v>
       </c>
       <c r="G12" t="n">
-        <v>0.54</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>18-03-2025 20:45</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>NORTHERN-IRELAND</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>CHAMPIONSHIP</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>Dundela - Annagh United</t>
-        </is>
-      </c>
-      <c r="E13" t="n">
-        <v>53.3</v>
-      </c>
-      <c r="F13" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0.55</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>18-03-2025 20:45</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>NORTHERN-IRELAND</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>PREMIERSHIP</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>Glentoran - Larne</t>
-        </is>
-      </c>
-      <c r="E14" t="n">
-        <v>53.3</v>
-      </c>
-      <c r="F14" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0.44</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -2370,125 +1832,125 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>17-03-2025 22:00</t>
+          <t>18-03-2025 20:45</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>CHILE</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>PRIMERA B</t>
+          <t>NATIONAL LEAGUE</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Antofagasta - Deportes Temuco</t>
+          <t>Altrincham - Wealdstone</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>86.8</v>
+        <v>72.5</v>
       </c>
       <c r="F2" t="n">
-        <v>2.1</v>
+        <v>1.75</v>
       </c>
       <c r="G2" t="n">
-        <v>0.82</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>17-03-2025 14:00</t>
+          <t>19-03-2025 00:00</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ISRAEL</t>
+          <t>MEXICO</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>LIGA LEUMIT</t>
+          <t>LIGA PREMIER SERIE A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Maccabi Herzliya - Hapoel Acre</t>
+          <t>Tecos - Real Apodaca</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="F3" t="n">
-        <v>1.85</v>
+        <v>1.7</v>
       </c>
       <c r="G3" t="n">
-        <v>0.48</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>18-03-2025 20:45</t>
+          <t>19-03-2025 01:30</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE</t>
+          <t>COPA DO NORDESTE</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Altrincham - Wealdstone</t>
+          <t>CRB - Ferroviario</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>72.5</v>
+        <v>73.3</v>
       </c>
       <c r="F4" t="n">
-        <v>1.75</v>
+        <v>2.2</v>
       </c>
       <c r="G4" t="n">
-        <v>0.27</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>19-03-2025 00:00</t>
+          <t>19-03-2025 19:00</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>MEXICO</t>
+          <t>GERMANY</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>LIGA PREMIER SERIE A</t>
+          <t>REGIONALLIGA - NORDOST</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Tecos - Real Apodaca</t>
+          <t>Plauen - FSV Zwickau</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>85</v>
+        <v>73.3</v>
       </c>
       <c r="F5" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="G5" t="n">
-        <v>0.44</v>
+        <v>0.32</v>
       </c>
     </row>
   </sheetData>
@@ -2502,7 +1964,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2550,249 +2012,63 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>17-03-2025 22:00</t>
+          <t>18-03-2025 20:45</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>CHILE</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>PRIMERA B</t>
+          <t>NATIONAL LEAGUE</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Recoleta - Santiago Morning</t>
+          <t>Gateshead - Braintree</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>73.3</v>
+        <v>65</v>
       </c>
       <c r="F2" t="n">
-        <v>2.1</v>
+        <v>1.75</v>
       </c>
       <c r="G2" t="n">
-        <v>0.54</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>17-03-2025 21:30</t>
+          <t>19-03-2025 19:00</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>COLOMBIA</t>
+          <t>SPAIN</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>PRIMERA B</t>
+          <t>PRIMERA DIVISIÓN RFEF - GROUP 1</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Depor FC - Quindio</t>
+          <t>Celta De Vigo II - Lugo</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>70</v>
+        <v>86.7</v>
       </c>
       <c r="F3" t="n">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="G3" t="n">
-        <v>0.29</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>17-03-2025 20:30</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>ITALY</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>SERIE C - GIRONE C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Potenza - Team Altamura</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>83.3</v>
-      </c>
-      <c r="F4" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>17-03-2025 16:00</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>NIGERIA</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>NPFL</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Sunshine Stars - Plateau United</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>79.2</v>
-      </c>
-      <c r="F5" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.57</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>17-03-2025 19:00</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>SERBIA</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>SUPER LIGA</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Novi Pazar - Železničar Pančevo</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>66.7</v>
-      </c>
-      <c r="F6" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>17-03-2025 23:00</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>URUGUAY</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>PRIMERA DIVISIÓN - APERTURA</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Cerro Largo - Cerro</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
-        <v>70</v>
-      </c>
-      <c r="F7" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0.54</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>18-03-2025 20:45</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>ENGLAND</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>NATIONAL LEAGUE</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Gateshead - Braintree</t>
-        </is>
-      </c>
-      <c r="E8" t="n">
-        <v>65</v>
-      </c>
-      <c r="F8" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0.14</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>18-03-2025 01:00</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>ECUADOR</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>LIGA PRO</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Tecnico Universitario - Barcelona SC</t>
-        </is>
-      </c>
-      <c r="E9" t="n">
-        <v>66.7</v>
-      </c>
-      <c r="F9" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0.15</v>
+        <v>0.6899999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/scraper/data/betclever_predictions.xlsx
+++ b/scraper/data/betclever_predictions.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -498,6 +498,62 @@
       </c>
       <c r="F2" t="n">
         <v>1.85</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>19-03-2025 17:00</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>WORLD</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>WORLD CUP - QUALIFICATION AFRICA</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Central African Republic - Madagascar</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>73.3</v>
+      </c>
+      <c r="F3" t="n">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>20-03-2025 17:00</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>WORLD</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>WORLD CUP - QUALIFICATION AFRICA</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Malawi - Namibia</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>70</v>
+      </c>
+      <c r="F4" t="n">
+        <v>2.75</v>
       </c>
     </row>
   </sheetData>
@@ -511,7 +567,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -554,29 +610,57 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>18-03-2025 20:45</t>
+          <t>19-03-2025 20:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>COSTA-RICA</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>NON LEAGUE PREMIER - SOUTHERN CENTRAL</t>
+          <t>LIGA DE ASCENSO</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Biggleswade Town - Leiston</t>
+          <t>Deportivo Upala - ADR Jicaral</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>70</v>
+        <v>73.3</v>
       </c>
       <c r="F2" t="n">
-        <v>2.2</v>
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>19-03-2025 13:00</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>POLAND</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>III LIGA - GROUP 4</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Korona Kielce II - Avia Świdnik</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>80</v>
+      </c>
+      <c r="F3" t="n">
+        <v>2.45</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +674,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -633,29 +717,141 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>19-03-2025 22:00</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>COSTA-RICA</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>LIGA DE ASCENSO</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>San Carlos FC - Inter San Carlos</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>92</v>
+      </c>
+      <c r="F2" t="n">
+        <v>2.63</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
           <t>19-03-2025 19:00</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B3" t="inlineStr">
         <is>
           <t>SPAIN</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>PRIMERA DIVISIÓN RFEF - GROUP 1</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>Celta De Vigo II - Lugo</t>
         </is>
       </c>
-      <c r="E2" t="n">
+      <c r="E3" t="n">
         <v>86.7</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F3" t="n">
         <v>1.95</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>20-03-2025 20:45</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>WORLD</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>UEFA NATIONS LEAGUE</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Netherlands - Spain</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>76.7</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>20-03-2025 20:45</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>WORLD</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>UEFA NATIONS LEAGUE</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Croatia - France</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>83.3</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>20-03-2025 20:45</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>WORLD</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>UEFA NATIONS LEAGUE</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Italy - Germany</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>90</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1.83</v>
       </c>
     </row>
   </sheetData>
@@ -669,7 +865,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -722,137 +918,171 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>15-03-2025 19:00</t>
+          <t>19-03-2025 19:45</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>AUSTRIA</t>
+          <t>ARGENTINA</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>REGIONALLIGA - MITTE</t>
+          <t>COPA ARGENTINA</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Gleisdorf 09 - Wildon</t>
+          <t>Aldosivi - Gimnasia Y Tiro</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="F2" t="n">
-        <v>1.67</v>
+        <v>3.4</v>
       </c>
       <c r="G2" t="n">
-        <v>66.7</v>
+        <v>65</v>
       </c>
       <c r="H2" t="n">
-        <v>2.7</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>19-03-2025 00:00</t>
+          <t>19-03-2025 20:00</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>MEXICO</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>LIGA PREMIER SERIE A</t>
+          <t>CBF BRASILEIRO U20</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Tecos - Real Apodaca</t>
+          <t>São Paulo U20 - Atlético GO U20</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="F3" t="n">
-        <v>1.7</v>
+        <v>1.45</v>
       </c>
       <c r="G3" t="n">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="H3" t="n">
-        <v>2.7</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>19-03-2025 01:30</t>
+          <t>19-03-2025 12:00</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>INDIA</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>COPA DO NORDESTE</t>
+          <t>I-LEAGUE</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>CRB - Ferroviario</t>
+          <t>Dempo - Churchill Brothers</t>
         </is>
       </c>
       <c r="E4" t="n">
+        <v>80</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="G4" t="n">
         <v>73.3</v>
       </c>
-      <c r="F4" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="G4" t="n">
-        <v>60</v>
-      </c>
       <c r="H4" t="n">
-        <v>4.2</v>
+        <v>2.63</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>19-03-2025 12:00</t>
+          <t>20-03-2025 20:45</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>INDIA</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>I-LEAGUE</t>
+          <t>UEFA NATIONS LEAGUE</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Dempo - Churchill Brothers</t>
+          <t>Greece - Scotland</t>
         </is>
       </c>
       <c r="E5" t="n">
         <v>80</v>
       </c>
       <c r="F5" t="n">
-        <v>1.65</v>
+        <v>2.2</v>
       </c>
       <c r="G5" t="n">
-        <v>73.3</v>
+        <v>33.3</v>
       </c>
       <c r="H5" t="n">
-        <v>2.63</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>20-03-2025 03:00</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>COSTA-RICA</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>LIGA DE ASCENSO</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Municipal Grecia - Quepos Cambute</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>85</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="G6" t="n">
+        <v>60</v>
+      </c>
+      <c r="H6" t="n">
+        <v>2.2</v>
       </c>
     </row>
   </sheetData>
@@ -866,7 +1096,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -914,100 +1144,100 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>18-03-2025 20:45</t>
+          <t>19-03-2025 19:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE</t>
+          <t>CBF BRASILEIRO U20</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Altrincham - Wealdstone</t>
+          <t>Corinthians U20 - Grêmio U20</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>58.3</v>
+        <v>60</v>
       </c>
       <c r="F2" t="n">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="G2" t="n">
-        <v>0.08</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>18-03-2025 20:45</t>
+          <t>19-03-2025 19:45</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE</t>
+          <t>CBF BRASILEIRO U20</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>FC Halifax Town - Dagenham &amp; Redbridge</t>
+          <t>Vasco Da Gama U20 - Cruzeiro U20</t>
         </is>
       </c>
       <c r="E3" t="n">
         <v>66.7</v>
       </c>
       <c r="F3" t="n">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="G3" t="n">
-        <v>0.23</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>15-03-2025 19:00</t>
+          <t>19-03-2025 23:00</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>AUSTRIA</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>REGIONALLIGA - MITTE</t>
+          <t>COPA DO NORDESTE</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Gleisdorf 09 - Wildon</t>
+          <t>Confiança - Sampaio Correa</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>60</v>
+        <v>53.3</v>
       </c>
       <c r="F4" t="n">
-        <v>2.7</v>
+        <v>2</v>
       </c>
       <c r="G4" t="n">
-        <v>0.62</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>18-03-2025 23:00</t>
+          <t>19-03-2025 19:00</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1017,363 +1247,518 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>COPA DO NORDESTE</t>
+          <t>PAULISTA - A2</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Nautico Recife - America-RN</t>
+          <t>Primavera SP - Santo André</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>63.3</v>
+        <v>50</v>
       </c>
       <c r="F5" t="n">
         <v>2.05</v>
       </c>
       <c r="G5" t="n">
-        <v>0.3</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>18-03-2025 20:45</t>
+          <t>19-03-2025 23:00</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE - NORTH</t>
+          <t>PAULISTA - A2</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Curzon Ashton - Radcliffe</t>
+          <t>Ituano - Ferroviária</t>
         </is>
       </c>
       <c r="E6" t="n">
         <v>50</v>
       </c>
       <c r="F6" t="n">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.12</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>18-03-2025 20:45</t>
+          <t>20-03-2025 00:30</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>COLOMBIA</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE - NORTH</t>
+          <t>PRIMERA A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>South Shields - Oxford City</t>
+          <t>Santa Fe - Bucaramanga</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>60</v>
+        <v>53.3</v>
       </c>
       <c r="F7" t="n">
         <v>1.91</v>
       </c>
       <c r="G7" t="n">
-        <v>0.15</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>18-03-2025 20:45</t>
+          <t>19-03-2025 20:30</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>EGYPT</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE - SOUTH</t>
+          <t>LEAGUE CUP</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>St Albans City - Hampton &amp; Richmond</t>
+          <t>AL Masry - Masr</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>66.7</v>
+        <v>50</v>
       </c>
       <c r="F8" t="n">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="G8" t="n">
-        <v>0.53</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>18-03-2025 14:00</t>
+          <t>19-03-2025 19:00</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>SPAIN</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>PROFESSIONAL DEVELOPMENT LEAGUE</t>
+          <t>PRIMERA DIVISIÓN RFEF - GROUP 1</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Wigan Athletic U21 - Birmingham City U21</t>
+          <t>Celta De Vigo II - Lugo</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>63.3</v>
+        <v>73.3</v>
       </c>
       <c r="F9" t="n">
-        <v>1.91</v>
+        <v>1.85</v>
       </c>
       <c r="G9" t="n">
-        <v>0.21</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>19-03-2025 00:00</t>
+          <t>19-03-2025 20:30</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>MEXICO</t>
+          <t>SPAIN</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>LIGA PREMIER SERIE A</t>
+          <t>SEGUNDA DIVISIÓN RFEF - GROUP 1</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Tecos - Real Apodaca</t>
+          <t>Pontevedra - Numancia</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>66.7</v>
+        <v>50</v>
       </c>
       <c r="F10" t="n">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="G10" t="n">
-        <v>0.4</v>
+        <v>-0.1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>18-03-2025 12:00</t>
+          <t>19-03-2025 17:00</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>PORTUGAL</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>LIGA REVELAÇÃO U23</t>
+          <t>WORLD CUP - QUALIFICATION AFRICA</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Farense U23 - Academico Viseu U23</t>
+          <t>Central African Republic - Madagascar</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>60</v>
+        <v>73.3</v>
       </c>
       <c r="F11" t="n">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>18-03-2025 15:15</t>
+          <t>20-03-2025 20:45</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>SLOVAKIA</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2. LIGA</t>
+          <t>UEFA NATIONS LEAGUE</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Lokomotíva Zvolen - Považská Bystrica</t>
+          <t>Austria - Serbia</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="F12" t="n">
-        <v>2.4</v>
+        <v>1.75</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>19-03-2025 23:00</t>
+          <t>20-03-2025 20:45</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>COPA DO NORDESTE</t>
+          <t>UEFA NATIONS LEAGUE</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Confiança - Sampaio Correa</t>
+          <t>Greece - Scotland</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>53.3</v>
+        <v>60</v>
       </c>
       <c r="F13" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="G13" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>20-03-2025 00:30</t>
+          <t>20-03-2025 20:45</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>COLOMBIA</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>PRIMERA A</t>
+          <t>UEFA NATIONS LEAGUE</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Santa Fe - Bucaramanga</t>
+          <t>Kosovo - Iceland</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>53.3</v>
+        <v>60</v>
       </c>
       <c r="F14" t="n">
-        <v>1.91</v>
+        <v>2.3</v>
       </c>
       <c r="G14" t="n">
-        <v>0.02</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>19-03-2025 19:00</t>
+          <t>20-03-2025 23:00</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>SPAIN</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>PRIMERA DIVISIÓN RFEF - GROUP 1</t>
+          <t>COPA DO NORDESTE</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Celta De Vigo II - Lugo</t>
+          <t>Altos - Moto Club</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>73.3</v>
+        <v>56.7</v>
       </c>
       <c r="F15" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="G15" t="n">
-        <v>0.36</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>19-03-2025 20:30</t>
+          <t>20-03-2025 02:30</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>SPAIN</t>
+          <t>COLOMBIA</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>SEGUNDA DIVISIÓN RFEF - GROUP 1</t>
+          <t>PRIMERA A</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Pontevedra - Numancia</t>
+          <t>Atletico Nacional - Deportes Tolima</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="F16" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.1</v>
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>20-03-2025 03:00</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>COSTA-RICA</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>LIGA DE ASCENSO</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Municipal Grecia - Quepos Cambute</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>53.3</v>
+      </c>
+      <c r="F17" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>20-03-2025 01:00</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>JAMAICA</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>PREMIER LEAGUE</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Waterhouse - Vere United</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>60</v>
+      </c>
+      <c r="F18" t="n">
+        <v>2</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>20-03-2025 02:00</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>MEXICO</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>LIGA DE EXPANSIÓN MX</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Tapatío - Atlante FC</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>53.3</v>
+      </c>
+      <c r="F19" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="G19" t="n">
+        <v>1.08</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>20-03-2025 01:00</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>US OPEN CUP</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Little Rock Rangers - Birmingham Legion</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>60</v>
+      </c>
+      <c r="F20" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="G20" t="n">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>20-03-2025 17:00</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>WORLD</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>WORLD CUP - QUALIFICATION AFRICA</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Malawi - Namibia</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>70</v>
+      </c>
+      <c r="F21" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.92</v>
       </c>
     </row>
   </sheetData>
@@ -1387,7 +1772,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1435,342 +1820,280 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>18-03-2025 20:45</t>
+          <t>19-03-2025 22:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>ARGENTINA</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE</t>
+          <t>COPA ARGENTINA</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Maidenhead - Aldershot Town</t>
+          <t>Talleres Cordoba - Deportivo Armenio</t>
         </is>
       </c>
       <c r="E2" t="n">
         <v>60</v>
       </c>
       <c r="F2" t="n">
-        <v>2.38</v>
+        <v>9</v>
       </c>
       <c r="G2" t="n">
-        <v>0.43</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>18-03-2025 20:45</t>
+          <t>19-03-2025 20:00</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>COSTA-RICA</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE - NORTH</t>
+          <t>LIGA DE ASCENSO</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Kidderminster Harriers - Scunthorpe</t>
+          <t>Deportivo Upala - ADR Jicaral</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>60</v>
+        <v>73.3</v>
       </c>
       <c r="F3" t="n">
-        <v>2.63</v>
+        <v>1.75</v>
       </c>
       <c r="G3" t="n">
-        <v>0.58</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>18-03-2025 20:45</t>
+          <t>19-03-2025 19:00</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>GERMANY</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE - SOUTH</t>
+          <t>REGIONALLIGA - NORDOST</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Welling United - Hemel Hempstead Town</t>
+          <t>Plauen - FSV Zwickau</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>51.7</v>
+        <v>50</v>
       </c>
       <c r="F4" t="n">
-        <v>2.65</v>
+        <v>2.15</v>
       </c>
       <c r="G4" t="n">
-        <v>0.37</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>18-03-2025 20:45</t>
+          <t>19-03-2025 16:00</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>GHANA</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>NON LEAGUE PREMIER - SOUTHERN CENTRAL</t>
+          <t>PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Biggleswade Town - Leiston</t>
+          <t>Basake Holy Stars - Bibiani Gold Stars</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>70</v>
+        <v>53.3</v>
       </c>
       <c r="F5" t="n">
-        <v>2.2</v>
+        <v>4.5</v>
       </c>
       <c r="G5" t="n">
-        <v>0.54</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>18-03-2025 20:00</t>
+          <t>19-03-2025 13:00</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>POLAND</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>PROFESSIONAL DEVELOPMENT LEAGUE</t>
+          <t>III LIGA - GROUP 4</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Ipswich Town U21 - Millwall U21</t>
+          <t>Korona Kielce II - Avia Świdnik</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>56.7</v>
+        <v>80</v>
       </c>
       <c r="F6" t="n">
-        <v>2.05</v>
+        <v>2.45</v>
       </c>
       <c r="G6" t="n">
-        <v>0.16</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>18-03-2025 20:45</t>
+          <t>19-03-2025 11:30</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>NORTHERN-IRELAND</t>
+          <t>SOUTH-KOREA</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>CHAMPIONSHIP</t>
+          <t>FA CUP</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Dundela - Annagh United</t>
+          <t>Suwon Bluewings - Seoul E-Land FC</t>
         </is>
       </c>
       <c r="E7" t="n">
         <v>53.3</v>
       </c>
       <c r="F7" t="n">
-        <v>2.9</v>
+        <v>2.4</v>
       </c>
       <c r="G7" t="n">
-        <v>0.55</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>18-03-2025 20:45</t>
+          <t>20-03-2025 00:30</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>NORTHERN-IRELAND</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>PREMIERSHIP</t>
+          <t>US OPEN CUP</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Glentoran - Larne</t>
+          <t>Swope Park Rangers - Des Moines Menace</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>53.3</v>
+        <v>60</v>
       </c>
       <c r="F8" t="n">
-        <v>2.7</v>
+        <v>3.3</v>
       </c>
       <c r="G8" t="n">
-        <v>0.44</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>19-03-2025 01:10</t>
+          <t>20-03-2025 18:00</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ARGENTINA</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>PRIMERA B METROPOLITANA</t>
+          <t>UEFA NATIONS LEAGUE</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Argentino De Merlo - Villa San Carlos</t>
+          <t>Türkiye - Hungary</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>50</v>
+        <v>53.3</v>
       </c>
       <c r="F9" t="n">
-        <v>3</v>
+        <v>5.25</v>
       </c>
       <c r="G9" t="n">
-        <v>0.5</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>19-03-2025 19:00</t>
+          <t>20-03-2025 14:00</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>GERMANY</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>REGIONALLIGA - NORDOST</t>
+          <t>WORLD CUP - QUALIFICATION AFRICA</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Plauen - FSV Zwickau</t>
+          <t>Mozambique - Uganda</t>
         </is>
       </c>
       <c r="E10" t="n">
         <v>50</v>
       </c>
       <c r="F10" t="n">
-        <v>2.15</v>
+        <v>2.95</v>
       </c>
       <c r="G10" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>19-03-2025 11:30</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>SOUTH-KOREA</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>FA CUP</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Suwon Bluewings - Seoul E-Land FC</t>
-        </is>
-      </c>
-      <c r="E11" t="n">
-        <v>53.3</v>
-      </c>
-      <c r="F11" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0.28</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>19-03-2025 20:00</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>SPAIN</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>TERCERA DIVISIÓN RFEF - GROUP 9</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>Motril - Mancha Real</t>
-        </is>
-      </c>
-      <c r="E12" t="n">
-        <v>66.7</v>
-      </c>
-      <c r="F12" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="G12" t="n">
-        <v>2</v>
+        <v>0.48</v>
       </c>
     </row>
   </sheetData>
@@ -1784,7 +2107,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1832,91 +2155,91 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>18-03-2025 20:45</t>
+          <t>19-03-2025 19:45</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>ARGENTINA</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE</t>
+          <t>COPA ARGENTINA</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Altrincham - Wealdstone</t>
+          <t>Aldosivi - Gimnasia Y Tiro</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>72.5</v>
+        <v>75</v>
       </c>
       <c r="F2" t="n">
-        <v>1.75</v>
+        <v>3.4</v>
       </c>
       <c r="G2" t="n">
-        <v>0.27</v>
+        <v>1.55</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>19-03-2025 00:00</t>
+          <t>19-03-2025 19:00</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>MEXICO</t>
+          <t>GERMANY</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>LIGA PREMIER SERIE A</t>
+          <t>REGIONALLIGA - NORDOST</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Tecos - Real Apodaca</t>
+          <t>Plauen - FSV Zwickau</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>85</v>
+        <v>73.3</v>
       </c>
       <c r="F3" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="G3" t="n">
-        <v>0.44</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>19-03-2025 01:30</t>
+          <t>19-03-2025 16:00</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>GHANA</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>COPA DO NORDESTE</t>
+          <t>PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>CRB - Ferroviario</t>
+          <t>Nations - Aduana Stars</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>73.3</v>
+        <v>70</v>
       </c>
       <c r="F4" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="G4" t="n">
         <v>0.61</v>
@@ -1925,32 +2248,94 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>19-03-2025 19:00</t>
+          <t>19-03-2025 13:00</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GERMANY</t>
+          <t>POLAND</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>REGIONALLIGA - NORDOST</t>
+          <t>III LIGA - GROUP 4</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Plauen - FSV Zwickau</t>
+          <t>Korona Kielce II - Avia Świdnik</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>73.3</v>
+        <v>77.5</v>
       </c>
       <c r="F5" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="G5" t="n">
-        <v>0.32</v>
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>19-03-2025 14:30</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>WORLD</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>FRIENDLIES</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>India - Maldives</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>70</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>20-03-2025 20:45</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>WORLD</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>UEFA NATIONS LEAGUE</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Greece - Scotland</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>80</v>
+      </c>
+      <c r="F7" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.76</v>
       </c>
     </row>
   </sheetData>
@@ -1964,7 +2349,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2012,63 +2397,435 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>18-03-2025 20:45</t>
+          <t>19-03-2025 19:45</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>ARGENTINA</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE</t>
+          <t>COPA ARGENTINA</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Gateshead - Braintree</t>
+          <t>Aldosivi - Gimnasia Y Tiro</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>65</v>
+        <v>66.7</v>
       </c>
       <c r="F2" t="n">
-        <v>1.75</v>
+        <v>2.63</v>
       </c>
       <c r="G2" t="n">
-        <v>0.14</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>19-03-2025 22:00</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>COSTA-RICA</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>LIGA DE ASCENSO</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>San Carlos FC - Inter San Carlos</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>92</v>
+      </c>
+      <c r="F3" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>19-03-2025 20:30</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>EGYPT</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>LEAGUE CUP</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Zamalek SC - El Gouna FC</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="F4" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.57</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>19-03-2025 13:00</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>POLAND</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>III LIGA - GROUP 4</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Korona Kielce II - Avia Świdnik</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>73.3</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
           <t>19-03-2025 19:00</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B6" t="inlineStr">
         <is>
           <t>SPAIN</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>PRIMERA DIVISIÓN RFEF - GROUP 1</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>Celta De Vigo II - Lugo</t>
         </is>
       </c>
-      <c r="E3" t="n">
+      <c r="E6" t="n">
         <v>86.7</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F6" t="n">
         <v>1.95</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G6" t="n">
         <v>0.6899999999999999</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>19-03-2025 14:30</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>WORLD</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>FRIENDLIES</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>India - Maldives</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>20-03-2025 20:45</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>WORLD</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>UEFA NATIONS LEAGUE</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Netherlands - Spain</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>76.7</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>20-03-2025 20:45</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>WORLD</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>UEFA NATIONS LEAGUE</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Croatia - France</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>83.3</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>20-03-2025 20:45</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>WORLD</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>UEFA NATIONS LEAGUE</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Italy - Germany</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>90</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>20-03-2025 20:45</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>WORLD</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>UEFA NATIONS LEAGUE</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Austria - Serbia</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>70</v>
+      </c>
+      <c r="F11" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>20-03-2025 18:00</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>WORLD</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>UEFA NATIONS LEAGUE</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Armenia - Georgia</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>70</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.29</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>20-03-2025 01:00</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>JAMAICA</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>PREMIER LEAGUE</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Waterhouse - Vere United</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>20-03-2025 17:00</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>WORLD</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>WORLD CUP - QUALIFICATION AFRICA</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Sierra Leone - Guinea-Bissau</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>70</v>
+      </c>
+      <c r="F14" t="n">
+        <v>2</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>20-03-2025 20:00</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>WORLD</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>WORLD CUP - QUALIFICATION AFRICA</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Gabon - Seychelles</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>72</v>
+      </c>
+      <c r="F15" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="G15" t="n">
+        <v>2.02</v>
       </c>
     </row>
   </sheetData>

--- a/scraper/data/betclever_predictions.xlsx
+++ b/scraper/data/betclever_predictions.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,85 +475,113 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>19-03-2025 19:00</t>
+          <t>20-03-2025 17:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SPAIN</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>PRIMERA DIVISIÓN RFEF - GROUP 1</t>
+          <t>WORLD CUP - QUALIFICATION AFRICA</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Celta De Vigo II - Lugo</t>
+          <t>Malawi - Namibia</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>73.3</v>
+        <v>70</v>
       </c>
       <c r="F2" t="n">
-        <v>1.85</v>
+        <v>2.75</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>19-03-2025 17:00</t>
+          <t>21-03-2025 12:00</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>AUSTRALIA</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>WORLD CUP - QUALIFICATION AFRICA</t>
+          <t>WESTERN AUSTRALIA NPL</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Central African Republic - Madagascar</t>
+          <t>Perth - Fremantle City</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>73.3</v>
+        <v>80</v>
       </c>
       <c r="F3" t="n">
-        <v>2.8</v>
+        <v>1.85</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>20-03-2025 17:00</t>
+          <t>21-03-2025 20:30</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>SPAIN</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>WORLD CUP - QUALIFICATION AFRICA</t>
+          <t>PRIMERA DIVISIÓN RFEF - GROUP 2</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Malawi - Namibia</t>
+          <t>Mérida AD - Yeclano</t>
         </is>
       </c>
       <c r="E4" t="n">
         <v>70</v>
       </c>
       <c r="F4" t="n">
-        <v>2.75</v>
+        <v>2.37</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>21-03-2025 03:30</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>WORLD</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>CONCACAF NATIONS LEAGUE</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Canada - Mexico</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>73.3</v>
+      </c>
+      <c r="F5" t="n">
+        <v>2.3</v>
       </c>
     </row>
   </sheetData>
@@ -567,7 +595,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -610,57 +638,29 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>19-03-2025 20:00</t>
+          <t>21-03-2025 10:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>COSTA-RICA</t>
+          <t>AUSTRALIA</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>LIGA DE ASCENSO</t>
+          <t>SOUTH AUSTRALIA NPL</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Deportivo Upala - ADR Jicaral</t>
+          <t>Adelaide Raiders - West Torrens Birkalla</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>73.3</v>
+        <v>70</v>
       </c>
       <c r="F2" t="n">
-        <v>1.75</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>19-03-2025 13:00</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>POLAND</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>III LIGA - GROUP 4</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Korona Kielce II - Avia Świdnik</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>80</v>
-      </c>
-      <c r="F3" t="n">
-        <v>2.45</v>
+        <v>2.88</v>
       </c>
     </row>
   </sheetData>
@@ -674,7 +674,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -717,57 +717,57 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>19-03-2025 22:00</t>
+          <t>20-03-2025 20:45</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>COSTA-RICA</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>LIGA DE ASCENSO</t>
+          <t>UEFA NATIONS LEAGUE</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>San Carlos FC - Inter San Carlos</t>
+          <t>Netherlands - Spain</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>92</v>
+        <v>76.7</v>
       </c>
       <c r="F2" t="n">
-        <v>2.63</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>19-03-2025 19:00</t>
+          <t>20-03-2025 20:45</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SPAIN</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>PRIMERA DIVISIÓN RFEF - GROUP 1</t>
+          <t>UEFA NATIONS LEAGUE</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Celta De Vigo II - Lugo</t>
+          <t>Croatia - France</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>86.7</v>
+        <v>83.3</v>
       </c>
       <c r="F3" t="n">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="4">
@@ -788,20 +788,20 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Netherlands - Spain</t>
+          <t>Italy - Germany</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>76.7</v>
+        <v>90</v>
       </c>
       <c r="F4" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>20-03-2025 20:45</t>
+          <t>20-03-2025 19:15</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -811,47 +811,131 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>UEFA NATIONS LEAGUE</t>
+          <t>WORLD CUP - QUALIFICATION ASIA</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Croatia - France</t>
+          <t>Qatar - North Korea</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>83.3</v>
+        <v>92</v>
       </c>
       <c r="F5" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>20-03-2025 20:45</t>
+          <t>21-03-2025 19:30</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>FRANCE</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>NATIONAL 1</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Boulogne - Nimes</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>80</v>
+      </c>
+      <c r="F6" t="n">
+        <v>2.06</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>21-03-2025 19:00</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>MEXICO</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>LIGA PREMIER SERIE B</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Real Zamora - Pachuca Premier</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>80</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>21-03-2025 20:30</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>SPAIN</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>PRIMERA DIVISIÓN RFEF - GROUP 2</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Mérida AD - Yeclano</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>88</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1.85</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>21-03-2025 22:00</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>WORLD</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>UEFA NATIONS LEAGUE</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Italy - Germany</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>90</v>
-      </c>
-      <c r="F6" t="n">
-        <v>1.83</v>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>WORLD CUP - QUALIFICATION AFRICA</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Guinea - Somalia</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>76</v>
+      </c>
+      <c r="F9" t="n">
+        <v>3.8</v>
       </c>
     </row>
   </sheetData>
@@ -865,7 +949,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -918,171 +1002,239 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>19-03-2025 19:45</t>
+          <t>20-03-2025 20:45</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ARGENTINA</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>COPA ARGENTINA</t>
+          <t>UEFA NATIONS LEAGUE</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Aldosivi - Gimnasia Y Tiro</t>
+          <t>Greece - Scotland</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="F2" t="n">
-        <v>3.4</v>
+        <v>2.2</v>
       </c>
       <c r="G2" t="n">
-        <v>65</v>
+        <v>33.3</v>
       </c>
       <c r="H2" t="n">
-        <v>7.5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>19-03-2025 20:00</t>
+          <t>21-03-2025 09:45</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>AUSTRALIA</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CBF BRASILEIRO U20</t>
+          <t>VICTORIA NPL</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>São Paulo U20 - Atlético GO U20</t>
+          <t>Dandenong City - Heidelberg United</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="F3" t="n">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="G3" t="n">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="H3" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>19-03-2025 12:00</t>
+          <t>19-03-2025 01:30</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>INDIA</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>I-LEAGUE</t>
+          <t>COPA DO NORDESTE</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Dempo - Churchill Brothers</t>
+          <t>CRB - Ferroviario</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>80</v>
+        <v>73.3</v>
       </c>
       <c r="F4" t="n">
-        <v>1.65</v>
+        <v>2.2</v>
       </c>
       <c r="G4" t="n">
-        <v>73.3</v>
+        <v>60</v>
       </c>
       <c r="H4" t="n">
-        <v>2.63</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>20-03-2025 20:45</t>
+          <t>21-03-2025 23:00</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>UEFA NATIONS LEAGUE</t>
+          <t>MARANHENSE</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Greece - Scotland</t>
+          <t>Maranhão - Tuntum</t>
         </is>
       </c>
       <c r="E5" t="n">
         <v>80</v>
       </c>
       <c r="F5" t="n">
-        <v>2.2</v>
+        <v>1.73</v>
       </c>
       <c r="G5" t="n">
-        <v>33.3</v>
+        <v>42.5</v>
       </c>
       <c r="H5" t="n">
-        <v>4</v>
+        <v>2.88</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>20-03-2025 03:00</t>
+          <t>21-03-2025 19:00</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>COSTA-RICA</t>
+          <t>GERMANY</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>LIGA DE ASCENSO</t>
+          <t>REGIONALLIGA - NORDOST</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Municipal Grecia - Quepos Cambute</t>
+          <t>FC Rot-Weiß Erfurt - Hertha BSC II</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>85</v>
+        <v>82.5</v>
       </c>
       <c r="F6" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="G6" t="n">
+        <v>50</v>
+      </c>
+      <c r="H6" t="n">
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>21-03-2025 20:30</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>SPAIN</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>PRIMERA DIVISIÓN RFEF - GROUP 2</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Mérida AD - Yeclano</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>86.7</v>
+      </c>
+      <c r="F7" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="G7" t="n">
+        <v>46.7</v>
+      </c>
+      <c r="H7" t="n">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>21-03-2025 02:00</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>US OPEN CUP</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Flatirons Rush - Union Omaha</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>93.3</v>
+      </c>
+      <c r="F8" t="n">
         <v>1.5</v>
       </c>
-      <c r="G6" t="n">
-        <v>60</v>
-      </c>
-      <c r="H6" t="n">
-        <v>2.2</v>
+      <c r="G8" t="n">
+        <v>73.3</v>
+      </c>
+      <c r="H8" t="n">
+        <v>2.25</v>
       </c>
     </row>
   </sheetData>
@@ -1096,7 +1248,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1144,100 +1296,100 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>19-03-2025 19:00</t>
+          <t>20-03-2025 20:45</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>CBF BRASILEIRO U20</t>
+          <t>UEFA NATIONS LEAGUE</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Corinthians U20 - Grêmio U20</t>
+          <t>Austria - Serbia</t>
         </is>
       </c>
       <c r="E2" t="n">
         <v>60</v>
       </c>
       <c r="F2" t="n">
-        <v>2.1</v>
+        <v>1.75</v>
       </c>
       <c r="G2" t="n">
-        <v>0.26</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>19-03-2025 19:45</t>
+          <t>20-03-2025 20:45</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CBF BRASILEIRO U20</t>
+          <t>UEFA NATIONS LEAGUE</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Vasco Da Gama U20 - Cruzeiro U20</t>
+          <t>Greece - Scotland</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>66.7</v>
+        <v>60</v>
       </c>
       <c r="F3" t="n">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="G3" t="n">
-        <v>0.37</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>19-03-2025 23:00</t>
+          <t>20-03-2025 20:45</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>COPA DO NORDESTE</t>
+          <t>UEFA NATIONS LEAGUE</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Confiança - Sampaio Correa</t>
+          <t>Kosovo - Iceland</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>53.3</v>
+        <v>60</v>
       </c>
       <c r="F4" t="n">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="G4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>19-03-2025 19:00</t>
+          <t>20-03-2025 23:00</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1247,28 +1399,28 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>PAULISTA - A2</t>
+          <t>CEARENSE - 2</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Primavera SP - Santo André</t>
+          <t>Maranguape - Caucaia</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="F5" t="n">
-        <v>2.05</v>
+        <v>2.35</v>
       </c>
       <c r="G5" t="n">
-        <v>0.02</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>19-03-2025 23:00</t>
+          <t>20-03-2025 23:00</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1278,487 +1430,611 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>PAULISTA - A2</t>
+          <t>COPA DO NORDESTE</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Ituano - Ferroviária</t>
+          <t>Altos - Moto Club</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>50</v>
+        <v>56.7</v>
       </c>
       <c r="F6" t="n">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="G6" t="n">
-        <v>0.12</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>20-03-2025 00:30</t>
+          <t>20-03-2025 22:30</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>COLOMBIA</t>
+          <t>JAMAICA</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>PRIMERA A</t>
+          <t>PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Santa Fe - Bucaramanga</t>
+          <t>Chapelton - Humble Lions</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>53.3</v>
+        <v>50</v>
       </c>
       <c r="F7" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="G7" t="n">
-        <v>0.02</v>
+        <v>-0.03</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>19-03-2025 20:30</t>
+          <t>21-03-2025 00:00</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>EGYPT</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>LEAGUE CUP</t>
+          <t>US OPEN CUP</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>AL Masry - Masr</t>
+          <t>Long Island Rough Riders - Charlotte Independence</t>
         </is>
       </c>
       <c r="E8" t="n">
         <v>50</v>
       </c>
       <c r="F8" t="n">
-        <v>2.15</v>
+        <v>3.35</v>
       </c>
       <c r="G8" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>19-03-2025 19:00</t>
+          <t>20-03-2025 17:00</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>SPAIN</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>PRIMERA DIVISIÓN RFEF - GROUP 1</t>
+          <t>WORLD CUP - QUALIFICATION AFRICA</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Celta De Vigo II - Lugo</t>
+          <t>Malawi - Namibia</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>73.3</v>
+        <v>70</v>
       </c>
       <c r="F9" t="n">
-        <v>1.85</v>
+        <v>2.75</v>
       </c>
       <c r="G9" t="n">
-        <v>0.36</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>19-03-2025 20:30</t>
+          <t>21-03-2025 10:45</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>SPAIN</t>
+          <t>AUSTRALIA</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>SEGUNDA DIVISIÓN RFEF - GROUP 1</t>
+          <t>SOUTH AUSTRALIA NPL</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Pontevedra - Numancia</t>
+          <t>Adelaide Comets - Para Hills Knights</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>50</v>
+        <v>62.3</v>
       </c>
       <c r="F10" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.1</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>19-03-2025 17:00</t>
+          <t>21-03-2025 09:30</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>AUSTRALIA</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>WORLD CUP - QUALIFICATION AFRICA</t>
+          <t>VICTORIA NPL</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Central African Republic - Madagascar</t>
+          <t>Melbourne Knights - Melbourne Victory II</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>73.3</v>
+        <v>60</v>
       </c>
       <c r="F11" t="n">
-        <v>2.8</v>
+        <v>2.1</v>
       </c>
       <c r="G11" t="n">
-        <v>1.05</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>20-03-2025 20:45</t>
+          <t>21-03-2025 12:00</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>AUSTRALIA</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>UEFA NATIONS LEAGUE</t>
+          <t>WESTERN AUSTRALIA NPL</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Austria - Serbia</t>
+          <t>Perth - Fremantle City</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="F12" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>20-03-2025 20:45</t>
+          <t>21-03-2025 19:00</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>AUSTRIA</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>UEFA NATIONS LEAGUE</t>
+          <t>REGIONALLIGA - MITTE</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Greece - Scotland</t>
+          <t>Wildon - SK Vorwarts Steyr</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F13" t="n">
-        <v>1.9</v>
+        <v>2.3</v>
       </c>
       <c r="G13" t="n">
-        <v>0.14</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>20-03-2025 20:45</t>
+          <t>21-03-2025 22:00</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>CHILE</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>UEFA NATIONS LEAGUE</t>
+          <t>COPA CHILE</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Kosovo - Iceland</t>
+          <t>Huachipato - O'Higgins</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>60</v>
+        <v>53.3</v>
       </c>
       <c r="F14" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="G14" t="n">
-        <v>0.38</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>20-03-2025 23:00</t>
+          <t>21-03-2025 03:00</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>COSTA-RICA</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>COPA DO NORDESTE</t>
+          <t>LIGA DE ASCENSO</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Altos - Moto Club</t>
+          <t>Guadalupe FC - Cariari Pococi</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>56.7</v>
+        <v>50</v>
       </c>
       <c r="F15" t="n">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="G15" t="n">
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>20-03-2025 02:30</t>
+          <t>21-03-2025 15:00</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>COLOMBIA</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>PRIMERA A</t>
+          <t>PROFESSIONAL DEVELOPMENT LEAGUE</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Atletico Nacional - Deportes Tolima</t>
+          <t>Millwall U21 - Bristol City U21</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>60</v>
+        <v>63.3</v>
       </c>
       <c r="F16" t="n">
         <v>1.7</v>
       </c>
       <c r="G16" t="n">
-        <v>0.02</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>20-03-2025 03:00</t>
+          <t>21-03-2025 19:30</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>COSTA-RICA</t>
+          <t>FRANCE</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>LIGA DE ASCENSO</t>
+          <t>NATIONAL 1</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Municipal Grecia - Quepos Cambute</t>
+          <t>Le Mans - Gobelins</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>53.3</v>
+        <v>66.7</v>
       </c>
       <c r="F17" t="n">
-        <v>2.75</v>
+        <v>1.78</v>
       </c>
       <c r="G17" t="n">
-        <v>0.47</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>20-03-2025 01:00</t>
+          <t>21-03-2025 19:30</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>JAMAICA</t>
+          <t>FRANCE</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>PREMIER LEAGUE</t>
+          <t>NATIONAL 1</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Waterhouse - Vere United</t>
+          <t>Boulogne - Nimes</t>
         </is>
       </c>
       <c r="E18" t="n">
         <v>60</v>
       </c>
       <c r="F18" t="n">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>20-03-2025 02:00</t>
+          <t>21-03-2025 19:00</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>MEXICO</t>
+          <t>GERMANY</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>LIGA DE EXPANSIÓN MX</t>
+          <t>REGIONALLIGA - NORDOST</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Tapatío - Atlante FC</t>
+          <t>FC Rot-Weiß Erfurt - Hertha BSC II</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>53.3</v>
+        <v>56.7</v>
       </c>
       <c r="F19" t="n">
-        <v>3.9</v>
+        <v>1.95</v>
       </c>
       <c r="G19" t="n">
-        <v>1.08</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>20-03-2025 01:00</t>
+          <t>21-03-2025 02:00</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>MEXICO</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>US OPEN CUP</t>
+          <t>LIGA DE EXPANSIÓN MX</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Little Rock Rangers - Birmingham Legion</t>
+          <t>Correcaminos Uat - Venados FC</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>60</v>
+        <v>53.3</v>
       </c>
       <c r="F20" t="n">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="G20" t="n">
-        <v>1.25</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>20-03-2025 17:00</t>
+          <t>21-03-2025 20:30</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
+          <t>SPAIN</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>PRIMERA DIVISIÓN RFEF - GROUP 2</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Real Madrid II - Real Murcia</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="F21" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>21-03-2025 20:30</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>SPAIN</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>PRIMERA DIVISIÓN RFEF - GROUP 2</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Mérida AD - Yeclano</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>70</v>
+      </c>
+      <c r="F22" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>21-03-2025 02:00</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>US OPEN CUP</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Flatirons Rush - Union Omaha</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>50</v>
+      </c>
+      <c r="F23" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="G23" t="n">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>21-03-2025 03:30</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
           <t>WORLD</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>WORLD CUP - QUALIFICATION AFRICA</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>Malawi - Namibia</t>
-        </is>
-      </c>
-      <c r="E21" t="n">
-        <v>70</v>
-      </c>
-      <c r="F21" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="G21" t="n">
-        <v>0.92</v>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>CONCACAF NATIONS LEAGUE</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Canada - Mexico</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>73.3</v>
+      </c>
+      <c r="F24" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>21-03-2025 20:45</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>WORLD</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>FRIENDLIES</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Northern Ireland - Switzerland</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>53.3</v>
+      </c>
+      <c r="F25" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="G25" t="n">
+        <v>1.31</v>
       </c>
     </row>
   </sheetData>
@@ -1767,583 +2043,6 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:G10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Date</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Country</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Championship</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Match</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Away Win (%)</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Away Odds</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>EV away win</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>19-03-2025 22:00</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>ARGENTINA</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>COPA ARGENTINA</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Talleres Cordoba - Deportivo Armenio</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
-        <v>60</v>
-      </c>
-      <c r="F2" t="n">
-        <v>9</v>
-      </c>
-      <c r="G2" t="n">
-        <v>4.4</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>19-03-2025 20:00</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>COSTA-RICA</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>LIGA DE ASCENSO</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Deportivo Upala - ADR Jicaral</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>73.3</v>
-      </c>
-      <c r="F3" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.28</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>19-03-2025 19:00</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>GERMANY</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>REGIONALLIGA - NORDOST</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Plauen - FSV Zwickau</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>50</v>
-      </c>
-      <c r="F4" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>19-03-2025 16:00</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>GHANA</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>PREMIER LEAGUE</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Basake Holy Stars - Bibiani Gold Stars</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>53.3</v>
-      </c>
-      <c r="F5" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="G5" t="n">
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>19-03-2025 13:00</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>POLAND</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>III LIGA - GROUP 4</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Korona Kielce II - Avia Świdnik</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>80</v>
-      </c>
-      <c r="F6" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.96</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>19-03-2025 11:30</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>SOUTH-KOREA</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>FA CUP</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Suwon Bluewings - Seoul E-Land FC</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
-        <v>53.3</v>
-      </c>
-      <c r="F7" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0.28</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>20-03-2025 00:30</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>USA</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>US OPEN CUP</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Swope Park Rangers - Des Moines Menace</t>
-        </is>
-      </c>
-      <c r="E8" t="n">
-        <v>60</v>
-      </c>
-      <c r="F8" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0.98</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>20-03-2025 18:00</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>WORLD</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>UEFA NATIONS LEAGUE</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Türkiye - Hungary</t>
-        </is>
-      </c>
-      <c r="E9" t="n">
-        <v>53.3</v>
-      </c>
-      <c r="F9" t="n">
-        <v>5.25</v>
-      </c>
-      <c r="G9" t="n">
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>20-03-2025 14:00</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>WORLD</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>WORLD CUP - QUALIFICATION AFRICA</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Mozambique - Uganda</t>
-        </is>
-      </c>
-      <c r="E10" t="n">
-        <v>50</v>
-      </c>
-      <c r="F10" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0.48</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:G7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Date</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Country</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Championship</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Match</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Over 2.5 (%)</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Odds 2.5</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>EV over 2.5</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>19-03-2025 19:45</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>ARGENTINA</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>COPA ARGENTINA</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Aldosivi - Gimnasia Y Tiro</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
-        <v>75</v>
-      </c>
-      <c r="F2" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="G2" t="n">
-        <v>1.55</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>19-03-2025 19:00</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>GERMANY</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>REGIONALLIGA - NORDOST</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Plauen - FSV Zwickau</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>73.3</v>
-      </c>
-      <c r="F3" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.32</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>19-03-2025 16:00</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>GHANA</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>PREMIER LEAGUE</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Nations - Aduana Stars</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>70</v>
-      </c>
-      <c r="F4" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.61</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>19-03-2025 13:00</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>POLAND</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>III LIGA - GROUP 4</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Korona Kielce II - Avia Świdnik</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>77.5</v>
-      </c>
-      <c r="F5" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.48</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>19-03-2025 14:30</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>WORLD</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>FRIENDLIES</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>India - Maldives</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>70</v>
-      </c>
-      <c r="F6" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.21</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>20-03-2025 20:45</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>WORLD</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>UEFA NATIONS LEAGUE</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Greece - Scotland</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
-        <v>80</v>
-      </c>
-      <c r="F7" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0.76</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2380,452 +2079,1277 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Btts (%)</t>
+          <t>Away Win (%)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Odds btts</t>
+          <t>Away Odds</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>EV btts</t>
+          <t>EV away win</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>19-03-2025 19:45</t>
+          <t>20-03-2025 18:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ARGENTINA</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>COPA ARGENTINA</t>
+          <t>UEFA NATIONS LEAGUE</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Aldosivi - Gimnasia Y Tiro</t>
+          <t>Türkiye - Hungary</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>66.7</v>
+        <v>53.3</v>
       </c>
       <c r="F2" t="n">
-        <v>2.63</v>
+        <v>5.25</v>
       </c>
       <c r="G2" t="n">
-        <v>0.75</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>19-03-2025 22:00</t>
+          <t>20-03-2025 14:00</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>COSTA-RICA</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>LIGA DE ASCENSO</t>
+          <t>PROFESSIONAL DEVELOPMENT LEAGUE</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>San Carlos FC - Inter San Carlos</t>
+          <t>Queens Park Rangers U21 - Watford U21</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>92</v>
+        <v>60</v>
       </c>
       <c r="F3" t="n">
         <v>2.63</v>
       </c>
       <c r="G3" t="n">
-        <v>1.42</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>19-03-2025 20:30</t>
+          <t>20-03-2025 14:00</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>EGYPT</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>LEAGUE CUP</t>
+          <t>WORLD CUP - QUALIFICATION AFRICA</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Zamalek SC - El Gouna FC</t>
+          <t>Mozambique - Uganda</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>66.7</v>
+        <v>50</v>
       </c>
       <c r="F4" t="n">
-        <v>2.35</v>
+        <v>2.95</v>
       </c>
       <c r="G4" t="n">
-        <v>0.57</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>19-03-2025 13:00</t>
+          <t>21-03-2025 09:30</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>POLAND</t>
+          <t>AUSTRALIA</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>III LIGA - GROUP 4</t>
+          <t>NEW SOUTH WALES NPL</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Korona Kielce II - Avia Świdnik</t>
+          <t>Manly United - NWS Spirit</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>73.3</v>
+        <v>50</v>
       </c>
       <c r="F5" t="n">
-        <v>1.75</v>
+        <v>2.5</v>
       </c>
       <c r="G5" t="n">
-        <v>0.28</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>19-03-2025 19:00</t>
+          <t>21-03-2025 09:30</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>SPAIN</t>
+          <t>AUSTRALIA</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>PRIMERA DIVISIÓN RFEF - GROUP 1</t>
+          <t>NEW SOUTH WALES NPL</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Celta De Vigo II - Lugo</t>
+          <t>Sutherland Sharks - Central Coast II</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>86.7</v>
+        <v>50</v>
       </c>
       <c r="F6" t="n">
-        <v>1.95</v>
+        <v>3.5</v>
       </c>
       <c r="G6" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>19-03-2025 14:30</t>
+          <t>21-03-2025 10:00</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>AUSTRALIA</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>FRIENDLIES</t>
+          <t>SOUTH AUSTRALIA NPL</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>India - Maldives</t>
+          <t>Adelaide Raiders - West Torrens Birkalla</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>66.7</v>
+        <v>70</v>
       </c>
       <c r="F7" t="n">
-        <v>1.75</v>
+        <v>2.88</v>
       </c>
       <c r="G7" t="n">
-        <v>0.17</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>20-03-2025 20:45</t>
+          <t>21-03-2025 10:00</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>AUSTRALIA</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>UEFA NATIONS LEAGUE</t>
+          <t>SOUTH AUSTRALIA NPL</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Netherlands - Spain</t>
+          <t>Modbury Jets - Campbelltown City</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>76.7</v>
+        <v>56.7</v>
       </c>
       <c r="F8" t="n">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="G8" t="n">
-        <v>0.38</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>20-03-2025 20:45</t>
+          <t>21-03-2025 09:45</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>AUSTRALIA</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>UEFA NATIONS LEAGUE</t>
+          <t>VICTORIA NPL</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Croatia - France</t>
+          <t>Dandenong City - Heidelberg United</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>83.3</v>
+        <v>53.3</v>
       </c>
       <c r="F9" t="n">
-        <v>1.75</v>
+        <v>1.91</v>
       </c>
       <c r="G9" t="n">
-        <v>0.46</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>20-03-2025 20:45</t>
+          <t>21-03-2025 10:30</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>AUSTRALIA</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>UEFA NATIONS LEAGUE</t>
+          <t>VICTORIA NPL</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Italy - Germany</t>
+          <t>Preston Lions - Oakleigh Cannons</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="F10" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="G10" t="n">
-        <v>0.65</v>
+        <v>-0.05</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>20-03-2025 20:45</t>
+          <t>21-03-2025 10:30</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>AUSTRALIA</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>UEFA NATIONS LEAGUE</t>
+          <t>VICTORIA NPL 2</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Austria - Serbia</t>
+          <t>Bentleigh Greens - Sunshine Georgies</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>70</v>
+        <v>53.3</v>
       </c>
       <c r="F11" t="n">
-        <v>2.1</v>
+        <v>2.88</v>
       </c>
       <c r="G11" t="n">
-        <v>0.47</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>20-03-2025 18:00</t>
+          <t>21-03-2025 19:00</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>AUSTRIA</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>UEFA NATIONS LEAGUE</t>
+          <t>REGIONALLIGA - OST</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Armenia - Georgia</t>
+          <t>Siegendorf - Favoritner AC</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="F12" t="n">
-        <v>1.85</v>
+        <v>3</v>
       </c>
       <c r="G12" t="n">
-        <v>0.29</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>20-03-2025 01:00</t>
+          <t>21-03-2025 19:30</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>JAMAICA</t>
+          <t>FRANCE</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>PREMIER LEAGUE</t>
+          <t>NATIONAL 1</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Waterhouse - Vere United</t>
+          <t>Dijon - Valenciennes</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>66.7</v>
+        <v>50</v>
       </c>
       <c r="F13" t="n">
-        <v>1.7</v>
+        <v>2.9</v>
       </c>
       <c r="G13" t="n">
-        <v>0.13</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>20-03-2025 17:00</t>
+          <t>21-03-2025 20:30</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>SPAIN</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>WORLD CUP - QUALIFICATION AFRICA</t>
+          <t>SEGUNDA DIVISIÓN</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Sierra Leone - Guinea-Bissau</t>
+          <t>Burgos - Almeria</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>70</v>
+        <v>53.3</v>
       </c>
       <c r="F14" t="n">
-        <v>2</v>
+        <v>2.55</v>
       </c>
       <c r="G14" t="n">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
+          <t>22-03-2025 00:30</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>WORLD</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>WORLD CUP - QUALIFICATION SOUTH AMERICA</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Uruguay - Argentina</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>53.3</v>
+      </c>
+      <c r="F15" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.54</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Country</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Championship</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Match</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Over 2.5 (%)</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Odds 2.5</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>EV over 2.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>20-03-2025 20:45</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>WORLD</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>UEFA NATIONS LEAGUE</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Greece - Scotland</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>80</v>
+      </c>
+      <c r="F2" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>19-03-2025 01:30</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>BRAZIL</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>COPA DO NORDESTE</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>CRB - Ferroviario</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>73.3</v>
+      </c>
+      <c r="F3" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>21-03-2025 23:00</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>BRAZIL</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>MARANHENSE</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Maranhão - Tuntum</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>80</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>21-03-2025 22:00</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>CHILE</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>COPA CHILE</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Union Espanola - A. Italiano</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>70</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>21-03-2025 19:00</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>GERMANY</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>REGIONALLIGA - NORDOST</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>FC Rot-Weiß Erfurt - Hertha BSC II</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>82.5</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>21-03-2025 19:00</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>MEXICO</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>LIGA PREMIER SERIE B</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Real Zamora - Pachuca Premier</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>73.3</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>21-03-2025 20:30</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>SPAIN</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>PRIMERA DIVISIÓN RFEF - GROUP 2</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Mérida AD - Yeclano</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>86.7</v>
+      </c>
+      <c r="F8" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.82</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Country</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Championship</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Match</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Btts (%)</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Odds btts</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>EV btts</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>20-03-2025 20:45</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>WORLD</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>UEFA NATIONS LEAGUE</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Netherlands - Spain</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>76.7</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>20-03-2025 20:45</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>WORLD</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>UEFA NATIONS LEAGUE</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Croatia - France</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>83.3</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>20-03-2025 20:45</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>WORLD</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>UEFA NATIONS LEAGUE</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Italy - Germany</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>90</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>20-03-2025 20:45</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>WORLD</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>UEFA NATIONS LEAGUE</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Austria - Serbia</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>70</v>
+      </c>
+      <c r="F5" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>20-03-2025 18:00</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>WORLD</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>UEFA NATIONS LEAGUE</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Armenia - Georgia</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>70</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.29</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>21-03-2025 00:00</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>JAMAICA</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>PREMIER LEAGUE</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Montego Bay United - Molynes United</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>65.8</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>20-03-2025 17:00</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>WORLD</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>WORLD CUP - QUALIFICATION AFRICA</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Sierra Leone - Guinea-Bissau</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>70</v>
+      </c>
+      <c r="F8" t="n">
+        <v>2</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
           <t>20-03-2025 20:00</t>
         </is>
       </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>WORLD</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>WORLD CUP - QUALIFICATION AFRICA</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Gabon - Seychelles</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>72</v>
+      </c>
+      <c r="F9" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="G9" t="n">
+        <v>2.02</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>20-03-2025 19:15</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>WORLD</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>WORLD CUP - QUALIFICATION ASIA</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Qatar - North Korea</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>92</v>
+      </c>
+      <c r="F10" t="n">
+        <v>2</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>22-03-2025 00:00</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>CHILE</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>COPA CHILE</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>San Luis - Everton De Vina</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>65</v>
+      </c>
+      <c r="F11" t="n">
+        <v>2</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>21-03-2025 01:00</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>ECUADOR</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>LIGA PRO SERIE B</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Vargas Torres - Guayaquil City FC</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>21-03-2025 19:30</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>FRANCE</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>NATIONAL 1</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Boulogne - Nimes</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>80</v>
+      </c>
+      <c r="F13" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>21-03-2025 20:45</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>IRELAND</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>FIRST DIVISION</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>UCD - Treaty United</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>21-03-2025 19:00</t>
+        </is>
+      </c>
       <c r="B15" t="inlineStr">
         <is>
+          <t>MEXICO</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>LIGA PREMIER SERIE B</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Real Zamora - Pachuca Premier</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>80</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>21-03-2025 20:30</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>SPAIN</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>PRIMERA DIVISIÓN RFEF - GROUP 2</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Mérida AD - Yeclano</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>88</v>
+      </c>
+      <c r="F16" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>21-03-2025 22:00</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
           <t>WORLD</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="C17" t="inlineStr">
         <is>
           <t>WORLD CUP - QUALIFICATION AFRICA</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>Gabon - Seychelles</t>
-        </is>
-      </c>
-      <c r="E15" t="n">
-        <v>72</v>
-      </c>
-      <c r="F15" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="G15" t="n">
-        <v>2.02</v>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Guinea - Somalia</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>76</v>
+      </c>
+      <c r="F17" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="G17" t="n">
+        <v>1.89</v>
       </c>
     </row>
   </sheetData>

--- a/scraper/data/betclever_predictions.xlsx
+++ b/scraper/data/betclever_predictions.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,113 +475,309 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>20-03-2025 17:00</t>
+          <t>21-03-2025 12:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>AUSTRALIA</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>WORLD CUP - QUALIFICATION AFRICA</t>
+          <t>WESTERN AUSTRALIA NPL</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Malawi - Namibia</t>
+          <t>Perth - Fremantle City</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F2" t="n">
-        <v>2.75</v>
+        <v>1.85</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>21-03-2025 12:00</t>
+          <t>21-03-2025 19:00</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>AUSTRALIA</t>
+          <t>AUSTRIA</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>WESTERN AUSTRALIA NPL</t>
+          <t>REGIONALLIGA - MITTE</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Perth - Fremantle City</t>
+          <t>Weiz - Deutschlandsberger SC</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>80</v>
+        <v>71.7</v>
       </c>
       <c r="F3" t="n">
-        <v>1.85</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>21-03-2025 20:30</t>
+          <t>21-03-2025 22:00</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SPAIN</t>
+          <t>MEXICO</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>PRIMERA DIVISIÓN RFEF - GROUP 2</t>
+          <t>LIGA PREMIER SERIE A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Mérida AD - Yeclano</t>
+          <t>Sporting Canamy - Zacatepec 1948</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>70</v>
+        <v>86.7</v>
       </c>
       <c r="F4" t="n">
-        <v>2.37</v>
+        <v>2.65</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>21-03-2025 03:30</t>
+          <t>21-03-2025 20:30</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>SPAIN</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>CONCACAF NATIONS LEAGUE</t>
+          <t>PRIMERA DIVISIÓN RFEF - GROUP 2</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Canada - Mexico</t>
+          <t>Mérida AD - Yeclano</t>
         </is>
       </c>
       <c r="E5" t="n">
+        <v>70</v>
+      </c>
+      <c r="F5" t="n">
+        <v>2.37</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>22-03-2025 15:00</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>ALGERIA</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>LIGUE 2</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>MSP Batna - IB Khémis El Khechna</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
         <v>73.3</v>
       </c>
-      <c r="F5" t="n">
-        <v>2.3</v>
+      <c r="F6" t="n">
+        <v>1.82</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>22-03-2025 16:00</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>ENGLAND</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>NATIONAL LEAGUE - NORTH</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Chorley - Alfreton Town</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>71.3</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1.91</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>22-03-2025 16:00</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>ESTONIA</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>ESILIIGA B</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Johvi Phoenix - Läänemaa Haapsalu</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>80</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1.85</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>22-03-2025 17:30</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>ITALY</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>SERIE C - GIRONE C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Juventus U23 - Foggia</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>73.3</v>
+      </c>
+      <c r="F9" t="n">
+        <v>2.2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>22-03-2025 15:00</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>ITALY</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>SERIE C - GIRONE C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Sorrento - Latina</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>73.3</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1.92</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>22-03-2025 16:00</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>SPAIN</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>PRIMERA DIVISIÓN RFEF - GROUP 2</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>AD Ceuta FC - Hércules</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>70</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>22-03-2025 20:00</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>URUGUAY</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>SEGUNDA DIVISIÓN</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>La Luz - Rampla Juniors</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>73.3</v>
+      </c>
+      <c r="F12" t="n">
+        <v>2.9</v>
       </c>
     </row>
   </sheetData>
@@ -595,7 +791,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -661,6 +857,62 @@
       </c>
       <c r="F2" t="n">
         <v>2.88</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>21-03-2025 19:00</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>DENMARK</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>2ND DIVISION - GROUP 1</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>HIK - FC Helsingor</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>73.3</v>
+      </c>
+      <c r="F3" t="n">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>22-03-2025 16:00</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>SCOTLAND</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>LEAGUE TWO</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Edinburgh City - East Fife</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>73.3</v>
+      </c>
+      <c r="F4" t="n">
+        <v>2.4</v>
       </c>
     </row>
   </sheetData>
@@ -674,7 +926,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -717,225 +969,449 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>20-03-2025 20:45</t>
+          <t>21-03-2025 19:30</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>FRANCE</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>UEFA NATIONS LEAGUE</t>
+          <t>NATIONAL 1</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Netherlands - Spain</t>
+          <t>Boulogne - Nimes</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>76.7</v>
+        <v>80</v>
       </c>
       <c r="F2" t="n">
-        <v>1.8</v>
+        <v>2.06</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>20-03-2025 20:45</t>
+          <t>21-03-2025 19:00</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>GERMANY</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>UEFA NATIONS LEAGUE</t>
+          <t>REGIONALLIGA - BAYERN</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Croatia - France</t>
+          <t>Augsburg II - Viktoria Aschaffenburg</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>83.3</v>
+        <v>78.3</v>
       </c>
       <c r="F3" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>20-03-2025 20:45</t>
+          <t>21-03-2025 19:00</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>MEXICO</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>UEFA NATIONS LEAGUE</t>
+          <t>LIGA PREMIER SERIE B</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Italy - Germany</t>
+          <t>Real Zamora - Pachuca Premier</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="F4" t="n">
-        <v>1.83</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>20-03-2025 19:15</t>
+          <t>21-03-2025 20:30</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>SPAIN</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>WORLD CUP - QUALIFICATION ASIA</t>
+          <t>PRIMERA DIVISIÓN RFEF - GROUP 2</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Qatar - North Korea</t>
+          <t>Mérida AD - Yeclano</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F5" t="n">
-        <v>2</v>
+        <v>1.85</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>21-03-2025 19:30</t>
+          <t>21-03-2025 14:00</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>FRANCE</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>NATIONAL 1</t>
+          <t>FRIENDLIES</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Boulogne - Nimes</t>
+          <t>Thailand - Afghanistan</t>
         </is>
       </c>
       <c r="E6" t="n">
         <v>80</v>
       </c>
       <c r="F6" t="n">
-        <v>2.06</v>
+        <v>1.95</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>21-03-2025 19:00</t>
+          <t>21-03-2025 13:30</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>MEXICO</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>LIGA PREMIER SERIE B</t>
+          <t>FRIENDLIES</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Real Zamora - Pachuca Premier</t>
+          <t>Singapore - Nepal</t>
         </is>
       </c>
       <c r="E7" t="n">
         <v>80</v>
       </c>
       <c r="F7" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>21-03-2025 20:30</t>
+          <t>21-03-2025 22:00</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>SPAIN</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>PRIMERA DIVISIÓN RFEF - GROUP 2</t>
+          <t>WORLD CUP - QUALIFICATION AFRICA</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Mérida AD - Yeclano</t>
+          <t>Guinea - Somalia</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="F8" t="n">
-        <v>1.85</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>21-03-2025 22:00</t>
+          <t>22-03-2025 13:30</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>WORLD CUP - QUALIFICATION AFRICA</t>
+          <t>LEAGUE TWO</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Guinea - Somalia</t>
+          <t>Notts County - Crewe</t>
         </is>
       </c>
       <c r="E9" t="n">
+        <v>80</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>22-03-2025 16:00</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>ENGLAND</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>NATIONAL LEAGUE</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Wealdstone - Woking</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>78.3</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>22-03-2025 16:00</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>SCOTLAND</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>CHAMPIONSHIP</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Falkirk - Airdrie United</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>80</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1.91</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>23-03-2025 00:00</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>CHILE</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>COPA CHILE</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>San Marcos De Arica - D. La Serena</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>100</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1.83</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>22-03-2025 16:00</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>ENGLAND</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>NATIONAL LEAGUE - NORTH</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Marine - Peterborough Sports</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
         <v>76</v>
       </c>
-      <c r="F9" t="n">
-        <v>3.8</v>
+      <c r="F13" t="n">
+        <v>1.77</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>22-03-2025 16:00</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>ENGLAND</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>NATIONAL LEAGUE - SOUTH</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Truro City - Salisbury</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>78.90000000000001</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1.78</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>22-03-2025 14:00</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>GERMANY</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>REGIONALLIGA - SUDWEST</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Freiburg II - FC 08 Villingen</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>76</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1.73</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>22-03-2025 15:00</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>ITALY</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>SERIE C - GIRONE A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Giana Erminio - Triestina</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>84.5</v>
+      </c>
+      <c r="F16" t="n">
+        <v>1.91</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>22-03-2025 22:00</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>USL CHAMPIONSHIP</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>New Mexico United - El Paso Locomotive</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>80</v>
+      </c>
+      <c r="F17" t="n">
+        <v>2.12</v>
       </c>
     </row>
   </sheetData>
@@ -949,7 +1425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1002,69 +1478,69 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>20-03-2025 20:45</t>
+          <t>21-03-2025 09:45</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>AUSTRALIA</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>UEFA NATIONS LEAGUE</t>
+          <t>VICTORIA NPL</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Greece - Scotland</t>
+          <t>Dandenong City - Heidelberg United</t>
         </is>
       </c>
       <c r="E2" t="n">
+        <v>90</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="G2" t="n">
         <v>80</v>
       </c>
-      <c r="F2" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="G2" t="n">
-        <v>33.3</v>
-      </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>21-03-2025 09:45</t>
+          <t>21-03-2025 19:00</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>AUSTRALIA</t>
+          <t>AUSTRIA</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>VICTORIA NPL</t>
+          <t>REGIONALLIGA - MITTE</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Dandenong City - Heidelberg United</t>
+          <t>Weiz - Deutschlandsberger SC</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>90</v>
+        <v>88.8</v>
       </c>
       <c r="F3" t="n">
         <v>1.5</v>
       </c>
       <c r="G3" t="n">
-        <v>80</v>
+        <v>67.5</v>
       </c>
       <c r="H3" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="4">
@@ -1148,93 +1624,467 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>REGIONALLIGA - NORDOST</t>
+          <t>REGIONALLIGA - BAYERN</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>FC Rot-Weiß Erfurt - Hertha BSC II</t>
+          <t>Augsburg II - Viktoria Aschaffenburg</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>82.5</v>
+        <v>77.5</v>
       </c>
       <c r="F6" t="n">
-        <v>1.7</v>
+        <v>1.57</v>
       </c>
       <c r="G6" t="n">
-        <v>50</v>
+        <v>61.3</v>
       </c>
       <c r="H6" t="n">
-        <v>2.75</v>
+        <v>2.45</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>21-03-2025 20:30</t>
+          <t>21-03-2025 19:00</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>SPAIN</t>
+          <t>GERMANY</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>PRIMERA DIVISIÓN RFEF - GROUP 2</t>
+          <t>REGIONALLIGA - NORDOST</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Mérida AD - Yeclano</t>
+          <t>FC Rot-Weiß Erfurt - Hertha BSC II</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>86.7</v>
+        <v>82.5</v>
       </c>
       <c r="F7" t="n">
-        <v>2.1</v>
+        <v>1.7</v>
       </c>
       <c r="G7" t="n">
-        <v>46.7</v>
+        <v>50</v>
       </c>
       <c r="H7" t="n">
-        <v>3.7</v>
+        <v>2.75</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>21-03-2025 22:00</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>MEXICO</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>LIGA PREMIER SERIE A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Sporting Canamy - Zacatepec 1948</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>85</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="G8" t="n">
+        <v>75</v>
+      </c>
+      <c r="H8" t="n">
+        <v>2.55</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>21-03-2025 20:30</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>SPAIN</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>PRIMERA DIVISIÓN RFEF - GROUP 2</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Mérida AD - Yeclano</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>86.7</v>
+      </c>
+      <c r="F9" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="G9" t="n">
+        <v>46.7</v>
+      </c>
+      <c r="H9" t="n">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>21-03-2025 13:30</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>WORLD</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>FRIENDLIES</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Singapore - Nepal</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>86.7</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="G10" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="H10" t="n">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>22-03-2025 15:00</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>CZECH-REPUBLIC</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>3. LIGA - CFL B</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Ústí Nad Orlicí - Sokol Brozany</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>75</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="G11" t="n">
+        <v>70</v>
+      </c>
+      <c r="H11" t="n">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>22-03-2025 14:00</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>DENMARK</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>2ND DIVISION - GROUP 1</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Skive - Aarhus Fremad</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>80</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="G12" t="n">
+        <v>18.3</v>
+      </c>
+      <c r="H12" t="n">
+        <v>3.25</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>22-03-2025 14:00</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>GERMANY</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>REGIONALLIGA - BAYERN</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Vilzing - Würzburger Kickers</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>80</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="G13" t="n">
+        <v>60</v>
+      </c>
+      <c r="H13" t="n">
+        <v>2.45</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>22-03-2025 02:00</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>MEXICO</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>LIGA PREMIER SERIE B</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>FC Santiago - Calor De San Pedro</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>70</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="G14" t="n">
+        <v>60</v>
+      </c>
+      <c r="H14" t="n">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>22-03-2025 12:00</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>TURKEY</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>2. LIG</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Menemen Belediyespor - Ankara Demirspor</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>80</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="G15" t="n">
+        <v>33.3</v>
+      </c>
+      <c r="H15" t="n">
+        <v>2.88</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>23-03-2025 00:30</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>MAJOR LEAGUE SOCCER</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Orlando City SC - DC United</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>85</v>
+      </c>
+      <c r="F16" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="G16" t="n">
+        <v>60</v>
+      </c>
+      <c r="H16" t="n">
+        <v>2.38</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>23-03-2025 00:30</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>MAJOR LEAGUE SOCCER</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Philadelphia Union - St. Louis City</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>75</v>
+      </c>
+      <c r="F17" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="G17" t="n">
+        <v>60</v>
+      </c>
+      <c r="H17" t="n">
+        <v>2.62</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
           <t>21-03-2025 02:00</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B18" t="inlineStr">
         <is>
           <t>USA</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C18" t="inlineStr">
         <is>
           <t>US OPEN CUP</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="D18" t="inlineStr">
         <is>
           <t>Flatirons Rush - Union Omaha</t>
         </is>
       </c>
-      <c r="E8" t="n">
+      <c r="E18" t="n">
         <v>93.3</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F18" t="n">
         <v>1.5</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G18" t="n">
         <v>73.3</v>
       </c>
-      <c r="H8" t="n">
+      <c r="H18" t="n">
         <v>2.25</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>22-03-2025 01:00</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>WORLD</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>FRIENDLIES</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Puerto Rico - Dominican Republic</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>93.3</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="G19" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="H19" t="n">
+        <v>2.6</v>
       </c>
     </row>
   </sheetData>
@@ -1248,7 +2098,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:G87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1296,590 +2146,590 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>20-03-2025 20:45</t>
+          <t>21-03-2025 10:45</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>AUSTRALIA</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>UEFA NATIONS LEAGUE</t>
+          <t>SOUTH AUSTRALIA NPL</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Austria - Serbia</t>
+          <t>Adelaide Comets - Para Hills Knights</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>60</v>
+        <v>62.3</v>
       </c>
       <c r="F2" t="n">
         <v>1.75</v>
       </c>
       <c r="G2" t="n">
-        <v>0.05</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>20-03-2025 20:45</t>
+          <t>21-03-2025 09:30</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>AUSTRALIA</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>UEFA NATIONS LEAGUE</t>
+          <t>VICTORIA NPL</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Greece - Scotland</t>
+          <t>Melbourne Knights - Melbourne Victory II</t>
         </is>
       </c>
       <c r="E3" t="n">
         <v>60</v>
       </c>
       <c r="F3" t="n">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="G3" t="n">
-        <v>0.14</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>20-03-2025 20:45</t>
+          <t>21-03-2025 12:00</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>AUSTRALIA</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>UEFA NATIONS LEAGUE</t>
+          <t>WESTERN AUSTRALIA NPL</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Kosovo - Iceland</t>
+          <t>Perth - Fremantle City</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="F4" t="n">
-        <v>2.3</v>
+        <v>1.85</v>
       </c>
       <c r="G4" t="n">
-        <v>0.38</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>20-03-2025 23:00</t>
+          <t>21-03-2025 19:00</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>AUSTRIA</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>CEARENSE - 2</t>
+          <t>REGIONALLIGA - MITTE</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Maranguape - Caucaia</t>
+          <t>Wildon - SK Vorwarts Steyr</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F5" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="G5" t="n">
-        <v>0.41</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>20-03-2025 23:00</t>
+          <t>21-03-2025 19:00</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>AUSTRIA</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>COPA DO NORDESTE</t>
+          <t>REGIONALLIGA - MITTE</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Altos - Moto Club</t>
+          <t>Weiz - Deutschlandsberger SC</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>56.7</v>
+        <v>71.7</v>
       </c>
       <c r="F6" t="n">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="G6" t="n">
-        <v>0.02</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>20-03-2025 22:30</t>
+          <t>21-03-2025 18:00</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>JAMAICA</t>
+          <t>AUSTRIA</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>PREMIER LEAGUE</t>
+          <t>REGIONALLIGA - WEST</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Chapelton - Humble Lions</t>
+          <t>SVG Reichenau - Pinzgau Saalfelden</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>50</v>
+        <v>56.7</v>
       </c>
       <c r="F7" t="n">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.03</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>21-03-2025 00:00</t>
+          <t>21-03-2025 19:00</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>US OPEN CUP</t>
+          <t>CBF BRASILEIRO U20</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Long Island Rough Riders - Charlotte Independence</t>
+          <t>Athletico PR U20 - Flamengo U20</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>50</v>
+        <v>63.3</v>
       </c>
       <c r="F8" t="n">
-        <v>3.35</v>
+        <v>2.4</v>
       </c>
       <c r="G8" t="n">
-        <v>0.68</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>20-03-2025 17:00</t>
+          <t>21-03-2025 22:00</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>CHILE</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>WORLD CUP - QUALIFICATION AFRICA</t>
+          <t>COPA CHILE</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Malawi - Namibia</t>
+          <t>Huachipato - O'Higgins</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>70</v>
+        <v>53.3</v>
       </c>
       <c r="F9" t="n">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="G9" t="n">
-        <v>0.92</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>21-03-2025 10:45</t>
+          <t>21-03-2025 15:00</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>AUSTRALIA</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>SOUTH AUSTRALIA NPL</t>
+          <t>PROFESSIONAL DEVELOPMENT LEAGUE</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Adelaide Comets - Para Hills Knights</t>
+          <t>Millwall U21 - Bristol City U21</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>62.3</v>
+        <v>63.3</v>
       </c>
       <c r="F10" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="G10" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>21-03-2025 09:30</t>
+          <t>21-03-2025 14:00</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>AUSTRALIA</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>VICTORIA NPL</t>
+          <t>PROFESSIONAL DEVELOPMENT LEAGUE</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Melbourne Knights - Melbourne Victory II</t>
+          <t>Birmingham City U21 - Peterborough United U21</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F11" t="n">
         <v>2.1</v>
       </c>
       <c r="G11" t="n">
-        <v>0.26</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>21-03-2025 12:00</t>
+          <t>21-03-2025 20:00</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>AUSTRALIA</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>WESTERN AUSTRALIA NPL</t>
+          <t>PROFESSIONAL DEVELOPMENT LEAGUE</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Perth - Fremantle City</t>
+          <t>Colchester United U21 - Ipswich Town U21</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>80</v>
+        <v>56.7</v>
       </c>
       <c r="F12" t="n">
-        <v>1.85</v>
+        <v>5</v>
       </c>
       <c r="G12" t="n">
-        <v>0.48</v>
+        <v>1.84</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>21-03-2025 19:00</t>
+          <t>21-03-2025 19:30</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>AUSTRIA</t>
+          <t>FRANCE</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>REGIONALLIGA - MITTE</t>
+          <t>NATIONAL 1</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Wildon - SK Vorwarts Steyr</t>
+          <t>Le Mans - Gobelins</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>50</v>
+        <v>66.7</v>
       </c>
       <c r="F13" t="n">
-        <v>2.3</v>
+        <v>1.78</v>
       </c>
       <c r="G13" t="n">
-        <v>0.15</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>21-03-2025 22:00</t>
+          <t>21-03-2025 19:30</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>CHILE</t>
+          <t>FRANCE</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>COPA CHILE</t>
+          <t>NATIONAL 1</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Huachipato - O'Higgins</t>
+          <t>Boulogne - Nimes</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>53.3</v>
+        <v>60</v>
       </c>
       <c r="F14" t="n">
-        <v>2.25</v>
+        <v>2.17</v>
       </c>
       <c r="G14" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>21-03-2025 03:00</t>
+          <t>21-03-2025 19:00</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>COSTA-RICA</t>
+          <t>GERMANY</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>LIGA DE ASCENSO</t>
+          <t>REGIONALLIGA - NORDOST</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Guadalupe FC - Cariari Pococi</t>
+          <t>FC Rot-Weiß Erfurt - Hertha BSC II</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>50</v>
+        <v>56.7</v>
       </c>
       <c r="F15" t="n">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="G15" t="n">
-        <v>0.05</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>21-03-2025 15:00</t>
+          <t>21-03-2025 11:35</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>ISRAEL</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>PROFESSIONAL DEVELOPMENT LEAGUE</t>
+          <t>LIGA ALEF</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Millwall U21 - Bristol City U21</t>
+          <t>FC Jerusalem - Maccabi Yavne</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>63.3</v>
+        <v>50</v>
       </c>
       <c r="F16" t="n">
-        <v>1.7</v>
+        <v>2.5</v>
       </c>
       <c r="G16" t="n">
-        <v>0.08</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>21-03-2025 19:30</t>
+          <t>21-03-2025 22:00</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>FRANCE</t>
+          <t>MEXICO</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>NATIONAL 1</t>
+          <t>LIGA PREMIER SERIE A</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Le Mans - Gobelins</t>
+          <t>Sporting Canamy - Zacatepec 1948</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>66.7</v>
+        <v>86.7</v>
       </c>
       <c r="F17" t="n">
-        <v>1.78</v>
+        <v>2.65</v>
       </c>
       <c r="G17" t="n">
-        <v>0.19</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>21-03-2025 19:30</t>
+          <t>21-03-2025 15:00</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>FRANCE</t>
+          <t>SLOVAKIA</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>NATIONAL 1</t>
+          <t>2. LIGA</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Boulogne - Nimes</t>
+          <t>Žilina II - Púchov</t>
         </is>
       </c>
       <c r="E18" t="n">
         <v>60</v>
       </c>
       <c r="F18" t="n">
-        <v>2.17</v>
+        <v>1.75</v>
       </c>
       <c r="G18" t="n">
-        <v>0.3</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>21-03-2025 19:00</t>
+          <t>21-03-2025 15:30</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>GERMANY</t>
+          <t>SLOVENIA</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>REGIONALLIGA - NORDOST</t>
+          <t>2. SNL</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>FC Rot-Weiß Erfurt - Hertha BSC II</t>
+          <t>Bistrica - Brinje-Grosuplje</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>56.7</v>
+        <v>66.7</v>
       </c>
       <c r="F19" t="n">
-        <v>1.95</v>
+        <v>2.45</v>
       </c>
       <c r="G19" t="n">
-        <v>0.11</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>21-03-2025 02:00</t>
+          <t>21-03-2025 20:30</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>MEXICO</t>
+          <t>SPAIN</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>LIGA DE EXPANSIÓN MX</t>
+          <t>PRIMERA DIVISIÓN RFEF - GROUP 2</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Correcaminos Uat - Venados FC</t>
+          <t>Real Madrid II - Real Murcia</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>53.3</v>
+        <v>66.7</v>
       </c>
       <c r="F20" t="n">
-        <v>3</v>
+        <v>2.3</v>
       </c>
       <c r="G20" t="n">
-        <v>0.6</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="21">
@@ -1900,141 +2750,2063 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Real Madrid II - Real Murcia</t>
+          <t>Mérida AD - Yeclano</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>66.7</v>
+        <v>70</v>
       </c>
       <c r="F21" t="n">
-        <v>2.3</v>
+        <v>2.37</v>
       </c>
       <c r="G21" t="n">
-        <v>0.53</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>21-03-2025 20:30</t>
+          <t>21-03-2025 20:45</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>SPAIN</t>
+          <t>WALES</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>PRIMERA DIVISIÓN RFEF - GROUP 2</t>
+          <t>PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Mérida AD - Yeclano</t>
+          <t>Haverfordwest County AFC - Penybont</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="F22" t="n">
-        <v>2.37</v>
+        <v>2.3</v>
       </c>
       <c r="G22" t="n">
-        <v>0.66</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>21-03-2025 02:00</t>
+          <t>21-03-2025 20:45</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>US OPEN CUP</t>
+          <t>FRIENDLIES</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Flatirons Rush - Union Omaha</t>
+          <t>Northern Ireland - Switzerland</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>50</v>
+        <v>53.3</v>
       </c>
       <c r="F23" t="n">
-        <v>5.5</v>
+        <v>4.33</v>
       </c>
       <c r="G23" t="n">
-        <v>1.75</v>
+        <v>1.31</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>21-03-2025 03:30</t>
+          <t>22-03-2025 16:00</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>CONCACAF NATIONS LEAGUE</t>
+          <t>LEAGUE TWO</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Canada - Mexico</t>
+          <t>AFC Wimbledon - Barrow</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>73.3</v>
+        <v>56.7</v>
       </c>
       <c r="F24" t="n">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="G24" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>21-03-2025 20:45</t>
+          <t>22-03-2025 16:00</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
+          <t>ENGLAND</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>LEAGUE TWO</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Cheltenham - Milton Keynes Dons</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>51</v>
+      </c>
+      <c r="F25" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>22-03-2025 16:00</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>ENGLAND</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>LEAGUE TWO</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Fleetwood Town - Tranmere</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="F26" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>22-03-2025 16:00</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>ENGLAND</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>LEAGUE TWO</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Swindon Town - Accrington ST</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>51</v>
+      </c>
+      <c r="F27" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="G27" t="n">
+        <v>-0.03</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>22-03-2025 16:00</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>SCOTLAND</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>CHAMPIONSHIP</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Morton - Queen's Park</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>60</v>
+      </c>
+      <c r="F28" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.29</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>22-03-2025 18:30</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>SCOTLAND</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>LEAGUE ONE</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Cove Rangers - Stenhousemuir</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>51.3</v>
+      </c>
+      <c r="F29" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>22-03-2025 16:00</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>SCOTLAND</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>LEAGUE TWO</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Stirling Albion - Peterhead</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>50</v>
+      </c>
+      <c r="F30" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>22-03-2025 15:00</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>ALGERIA</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>LIGUE 2</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>MSP Batna - IB Khémis El Khechna</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>73.3</v>
+      </c>
+      <c r="F31" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>23-03-2025 00:30</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>ARGENTINA</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>COPA ARGENTINA</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Central Cordoba De Santiago - Quilmes</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="F32" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>22-03-2025 20:00</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>ARGENTINA</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>PRIMERA NACIONAL</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>San Telmo - CA Estudiantes</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>60</v>
+      </c>
+      <c r="F33" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>22-03-2025 21:00</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>ARGENTINA</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>PRIMERA NACIONAL</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Gimnasia Jujuy - Temperley</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>60</v>
+      </c>
+      <c r="F34" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>22-03-2025 09:00</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>AUSTRALIA</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>NEW SOUTH WALES NPL 2</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Dulwich Hill - Mounties Wanderers</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>53.3</v>
+      </c>
+      <c r="F35" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>22-03-2025 09:00</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>AUSTRALIA</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>NEW SOUTH WALES NPL 2</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Bonnyrigg White Eagles - SD Raiders</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="F36" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="G36" t="n">
+        <v>1.89</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>22-03-2025 05:30</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>AUSTRALIA</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>SOUTH AUSTRALIA NPL</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Playford City Patriots - Adelaide City</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>60</v>
+      </c>
+      <c r="F37" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>22-03-2025 05:30</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>AUSTRALIA</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>SOUTH AUSTRALIA STATE LEAGUE 1</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Salisbury United - Adelaide Blue Eagles</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="F38" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>22-03-2025 08:00</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>AUSTRALIA</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>WESTERN AUSTRALIA NPL</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Perth RedStar - Armadale</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>53.3</v>
+      </c>
+      <c r="F39" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="G39" t="n">
+        <v>-0.01</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>22-03-2025 08:00</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>AUSTRALIA</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>WESTERN AUSTRALIA NPL</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Floreat Athena - Bayswater City</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
+        <v>60</v>
+      </c>
+      <c r="F40" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.58</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>22-03-2025 08:00</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>AUSTRALIA</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>WESTERN AUSTRALIA NPL</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Stirling Lions - Perth Glory II</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v>50</v>
+      </c>
+      <c r="F41" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>22-03-2025 14:30</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>BULGARIA</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>SECOND LEAGUE</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Marek - Pirin Blagoevgrad</t>
+        </is>
+      </c>
+      <c r="E42" t="n">
+        <v>60</v>
+      </c>
+      <c r="F42" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>22-03-2025 14:30</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>BULGARIA</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>SECOND LEAGUE</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Botev Plovdiv II - CSKA 1948 Sofia II</t>
+        </is>
+      </c>
+      <c r="E43" t="n">
+        <v>63.3</v>
+      </c>
+      <c r="F43" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.55</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>22-03-2025 14:30</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>BULGARIA</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>SECOND LEAGUE</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Ludogorets II - CSKA Sofia II</t>
+        </is>
+      </c>
+      <c r="E44" t="n">
+        <v>53.3</v>
+      </c>
+      <c r="F44" t="n">
+        <v>2</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>22-03-2025 14:30</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>BULGARIA</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>SECOND LEAGUE</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Nesebar - Spartak Pleven</t>
+        </is>
+      </c>
+      <c r="E45" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="F45" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>23-03-2025 00:20</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>COLOMBIA</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>PRIMERA A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Deportivo Pereira - Once Caldas</t>
+        </is>
+      </c>
+      <c r="E46" t="n">
+        <v>53.3</v>
+      </c>
+      <c r="F46" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>22-03-2025 01:30</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>COLOMBIA</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>PRIMERA B</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Popayan - Real Santander</t>
+        </is>
+      </c>
+      <c r="E47" t="n">
+        <v>53.3</v>
+      </c>
+      <c r="F47" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="G47" t="n">
+        <v>-0.04</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>22-03-2025 15:30</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>CROATIA</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>FIRST NL</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Dubrava Zagreb - Jarun</t>
+        </is>
+      </c>
+      <c r="E48" t="n">
+        <v>50</v>
+      </c>
+      <c r="F48" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>22-03-2025 15:00</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>CZECH-REPUBLIC</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>3. LIGA - CFL B</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Ústí Nad Orlicí - Sokol Brozany</t>
+        </is>
+      </c>
+      <c r="E49" t="n">
+        <v>53.3</v>
+      </c>
+      <c r="F49" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>22-03-2025 14:00</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>DENMARK</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>2ND DIVISION - GROUP 1</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Skive - Aarhus Fremad</t>
+        </is>
+      </c>
+      <c r="E50" t="n">
+        <v>57.7</v>
+      </c>
+      <c r="F50" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>22-03-2025 20:30</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>EGYPT</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>LEAGUE CUP</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Future FC - Smouha SC</t>
+        </is>
+      </c>
+      <c r="E51" t="n">
+        <v>51.7</v>
+      </c>
+      <c r="F51" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>22-03-2025 16:00</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>ENGLAND</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>NATIONAL LEAGUE - NORTH</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Buxton - King's Lynn Town</t>
+        </is>
+      </c>
+      <c r="E52" t="n">
+        <v>50</v>
+      </c>
+      <c r="F52" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="G52" t="n">
+        <v>-0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>22-03-2025 16:00</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>ENGLAND</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>NATIONAL LEAGUE - NORTH</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Chorley - Alfreton Town</t>
+        </is>
+      </c>
+      <c r="E53" t="n">
+        <v>71.3</v>
+      </c>
+      <c r="F53" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>22-03-2025 16:00</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>ENGLAND</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>NATIONAL LEAGUE - NORTH</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Leamington - South Shields</t>
+        </is>
+      </c>
+      <c r="E54" t="n">
+        <v>60</v>
+      </c>
+      <c r="F54" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>22-03-2025 16:00</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>ENGLAND</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>NATIONAL LEAGUE - SOUTH</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Eastbourne Borough - Farnborough</t>
+        </is>
+      </c>
+      <c r="E55" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="F55" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>22-03-2025 16:00</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>ENGLAND</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>NATIONAL LEAGUE - SOUTH</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Hemel Hempstead Town - Aveley</t>
+        </is>
+      </c>
+      <c r="E56" t="n">
+        <v>53.3</v>
+      </c>
+      <c r="F56" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="G56" t="n">
+        <v>-0.08</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>22-03-2025 16:00</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>ENGLAND</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>NATIONAL LEAGUE - SOUTH</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>St Albans City - AFC Hornchurch</t>
+        </is>
+      </c>
+      <c r="E57" t="n">
+        <v>50</v>
+      </c>
+      <c r="F57" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>22-03-2025 16:00</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>ESTONIA</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>ESILIIGA B</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Johvi Phoenix - Läänemaa Haapsalu</t>
+        </is>
+      </c>
+      <c r="E58" t="n">
+        <v>80</v>
+      </c>
+      <c r="F58" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>22-03-2025 14:00</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>GERMANY</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>REGIONALLIGA - BAYERN</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Hankofen-Hailing - Nürnberg II</t>
+        </is>
+      </c>
+      <c r="E59" t="n">
+        <v>60</v>
+      </c>
+      <c r="F59" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="G59" t="n">
+        <v>1.16</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>22-03-2025 14:00</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>GERMANY</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>REGIONALLIGA - SUDWEST</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Hessen Kassel - Göppinger SV</t>
+        </is>
+      </c>
+      <c r="E60" t="n">
+        <v>60</v>
+      </c>
+      <c r="F60" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>22-03-2025 14:00</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>GERMANY</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>REGIONALLIGA - SUDWEST</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Bahlinger SC - Hoffenheim II</t>
+        </is>
+      </c>
+      <c r="E61" t="n">
+        <v>60</v>
+      </c>
+      <c r="F61" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="G61" t="n">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>22-03-2025 14:00</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>GERMANY</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>REGIONALLIGA - SUDWEST</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Stuttgarter Kickers - Kickers Offenbach</t>
+        </is>
+      </c>
+      <c r="E62" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="F62" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>22-03-2025 17:30</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>ITALY</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>SERIE C - GIRONE B</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Pontedera - Ascoli</t>
+        </is>
+      </c>
+      <c r="E63" t="n">
+        <v>60</v>
+      </c>
+      <c r="F63" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>22-03-2025 15:00</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>ITALY</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>SERIE C - GIRONE B</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Città Di Campobasso - Athletic Carpi</t>
+        </is>
+      </c>
+      <c r="E64" t="n">
+        <v>60</v>
+      </c>
+      <c r="F64" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>22-03-2025 17:30</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>ITALY</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>SERIE C - GIRONE C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Juventus U23 - Foggia</t>
+        </is>
+      </c>
+      <c r="E65" t="n">
+        <v>73.3</v>
+      </c>
+      <c r="F65" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>22-03-2025 15:00</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>ITALY</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>SERIE C - GIRONE C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Sorrento - Latina</t>
+        </is>
+      </c>
+      <c r="E66" t="n">
+        <v>73.3</v>
+      </c>
+      <c r="F66" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>22-03-2025 15:00</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>ITALY</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>SERIE C - GIRONE C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Cavese - Trapani 1905</t>
+        </is>
+      </c>
+      <c r="E67" t="n">
+        <v>50</v>
+      </c>
+      <c r="F67" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>23-03-2025 00:30</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>PARAGUAY</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>DIVISION PROFESIONAL - APERTURA</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Olimpia - Nacional Asuncion</t>
+        </is>
+      </c>
+      <c r="E68" t="n">
+        <v>60</v>
+      </c>
+      <c r="F68" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>22-03-2025 08:30</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>SOUTH-KOREA</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>K LEAGUE 1</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Gwangju FC - Pohang Steelers</t>
+        </is>
+      </c>
+      <c r="E69" t="n">
+        <v>60</v>
+      </c>
+      <c r="F69" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>22-03-2025 19:00</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>SPAIN</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>PRIMERA DIVISIÓN RFEF - GROUP 1</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Zamora - Gimnastic</t>
+        </is>
+      </c>
+      <c r="E70" t="n">
+        <v>50</v>
+      </c>
+      <c r="F70" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>22-03-2025 18:00</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>SPAIN</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>PRIMERA DIVISIÓN RFEF - GROUP 2</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Atlético Madrid II - Real Betis II</t>
+        </is>
+      </c>
+      <c r="E71" t="n">
+        <v>60</v>
+      </c>
+      <c r="F71" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>22-03-2025 16:00</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>SPAIN</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>PRIMERA DIVISIÓN RFEF - GROUP 2</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>AD Ceuta FC - Hércules</t>
+        </is>
+      </c>
+      <c r="E72" t="n">
+        <v>70</v>
+      </c>
+      <c r="F72" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>22-03-2025 18:00</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>SPAIN</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>PRIMERA DIVISIÓN RFEF - GROUP 2</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>Recreativo Huelva - Sanluqueño</t>
+        </is>
+      </c>
+      <c r="E73" t="n">
+        <v>60</v>
+      </c>
+      <c r="F73" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>22-03-2025 21:00</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>SPAIN</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>SEGUNDA DIVISIÓN</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Granada CF - Oviedo</t>
+        </is>
+      </c>
+      <c r="E74" t="n">
+        <v>53.3</v>
+      </c>
+      <c r="F74" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>22-03-2025 18:30</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>SPAIN</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>SEGUNDA DIVISIÓN</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>Malaga - Racing Ferrol</t>
+        </is>
+      </c>
+      <c r="E75" t="n">
+        <v>50</v>
+      </c>
+      <c r="F75" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="G75" t="n">
+        <v>-0.08</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>22-03-2025 18:00</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>SPAIN</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>SEGUNDA DIVISIÓN RFEF - GROUP 2</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>Real Sociedad III - Subiza</t>
+        </is>
+      </c>
+      <c r="E76" t="n">
+        <v>50</v>
+      </c>
+      <c r="F76" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="G76" t="n">
+        <v>-0.12</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>22-03-2025 16:00</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>SPAIN</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>SEGUNDA DIVISIÓN RFEF - GROUP 2</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Real Zaragoza II - Anguiano</t>
+        </is>
+      </c>
+      <c r="E77" t="n">
+        <v>50</v>
+      </c>
+      <c r="F77" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="G77" t="n">
+        <v>-0.1</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>22-03-2025 16:30</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>SPAIN</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>SEGUNDA DIVISIÓN RFEF - GROUP 4</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>Juventud Torremolinos - Linares Deportivo</t>
+        </is>
+      </c>
+      <c r="E78" t="n">
+        <v>50</v>
+      </c>
+      <c r="F78" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="G78" t="n">
+        <v>-0.12</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>22-03-2025 13:00</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>SPAIN</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>SEGUNDA DIVISIÓN RFEF - GROUP 4</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Cádiz II - Villanovense</t>
+        </is>
+      </c>
+      <c r="E79" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="F79" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="G79" t="n">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>22-03-2025 18:00</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>SPAIN</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>SEGUNDA DIVISIÓN RFEF - GROUP 5</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>SS Reyes - Real Madrid III</t>
+        </is>
+      </c>
+      <c r="E80" t="n">
+        <v>60</v>
+      </c>
+      <c r="F80" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="G80" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>22-03-2025 12:00</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>TURKEY</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>2. LIG</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>Tuzlaspor - İnegölspor</t>
+        </is>
+      </c>
+      <c r="E81" t="n">
+        <v>60</v>
+      </c>
+      <c r="F81" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>22-03-2025 21:30</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>MAJOR LEAGUE SOCCER</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>Minnesota United FC - Los Angeles Galaxy</t>
+        </is>
+      </c>
+      <c r="E82" t="n">
+        <v>53.3</v>
+      </c>
+      <c r="F82" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="G82" t="n">
+        <v>-0.01</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>23-03-2025 00:30</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>MAJOR LEAGUE SOCCER</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>Columbus Crew - New York City FC</t>
+        </is>
+      </c>
+      <c r="E83" t="n">
+        <v>53.3</v>
+      </c>
+      <c r="F83" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="G83" t="n">
+        <v>-0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>23-03-2025 00:30</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>MAJOR LEAGUE SOCCER</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>New York Red Bulls - Toronto FC</t>
+        </is>
+      </c>
+      <c r="E84" t="n">
+        <v>60</v>
+      </c>
+      <c r="F84" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="G84" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>21-03-2025 02:00</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>US OPEN CUP</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>Flatirons Rush - Union Omaha</t>
+        </is>
+      </c>
+      <c r="E85" t="n">
+        <v>50</v>
+      </c>
+      <c r="F85" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="G85" t="n">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>22-03-2025 20:00</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>URUGUAY</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>SEGUNDA DIVISIÓN</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>La Luz - Rampla Juniors</t>
+        </is>
+      </c>
+      <c r="E86" t="n">
+        <v>73.3</v>
+      </c>
+      <c r="F86" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="G86" t="n">
+        <v>1.13</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>22-03-2025 01:00</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
           <t>WORLD</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="C87" t="inlineStr">
         <is>
           <t>FRIENDLIES</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>Northern Ireland - Switzerland</t>
-        </is>
-      </c>
-      <c r="E25" t="n">
-        <v>53.3</v>
-      </c>
-      <c r="F25" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="G25" t="n">
-        <v>1.31</v>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>Puerto Rico - Dominican Republic</t>
+        </is>
+      </c>
+      <c r="E87" t="n">
+        <v>50</v>
+      </c>
+      <c r="F87" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="G87" t="n">
+        <v>1.3</v>
       </c>
     </row>
   </sheetData>
@@ -2048,7 +4820,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2096,100 +4868,100 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>20-03-2025 18:00</t>
+          <t>21-03-2025 09:30</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>AUSTRALIA</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>UEFA NATIONS LEAGUE</t>
+          <t>NEW SOUTH WALES NPL</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Türkiye - Hungary</t>
+          <t>Manly United - NWS Spirit</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>53.3</v>
+        <v>50</v>
       </c>
       <c r="F2" t="n">
-        <v>5.25</v>
+        <v>2.5</v>
       </c>
       <c r="G2" t="n">
-        <v>1.8</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>20-03-2025 14:00</t>
+          <t>21-03-2025 10:00</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>AUSTRALIA</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>PROFESSIONAL DEVELOPMENT LEAGUE</t>
+          <t>SOUTH AUSTRALIA NPL</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Queens Park Rangers U21 - Watford U21</t>
+          <t>Adelaide Raiders - West Torrens Birkalla</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="F3" t="n">
-        <v>2.63</v>
+        <v>2.88</v>
       </c>
       <c r="G3" t="n">
-        <v>0.58</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>20-03-2025 14:00</t>
+          <t>21-03-2025 10:00</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>AUSTRALIA</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>WORLD CUP - QUALIFICATION AFRICA</t>
+          <t>SOUTH AUSTRALIA NPL</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Mozambique - Uganda</t>
+          <t>Modbury Jets - Campbelltown City</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>50</v>
+        <v>56.7</v>
       </c>
       <c r="F4" t="n">
-        <v>2.95</v>
+        <v>2.5</v>
       </c>
       <c r="G4" t="n">
-        <v>0.48</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>21-03-2025 09:30</t>
+          <t>21-03-2025 09:45</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -2199,28 +4971,28 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>NEW SOUTH WALES NPL</t>
+          <t>VICTORIA NPL</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Manly United - NWS Spirit</t>
+          <t>Dandenong City - Heidelberg United</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>50</v>
+        <v>53.3</v>
       </c>
       <c r="F5" t="n">
-        <v>2.5</v>
+        <v>1.91</v>
       </c>
       <c r="G5" t="n">
-        <v>0.25</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>21-03-2025 09:30</t>
+          <t>21-03-2025 10:30</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -2230,28 +5002,28 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>NEW SOUTH WALES NPL</t>
+          <t>VICTORIA NPL</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Sutherland Sharks - Central Coast II</t>
+          <t>Preston Lions - Oakleigh Cannons</t>
         </is>
       </c>
       <c r="E6" t="n">
         <v>50</v>
       </c>
       <c r="F6" t="n">
-        <v>3.5</v>
+        <v>1.91</v>
       </c>
       <c r="G6" t="n">
-        <v>0.75</v>
+        <v>-0.05</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>21-03-2025 10:00</t>
+          <t>21-03-2025 10:30</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -2261,146 +5033,146 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>SOUTH AUSTRALIA NPL</t>
+          <t>VICTORIA NPL 2</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Adelaide Raiders - West Torrens Birkalla</t>
+          <t>Bentleigh Greens - Sunshine Georgies</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>70</v>
+        <v>53.3</v>
       </c>
       <c r="F7" t="n">
         <v>2.88</v>
       </c>
       <c r="G7" t="n">
-        <v>1.02</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>21-03-2025 10:00</t>
+          <t>21-03-2025 19:00</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>AUSTRALIA</t>
+          <t>AUSTRIA</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>SOUTH AUSTRALIA NPL</t>
+          <t>REGIONALLIGA - OST</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Modbury Jets - Campbelltown City</t>
+          <t>Siegendorf - Favoritner AC</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>56.7</v>
+        <v>50</v>
       </c>
       <c r="F8" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="G8" t="n">
-        <v>0.42</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>21-03-2025 09:45</t>
+          <t>21-03-2025 19:00</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>AUSTRALIA</t>
+          <t>DENMARK</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>VICTORIA NPL</t>
+          <t>2ND DIVISION - GROUP 1</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Dandenong City - Heidelberg United</t>
+          <t>HIK - FC Helsingor</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>53.3</v>
+        <v>73.3</v>
       </c>
       <c r="F9" t="n">
-        <v>1.91</v>
+        <v>2.1</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>21-03-2025 10:30</t>
+          <t>21-03-2025 19:30</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>AUSTRALIA</t>
+          <t>FRANCE</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>VICTORIA NPL</t>
+          <t>NATIONAL 1</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Preston Lions - Oakleigh Cannons</t>
+          <t>Dijon - Valenciennes</t>
         </is>
       </c>
       <c r="E10" t="n">
         <v>50</v>
       </c>
       <c r="F10" t="n">
-        <v>1.91</v>
+        <v>2.9</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.05</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>21-03-2025 10:30</t>
+          <t>21-03-2025 19:00</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>AUSTRALIA</t>
+          <t>FRANCE</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>VICTORIA NPL 2</t>
+          <t>NATIONAL 2 - GROUP C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Bentleigh Greens - Sunshine Georgies</t>
+          <t>Epinal - Chambly Thelle FC</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>53.3</v>
+        <v>60</v>
       </c>
       <c r="F11" t="n">
-        <v>2.88</v>
+        <v>2.25</v>
       </c>
       <c r="G11" t="n">
-        <v>0.54</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="12">
@@ -2411,120 +5183,1081 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>AUSTRIA</t>
+          <t>GERMANY</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>REGIONALLIGA - OST</t>
+          <t>REGIONALLIGA - BAYERN</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Siegendorf - Favoritner AC</t>
+          <t>Augsburg II - Viktoria Aschaffenburg</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>50</v>
+        <v>53.3</v>
       </c>
       <c r="F12" t="n">
-        <v>3</v>
+        <v>5.75</v>
       </c>
       <c r="G12" t="n">
-        <v>0.5</v>
+        <v>2.06</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>21-03-2025 19:30</t>
+          <t>21-03-2025 19:00</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>FRANCE</t>
+          <t>GERMANY</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>NATIONAL 1</t>
+          <t>REGIONALLIGA - SUDWEST</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Dijon - Valenciennes</t>
+          <t>Eintracht Frankfurt II - FC Astoria Walldorf</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>50</v>
+        <v>53.3</v>
       </c>
       <c r="F13" t="n">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="G13" t="n">
-        <v>0.45</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>21-03-2025 20:30</t>
+          <t>21-03-2025 11:00</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>SPAIN</t>
+          <t>ISRAEL</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>SEGUNDA DIVISIÓN</t>
+          <t>LIGA ALEF</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Burgos - Almeria</t>
+          <t>Maccabi Shaarayim - Shimshon Tel Aviv</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>53.3</v>
+        <v>57.7</v>
       </c>
       <c r="F14" t="n">
-        <v>2.55</v>
+        <v>1.75</v>
       </c>
       <c r="G14" t="n">
-        <v>0.36</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
+          <t>21-03-2025 19:45</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>POLAND</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>III LIGA - GROUP 1</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Unia Skierniewice - Victoria Sulejówek</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="F15" t="n">
+        <v>8</v>
+      </c>
+      <c r="G15" t="n">
+        <v>4.34</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>21-03-2025 20:30</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>SPAIN</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>SEGUNDA DIVISIÓN</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Burgos - Almeria</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>53.3</v>
+      </c>
+      <c r="F16" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>21-03-2025 21:00</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>WALES</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>PREMIER LEAGUE</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Aberystwyth Town - Briton Ferry</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>56.7</v>
+      </c>
+      <c r="F17" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
           <t>22-03-2025 00:30</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B18" t="inlineStr">
         <is>
           <t>WORLD</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="C18" t="inlineStr">
         <is>
           <t>WORLD CUP - QUALIFICATION SOUTH AMERICA</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="D18" t="inlineStr">
         <is>
           <t>Uruguay - Argentina</t>
         </is>
       </c>
-      <c r="E15" t="n">
+      <c r="E18" t="n">
         <v>53.3</v>
       </c>
-      <c r="F15" t="n">
+      <c r="F18" t="n">
         <v>2.88</v>
       </c>
-      <c r="G15" t="n">
+      <c r="G18" t="n">
         <v>0.54</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>22-03-2025 16:00</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>ENGLAND</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>LEAGUE ONE</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Northampton - Blackpool</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>55.7</v>
+      </c>
+      <c r="F19" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>22-03-2025 18:30</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>ENGLAND</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>NATIONAL LEAGUE</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Altrincham - Barnet</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>53.3</v>
+      </c>
+      <c r="F20" t="n">
+        <v>2</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>22-03-2025 16:00</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>ENGLAND</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>NATIONAL LEAGUE</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Hartlepool - Boston United</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>60</v>
+      </c>
+      <c r="F21" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="G21" t="n">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>22-03-2025 16:00</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>ENGLAND</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>NATIONAL LEAGUE</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Oldham - FC Halifax Town</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>55.7</v>
+      </c>
+      <c r="F22" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>22-03-2025 16:00</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>SCOTLAND</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>LEAGUE ONE</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Dumbarton - Queen Of The South</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>53.3</v>
+      </c>
+      <c r="F23" t="n">
+        <v>2</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>22-03-2025 16:00</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>SCOTLAND</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>LEAGUE TWO</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Edinburgh City - East Fife</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>73.3</v>
+      </c>
+      <c r="F24" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>22-03-2025 09:00</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>AUSTRALIA</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>NEW SOUTH WALES NPL</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Rockdale City Suns - Blacktown City</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>60</v>
+      </c>
+      <c r="F25" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>22-03-2025 09:00</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>AUSTRALIA</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>NEW SOUTH WALES NPL 2</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Inter Lions - Bankstown City Lions</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>60</v>
+      </c>
+      <c r="F26" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>22-03-2025 05:30</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>AUSTRALIA</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>SOUTH AUSTRALIA STATE LEAGUE 1</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Fulham United - Cumberland United</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>60</v>
+      </c>
+      <c r="F27" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>22-03-2025 09:30</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>AUSTRALIA</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>SOUTH AUSTRALIA STATE LEAGUE 1</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Adelaide Cobras - West Adelaide</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>53.3</v>
+      </c>
+      <c r="F28" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>22-03-2025 08:00</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>AUSTRALIA</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>WESTERN AUSTRALIA NPL</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Sorrento - Olympic Kingsway</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>60</v>
+      </c>
+      <c r="F29" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="G29" t="n">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>22-03-2025 14:30</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>BULGARIA</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>SECOND LEAGUE</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Yantra 2019 - Sportist Svoge</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>51.7</v>
+      </c>
+      <c r="F30" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="G30" t="n">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>22-03-2025 22:00</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>CHILE</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>COPA CHILE</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Universidad De Concepcion - Curico Unido</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>50</v>
+      </c>
+      <c r="F31" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.55</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>22-03-2025 10:30</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>CZECH-REPUBLIC</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>3. LIGA - CFL A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Slovan Velvary - Příbram</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>60</v>
+      </c>
+      <c r="F32" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>22-03-2025 20:30</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>EGYPT</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>SECOND LEAGUE</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Abu Qair Semad - El Seka El Hadid</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>50</v>
+      </c>
+      <c r="F33" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="G33" t="n">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>22-03-2025 20:30</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>EGYPT</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>SECOND LEAGUE</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>La Viena FC - Kahraba Ismailia</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>50</v>
+      </c>
+      <c r="F34" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>22-03-2025 16:00</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>ENGLAND</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>NATIONAL LEAGUE - NORTH</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Radcliffe - Brackley Town</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>50</v>
+      </c>
+      <c r="F35" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="G35" t="n">
+        <v>-0.05</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>22-03-2025 16:00</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>ENGLAND</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>NATIONAL LEAGUE - SOUTH</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Boreham Wood - Dorking Wanderers</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>50</v>
+      </c>
+      <c r="F36" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.55</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>22-03-2025 16:00</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>ENGLAND</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>NATIONAL LEAGUE - SOUTH</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Slough Town - Enfield Town</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>50</v>
+      </c>
+      <c r="F37" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>22-03-2025 19:30</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>FRANCE</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>NATIONAL 1</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Quevilly - Aubagne</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>60</v>
+      </c>
+      <c r="F38" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>22-03-2025 14:00</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>GERMANY</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>REGIONALLIGA - BAYERN</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Greuther Fürth II - Türkgücü-Ataspor</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>53.3</v>
+      </c>
+      <c r="F39" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="G39" t="n">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>22-03-2025 14:00</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>GERMANY</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>REGIONALLIGA - SUDWEST</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Eintracht Trier - FSV Frankfurt</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="F40" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>22-03-2025 19:30</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>ITALY</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>SERIE C - GIRONE B</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Arezzo - Milan II</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v>50</v>
+      </c>
+      <c r="F41" t="n">
+        <v>5</v>
+      </c>
+      <c r="G41" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>22-03-2025 16:00</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>NORTHERN-IRELAND</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>PREMIERSHIP</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Glenavon FC - Larne</t>
+        </is>
+      </c>
+      <c r="E42" t="n">
+        <v>60</v>
+      </c>
+      <c r="F42" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.29</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>22-03-2025 16:00</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>NORTHERN-IRELAND</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>PREMIERSHIP</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Loughgall - Ballymena United</t>
+        </is>
+      </c>
+      <c r="E43" t="n">
+        <v>62.3</v>
+      </c>
+      <c r="F43" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>22-03-2025 16:15</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>SPAIN</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>SEGUNDA DIVISIÓN</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Elche - Eldense</t>
+        </is>
+      </c>
+      <c r="E44" t="n">
+        <v>53.3</v>
+      </c>
+      <c r="F44" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="G44" t="n">
+        <v>2.09</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>22-03-2025 16:00</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>SPAIN</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>SEGUNDA DIVISIÓN RFEF - GROUP 2</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Real Zaragoza II - Anguiano</t>
+        </is>
+      </c>
+      <c r="E45" t="n">
+        <v>50</v>
+      </c>
+      <c r="F45" t="n">
+        <v>4</v>
+      </c>
+      <c r="G45" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>22-03-2025 14:00</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>URUGUAY</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>SEGUNDA DIVISIÓN</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Fenix - Tacuarembo</t>
+        </is>
+      </c>
+      <c r="E46" t="n">
+        <v>50</v>
+      </c>
+      <c r="F46" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.9</v>
       </c>
     </row>
   </sheetData>
@@ -2538,7 +6271,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2586,38 +6319,38 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>20-03-2025 20:45</t>
+          <t>19-03-2025 01:30</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>UEFA NATIONS LEAGUE</t>
+          <t>COPA DO NORDESTE</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Greece - Scotland</t>
+          <t>CRB - Ferroviario</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>80</v>
+        <v>73.3</v>
       </c>
       <c r="F2" t="n">
         <v>2.2</v>
       </c>
       <c r="G2" t="n">
-        <v>0.76</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>19-03-2025 01:30</t>
+          <t>21-03-2025 23:00</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -2627,84 +6360,84 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>COPA DO NORDESTE</t>
+          <t>MARANHENSE</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>CRB - Ferroviario</t>
+          <t>Maranhão - Tuntum</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>73.3</v>
+        <v>80</v>
       </c>
       <c r="F3" t="n">
-        <v>2.2</v>
+        <v>1.73</v>
       </c>
       <c r="G3" t="n">
-        <v>0.61</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>21-03-2025 23:00</t>
+          <t>21-03-2025 22:00</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>CHILE</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>MARANHENSE</t>
+          <t>COPA CHILE</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Maranhão - Tuntum</t>
+          <t>Union Espanola - A. Italiano</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="F4" t="n">
         <v>1.73</v>
       </c>
       <c r="G4" t="n">
-        <v>0.38</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>21-03-2025 22:00</t>
+          <t>21-03-2025 19:00</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>CHILE</t>
+          <t>GERMANY</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>COPA CHILE</t>
+          <t>REGIONALLIGA - NORDOST</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Union Espanola - A. Italiano</t>
+          <t>FC Rot-Weiß Erfurt - Hertha BSC II</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>70</v>
+        <v>82.5</v>
       </c>
       <c r="F5" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="G5" t="n">
-        <v>0.21</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="6">
@@ -2715,24 +6448,24 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>GERMANY</t>
+          <t>MEXICO</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>REGIONALLIGA - NORDOST</t>
+          <t>LIGA PREMIER SERIE B</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>FC Rot-Weiß Erfurt - Hertha BSC II</t>
+          <t>Real Zamora - Pachuca Premier</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>82.5</v>
+        <v>73.3</v>
       </c>
       <c r="F6" t="n">
-        <v>1.7</v>
+        <v>1.91</v>
       </c>
       <c r="G6" t="n">
         <v>0.4</v>
@@ -2741,63 +6474,497 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>21-03-2025 19:00</t>
+          <t>21-03-2025 20:30</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>MEXICO</t>
+          <t>SPAIN</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>LIGA PREMIER SERIE B</t>
+          <t>PRIMERA DIVISIÓN RFEF - GROUP 2</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Real Zamora - Pachuca Premier</t>
+          <t>Mérida AD - Yeclano</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>73.3</v>
+        <v>86.7</v>
       </c>
       <c r="F7" t="n">
-        <v>1.91</v>
+        <v>2.1</v>
       </c>
       <c r="G7" t="n">
-        <v>0.4</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>21-03-2025 20:30</t>
+          <t>22-03-2025 16:00</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>SPAIN</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>PRIMERA DIVISIÓN RFEF - GROUP 2</t>
+          <t>LEAGUE TWO</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Mérida AD - Yeclano</t>
+          <t>Swindon Town - Accrington ST</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>86.7</v>
+        <v>70</v>
       </c>
       <c r="F8" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>22-03-2025 18:30</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>SCOTLAND</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>LEAGUE ONE</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Cove Rangers - Stenhousemuir</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>76.8</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>22-03-2025 19:30</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>ARGENTINA</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>PRIMERA C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Central Cordoba - Deportivo Muñiz</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>70</v>
+      </c>
+      <c r="F10" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>22-03-2025 20:30</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>BRAZIL</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>CATARINENSE - 1</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Avai - Chapecoense-sc</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>70</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>22-03-2025 14:30</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>BULGARIA</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>SECOND LEAGUE</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Nesebar - Spartak Pleven</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>70</v>
+      </c>
+      <c r="F12" t="n">
+        <v>2</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>22-03-2025 22:00</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>CHILE</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>COPA CHILE</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Universidad De Concepcion - Curico Unido</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>72.5</v>
+      </c>
+      <c r="F13" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>22-03-2025 14:00</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>DENMARK</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>2ND DIVISION - GROUP 1</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Skive - Aarhus Fremad</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>80</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>22-03-2025 16:00</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>ENGLAND</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>NATIONAL LEAGUE - NORTH</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Chorley - Alfreton Town</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>76.8</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>22-03-2025 14:00</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>GERMANY</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>REGIONALLIGA - SUDWEST</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Hessen Kassel - Göppinger SV</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>73.3</v>
+      </c>
+      <c r="F16" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>22-03-2025 14:00</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>GERMANY</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>REGIONALLIGA - SUDWEST</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Barockstadt Fulda-Lehn. - SGV Freiberg</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>72.5</v>
+      </c>
+      <c r="F17" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>22-03-2025 02:00</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>MEXICO</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>LIGA PREMIER SERIE B</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>FC Santiago - Calor De San Pedro</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>70</v>
+      </c>
+      <c r="F18" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>22-03-2025 16:00</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>NORTHERN-IRELAND</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>PREMIERSHIP</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Cliftonville FC - Carrick Rangers</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>70</v>
+      </c>
+      <c r="F19" t="n">
+        <v>2</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>23-03-2025 00:30</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>PARAGUAY</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>DIVISION PROFESIONAL - APERTURA</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Olimpia - Nacional Asuncion</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>70</v>
+      </c>
+      <c r="F20" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.57</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>22-03-2025 12:00</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>TURKEY</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>2. LIG</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Menemen Belediyespor - Ankara Demirspor</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>80</v>
+      </c>
+      <c r="F21" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>22-03-2025 22:00</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>USL CHAMPIONSHIP</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>New Mexico United - El Paso Locomotive</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>75</v>
+      </c>
+      <c r="F22" t="n">
         <v>2.1</v>
       </c>
-      <c r="G8" t="n">
-        <v>0.82</v>
+      <c r="G22" t="n">
+        <v>0.58</v>
       </c>
     </row>
   </sheetData>
@@ -2811,7 +6978,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2859,497 +7026,1303 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>20-03-2025 20:45</t>
+          <t>22-03-2025 00:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>CHILE</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>UEFA NATIONS LEAGUE</t>
+          <t>COPA CHILE</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Netherlands - Spain</t>
+          <t>San Luis - Everton De Vina</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>76.7</v>
+        <v>65</v>
       </c>
       <c r="F2" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="G2" t="n">
-        <v>0.38</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>20-03-2025 20:45</t>
+          <t>21-03-2025 19:30</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>FRANCE</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>UEFA NATIONS LEAGUE</t>
+          <t>NATIONAL 1</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Croatia - France</t>
+          <t>Boulogne - Nimes</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>83.3</v>
+        <v>80</v>
       </c>
       <c r="F3" t="n">
-        <v>1.75</v>
+        <v>2.06</v>
       </c>
       <c r="G3" t="n">
-        <v>0.46</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>20-03-2025 20:45</t>
+          <t>21-03-2025 19:00</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>GERMANY</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>UEFA NATIONS LEAGUE</t>
+          <t>REGIONALLIGA - BAYERN</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Italy - Germany</t>
+          <t>Augsburg II - Viktoria Aschaffenburg</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>90</v>
+        <v>78.3</v>
       </c>
       <c r="F4" t="n">
-        <v>1.83</v>
+        <v>1.7</v>
       </c>
       <c r="G4" t="n">
-        <v>0.65</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>20-03-2025 20:45</t>
+          <t>21-03-2025 20:45</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>IRELAND</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>UEFA NATIONS LEAGUE</t>
+          <t>FIRST DIVISION</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Austria - Serbia</t>
+          <t>UCD - Treaty United</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>70</v>
+        <v>66.7</v>
       </c>
       <c r="F5" t="n">
-        <v>2.1</v>
+        <v>1.83</v>
       </c>
       <c r="G5" t="n">
-        <v>0.47</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>20-03-2025 18:00</t>
+          <t>21-03-2025 11:30</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>ISRAEL</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>UEFA NATIONS LEAGUE</t>
+          <t>LIGA ALEF</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Armenia - Georgia</t>
+          <t>Hapoel Herzliya - Holon Yermiyahu</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>70</v>
+        <v>71.7</v>
       </c>
       <c r="F6" t="n">
         <v>1.85</v>
       </c>
       <c r="G6" t="n">
-        <v>0.29</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>21-03-2025 00:00</t>
+          <t>21-03-2025 11:30</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>JAMAICA</t>
+          <t>ITALY</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>PREMIER LEAGUE</t>
+          <t>CAMPIONATO PRIMAVERA - 2</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Montego Bay United - Molynes United</t>
+          <t>Pescara U19 - Benevento U19</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>65.8</v>
+        <v>70</v>
       </c>
       <c r="F7" t="n">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="G7" t="n">
-        <v>0.2</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>20-03-2025 17:00</t>
+          <t>21-03-2025 19:00</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>MEXICO</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>WORLD CUP - QUALIFICATION AFRICA</t>
+          <t>LIGA PREMIER SERIE B</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Sierra Leone - Guinea-Bissau</t>
+          <t>Real Zamora - Pachuca Premier</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F8" t="n">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="G8" t="n">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>20-03-2025 20:00</t>
+          <t>21-03-2025 15:30</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>SLOVENIA</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>WORLD CUP - QUALIFICATION AFRICA</t>
+          <t>2. SNL</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Gabon - Seychelles</t>
+          <t>Bistrica - Brinje-Grosuplje</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F9" t="n">
-        <v>4.2</v>
+        <v>1.83</v>
       </c>
       <c r="G9" t="n">
-        <v>2.02</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>20-03-2025 19:15</t>
+          <t>21-03-2025 20:30</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>SPAIN</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>WORLD CUP - QUALIFICATION ASIA</t>
+          <t>PRIMERA DIVISIÓN RFEF - GROUP 2</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Qatar - North Korea</t>
+          <t>Mérida AD - Yeclano</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F10" t="n">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="G10" t="n">
-        <v>0.84</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>22-03-2025 00:00</t>
+          <t>21-03-2025 20:45</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>CHILE</t>
+          <t>WALES</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>COPA CHILE</t>
+          <t>PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>San Luis - Everton De Vina</t>
+          <t>Newtown AFC - GAP Connah S Quay FC</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="F11" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="G11" t="n">
-        <v>0.3</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>21-03-2025 01:00</t>
+          <t>21-03-2025 14:00</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>ECUADOR</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>LIGA PRO SERIE B</t>
+          <t>FRIENDLIES</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Vargas Torres - Guayaquil City FC</t>
+          <t>Thailand - Afghanistan</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>66.7</v>
+        <v>80</v>
       </c>
       <c r="F12" t="n">
-        <v>1.83</v>
+        <v>1.95</v>
       </c>
       <c r="G12" t="n">
-        <v>0.22</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>21-03-2025 19:30</t>
+          <t>21-03-2025 13:30</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>FRANCE</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>NATIONAL 1</t>
+          <t>FRIENDLIES</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Boulogne - Nimes</t>
+          <t>Singapore - Nepal</t>
         </is>
       </c>
       <c r="E13" t="n">
         <v>80</v>
       </c>
       <c r="F13" t="n">
-        <v>2.06</v>
+        <v>1.75</v>
       </c>
       <c r="G13" t="n">
-        <v>0.65</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>21-03-2025 20:45</t>
+          <t>21-03-2025 22:00</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>IRELAND</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>FIRST DIVISION</t>
+          <t>WORLD CUP - QUALIFICATION AFRICA</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>UCD - Treaty United</t>
+          <t>Guinea - Somalia</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>66.7</v>
+        <v>76</v>
       </c>
       <c r="F14" t="n">
-        <v>1.83</v>
+        <v>3.8</v>
       </c>
       <c r="G14" t="n">
-        <v>0.22</v>
+        <v>1.89</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>21-03-2025 19:00</t>
+          <t>22-03-2025 16:00</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>MEXICO</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>LIGA PREMIER SERIE B</t>
+          <t>LEAGUE TWO</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Real Zamora - Pachuca Premier</t>
+          <t>Cheltenham - Milton Keynes Dons</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>80</v>
+        <v>67.8</v>
       </c>
       <c r="F15" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="G15" t="n">
-        <v>0.36</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>21-03-2025 20:30</t>
+          <t>22-03-2025 16:00</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>SPAIN</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>PRIMERA DIVISIÓN RFEF - GROUP 2</t>
+          <t>LEAGUE TWO</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Mérida AD - Yeclano</t>
+          <t>Chesterfield - Harrogate Town</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="F16" t="n">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="G16" t="n">
-        <v>0.63</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>21-03-2025 22:00</t>
+          <t>22-03-2025 16:00</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>WORLD CUP - QUALIFICATION AFRICA</t>
+          <t>LEAGUE TWO</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Guinea - Somalia</t>
+          <t>Grimsby - Newport County</t>
         </is>
       </c>
       <c r="E17" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="F17" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>22-03-2025 13:30</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>ENGLAND</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>LEAGUE TWO</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Notts County - Crewe</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>80</v>
+      </c>
+      <c r="F18" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>22-03-2025 16:00</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>ENGLAND</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>NATIONAL LEAGUE</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>AFC Fylde - Forest Green</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>72</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>22-03-2025 16:00</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>ENGLAND</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>NATIONAL LEAGUE</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Aldershot Town - Ebbsfleet United</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>65.59999999999999</v>
+      </c>
+      <c r="F20" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>22-03-2025 16:00</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>ENGLAND</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>NATIONAL LEAGUE</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Maidenhead - Rochdale</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>73.3</v>
+      </c>
+      <c r="F21" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>22-03-2025 16:00</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>ENGLAND</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>NATIONAL LEAGUE</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Wealdstone - Woking</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>78.3</v>
+      </c>
+      <c r="F22" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>22-03-2025 16:00</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>SCOTLAND</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>CHAMPIONSHIP</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Ayr Utd - Hamilton Academical</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>70</v>
+      </c>
+      <c r="F23" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>22-03-2025 16:00</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>SCOTLAND</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>CHAMPIONSHIP</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Falkirk - Airdrie United</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>80</v>
+      </c>
+      <c r="F24" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>22-03-2025 16:00</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>SCOTLAND</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>LEAGUE ONE</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Inverness CT - Alloa Athletic</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="F25" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>22-03-2025 16:00</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>SCOTLAND</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>LEAGUE ONE</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Montrose - Annan Athletic</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="F26" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>22-03-2025 19:30</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>ARGENTINA</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>PRIMERA C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Central Cordoba - Deportivo Muñiz</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>70</v>
+      </c>
+      <c r="F27" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>23-03-2025 00:00</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>CHILE</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>COPA CHILE</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>San Marcos De Arica - D. La Serena</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>100</v>
+      </c>
+      <c r="F28" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>22-03-2025 20:30</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>EGYPT</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>SECOND LEAGUE</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Tanta SC - Tersana</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>72</v>
+      </c>
+      <c r="F29" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>22-03-2025 16:00</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>ENGLAND</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>NATIONAL LEAGUE - NORTH</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Marine - Peterborough Sports</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
         <v>76</v>
       </c>
-      <c r="F17" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="G17" t="n">
-        <v>1.89</v>
+      <c r="F30" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>22-03-2025 16:00</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>ENGLAND</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>NATIONAL LEAGUE - NORTH</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Radcliffe - Brackley Town</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>72</v>
+      </c>
+      <c r="F31" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>22-03-2025 16:00</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>ENGLAND</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>NATIONAL LEAGUE - SOUTH</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Truro City - Salisbury</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>78.90000000000001</v>
+      </c>
+      <c r="F32" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>22-03-2025 14:00</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>GERMANY</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>REGIONALLIGA - SUDWEST</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Freiburg II - FC 08 Villingen</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>76</v>
+      </c>
+      <c r="F33" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>22-03-2025 12:00</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>GREECE</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>SUPER LEAGUE 2</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Panachaiki FC - Panargiakos</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="F34" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>22-03-2025 12:00</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>INDIA</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>I-LEAGUE</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>SC Bengaluru - Gokulam</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>68</v>
+      </c>
+      <c r="F35" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>22-03-2025 15:00</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>ITALY</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>SERIE C - GIRONE A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Giana Erminio - Triestina</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>84.5</v>
+      </c>
+      <c r="F36" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>22-03-2025 17:30</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>ITALY</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>SERIE C - GIRONE B</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Pontedera - Ascoli</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>68</v>
+      </c>
+      <c r="F37" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>22-03-2025 19:30</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>ITALY</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>SERIE C - GIRONE B</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Arezzo - Milan II</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>68</v>
+      </c>
+      <c r="F38" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>23-03-2025 00:30</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>PARAGUAY</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>DIVISION PROFESIONAL - APERTURA</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Olimpia - Nacional Asuncion</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>73.3</v>
+      </c>
+      <c r="F39" t="n">
+        <v>2</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>22-03-2025 19:00</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>SPAIN</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>SEGUNDA DIVISIÓN RFEF - GROUP 4</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Águilas - Xerez</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
+        <v>68</v>
+      </c>
+      <c r="F40" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>22-03-2025 22:00</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>USL CHAMPIONSHIP</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>New Mexico United - El Paso Locomotive</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v>80</v>
+      </c>
+      <c r="F41" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>22-03-2025 23:00</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>URUGUAY</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>PRIMERA DIVISIÓN - APERTURA</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Club Nacional - Plaza Colonia</t>
+        </is>
+      </c>
+      <c r="E42" t="n">
+        <v>70</v>
+      </c>
+      <c r="F42" t="n">
+        <v>2</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>22-03-2025 14:00</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>URUGUAY</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>SEGUNDA DIVISIÓN</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Fenix - Tacuarembo</t>
+        </is>
+      </c>
+      <c r="E43" t="n">
+        <v>72</v>
+      </c>
+      <c r="F43" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.25</v>
       </c>
     </row>
   </sheetData>

--- a/scraper/data/betclever_predictions.xlsx
+++ b/scraper/data/betclever_predictions.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,309 +475,505 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>21-03-2025 12:00</t>
+          <t>24-03-2025 00:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>AUSTRALIA</t>
+          <t>ARGENTINA</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>WESTERN AUSTRALIA NPL</t>
+          <t>PRIMERA C</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Perth - Fremantle City</t>
+          <t>Estrella Del Sur - Deportivo Camioneros</t>
         </is>
       </c>
       <c r="E2" t="n">
         <v>80</v>
       </c>
       <c r="F2" t="n">
-        <v>1.85</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>21-03-2025 19:00</t>
+          <t>23-03-2025 21:00</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>AUSTRIA</t>
+          <t>ARGENTINA</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>REGIONALLIGA - MITTE</t>
+          <t>PRIMERA NACIONAL</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Weiz - Deutschlandsberger SC</t>
+          <t>Club Atlético Güemes - Deportivo Maipu</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>71.7</v>
+        <v>80</v>
       </c>
       <c r="F3" t="n">
-        <v>2.2</v>
+        <v>1.97</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>21-03-2025 22:00</t>
+          <t>23-03-2025 20:30</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MEXICO</t>
+          <t>ARGENTINA</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>LIGA PREMIER SERIE A</t>
+          <t>TORNEO FEDERAL A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Sporting Canamy - Zacatepec 1948</t>
+          <t>Villa Mitre - Germinal De Rawson</t>
         </is>
       </c>
       <c r="E4" t="n">
         <v>86.7</v>
       </c>
       <c r="F4" t="n">
-        <v>2.65</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>21-03-2025 20:30</t>
+          <t>23-03-2025 20:00</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SPAIN</t>
+          <t>ARGENTINA</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>PRIMERA DIVISIÓN RFEF - GROUP 2</t>
+          <t>TORNEO FEDERAL A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Mérida AD - Yeclano</t>
+          <t>Independiente De Chivilcoy - El Linqueño</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>70</v>
+        <v>75.7</v>
       </c>
       <c r="F5" t="n">
-        <v>2.37</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>22-03-2025 15:00</t>
+          <t>23-03-2025 15:00</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ALGERIA</t>
+          <t>BELGIUM</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>LIGUE 2</t>
+          <t>FIRST AMATEUR DIVISION</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>MSP Batna - IB Khémis El Khechna</t>
+          <t>Union Namur - Sporting Charleroi II</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>73.3</v>
+        <v>70</v>
       </c>
       <c r="F6" t="n">
-        <v>1.82</v>
+        <v>2.37</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>22-03-2025 16:00</t>
+          <t>23-03-2025 15:30</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>BOSNIA</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE - NORTH</t>
+          <t>1ST LEAGUE - FBIH</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Chorley - Alfreton Town</t>
+          <t>TOŠK Tešanj - Gornji Rahić</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>71.3</v>
+        <v>73.3</v>
       </c>
       <c r="F7" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>22-03-2025 16:00</t>
+          <t>23-03-2025 22:00</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ESTONIA</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>ESILIIGA B</t>
+          <t>PAULISTA - A2</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Johvi Phoenix - Läänemaa Haapsalu</t>
+          <t>Ituano - Capivariano</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>80</v>
+        <v>73.3</v>
       </c>
       <c r="F8" t="n">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>22-03-2025 17:30</t>
+          <t>23-03-2025 15:00</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ITALY</t>
+          <t>CZECH-REPUBLIC</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>SERIE C - GIRONE C</t>
+          <t>3. LIGA - MSFL</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Juventus U23 - Foggia</t>
+          <t>Znojmo - Uherský Brod</t>
         </is>
       </c>
       <c r="E9" t="n">
         <v>73.3</v>
       </c>
       <c r="F9" t="n">
-        <v>2.2</v>
+        <v>3.45</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>22-03-2025 15:00</t>
+          <t>23-03-2025 15:00</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ITALY</t>
+          <t>CZECH-REPUBLIC</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>SERIE C - GIRONE C</t>
+          <t>4. LIGA - DIVIZIE C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Sorrento - Latina</t>
+          <t>Horní Ředice - Cidlina Novy Bydzov</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>73.3</v>
+        <v>90</v>
       </c>
       <c r="F10" t="n">
-        <v>1.92</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>22-03-2025 16:00</t>
+          <t>23-03-2025 16:00</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>SPAIN</t>
+          <t>GHANA</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>PRIMERA DIVISIÓN RFEF - GROUP 2</t>
+          <t>PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>AD Ceuta FC - Hércules</t>
+          <t>Accra Lions - Legon Cities</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F11" t="n">
-        <v>1.7</v>
+        <v>2.15</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>22-03-2025 20:00</t>
+          <t>23-03-2025 14:00</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>URUGUAY</t>
+          <t>GREECE</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>SEGUNDA DIVISIÓN</t>
+          <t>GAMMA ETHNIKI - GROUP 4</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>La Luz - Rampla Juniors</t>
+          <t>Rethymniakos - Agios Nikolaos</t>
         </is>
       </c>
       <c r="E12" t="n">
         <v>73.3</v>
       </c>
       <c r="F12" t="n">
-        <v>2.9</v>
+        <v>5.25</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>23-03-2025 15:00</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>ITALY</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>SERIE C - GIRONE A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Feralpisalo - Trento</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>73.3</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>23-03-2025 17:00</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>SPAIN</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>PRIMERA DIVISIÓN RFEF - GROUP 1</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Barakaldo - Celta De Vigo II</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>70</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>23-03-2025 14:00</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>SPAIN</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>SEGUNDA DIVISIÓN</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Levante - Castellón</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>73.3</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1.73</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>23-03-2025 12:00</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>SPAIN</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>TERCERA DIVISIÓN RFEF - GROUP 14</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Villafranca - Calamonte</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>73.3</v>
+      </c>
+      <c r="F16" t="n">
+        <v>2.2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>23-03-2025 11:30</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>SPAIN</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>TERCERA DIVISIÓN RFEF - GROUP 7</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Villaverde-Boetticher - Trival Valderas</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>73.3</v>
+      </c>
+      <c r="F17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>23-03-2025 14:30</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>SWITZERLAND</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>1. LIGA PROMOTION</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Delémont - Bavois</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>80</v>
+      </c>
+      <c r="F18" t="n">
+        <v>1.95</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>24-03-2025 00:00</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>URUGUAY</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>PRIMERA DIVISIÓN - APERTURA</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Wanderers - Miramar</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>73.3</v>
+      </c>
+      <c r="F19" t="n">
+        <v>2.1</v>
       </c>
     </row>
   </sheetData>
@@ -791,7 +987,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -834,85 +1030,29 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>21-03-2025 10:00</t>
+          <t>23-03-2025 12:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>AUSTRALIA</t>
+          <t>SPAIN</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>SOUTH AUSTRALIA NPL</t>
+          <t>SEGUNDA DIVISIÓN RFEF - GROUP 5</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Adelaide Raiders - West Torrens Birkalla</t>
+          <t>Atlético Paso - CD Coria</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>70</v>
+        <v>73.3</v>
       </c>
       <c r="F2" t="n">
-        <v>2.88</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>21-03-2025 19:00</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>DENMARK</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>2ND DIVISION - GROUP 1</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>HIK - FC Helsingor</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>73.3</v>
-      </c>
-      <c r="F3" t="n">
-        <v>2.1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>22-03-2025 16:00</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>SCOTLAND</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>LEAGUE TWO</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Edinburgh City - East Fife</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>73.3</v>
-      </c>
-      <c r="F4" t="n">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
     </row>
   </sheetData>
@@ -926,7 +1066,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -969,449 +1109,477 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>21-03-2025 19:30</t>
+          <t>23-03-2025 15:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>FRANCE</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>NATIONAL 1</t>
+          <t>UEFA NATIONS LEAGUE</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Boulogne - Nimes</t>
+          <t>Georgia - Armenia</t>
         </is>
       </c>
       <c r="E2" t="n">
         <v>80</v>
       </c>
       <c r="F2" t="n">
-        <v>2.06</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>21-03-2025 19:00</t>
+          <t>23-03-2025 18:00</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GERMANY</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>REGIONALLIGA - BAYERN</t>
+          <t>UEFA NATIONS LEAGUE</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Augsburg II - Viktoria Aschaffenburg</t>
+          <t>Slovenia - Slovakia</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>78.3</v>
+        <v>76.7</v>
       </c>
       <c r="F3" t="n">
-        <v>1.7</v>
+        <v>1.95</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>21-03-2025 19:00</t>
+          <t>23-03-2025 19:30</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MEXICO</t>
+          <t>ARGENTINA</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>LIGA PREMIER SERIE B</t>
+          <t>PRIMERA B METROPOLITANA</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Real Zamora - Pachuca Premier</t>
+          <t>Dock Sud - Argentino De Merlo</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>80</v>
+        <v>75.8</v>
       </c>
       <c r="F4" t="n">
-        <v>1.7</v>
+        <v>1.91</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>21-03-2025 20:30</t>
+          <t>24-03-2025 00:00</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SPAIN</t>
+          <t>ARGENTINA</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>PRIMERA DIVISIÓN RFEF - GROUP 2</t>
+          <t>PRIMERA C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Mérida AD - Yeclano</t>
+          <t>Estrella Del Sur - Deportivo Camioneros</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>88</v>
+        <v>83.3</v>
       </c>
       <c r="F5" t="n">
-        <v>1.85</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>21-03-2025 14:00</t>
+          <t>23-03-2025 20:00</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>FRIENDLIES</t>
+          <t>CAPIXABA</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Thailand - Afghanistan</t>
+          <t>Vitória ES - Porto Vitória</t>
         </is>
       </c>
       <c r="E6" t="n">
         <v>80</v>
       </c>
       <c r="F6" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>21-03-2025 13:30</t>
+          <t>23-03-2025 22:00</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>CHILE</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>FRIENDLIES</t>
+          <t>COPA CHILE</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Singapore - Nepal</t>
+          <t>Magallanes - Recoleta</t>
         </is>
       </c>
       <c r="E7" t="n">
         <v>80</v>
       </c>
       <c r="F7" t="n">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>21-03-2025 22:00</t>
+          <t>23-03-2025 18:15</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>COSTA-RICA</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>WORLD CUP - QUALIFICATION AFRICA</t>
+          <t>LIGA DE ASCENSO</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Guinea - Somalia</t>
+          <t>AD Sarchí - Deportivo Upala</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>76</v>
+        <v>76.7</v>
       </c>
       <c r="F8" t="n">
-        <v>3.8</v>
+        <v>2.15</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>22-03-2025 13:30</t>
+          <t>23-03-2025 19:30</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>POLAND</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>LEAGUE TWO</t>
+          <t>II LIGA - EAST</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Notts County - Crewe</t>
+          <t>Chojniczanka Chojnice - Hutnik Kraków</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>80</v>
+        <v>83.3</v>
       </c>
       <c r="F9" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>22-03-2025 16:00</t>
+          <t>23-03-2025 06:00</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>SOUTH-KOREA</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE</t>
+          <t>FA CUP</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Wealdstone - Woking</t>
+          <t>Hwaseong - Jinju Citizen</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>78.3</v>
+        <v>83</v>
       </c>
       <c r="F10" t="n">
-        <v>1.7</v>
+        <v>1.92</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>22-03-2025 16:00</t>
+          <t>23-03-2025 17:30</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>SCOTLAND</t>
+          <t>SPAIN</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>CHAMPIONSHIP</t>
+          <t>PRIMERA DIVISIÓN RFEF - GROUP 1</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Falkirk - Airdrie United</t>
+          <t>Unionistas De Salamanca - Gimnástica Segoviana</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F11" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>23-03-2025 00:00</t>
+          <t>23-03-2025 18:00</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>CHILE</t>
+          <t>SPAIN</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>COPA CHILE</t>
+          <t>SEGUNDA DIVISIÓN RFEF - GROUP 2</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>San Marcos De Arica - D. La Serena</t>
+          <t>Tudelano - Teruel</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="F12" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>22-03-2025 16:00</t>
+          <t>23-03-2025 12:00</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>SPAIN</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE - NORTH</t>
+          <t>SEGUNDA DIVISIÓN RFEF - GROUP 5</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Marine - Peterborough Sports</t>
+          <t>Melilla - Illescas</t>
         </is>
       </c>
       <c r="E13" t="n">
         <v>76</v>
       </c>
       <c r="F13" t="n">
-        <v>1.77</v>
+        <v>2.62</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>22-03-2025 16:00</t>
+          <t>23-03-2025 12:00</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>SPAIN</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE - SOUTH</t>
+          <t>SEGUNDA DIVISIÓN RFEF - GROUP 5</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Truro City - Salisbury</t>
+          <t>Unión Adarve - Tenerife II</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>78.90000000000001</v>
+        <v>76</v>
       </c>
       <c r="F14" t="n">
-        <v>1.78</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>22-03-2025 14:00</t>
+          <t>23-03-2025 12:00</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>GERMANY</t>
+          <t>SPAIN</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>REGIONALLIGA - SUDWEST</t>
+          <t>TERCERA DIVISIÓN RFEF - GROUP 10</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Freiburg II - FC 08 Villingen</t>
+          <t>Tomares - Pozoblanco</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>76</v>
+        <v>86.7</v>
       </c>
       <c r="F15" t="n">
-        <v>1.73</v>
+        <v>2.15</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>22-03-2025 15:00</t>
+          <t>23-03-2025 11:30</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>ITALY</t>
+          <t>SPAIN</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>SERIE C - GIRONE A</t>
+          <t>TERCERA DIVISIÓN RFEF - GROUP 7</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Giana Erminio - Triestina</t>
+          <t>AD Parla - Aravaca</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>84.5</v>
+        <v>80</v>
       </c>
       <c r="F16" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>22-03-2025 22:00</t>
+          <t>23-03-2025 11:30</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>SPAIN</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>USL CHAMPIONSHIP</t>
+          <t>TERCERA DIVISIÓN RFEF - GROUP 7</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>New Mexico United - El Paso Locomotive</t>
+          <t>Torrejón - Carabanchel</t>
         </is>
       </c>
       <c r="E17" t="n">
+        <v>91.09999999999999</v>
+      </c>
+      <c r="F17" t="n">
+        <v>2.2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>24-03-2025 20:45</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>WORLD</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>WORLD CUP - QUALIFICATION EUROPE</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Bosnia &amp; Herzegovina - Cyprus</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
         <v>80</v>
       </c>
-      <c r="F17" t="n">
-        <v>2.12</v>
+      <c r="F18" t="n">
+        <v>2.15</v>
       </c>
     </row>
   </sheetData>
@@ -1425,7 +1593,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1478,613 +1646,137 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>21-03-2025 09:45</t>
+          <t>23-03-2025 10:45</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>AUSTRALIA</t>
+          <t>GERMANY</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>VICTORIA NPL</t>
+          <t>OBERLIGA - HAMBURG</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Dandenong City - Heidelberg United</t>
+          <t>Paloma - Türkiye</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="F2" t="n">
-        <v>1.5</v>
+        <v>1.91</v>
       </c>
       <c r="G2" t="n">
-        <v>80</v>
+        <v>72.5</v>
       </c>
       <c r="H2" t="n">
-        <v>2.3</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>21-03-2025 19:00</t>
+          <t>23-03-2025 14:00</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>AUSTRIA</t>
+          <t>GERMANY</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>REGIONALLIGA - MITTE</t>
+          <t>REGIONALLIGA - NORD</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Weiz - Deutschlandsberger SC</t>
+          <t>Eintracht Norderstedt - SSV Jeddeloh</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>88.8</v>
+        <v>75</v>
       </c>
       <c r="F3" t="n">
-        <v>1.5</v>
+        <v>1.87</v>
       </c>
       <c r="G3" t="n">
-        <v>67.5</v>
+        <v>65</v>
       </c>
       <c r="H3" t="n">
-        <v>2.25</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>19-03-2025 01:30</t>
+          <t>24-03-2025 12:00</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>INDIA</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>COPA DO NORDESTE</t>
+          <t>I-LEAGUE</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>CRB - Ferroviario</t>
+          <t>Dempo - Aizawl</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>73.3</v>
+        <v>86.7</v>
       </c>
       <c r="F4" t="n">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="G4" t="n">
-        <v>60</v>
+        <v>66.7</v>
       </c>
       <c r="H4" t="n">
-        <v>4.2</v>
+        <v>2.88</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>21-03-2025 23:00</t>
+          <t>24-03-2025 14:30</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>INDIA</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>MARANHENSE</t>
+          <t>I-LEAGUE</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Maranhão - Tuntum</t>
+          <t>Inter Kashi - Shillong Lajong</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="F5" t="n">
-        <v>1.73</v>
+        <v>1.47</v>
       </c>
       <c r="G5" t="n">
-        <v>42.5</v>
+        <v>60</v>
       </c>
       <c r="H5" t="n">
-        <v>2.88</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>21-03-2025 19:00</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>GERMANY</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>REGIONALLIGA - BAYERN</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Augsburg II - Viktoria Aschaffenburg</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>77.5</v>
-      </c>
-      <c r="F6" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="G6" t="n">
-        <v>61.3</v>
-      </c>
-      <c r="H6" t="n">
-        <v>2.45</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>21-03-2025 19:00</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>GERMANY</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>REGIONALLIGA - NORDOST</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>FC Rot-Weiß Erfurt - Hertha BSC II</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
-        <v>82.5</v>
-      </c>
-      <c r="F7" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="G7" t="n">
-        <v>50</v>
-      </c>
-      <c r="H7" t="n">
-        <v>2.75</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>21-03-2025 22:00</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>MEXICO</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>LIGA PREMIER SERIE A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Sporting Canamy - Zacatepec 1948</t>
-        </is>
-      </c>
-      <c r="E8" t="n">
-        <v>85</v>
-      </c>
-      <c r="F8" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="G8" t="n">
-        <v>75</v>
-      </c>
-      <c r="H8" t="n">
-        <v>2.55</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>21-03-2025 20:30</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>SPAIN</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>PRIMERA DIVISIÓN RFEF - GROUP 2</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Mérida AD - Yeclano</t>
-        </is>
-      </c>
-      <c r="E9" t="n">
-        <v>86.7</v>
-      </c>
-      <c r="F9" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="G9" t="n">
-        <v>46.7</v>
-      </c>
-      <c r="H9" t="n">
-        <v>3.7</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>21-03-2025 13:30</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>WORLD</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>FRIENDLIES</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Singapore - Nepal</t>
-        </is>
-      </c>
-      <c r="E10" t="n">
-        <v>86.7</v>
-      </c>
-      <c r="F10" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="G10" t="n">
-        <v>66.7</v>
-      </c>
-      <c r="H10" t="n">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>22-03-2025 15:00</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>CZECH-REPUBLIC</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>3. LIGA - CFL B</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Ústí Nad Orlicí - Sokol Brozany</t>
-        </is>
-      </c>
-      <c r="E11" t="n">
-        <v>75</v>
-      </c>
-      <c r="F11" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="G11" t="n">
-        <v>70</v>
-      </c>
-      <c r="H11" t="n">
-        <v>2.4</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>22-03-2025 14:00</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>DENMARK</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>2ND DIVISION - GROUP 1</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>Skive - Aarhus Fremad</t>
-        </is>
-      </c>
-      <c r="E12" t="n">
-        <v>80</v>
-      </c>
-      <c r="F12" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="G12" t="n">
-        <v>18.3</v>
-      </c>
-      <c r="H12" t="n">
-        <v>3.25</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>22-03-2025 14:00</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>GERMANY</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>REGIONALLIGA - BAYERN</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>Vilzing - Würzburger Kickers</t>
-        </is>
-      </c>
-      <c r="E13" t="n">
-        <v>80</v>
-      </c>
-      <c r="F13" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="G13" t="n">
-        <v>60</v>
-      </c>
-      <c r="H13" t="n">
-        <v>2.45</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>22-03-2025 02:00</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>MEXICO</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>LIGA PREMIER SERIE B</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>FC Santiago - Calor De San Pedro</t>
-        </is>
-      </c>
-      <c r="E14" t="n">
-        <v>70</v>
-      </c>
-      <c r="F14" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="G14" t="n">
-        <v>60</v>
-      </c>
-      <c r="H14" t="n">
-        <v>2.9</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>22-03-2025 12:00</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>TURKEY</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>2. LIG</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>Menemen Belediyespor - Ankara Demirspor</t>
-        </is>
-      </c>
-      <c r="E15" t="n">
-        <v>80</v>
-      </c>
-      <c r="F15" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="G15" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="H15" t="n">
-        <v>2.88</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>23-03-2025 00:30</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>USA</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>MAJOR LEAGUE SOCCER</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>Orlando City SC - DC United</t>
-        </is>
-      </c>
-      <c r="E16" t="n">
-        <v>85</v>
-      </c>
-      <c r="F16" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="G16" t="n">
-        <v>60</v>
-      </c>
-      <c r="H16" t="n">
-        <v>2.38</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>23-03-2025 00:30</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>USA</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>MAJOR LEAGUE SOCCER</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>Philadelphia Union - St. Louis City</t>
-        </is>
-      </c>
-      <c r="E17" t="n">
-        <v>75</v>
-      </c>
-      <c r="F17" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="G17" t="n">
-        <v>60</v>
-      </c>
-      <c r="H17" t="n">
-        <v>2.62</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>21-03-2025 02:00</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>USA</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>US OPEN CUP</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>Flatirons Rush - Union Omaha</t>
-        </is>
-      </c>
-      <c r="E18" t="n">
-        <v>93.3</v>
-      </c>
-      <c r="F18" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="G18" t="n">
-        <v>73.3</v>
-      </c>
-      <c r="H18" t="n">
         <v>2.25</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>22-03-2025 01:00</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>WORLD</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>FRIENDLIES</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>Puerto Rico - Dominican Republic</t>
-        </is>
-      </c>
-      <c r="E19" t="n">
-        <v>93.3</v>
-      </c>
-      <c r="F19" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="G19" t="n">
-        <v>66.7</v>
-      </c>
-      <c r="H19" t="n">
-        <v>2.6</v>
       </c>
     </row>
   </sheetData>
@@ -2098,7 +1790,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G87"/>
+  <dimension ref="A1:G70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2146,928 +1838,928 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>21-03-2025 10:45</t>
+          <t>23-03-2025 20:45</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>AUSTRALIA</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>SOUTH AUSTRALIA NPL</t>
+          <t>UEFA NATIONS LEAGUE</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Adelaide Comets - Para Hills Knights</t>
+          <t>Germany - Italy</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>62.3</v>
+        <v>56.7</v>
       </c>
       <c r="F2" t="n">
         <v>1.75</v>
       </c>
       <c r="G2" t="n">
-        <v>0.09</v>
+        <v>-0.01</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>21-03-2025 09:30</t>
+          <t>23-03-2025 18:00</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>AUSTRALIA</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>VICTORIA NPL</t>
+          <t>UEFA NATIONS LEAGUE</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Melbourne Knights - Melbourne Victory II</t>
+          <t>Hungary - Türkiye</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>60</v>
+        <v>53.3</v>
       </c>
       <c r="F3" t="n">
-        <v>2.1</v>
+        <v>2.62</v>
       </c>
       <c r="G3" t="n">
-        <v>0.26</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>21-03-2025 12:00</t>
+          <t>23-03-2025 19:30</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>AUSTRALIA</t>
+          <t>ARGENTINA</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>WESTERN AUSTRALIA NPL</t>
+          <t>PRIMERA B METROPOLITANA</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Perth - Fremantle City</t>
+          <t>Deportivo Armenio - Fénix</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>80</v>
+        <v>53.3</v>
       </c>
       <c r="F4" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="G4" t="n">
-        <v>0.48</v>
+        <v>-0.04</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>21-03-2025 19:00</t>
+          <t>24-03-2025 00:00</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>AUSTRIA</t>
+          <t>ARGENTINA</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>REGIONALLIGA - MITTE</t>
+          <t>PRIMERA C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Wildon - SK Vorwarts Steyr</t>
+          <t>Estrella Del Sur - Deportivo Camioneros</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="F5" t="n">
-        <v>2.3</v>
+        <v>3.2</v>
       </c>
       <c r="G5" t="n">
-        <v>0.15</v>
+        <v>1.56</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>21-03-2025 19:00</t>
+          <t>23-03-2025 19:30</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>AUSTRIA</t>
+          <t>ARGENTINA</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>REGIONALLIGA - MITTE</t>
+          <t>PRIMERA C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Weiz - Deutschlandsberger SC</t>
+          <t>General Lamadrid - Yupanqui</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>71.7</v>
+        <v>66.7</v>
       </c>
       <c r="F6" t="n">
-        <v>2.2</v>
+        <v>1.75</v>
       </c>
       <c r="G6" t="n">
-        <v>0.58</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>21-03-2025 18:00</t>
+          <t>23-03-2025 21:00</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>AUSTRIA</t>
+          <t>ARGENTINA</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>REGIONALLIGA - WEST</t>
+          <t>PRIMERA NACIONAL</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>SVG Reichenau - Pinzgau Saalfelden</t>
+          <t>Club Atlético Güemes - Deportivo Maipu</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>56.7</v>
+        <v>80</v>
       </c>
       <c r="F7" t="n">
-        <v>1.8</v>
+        <v>1.97</v>
       </c>
       <c r="G7" t="n">
-        <v>0.02</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>21-03-2025 19:00</t>
+          <t>23-03-2025 18:45</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>ARGENTINA</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>CBF BRASILEIRO U20</t>
+          <t>PRIMERA NACIONAL</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Athletico PR U20 - Flamengo U20</t>
+          <t>Ferro Carril Oeste - Alvarado</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>63.3</v>
+        <v>66.7</v>
       </c>
       <c r="F8" t="n">
-        <v>2.4</v>
+        <v>1.7</v>
       </c>
       <c r="G8" t="n">
-        <v>0.52</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>21-03-2025 22:00</t>
+          <t>23-03-2025 20:00</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>CHILE</t>
+          <t>ARGENTINA</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>COPA CHILE</t>
+          <t>PRIMERA NACIONAL</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Huachipato - O'Higgins</t>
+          <t>Defensores De Belgrano - Talleres Remedios</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>53.3</v>
+        <v>60</v>
       </c>
       <c r="F9" t="n">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="G9" t="n">
-        <v>0.2</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>21-03-2025 15:00</t>
+          <t>23-03-2025 20:00</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>ARGENTINA</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>PROFESSIONAL DEVELOPMENT LEAGUE</t>
+          <t>PRIMERA NACIONAL</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Millwall U21 - Bristol City U21</t>
+          <t>Almirante Brown - Chaco For Ever</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>63.3</v>
+        <v>60</v>
       </c>
       <c r="F10" t="n">
-        <v>1.7</v>
+        <v>2.5</v>
       </c>
       <c r="G10" t="n">
-        <v>0.08</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>21-03-2025 14:00</t>
+          <t>23-03-2025 20:30</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>ARGENTINA</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>PROFESSIONAL DEVELOPMENT LEAGUE</t>
+          <t>TORNEO FEDERAL A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Birmingham City U21 - Peterborough United U21</t>
+          <t>Villa Mitre - Germinal De Rawson</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>50</v>
+        <v>86.7</v>
       </c>
       <c r="F11" t="n">
-        <v>2.1</v>
+        <v>1.75</v>
       </c>
       <c r="G11" t="n">
-        <v>0.05</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>21-03-2025 20:00</t>
+          <t>23-03-2025 20:00</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>ARGENTINA</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>PROFESSIONAL DEVELOPMENT LEAGUE</t>
+          <t>TORNEO FEDERAL A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Colchester United U21 - Ipswich Town U21</t>
+          <t>Huracan Las Heras - Estudiantes S.l.</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>56.7</v>
+        <v>60</v>
       </c>
       <c r="F12" t="n">
-        <v>5</v>
+        <v>2.3</v>
       </c>
       <c r="G12" t="n">
-        <v>1.84</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>21-03-2025 19:30</t>
+          <t>23-03-2025 20:00</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>FRANCE</t>
+          <t>ARGENTINA</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>NATIONAL 1</t>
+          <t>TORNEO FEDERAL A</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Le Mans - Gobelins</t>
+          <t>Argentino Monte Maíz - Atenas</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>66.7</v>
+        <v>53.3</v>
       </c>
       <c r="F13" t="n">
-        <v>1.78</v>
+        <v>2.2</v>
       </c>
       <c r="G13" t="n">
-        <v>0.19</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>21-03-2025 19:30</t>
+          <t>23-03-2025 20:00</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>FRANCE</t>
+          <t>ARGENTINA</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>NATIONAL 1</t>
+          <t>TORNEO FEDERAL A</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Boulogne - Nimes</t>
+          <t>Independiente De Chivilcoy - El Linqueño</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>60</v>
+        <v>75.7</v>
       </c>
       <c r="F14" t="n">
-        <v>2.17</v>
+        <v>2.3</v>
       </c>
       <c r="G14" t="n">
-        <v>0.3</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>21-03-2025 19:00</t>
+          <t>23-03-2025 20:30</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>GERMANY</t>
+          <t>ARGENTINA</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>REGIONALLIGA - NORDOST</t>
+          <t>TORNEO FEDERAL A</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>FC Rot-Weiß Erfurt - Hertha BSC II</t>
+          <t>Boca Unidos - San Martin Formosa</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>56.7</v>
+        <v>66.7</v>
       </c>
       <c r="F15" t="n">
-        <v>1.95</v>
+        <v>2.3</v>
       </c>
       <c r="G15" t="n">
-        <v>0.11</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>21-03-2025 11:35</t>
+          <t>23-03-2025 09:00</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>ISRAEL</t>
+          <t>AUSTRALIA</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>LIGA ALEF</t>
+          <t>QUEENSLAND NPL</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>FC Jerusalem - Maccabi Yavne</t>
+          <t>Olympic - Gold Coast United</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="F16" t="n">
         <v>2.5</v>
       </c>
       <c r="G16" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>21-03-2025 22:00</t>
+          <t>23-03-2025 08:00</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>MEXICO</t>
+          <t>AUSTRALIA</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>LIGA PREMIER SERIE A</t>
+          <t>QUEENSLAND NPL</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Sporting Canamy - Zacatepec 1948</t>
+          <t>WDSC Wolves - St George Willawong</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>86.7</v>
+        <v>50</v>
       </c>
       <c r="F17" t="n">
-        <v>2.65</v>
+        <v>2.3</v>
       </c>
       <c r="G17" t="n">
-        <v>1.3</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>21-03-2025 15:00</t>
+          <t>23-03-2025 15:00</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>SLOVAKIA</t>
+          <t>BELGIUM</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>2. LIGA</t>
+          <t>FIRST AMATEUR DIVISION</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Žilina II - Púchov</t>
+          <t>Union Namur - Sporting Charleroi II</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="F18" t="n">
-        <v>1.75</v>
+        <v>2.37</v>
       </c>
       <c r="G18" t="n">
-        <v>0.05</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>21-03-2025 15:30</t>
+          <t>23-03-2025 15:30</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>SLOVENIA</t>
+          <t>BOSNIA</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>2. SNL</t>
+          <t>1ST LEAGUE - FBIH</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Bistrica - Brinje-Grosuplje</t>
+          <t>TOŠK Tešanj - Gornji Rahić</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>66.7</v>
+        <v>73.3</v>
       </c>
       <c r="F19" t="n">
-        <v>2.45</v>
+        <v>1.83</v>
       </c>
       <c r="G19" t="n">
-        <v>0.63</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>21-03-2025 20:30</t>
+          <t>23-03-2025 19:30</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>SPAIN</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>PRIMERA DIVISIÓN RFEF - GROUP 2</t>
+          <t>CEARENSE - 2</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Real Madrid II - Real Murcia</t>
+          <t>Caucaia - Itapipoca</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>66.7</v>
+        <v>50</v>
       </c>
       <c r="F20" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="G20" t="n">
-        <v>0.53</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>21-03-2025 20:30</t>
+          <t>23-03-2025 22:00</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>SPAIN</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>PRIMERA DIVISIÓN RFEF - GROUP 2</t>
+          <t>PAULISTA - A2</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Mérida AD - Yeclano</t>
+          <t>Ituano - Capivariano</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>70</v>
+        <v>73.3</v>
       </c>
       <c r="F21" t="n">
-        <v>2.37</v>
+        <v>2.05</v>
       </c>
       <c r="G21" t="n">
-        <v>0.66</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>21-03-2025 20:45</t>
+          <t>23-03-2025 22:00</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>WALES</t>
+          <t>CHILE</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>PREMIER LEAGUE</t>
+          <t>COPA CHILE</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Haverfordwest County AFC - Penybont</t>
+          <t>Cobreloa - Deportes Iquique</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>60</v>
+        <v>53.3</v>
       </c>
       <c r="F22" t="n">
-        <v>2.3</v>
+        <v>2.9</v>
       </c>
       <c r="G22" t="n">
-        <v>0.38</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>21-03-2025 20:45</t>
+          <t>23-03-2025 23:00</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>CHILE</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>FRIENDLIES</t>
+          <t>COPA CHILE</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Northern Ireland - Switzerland</t>
+          <t>Coquimbo Unido - Cobresal</t>
         </is>
       </c>
       <c r="E23" t="n">
         <v>53.3</v>
       </c>
       <c r="F23" t="n">
-        <v>4.33</v>
+        <v>1.7</v>
       </c>
       <c r="G23" t="n">
-        <v>1.31</v>
+        <v>-0.09</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>22-03-2025 16:00</t>
+          <t>23-03-2025 13:00</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>CROATIA</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>LEAGUE TWO</t>
+          <t>FIRST NL</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>AFC Wimbledon - Barrow</t>
+          <t>Orijent 1919 - Dugopolje</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>56.7</v>
+        <v>60</v>
       </c>
       <c r="F24" t="n">
-        <v>2.05</v>
+        <v>1.73</v>
       </c>
       <c r="G24" t="n">
-        <v>0.16</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>22-03-2025 16:00</t>
+          <t>23-03-2025 15:30</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>CROATIA</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>LEAGUE TWO</t>
+          <t>FIRST NL</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Cheltenham - Milton Keynes Dons</t>
+          <t>Opatija - Rudes</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>51</v>
+        <v>55.7</v>
       </c>
       <c r="F25" t="n">
-        <v>2.45</v>
+        <v>2.05</v>
       </c>
       <c r="G25" t="n">
-        <v>0.25</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>22-03-2025 16:00</t>
+          <t>23-03-2025 15:00</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>CZECH-REPUBLIC</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>LEAGUE TWO</t>
+          <t>3. LIGA - MSFL</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Fleetwood Town - Tranmere</t>
+          <t>Znojmo - Uherský Brod</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>66.7</v>
+        <v>73.3</v>
       </c>
       <c r="F26" t="n">
-        <v>1.9</v>
+        <v>3.45</v>
       </c>
       <c r="G26" t="n">
-        <v>0.27</v>
+        <v>1.53</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>22-03-2025 16:00</t>
+          <t>23-03-2025 15:00</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>CZECH-REPUBLIC</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>LEAGUE TWO</t>
+          <t>4. LIGA - DIVIZIE C</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Swindon Town - Accrington ST</t>
+          <t>Horní Ředice - Cidlina Novy Bydzov</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>51</v>
+        <v>90</v>
       </c>
       <c r="F27" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="G27" t="n">
-        <v>-0.03</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>22-03-2025 16:00</t>
+          <t>23-03-2025 15:00</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>SCOTLAND</t>
+          <t>CZECH-REPUBLIC</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>CHAMPIONSHIP</t>
+          <t>4. LIGA - DIVIZIE F</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Morton - Queen's Park</t>
+          <t>Beskyd Frenštát - Břidličná</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>60</v>
+        <v>66.7</v>
       </c>
       <c r="F28" t="n">
-        <v>2.15</v>
+        <v>3.6</v>
       </c>
       <c r="G28" t="n">
-        <v>0.29</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>22-03-2025 18:30</t>
+          <t>23-03-2025 13:00</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>SCOTLAND</t>
+          <t>DENMARK</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>LEAGUE ONE</t>
+          <t>3. DIVISION</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Cove Rangers - Stenhousemuir</t>
+          <t>Avarta - Silkeborg KFUM</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>51.3</v>
+        <v>60</v>
       </c>
       <c r="F29" t="n">
-        <v>2.05</v>
+        <v>2.38</v>
       </c>
       <c r="G29" t="n">
-        <v>0.05</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>22-03-2025 16:00</t>
+          <t>23-03-2025 10:45</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>SCOTLAND</t>
+          <t>GERMANY</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>LEAGUE TWO</t>
+          <t>OBERLIGA - HAMBURG</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Stirling Albion - Peterhead</t>
+          <t>Paloma - Türkiye</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>50</v>
+        <v>66.7</v>
       </c>
       <c r="F30" t="n">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="G30" t="n">
-        <v>0.38</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>22-03-2025 15:00</t>
+          <t>23-03-2025 14:00</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>ALGERIA</t>
+          <t>GERMANY</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>LIGUE 2</t>
+          <t>OBERLIGA - SCHLESWIG-HOLSTEIN</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>MSP Batna - IB Khémis El Khechna</t>
+          <t>Eckernförder SV - VfR Neumünster</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>73.3</v>
+        <v>66.7</v>
       </c>
       <c r="F31" t="n">
-        <v>1.82</v>
+        <v>2</v>
       </c>
       <c r="G31" t="n">
         <v>0.33</v>
@@ -3076,649 +2768,649 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>23-03-2025 00:30</t>
+          <t>23-03-2025 13:30</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>ARGENTINA</t>
+          <t>GERMANY</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>COPA ARGENTINA</t>
+          <t>REGIONALLIGA - NORD</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Central Cordoba De Santiago - Quilmes</t>
+          <t>Teutonia Ottensen - Bremer SV</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>66.7</v>
+        <v>53.3</v>
       </c>
       <c r="F32" t="n">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="G32" t="n">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>22-03-2025 20:00</t>
+          <t>23-03-2025 14:00</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>ARGENTINA</t>
+          <t>GERMANY</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>PRIMERA NACIONAL</t>
+          <t>REGIONALLIGA - NORD</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>San Telmo - CA Estudiantes</t>
+          <t>Havelse - VfB Lübeck</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>60</v>
+        <v>66.7</v>
       </c>
       <c r="F33" t="n">
-        <v>2.6</v>
+        <v>1.85</v>
       </c>
       <c r="G33" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>22-03-2025 21:00</t>
+          <t>23-03-2025 14:00</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>ARGENTINA</t>
+          <t>GERMANY</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>PRIMERA NACIONAL</t>
+          <t>REGIONALLIGA - NORD</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Gimnasia Jujuy - Temperley</t>
+          <t>Eintracht Norderstedt - SSV Jeddeloh</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F34" t="n">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="G34" t="n">
-        <v>0.23</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>22-03-2025 09:00</t>
+          <t>23-03-2025 11:00</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>AUSTRALIA</t>
+          <t>GERMANY</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>NEW SOUTH WALES NPL 2</t>
+          <t>U19 BUNDESLIGA</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Dulwich Hill - Mounties Wanderers</t>
+          <t>Fortuna Düsseldorf U19 - Hertha BSC U19</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>53.3</v>
+        <v>50</v>
       </c>
       <c r="F35" t="n">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="G35" t="n">
-        <v>0.09</v>
+        <v>-0.07000000000000001</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>22-03-2025 09:00</t>
+          <t>23-03-2025 16:00</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>AUSTRALIA</t>
+          <t>GHANA</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>NEW SOUTH WALES NPL 2</t>
+          <t>PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Bonnyrigg White Eagles - SD Raiders</t>
+          <t>Accra Lions - Legon Cities</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>66.7</v>
+        <v>80</v>
       </c>
       <c r="F36" t="n">
-        <v>4.33</v>
+        <v>2.15</v>
       </c>
       <c r="G36" t="n">
-        <v>1.89</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>22-03-2025 05:30</t>
+          <t>23-03-2025 14:00</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>AUSTRALIA</t>
+          <t>GREECE</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>SOUTH AUSTRALIA NPL</t>
+          <t>GAMMA ETHNIKI - GROUP 4</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Playford City Patriots - Adelaide City</t>
+          <t>Rethymniakos - Agios Nikolaos</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>60</v>
+        <v>73.3</v>
       </c>
       <c r="F37" t="n">
-        <v>3.3</v>
+        <v>5.25</v>
       </c>
       <c r="G37" t="n">
-        <v>0.98</v>
+        <v>2.85</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>22-03-2025 05:30</t>
+          <t>23-03-2025 14:00</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>AUSTRALIA</t>
+          <t>GREECE</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>SOUTH AUSTRALIA STATE LEAGUE 1</t>
+          <t>GAMMA ETHNIKI - GROUP 4</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Salisbury United - Adelaide Blue Eagles</t>
+          <t>Nea Ionia - Atsalenios</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>66.7</v>
+        <v>50</v>
       </c>
       <c r="F38" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="G38" t="n">
-        <v>0.37</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>22-03-2025 08:00</t>
+          <t>23-03-2025 15:00</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>AUSTRALIA</t>
+          <t>ITALY</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>WESTERN AUSTRALIA NPL</t>
+          <t>SERIE C - GIRONE A</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Perth RedStar - Armadale</t>
+          <t>Feralpisalo - Trento</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>53.3</v>
+        <v>73.3</v>
       </c>
       <c r="F39" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="G39" t="n">
-        <v>-0.01</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>22-03-2025 08:00</t>
+          <t>23-03-2025 13:00</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>AUSTRALIA</t>
+          <t>KENYA</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>WESTERN AUSTRALIA NPL</t>
+          <t>SUPER LEAGUE</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Floreat Athena - Bayswater City</t>
+          <t>Mulembe United - Migori Youth</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>60</v>
+        <v>66.7</v>
       </c>
       <c r="F40" t="n">
-        <v>2.63</v>
+        <v>2.15</v>
       </c>
       <c r="G40" t="n">
-        <v>0.58</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>22-03-2025 08:00</t>
+          <t>23-03-2025 19:30</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>AUSTRALIA</t>
+          <t>POLAND</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>WESTERN AUSTRALIA NPL</t>
+          <t>II LIGA - EAST</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Stirling Lions - Perth Glory II</t>
+          <t>Chojniczanka Chojnice - Hutnik Kraków</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>50</v>
+        <v>51.7</v>
       </c>
       <c r="F41" t="n">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="G41" t="n">
-        <v>0.1</v>
+        <v>-0.07000000000000001</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>22-03-2025 14:30</t>
+          <t>23-03-2025 17:00</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>BULGARIA</t>
+          <t>POLAND</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>SECOND LEAGUE</t>
+          <t>III LIGA - GROUP 2</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Marek - Pirin Blagoevgrad</t>
+          <t>Zawisza Bydgoszcz - Sokół Kleczew</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>60</v>
+        <v>62.3</v>
       </c>
       <c r="F42" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="G42" t="n">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>22-03-2025 14:30</t>
+          <t>23-03-2025 10:30</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>BULGARIA</t>
+          <t>SLOVAKIA</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>SECOND LEAGUE</t>
+          <t>2. LIGA</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Botev Plovdiv II - CSKA 1948 Sofia II</t>
+          <t>Šamorín - Slovan Bratislava II</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>63.3</v>
+        <v>60</v>
       </c>
       <c r="F43" t="n">
-        <v>2.45</v>
+        <v>1.9</v>
       </c>
       <c r="G43" t="n">
-        <v>0.55</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>22-03-2025 14:30</t>
+          <t>23-03-2025 15:00</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>BULGARIA</t>
+          <t>SLOVENIA</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>SECOND LEAGUE</t>
+          <t>2. SNL</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Ludogorets II - CSKA Sofia II</t>
+          <t>Bilje - Ilirija</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>53.3</v>
+        <v>50</v>
       </c>
       <c r="F44" t="n">
-        <v>2</v>
+        <v>1.77</v>
       </c>
       <c r="G44" t="n">
-        <v>0.07000000000000001</v>
+        <v>-0.12</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>22-03-2025 14:30</t>
+          <t>23-03-2025 17:00</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>BULGARIA</t>
+          <t>SPAIN</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>SECOND LEAGUE</t>
+          <t>PRIMERA DIVISIÓN RFEF - GROUP 1</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Nesebar - Spartak Pleven</t>
+          <t>Barakaldo - Celta De Vigo II</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>66.7</v>
+        <v>70</v>
       </c>
       <c r="F45" t="n">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="G45" t="n">
-        <v>0.37</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>23-03-2025 00:20</t>
+          <t>23-03-2025 19:30</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>COLOMBIA</t>
+          <t>SPAIN</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>PRIMERA A</t>
+          <t>PRIMERA DIVISIÓN RFEF - GROUP 1</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Deportivo Pereira - Once Caldas</t>
+          <t>Amorebieta - Osasuna II</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>53.3</v>
+        <v>66.7</v>
       </c>
       <c r="F46" t="n">
-        <v>2.28</v>
+        <v>1.8</v>
       </c>
       <c r="G46" t="n">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>22-03-2025 01:30</t>
+          <t>23-03-2025 17:30</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>COLOMBIA</t>
+          <t>SPAIN</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>PRIMERA B</t>
+          <t>PRIMERA DIVISIÓN RFEF - GROUP 1</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Popayan - Real Santander</t>
+          <t>Ponferradina - Lugo</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>53.3</v>
+        <v>60</v>
       </c>
       <c r="F47" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="G47" t="n">
-        <v>-0.04</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>22-03-2025 15:30</t>
+          <t>23-03-2025 15:30</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>CROATIA</t>
+          <t>SPAIN</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>FIRST NL</t>
+          <t>PRIMERA DIVISIÓN RFEF - GROUP 2</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Dubrava Zagreb - Jarun</t>
+          <t>Alcorcon - Villarreal II</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="F48" t="n">
-        <v>2.45</v>
+        <v>2.25</v>
       </c>
       <c r="G48" t="n">
-        <v>0.23</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>22-03-2025 15:00</t>
+          <t>23-03-2025 14:00</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>CZECH-REPUBLIC</t>
+          <t>SPAIN</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>3. LIGA - CFL B</t>
+          <t>SEGUNDA DIVISIÓN</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Ústí Nad Orlicí - Sokol Brozany</t>
+          <t>Levante - Castellón</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>53.3</v>
+        <v>73.3</v>
       </c>
       <c r="F49" t="n">
-        <v>2.63</v>
+        <v>1.73</v>
       </c>
       <c r="G49" t="n">
-        <v>0.4</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>22-03-2025 14:00</t>
+          <t>23-03-2025 17:00</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>DENMARK</t>
+          <t>SPAIN</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>2ND DIVISION - GROUP 1</t>
+          <t>SEGUNDA DIVISIÓN RFEF - GROUP 2</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Skive - Aarhus Fremad</t>
+          <t>Alfaro - Barbastro</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>57.7</v>
+        <v>50</v>
       </c>
       <c r="F50" t="n">
-        <v>3.2</v>
+        <v>2.1</v>
       </c>
       <c r="G50" t="n">
-        <v>0.85</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>22-03-2025 20:30</t>
+          <t>23-03-2025 12:00</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>EGYPT</t>
+          <t>SPAIN</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>LEAGUE CUP</t>
+          <t>SEGUNDA DIVISIÓN RFEF - GROUP 2</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Future FC - Smouha SC</t>
+          <t>Ejea - Eibar II</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>51.7</v>
+        <v>50</v>
       </c>
       <c r="F51" t="n">
-        <v>2.38</v>
+        <v>2.15</v>
       </c>
       <c r="G51" t="n">
-        <v>0.23</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>22-03-2025 16:00</t>
+          <t>23-03-2025 12:00</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>SPAIN</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE - NORTH</t>
+          <t>SEGUNDA DIVISIÓN RFEF - GROUP 3</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Buxton - King's Lynn Town</t>
+          <t>Terrassa - Ibiza Islas Pitiusas</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>50</v>
+        <v>53.3</v>
       </c>
       <c r="F52" t="n">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="G52" t="n">
         <v>-0.07000000000000001</v>
@@ -3727,1086 +3419,559 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>22-03-2025 16:00</t>
+          <t>23-03-2025 16:30</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>SPAIN</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE - NORTH</t>
+          <t>SEGUNDA DIVISIÓN RFEF - GROUP 4</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Chorley - Alfreton Town</t>
+          <t>Ucam Murcia - La Unión Atlético</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>71.3</v>
+        <v>53.3</v>
       </c>
       <c r="F53" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="G53" t="n">
-        <v>0.36</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>22-03-2025 16:00</t>
+          <t>23-03-2025 12:00</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>SPAIN</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE - NORTH</t>
+          <t>SEGUNDA DIVISIÓN RFEF - GROUP 5</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Leamington - South Shields</t>
+          <t>Unión Adarve - Tenerife II</t>
         </is>
       </c>
       <c r="E54" t="n">
         <v>60</v>
       </c>
       <c r="F54" t="n">
-        <v>2.3</v>
+        <v>2.37</v>
       </c>
       <c r="G54" t="n">
-        <v>0.38</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>22-03-2025 16:00</t>
+          <t>23-03-2025 12:00</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>SPAIN</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE - SOUTH</t>
+          <t>TERCERA DIVISIÓN RFEF - GROUP 10</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Eastbourne Borough - Farnborough</t>
+          <t>Tomares - Pozoblanco</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>66.7</v>
+        <v>53.3</v>
       </c>
       <c r="F55" t="n">
-        <v>1.75</v>
+        <v>2.45</v>
       </c>
       <c r="G55" t="n">
-        <v>0.17</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>22-03-2025 16:00</t>
+          <t>23-03-2025 16:30</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>SPAIN</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE - SOUTH</t>
+          <t>TERCERA DIVISIÓN RFEF - GROUP 11</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Hemel Hempstead Town - Aveley</t>
+          <t>Porreres - Poblense</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>53.3</v>
+        <v>50</v>
       </c>
       <c r="F56" t="n">
-        <v>1.73</v>
+        <v>2.6</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.08</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>22-03-2025 16:00</t>
+          <t>23-03-2025 16:00</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>SPAIN</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE - SOUTH</t>
+          <t>TERCERA DIVISIÓN RFEF - GROUP 11</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>St Albans City - AFC Hornchurch</t>
+          <t>PE Sant Jordi - Alcúdia</t>
         </is>
       </c>
       <c r="E57" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="F57" t="n">
-        <v>2.25</v>
+        <v>2.45</v>
       </c>
       <c r="G57" t="n">
-        <v>0.12</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>22-03-2025 16:00</t>
+          <t>23-03-2025 12:00</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>ESTONIA</t>
+          <t>SPAIN</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>ESILIIGA B</t>
+          <t>TERCERA DIVISIÓN RFEF - GROUP 14</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Johvi Phoenix - Läänemaa Haapsalu</t>
+          <t>Villafranca - Calamonte</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>80</v>
+        <v>73.3</v>
       </c>
       <c r="F58" t="n">
-        <v>1.85</v>
+        <v>2.2</v>
       </c>
       <c r="G58" t="n">
-        <v>0.48</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>22-03-2025 14:00</t>
+          <t>23-03-2025 12:00</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>GERMANY</t>
+          <t>SPAIN</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>REGIONALLIGA - BAYERN</t>
+          <t>TERCERA DIVISIÓN RFEF - GROUP 5</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Hankofen-Hailing - Nürnberg II</t>
+          <t>Prat - Cerdanyola Del Vallès</t>
         </is>
       </c>
       <c r="E59" t="n">
-        <v>60</v>
+        <v>53.3</v>
       </c>
       <c r="F59" t="n">
-        <v>3.6</v>
+        <v>2.37</v>
       </c>
       <c r="G59" t="n">
-        <v>1.16</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>22-03-2025 14:00</t>
+          <t>23-03-2025 11:30</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>GERMANY</t>
+          <t>SPAIN</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>REGIONALLIGA - SUDWEST</t>
+          <t>TERCERA DIVISIÓN RFEF - GROUP 7</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Hessen Kassel - Göppinger SV</t>
+          <t>AD Parla - Aravaca</t>
         </is>
       </c>
       <c r="E60" t="n">
         <v>60</v>
       </c>
       <c r="F60" t="n">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="G60" t="n">
-        <v>0.05</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>22-03-2025 14:00</t>
+          <t>23-03-2025 11:30</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>GERMANY</t>
+          <t>SPAIN</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>REGIONALLIGA - SUDWEST</t>
+          <t>TERCERA DIVISIÓN RFEF - GROUP 7</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Bahlinger SC - Hoffenheim II</t>
+          <t>Villaverde-Boetticher - Trival Valderas</t>
         </is>
       </c>
       <c r="E61" t="n">
-        <v>60</v>
+        <v>73.3</v>
       </c>
       <c r="F61" t="n">
-        <v>4.5</v>
+        <v>2</v>
       </c>
       <c r="G61" t="n">
-        <v>1.7</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>22-03-2025 14:00</t>
+          <t>23-03-2025 17:15</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>GERMANY</t>
+          <t>SPAIN</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>REGIONALLIGA - SUDWEST</t>
+          <t>TERCERA DIVISIÓN RFEF - GROUP 9</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Stuttgarter Kickers - Kickers Offenbach</t>
+          <t>El Palo - Málaga II</t>
         </is>
       </c>
       <c r="E62" t="n">
-        <v>66.7</v>
+        <v>50</v>
       </c>
       <c r="F62" t="n">
-        <v>2.4</v>
+        <v>7.5</v>
       </c>
       <c r="G62" t="n">
-        <v>0.6</v>
+        <v>2.75</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>22-03-2025 17:30</t>
+          <t>23-03-2025 14:30</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>ITALY</t>
+          <t>SWITZERLAND</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>SERIE C - GIRONE B</t>
+          <t>1. LIGA PROMOTION</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Pontedera - Ascoli</t>
+          <t>Delémont - Bavois</t>
         </is>
       </c>
       <c r="E63" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="F63" t="n">
-        <v>2.4</v>
+        <v>1.95</v>
       </c>
       <c r="G63" t="n">
-        <v>0.44</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>22-03-2025 15:00</t>
+          <t>24-03-2025 00:00</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>ITALY</t>
+          <t>URUGUAY</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>SERIE C - GIRONE B</t>
+          <t>PRIMERA DIVISIÓN - APERTURA</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Città Di Campobasso - Athletic Carpi</t>
+          <t>Wanderers - Miramar</t>
         </is>
       </c>
       <c r="E64" t="n">
-        <v>60</v>
+        <v>73.3</v>
       </c>
       <c r="F64" t="n">
         <v>2.1</v>
       </c>
       <c r="G64" t="n">
-        <v>0.26</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>22-03-2025 17:30</t>
+          <t>23-03-2025 14:00</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>ITALY</t>
+          <t>URUGUAY</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>SERIE C - GIRONE C</t>
+          <t>SEGUNDA DIVISIÓN</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Juventus U23 - Foggia</t>
+          <t>Albion FC - Uruguay Montevideo</t>
         </is>
       </c>
       <c r="E65" t="n">
-        <v>73.3</v>
+        <v>62.3</v>
       </c>
       <c r="F65" t="n">
-        <v>2.2</v>
+        <v>2.55</v>
       </c>
       <c r="G65" t="n">
-        <v>0.61</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>22-03-2025 15:00</t>
+          <t>23-03-2025 23:00</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>ITALY</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>SERIE C - GIRONE C</t>
+          <t>CONCACAF NATIONS LEAGUE</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Sorrento - Latina</t>
+          <t>Canada - USA</t>
         </is>
       </c>
       <c r="E66" t="n">
-        <v>73.3</v>
+        <v>55.7</v>
       </c>
       <c r="F66" t="n">
-        <v>1.92</v>
+        <v>3.6</v>
       </c>
       <c r="G66" t="n">
-        <v>0.41</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>22-03-2025 15:00</t>
+          <t>23-03-2025 14:00</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>ITALY</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>SERIE C - GIRONE C</t>
+          <t>WORLD CUP - QUALIFICATION AFRICA</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Cavese - Trapani 1905</t>
+          <t>Eswatini - Mauritius</t>
         </is>
       </c>
       <c r="E67" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="F67" t="n">
-        <v>2.2</v>
+        <v>1.95</v>
       </c>
       <c r="G67" t="n">
-        <v>0.1</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>23-03-2025 00:30</t>
+          <t>24-03-2025 01:30</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>PARAGUAY</t>
+          <t>ARGENTINA</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>DIVISION PROFESIONAL - APERTURA</t>
+          <t>PRIMERA NACIONAL</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Olimpia - Nacional Asuncion</t>
+          <t>Gimnasia M. - Colon Santa Fe</t>
         </is>
       </c>
       <c r="E68" t="n">
         <v>60</v>
       </c>
       <c r="F68" t="n">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="G68" t="n">
-        <v>0.08</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>22-03-2025 08:30</t>
+          <t>24-03-2025 18:00</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>SOUTH-KOREA</t>
+          <t>ISRAEL</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>K LEAGUE 1</t>
+          <t>LIGA LEUMIT</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Gwangju FC - Pohang Steelers</t>
+          <t>Hapoel Acre - Hapoel Kfar Saba</t>
         </is>
       </c>
       <c r="E69" t="n">
-        <v>60</v>
+        <v>53.3</v>
       </c>
       <c r="F69" t="n">
         <v>2.3</v>
       </c>
       <c r="G69" t="n">
-        <v>0.38</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>22-03-2025 19:00</t>
+          <t>24-03-2025 14:00</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>SPAIN</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>PRIMERA DIVISIÓN RFEF - GROUP 1</t>
+          <t>WORLD CUP - QUALIFICATION AFRICA</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Zamora - Gimnastic</t>
+          <t>Namibia - Equatorial Guinea</t>
         </is>
       </c>
       <c r="E70" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="F70" t="n">
-        <v>2.3</v>
+        <v>2.62</v>
       </c>
       <c r="G70" t="n">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>22-03-2025 18:00</t>
-        </is>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>SPAIN</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>PRIMERA DIVISIÓN RFEF - GROUP 2</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>Atlético Madrid II - Real Betis II</t>
-        </is>
-      </c>
-      <c r="E71" t="n">
-        <v>60</v>
-      </c>
-      <c r="F71" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="G71" t="n">
-        <v>0.14</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>22-03-2025 16:00</t>
-        </is>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>SPAIN</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>PRIMERA DIVISIÓN RFEF - GROUP 2</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>AD Ceuta FC - Hércules</t>
-        </is>
-      </c>
-      <c r="E72" t="n">
-        <v>70</v>
-      </c>
-      <c r="F72" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="G72" t="n">
-        <v>0.19</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>22-03-2025 18:00</t>
-        </is>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>SPAIN</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>PRIMERA DIVISIÓN RFEF - GROUP 2</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>Recreativo Huelva - Sanluqueño</t>
-        </is>
-      </c>
-      <c r="E73" t="n">
-        <v>60</v>
-      </c>
-      <c r="F73" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="G73" t="n">
-        <v>0.23</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>22-03-2025 21:00</t>
-        </is>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>SPAIN</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>SEGUNDA DIVISIÓN</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>Granada CF - Oviedo</t>
-        </is>
-      </c>
-      <c r="E74" t="n">
-        <v>53.3</v>
-      </c>
-      <c r="F74" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="G74" t="n">
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>22-03-2025 18:30</t>
-        </is>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>SPAIN</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>SEGUNDA DIVISIÓN</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>Malaga - Racing Ferrol</t>
-        </is>
-      </c>
-      <c r="E75" t="n">
-        <v>50</v>
-      </c>
-      <c r="F75" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="G75" t="n">
-        <v>-0.08</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>22-03-2025 18:00</t>
-        </is>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>SPAIN</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>SEGUNDA DIVISIÓN RFEF - GROUP 2</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>Real Sociedad III - Subiza</t>
-        </is>
-      </c>
-      <c r="E76" t="n">
-        <v>50</v>
-      </c>
-      <c r="F76" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="G76" t="n">
-        <v>-0.12</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>22-03-2025 16:00</t>
-        </is>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>SPAIN</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>SEGUNDA DIVISIÓN RFEF - GROUP 2</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>Real Zaragoza II - Anguiano</t>
-        </is>
-      </c>
-      <c r="E77" t="n">
-        <v>50</v>
-      </c>
-      <c r="F77" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="G77" t="n">
-        <v>-0.1</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>22-03-2025 16:30</t>
-        </is>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>SPAIN</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>SEGUNDA DIVISIÓN RFEF - GROUP 4</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>Juventud Torremolinos - Linares Deportivo</t>
-        </is>
-      </c>
-      <c r="E78" t="n">
-        <v>50</v>
-      </c>
-      <c r="F78" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="G78" t="n">
-        <v>-0.12</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>22-03-2025 13:00</t>
-        </is>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>SPAIN</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>SEGUNDA DIVISIÓN RFEF - GROUP 4</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>Cádiz II - Villanovense</t>
-        </is>
-      </c>
-      <c r="E79" t="n">
-        <v>66.7</v>
-      </c>
-      <c r="F79" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="G79" t="n">
-        <v>0.53</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>22-03-2025 18:00</t>
-        </is>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>SPAIN</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>SEGUNDA DIVISIÓN RFEF - GROUP 5</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>SS Reyes - Real Madrid III</t>
-        </is>
-      </c>
-      <c r="E80" t="n">
-        <v>60</v>
-      </c>
-      <c r="F80" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="G80" t="n">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>22-03-2025 12:00</t>
-        </is>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>TURKEY</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>2. LIG</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>Tuzlaspor - İnegölspor</t>
-        </is>
-      </c>
-      <c r="E81" t="n">
-        <v>60</v>
-      </c>
-      <c r="F81" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="G81" t="n">
-        <v>0.26</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>22-03-2025 21:30</t>
-        </is>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>USA</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>MAJOR LEAGUE SOCCER</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>Minnesota United FC - Los Angeles Galaxy</t>
-        </is>
-      </c>
-      <c r="E82" t="n">
-        <v>53.3</v>
-      </c>
-      <c r="F82" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="G82" t="n">
-        <v>-0.01</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>23-03-2025 00:30</t>
-        </is>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>USA</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>MAJOR LEAGUE SOCCER</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>Columbus Crew - New York City FC</t>
-        </is>
-      </c>
-      <c r="E83" t="n">
-        <v>53.3</v>
-      </c>
-      <c r="F83" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="G83" t="n">
-        <v>-0.07000000000000001</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>23-03-2025 00:30</t>
-        </is>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>USA</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>MAJOR LEAGUE SOCCER</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>New York Red Bulls - Toronto FC</t>
-        </is>
-      </c>
-      <c r="E84" t="n">
-        <v>60</v>
-      </c>
-      <c r="F84" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="G84" t="n">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>21-03-2025 02:00</t>
-        </is>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>USA</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>US OPEN CUP</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>Flatirons Rush - Union Omaha</t>
-        </is>
-      </c>
-      <c r="E85" t="n">
-        <v>50</v>
-      </c>
-      <c r="F85" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="G85" t="n">
-        <v>1.75</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>22-03-2025 20:00</t>
-        </is>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>URUGUAY</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>SEGUNDA DIVISIÓN</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>La Luz - Rampla Juniors</t>
-        </is>
-      </c>
-      <c r="E86" t="n">
-        <v>73.3</v>
-      </c>
-      <c r="F86" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="G86" t="n">
-        <v>1.13</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>22-03-2025 01:00</t>
-        </is>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>WORLD</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>FRIENDLIES</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>Puerto Rico - Dominican Republic</t>
-        </is>
-      </c>
-      <c r="E87" t="n">
-        <v>50</v>
-      </c>
-      <c r="F87" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="G87" t="n">
-        <v>1.3</v>
+        <v>0.57</v>
       </c>
     </row>
   </sheetData>
@@ -4815,1457 +3980,6 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:G46"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Date</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Country</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Championship</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Match</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Away Win (%)</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Away Odds</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>EV away win</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>21-03-2025 09:30</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>AUSTRALIA</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>NEW SOUTH WALES NPL</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Manly United - NWS Spirit</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
-        <v>50</v>
-      </c>
-      <c r="F2" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>21-03-2025 10:00</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>AUSTRALIA</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>SOUTH AUSTRALIA NPL</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Adelaide Raiders - West Torrens Birkalla</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>70</v>
-      </c>
-      <c r="F3" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="G3" t="n">
-        <v>1.02</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>21-03-2025 10:00</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>AUSTRALIA</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>SOUTH AUSTRALIA NPL</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Modbury Jets - Campbelltown City</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>56.7</v>
-      </c>
-      <c r="F4" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.42</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>21-03-2025 09:45</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>AUSTRALIA</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>VICTORIA NPL</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Dandenong City - Heidelberg United</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>53.3</v>
-      </c>
-      <c r="F5" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>21-03-2025 10:30</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>AUSTRALIA</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>VICTORIA NPL</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Preston Lions - Oakleigh Cannons</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>50</v>
-      </c>
-      <c r="F6" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="G6" t="n">
-        <v>-0.05</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>21-03-2025 10:30</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>AUSTRALIA</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>VICTORIA NPL 2</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Bentleigh Greens - Sunshine Georgies</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
-        <v>53.3</v>
-      </c>
-      <c r="F7" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0.54</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>21-03-2025 19:00</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>AUSTRIA</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>REGIONALLIGA - OST</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Siegendorf - Favoritner AC</t>
-        </is>
-      </c>
-      <c r="E8" t="n">
-        <v>50</v>
-      </c>
-      <c r="F8" t="n">
-        <v>3</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>21-03-2025 19:00</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>DENMARK</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>2ND DIVISION - GROUP 1</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>HIK - FC Helsingor</t>
-        </is>
-      </c>
-      <c r="E9" t="n">
-        <v>73.3</v>
-      </c>
-      <c r="F9" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0.54</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>21-03-2025 19:30</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>FRANCE</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>NATIONAL 1</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Dijon - Valenciennes</t>
-        </is>
-      </c>
-      <c r="E10" t="n">
-        <v>50</v>
-      </c>
-      <c r="F10" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>21-03-2025 19:00</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>FRANCE</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>NATIONAL 2 - GROUP C</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Epinal - Chambly Thelle FC</t>
-        </is>
-      </c>
-      <c r="E11" t="n">
-        <v>60</v>
-      </c>
-      <c r="F11" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0.35</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>21-03-2025 19:00</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>GERMANY</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>REGIONALLIGA - BAYERN</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>Augsburg II - Viktoria Aschaffenburg</t>
-        </is>
-      </c>
-      <c r="E12" t="n">
-        <v>53.3</v>
-      </c>
-      <c r="F12" t="n">
-        <v>5.75</v>
-      </c>
-      <c r="G12" t="n">
-        <v>2.06</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>21-03-2025 19:00</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>GERMANY</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>REGIONALLIGA - SUDWEST</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>Eintracht Frankfurt II - FC Astoria Walldorf</t>
-        </is>
-      </c>
-      <c r="E13" t="n">
-        <v>53.3</v>
-      </c>
-      <c r="F13" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0.65</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>21-03-2025 11:00</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>ISRAEL</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>LIGA ALEF</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>Maccabi Shaarayim - Shimshon Tel Aviv</t>
-        </is>
-      </c>
-      <c r="E14" t="n">
-        <v>57.7</v>
-      </c>
-      <c r="F14" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>21-03-2025 19:45</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>POLAND</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>III LIGA - GROUP 1</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>Unia Skierniewice - Victoria Sulejówek</t>
-        </is>
-      </c>
-      <c r="E15" t="n">
-        <v>66.7</v>
-      </c>
-      <c r="F15" t="n">
-        <v>8</v>
-      </c>
-      <c r="G15" t="n">
-        <v>4.34</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>21-03-2025 20:30</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>SPAIN</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>SEGUNDA DIVISIÓN</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>Burgos - Almeria</t>
-        </is>
-      </c>
-      <c r="E16" t="n">
-        <v>53.3</v>
-      </c>
-      <c r="F16" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0.36</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>21-03-2025 21:00</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>WALES</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>PREMIER LEAGUE</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>Aberystwyth Town - Briton Ferry</t>
-        </is>
-      </c>
-      <c r="E17" t="n">
-        <v>56.7</v>
-      </c>
-      <c r="F17" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>22-03-2025 00:30</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>WORLD</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>WORLD CUP - QUALIFICATION SOUTH AMERICA</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>Uruguay - Argentina</t>
-        </is>
-      </c>
-      <c r="E18" t="n">
-        <v>53.3</v>
-      </c>
-      <c r="F18" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0.54</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>22-03-2025 16:00</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>ENGLAND</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>LEAGUE ONE</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>Northampton - Blackpool</t>
-        </is>
-      </c>
-      <c r="E19" t="n">
-        <v>55.7</v>
-      </c>
-      <c r="F19" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>22-03-2025 18:30</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>ENGLAND</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>NATIONAL LEAGUE</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>Altrincham - Barnet</t>
-        </is>
-      </c>
-      <c r="E20" t="n">
-        <v>53.3</v>
-      </c>
-      <c r="F20" t="n">
-        <v>2</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>22-03-2025 16:00</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>ENGLAND</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>NATIONAL LEAGUE</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>Hartlepool - Boston United</t>
-        </is>
-      </c>
-      <c r="E21" t="n">
-        <v>60</v>
-      </c>
-      <c r="F21" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="G21" t="n">
-        <v>1.52</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>22-03-2025 16:00</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>ENGLAND</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>NATIONAL LEAGUE</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>Oldham - FC Halifax Town</t>
-        </is>
-      </c>
-      <c r="E22" t="n">
-        <v>55.7</v>
-      </c>
-      <c r="F22" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0.84</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>22-03-2025 16:00</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>SCOTLAND</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>LEAGUE ONE</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>Dumbarton - Queen Of The South</t>
-        </is>
-      </c>
-      <c r="E23" t="n">
-        <v>53.3</v>
-      </c>
-      <c r="F23" t="n">
-        <v>2</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>22-03-2025 16:00</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>SCOTLAND</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>LEAGUE TWO</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>Edinburgh City - East Fife</t>
-        </is>
-      </c>
-      <c r="E24" t="n">
-        <v>73.3</v>
-      </c>
-      <c r="F24" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="G24" t="n">
-        <v>0.76</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>22-03-2025 09:00</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>AUSTRALIA</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>NEW SOUTH WALES NPL</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>Rockdale City Suns - Blacktown City</t>
-        </is>
-      </c>
-      <c r="E25" t="n">
-        <v>60</v>
-      </c>
-      <c r="F25" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>22-03-2025 09:00</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>AUSTRALIA</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>NEW SOUTH WALES NPL 2</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>Inter Lions - Bankstown City Lions</t>
-        </is>
-      </c>
-      <c r="E26" t="n">
-        <v>60</v>
-      </c>
-      <c r="F26" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0.32</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>22-03-2025 05:30</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>AUSTRALIA</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>SOUTH AUSTRALIA STATE LEAGUE 1</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>Fulham United - Cumberland United</t>
-        </is>
-      </c>
-      <c r="E27" t="n">
-        <v>60</v>
-      </c>
-      <c r="F27" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="G27" t="n">
-        <v>0.32</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>22-03-2025 09:30</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>AUSTRALIA</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>SOUTH AUSTRALIA STATE LEAGUE 1</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>Adelaide Cobras - West Adelaide</t>
-        </is>
-      </c>
-      <c r="E28" t="n">
-        <v>53.3</v>
-      </c>
-      <c r="F28" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="G28" t="n">
-        <v>0.17</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>22-03-2025 08:00</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>AUSTRALIA</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>WESTERN AUSTRALIA NPL</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>Sorrento - Olympic Kingsway</t>
-        </is>
-      </c>
-      <c r="E29" t="n">
-        <v>60</v>
-      </c>
-      <c r="F29" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="G29" t="n">
-        <v>1.1</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>22-03-2025 14:30</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>BULGARIA</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>SECOND LEAGUE</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>Yantra 2019 - Sportist Svoge</t>
-        </is>
-      </c>
-      <c r="E30" t="n">
-        <v>51.7</v>
-      </c>
-      <c r="F30" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="G30" t="n">
-        <v>1.17</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>22-03-2025 22:00</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>CHILE</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>COPA CHILE</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>Universidad De Concepcion - Curico Unido</t>
-        </is>
-      </c>
-      <c r="E31" t="n">
-        <v>50</v>
-      </c>
-      <c r="F31" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="G31" t="n">
-        <v>0.55</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>22-03-2025 10:30</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>CZECH-REPUBLIC</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>3. LIGA - CFL A</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>Slovan Velvary - Příbram</t>
-        </is>
-      </c>
-      <c r="E32" t="n">
-        <v>60</v>
-      </c>
-      <c r="F32" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0.11</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>22-03-2025 20:30</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>EGYPT</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>SECOND LEAGUE</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>Abu Qair Semad - El Seka El Hadid</t>
-        </is>
-      </c>
-      <c r="E33" t="n">
-        <v>50</v>
-      </c>
-      <c r="F33" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="G33" t="n">
-        <v>1.25</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>22-03-2025 20:30</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>EGYPT</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>SECOND LEAGUE</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>La Viena FC - Kahraba Ismailia</t>
-        </is>
-      </c>
-      <c r="E34" t="n">
-        <v>50</v>
-      </c>
-      <c r="F34" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="G34" t="n">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>22-03-2025 16:00</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>ENGLAND</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>NATIONAL LEAGUE - NORTH</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>Radcliffe - Brackley Town</t>
-        </is>
-      </c>
-      <c r="E35" t="n">
-        <v>50</v>
-      </c>
-      <c r="F35" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="G35" t="n">
-        <v>-0.05</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>22-03-2025 16:00</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>ENGLAND</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>NATIONAL LEAGUE - SOUTH</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>Boreham Wood - Dorking Wanderers</t>
-        </is>
-      </c>
-      <c r="E36" t="n">
-        <v>50</v>
-      </c>
-      <c r="F36" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="G36" t="n">
-        <v>0.55</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>22-03-2025 16:00</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>ENGLAND</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>NATIONAL LEAGUE - SOUTH</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>Slough Town - Enfield Town</t>
-        </is>
-      </c>
-      <c r="E37" t="n">
-        <v>50</v>
-      </c>
-      <c r="F37" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="G37" t="n">
-        <v>0.65</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>22-03-2025 19:30</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>FRANCE</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>NATIONAL 1</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>Quevilly - Aubagne</t>
-        </is>
-      </c>
-      <c r="E38" t="n">
-        <v>60</v>
-      </c>
-      <c r="F38" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0.95</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>22-03-2025 14:00</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>GERMANY</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>REGIONALLIGA - BAYERN</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>Greuther Fürth II - Türkgücü-Ataspor</t>
-        </is>
-      </c>
-      <c r="E39" t="n">
-        <v>53.3</v>
-      </c>
-      <c r="F39" t="n">
-        <v>5.25</v>
-      </c>
-      <c r="G39" t="n">
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>22-03-2025 14:00</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>GERMANY</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>REGIONALLIGA - SUDWEST</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>Eintracht Trier - FSV Frankfurt</t>
-        </is>
-      </c>
-      <c r="E40" t="n">
-        <v>66.7</v>
-      </c>
-      <c r="F40" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="G40" t="n">
-        <v>0.47</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>22-03-2025 19:30</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>ITALY</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>SERIE C - GIRONE B</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>Arezzo - Milan II</t>
-        </is>
-      </c>
-      <c r="E41" t="n">
-        <v>50</v>
-      </c>
-      <c r="F41" t="n">
-        <v>5</v>
-      </c>
-      <c r="G41" t="n">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>22-03-2025 16:00</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>NORTHERN-IRELAND</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>PREMIERSHIP</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>Glenavon FC - Larne</t>
-        </is>
-      </c>
-      <c r="E42" t="n">
-        <v>60</v>
-      </c>
-      <c r="F42" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="G42" t="n">
-        <v>0.29</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>22-03-2025 16:00</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>NORTHERN-IRELAND</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>PREMIERSHIP</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>Loughgall - Ballymena United</t>
-        </is>
-      </c>
-      <c r="E43" t="n">
-        <v>62.3</v>
-      </c>
-      <c r="F43" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="G43" t="n">
-        <v>0.18</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>22-03-2025 16:15</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>SPAIN</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>SEGUNDA DIVISIÓN</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>Elche - Eldense</t>
-        </is>
-      </c>
-      <c r="E44" t="n">
-        <v>53.3</v>
-      </c>
-      <c r="F44" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="G44" t="n">
-        <v>2.09</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>22-03-2025 16:00</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>SPAIN</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>SEGUNDA DIVISIÓN RFEF - GROUP 2</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>Real Zaragoza II - Anguiano</t>
-        </is>
-      </c>
-      <c r="E45" t="n">
-        <v>50</v>
-      </c>
-      <c r="F45" t="n">
-        <v>4</v>
-      </c>
-      <c r="G45" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>22-03-2025 14:00</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>URUGUAY</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>SEGUNDA DIVISIÓN</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>Fenix - Tacuarembo</t>
-        </is>
-      </c>
-      <c r="E46" t="n">
-        <v>50</v>
-      </c>
-      <c r="F46" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="G46" t="n">
-        <v>0.9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6302,139 +4016,846 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Over 2.5 (%)</t>
+          <t>Away Win (%)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Odds 2.5</t>
+          <t>Away Odds</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>EV over 2.5</t>
+          <t>EV away win</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>19-03-2025 01:30</t>
+          <t>23-03-2025 20:45</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>COPA DO NORDESTE</t>
+          <t>UEFA NATIONS LEAGUE</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>CRB - Ferroviario</t>
+          <t>Belgium - Ukraine</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>73.3</v>
+        <v>50</v>
       </c>
       <c r="F2" t="n">
-        <v>2.2</v>
+        <v>11</v>
       </c>
       <c r="G2" t="n">
-        <v>0.61</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>21-03-2025 23:00</t>
+          <t>23-03-2025 18:00</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>MARANHENSE</t>
+          <t>UEFA NATIONS LEAGUE</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Maranhão - Tuntum</t>
+          <t>Scotland - Greece</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="F3" t="n">
-        <v>1.73</v>
+        <v>3.1</v>
       </c>
       <c r="G3" t="n">
-        <v>0.38</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>21-03-2025 22:00</t>
+          <t>23-03-2025 19:30</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>CHILE</t>
+          <t>ARGENTINA</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>COPA CHILE</t>
+          <t>PRIMERA C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Union Espanola - A. Italiano</t>
+          <t>Lugano - Deportivo Español</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>70</v>
+        <v>53.3</v>
       </c>
       <c r="F4" t="n">
-        <v>1.73</v>
+        <v>2.55</v>
       </c>
       <c r="G4" t="n">
-        <v>0.21</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>21-03-2025 19:00</t>
+          <t>23-03-2025 07:15</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>AUSTRALIA</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>QUEENSLAND PREMIER LEAGUE</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Broadbeach United - Caboolture</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="F5" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1.73</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>23-03-2025 22:00</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>COSTA-RICA</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>LIGA DE ASCENSO</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Limón Black Star - Guadalupe FC</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>62.3</v>
+      </c>
+      <c r="F6" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>23-03-2025 10:15</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>CZECH-REPUBLIC</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>3. LIGA - CFL A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Dukla Praha II - Motorlet Praha</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>63.3</v>
+      </c>
+      <c r="F7" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>23-03-2025 22:00</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>EL-SALVADOR</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>PRIMERA DIVISION</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Cacahuatique - Alianza</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>53.3</v>
+      </c>
+      <c r="F8" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>23-03-2025 11:00</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>GERMANY</t>
         </is>
       </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>U19 BUNDESLIGA</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Schalke 04 U19 - Chemnitzer FC U19</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>50</v>
+      </c>
+      <c r="F9" t="n">
+        <v>9</v>
+      </c>
+      <c r="G9" t="n">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>23-03-2025 12:00</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>INDIA</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>I-LEAGUE</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Churchill Brothers - Sreenidi Deccan</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>53.3</v>
+      </c>
+      <c r="F10" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="G10" t="n">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>23-03-2025 15:00</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>ITALY</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>SERIE C - GIRONE C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>SS Monopoli - Casertana</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>53.3</v>
+      </c>
+      <c r="F11" t="n">
+        <v>5</v>
+      </c>
+      <c r="G11" t="n">
+        <v>1.66</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>23-03-2025 21:15</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>PARAGUAY</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>DIVISION PROFESIONAL - APERTURA</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2 De Mayo - Cerro Porteno</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>50</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="G12" t="n">
+        <v>-0.03</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>23-03-2025 17:00</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>SPAIN</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>SEGUNDA DIVISIÓN RFEF - GROUP 2</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>UD Logroñés - SD Logroñés</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>60</v>
+      </c>
+      <c r="F13" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="G13" t="n">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>23-03-2025 17:00</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>SPAIN</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>SEGUNDA DIVISIÓN RFEF - GROUP 2</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Izarra - Utebo</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>23-03-2025 18:00</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>SPAIN</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>SEGUNDA DIVISIÓN RFEF - GROUP 2</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Tudelano - Teruel</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>60</v>
+      </c>
+      <c r="F15" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>23-03-2025 18:30</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>SPAIN</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>SEGUNDA DIVISIÓN RFEF - GROUP 4</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Orihuela - Linense</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>53.3</v>
+      </c>
+      <c r="F16" t="n">
+        <v>5</v>
+      </c>
+      <c r="G16" t="n">
+        <v>1.66</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>23-03-2025 12:00</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>SPAIN</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>SEGUNDA DIVISIÓN RFEF - GROUP 5</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Colonia Moscardó - Navalcarnero</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>50</v>
+      </c>
+      <c r="F17" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>23-03-2025 12:00</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>SPAIN</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>SEGUNDA DIVISIÓN RFEF - GROUP 5</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Atlético Paso - CD Coria</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>73.3</v>
+      </c>
+      <c r="F18" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>23-03-2025 12:30</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>SPAIN</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>TERCERA DIVISIÓN RFEF - GROUP 2</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Lenense - Ceares</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>60</v>
+      </c>
+      <c r="F19" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>23-03-2025 16:45</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>SPAIN</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>TERCERA DIVISIÓN RFEF - GROUP 3</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Torina - Tropezón</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>62.3</v>
+      </c>
+      <c r="F20" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>24-03-2025 17:00</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>WORLD</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>WORLD CUP - QUALIFICATION AFRICA</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Guinea-Bissau - Burkina Faso</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>60</v>
+      </c>
+      <c r="F21" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.58</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>24-03-2025 20:45</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>WORLD</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>WORLD CUP - QUALIFICATION EUROPE</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Bosnia &amp; Herzegovina - Cyprus</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>60</v>
+      </c>
+      <c r="F22" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="G22" t="n">
+        <v>5.9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Country</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Championship</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Match</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Over 2.5 (%)</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Odds 2.5</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>EV over 2.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>24-03-2025 00:00</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>ARGENTINA</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>PRIMERA C</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Estrella Del Sur - Deportivo Camioneros</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>70</v>
+      </c>
+      <c r="F2" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>23-03-2025 15:00</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>BELGIUM</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>FIRST AMATEUR DIVISION</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Standard Liège II - RUS Binche</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>75</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>23-03-2025 10:45</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>GERMANY</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>OBERLIGA - HAMBURG</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Paloma - Türkiye</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>85</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>23-03-2025 14:00</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>GERMANY</t>
+        </is>
+      </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>REGIONALLIGA - NORDOST</t>
+          <t>REGIONALLIGA - NORD</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>FC Rot-Weiß Erfurt - Hertha BSC II</t>
+          <t>Eintracht Norderstedt - SSV Jeddeloh</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>82.5</v>
+        <v>75</v>
       </c>
       <c r="F5" t="n">
-        <v>1.7</v>
+        <v>1.87</v>
       </c>
       <c r="G5" t="n">
         <v>0.4</v>
@@ -6443,38 +4864,38 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>21-03-2025 19:00</t>
+          <t>23-03-2025 19:30</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MEXICO</t>
+          <t>POLAND</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>LIGA PREMIER SERIE B</t>
+          <t>II LIGA - EAST</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Real Zamora - Pachuca Premier</t>
+          <t>Chojniczanka Chojnice - Hutnik Kraków</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>73.3</v>
+        <v>70</v>
       </c>
       <c r="F6" t="n">
-        <v>1.91</v>
+        <v>1.77</v>
       </c>
       <c r="G6" t="n">
-        <v>0.4</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>21-03-2025 20:30</t>
+          <t>23-03-2025 17:30</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -6484,487 +4905,146 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>PRIMERA DIVISIÓN RFEF - GROUP 2</t>
+          <t>PRIMERA DIVISIÓN RFEF - GROUP 1</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Mérida AD - Yeclano</t>
+          <t>Unionistas De Salamanca - Gimnástica Segoviana</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>86.7</v>
+        <v>73.3</v>
       </c>
       <c r="F7" t="n">
-        <v>2.1</v>
+        <v>1.75</v>
       </c>
       <c r="G7" t="n">
-        <v>0.82</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>22-03-2025 16:00</t>
+          <t>23-03-2025 12:00</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>SPAIN</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>LEAGUE TWO</t>
+          <t>PRIMERA DIVISIÓN RFEF - GROUP 2</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Swindon Town - Accrington ST</t>
+          <t>Ibiza - Intercity</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="F8" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="G8" t="n">
-        <v>0.36</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>22-03-2025 18:30</t>
+          <t>24-03-2025 20:00</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>SCOTLAND</t>
+          <t>COLOMBIA</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>LEAGUE ONE</t>
+          <t>PRIMERA B</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Cove Rangers - Stenhousemuir</t>
+          <t>Bogota FC - Patriotas</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>76.8</v>
+        <v>77.5</v>
       </c>
       <c r="F9" t="n">
-        <v>1.73</v>
+        <v>2.05</v>
       </c>
       <c r="G9" t="n">
-        <v>0.33</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>22-03-2025 19:30</t>
+          <t>24-03-2025 12:00</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ARGENTINA</t>
+          <t>INDIA</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>PRIMERA C</t>
+          <t>I-LEAGUE</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Central Cordoba - Deportivo Muñiz</t>
+          <t>Dempo - Aizawl</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>70</v>
+        <v>86.7</v>
       </c>
       <c r="F10" t="n">
-        <v>2.55</v>
+        <v>1.8</v>
       </c>
       <c r="G10" t="n">
-        <v>0.78</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>22-03-2025 20:30</t>
+          <t>24-03-2025 21:00</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>NORTHERN-IRELAND</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>CATARINENSE - 1</t>
+          <t>PREMIERSHIP</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Avai - Chapecoense-sc</t>
+          <t>Dungannon Swifts - Linfield</t>
         </is>
       </c>
       <c r="E11" t="n">
         <v>70</v>
       </c>
       <c r="F11" t="n">
-        <v>1.98</v>
+        <v>1.73</v>
       </c>
       <c r="G11" t="n">
-        <v>0.39</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>22-03-2025 14:30</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>BULGARIA</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>SECOND LEAGUE</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>Nesebar - Spartak Pleven</t>
-        </is>
-      </c>
-      <c r="E12" t="n">
-        <v>70</v>
-      </c>
-      <c r="F12" t="n">
-        <v>2</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>22-03-2025 22:00</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>CHILE</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>COPA CHILE</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>Universidad De Concepcion - Curico Unido</t>
-        </is>
-      </c>
-      <c r="E13" t="n">
-        <v>72.5</v>
-      </c>
-      <c r="F13" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0.73</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>22-03-2025 14:00</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>DENMARK</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>2ND DIVISION - GROUP 1</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>Skive - Aarhus Fremad</t>
-        </is>
-      </c>
-      <c r="E14" t="n">
-        <v>80</v>
-      </c>
-      <c r="F14" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0.52</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>22-03-2025 16:00</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>ENGLAND</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>NATIONAL LEAGUE - NORTH</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>Chorley - Alfreton Town</t>
-        </is>
-      </c>
-      <c r="E15" t="n">
-        <v>76.8</v>
-      </c>
-      <c r="F15" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0.38</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>22-03-2025 14:00</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>GERMANY</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>REGIONALLIGA - SUDWEST</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>Hessen Kassel - Göppinger SV</t>
-        </is>
-      </c>
-      <c r="E16" t="n">
-        <v>73.3</v>
-      </c>
-      <c r="F16" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>22-03-2025 14:00</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>GERMANY</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>REGIONALLIGA - SUDWEST</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>Barockstadt Fulda-Lehn. - SGV Freiberg</t>
-        </is>
-      </c>
-      <c r="E17" t="n">
-        <v>72.5</v>
-      </c>
-      <c r="F17" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>22-03-2025 02:00</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>MEXICO</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>LIGA PREMIER SERIE B</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>FC Santiago - Calor De San Pedro</t>
-        </is>
-      </c>
-      <c r="E18" t="n">
-        <v>70</v>
-      </c>
-      <c r="F18" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0.26</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>22-03-2025 16:00</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>NORTHERN-IRELAND</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>PREMIERSHIP</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>Cliftonville FC - Carrick Rangers</t>
-        </is>
-      </c>
-      <c r="E19" t="n">
-        <v>70</v>
-      </c>
-      <c r="F19" t="n">
-        <v>2</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>23-03-2025 00:30</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>PARAGUAY</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>DIVISION PROFESIONAL - APERTURA</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>Olimpia - Nacional Asuncion</t>
-        </is>
-      </c>
-      <c r="E20" t="n">
-        <v>70</v>
-      </c>
-      <c r="F20" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0.57</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>22-03-2025 12:00</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>TURKEY</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>2. LIG</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>Menemen Belediyespor - Ankara Demirspor</t>
-        </is>
-      </c>
-      <c r="E21" t="n">
-        <v>80</v>
-      </c>
-      <c r="F21" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="G21" t="n">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>22-03-2025 22:00</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>USA</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>USL CHAMPIONSHIP</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>New Mexico United - El Paso Locomotive</t>
-        </is>
-      </c>
-      <c r="E22" t="n">
-        <v>75</v>
-      </c>
-      <c r="F22" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0.58</v>
+        <v>0.21</v>
       </c>
     </row>
   </sheetData>
@@ -6978,7 +5058,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G43"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7026,1061 +5106,1061 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>22-03-2025 00:00</t>
+          <t>23-03-2025 20:45</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>CHILE</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>COPA CHILE</t>
+          <t>UEFA NATIONS LEAGUE</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>San Luis - Everton De Vina</t>
+          <t>Belgium - Ukraine</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F2" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="G2" t="n">
-        <v>0.3</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>21-03-2025 19:30</t>
+          <t>23-03-2025 15:00</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>FRANCE</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>NATIONAL 1</t>
+          <t>UEFA NATIONS LEAGUE</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Boulogne - Nimes</t>
+          <t>Georgia - Armenia</t>
         </is>
       </c>
       <c r="E3" t="n">
         <v>80</v>
       </c>
       <c r="F3" t="n">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="G3" t="n">
-        <v>0.65</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>21-03-2025 19:00</t>
+          <t>23-03-2025 18:00</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>GERMANY</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>REGIONALLIGA - BAYERN</t>
+          <t>UEFA NATIONS LEAGUE</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Augsburg II - Viktoria Aschaffenburg</t>
+          <t>Slovenia - Slovakia</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>78.3</v>
+        <v>76.7</v>
       </c>
       <c r="F4" t="n">
-        <v>1.7</v>
+        <v>1.95</v>
       </c>
       <c r="G4" t="n">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>21-03-2025 20:45</t>
+          <t>23-03-2025 19:30</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>IRELAND</t>
+          <t>ARGENTINA</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>FIRST DIVISION</t>
+          <t>PRIMERA B METROPOLITANA</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>UCD - Treaty United</t>
+          <t>Dock Sud - Argentino De Merlo</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>66.7</v>
+        <v>75.8</v>
       </c>
       <c r="F5" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="G5" t="n">
-        <v>0.22</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>21-03-2025 11:30</t>
+          <t>24-03-2025 00:00</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ISRAEL</t>
+          <t>ARGENTINA</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>LIGA ALEF</t>
+          <t>PRIMERA C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Hapoel Herzliya - Holon Yermiyahu</t>
+          <t>Estrella Del Sur - Deportivo Camioneros</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>71.7</v>
+        <v>83.3</v>
       </c>
       <c r="F6" t="n">
-        <v>1.85</v>
+        <v>2.2</v>
       </c>
       <c r="G6" t="n">
-        <v>0.33</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>21-03-2025 11:30</t>
+          <t>23-03-2025 20:00</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ITALY</t>
+          <t>ARGENTINA</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>CAMPIONATO PRIMAVERA - 2</t>
+          <t>PRIMERA NACIONAL</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Pescara U19 - Benevento U19</t>
+          <t>Racing Cordoba - Atlanta</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>70</v>
+        <v>66.7</v>
       </c>
       <c r="F7" t="n">
-        <v>1.73</v>
+        <v>2.1</v>
       </c>
       <c r="G7" t="n">
-        <v>0.21</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>21-03-2025 19:00</t>
+          <t>23-03-2025 15:00</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>MEXICO</t>
+          <t>ARGENTINA</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>LIGA PREMIER SERIE B</t>
+          <t>TORNEO FEDERAL A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Real Zamora - Pachuca Premier</t>
+          <t>Guillermo Brown - Olimpo Bahia Blanca</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="F8" t="n">
-        <v>1.7</v>
+        <v>2.2</v>
       </c>
       <c r="G8" t="n">
-        <v>0.36</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>21-03-2025 15:30</t>
+          <t>23-03-2025 20:00</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>SLOVENIA</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2. SNL</t>
+          <t>CAPIXABA</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Bistrica - Brinje-Grosuplje</t>
+          <t>Vitória ES - Porto Vitória</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F9" t="n">
-        <v>1.83</v>
+        <v>2.05</v>
       </c>
       <c r="G9" t="n">
-        <v>0.28</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>21-03-2025 20:30</t>
+          <t>23-03-2025 22:00</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>SPAIN</t>
+          <t>CHILE</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>PRIMERA DIVISIÓN RFEF - GROUP 2</t>
+          <t>COPA CHILE</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Mérida AD - Yeclano</t>
+          <t>Magallanes - Recoleta</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="F10" t="n">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="G10" t="n">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>21-03-2025 20:45</t>
+          <t>23-03-2025 18:15</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>WALES</t>
+          <t>COSTA-RICA</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>PREMIER LEAGUE</t>
+          <t>LIGA DE ASCENSO</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Newtown AFC - GAP Connah S Quay FC</t>
+          <t>AD Sarchí - Deportivo Upala</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>70</v>
+        <v>76.7</v>
       </c>
       <c r="F11" t="n">
-        <v>1.75</v>
+        <v>2.15</v>
       </c>
       <c r="G11" t="n">
-        <v>0.22</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>21-03-2025 14:00</t>
+          <t>23-03-2025 22:00</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>EL-SALVADOR</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>FRIENDLIES</t>
+          <t>PRIMERA DIVISION</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Thailand - Afghanistan</t>
+          <t>Cacahuatique - Alianza</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>80</v>
+        <v>73.3</v>
       </c>
       <c r="F12" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="G12" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>21-03-2025 13:30</t>
+          <t>23-03-2025 10:45</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>GERMANY</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>FRIENDLIES</t>
+          <t>OBERLIGA - HAMBURG</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Singapore - Nepal</t>
+          <t>Paloma - Türkiye</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>80</v>
+        <v>68.3</v>
       </c>
       <c r="F13" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="G13" t="n">
-        <v>0.4</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>21-03-2025 22:00</t>
+          <t>23-03-2025 12:30</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>ITALY</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>WORLD CUP - QUALIFICATION AFRICA</t>
+          <t>SERIE C - GIRONE A</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Guinea - Somalia</t>
+          <t>Pergolettese - Arzignano Valchiampo</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>76</v>
+        <v>66.7</v>
       </c>
       <c r="F14" t="n">
-        <v>3.8</v>
+        <v>1.91</v>
       </c>
       <c r="G14" t="n">
-        <v>1.89</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>22-03-2025 16:00</t>
+          <t>23-03-2025 15:00</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>ITALY</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>LEAGUE TWO</t>
+          <t>SERIE C - GIRONE B</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Cheltenham - Milton Keynes Dons</t>
+          <t>Sestri Levante - Pescara</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>67.8</v>
+        <v>70</v>
       </c>
       <c r="F15" t="n">
-        <v>1.73</v>
+        <v>2.1</v>
       </c>
       <c r="G15" t="n">
-        <v>0.17</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>22-03-2025 16:00</t>
+          <t>23-03-2025 15:00</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>ITALY</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>LEAGUE TWO</t>
+          <t>SERIE C - GIRONE C</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Chesterfield - Harrogate Town</t>
+          <t>Giugliano - Messina</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>65</v>
+        <v>74.5</v>
       </c>
       <c r="F16" t="n">
-        <v>2.1</v>
+        <v>1.83</v>
       </c>
       <c r="G16" t="n">
-        <v>0.37</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>22-03-2025 16:00</t>
+          <t>23-03-2025 15:00</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>ITALY</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>LEAGUE TWO</t>
+          <t>SERIE C - GIRONE C</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Grimsby - Newport County</t>
+          <t>SS Monopoli - Casertana</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>66.7</v>
+        <v>65.59999999999999</v>
       </c>
       <c r="F17" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="G17" t="n">
-        <v>0.22</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>22-03-2025 13:30</t>
+          <t>23-03-2025 12:30</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>ITALY</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>LEAGUE TWO</t>
+          <t>SERIE C - GIRONE C</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Notts County - Crewe</t>
+          <t>Catania - Crotone</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>80</v>
+        <v>71.09999999999999</v>
       </c>
       <c r="F18" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="G18" t="n">
-        <v>0.44</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>22-03-2025 16:00</t>
+          <t>23-03-2025 23:00</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>MEXICO</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE</t>
+          <t>LIGA PREMIER SERIE A</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>AFC Fylde - Forest Green</t>
+          <t>Real Apodaca - Mexicali FC</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F19" t="n">
-        <v>1.91</v>
+        <v>2.15</v>
       </c>
       <c r="G19" t="n">
-        <v>0.38</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>22-03-2025 16:00</t>
+          <t>23-03-2025 22:00</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>PANAMA</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE</t>
+          <t>LIGA PANAMEÑA DE FÚTBOL</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Aldershot Town - Ebbsfleet United</t>
+          <t>Herrera - Alianza FC</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>65.59999999999999</v>
+        <v>69.2</v>
       </c>
       <c r="F20" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="G20" t="n">
-        <v>0.18</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>22-03-2025 16:00</t>
+          <t>23-03-2025 19:30</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>POLAND</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE</t>
+          <t>II LIGA - EAST</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Maidenhead - Rochdale</t>
+          <t>Chojniczanka Chojnice - Hutnik Kraków</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>73.3</v>
+        <v>83.3</v>
       </c>
       <c r="F21" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="G21" t="n">
-        <v>0.32</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>22-03-2025 16:00</t>
+          <t>23-03-2025 06:00</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>SOUTH-KOREA</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE</t>
+          <t>FA CUP</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Wealdstone - Woking</t>
+          <t>Hwaseong - Jinju Citizen</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>78.3</v>
+        <v>83</v>
       </c>
       <c r="F22" t="n">
-        <v>1.7</v>
+        <v>1.92</v>
       </c>
       <c r="G22" t="n">
-        <v>0.33</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>22-03-2025 16:00</t>
+          <t>23-03-2025 17:30</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>SCOTLAND</t>
+          <t>SPAIN</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>CHAMPIONSHIP</t>
+          <t>PRIMERA DIVISIÓN RFEF - GROUP 1</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Ayr Utd - Hamilton Academical</t>
+          <t>Unionistas De Salamanca - Gimnástica Segoviana</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="F23" t="n">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="G23" t="n">
-        <v>0.26</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>22-03-2025 16:00</t>
+          <t>23-03-2025 12:00</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>SCOTLAND</t>
+          <t>SPAIN</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>CHAMPIONSHIP</t>
+          <t>PRIMERA DIVISIÓN RFEF - GROUP 2</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Falkirk - Airdrie United</t>
+          <t>Ibiza - Intercity</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="F24" t="n">
-        <v>1.91</v>
+        <v>2.05</v>
       </c>
       <c r="G24" t="n">
-        <v>0.53</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>22-03-2025 16:00</t>
+          <t>23-03-2025 18:00</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>SCOTLAND</t>
+          <t>SPAIN</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>LEAGUE ONE</t>
+          <t>SEGUNDA DIVISIÓN RFEF - GROUP 2</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Inverness CT - Alloa Athletic</t>
+          <t>Tudelano - Teruel</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>66.7</v>
+        <v>76</v>
       </c>
       <c r="F25" t="n">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="G25" t="n">
-        <v>0.23</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>22-03-2025 16:00</t>
+          <t>23-03-2025 12:00</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>SCOTLAND</t>
+          <t>SPAIN</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>LEAGUE ONE</t>
+          <t>SEGUNDA DIVISIÓN RFEF - GROUP 5</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Montrose - Annan Athletic</t>
+          <t>Melilla - Illescas</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>66.7</v>
+        <v>76</v>
       </c>
       <c r="F26" t="n">
-        <v>1.8</v>
+        <v>2.62</v>
       </c>
       <c r="G26" t="n">
-        <v>0.2</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>22-03-2025 19:30</t>
+          <t>23-03-2025 12:00</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>ARGENTINA</t>
+          <t>SPAIN</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>PRIMERA C</t>
+          <t>SEGUNDA DIVISIÓN RFEF - GROUP 5</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Central Cordoba - Deportivo Muñiz</t>
+          <t>Unión Adarve - Tenerife II</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="F27" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="G27" t="n">
-        <v>0.47</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>23-03-2025 00:00</t>
+          <t>23-03-2025 12:00</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>CHILE</t>
+          <t>SPAIN</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>COPA CHILE</t>
+          <t>TERCERA DIVISIÓN RFEF - GROUP 10</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>San Marcos De Arica - D. La Serena</t>
+          <t>Tomares - Pozoblanco</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>100</v>
+        <v>86.7</v>
       </c>
       <c r="F28" t="n">
-        <v>1.83</v>
+        <v>2.15</v>
       </c>
       <c r="G28" t="n">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>22-03-2025 20:30</t>
+          <t>23-03-2025 16:00</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>EGYPT</t>
+          <t>SPAIN</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>SECOND LEAGUE</t>
+          <t>TERCERA DIVISIÓN RFEF - GROUP 11</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Tanta SC - Tersana</t>
+          <t>PE Sant Jordi - Alcúdia</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>72</v>
+        <v>66.7</v>
       </c>
       <c r="F29" t="n">
-        <v>2.23</v>
+        <v>1.75</v>
       </c>
       <c r="G29" t="n">
-        <v>0.61</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>22-03-2025 16:00</t>
+          <t>23-03-2025 11:30</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>SPAIN</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE - NORTH</t>
+          <t>TERCERA DIVISIÓN RFEF - GROUP 4</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Marine - Peterborough Sports</t>
+          <t>Portugalete - Urduliz</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="F30" t="n">
-        <v>1.77</v>
+        <v>2.3</v>
       </c>
       <c r="G30" t="n">
-        <v>0.35</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>22-03-2025 16:00</t>
+          <t>23-03-2025 11:30</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>SPAIN</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE - NORTH</t>
+          <t>TERCERA DIVISIÓN RFEF - GROUP 7</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Radcliffe - Brackley Town</t>
+          <t>AD Parla - Aravaca</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="F31" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="G31" t="n">
-        <v>0.27</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>22-03-2025 16:00</t>
+          <t>23-03-2025 11:30</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>SPAIN</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE - SOUTH</t>
+          <t>TERCERA DIVISIÓN RFEF - GROUP 7</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Truro City - Salisbury</t>
+          <t>Torrejón - Carabanchel</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>78.90000000000001</v>
+        <v>91.09999999999999</v>
       </c>
       <c r="F32" t="n">
-        <v>1.78</v>
+        <v>2.2</v>
       </c>
       <c r="G32" t="n">
-        <v>0.4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>22-03-2025 14:00</t>
+          <t>23-03-2025 21:45</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>GERMANY</t>
+          <t>URUGUAY</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>REGIONALLIGA - SUDWEST</t>
+          <t>PRIMERA DIVISIÓN - APERTURA</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Freiburg II - FC 08 Villingen</t>
+          <t>Cerro - Danubio</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>76</v>
+        <v>66.7</v>
       </c>
       <c r="F33" t="n">
-        <v>1.73</v>
+        <v>2.05</v>
       </c>
       <c r="G33" t="n">
-        <v>0.31</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>22-03-2025 12:00</t>
+          <t>24-03-2025 20:00</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>GREECE</t>
+          <t>COLOMBIA</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>SUPER LEAGUE 2</t>
+          <t>PRIMERA B</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Panachaiki FC - Panargiakos</t>
+          <t>Bogota FC - Patriotas</t>
         </is>
       </c>
       <c r="E34" t="n">
         <v>66.7</v>
       </c>
       <c r="F34" t="n">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="G34" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>22-03-2025 12:00</t>
+          <t>24-03-2025 18:00</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>INDIA</t>
+          <t>ISRAEL</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>I-LEAGUE</t>
+          <t>LIGA LEUMIT</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>SC Bengaluru - Gokulam</t>
+          <t>Hapoel Kfar Shalem - Hapoel Rishon LeZion</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>68</v>
+        <v>66.7</v>
       </c>
       <c r="F35" t="n">
         <v>1.75</v>
       </c>
       <c r="G35" t="n">
-        <v>0.19</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>22-03-2025 15:00</t>
+          <t>24-03-2025 20:30</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -8090,239 +6170,177 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>SERIE C - GIRONE A</t>
+          <t>SERIE C - GIRONE C</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Giana Erminio - Triestina</t>
+          <t>Avellino - Potenza</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>84.5</v>
+        <v>66.7</v>
       </c>
       <c r="F36" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="G36" t="n">
-        <v>0.61</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>22-03-2025 17:30</t>
+          <t>24-03-2025 21:00</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>ITALY</t>
+          <t>NORTHERN-IRELAND</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>SERIE C - GIRONE B</t>
+          <t>PREMIERSHIP</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Pontedera - Ascoli</t>
+          <t>Dungannon Swifts - Linfield</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F37" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="G37" t="n">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>22-03-2025 19:30</t>
+          <t>24-03-2025 22:30</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>ITALY</t>
+          <t>PARAGUAY</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>SERIE C - GIRONE B</t>
+          <t>DIVISION PROFESIONAL - APERTURA</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Arezzo - Milan II</t>
+          <t>Atlético Tembetary - Sportivo Ameliano</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>68</v>
+        <v>66.7</v>
       </c>
       <c r="F38" t="n">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="G38" t="n">
-        <v>0.43</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>23-03-2025 00:30</t>
+          <t>24-03-2025 20:00</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>PARAGUAY</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>DIVISION PROFESIONAL - APERTURA</t>
+          <t>WORLD CUP - QUALIFICATION AFRICA</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Olimpia - Nacional Asuncion</t>
+          <t>Madagascar - Ghana</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>73.3</v>
+        <v>71.7</v>
       </c>
       <c r="F39" t="n">
         <v>2</v>
       </c>
       <c r="G39" t="n">
-        <v>0.47</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>22-03-2025 19:00</t>
+          <t>24-03-2025 20:45</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>SPAIN</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>SEGUNDA DIVISIÓN RFEF - GROUP 4</t>
+          <t>WORLD CUP - QUALIFICATION EUROPE</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Águilas - Xerez</t>
+          <t>Poland - Malta</t>
         </is>
       </c>
       <c r="E40" t="n">
         <v>68</v>
       </c>
       <c r="F40" t="n">
-        <v>2.6</v>
+        <v>2.2</v>
       </c>
       <c r="G40" t="n">
-        <v>0.77</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>22-03-2025 22:00</t>
+          <t>24-03-2025 20:45</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>USL CHAMPIONSHIP</t>
+          <t>WORLD CUP - QUALIFICATION EUROPE</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>New Mexico United - El Paso Locomotive</t>
+          <t>Bosnia &amp; Herzegovina - Cyprus</t>
         </is>
       </c>
       <c r="E41" t="n">
         <v>80</v>
       </c>
       <c r="F41" t="n">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="G41" t="n">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>22-03-2025 23:00</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>URUGUAY</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>PRIMERA DIVISIÓN - APERTURA</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>Club Nacional - Plaza Colonia</t>
-        </is>
-      </c>
-      <c r="E42" t="n">
-        <v>70</v>
-      </c>
-      <c r="F42" t="n">
-        <v>2</v>
-      </c>
-      <c r="G42" t="n">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>22-03-2025 14:00</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>URUGUAY</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>SEGUNDA DIVISIÓN</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>Fenix - Tacuarembo</t>
-        </is>
-      </c>
-      <c r="E43" t="n">
-        <v>72</v>
-      </c>
-      <c r="F43" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="G43" t="n">
-        <v>0.25</v>
+        <v>0.72</v>
       </c>
     </row>
   </sheetData>

--- a/scraper/data/betclever_predictions.xlsx
+++ b/scraper/data/betclever_predictions.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -531,28 +531,56 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>25-03-2025 15:00</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>WORLD</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>UEFA U19 CHAMPIONSHIP - QUALIFICATION</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>France U19 - Italy U19</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>73.3</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1.91</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
           <t>25-03-2025 17:00</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>WORLD</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>WORLD</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
         <is>
           <t>WORLD CUP - QUALIFICATION AFRICA</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>Angola - Cape Verde Islands</t>
         </is>
       </c>
-      <c r="E4" t="n">
+      <c r="E5" t="n">
         <v>70</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F5" t="n">
         <v>1.95</v>
       </c>
     </row>
@@ -610,29 +638,29 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>24-03-2025 17:30</t>
+          <t>25-03-2025 14:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>GAMBIA</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>GFA LEAGUE</t>
+          <t>PROFESSIONAL DEVELOPMENT LEAGUE</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>BST Galaxy - Fortune</t>
+          <t>AFC Bournemouth U21 - Brentford U21</t>
         </is>
       </c>
       <c r="E2" t="n">
         <v>80</v>
       </c>
       <c r="F2" t="n">
-        <v>3</v>
+        <v>1.95</v>
       </c>
     </row>
     <row r="3">
@@ -674,7 +702,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -717,35 +745,35 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>24-03-2025 20:30</t>
+          <t>25-03-2025 13:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>EGYPT</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>LEAGUE CUP</t>
+          <t>FRIENDLIES</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>National Bank Of Egypt - AL Masry</t>
+          <t>Cambodia - Aruba</t>
         </is>
       </c>
       <c r="E2" t="n">
         <v>80</v>
       </c>
       <c r="F2" t="n">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>24-03-2025 20:45</t>
+          <t>25-03-2025 20:00</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -755,81 +783,81 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>WORLD CUP - QUALIFICATION EUROPE</t>
+          <t>WORLD CUP - QUALIFICATION AFRICA</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Bosnia &amp; Herzegovina - Cyprus</t>
+          <t>Egypt - Sierra Leone</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F3" t="n">
-        <v>2.15</v>
+        <v>3.35</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>25-03-2025 02:20</t>
+          <t>25-03-2025 17:00</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>COLOMBIA</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>PRIMERA B</t>
+          <t>WORLD CUP - QUALIFICATION AFRICA</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Leones FC - Real Soacha</t>
+          <t>Benin - South Africa</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="F4" t="n">
-        <v>1.82</v>
+        <v>2.05</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>25-03-2025 01:45</t>
+          <t>25-03-2025 22:00</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>JAMAICA</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>PREMIER LEAGUE</t>
+          <t>WORLD CUP - QUALIFICATION AFRICA</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Arnett Gardens - Cavalier</t>
+          <t>Algeria - Mozambique</t>
         </is>
       </c>
       <c r="E5" t="n">
         <v>80</v>
       </c>
       <c r="F5" t="n">
-        <v>1.85</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>25-03-2025 20:00</t>
+          <t>25-03-2025 14:45</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -839,25 +867,25 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>WORLD CUP - QUALIFICATION AFRICA</t>
+          <t>WORLD CUP - QUALIFICATION ASIA</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Egypt - Sierra Leone</t>
+          <t>Kyrgyzstan - Qatar</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="F6" t="n">
-        <v>3.35</v>
+        <v>2.05</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>25-03-2025 17:00</t>
+          <t>25-03-2025 19:15</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -867,102 +895,18 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>WORLD CUP - QUALIFICATION AFRICA</t>
+          <t>WORLD CUP - QUALIFICATION ASIA</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Benin - South Africa</t>
+          <t>Kuwait - Oman</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>80</v>
+        <v>93.3</v>
       </c>
       <c r="F7" t="n">
-        <v>2.05</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>25-03-2025 22:00</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>WORLD</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>WORLD CUP - QUALIFICATION AFRICA</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Algeria - Mozambique</t>
-        </is>
-      </c>
-      <c r="E8" t="n">
-        <v>80</v>
-      </c>
-      <c r="F8" t="n">
-        <v>3.8</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>25-03-2025 14:45</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>WORLD</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>WORLD CUP - QUALIFICATION ASIA</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Kyrgyzstan - Qatar</t>
-        </is>
-      </c>
-      <c r="E9" t="n">
-        <v>84</v>
-      </c>
-      <c r="F9" t="n">
-        <v>2.05</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>25-03-2025 19:15</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>WORLD</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>WORLD CUP - QUALIFICATION ASIA</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Kuwait - Oman</t>
-        </is>
-      </c>
-      <c r="E10" t="n">
-        <v>93.3</v>
-      </c>
-      <c r="F10" t="n">
         <v>2.1</v>
       </c>
     </row>
@@ -977,7 +921,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1030,136 +974,102 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>24-03-2025 12:00</t>
+          <t>25-03-2025 20:45</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>INDIA</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>I-LEAGUE</t>
+          <t>NATIONAL LEAGUE - SOUTH</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Dempo - Aizawl</t>
+          <t>AFC Hornchurch - Worthing</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>86.7</v>
+        <v>90</v>
       </c>
       <c r="F2" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="G2" t="n">
-        <v>66.7</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>2.88</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>24-03-2025 14:30</t>
+          <t>25-03-2025 15:00</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>INDIA</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>I-LEAGUE</t>
+          <t>UEFA U19 CHAMPIONSHIP - QUALIFICATION</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Inter Kashi - Shillong Lajong</t>
+          <t>France U19 - Italy U19</t>
         </is>
       </c>
       <c r="E3" t="n">
         <v>85</v>
       </c>
       <c r="F3" t="n">
-        <v>1.47</v>
+        <v>1.75</v>
       </c>
       <c r="G3" t="n">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="H3" t="n">
-        <v>2.25</v>
+        <v>2.88</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>25-03-2025 20:45</t>
+          <t>25-03-2025 14:45</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE - SOUTH</t>
+          <t>WORLD CUP - QUALIFICATION ASIA</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>AFC Hornchurch - Worthing</t>
+          <t>Kyrgyzstan - Qatar</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>90</v>
+        <v>66.7</v>
       </c>
       <c r="F4" t="n">
-        <v>1.85</v>
+        <v>2.08</v>
       </c>
       <c r="G4" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="H4" t="n">
-        <v>3.2</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>25-03-2025 14:45</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>WORLD</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>WORLD CUP - QUALIFICATION ASIA</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Kyrgyzstan - Qatar</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>66.7</v>
-      </c>
-      <c r="F5" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="G5" t="n">
-        <v>60</v>
-      </c>
-      <c r="H5" t="n">
         <v>3.75</v>
       </c>
     </row>
@@ -1174,7 +1084,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1222,60 +1132,60 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>24-03-2025 17:30</t>
+          <t>25-03-2025 19:30</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>GAMBIA</t>
+          <t>AUSTRIA</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>GFA LEAGUE</t>
+          <t>REGIONALLIGA - WEST</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>TMT - Bombada</t>
+          <t>Pinzgau Saalfelden - Kuchl</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>50</v>
+        <v>53.3</v>
       </c>
       <c r="F2" t="n">
-        <v>1.91</v>
+        <v>2.2</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.05</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>24-03-2025 18:00</t>
+          <t>25-03-2025 19:30</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ISRAEL</t>
+          <t>BOSNIA</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>LIGA LEUMIT</t>
+          <t>1ST LEAGUE - FBIH</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Hapoel Acre - Hapoel Kfar Saba</t>
+          <t>Čelik - Travnik</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>53.3</v>
+        <v>60</v>
       </c>
       <c r="F3" t="n">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="G3" t="n">
         <v>0.23</v>
@@ -1284,348 +1194,348 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>24-03-2025 15:00</t>
+          <t>11-01-2025 16:00</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SERBIA</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>PRVA LIGA</t>
+          <t>NATIONAL LEAGUE - NORTH</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Radnički Sr. Mitrovica - Zemun</t>
+          <t>Darlington 1883 - Chorley</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>53.3</v>
+        <v>57.7</v>
       </c>
       <c r="F4" t="n">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="G4" t="n">
-        <v>0.09</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>24-03-2025 14:00</t>
+          <t>25-03-2025 20:45</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>WORLD CUP - QUALIFICATION AFRICA</t>
+          <t>NATIONAL LEAGUE - NORTH</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Namibia - Equatorial Guinea</t>
+          <t>Alfreton Town - Leamington</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>60</v>
+        <v>53.3</v>
       </c>
       <c r="F5" t="n">
-        <v>2.62</v>
+        <v>1.95</v>
       </c>
       <c r="G5" t="n">
-        <v>0.57</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>24-03-2025 07:00</t>
+          <t>18-03-2025 20:45</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>WORLD CUP - QUALIFICATION OCEANIA</t>
+          <t>NON LEAGUE PREMIER - NORTHERN</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>New Caledonia - New Zealand</t>
+          <t>Gainsborough Trinity - Whitby Town</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>60</v>
+        <v>58.3</v>
       </c>
       <c r="F6" t="n">
-        <v>46</v>
+        <v>1.85</v>
       </c>
       <c r="G6" t="n">
-        <v>26.6</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>25-03-2025 19:30</t>
+          <t>25-03-2025 15:00</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>AUSTRIA</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>REGIONALLIGA - WEST</t>
+          <t>PROFESSIONAL DEVELOPMENT LEAGUE</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Pinzgau Saalfelden - Kuchl</t>
+          <t>Hull City U21 - Burnley U21</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>53.3</v>
+        <v>50</v>
       </c>
       <c r="F7" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="G7" t="n">
-        <v>0.17</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>25-03-2025 02:20</t>
+          <t>25-03-2025 14:00</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>COLOMBIA</t>
+          <t>ICELAND</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>PRIMERA B</t>
+          <t>LEAGUE CUP</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Leones FC - Real Soacha</t>
+          <t>Throttur Reykjavik - Vestri</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>53.3</v>
+        <v>50</v>
       </c>
       <c r="F8" t="n">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="G8" t="n">
-        <v>0.33</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>11-01-2025 16:00</t>
+          <t>25-03-2025 16:00</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>PORTUGAL</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE - NORTH</t>
+          <t>LIGA REVELAÇÃO U23</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Darlington 1883 - Chorley</t>
+          <t>Leixões U23 - Rio Ave U23</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>57.7</v>
+        <v>60</v>
       </c>
       <c r="F9" t="n">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="G9" t="n">
-        <v>0.24</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>25-03-2025 20:45</t>
+          <t>01-02-2025 15:00</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>WALES</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE - NORTH</t>
+          <t>FAW CHAMPIONSHIP</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Alfreton Town - Leamington</t>
+          <t>Buckley Town - Caersws</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>53.3</v>
+        <v>73.3</v>
       </c>
       <c r="F10" t="n">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>18-03-2025 20:45</t>
+          <t>26-03-2025 00:00</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>NON LEAGUE PREMIER - NORTHERN</t>
+          <t>CONCACAF GOLD CUP - QUALIFICATION</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Gainsborough Trinity - Whitby Town</t>
+          <t>Trinidad And Tobago - Cuba</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>58.3</v>
+        <v>73.3</v>
       </c>
       <c r="F11" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="G11" t="n">
-        <v>0.08</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>25-03-2025 02:30</t>
+          <t>26-03-2025 00:00</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>PANAMA</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>LIGA PANAMEÑA DE FÚTBOL</t>
+          <t>CONCACAF GOLD CUP - QUALIFICATION</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Independiente De La Chorrera - Plaza Amador</t>
+          <t>Martinique - Suriname</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>53.3</v>
+        <v>50</v>
       </c>
       <c r="F12" t="n">
-        <v>2.2</v>
+        <v>2.95</v>
       </c>
       <c r="G12" t="n">
-        <v>0.17</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>25-03-2025 01:15</t>
+          <t>25-03-2025 15:00</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>URUGUAY</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>SEGUNDA DIVISIÓN</t>
+          <t>UEFA U19 CHAMPIONSHIP - QUALIFICATION</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Central Espanol - Atenas</t>
+          <t>Austria U19 - Denmark U19</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>60</v>
+        <v>53.3</v>
       </c>
       <c r="F13" t="n">
-        <v>2.9</v>
+        <v>2.4</v>
       </c>
       <c r="G13" t="n">
-        <v>0.74</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>01-02-2025 15:00</t>
+          <t>25-03-2025 17:00</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>WALES</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>FAW CHAMPIONSHIP</t>
+          <t>UEFA U19 CHAMPIONSHIP - QUALIFICATION</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Buckley Town - Caersws</t>
+          <t>Czech Republic U19 - Netherlands U19</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>73.3</v>
+        <v>50</v>
       </c>
       <c r="F14" t="n">
-        <v>1.75</v>
+        <v>2.63</v>
       </c>
       <c r="G14" t="n">
-        <v>0.28</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>26-03-2025 00:00</t>
+          <t>25-03-2025 17:00</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1635,28 +1545,28 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>CONCACAF GOLD CUP - QUALIFICATION</t>
+          <t>UEFA U19 CHAMPIONSHIP - QUALIFICATION</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Trinidad And Tobago - Cuba</t>
+          <t>Serbia U19 - Norway U19</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>73.3</v>
+        <v>53.3</v>
       </c>
       <c r="F15" t="n">
-        <v>1.8</v>
+        <v>2.7</v>
       </c>
       <c r="G15" t="n">
-        <v>0.32</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>26-03-2025 00:00</t>
+          <t>25-03-2025 15:00</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1666,28 +1576,28 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>CONCACAF GOLD CUP - QUALIFICATION</t>
+          <t>UEFA U19 CHAMPIONSHIP - QUALIFICATION</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Martinique - Suriname</t>
+          <t>France U19 - Italy U19</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>50</v>
+        <v>73.3</v>
       </c>
       <c r="F16" t="n">
-        <v>2.95</v>
+        <v>1.91</v>
       </c>
       <c r="G16" t="n">
-        <v>0.48</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>25-03-2025 17:00</t>
+          <t>25-03-2025 20:00</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1697,28 +1607,28 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>WORLD CUP - QUALIFICATION AFRICA</t>
+          <t>UEFA U19 CHAMPIONSHIP - QUALIFICATION</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Angola - Cape Verde Islands</t>
+          <t>England U19 - Portugal U19</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="F17" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="G17" t="n">
-        <v>0.36</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>25-03-2025 17:00</t>
+          <t>25-03-2025 20:00</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1728,28 +1638,28 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>WORLD CUP - QUALIFICATION AFRICA</t>
+          <t>UEFA U19 CHAMPIONSHIP - QUALIFICATION</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Uganda - Guinea</t>
+          <t>Turkey U19 - Wales U19</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="F18" t="n">
-        <v>3</v>
+        <v>1.75</v>
       </c>
       <c r="G18" t="n">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>25-03-2025 14:45</t>
+          <t>25-03-2025 20:45</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1759,28 +1669,28 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>WORLD CUP - QUALIFICATION ASIA</t>
+          <t>WAFF CHAMPIONSHIP U23</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Kyrgyzstan - Qatar</t>
+          <t>Lebanon U23 - UAE U23</t>
         </is>
       </c>
       <c r="E19" t="n">
         <v>50</v>
       </c>
       <c r="F19" t="n">
-        <v>4.33</v>
+        <v>3.25</v>
       </c>
       <c r="G19" t="n">
-        <v>1.16</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>25-03-2025 18:00</t>
+          <t>25-03-2025 17:45</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1790,53 +1700,425 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>WORLD CUP - QUALIFICATION EUROPE</t>
+          <t>WAFF CHAMPIONSHIP U23</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Moldova - Estonia</t>
+          <t>Kuwait U23 - Saudi Arabia U23</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F20" t="n">
-        <v>2.25</v>
+        <v>8</v>
       </c>
       <c r="G20" t="n">
-        <v>0.35</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
+          <t>25-03-2025 17:00</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>WORLD</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>WORLD CUP - QUALIFICATION AFRICA</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Angola - Cape Verde Islands</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>70</v>
+      </c>
+      <c r="F21" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>25-03-2025 17:00</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>WORLD</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>WORLD CUP - QUALIFICATION AFRICA</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Uganda - Guinea</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>50</v>
+      </c>
+      <c r="F22" t="n">
+        <v>3</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>25-03-2025 14:45</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>WORLD</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>WORLD CUP - QUALIFICATION ASIA</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Kyrgyzstan - Qatar</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>50</v>
+      </c>
+      <c r="F23" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="G23" t="n">
+        <v>1.16</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>25-03-2025 18:00</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>WORLD</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>WORLD CUP - QUALIFICATION EUROPE</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Moldova - Estonia</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>60</v>
+      </c>
+      <c r="F24" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
           <t>25-03-2025 20:45</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>WORLD</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>WORLD</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
         <is>
           <t>WORLD CUP - QUALIFICATION EUROPE</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="D25" t="inlineStr">
         <is>
           <t>Liechtenstein - Kazakhstan</t>
         </is>
       </c>
-      <c r="E21" t="n">
+      <c r="E25" t="n">
         <v>60</v>
       </c>
-      <c r="F21" t="n">
+      <c r="F25" t="n">
         <v>9.5</v>
       </c>
-      <c r="G21" t="n">
+      <c r="G25" t="n">
         <v>4.7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>26-03-2025 22:00</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>COLOMBIA</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>PRIMERA A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Alianza Petrolera - Fortaleza FC</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>63.3</v>
+      </c>
+      <c r="F26" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>23-03-2025 15:30</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>CROATIA</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>FIRST NL</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Opatija - Rudes</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>55.7</v>
+      </c>
+      <c r="F27" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>26-03-2025 21:30</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>ECUADOR</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>LIGA PRO SERIE B</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Guayaquil City FC - San Antonio</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>60</v>
+      </c>
+      <c r="F28" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>26-03-2025 20:30</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>EGYPT</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>SECOND LEAGUE</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>El Seka El Hadid - Proxy</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>53.3</v>
+      </c>
+      <c r="F29" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="G29" t="n">
+        <v>-0.08</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>26-03-2025 19:00</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>GERMANY</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>REGIONALLIGA - NORD</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Phönix Lübeck - Werder Bremen II</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>53.3</v>
+      </c>
+      <c r="F30" t="n">
+        <v>2</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>26-03-2025 20:30</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>URUGUAY</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>PRIMERA DIVISIÓN - APERTURA</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Liverpool Montevideo - Club Nacional</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>53.3</v>
+      </c>
+      <c r="F31" t="n">
+        <v>5</v>
+      </c>
+      <c r="G31" t="n">
+        <v>1.66</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>26-03-2025 23:00</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>URUGUAY</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>PRIMERA DIVISIÓN - APERTURA</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Plaza Colonia - Boston River</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>53.3</v>
+      </c>
+      <c r="F32" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="G32" t="n">
+        <v>2.06</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>26-03-2025 01:00</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>WORLD</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>WORLD CUP - QUALIFICATION SOUTH AMERICA</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Argentina - Brazil</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>56.7</v>
+      </c>
+      <c r="F33" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.19</v>
       </c>
     </row>
   </sheetData>
@@ -1850,7 +2132,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1898,94 +2180,94 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>24-03-2025 17:30</t>
+          <t>25-03-2025 20:45</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>GAMBIA</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>GFA LEAGUE</t>
+          <t>NATIONAL LEAGUE</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>BST Galaxy - Fortune</t>
+          <t>Wealdstone - Aldershot Town</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="F2" t="n">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="G2" t="n">
-        <v>1.4</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>24-03-2025 17:00</t>
+          <t>25-03-2025 20:45</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>WORLD CUP - QUALIFICATION AFRICA</t>
+          <t>NATIONAL LEAGUE - SOUTH</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Guinea-Bissau - Burkina Faso</t>
+          <t>AFC Hornchurch - Worthing</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>60</v>
+        <v>66.7</v>
       </c>
       <c r="F3" t="n">
-        <v>2.63</v>
+        <v>1.95</v>
       </c>
       <c r="G3" t="n">
-        <v>0.58</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>24-03-2025 20:45</t>
+          <t>25-03-2025 20:45</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>WORLD CUP - QUALIFICATION EUROPE</t>
+          <t>NON LEAGUE PREMIER - ISTHMIAN</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Bosnia &amp; Herzegovina - Cyprus</t>
+          <t>Hastings United - Canvey Island</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>60</v>
+        <v>56.7</v>
       </c>
       <c r="F4" t="n">
-        <v>11.5</v>
+        <v>2.38</v>
       </c>
       <c r="G4" t="n">
-        <v>5.9</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="5">
@@ -2001,22 +2283,22 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE</t>
+          <t>NON LEAGUE PREMIER - SOUTHERN CENTRAL</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Wealdstone - Aldershot Town</t>
+          <t>Bromsgrove Sporting - Harborough Town</t>
         </is>
       </c>
       <c r="E5" t="n">
         <v>50</v>
       </c>
       <c r="F5" t="n">
-        <v>2.7</v>
+        <v>2.25</v>
       </c>
       <c r="G5" t="n">
-        <v>0.35</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="6">
@@ -2032,28 +2314,28 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE - SOUTH</t>
+          <t>NON LEAGUE PREMIER - SOUTHERN SOUTH</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>AFC Hornchurch - Worthing</t>
+          <t>Chertsey Town - Taunton Town</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>66.7</v>
+        <v>50</v>
       </c>
       <c r="F6" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="G6" t="n">
-        <v>0.3</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>25-03-2025 20:45</t>
+          <t>25-03-2025 14:00</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -2063,121 +2345,121 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>NON LEAGUE PREMIER - ISTHMIAN</t>
+          <t>PROFESSIONAL DEVELOPMENT LEAGUE</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Hastings United - Canvey Island</t>
+          <t>AFC Bournemouth U21 - Brentford U21</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>56.7</v>
+        <v>80</v>
       </c>
       <c r="F7" t="n">
-        <v>2.38</v>
+        <v>1.95</v>
       </c>
       <c r="G7" t="n">
-        <v>0.35</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>25-03-2025 20:45</t>
+          <t>25-03-2025 17:30</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>GAMBIA</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>NON LEAGUE PREMIER - SOUTHERN CENTRAL</t>
+          <t>GFA LEAGUE</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Bromsgrove Sporting - Harborough Town</t>
+          <t>Banjul - Real De Banjul</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F8" t="n">
-        <v>2.25</v>
+        <v>1.7</v>
       </c>
       <c r="G8" t="n">
-        <v>0.12</v>
+        <v>-0.13</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>25-03-2025 20:45</t>
+          <t>25-03-2025 19:30</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>GERMANY</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>NON LEAGUE PREMIER - SOUTHERN SOUTH</t>
+          <t>OBERLIGA - BREMEN</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Chertsey Town - Taunton Town</t>
+          <t>Aumund-Vegesack - TuRa Bremen</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>50</v>
+        <v>73.3</v>
       </c>
       <c r="F9" t="n">
-        <v>2.05</v>
+        <v>4</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02</v>
+        <v>1.93</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>25-03-2025 19:30</t>
+          <t>25-03-2025 18:00</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>GERMANY</t>
+          <t>MALI</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>OBERLIGA - BREMEN</t>
+          <t>PREMIÈRE DIVISION</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Aumund-Vegesack - TuRa Bremen</t>
+          <t>Onze Créateurs - Réal Bamako</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>73.3</v>
+        <v>58.3</v>
       </c>
       <c r="F10" t="n">
-        <v>4</v>
+        <v>1.75</v>
       </c>
       <c r="G10" t="n">
-        <v>1.93</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>25-03-2025 17:00</t>
+          <t>25-03-2025 16:00</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2187,28 +2469,28 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>WORLD CUP - QUALIFICATION AFRICA</t>
+          <t>UEFA U19 CHAMPIONSHIP - QUALIFICATION</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Uganda - Guinea</t>
+          <t>Georgia U19 - Montenegro U19</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="F11" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="G11" t="n">
-        <v>0.25</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>25-03-2025 14:45</t>
+          <t>25-03-2025 15:00</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2218,22 +2500,115 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>WORLD CUP - QUALIFICATION ASIA</t>
+          <t>UEFA U19 CHAMPIONSHIP - QUALIFICATION</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Indonesia - Bahrain</t>
+          <t>Slovenia U19 - Finland U19</t>
         </is>
       </c>
       <c r="E12" t="n">
         <v>50</v>
       </c>
       <c r="F12" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>25-03-2025 17:00</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>WORLD</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>WORLD CUP - QUALIFICATION AFRICA</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Uganda - Guinea</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>50</v>
+      </c>
+      <c r="F13" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>25-03-2025 14:45</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>WORLD</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>WORLD CUP - QUALIFICATION ASIA</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Indonesia - Bahrain</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>50</v>
+      </c>
+      <c r="F14" t="n">
         <v>2.88</v>
       </c>
-      <c r="G12" t="n">
+      <c r="G14" t="n">
         <v>0.44</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>26-03-2025 15:00</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>SLOVAKIA</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>3. LIGA - EAST</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Baník Kalinovo - Rimavská Sobota</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>55.7</v>
+      </c>
+      <c r="F15" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.8100000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -2247,7 +2622,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2295,100 +2670,100 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>24-03-2025 20:00</t>
+          <t>25-03-2025 20:45</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>COLOMBIA</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>PRIMERA B</t>
+          <t>NATIONAL LEAGUE - SOUTH</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Bogota FC - Patriotas</t>
+          <t>AFC Hornchurch - Worthing</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>77.5</v>
+        <v>90</v>
       </c>
       <c r="F2" t="n">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="G2" t="n">
-        <v>0.59</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>24-03-2025 12:00</t>
+          <t>26-03-2025 00:00</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>INDIA</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>I-LEAGUE</t>
+          <t>CONCACAF GOLD CUP - QUALIFICATION</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Dempo - Aizawl</t>
+          <t>Trinidad And Tobago - Cuba</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>86.7</v>
+        <v>70</v>
       </c>
       <c r="F3" t="n">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="G3" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>24-03-2025 21:00</t>
+          <t>25-03-2025 16:00</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>NORTHERN-IRELAND</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>PREMIERSHIP</t>
+          <t>UEFA U19 CHAMPIONSHIP - QUALIFICATION</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Dungannon Swifts - Linfield</t>
+          <t>Georgia U19 - Montenegro U19</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>70</v>
+        <v>73.3</v>
       </c>
       <c r="F4" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="G4" t="n">
-        <v>0.21</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>24-03-2025 15:30</t>
+          <t>25-03-2025 15:00</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -2398,176 +2773,83 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>U20 ELITE LEAGUE</t>
+          <t>UEFA U19 CHAMPIONSHIP - QUALIFICATION</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Germany U20 - Portugal U20</t>
+          <t>France U19 - Italy U19</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>76.7</v>
+        <v>85</v>
       </c>
       <c r="F5" t="n">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="G5" t="n">
-        <v>0.42</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>25-03-2025 20:45</t>
+          <t>25-03-2025 22:00</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE - SOUTH</t>
+          <t>WORLD CUP - QUALIFICATION AFRICA</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>AFC Hornchurch - Worthing</t>
+          <t>Algeria - Mozambique</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>90</v>
+        <v>73.3</v>
       </c>
       <c r="F6" t="n">
-        <v>1.85</v>
+        <v>3.45</v>
       </c>
       <c r="G6" t="n">
-        <v>0.67</v>
+        <v>1.53</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>25-03-2025 01:45</t>
+          <t>25-03-2025 20:45</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>JAMAICA</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>PREMIER LEAGUE</t>
+          <t>WORLD CUP - QUALIFICATION EUROPE</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Arnett Gardens - Cavalier</t>
+          <t>Liechtenstein - Kazakhstan</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>75</v>
+        <v>73.3</v>
       </c>
       <c r="F7" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="G7" t="n">
-        <v>0.65</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>26-03-2025 00:00</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>WORLD</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>CONCACAF GOLD CUP - QUALIFICATION</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Trinidad And Tobago - Cuba</t>
-        </is>
-      </c>
-      <c r="E8" t="n">
-        <v>70</v>
-      </c>
-      <c r="F8" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0.47</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>25-03-2025 22:00</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>WORLD</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>WORLD CUP - QUALIFICATION AFRICA</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Algeria - Mozambique</t>
-        </is>
-      </c>
-      <c r="E9" t="n">
-        <v>73.3</v>
-      </c>
-      <c r="F9" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="G9" t="n">
-        <v>1.53</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>25-03-2025 20:45</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>WORLD</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>WORLD CUP - QUALIFICATION EUROPE</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Liechtenstein - Kazakhstan</t>
-        </is>
-      </c>
-      <c r="E10" t="n">
-        <v>73.3</v>
-      </c>
-      <c r="F10" t="n">
-        <v>2</v>
-      </c>
-      <c r="G10" t="n">
         <v>0.47</v>
       </c>
     </row>
@@ -2582,7 +2864,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2630,193 +2912,193 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>24-03-2025 20:00</t>
+          <t>26-03-2025 00:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>COLOMBIA</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>PRIMERA B</t>
+          <t>CONCACAF GOLD CUP - QUALIFICATION</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Bogota FC - Patriotas</t>
+          <t>Trinidad And Tobago - Cuba</t>
         </is>
       </c>
       <c r="E2" t="n">
         <v>66.7</v>
       </c>
       <c r="F2" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="G2" t="n">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>24-03-2025 20:30</t>
+          <t>25-03-2025 20:45</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>EGYPT</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>LEAGUE CUP</t>
+          <t>FRIENDLIES</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>National Bank Of Egypt - AL Masry</t>
+          <t>Switzerland - Luxembourg</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="F3" t="n">
-        <v>2.1</v>
+        <v>2.38</v>
       </c>
       <c r="G3" t="n">
-        <v>0.68</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>24-03-2025 18:00</t>
+          <t>25-03-2025 13:00</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ISRAEL</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>LIGA LEUMIT</t>
+          <t>FRIENDLIES</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Hapoel Kfar Shalem - Hapoel Rishon LeZion</t>
+          <t>Cambodia - Aruba</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>66.7</v>
+        <v>80</v>
       </c>
       <c r="F4" t="n">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="G4" t="n">
-        <v>0.17</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>24-03-2025 20:30</t>
+          <t>25-03-2025 20:00</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ITALY</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>SERIE C - GIRONE C</t>
+          <t>WORLD CUP - QUALIFICATION AFRICA</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Avellino - Potenza</t>
+          <t>Egypt - Sierra Leone</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>66.7</v>
+        <v>76</v>
       </c>
       <c r="F5" t="n">
-        <v>2</v>
+        <v>3.35</v>
       </c>
       <c r="G5" t="n">
-        <v>0.33</v>
+        <v>1.55</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>24-03-2025 21:00</t>
+          <t>25-03-2025 17:00</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>NORTHERN-IRELAND</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>PREMIERSHIP</t>
+          <t>WORLD CUP - QUALIFICATION AFRICA</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Dungannon Swifts - Linfield</t>
+          <t>Benin - South Africa</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F6" t="n">
-        <v>1.73</v>
+        <v>2.05</v>
       </c>
       <c r="G6" t="n">
-        <v>0.21</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>24-03-2025 22:30</t>
+          <t>25-03-2025 20:00</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>PARAGUAY</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>DIVISION PROFESIONAL - APERTURA</t>
+          <t>WORLD CUP - QUALIFICATION AFRICA</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Atlético Tembetary - Sportivo Ameliano</t>
+          <t>Cameroon - Libya</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>66.7</v>
+        <v>72</v>
       </c>
       <c r="F7" t="n">
-        <v>1.85</v>
+        <v>2.63</v>
       </c>
       <c r="G7" t="n">
-        <v>0.23</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>24-03-2025 20:00</t>
+          <t>25-03-2025 22:00</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -2831,23 +3113,23 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Madagascar - Ghana</t>
+          <t>Algeria - Mozambique</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>71.7</v>
+        <v>80</v>
       </c>
       <c r="F8" t="n">
-        <v>2</v>
+        <v>3.8</v>
       </c>
       <c r="G8" t="n">
-        <v>0.43</v>
+        <v>2.04</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>24-03-2025 20:45</t>
+          <t>25-03-2025 14:45</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2857,28 +3139,28 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>WORLD CUP - QUALIFICATION EUROPE</t>
+          <t>WORLD CUP - QUALIFICATION ASIA</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Poland - Malta</t>
+          <t>Kyrgyzstan - Qatar</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="F9" t="n">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="G9" t="n">
-        <v>0.5</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>24-03-2025 20:45</t>
+          <t>25-03-2025 19:15</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2888,394 +3170,115 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>WORLD CUP - QUALIFICATION EUROPE</t>
+          <t>WORLD CUP - QUALIFICATION ASIA</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Bosnia &amp; Herzegovina - Cyprus</t>
+          <t>Kuwait - Oman</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>80</v>
+        <v>93.3</v>
       </c>
       <c r="F10" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="G10" t="n">
-        <v>0.72</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>25-03-2025 02:20</t>
+          <t>25-03-2025 12:00</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>COLOMBIA</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>PRIMERA B</t>
+          <t>WORLD CUP - QUALIFICATION ASIA</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Leones FC - Real Soacha</t>
+          <t>China - Australia</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>75</v>
+        <v>71.7</v>
       </c>
       <c r="F11" t="n">
-        <v>1.82</v>
+        <v>1.95</v>
       </c>
       <c r="G11" t="n">
-        <v>0.36</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>25-03-2025 01:45</t>
+          <t>25-03-2025 20:45</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>JAMAICA</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>PREMIER LEAGUE</t>
+          <t>WORLD CUP - QUALIFICATION EUROPE</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Arnett Gardens - Cavalier</t>
+          <t>Montenegro - Faroe Islands</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="F12" t="n">
-        <v>1.85</v>
+        <v>2.25</v>
       </c>
       <c r="G12" t="n">
-        <v>0.48</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>26-03-2025 00:00</t>
+          <t>27-03-2025 00:30</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>COLOMBIA</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>CONCACAF GOLD CUP - QUALIFICATION</t>
+          <t>PRIMERA A</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Trinidad And Tobago - Cuba</t>
+          <t>Junior - Union Magdalena</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>66.7</v>
+        <v>73.3</v>
       </c>
       <c r="F13" t="n">
         <v>2</v>
       </c>
       <c r="G13" t="n">
-        <v>0.33</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>25-03-2025 20:45</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>WORLD</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>FRIENDLIES</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>Switzerland - Luxembourg</t>
-        </is>
-      </c>
-      <c r="E14" t="n">
-        <v>68</v>
-      </c>
-      <c r="F14" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0.62</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>25-03-2025 20:00</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>WORLD</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>WORLD CUP - QUALIFICATION AFRICA</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>Egypt - Sierra Leone</t>
-        </is>
-      </c>
-      <c r="E15" t="n">
-        <v>76</v>
-      </c>
-      <c r="F15" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="G15" t="n">
-        <v>1.55</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>25-03-2025 17:00</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>WORLD</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>WORLD CUP - QUALIFICATION AFRICA</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>Benin - South Africa</t>
-        </is>
-      </c>
-      <c r="E16" t="n">
-        <v>80</v>
-      </c>
-      <c r="F16" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0.64</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>25-03-2025 20:00</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>WORLD</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>WORLD CUP - QUALIFICATION AFRICA</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>Cameroon - Libya</t>
-        </is>
-      </c>
-      <c r="E17" t="n">
-        <v>72</v>
-      </c>
-      <c r="F17" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0.89</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>25-03-2025 22:00</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>WORLD</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>WORLD CUP - QUALIFICATION AFRICA</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>Algeria - Mozambique</t>
-        </is>
-      </c>
-      <c r="E18" t="n">
-        <v>80</v>
-      </c>
-      <c r="F18" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="G18" t="n">
-        <v>2.04</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>25-03-2025 14:45</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>WORLD</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>WORLD CUP - QUALIFICATION ASIA</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>Kyrgyzstan - Qatar</t>
-        </is>
-      </c>
-      <c r="E19" t="n">
-        <v>84</v>
-      </c>
-      <c r="F19" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0.72</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>25-03-2025 19:15</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>WORLD</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>WORLD CUP - QUALIFICATION ASIA</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>Kuwait - Oman</t>
-        </is>
-      </c>
-      <c r="E20" t="n">
-        <v>93.3</v>
-      </c>
-      <c r="F20" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0.96</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>25-03-2025 12:00</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>WORLD</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>WORLD CUP - QUALIFICATION ASIA</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>China - Australia</t>
-        </is>
-      </c>
-      <c r="E21" t="n">
-        <v>71.7</v>
-      </c>
-      <c r="F21" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="G21" t="n">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>25-03-2025 20:45</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>WORLD</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>WORLD CUP - QUALIFICATION EUROPE</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>Montenegro - Faroe Islands</t>
-        </is>
-      </c>
-      <c r="E22" t="n">
-        <v>72</v>
-      </c>
-      <c r="F22" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0.62</v>
+        <v>0.47</v>
       </c>
     </row>
   </sheetData>

--- a/scraper/data/betclever_predictions.xlsx
+++ b/scraper/data/betclever_predictions.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,113 +475,85 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>01-02-2025 15:00</t>
+          <t>26-03-2025 15:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>WALES</t>
+          <t>SLOVAKIA</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>FAW CHAMPIONSHIP</t>
+          <t>3. LIGA - EAST</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Buckley Town - Caersws</t>
+          <t>Spišské Podhradie - Partizán Bardejov</t>
         </is>
       </c>
       <c r="E2" t="n">
         <v>73.3</v>
       </c>
       <c r="F2" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>26-03-2025 00:00</t>
+          <t>26-03-2025 12:00</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>TURKEY</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CONCACAF GOLD CUP - QUALIFICATION</t>
+          <t>2. LIG</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Trinidad And Tobago - Cuba</t>
+          <t>Kırklarelispor - Ankaraspor</t>
         </is>
       </c>
       <c r="E3" t="n">
         <v>73.3</v>
       </c>
       <c r="F3" t="n">
-        <v>1.8</v>
+        <v>2.15</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>25-03-2025 15:00</t>
+          <t>27-03-2025 18:45</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>ROMANIA</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>UEFA U19 CHAMPIONSHIP - QUALIFICATION</t>
+          <t>LIGA II</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>France U19 - Italy U19</t>
+          <t>Csikszereda - FC Voluntari</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>73.3</v>
+        <v>80</v>
       </c>
       <c r="F4" t="n">
-        <v>1.91</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>25-03-2025 17:00</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>WORLD</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>WORLD CUP - QUALIFICATION AFRICA</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Angola - Cape Verde Islands</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>70</v>
-      </c>
-      <c r="F5" t="n">
-        <v>1.95</v>
+        <v>2.3</v>
       </c>
     </row>
   </sheetData>
@@ -745,169 +717,169 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>25-03-2025 13:00</t>
+          <t>26-03-2025 19:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>FRIENDLIES</t>
+          <t>PAULISTA - A3</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Cambodia - Aruba</t>
+          <t>Monte Azul - Itapirense</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F2" t="n">
-        <v>1.95</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>25-03-2025 20:00</t>
+          <t>26-03-2025 23:30</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>WORLD CUP - QUALIFICATION AFRICA</t>
+          <t>PAULISTA - A3</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Egypt - Sierra Leone</t>
+          <t>Marília - União São João</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="F3" t="n">
-        <v>3.35</v>
+        <v>2.15</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>25-03-2025 17:00</t>
+          <t>26-03-2025 20:30</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>EGYPT</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>WORLD CUP - QUALIFICATION AFRICA</t>
+          <t>SECOND LEAGUE</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Benin - South Africa</t>
+          <t>Kahraba Ismailia - Abu Qair Semad</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F4" t="n">
-        <v>2.05</v>
+        <v>1.91</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>25-03-2025 22:00</t>
+          <t>26-03-2025 12:00</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>TURKEY</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>WORLD CUP - QUALIFICATION AFRICA</t>
+          <t>2. LIG</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Algeria - Mozambique</t>
+          <t>Karacabey Belediyespor - Belediye Derincespor</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="F5" t="n">
-        <v>3.8</v>
+        <v>1.91</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>25-03-2025 14:45</t>
+          <t>26-03-2025 12:00</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>TURKEY</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>WORLD CUP - QUALIFICATION ASIA</t>
+          <t>2. LIG</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Kyrgyzstan - Qatar</t>
+          <t>Serik Belediyespor - Van BB</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>84</v>
+        <v>81.7</v>
       </c>
       <c r="F6" t="n">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>25-03-2025 19:15</t>
+          <t>27-03-2025 19:30</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>ARGENTINA</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>WORLD CUP - QUALIFICATION ASIA</t>
+          <t>LIGA PROFESIONAL ARGENTINA</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Kuwait - Oman</t>
+          <t>Aldosivi - Union Santa Fe</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>93.3</v>
+        <v>76.7</v>
       </c>
       <c r="F7" t="n">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
     </row>
   </sheetData>
@@ -974,103 +946,103 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>25-03-2025 20:45</t>
+          <t>26-03-2025 12:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>TURKEY</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE - SOUTH</t>
+          <t>2. LIG</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>AFC Hornchurch - Worthing</t>
+          <t>Erzin Spor - 24 Erzincanspor</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="F2" t="n">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="G2" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="H2" t="n">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>25-03-2025 15:00</t>
+          <t>26-03-2025 12:00</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>TURKEY</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>UEFA U19 CHAMPIONSHIP - QUALIFICATION</t>
+          <t>3. LIG - GROUP 4</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>France U19 - Italy U19</t>
+          <t>Kahramanmaraş İstiklalsp - Bergama Belediyespor</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="F3" t="n">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="G3" t="n">
-        <v>45</v>
+        <v>66.7</v>
       </c>
       <c r="H3" t="n">
-        <v>2.88</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>25-03-2025 14:45</t>
+          <t>27-03-2025 03:30</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>WORLD CUP - QUALIFICATION ASIA</t>
+          <t>MLS NEXT PRO</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Kyrgyzstan - Qatar</t>
+          <t>Portland Timbers II - San Jose Earthquakes II</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>66.7</v>
+        <v>85</v>
       </c>
       <c r="F4" t="n">
-        <v>2.08</v>
+        <v>1.77</v>
       </c>
       <c r="G4" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="H4" t="n">
-        <v>3.75</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1084,7 +1056,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G33"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1132,993 +1104,1024 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>25-03-2025 19:30</t>
+          <t>26-03-2025 23:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>AUSTRIA</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>REGIONALLIGA - WEST</t>
+          <t>BRASILIENSE</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Pinzgau Saalfelden - Kuchl</t>
+          <t>Brasiliense - Gama</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>53.3</v>
+        <v>60</v>
       </c>
       <c r="F2" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="G2" t="n">
-        <v>0.17</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>25-03-2025 19:30</t>
+          <t>26-03-2025 19:00</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>BOSNIA</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1ST LEAGUE - FBIH</t>
+          <t>CBF BRASILEIRO U20</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Čelik - Travnik</t>
+          <t>Fluminense U20 - Fortaleza U20</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>60</v>
+        <v>66.7</v>
       </c>
       <c r="F3" t="n">
-        <v>2.05</v>
+        <v>1.73</v>
       </c>
       <c r="G3" t="n">
-        <v>0.23</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>11-01-2025 16:00</t>
+          <t>26-03-2025 19:00</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE - NORTH</t>
+          <t>CBF BRASILEIRO U20</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Darlington 1883 - Chorley</t>
+          <t>Juventude U20 - Botafogo U20</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>57.7</v>
+        <v>50</v>
       </c>
       <c r="F4" t="n">
-        <v>2.15</v>
+        <v>3.9</v>
       </c>
       <c r="G4" t="n">
-        <v>0.24</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>25-03-2025 20:45</t>
+          <t>26-03-2025 19:00</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE - NORTH</t>
+          <t>CBF BRASILEIRO U20</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Alfreton Town - Leamington</t>
+          <t>Corinthians U20 - Cuiabá U20</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>53.3</v>
+        <v>55.7</v>
       </c>
       <c r="F5" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>18-03-2025 20:45</t>
+          <t>26-03-2025 19:00</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>NON LEAGUE PREMIER - NORTHERN</t>
+          <t>PAULISTA - A3</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Gainsborough Trinity - Whitby Town</t>
+          <t>Monte Azul - Itapirense</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>58.3</v>
+        <v>50</v>
       </c>
       <c r="F6" t="n">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="G6" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>25-03-2025 15:00</t>
+          <t>26-03-2025 23:30</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>PROFESSIONAL DEVELOPMENT LEAGUE</t>
+          <t>PAULISTA - A3</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Hull City U21 - Burnley U21</t>
+          <t>Marília - União São João</t>
         </is>
       </c>
       <c r="E7" t="n">
         <v>50</v>
       </c>
       <c r="F7" t="n">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="G7" t="n">
-        <v>0.15</v>
+        <v>-0.1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>25-03-2025 14:00</t>
+          <t>26-03-2025 19:00</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ICELAND</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>LEAGUE CUP</t>
+          <t>PAULISTA - A3</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Throttur Reykjavik - Vestri</t>
+          <t>Desportivo Brasil - Rio Branco SP</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="F8" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="G8" t="n">
-        <v>0.12</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>25-03-2025 16:00</t>
+          <t>26-03-2025 22:00</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>PORTUGAL</t>
+          <t>COLOMBIA</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>LIGA REVELAÇÃO U23</t>
+          <t>PRIMERA A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Leixões U23 - Rio Ave U23</t>
+          <t>Alianza Petrolera - Fortaleza FC</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>60</v>
+        <v>63.3</v>
       </c>
       <c r="F9" t="n">
-        <v>2.05</v>
+        <v>2.38</v>
       </c>
       <c r="G9" t="n">
-        <v>0.23</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>01-02-2025 15:00</t>
+          <t>23-03-2025 15:30</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>WALES</t>
+          <t>CROATIA</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>FAW CHAMPIONSHIP</t>
+          <t>FIRST NL</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Buckley Town - Caersws</t>
+          <t>Opatija - Rudes</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>73.3</v>
+        <v>55.7</v>
       </c>
       <c r="F10" t="n">
-        <v>1.75</v>
+        <v>2.05</v>
       </c>
       <c r="G10" t="n">
-        <v>0.28</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>26-03-2025 00:00</t>
+          <t>26-03-2025 21:30</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>ECUADOR</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>CONCACAF GOLD CUP - QUALIFICATION</t>
+          <t>LIGA PRO SERIE B</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Trinidad And Tobago - Cuba</t>
+          <t>Guayaquil City FC - San Antonio</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>73.3</v>
+        <v>60</v>
       </c>
       <c r="F11" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="G11" t="n">
-        <v>0.32</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>26-03-2025 00:00</t>
+          <t>26-03-2025 20:30</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>EGYPT</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>CONCACAF GOLD CUP - QUALIFICATION</t>
+          <t>SECOND LEAGUE</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Martinique - Suriname</t>
+          <t>El Seka El Hadid - Proxy</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>50</v>
+        <v>53.3</v>
       </c>
       <c r="F12" t="n">
-        <v>2.95</v>
+        <v>1.72</v>
       </c>
       <c r="G12" t="n">
-        <v>0.48</v>
+        <v>-0.08</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>25-03-2025 15:00</t>
+          <t>26-03-2025 19:00</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>GERMANY</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>UEFA U19 CHAMPIONSHIP - QUALIFICATION</t>
+          <t>REGIONALLIGA - NORD</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Austria U19 - Denmark U19</t>
+          <t>Phönix Lübeck - Werder Bremen II</t>
         </is>
       </c>
       <c r="E13" t="n">
         <v>53.3</v>
       </c>
       <c r="F13" t="n">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="G13" t="n">
-        <v>0.28</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>25-03-2025 17:00</t>
+          <t>26-03-2025 12:30</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>HONG-KONG</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>UEFA U19 CHAMPIONSHIP - QUALIFICATION</t>
+          <t>SAPLING CUP</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Czech Republic U19 - Netherlands U19</t>
+          <t>Southern District - Rangers</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>50</v>
+        <v>53.3</v>
       </c>
       <c r="F14" t="n">
-        <v>2.63</v>
+        <v>1.73</v>
       </c>
       <c r="G14" t="n">
-        <v>0.31</v>
+        <v>-0.08</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>25-03-2025 17:00</t>
+          <t>26-03-2025 16:00</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>NIGERIA</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>UEFA U19 CHAMPIONSHIP - QUALIFICATION</t>
+          <t>NPFL</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Serbia U19 - Norway U19</t>
+          <t>Bayelsa United - Rivers United</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>53.3</v>
+        <v>50</v>
       </c>
       <c r="F15" t="n">
-        <v>2.7</v>
+        <v>1.95</v>
       </c>
       <c r="G15" t="n">
-        <v>0.44</v>
+        <v>-0.03</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>25-03-2025 15:00</t>
+          <t>26-03-2025 12:00</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>NORWAY</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>UEFA U19 CHAMPIONSHIP - QUALIFICATION</t>
+          <t>NASJONAL U19 CHAMPIONS LEAGUE</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>France U19 - Italy U19</t>
+          <t>Odd U19 - Viking U19</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>73.3</v>
+        <v>60</v>
       </c>
       <c r="F16" t="n">
-        <v>1.91</v>
+        <v>2.62</v>
       </c>
       <c r="G16" t="n">
-        <v>0.4</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>25-03-2025 20:00</t>
+          <t>26-03-2025 15:00</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>SLOVAKIA</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>UEFA U19 CHAMPIONSHIP - QUALIFICATION</t>
+          <t>3. LIGA - EAST</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>England U19 - Portugal U19</t>
+          <t>Spišské Podhradie - Partizán Bardejov</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>60</v>
+        <v>73.3</v>
       </c>
       <c r="F17" t="n">
-        <v>2.05</v>
+        <v>1.7</v>
       </c>
       <c r="G17" t="n">
-        <v>0.23</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>25-03-2025 20:00</t>
+          <t>26-03-2025 15:00</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>SLOVAKIA</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>UEFA U19 CHAMPIONSHIP - QUALIFICATION</t>
+          <t>3. LIGA - WEST</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Turkey U19 - Wales U19</t>
+          <t>Spartak Myjava - Sereď</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>60</v>
+        <v>66.7</v>
       </c>
       <c r="F18" t="n">
-        <v>1.75</v>
+        <v>3.8</v>
       </c>
       <c r="G18" t="n">
-        <v>0.05</v>
+        <v>1.53</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>25-03-2025 20:45</t>
+          <t>26-03-2025 20:00</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>SWITZERLAND</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>WAFF CHAMPIONSHIP U23</t>
+          <t>1. LIGA CLASSIC - GROUP 1</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Lebanon U23 - UAE U23</t>
+          <t>La Sarraz-Eclépens - La Chaux-de-Fonds</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>50</v>
+        <v>51.3</v>
       </c>
       <c r="F19" t="n">
-        <v>3.25</v>
+        <v>1.7</v>
       </c>
       <c r="G19" t="n">
-        <v>0.62</v>
+        <v>-0.13</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>25-03-2025 17:45</t>
+          <t>26-03-2025 12:00</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>TURKEY</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>WAFF CHAMPIONSHIP U23</t>
+          <t>2. LIG</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Kuwait U23 - Saudi Arabia U23</t>
+          <t>Kırklarelispor - Ankaraspor</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>50</v>
+        <v>73.3</v>
       </c>
       <c r="F20" t="n">
-        <v>8</v>
+        <v>2.15</v>
       </c>
       <c r="G20" t="n">
-        <v>3</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>25-03-2025 17:00</t>
+          <t>26-03-2025 12:00</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>TURKEY</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>WORLD CUP - QUALIFICATION AFRICA</t>
+          <t>3. LIG - GROUP 1</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Angola - Cape Verde Islands</t>
+          <t>Kartal Bulvarspor - Bursaspor</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="F21" t="n">
-        <v>1.95</v>
+        <v>6</v>
       </c>
       <c r="G21" t="n">
-        <v>0.36</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>25-03-2025 17:00</t>
+          <t>26-03-2025 20:30</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>URUGUAY</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>WORLD CUP - QUALIFICATION AFRICA</t>
+          <t>PRIMERA DIVISIÓN - APERTURA</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Uganda - Guinea</t>
+          <t>Liverpool Montevideo - Club Nacional</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>50</v>
+        <v>53.3</v>
       </c>
       <c r="F22" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G22" t="n">
-        <v>0.5</v>
+        <v>1.66</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>25-03-2025 14:45</t>
+          <t>26-03-2025 23:00</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>URUGUAY</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>WORLD CUP - QUALIFICATION ASIA</t>
+          <t>PRIMERA DIVISIÓN - APERTURA</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Kyrgyzstan - Qatar</t>
+          <t>Plaza Colonia - Boston River</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>50</v>
+        <v>53.3</v>
       </c>
       <c r="F23" t="n">
-        <v>4.33</v>
+        <v>5.75</v>
       </c>
       <c r="G23" t="n">
-        <v>1.16</v>
+        <v>2.06</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>25-03-2025 18:00</t>
+          <t>26-03-2025 14:00</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>ZAMBIA</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>WORLD CUP - QUALIFICATION EUROPE</t>
+          <t>SUPER LEAGUE</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Moldova - Estonia</t>
+          <t>Green Buffaloes - NAPSA Stars</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>60</v>
+        <v>53.3</v>
       </c>
       <c r="F24" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="G24" t="n">
-        <v>0.35</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>25-03-2025 20:45</t>
+          <t>26-03-2025 14:00</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>ZAMBIA</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>WORLD CUP - QUALIFICATION EUROPE</t>
+          <t>SUPER LEAGUE</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Liechtenstein - Kazakhstan</t>
+          <t>Red Arrows - Nchanga Rangers</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>60</v>
+        <v>66.7</v>
       </c>
       <c r="F25" t="n">
-        <v>9.5</v>
+        <v>1.7</v>
       </c>
       <c r="G25" t="n">
-        <v>4.7</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>26-03-2025 22:00</t>
+          <t>27-03-2025 01:00</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>COLOMBIA</t>
+          <t>ARGENTINA</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>PRIMERA A</t>
+          <t>PRIMERA NACIONAL</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Alianza Petrolera - Fortaleza FC</t>
+          <t>Quilmes - Colegiales</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>63.3</v>
+        <v>50</v>
       </c>
       <c r="F26" t="n">
-        <v>2.38</v>
+        <v>1.83</v>
       </c>
       <c r="G26" t="n">
-        <v>0.51</v>
+        <v>-0.08</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>23-03-2025 15:30</t>
+          <t>27-03-2025 01:30</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>CROATIA</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>FIRST NL</t>
+          <t>COPA DO NORDESTE</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Opatija - Rudes</t>
+          <t>Ferroviario - Sousa</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>55.7</v>
+        <v>60</v>
       </c>
       <c r="F27" t="n">
-        <v>2.05</v>
+        <v>1.91</v>
       </c>
       <c r="G27" t="n">
-        <v>0.14</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>26-03-2025 21:30</t>
+          <t>27-03-2025 01:00</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>ECUADOR</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>LIGA PRO SERIE B</t>
+          <t>RORAIMENSE</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Guayaquil City FC - San Antonio</t>
+          <t>Sao Raimundo - Monte Roraima</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>60</v>
+        <v>53.3</v>
       </c>
       <c r="F28" t="n">
-        <v>1.85</v>
+        <v>3.1</v>
       </c>
       <c r="G28" t="n">
-        <v>0.11</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>26-03-2025 20:30</t>
+          <t>27-03-2025 14:00</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>EGYPT</t>
+          <t>CAMEROON</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>SECOND LEAGUE</t>
+          <t>ELITE ONE</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>El Seka El Hadid - Proxy</t>
+          <t>Fauve Azur Elite - Dynamo De Douala</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>53.3</v>
+        <v>60</v>
       </c>
       <c r="F29" t="n">
-        <v>1.72</v>
+        <v>1.8</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.08</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>26-03-2025 19:00</t>
+          <t>28-03-2025 00:00</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>GERMANY</t>
+          <t>COLOMBIA</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>REGIONALLIGA - NORD</t>
+          <t>PRIMERA B</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Phönix Lübeck - Werder Bremen II</t>
+          <t>Huila - Quindio</t>
         </is>
       </c>
       <c r="E30" t="n">
         <v>53.3</v>
       </c>
       <c r="F30" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="G30" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>26-03-2025 20:30</t>
+          <t>27-03-2025 02:00</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>URUGUAY</t>
+          <t>COSTA-RICA</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>PRIMERA DIVISIÓN - APERTURA</t>
+          <t>PRIMERA DIVISIÓN</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Liverpool Montevideo - Club Nacional</t>
+          <t>Puntarenas FC - Sporting San Jose</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>53.3</v>
+        <v>63.3</v>
       </c>
       <c r="F31" t="n">
-        <v>5</v>
+        <v>1.83</v>
       </c>
       <c r="G31" t="n">
-        <v>1.66</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>26-03-2025 23:00</t>
+          <t>27-03-2025 23:00</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>URUGUAY</t>
+          <t>COSTA-RICA</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>PRIMERA DIVISIÓN - APERTURA</t>
+          <t>PRIMERA DIVISIÓN</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Plaza Colonia - Boston River</t>
+          <t>Santa Ana - CS Cartagines</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>53.3</v>
+        <v>60</v>
       </c>
       <c r="F32" t="n">
-        <v>5.75</v>
+        <v>2.62</v>
       </c>
       <c r="G32" t="n">
-        <v>2.06</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>26-03-2025 01:00</t>
+          <t>27-03-2025 18:45</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>ROMANIA</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>WORLD CUP - QUALIFICATION SOUTH AMERICA</t>
+          <t>LIGA II</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Argentina - Brazil</t>
+          <t>Csikszereda - FC Voluntari</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>56.7</v>
+        <v>80</v>
       </c>
       <c r="F33" t="n">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="G33" t="n">
-        <v>0.19</v>
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>27-03-2025 23:00</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>URUGUAY</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>PRIMERA DIVISIÓN - APERTURA</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Wanderers - Progreso</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>53.3</v>
+      </c>
+      <c r="F34" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.04</v>
       </c>
     </row>
   </sheetData>
@@ -2132,7 +2135,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2180,435 +2183,218 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>25-03-2025 20:45</t>
+          <t>26-03-2025 22:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>EL-SALVADOR</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE</t>
+          <t>PRIMERA DIVISION</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Wealdstone - Aldershot Town</t>
+          <t>Fuerte San Francisco - Cacahuatique</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>50</v>
+        <v>66.7</v>
       </c>
       <c r="F2" t="n">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
       <c r="G2" t="n">
-        <v>0.35</v>
+        <v>1.07</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>25-03-2025 20:45</t>
+          <t>26-03-2025 14:30</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>ITALY</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE - SOUTH</t>
+          <t>SERIE D - GIRONE D</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>AFC Hornchurch - Worthing</t>
+          <t>Victor San Marino - Tuttocuoio</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>66.7</v>
+        <v>60</v>
       </c>
       <c r="F3" t="n">
-        <v>1.95</v>
+        <v>2.95</v>
       </c>
       <c r="G3" t="n">
-        <v>0.3</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>25-03-2025 20:45</t>
+          <t>26-03-2025 15:00</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>SLOVAKIA</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>NON LEAGUE PREMIER - ISTHMIAN</t>
+          <t>3. LIGA - EAST</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Hastings United - Canvey Island</t>
+          <t>Baník Kalinovo - Rimavská Sobota</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>56.7</v>
+        <v>55.7</v>
       </c>
       <c r="F4" t="n">
-        <v>2.38</v>
+        <v>3.25</v>
       </c>
       <c r="G4" t="n">
-        <v>0.35</v>
+        <v>0.8100000000000001</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>25-03-2025 20:45</t>
+          <t>26-03-2025 15:00</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>SLOVAKIA</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>NON LEAGUE PREMIER - SOUTHERN CENTRAL</t>
+          <t>3. LIGA - WEST</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Bromsgrove Sporting - Harborough Town</t>
+          <t>Inter Bratislava - Hamsik Academy</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>50</v>
+        <v>53.3</v>
       </c>
       <c r="F5" t="n">
-        <v>2.25</v>
+        <v>5.25</v>
       </c>
       <c r="G5" t="n">
-        <v>0.12</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>25-03-2025 20:45</t>
+          <t>26-03-2025 12:00</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>TURKEY</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>NON LEAGUE PREMIER - SOUTHERN SOUTH</t>
+          <t>2. LIG</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Chertsey Town - Taunton Town</t>
+          <t>Somaspor - Menemen Belediyespor</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>50</v>
+        <v>56.7</v>
       </c>
       <c r="F6" t="n">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="G6" t="n">
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>25-03-2025 14:00</t>
+          <t>27-03-2025 21:30</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>PERU</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>PROFESSIONAL DEVELOPMENT LEAGUE</t>
+          <t>PRIMERA DIVISIÓN</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>AFC Bournemouth U21 - Brentford U21</t>
+          <t>Ayacucho FC - FBC Melgar</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>80</v>
+        <v>53.3</v>
       </c>
       <c r="F7" t="n">
-        <v>1.95</v>
+        <v>1.7</v>
       </c>
       <c r="G7" t="n">
-        <v>0.5600000000000001</v>
+        <v>-0.09</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>25-03-2025 17:30</t>
+          <t>27-03-2025 03:30</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>GAMBIA</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>GFA LEAGUE</t>
+          <t>MLS NEXT PRO</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Banjul - Real De Banjul</t>
+          <t>Portland Timbers II - San Jose Earthquakes II</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="F8" t="n">
-        <v>1.7</v>
+        <v>2.2</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.13</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>25-03-2025 19:30</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>GERMANY</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>OBERLIGA - BREMEN</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Aumund-Vegesack - TuRa Bremen</t>
-        </is>
-      </c>
-      <c r="E9" t="n">
-        <v>73.3</v>
-      </c>
-      <c r="F9" t="n">
-        <v>4</v>
-      </c>
-      <c r="G9" t="n">
-        <v>1.93</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>25-03-2025 18:00</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>MALI</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>PREMIÈRE DIVISION</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Onze Créateurs - Réal Bamako</t>
-        </is>
-      </c>
-      <c r="E10" t="n">
-        <v>58.3</v>
-      </c>
-      <c r="F10" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>25-03-2025 16:00</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>WORLD</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>UEFA U19 CHAMPIONSHIP - QUALIFICATION</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Georgia U19 - Montenegro U19</t>
-        </is>
-      </c>
-      <c r="E11" t="n">
-        <v>60</v>
-      </c>
-      <c r="F11" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0.44</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>25-03-2025 15:00</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>WORLD</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>UEFA U19 CHAMPIONSHIP - QUALIFICATION</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>Slovenia U19 - Finland U19</t>
-        </is>
-      </c>
-      <c r="E12" t="n">
-        <v>50</v>
-      </c>
-      <c r="F12" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0.38</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>25-03-2025 17:00</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>WORLD</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>WORLD CUP - QUALIFICATION AFRICA</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>Uganda - Guinea</t>
-        </is>
-      </c>
-      <c r="E13" t="n">
-        <v>50</v>
-      </c>
-      <c r="F13" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>25-03-2025 14:45</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>WORLD</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>WORLD CUP - QUALIFICATION ASIA</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>Indonesia - Bahrain</t>
-        </is>
-      </c>
-      <c r="E14" t="n">
-        <v>50</v>
-      </c>
-      <c r="F14" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0.44</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>26-03-2025 15:00</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>SLOVAKIA</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>3. LIGA - EAST</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>Baník Kalinovo - Rimavská Sobota</t>
-        </is>
-      </c>
-      <c r="E15" t="n">
-        <v>55.7</v>
-      </c>
-      <c r="F15" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.32</v>
       </c>
     </row>
   </sheetData>
@@ -2622,7 +2408,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2670,187 +2456,125 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>25-03-2025 20:45</t>
+          <t>26-03-2025 19:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>GERMANY</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE - SOUTH</t>
+          <t>REGIONALLIGA - NORDOST</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>AFC Hornchurch - Worthing</t>
+          <t>FSV Zwickau - FC Rot-Weiß Erfurt</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>90</v>
+        <v>71.8</v>
       </c>
       <c r="F2" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="G2" t="n">
-        <v>0.67</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>26-03-2025 00:00</t>
+          <t>26-03-2025 12:00</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>TURKEY</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CONCACAF GOLD CUP - QUALIFICATION</t>
+          <t>2. LIG</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Trinidad And Tobago - Cuba</t>
+          <t>Erzin Spor - 24 Erzincanspor</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F3" t="n">
-        <v>2.1</v>
+        <v>1.75</v>
       </c>
       <c r="G3" t="n">
-        <v>0.47</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>25-03-2025 16:00</t>
+          <t>27-03-2025 21:00</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>UEFA U19 CHAMPIONSHIP - QUALIFICATION</t>
+          <t>LEAGUE ONE</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Georgia U19 - Montenegro U19</t>
+          <t>Leyton Orient - Stevenage</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>73.3</v>
+        <v>70</v>
       </c>
       <c r="F4" t="n">
-        <v>1.8</v>
+        <v>2.35</v>
       </c>
       <c r="G4" t="n">
-        <v>0.32</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>25-03-2025 15:00</t>
+          <t>27-03-2025 03:30</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>UEFA U19 CHAMPIONSHIP - QUALIFICATION</t>
+          <t>MLS NEXT PRO</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>France U19 - Italy U19</t>
+          <t>Portland Timbers II - San Jose Earthquakes II</t>
         </is>
       </c>
       <c r="E5" t="n">
         <v>85</v>
       </c>
       <c r="F5" t="n">
-        <v>1.75</v>
+        <v>1.77</v>
       </c>
       <c r="G5" t="n">
-        <v>0.49</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>25-03-2025 22:00</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>WORLD</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>WORLD CUP - QUALIFICATION AFRICA</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Algeria - Mozambique</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>73.3</v>
-      </c>
-      <c r="F6" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="G6" t="n">
-        <v>1.53</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>25-03-2025 20:45</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>WORLD</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>WORLD CUP - QUALIFICATION EUROPE</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Liechtenstein - Kazakhstan</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
-        <v>73.3</v>
-      </c>
-      <c r="F7" t="n">
-        <v>2</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0.47</v>
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
@@ -2912,373 +2636,373 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>26-03-2025 00:00</t>
+          <t>26-03-2025 19:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>CONCACAF GOLD CUP - QUALIFICATION</t>
+          <t>PAULISTA - A3</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Trinidad And Tobago - Cuba</t>
+          <t>Monte Azul - Itapirense</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>66.7</v>
+        <v>76</v>
       </c>
       <c r="F2" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="G2" t="n">
-        <v>0.33</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>25-03-2025 20:45</t>
+          <t>26-03-2025 23:30</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>FRIENDLIES</t>
+          <t>PAULISTA - A3</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Switzerland - Luxembourg</t>
+          <t>Marília - União São João</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="F3" t="n">
-        <v>2.38</v>
+        <v>2.15</v>
       </c>
       <c r="G3" t="n">
-        <v>0.62</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>25-03-2025 13:00</t>
+          <t>27-03-2025 00:30</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>COLOMBIA</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>FRIENDLIES</t>
+          <t>PRIMERA A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Cambodia - Aruba</t>
+          <t>Junior - Union Magdalena</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>80</v>
+        <v>73.3</v>
       </c>
       <c r="F4" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>25-03-2025 20:00</t>
+          <t>26-03-2025 20:30</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>EGYPT</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>WORLD CUP - QUALIFICATION AFRICA</t>
+          <t>SECOND LEAGUE</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Egypt - Sierra Leone</t>
+          <t>Kahraba Ismailia - Abu Qair Semad</t>
         </is>
       </c>
       <c r="E5" t="n">
         <v>76</v>
       </c>
       <c r="F5" t="n">
-        <v>3.35</v>
+        <v>1.91</v>
       </c>
       <c r="G5" t="n">
-        <v>1.55</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>25-03-2025 17:00</t>
+          <t>26-03-2025 12:00</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>TURKEY</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>WORLD CUP - QUALIFICATION AFRICA</t>
+          <t>2. LIG</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Benin - South Africa</t>
+          <t>Erzin Spor - 24 Erzincanspor</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="F6" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="G6" t="n">
-        <v>0.64</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>25-03-2025 20:00</t>
+          <t>26-03-2025 12:00</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>TURKEY</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>WORLD CUP - QUALIFICATION AFRICA</t>
+          <t>2. LIG</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Cameroon - Libya</t>
+          <t>Buca FK - Nazilli Belediyespor</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>72</v>
+        <v>66.7</v>
       </c>
       <c r="F7" t="n">
-        <v>2.63</v>
+        <v>2.25</v>
       </c>
       <c r="G7" t="n">
-        <v>0.89</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>25-03-2025 22:00</t>
+          <t>26-03-2025 12:00</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>TURKEY</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>WORLD CUP - QUALIFICATION AFRICA</t>
+          <t>2. LIG</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Algeria - Mozambique</t>
+          <t>Karacabey Belediyespor - Belediye Derincespor</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="F8" t="n">
-        <v>3.8</v>
+        <v>1.91</v>
       </c>
       <c r="G8" t="n">
-        <v>2.04</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>25-03-2025 14:45</t>
+          <t>26-03-2025 12:00</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>TURKEY</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>WORLD CUP - QUALIFICATION ASIA</t>
+          <t>2. LIG</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Kyrgyzstan - Qatar</t>
+          <t>Serik Belediyespor - Van BB</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>84</v>
+        <v>81.7</v>
       </c>
       <c r="F9" t="n">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="G9" t="n">
-        <v>0.72</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>25-03-2025 19:15</t>
+          <t>27-03-2025 19:30</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>ARGENTINA</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>WORLD CUP - QUALIFICATION ASIA</t>
+          <t>LIGA PROFESIONAL ARGENTINA</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Kuwait - Oman</t>
+          <t>Aldosivi - Union Santa Fe</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>93.3</v>
+        <v>76.7</v>
       </c>
       <c r="F10" t="n">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="G10" t="n">
-        <v>0.96</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>25-03-2025 12:00</t>
+          <t>27-03-2025 01:00</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>ARGENTINA</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>WORLD CUP - QUALIFICATION ASIA</t>
+          <t>TORNEO FEDERAL A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>China - Australia</t>
+          <t>Sportivo Las Parejas - 9 De Julio Rafaela</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>71.7</v>
+        <v>70</v>
       </c>
       <c r="F11" t="n">
-        <v>1.95</v>
+        <v>2.25</v>
       </c>
       <c r="G11" t="n">
-        <v>0.4</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>25-03-2025 20:45</t>
+          <t>28-03-2025 00:00</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>COLOMBIA</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>WORLD CUP - QUALIFICATION EUROPE</t>
+          <t>PRIMERA A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Montenegro - Faroe Islands</t>
+          <t>Once Caldas - Llaneros</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F12" t="n">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="G12" t="n">
-        <v>0.62</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>27-03-2025 00:30</t>
+          <t>27-03-2025 23:00</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>COLOMBIA</t>
+          <t>COSTA-RICA</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>PRIMERA A</t>
+          <t>PRIMERA DIVISIÓN</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Junior - Union Magdalena</t>
+          <t>Santa Ana - CS Cartagines</t>
         </is>
       </c>
       <c r="E13" t="n">
         <v>73.3</v>
       </c>
       <c r="F13" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="G13" t="n">
-        <v>0.47</v>
+        <v>0.4</v>
       </c>
     </row>
   </sheetData>

--- a/scraper/data/betclever_predictions.xlsx
+++ b/scraper/data/betclever_predictions.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,85 +475,141 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>26-03-2025 15:00</t>
+          <t>27-03-2025 18:45</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SLOVAKIA</t>
+          <t>ROMANIA</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>3. LIGA - EAST</t>
+          <t>LIGA II</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Spišské Podhradie - Partizán Bardejov</t>
+          <t>Csikszereda - FC Voluntari</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>73.3</v>
+        <v>80</v>
       </c>
       <c r="F2" t="n">
-        <v>1.7</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>26-03-2025 12:00</t>
+          <t>28-03-2025 20:00</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>TURKEY</t>
+          <t>FRANCE</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2. LIG</t>
+          <t>LIGUE 2</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Kırklarelispor - Ankaraspor</t>
+          <t>RED Star FC 93 - Rodez</t>
         </is>
       </c>
       <c r="E3" t="n">
         <v>73.3</v>
       </c>
       <c r="F3" t="n">
-        <v>2.15</v>
+        <v>2.87</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>27-03-2025 18:45</t>
+          <t>28-03-2025 18:00</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ROMANIA</t>
+          <t>AUSTRIA</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>LIGA II</t>
+          <t>2. LIGA</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Csikszereda - FC Voluntari</t>
+          <t>Austria Lustenau - SV Kapfenberg</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>80</v>
+        <v>73.3</v>
       </c>
       <c r="F4" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>28-03-2025 14:00</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>ISRAEL</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>LIGA LEUMIT</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Hapoel Petah Tikva - Hapoel Kfar Shalem</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>70</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1.91</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>28-03-2025 16:00</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>MEXICO</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>U23 LEAGUE</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Necaxa U23 - Queretaro U23</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>73.3</v>
+      </c>
+      <c r="F6" t="n">
+        <v>2.05</v>
       </c>
     </row>
   </sheetData>
@@ -674,7 +730,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -717,169 +773,225 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>26-03-2025 19:00</t>
+          <t>27-03-2025 19:30</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>ARGENTINA</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>PAULISTA - A3</t>
+          <t>LIGA PROFESIONAL ARGENTINA</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Monte Azul - Itapirense</t>
+          <t>Aldosivi - Union Santa Fe</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>76</v>
+        <v>76.7</v>
       </c>
       <c r="F2" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>26-03-2025 23:30</t>
+          <t>27-03-2025 12:00</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>ISRAEL</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>PAULISTA - A3</t>
+          <t>LIGA ALEF</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Marília - União São João</t>
+          <t>Shimshon Tel Aviv - Maccabi Kiryat Malachi</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="F3" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>26-03-2025 20:30</t>
+          <t>28-03-2025 20:30</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>EGYPT</t>
+          <t>ITALY</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>SECOND LEAGUE</t>
+          <t>SERIE B</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Kahraba Ismailia - Abu Qair Semad</t>
+          <t>Spezia - Brescia</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>76</v>
+        <v>76.7</v>
       </c>
       <c r="F4" t="n">
-        <v>1.91</v>
+        <v>2.05</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>26-03-2025 12:00</t>
+          <t>29-03-2025 00:30</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>TURKEY</t>
+          <t>CHILE</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2. LIG</t>
+          <t>PRIMERA B</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Karacabey Belediyespor - Belediye Derincespor</t>
+          <t>Universidad De Concepcion - Deportes Santa Cruz</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F5" t="n">
-        <v>1.91</v>
+        <v>2.02</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>26-03-2025 12:00</t>
+          <t>28-03-2025 19:30</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>TURKEY</t>
+          <t>FRANCE</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2. LIG</t>
+          <t>NATIONAL 1</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Serik Belediyespor - Van BB</t>
+          <t>Concarneau - Sochaux</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>81.7</v>
+        <v>84</v>
       </c>
       <c r="F6" t="n">
-        <v>1.8</v>
+        <v>1.74</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>27-03-2025 19:30</t>
+          <t>28-03-2025 19:30</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ARGENTINA</t>
+          <t>FRANCE</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>LIGA PROFESIONAL ARGENTINA</t>
+          <t>NATIONAL 1</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Aldosivi - Union Santa Fe</t>
+          <t>Orleans - Quevilly</t>
         </is>
       </c>
       <c r="E7" t="n">
+        <v>93.3</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1.88</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>28-03-2025 20:45</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>IRELAND</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>FIRST DIVISION</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Bray Wanderers - Cobh Ramblers</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>86.7</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1.83</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>28-03-2025 20:45</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>IRELAND</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>PREMIER DIVISION</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Cork City - Drogheda United</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
         <v>76.7</v>
       </c>
-      <c r="F7" t="n">
-        <v>2.25</v>
+      <c r="F9" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -893,7 +1005,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -946,103 +1058,307 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>26-03-2025 12:00</t>
+          <t>27-03-2025 21:15</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>TURKEY</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2. LIG</t>
+          <t>CBF BRASILEIRO U20</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Erzin Spor - 24 Erzincanspor</t>
+          <t>São Paulo U20 - Santos U20</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="F2" t="n">
-        <v>1.75</v>
+        <v>1.5</v>
       </c>
       <c r="G2" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="H2" t="n">
-        <v>2.8</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>26-03-2025 12:00</t>
+          <t>28-03-2025 20:00</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>TURKEY</t>
+          <t>NETHERLANDS</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>3. LIG - GROUP 4</t>
+          <t>EERSTE DIVISIE</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Kahramanmaraş İstiklalsp - Bergama Belediyespor</t>
+          <t>Telstar - Vitesse</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>80</v>
+        <v>93.3</v>
       </c>
       <c r="F3" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="G3" t="n">
-        <v>66.7</v>
+        <v>73.3</v>
       </c>
       <c r="H3" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>27-03-2025 03:30</t>
+          <t>28-03-2025 18:00</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>AUSTRIA</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>MLS NEXT PRO</t>
+          <t>2. LIGA</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Portland Timbers II - San Jose Earthquakes II</t>
+          <t>FC Liefering - Floridsdorfer AC</t>
         </is>
       </c>
       <c r="E4" t="n">
+        <v>70</v>
+      </c>
+      <c r="F4" t="n">
+        <v>2</v>
+      </c>
+      <c r="G4" t="n">
+        <v>60</v>
+      </c>
+      <c r="H4" t="n">
+        <v>3.55</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>28-03-2025 19:30</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>AUSTRIA</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>REGIONALLIGA - OST</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Favoritner AC - Krems / Rehberg</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>73.3</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="G5" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="H5" t="n">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>28-03-2025 20:30</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>BELGIUM</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>RESERVE PRO LEAGUE</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>RAAL La Louviere U21 - RFC De Liege U21</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
         <v>85</v>
       </c>
-      <c r="F4" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="G4" t="n">
-        <v>50</v>
-      </c>
-      <c r="H4" t="n">
-        <v>3</v>
+      <c r="F6" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="G6" t="n">
+        <v>60</v>
+      </c>
+      <c r="H6" t="n">
+        <v>2.2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>28-03-2025 19:30</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>FRANCE</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>NATIONAL 1</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Rouen - Dijon</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>65</v>
+      </c>
+      <c r="F7" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="G7" t="n">
+        <v>60</v>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>28-03-2025 19:00</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>GERMANY</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>REGIONALLIGA - SUDWEST</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Hoffenheim II - Barockstadt Fulda-Lehn.</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>85</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="G8" t="n">
+        <v>57.5</v>
+      </c>
+      <c r="H8" t="n">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>28-03-2025 20:45</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>IRELAND</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>FIRST DIVISION</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Athlone Town - Finn Harps</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>73.8</v>
+      </c>
+      <c r="F9" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="G9" t="n">
+        <v>63.8</v>
+      </c>
+      <c r="H9" t="n">
+        <v>3.95</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>28-03-2025 20:45</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>IRELAND</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>FIRST DIVISION</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Bray Wanderers - Cobh Ramblers</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>80</v>
+      </c>
+      <c r="F10" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="G10" t="n">
+        <v>65</v>
+      </c>
+      <c r="H10" t="n">
+        <v>3.95</v>
       </c>
     </row>
   </sheetData>
@@ -1056,7 +1372,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G34"/>
+  <dimension ref="A1:G49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1104,38 +1420,38 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>26-03-2025 23:00</t>
+          <t>27-03-2025 22:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>ALGERIA</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>BRASILIENSE</t>
+          <t>COUPE NATIONALE</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Brasiliense - Gama</t>
+          <t>El Bayadh - ES Setif</t>
         </is>
       </c>
       <c r="E2" t="n">
         <v>60</v>
       </c>
       <c r="F2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>26-03-2025 19:00</t>
+          <t>27-03-2025 21:15</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -1150,23 +1466,23 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Fluminense U20 - Fortaleza U20</t>
+          <t>São Paulo U20 - Santos U20</t>
         </is>
       </c>
       <c r="E3" t="n">
         <v>66.7</v>
       </c>
       <c r="F3" t="n">
-        <v>1.73</v>
+        <v>2.05</v>
       </c>
       <c r="G3" t="n">
-        <v>0.15</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>26-03-2025 19:00</t>
+          <t>28-03-2025 00:00</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1176,653 +1492,653 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>CBF BRASILEIRO U20</t>
+          <t>CEARENSE - 2</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Juventude U20 - Botafogo U20</t>
+          <t>Crato - Caucaia</t>
         </is>
       </c>
       <c r="E4" t="n">
         <v>50</v>
       </c>
       <c r="F4" t="n">
-        <v>3.9</v>
+        <v>2.45</v>
       </c>
       <c r="G4" t="n">
-        <v>0.95</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>26-03-2025 19:00</t>
+          <t>27-03-2025 14:00</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>CAMEROON</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>CBF BRASILEIRO U20</t>
+          <t>ELITE ONE</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Corinthians U20 - Cuiabá U20</t>
+          <t>Fauve Azur Elite - Dynamo De Douala</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>55.7</v>
+        <v>60</v>
       </c>
       <c r="F5" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="G5" t="n">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>26-03-2025 19:00</t>
+          <t>28-03-2025 00:00</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>COLOMBIA</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>PAULISTA - A3</t>
+          <t>PRIMERA B</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Monte Azul - Itapirense</t>
+          <t>Huila - Quindio</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>50</v>
+        <v>53.3</v>
       </c>
       <c r="F6" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>26-03-2025 23:30</t>
+          <t>27-03-2025 23:00</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>COSTA-RICA</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>PAULISTA - A3</t>
+          <t>PRIMERA DIVISIÓN</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Marília - União São João</t>
+          <t>Santa Ana - CS Cartagines</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="F7" t="n">
-        <v>1.8</v>
+        <v>2.62</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.1</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>26-03-2025 19:00</t>
+          <t>27-03-2025 18:45</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>ROMANIA</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>PAULISTA - A3</t>
+          <t>LIGA II</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Desportivo Brasil - Rio Branco SP</t>
+          <t>Csikszereda - FC Voluntari</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="F8" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="G8" t="n">
-        <v>0.32</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>26-03-2025 22:00</t>
+          <t>27-03-2025 23:00</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>COLOMBIA</t>
+          <t>URUGUAY</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>PRIMERA A</t>
+          <t>PRIMERA DIVISIÓN - APERTURA</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Alianza Petrolera - Fortaleza FC</t>
+          <t>Wanderers - Progreso</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>63.3</v>
+        <v>53.3</v>
       </c>
       <c r="F9" t="n">
-        <v>2.38</v>
+        <v>1.95</v>
       </c>
       <c r="G9" t="n">
-        <v>0.51</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>23-03-2025 15:30</t>
+          <t>28-03-2025 20:45</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>CROATIA</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>FIRST NL</t>
+          <t>LEAGUE TWO</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Opatija - Rudes</t>
+          <t>Colchester - Grimsby</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>55.7</v>
+        <v>53.3</v>
       </c>
       <c r="F10" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="G10" t="n">
-        <v>0.14</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>26-03-2025 21:30</t>
+          <t>28-03-2025 18:00</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ECUADOR</t>
+          <t>CROATIA</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>LIGA PRO SERIE B</t>
+          <t>HNL</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Guayaquil City FC - San Antonio</t>
+          <t>NK Lokomotiva Zagreb - HNK Gorica</t>
         </is>
       </c>
       <c r="E11" t="n">
         <v>60</v>
       </c>
       <c r="F11" t="n">
-        <v>1.85</v>
+        <v>1.7</v>
       </c>
       <c r="G11" t="n">
-        <v>0.11</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>26-03-2025 20:30</t>
+          <t>28-03-2025 20:00</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>EGYPT</t>
+          <t>FRANCE</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>SECOND LEAGUE</t>
+          <t>LIGUE 2</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>El Seka El Hadid - Proxy</t>
+          <t>Clermont Foot - Amiens</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>53.3</v>
+        <v>60</v>
       </c>
       <c r="F12" t="n">
-        <v>1.72</v>
+        <v>2</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.08</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>26-03-2025 19:00</t>
+          <t>28-03-2025 20:00</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>GERMANY</t>
+          <t>FRANCE</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>REGIONALLIGA - NORD</t>
+          <t>LIGUE 2</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Phönix Lübeck - Werder Bremen II</t>
+          <t>RED Star FC 93 - Rodez</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>53.3</v>
+        <v>73.3</v>
       </c>
       <c r="F13" t="n">
-        <v>2</v>
+        <v>2.87</v>
       </c>
       <c r="G13" t="n">
-        <v>0.07000000000000001</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>26-03-2025 12:30</t>
+          <t>28-03-2025 21:00</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>HONG-KONG</t>
+          <t>ARGENTINA</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>SAPLING CUP</t>
+          <t>LIGA PROFESIONAL ARGENTINA</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Southern District - Rangers</t>
+          <t>Defensa Y Justicia - Tigre</t>
         </is>
       </c>
       <c r="E14" t="n">
         <v>53.3</v>
       </c>
       <c r="F14" t="n">
-        <v>1.73</v>
+        <v>2.25</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.08</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>26-03-2025 16:00</t>
+          <t>28-03-2025 10:30</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>NIGERIA</t>
+          <t>AUSTRALIA</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>NPFL</t>
+          <t>VICTORIA NPL 2</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Bayelsa United - Rivers United</t>
+          <t>Moreland City - Langwarrin</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="F15" t="n">
-        <v>1.95</v>
+        <v>2.3</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.03</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>26-03-2025 12:00</t>
+          <t>28-03-2025 18:00</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>NORWAY</t>
+          <t>AUSTRIA</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>NASJONAL U19 CHAMPIONS LEAGUE</t>
+          <t>2. LIGA</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Odd U19 - Viking U19</t>
+          <t>FC Liefering - Floridsdorfer AC</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>60</v>
+        <v>53.3</v>
       </c>
       <c r="F16" t="n">
-        <v>2.62</v>
+        <v>2.15</v>
       </c>
       <c r="G16" t="n">
-        <v>0.57</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>26-03-2025 15:00</t>
+          <t>28-03-2025 18:00</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>SLOVAKIA</t>
+          <t>AUSTRIA</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>3. LIGA - EAST</t>
+          <t>2. LIGA</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Spišské Podhradie - Partizán Bardejov</t>
+          <t>Voitsberg - Ried</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>73.3</v>
+        <v>50</v>
       </c>
       <c r="F17" t="n">
-        <v>1.7</v>
+        <v>4.4</v>
       </c>
       <c r="G17" t="n">
-        <v>0.25</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>26-03-2025 15:00</t>
+          <t>28-03-2025 18:00</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>SLOVAKIA</t>
+          <t>AUSTRIA</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>3. LIGA - WEST</t>
+          <t>2. LIGA</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Spartak Myjava - Sereď</t>
+          <t>Stripfing - Sturm Graz II</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>66.7</v>
+        <v>53.3</v>
       </c>
       <c r="F18" t="n">
-        <v>3.8</v>
+        <v>2.4</v>
       </c>
       <c r="G18" t="n">
-        <v>1.53</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>26-03-2025 20:00</t>
+          <t>28-03-2025 18:00</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>SWITZERLAND</t>
+          <t>AUSTRIA</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>1. LIGA CLASSIC - GROUP 1</t>
+          <t>2. LIGA</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>La Sarraz-Eclépens - La Chaux-de-Fonds</t>
+          <t>SV Lafnitz - Schwarz-Weiß Bregenz</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>51.3</v>
+        <v>66.7</v>
       </c>
       <c r="F19" t="n">
-        <v>1.7</v>
+        <v>2.6</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.13</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>26-03-2025 12:00</t>
+          <t>28-03-2025 18:00</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>TURKEY</t>
+          <t>AUSTRIA</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>2. LIG</t>
+          <t>2. LIGA</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Kırklarelispor - Ankaraspor</t>
+          <t>Austria Lustenau - SV Kapfenberg</t>
         </is>
       </c>
       <c r="E20" t="n">
         <v>73.3</v>
       </c>
       <c r="F20" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="G20" t="n">
-        <v>0.58</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>26-03-2025 12:00</t>
+          <t>28-03-2025 20:30</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>TURKEY</t>
+          <t>AUSTRIA</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>3. LIG - GROUP 1</t>
+          <t>2. LIGA</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Kartal Bulvarspor - Bursaspor</t>
+          <t>Admira Wacker - SKN ST. Polten</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>50</v>
+        <v>53.3</v>
       </c>
       <c r="F21" t="n">
-        <v>6</v>
+        <v>2.1</v>
       </c>
       <c r="G21" t="n">
-        <v>2</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>26-03-2025 20:30</t>
+          <t>28-03-2025 19:30</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>URUGUAY</t>
+          <t>AUSTRIA</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>PRIMERA DIVISIÓN - APERTURA</t>
+          <t>REGIONALLIGA - OST</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Liverpool Montevideo - Club Nacional</t>
+          <t>Wiener SC - TWL Elektra</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>53.3</v>
+        <v>62.3</v>
       </c>
       <c r="F22" t="n">
-        <v>5</v>
+        <v>2.2</v>
       </c>
       <c r="G22" t="n">
-        <v>1.66</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>26-03-2025 23:00</t>
+          <t>28-03-2025 17:45</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>URUGUAY</t>
+          <t>BULGARIA</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>PRIMERA DIVISIÓN - APERTURA</t>
+          <t>FIRST LEAGUE</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Plaza Colonia - Boston River</t>
+          <t>Botev Vratsa - Hebar 1918</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>53.3</v>
+        <v>56.7</v>
       </c>
       <c r="F23" t="n">
-        <v>5.75</v>
+        <v>1.93</v>
       </c>
       <c r="G23" t="n">
-        <v>2.06</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>26-03-2025 14:00</t>
+          <t>29-03-2025 00:30</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>ZAMBIA</t>
+          <t>CHILE</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>SUPER LEAGUE</t>
+          <t>PRIMERA DIVISIÓN</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Green Buffaloes - NAPSA Stars</t>
+          <t>Nublense - Deportes Iquique</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>53.3</v>
+        <v>60</v>
       </c>
       <c r="F24" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="G24" t="n">
-        <v>0.23</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>26-03-2025 14:00</t>
+          <t>28-03-2025 13:00</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>ZAMBIA</t>
+          <t>CHINA</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1832,296 +2148,761 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Red Arrows - Nchanga Rangers</t>
+          <t>Sichuan Jiuniu - Yunnan Yukun</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>66.7</v>
+        <v>50</v>
       </c>
       <c r="F25" t="n">
-        <v>1.7</v>
+        <v>2.45</v>
       </c>
       <c r="G25" t="n">
-        <v>0.13</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>27-03-2025 01:00</t>
+          <t>28-03-2025 22:30</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>ARGENTINA</t>
+          <t>ECUADOR</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>PRIMERA NACIONAL</t>
+          <t>LIGA PRO</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Quilmes - Colegiales</t>
+          <t>Aucas - Independiente Del Valle</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>50</v>
+        <v>53.3</v>
       </c>
       <c r="F26" t="n">
-        <v>1.83</v>
+        <v>3.2</v>
       </c>
       <c r="G26" t="n">
-        <v>-0.08</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>27-03-2025 01:30</t>
+          <t>28-03-2025 20:30</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>EGYPT</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>COPA DO NORDESTE</t>
+          <t>CUP</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Ferroviario - Sousa</t>
+          <t>Zamalek SC - Ceramica Cleopatra</t>
         </is>
       </c>
       <c r="E27" t="n">
         <v>60</v>
       </c>
       <c r="F27" t="n">
-        <v>1.91</v>
+        <v>2.15</v>
       </c>
       <c r="G27" t="n">
-        <v>0.15</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>27-03-2025 01:00</t>
+          <t>28-03-2025 14:00</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>RORAIMENSE</t>
+          <t>PROFESSIONAL DEVELOPMENT LEAGUE</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Sao Raimundo - Monte Roraima</t>
+          <t>AFC Bournemouth U21 - Swansea City U21</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>53.3</v>
+        <v>66.7</v>
       </c>
       <c r="F28" t="n">
-        <v>3.1</v>
+        <v>2.1</v>
       </c>
       <c r="G28" t="n">
-        <v>0.65</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>27-03-2025 14:00</t>
+          <t>28-03-2025 19:30</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>CAMEROON</t>
+          <t>FRANCE</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>ELITE ONE</t>
+          <t>NATIONAL 1</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Fauve Azur Elite - Dynamo De Douala</t>
+          <t>Concarneau - Sochaux</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F29" t="n">
-        <v>1.8</v>
+        <v>2.6</v>
       </c>
       <c r="G29" t="n">
-        <v>0.08</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>28-03-2025 00:00</t>
+          <t>28-03-2025 19:30</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>COLOMBIA</t>
+          <t>FRANCE</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>PRIMERA B</t>
+          <t>NATIONAL 1</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Huila - Quindio</t>
+          <t>Valenciennes - Boulogne</t>
         </is>
       </c>
       <c r="E30" t="n">
         <v>53.3</v>
       </c>
       <c r="F30" t="n">
-        <v>1.91</v>
+        <v>2.12</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>27-03-2025 02:00</t>
+          <t>28-03-2025 18:30</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>COSTA-RICA</t>
+          <t>GERMANY</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>PRIMERA DIVISIÓN</t>
+          <t>2. BUNDESLIGA</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Puntarenas FC - Sporting San Jose</t>
+          <t>SSV Ulm 1846 - SV Darmstadt 98</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>63.3</v>
+        <v>50</v>
       </c>
       <c r="F31" t="n">
-        <v>1.83</v>
+        <v>2.6</v>
       </c>
       <c r="G31" t="n">
-        <v>0.16</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>27-03-2025 23:00</t>
+          <t>28-03-2025 19:00</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>COSTA-RICA</t>
+          <t>GERMANY</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>PRIMERA DIVISIÓN</t>
+          <t>REGIONALLIGA - BAYERN</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Santa Ana - CS Cartagines</t>
+          <t>Wacker Burghausen - FC Schweinfurt 05</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>60</v>
+        <v>51.7</v>
       </c>
       <c r="F32" t="n">
-        <v>2.62</v>
+        <v>3.6</v>
       </c>
       <c r="G32" t="n">
-        <v>0.57</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>27-03-2025 18:45</t>
+          <t>28-03-2025 19:30</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>ROMANIA</t>
+          <t>GERMANY</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>LIGA II</t>
+          <t>REGIONALLIGA - NORD</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Csikszereda - FC Voluntari</t>
+          <t>SV Drochtersen/Assel - Kickers Emden</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="F33" t="n">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="G33" t="n">
-        <v>0.84</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>27-03-2025 23:00</t>
+          <t>28-03-2025 20:45</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>URUGUAY</t>
+          <t>IRELAND</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>PRIMERA DIVISIÓN - APERTURA</t>
+          <t>FIRST DIVISION</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Wanderers - Progreso</t>
+          <t>Athlone Town - Finn Harps</t>
         </is>
       </c>
       <c r="E34" t="n">
+        <v>51.7</v>
+      </c>
+      <c r="F34" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>28-03-2025 21:00</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>IRELAND</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>PREMIER DIVISION</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Shamrock Rovers - Derry City</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
         <v>53.3</v>
       </c>
-      <c r="F34" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="G34" t="n">
-        <v>0.04</v>
+      <c r="F35" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>28-03-2025 14:00</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>ISRAEL</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>LIGA LEUMIT</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Hapoel Petah Tikva - Hapoel Kfar Shalem</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>70</v>
+      </c>
+      <c r="F36" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>28-03-2025 14:00</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>ISRAEL</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>LIGA LEUMIT</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Hapoel Kfar Saba - Maccabi Herzliya</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>57.7</v>
+      </c>
+      <c r="F37" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>25-03-2025 17:30</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>MALI</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>PREMIÈRE DIVISION</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>US Bougouba - Police</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>60</v>
+      </c>
+      <c r="F38" t="n">
+        <v>2</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>28-03-2025 16:00</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>MEXICO</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>U23 LEAGUE</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Necaxa U23 - Queretaro U23</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>73.3</v>
+      </c>
+      <c r="F39" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>29-03-2025 00:30</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>PARAGUAY</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>DIVISION PROFESIONAL - APERTURA</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Cerro Porteno - Atlético Tembetary</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
+        <v>60</v>
+      </c>
+      <c r="F40" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>28-03-2025 21:30</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>PERU</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>PRIMERA DIVISIÓN</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Alianza Atletico - Cusco</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v>63.3</v>
+      </c>
+      <c r="F41" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>28-03-2025 18:00</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>POLAND</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>EKSTRAKLASA</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Piast Gliwice - Widzew Łódź</t>
+        </is>
+      </c>
+      <c r="E42" t="n">
+        <v>50</v>
+      </c>
+      <c r="F42" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="G42" t="n">
+        <v>-0.12</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>28-03-2025 20:30</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>SPAIN</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>SEGUNDA DIVISIÓN</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Tenerife - Granada CF</t>
+        </is>
+      </c>
+      <c r="E43" t="n">
+        <v>51</v>
+      </c>
+      <c r="F43" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>28-03-2025 20:15</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>SWITZERLAND</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>CHALLENGE LEAGUE</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>FC Aarau - Étoile Carouge</t>
+        </is>
+      </c>
+      <c r="E44" t="n">
+        <v>63.3</v>
+      </c>
+      <c r="F44" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>28-03-2025 13:00</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>THAILAND</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>THAI LEAGUE 1</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Ratchaburi - Prachuap</t>
+        </is>
+      </c>
+      <c r="E45" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="F45" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>28-03-2025 18:30</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>TURKEY</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>1. LIG</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>76 Iğdır Belediyespor - Ümraniyespor</t>
+        </is>
+      </c>
+      <c r="E46" t="n">
+        <v>60</v>
+      </c>
+      <c r="F46" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>28-03-2025 14:00</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>TURKEY</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>SÜPER LIG</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Antalyaspor - Alanyaspor</t>
+        </is>
+      </c>
+      <c r="E47" t="n">
+        <v>60</v>
+      </c>
+      <c r="F47" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>28-03-2025 18:30</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>TURKEY</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>SÜPER LIG</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Konyaspor - Gazişehir Gaziantep</t>
+        </is>
+      </c>
+      <c r="E48" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="F48" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>28-03-2025 12:00</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>UKRAINE</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>PREMIER LEAGUE</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Inhulets - Veres Rivne</t>
+        </is>
+      </c>
+      <c r="E49" t="n">
+        <v>50</v>
+      </c>
+      <c r="F49" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="G49" t="n">
+        <v>1.1</v>
       </c>
     </row>
   </sheetData>
@@ -2135,7 +2916,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2183,218 +2964,621 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>26-03-2025 22:00</t>
+          <t>27-03-2025 21:30</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>EL-SALVADOR</t>
+          <t>PERU</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>PRIMERA DIVISION</t>
+          <t>PRIMERA DIVISIÓN</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Fuerte San Francisco - Cacahuatique</t>
+          <t>Ayacucho FC - FBC Melgar</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>66.7</v>
+        <v>53.3</v>
       </c>
       <c r="F2" t="n">
-        <v>3.1</v>
+        <v>1.7</v>
       </c>
       <c r="G2" t="n">
-        <v>1.07</v>
+        <v>-0.09</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>26-03-2025 14:30</t>
+          <t>28-03-2025 20:00</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ITALY</t>
+          <t>FRANCE</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>SERIE D - GIRONE D</t>
+          <t>LIGUE 2</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Victor San Marino - Tuttocuoio</t>
+          <t>Martigues - Ajaccio</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F3" t="n">
-        <v>2.95</v>
+        <v>2.38</v>
       </c>
       <c r="G3" t="n">
-        <v>0.77</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>26-03-2025 15:00</t>
+          <t>28-03-2025 20:00</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SLOVAKIA</t>
+          <t>NETHERLANDS</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>3. LIGA - EAST</t>
+          <t>EERSTE DIVISIE</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Baník Kalinovo - Rimavská Sobota</t>
+          <t>MVV - Emmen</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>55.7</v>
+        <v>50</v>
       </c>
       <c r="F4" t="n">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="G4" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>26-03-2025 15:00</t>
+          <t>28-03-2025 09:35</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SLOVAKIA</t>
+          <t>AUSTRALIA</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>3. LIGA - WEST</t>
+          <t>A-LEAGUE</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Inter Bratislava - Hamsik Academy</t>
+          <t>Macarthur - Newcastle Jets</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>53.3</v>
+        <v>60</v>
       </c>
       <c r="F5" t="n">
-        <v>5.25</v>
+        <v>2.88</v>
       </c>
       <c r="G5" t="n">
-        <v>1.8</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>26-03-2025 12:00</t>
+          <t>28-03-2025 19:30</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>TURKEY</t>
+          <t>AUSTRIA</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2. LIG</t>
+          <t>REGIONALLIGA - OST</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Somaspor - Menemen Belediyespor</t>
+          <t>Favoritner AC - Krems / Rehberg</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>56.7</v>
+        <v>60</v>
       </c>
       <c r="F6" t="n">
-        <v>1.85</v>
+        <v>4</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>27-03-2025 21:30</t>
+          <t>28-03-2025 20:30</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>PERU</t>
+          <t>BELGIUM</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>PRIMERA DIVISIÓN</t>
+          <t>RESERVE PRO LEAGUE</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Ayacucho FC - FBC Melgar</t>
+          <t>RAAL La Louviere U21 - RFC De Liege U21</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>53.3</v>
+        <v>66.7</v>
       </c>
       <c r="F7" t="n">
-        <v>1.7</v>
+        <v>3.4</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.09</v>
+        <v>1.27</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>27-03-2025 03:30</t>
+          <t>28-03-2025 15:30</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>CROATIA</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>MLS NEXT PRO</t>
+          <t>FIRST NL</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Portland Timbers II - San Jose Earthquakes II</t>
+          <t>Jarun - Sesvete</t>
         </is>
       </c>
       <c r="E8" t="n">
+        <v>51</v>
+      </c>
+      <c r="F8" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>28-03-2025 18:00</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>CZECH-REPUBLIC</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>3. LIGA - CFL A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Příbram - Motorlet Praha</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>50</v>
+      </c>
+      <c r="F9" t="n">
+        <v>4</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>28-03-2025 19:00</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>DENMARK</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>2ND DIVISION - GROUP 1</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>FC Helsingor - AB Copenhagen</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
         <v>60</v>
       </c>
-      <c r="F8" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0.32</v>
+      <c r="F10" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>28-03-2025 19:30</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>FRANCE</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>NATIONAL 1</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Rouen - Dijon</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>53.3</v>
+      </c>
+      <c r="F11" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>28-03-2025 19:30</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>FRANCE</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>NATIONAL 1</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Nancy - Le Mans</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>51</v>
+      </c>
+      <c r="F12" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>28-03-2025 19:00</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>GERMANY</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>REGIONALLIGA - NORDOST</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Viktoria Berlin - FC Carl Zeiss Jena</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>50</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="G13" t="n">
+        <v>-0.12</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>28-03-2025 20:30</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>ITALY</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>SERIE C - GIRONE B</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Pianese - Pontedera</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>60</v>
+      </c>
+      <c r="F14" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>28-03-2025 17:00</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>MEXICO</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>LIGA PREMIER SERIE A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Correcaminos UAT II - Durango</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="F15" t="n">
+        <v>2</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>29-03-2025 00:00</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>MEXICO</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>LIGA PREMIER SERIE A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Tecos - Reboceros La Piedad</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>60</v>
+      </c>
+      <c r="F16" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>28-03-2025 19:30</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>SWITZERLAND</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>CHALLENGE LEAGUE</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>FC Schaffhausen - FC WIL 1900</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>53.3</v>
+      </c>
+      <c r="F17" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>28-03-2025 13:00</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>THAILAND</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>THAI LEAGUE 2</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Chanthaburi - Phrae United</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>60</v>
+      </c>
+      <c r="F18" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>28-03-2025 14:00</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>TURKEY</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>1. LIG</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Erzurum BB - Manisa BBSK</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>55.7</v>
+      </c>
+      <c r="F19" t="n">
+        <v>5</v>
+      </c>
+      <c r="G19" t="n">
+        <v>1.78</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>28-03-2025 14:30</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>UKRAINE</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>PREMIER LEAGUE</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>LNZ Cherkasy - Polessya</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>60</v>
+      </c>
+      <c r="F20" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>28-03-2025 21:00</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>WALES</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>PREMIER LEAGUE</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Aberystwyth Town - Flint Town United</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>53.3</v>
+      </c>
+      <c r="F21" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="G21" t="n">
+        <v>-0</v>
       </c>
     </row>
   </sheetData>
@@ -2408,7 +3592,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2456,125 +3640,404 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>26-03-2025 19:00</t>
+          <t>27-03-2025 21:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>GERMANY</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>REGIONALLIGA - NORDOST</t>
+          <t>LEAGUE ONE</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>FSV Zwickau - FC Rot-Weiß Erfurt</t>
+          <t>Leyton Orient - Stevenage</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>71.8</v>
+        <v>70</v>
       </c>
       <c r="F2" t="n">
-        <v>1.8</v>
+        <v>2.35</v>
       </c>
       <c r="G2" t="n">
-        <v>0.29</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>26-03-2025 12:00</t>
+          <t>27-03-2025 12:30</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>TURKEY</t>
+          <t>AZERBAIJAN</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2. LIG</t>
+          <t>BIRINCI DASTA</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Erzin Spor - 24 Erzincanspor</t>
+          <t>MOIK - Difai Ağsu</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="F3" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="G3" t="n">
-        <v>0.4</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>27-03-2025 21:00</t>
+          <t>28-03-2025 18:00</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>AUSTRIA</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>LEAGUE ONE</t>
+          <t>2. LIGA</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Leyton Orient - Stevenage</t>
+          <t>FC Liefering - Floridsdorfer AC</t>
         </is>
       </c>
       <c r="E4" t="n">
         <v>70</v>
       </c>
       <c r="F4" t="n">
-        <v>2.35</v>
+        <v>2</v>
       </c>
       <c r="G4" t="n">
-        <v>0.64</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>27-03-2025 03:30</t>
+          <t>28-03-2025 18:00</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>AUSTRIA</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>MLS NEXT PRO</t>
+          <t>2. LIGA</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Portland Timbers II - San Jose Earthquakes II</t>
+          <t>Voitsberg - Ried</t>
         </is>
       </c>
       <c r="E5" t="n">
+        <v>73.3</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>28-03-2025 13:00</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>CHINA</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>SUPER LEAGUE</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Sichuan Jiuniu - Yunnan Yukun</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>73.3</v>
+      </c>
+      <c r="F6" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>28-03-2025 19:30</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>FRANCE</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>NATIONAL 1</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Orleans - Quevilly</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>70</v>
+      </c>
+      <c r="F7" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>28-03-2025 19:00</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>GERMANY</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>REGIONALLIGA - NORDOST</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Luckenwalde - Hertha BSC II</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>71.8</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>28-03-2025 19:00</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>GERMANY</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>REGIONALLIGA - SUDWEST</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Hoffenheim II - Barockstadt Fulda-Lehn.</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
         <v>85</v>
       </c>
-      <c r="F5" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.5</v>
+      <c r="F9" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>28-03-2025 20:45</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>IRELAND</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>FIRST DIVISION</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Athlone Town - Finn Harps</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>73.8</v>
+      </c>
+      <c r="F10" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>28-03-2025 20:45</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>IRELAND</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>FIRST DIVISION</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Bray Wanderers - Cobh Ramblers</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>80</v>
+      </c>
+      <c r="F11" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>28-03-2025 18:00</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>POLAND</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>EKSTRAKLASA</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Piast Gliwice - Widzew Łódź</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>70</v>
+      </c>
+      <c r="F12" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>28-03-2025 20:00</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>POLAND</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>II LIGA - EAST</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Kalisz - Olimpia Grudziądz</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>71.8</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>28-03-2025 19:30</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>SWITZERLAND</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>CHALLENGE LEAGUE</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Stade Nyonnais - Bellinzona</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>75</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.43</v>
       </c>
     </row>
   </sheetData>
@@ -2588,7 +4051,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2636,348 +4099,348 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>26-03-2025 19:00</t>
+          <t>27-03-2025 19:30</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>ARGENTINA</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>PAULISTA - A3</t>
+          <t>LIGA PROFESIONAL ARGENTINA</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Monte Azul - Itapirense</t>
+          <t>Aldosivi - Union Santa Fe</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>76</v>
+        <v>76.7</v>
       </c>
       <c r="F2" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="G2" t="n">
-        <v>0.67</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>26-03-2025 23:30</t>
+          <t>28-03-2025 00:00</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>COLOMBIA</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>PAULISTA - A3</t>
+          <t>PRIMERA A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Marília - União São João</t>
+          <t>Once Caldas - Llaneros</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="F3" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="G3" t="n">
-        <v>0.83</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>27-03-2025 00:30</t>
+          <t>27-03-2025 23:00</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>COLOMBIA</t>
+          <t>COSTA-RICA</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>PRIMERA A</t>
+          <t>PRIMERA DIVISIÓN</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Junior - Union Magdalena</t>
+          <t>Santa Ana - CS Cartagines</t>
         </is>
       </c>
       <c r="E4" t="n">
         <v>73.3</v>
       </c>
       <c r="F4" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="G4" t="n">
-        <v>0.47</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>26-03-2025 20:30</t>
+          <t>27-03-2025 12:00</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>EGYPT</t>
+          <t>ISRAEL</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>SECOND LEAGUE</t>
+          <t>LIGA ALEF</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Kahraba Ismailia - Abu Qair Semad</t>
+          <t>Shimshon Tel Aviv - Maccabi Kiryat Malachi</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="F5" t="n">
-        <v>1.91</v>
+        <v>2.25</v>
       </c>
       <c r="G5" t="n">
-        <v>0.45</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>26-03-2025 12:00</t>
+          <t>28-03-2025 20:30</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>TURKEY</t>
+          <t>ITALY</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2. LIG</t>
+          <t>SERIE B</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Erzin Spor - 24 Erzincanspor</t>
+          <t>Spezia - Brescia</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>70</v>
+        <v>76.7</v>
       </c>
       <c r="F6" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="G6" t="n">
-        <v>0.4</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>26-03-2025 12:00</t>
+          <t>28-03-2025 20:00</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>TURKEY</t>
+          <t>NETHERLANDS</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2. LIG</t>
+          <t>EERSTE DIVISIE</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Buca FK - Nazilli Belediyespor</t>
+          <t>Excelsior - Jong Utrecht</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>66.7</v>
+        <v>68.90000000000001</v>
       </c>
       <c r="F7" t="n">
-        <v>2.25</v>
+        <v>1.85</v>
       </c>
       <c r="G7" t="n">
-        <v>0.5</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>26-03-2025 12:00</t>
+          <t>28-03-2025 09:30</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>TURKEY</t>
+          <t>AUSTRALIA</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2. LIG</t>
+          <t>VICTORIA NPL</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Karacabey Belediyespor - Belediye Derincespor</t>
+          <t>Heidelberg United - Altona Magic</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>84</v>
+        <v>66.7</v>
       </c>
       <c r="F8" t="n">
-        <v>1.91</v>
+        <v>1.73</v>
       </c>
       <c r="G8" t="n">
-        <v>0.6</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>26-03-2025 12:00</t>
+          <t>28-03-2025 18:00</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>TURKEY</t>
+          <t>AUSTRIA</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2. LIG</t>
+          <t>2. LIGA</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Serik Belediyespor - Van BB</t>
+          <t>FC Liefering - Floridsdorfer AC</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>81.7</v>
+        <v>73.3</v>
       </c>
       <c r="F9" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="G9" t="n">
-        <v>0.47</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>27-03-2025 19:30</t>
+          <t>28-03-2025 19:30</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ARGENTINA</t>
+          <t>AUSTRIA</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>LIGA PROFESIONAL ARGENTINA</t>
+          <t>BUNDESLIGA</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Aldosivi - Union Santa Fe</t>
+          <t>SCR Altach - Lask Linz</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>76.7</v>
+        <v>66.7</v>
       </c>
       <c r="F10" t="n">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="G10" t="n">
-        <v>0.73</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>27-03-2025 01:00</t>
+          <t>28-03-2025 15:15</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ARGENTINA</t>
+          <t>BULGARIA</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>TORNEO FEDERAL A</t>
+          <t>FIRST LEAGUE</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Sportivo Las Parejas - 9 De Julio Rafaela</t>
+          <t>Lokomotiv Sofia - Spartak Varna</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>70</v>
+        <v>71.7</v>
       </c>
       <c r="F11" t="n">
-        <v>2.25</v>
+        <v>1.82</v>
       </c>
       <c r="G11" t="n">
-        <v>0.57</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>28-03-2025 00:00</t>
+          <t>29-03-2025 00:30</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>COLOMBIA</t>
+          <t>CHILE</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>PRIMERA A</t>
+          <t>PRIMERA B</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Once Caldas - Llaneros</t>
+          <t>Universidad De Concepcion - Deportes Santa Cruz</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="F12" t="n">
-        <v>2.1</v>
+        <v>2.02</v>
       </c>
       <c r="G12" t="n">
-        <v>0.43</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>27-03-2025 23:00</t>
+          <t>28-03-2025 03:00</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2992,17 +4455,544 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Santa Ana - CS Cartagines</t>
+          <t>Santos DE Guapiles - Deportivo Saprissa</t>
         </is>
       </c>
       <c r="E13" t="n">
+        <v>70</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.29</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>28-03-2025 19:00</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>DENMARK</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>1. DIVISION</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Vendsyssel FF - Hillerød</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>71.09999999999999</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>28-03-2025 20:30</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>EGYPT</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>CUP</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Zamalek SC - Ceramica Cleopatra</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="F15" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>28-03-2025 19:30</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>FRANCE</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>NATIONAL 1</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Concarneau - Sochaux</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>84</v>
+      </c>
+      <c r="F16" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>28-03-2025 19:30</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>FRANCE</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>NATIONAL 1</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Orleans - Quevilly</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>93.3</v>
+      </c>
+      <c r="F17" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>28-03-2025 20:45</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>IRELAND</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>FIRST DIVISION</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Athlone Town - Finn Harps</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>69.2</v>
+      </c>
+      <c r="F18" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>28-03-2025 20:45</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>IRELAND</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>FIRST DIVISION</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Bray Wanderers - Cobh Ramblers</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>86.7</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>28-03-2025 20:45</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>IRELAND</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>PREMIER DIVISION</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Cork City - Drogheda United</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>76.7</v>
+      </c>
+      <c r="F20" t="n">
+        <v>2</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>28-03-2025 20:45</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>IRELAND</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>PREMIER DIVISION</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Waterford - St Patrick's Athl.</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="F21" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>28-03-2025 20:30</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>ITALY</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>SERIE C - GIRONE B</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Perugia - Pineto</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="F22" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>28-03-2025 11:00</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>JAPAN</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>J1 LEAGUE</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Cerezo Osaka - Urawa</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="F23" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>28-03-2025 18:00</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>POLAND</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>EKSTRAKLASA</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Piast Gliwice - Widzew Łódź</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="F24" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>28-03-2025 19:30</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>SWITZERLAND</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>CHALLENGE LEAGUE</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Stade Nyonnais - Bellinzona</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="F25" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>28-03-2025 20:15</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>SWITZERLAND</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>CHALLENGE LEAGUE</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>FC Thun - Neuchatel Xamax FC</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
         <v>73.3</v>
       </c>
-      <c r="F13" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0.4</v>
+      <c r="F26" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>28-03-2025 18:30</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>TURKEY</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>1. LIG</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Genclerbirligi - Şanlıurfaspor</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="F27" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>28-03-2025 14:00</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>TURKEY</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>1. LIG</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Erzurum BB - Manisa BBSK</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>67.8</v>
+      </c>
+      <c r="F28" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>28-03-2025 14:00</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>TURKEY</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>SÜPER LIG</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Antalyaspor - Alanyaspor</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="F29" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>29-03-2025 00:00</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>USL LEAGUE ONE</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Charlotte Independence - Chattanooga Red Wolves</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>65</v>
+      </c>
+      <c r="F30" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.12</v>
       </c>
     </row>
   </sheetData>

--- a/scraper/data/betclever_predictions.xlsx
+++ b/scraper/data/betclever_predictions.xlsx
@@ -475,113 +475,113 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>31-03-2025 20:10</t>
+          <t>01-04-2025 21:45</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SWEDEN</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>ALLSVENSKAN</t>
+          <t>LEAGUE ONE</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Gais - AIK Stockholm</t>
+          <t>Stockport County - Stevenage</t>
         </is>
       </c>
       <c r="E2" t="n">
         <v>73.3</v>
       </c>
       <c r="F2" t="n">
-        <v>2.62</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>31-03-2025 21:30</t>
+          <t>01-04-2025 14:00</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ITALY</t>
+          <t>AUSTRALIA</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>SERIE C - GIRONE B</t>
+          <t>WESTERN AUSTRALIA NPL</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Virtus Entella - Torres</t>
+          <t>Armadale - Western Knights</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>86.7</v>
+        <v>80</v>
       </c>
       <c r="F3" t="n">
-        <v>1.95</v>
+        <v>2.15</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>31-03-2025 20:00</t>
+          <t>01-04-2025 16:00</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>NORWAY</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1. DIVISION</t>
+          <t>PROFESSIONAL DEVELOPMENT LEAGUE</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Aalesund - Lillestrom</t>
+          <t>Bristol City U21 - Hull City U21</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>71.7</v>
+        <v>73.3</v>
       </c>
       <c r="F4" t="n">
-        <v>2.7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>01-04-2025 21:45</t>
+          <t>01-04-2025 02:30</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>LEAGUE ONE</t>
+          <t>US OPEN CUP</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Stockport County - Stevenage</t>
+          <t>Fort Lauderdale CF - Miami FC</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>73.3</v>
+        <v>70</v>
       </c>
       <c r="F5" t="n">
-        <v>1.8</v>
+        <v>3.7</v>
       </c>
     </row>
   </sheetData>
@@ -745,281 +745,281 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>31-03-2025 21:45</t>
+          <t>01-04-2025 21:45</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ITALY</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>SERIE A</t>
+          <t>LEAGUE ONE</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Lazio - Torino</t>
+          <t>Burton Albion - Leyton Orient</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>80</v>
+        <v>76.7</v>
       </c>
       <c r="F2" t="n">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>31-03-2025 22:00</t>
+          <t>01-04-2025 21:45</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SPAIN</t>
+          <t>GERMANY</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>LA LIGA</t>
+          <t>DFB POKAL</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Celta Vigo - Las Palmas</t>
+          <t>Arminia Bielefeld - Bayer Leverkusen</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>76.7</v>
+        <v>75</v>
       </c>
       <c r="F3" t="n">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>31-03-2025 20:30</t>
+          <t>01-04-2025 21:45</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ROMANIA</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>LIGA I</t>
+          <t>NATIONAL LEAGUE - NORTH</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Universitatea Cluj - CFR 1907 Cluj</t>
+          <t>Needham Market - Curzon Ashton</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>93.3</v>
+        <v>76</v>
       </c>
       <c r="F4" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>01-04-2025 01:00</t>
+          <t>01-04-2025 22:30</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>JAMAICA</t>
+          <t>SPAIN</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>PREMIER LEAGUE</t>
+          <t>COPA DEL REY</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Chapelton - Waterhouse</t>
+          <t>Real Madrid - Real Sociedad</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>83.3</v>
+        <v>80</v>
       </c>
       <c r="F5" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>31-03-2025 20:00</t>
+          <t>02-04-2025 21:45</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>NORWAY</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>1. DIVISION</t>
+          <t>PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>ODD Ballklubb - Skeid</t>
+          <t>Bournemouth - Ipswich</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="F6" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>01-04-2025 21:45</t>
+          <t>03-04-2025 01:00</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>LEAGUE ONE</t>
+          <t>CONMEBOL LIBERTADORES</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Burton Albion - Leyton Orient</t>
+          <t>San Antonio Bulo Bulo - Olimpia</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>76.7</v>
+        <v>84</v>
       </c>
       <c r="F7" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>01-04-2025 21:45</t>
+          <t>02-04-2025 13:00</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>GERMANY</t>
+          <t>CHINA</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>DFB POKAL</t>
+          <t>SUPER LEAGUE</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Arminia Bielefeld - Bayer Leverkusen</t>
+          <t>Shanghai Shenhua - Yunnan Yukun</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F8" t="n">
-        <v>2.1</v>
+        <v>1.83</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>01-04-2025 21:45</t>
+          <t>02-04-2025 13:00</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>JAPAN</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE - NORTH</t>
+          <t>J1 LEAGUE</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Needham Market - Curzon Ashton</t>
+          <t>Gamba Osaka - Machida Zelvia</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>76</v>
+        <v>76.7</v>
       </c>
       <c r="F9" t="n">
-        <v>1.75</v>
+        <v>2.05</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>01-04-2025 03:45</t>
+          <t>02-04-2025 17:00</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>JAMAICA</t>
+          <t>SLOVAKIA</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>PREMIER LEAGUE</t>
+          <t>2. LIGA</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Arnett Gardens - Cavalier</t>
+          <t>Stará Ľubovňa - Šamorín</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="F10" t="n">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>01-04-2025 22:30</t>
+          <t>02-04-2025 21:30</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>SPAIN</t>
+          <t>SWITZERLAND</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>COPA DEL REY</t>
+          <t>SUPER LEAGUE</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Real Madrid - Real Sociedad</t>
+          <t>FC Sion - FC Winterthur</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>80</v>
+        <v>78.90000000000001</v>
       </c>
       <c r="F11" t="n">
-        <v>1.91</v>
+        <v>1.73</v>
       </c>
     </row>
   </sheetData>
@@ -1033,7 +1033,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1086,171 +1086,205 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>31-03-2025 20:00</t>
+          <t>01-04-2025 21:45</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>NORWAY</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1. DIVISION</t>
+          <t>NATIONAL LEAGUE</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Egersund - Mjondalen</t>
+          <t>Wealdstone - Boston United</t>
         </is>
       </c>
       <c r="E2" t="n">
         <v>80</v>
       </c>
       <c r="F2" t="n">
-        <v>1.57</v>
+        <v>1.95</v>
       </c>
       <c r="G2" t="n">
-        <v>60</v>
+        <v>73.3</v>
       </c>
       <c r="H2" t="n">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>31-03-2025 20:00</t>
+          <t>03-04-2025 01:00</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>NORWAY</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1. DIVISION</t>
+          <t>CONMEBOL LIBERTADORES</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Kongsvinger - Asane</t>
+          <t>San Antonio Bulo Bulo - Olimpia</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>65</v>
+        <v>66.7</v>
       </c>
       <c r="F3" t="n">
-        <v>1.62</v>
+        <v>1.95</v>
       </c>
       <c r="G3" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="H3" t="n">
-        <v>2.55</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>31-03-2025 20:00</t>
+          <t>02-04-2025 03:30</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>NORWAY</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1. DIVISION</t>
+          <t>CONMEBOL SUDAMERICANA</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Stabaek - Hodd</t>
+          <t>Cienciano - Atletico-MG</t>
         </is>
       </c>
       <c r="E4" t="n">
         <v>73.3</v>
       </c>
       <c r="F4" t="n">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="G4" t="n">
         <v>66.7</v>
       </c>
       <c r="H4" t="n">
-        <v>2.38</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>31-03-2025 20:00</t>
+          <t>02-04-2025 13:00</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SWEDEN</t>
+          <t>JAPAN</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>SUPERETTAN</t>
+          <t>J1 LEAGUE</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Oddevold - Umeå FC</t>
+          <t>Nagoya Grampus - Yokohama F. Marinos</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>86.7</v>
+        <v>80</v>
       </c>
       <c r="F5" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="G5" t="n">
-        <v>66.7</v>
+        <v>35</v>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>01-04-2025 21:45</t>
+          <t>02-04-2025 13:00</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>JAPAN</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE</t>
+          <t>J1 LEAGUE</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Wealdstone - Boston United</t>
+          <t>Gamba Osaka - Machida Zelvia</t>
         </is>
       </c>
       <c r="E6" t="n">
         <v>80</v>
       </c>
       <c r="F6" t="n">
-        <v>1.95</v>
+        <v>2.5</v>
       </c>
       <c r="G6" t="n">
+        <v>65</v>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>02-04-2025 17:00</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>SLOVAKIA</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>2. LIGA</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Stará Ľubovňa - Šamorín</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>100</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="G7" t="n">
         <v>73.3</v>
       </c>
-      <c r="H6" t="n">
-        <v>3.25</v>
+      <c r="H7" t="n">
+        <v>2.88</v>
       </c>
     </row>
   </sheetData>
@@ -1264,7 +1298,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1312,441 +1346,441 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>31-03-2025 19:30</t>
+          <t>01-04-2025 21:45</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ITALY</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>SERIE A</t>
+          <t>LEAGUE ONE</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Verona - Parma</t>
+          <t>Lincoln - Huddersfield</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>66.7</v>
+        <v>50</v>
       </c>
       <c r="F2" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="G2" t="n">
-        <v>0.6</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>31-03-2025 20:10</t>
+          <t>01-04-2025 21:45</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SWEDEN</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>ALLSVENSKAN</t>
+          <t>LEAGUE ONE</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Gais - AIK Stockholm</t>
+          <t>Stockport County - Stevenage</t>
         </is>
       </c>
       <c r="E3" t="n">
         <v>73.3</v>
       </c>
       <c r="F3" t="n">
-        <v>2.62</v>
+        <v>1.8</v>
       </c>
       <c r="G3" t="n">
-        <v>0.92</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>31-03-2025 02:30</t>
+          <t>01-04-2025 14:00</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>CHILE</t>
+          <t>AUSTRALIA</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>PRIMERA B</t>
+          <t>WESTERN AUSTRALIA NPL</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Deportes Temuco - San Marcos De Arica</t>
+          <t>Armadale - Western Knights</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="F4" t="n">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>31-03-2025 23:30</t>
+          <t>01-04-2025 14:00</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>CHILE</t>
+          <t>CHINA</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>PRIMERA B</t>
+          <t>SUPER LEAGUE</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Santiago Morning - Rangers De Talca</t>
+          <t>Henan Jianye - Qingdao Youth Island</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>53.3</v>
+        <v>60</v>
       </c>
       <c r="F5" t="n">
-        <v>3.3</v>
+        <v>2.1</v>
       </c>
       <c r="G5" t="n">
-        <v>0.76</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>31-03-2025 19:00</t>
+          <t>01-04-2025 02:00</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>CYPRUS</t>
+          <t>COLOMBIA</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>1. DIVISION</t>
+          <t>PRIMERA A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Anorthosis - Ethnikos Achna</t>
+          <t>Llaneros - Deportivo Pereira</t>
         </is>
       </c>
       <c r="E6" t="n">
         <v>53.3</v>
       </c>
       <c r="F6" t="n">
-        <v>1.85</v>
+        <v>2.84</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.01</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>31-03-2025 21:00</t>
+          <t>01-04-2025 18:00</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>CYPRUS</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>PREMIER LEAGUE 2 DIVISION ONE</t>
+          <t>1. DIVISION</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Nottingham Forest U21 - Newcastle United U21</t>
+          <t>Apollon Limassol - Omonia Nicosia</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>50</v>
+        <v>53.3</v>
       </c>
       <c r="F7" t="n">
-        <v>1.9</v>
+        <v>2.7</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.05</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>31-03-2025 16:00</t>
+          <t>01-04-2025 14:00</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>CZECH-REPUBLIC</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>PROFESSIONAL DEVELOPMENT LEAGUE</t>
+          <t>1. LIGA U19</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Watford U21 - Coventry City U21</t>
+          <t>Jindřichův Hradec - Slovácko U19</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>60</v>
+        <v>55.7</v>
       </c>
       <c r="F8" t="n">
-        <v>2.5</v>
+        <v>1.73</v>
       </c>
       <c r="G8" t="n">
-        <v>0.5</v>
+        <v>-0.04</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>31-03-2025 21:30</t>
+          <t>01-04-2025 16:00</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ITALY</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>SERIE C - GIRONE B</t>
+          <t>PROFESSIONAL DEVELOPMENT LEAGUE</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Virtus Entella - Torres</t>
+          <t>Bristol City U21 - Hull City U21</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>86.7</v>
+        <v>73.3</v>
       </c>
       <c r="F9" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="G9" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>31-03-2025 20:00</t>
+          <t>01-04-2025 15:00</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>NORWAY</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>1. DIVISION</t>
+          <t>PROFESSIONAL DEVELOPMENT LEAGUE</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Egersund - Mjondalen</t>
+          <t>Cardiff City U21 - Peterborough United U21</t>
         </is>
       </c>
       <c r="E10" t="n">
         <v>60</v>
       </c>
       <c r="F10" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="G10" t="n">
-        <v>0.08</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>31-03-2025 20:00</t>
+          <t>01-04-2025 21:00</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>NORWAY</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>1. DIVISION</t>
+          <t>PROFESSIONAL DEVELOPMENT LEAGUE</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Start - Sogndal</t>
+          <t>Queens Park Rangers U21 - Birmingham City U21</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>66.7</v>
+        <v>50</v>
       </c>
       <c r="F11" t="n">
         <v>1.95</v>
       </c>
       <c r="G11" t="n">
-        <v>0.3</v>
+        <v>-0.03</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>31-03-2025 20:00</t>
+          <t>01-04-2025 21:45</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>NORWAY</t>
+          <t>NORTHERN-IRELAND</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>1. DIVISION</t>
+          <t>CHAMPIONSHIP</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Aalesund - Lillestrom</t>
+          <t>Newry City AFC - Ballinamallard United</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>71.7</v>
+        <v>66.7</v>
       </c>
       <c r="F12" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="G12" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>31-03-2025 19:30</t>
+          <t>01-04-2025 17:00</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>NORWAY</t>
+          <t>SLOVENIA</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2. DIVISION - GROUP 2</t>
+          <t>CUP</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Alta - Levanger</t>
+          <t>Bistrica - Koper</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>56.7</v>
+        <v>50</v>
       </c>
       <c r="F13" t="n">
-        <v>3.9</v>
+        <v>3.1</v>
       </c>
       <c r="G13" t="n">
-        <v>1.21</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>31-03-2025 02:30</t>
+          <t>01-04-2025 20:00</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>PARAGUAY</t>
+          <t>SWEDEN</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>DIVISION INTERMEDIA</t>
+          <t>SUPERETTAN</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>SOL DE America - Fernando De La Mora</t>
+          <t>Orebro SK - Vasteras SK FK</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>60</v>
+        <v>51.3</v>
       </c>
       <c r="F14" t="n">
-        <v>1.7</v>
+        <v>3</v>
       </c>
       <c r="G14" t="n">
-        <v>0.02</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>31-03-2025 21:30</t>
+          <t>01-04-2025 20:30</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>SPAIN</t>
+          <t>SWITZERLAND</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>SEGUNDA DIVISIÓN</t>
+          <t>CHALLENGE LEAGUE</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Cadiz - Eibar</t>
+          <t>FC WIL 1900 - FC Vaduz</t>
         </is>
       </c>
       <c r="E15" t="n">
         <v>66.7</v>
       </c>
       <c r="F15" t="n">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="G15" t="n">
-        <v>0.43</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>31-03-2025 21:15</t>
+          <t>01-04-2025 21:30</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1756,301 +1790,673 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>CHALLENGE LEAGUE</t>
+          <t>SUPER LEAGUE</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Étoile Carouge - Stade Nyonnais</t>
+          <t>Yverdon Sport - FC Lugano</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>66.7</v>
+        <v>64.3</v>
       </c>
       <c r="F16" t="n">
-        <v>1.7</v>
+        <v>4</v>
       </c>
       <c r="G16" t="n">
-        <v>0.13</v>
+        <v>1.57</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>01-04-2025 21:45</t>
+          <t>01-04-2025 02:30</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>LEAGUE ONE</t>
+          <t>US OPEN CUP</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Lincoln - Huddersfield</t>
+          <t>Fort Lauderdale CF - Miami FC</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="F17" t="n">
-        <v>2.5</v>
+        <v>3.7</v>
       </c>
       <c r="G17" t="n">
-        <v>0.25</v>
+        <v>1.59</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>01-04-2025 21:45</t>
+          <t>01-04-2025 22:00</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>LEAGUE ONE</t>
+          <t>CAF CHAMPIONS LEAGUE</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Stockport County - Stevenage</t>
+          <t>MC Alger - Orlando Pirates</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>73.3</v>
+        <v>50</v>
       </c>
       <c r="F18" t="n">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="G18" t="n">
-        <v>0.32</v>
+        <v>-0.03</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>01-04-2025 02:00</t>
+          <t>02-04-2025 21:45</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>COLOMBIA</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>PRIMERA A</t>
+          <t>PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Llaneros - Deportivo Pereira</t>
+          <t>Brighton - Aston Villa</t>
         </is>
       </c>
       <c r="E19" t="n">
         <v>53.3</v>
       </c>
       <c r="F19" t="n">
-        <v>2.84</v>
+        <v>2</v>
       </c>
       <c r="G19" t="n">
-        <v>0.51</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>01-04-2025 03:00</t>
+          <t>02-04-2025 21:45</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>COSTA-RICA</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>PRIMERA DIVISIÓN</t>
+          <t>CHAMPIONSHIP</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Santos DE Guapiles - Municipal Liberia</t>
+          <t>Derby - Preston</t>
         </is>
       </c>
       <c r="E20" t="n">
         <v>53.3</v>
       </c>
       <c r="F20" t="n">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="G20" t="n">
-        <v>0.2</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>01-04-2025 18:00</t>
+          <t>02-04-2025 03:30</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>CYPRUS</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>1. DIVISION</t>
+          <t>CONMEBOL LIBERTADORES</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Apollon Limassol - Omonia Nicosia</t>
+          <t>Fortaleza EC - Racing Club</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>53.3</v>
+        <v>50</v>
       </c>
       <c r="F21" t="n">
-        <v>2.7</v>
+        <v>2.15</v>
       </c>
       <c r="G21" t="n">
-        <v>0.44</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>01-04-2025 20:00</t>
+          <t>03-04-2025 01:00</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>SWEDEN</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>SUPERETTAN</t>
+          <t>CONMEBOL SUDAMERICANA</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Orebro SK - Vasteras SK FK</t>
+          <t>FBC Melgar - Vasco DA Gama</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>51.3</v>
+        <v>60</v>
       </c>
       <c r="F22" t="n">
-        <v>3</v>
+        <v>2.24</v>
       </c>
       <c r="G22" t="n">
-        <v>0.54</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>01-04-2025 20:30</t>
+          <t>02-04-2025 03:30</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>SWITZERLAND</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>CHALLENGE LEAGUE</t>
+          <t>CONMEBOL SUDAMERICANA</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>FC WIL 1900 - FC Vaduz</t>
+          <t>Cienciano - Atletico-MG</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>66.7</v>
+        <v>50</v>
       </c>
       <c r="F23" t="n">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="G23" t="n">
-        <v>0.33</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>01-04-2025 21:30</t>
+          <t>02-04-2025 21:30</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>SWITZERLAND</t>
+          <t>AUSTRIA</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>SUPER LEAGUE</t>
+          <t>CUP</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Yverdon Sport - FC Lugano</t>
+          <t>Austria Vienna - TSV Hartberg</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>64.3</v>
+        <v>60</v>
       </c>
       <c r="F24" t="n">
-        <v>4</v>
+        <v>1.7</v>
       </c>
       <c r="G24" t="n">
-        <v>1.57</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>01-04-2025 03:15</t>
+          <t>02-04-2025 17:00</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>URUGUAY</t>
+          <t>BULGARIA</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>PRIMERA DIVISIÓN - APERTURA</t>
+          <t>SECOND LEAGUE</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Defensor Sporting - Miramar</t>
+          <t>FK Minyor Pernik - Fratria</t>
         </is>
       </c>
       <c r="E25" t="n">
+        <v>60</v>
+      </c>
+      <c r="F25" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>02-04-2025 10:30</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>CHINA</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>SUPER LEAGUE</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Changchun Yatai - Wuhan Three Towns</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>51</v>
+      </c>
+      <c r="F26" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>02-04-2025 19:00</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>CYPRUS</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>1. DIVISION</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Aris - Pafos</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>53.3</v>
+      </c>
+      <c r="F27" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>02-04-2025 22:00</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>FRANCE</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>COUPE DE FRANCE</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Cannes - Reims</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>60</v>
+      </c>
+      <c r="F28" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="G28" t="n">
+        <v>2.15</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>02-04-2025 17:00</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>GREECE</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>CUP</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>OFI - Asteras Tripolis</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>53.3</v>
+      </c>
+      <c r="F29" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>02-04-2025 02:15</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>HONDURAS</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>LIGA NACIONAL</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Victoria - Lobos Upnfm</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>60</v>
+      </c>
+      <c r="F30" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>02-04-2025 13:00</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>JAPAN</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>J1 LEAGUE</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Yokohama FC - Vissel Kobe</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>50</v>
+      </c>
+      <c r="F31" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>02-04-2025 13:00</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>JAPAN</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>J1 LEAGUE</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Cerezo Osaka - Fagiano Okayama</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>60</v>
+      </c>
+      <c r="F32" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.29</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>02-04-2025 02:00</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>MEXICO</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>LIGA PREMIER SERIE A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>UA Zacatecas - Mineros De Fresnillo</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>60</v>
+      </c>
+      <c r="F33" t="n">
+        <v>2</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>02-04-2025 16:00</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>RWANDA</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>NATIONAL SOCCER LEAGUE</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Mukura - Rutsiro</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>50</v>
+      </c>
+      <c r="F34" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>02-04-2025 20:00</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>SLOVENIA</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>CUP</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Maribor - Celje</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>53.3</v>
+      </c>
+      <c r="F35" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>02-04-2025 14:30</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>THAILAND</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>THAI LEAGUE 2</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Trat FC - Kasetsart FC</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
         <v>66.7</v>
       </c>
-      <c r="F25" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0.18</v>
+      <c r="F36" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>02-04-2025 18:00</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>UKRAINE</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>CUP</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Veres Rivne - Polessya</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>53.3</v>
+      </c>
+      <c r="F37" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.8100000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -2064,7 +2470,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2112,162 +2518,162 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>31-03-2025 21:00</t>
+          <t>01-04-2025 21:45</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>NETHERLANDS</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>EERSTE DIVISIE</t>
+          <t>LEAGUE ONE</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Jong Ajax - FC Volendam</t>
+          <t>Barnsley - Exeter City</t>
         </is>
       </c>
       <c r="E2" t="n">
         <v>53.3</v>
       </c>
       <c r="F2" t="n">
-        <v>1.8</v>
+        <v>4.75</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.04</v>
+        <v>1.53</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>31-03-2025 16:00</t>
+          <t>01-04-2025 21:45</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ALBANIA</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>SUPERLIGA</t>
+          <t>LEAGUE ONE</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Bylis - Egnatia Rrogozhinë</t>
+          <t>Cambridge United - Wrexham</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>53.3</v>
+        <v>70</v>
       </c>
       <c r="F3" t="n">
-        <v>2.2</v>
+        <v>1.85</v>
       </c>
       <c r="G3" t="n">
-        <v>0.17</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>31-03-2025 21:30</t>
+          <t>01-04-2025 21:45</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ARGENTINA</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>PRIMERA C</t>
+          <t>LEAGUE ONE</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Deportivo Paraguayo - Juventud Unida</t>
+          <t>Mansfield Town - Charlton</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F4" t="n">
-        <v>2.55</v>
+        <v>2.2</v>
       </c>
       <c r="G4" t="n">
-        <v>0.53</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>31-03-2025 12:30</t>
+          <t>01-04-2025 21:45</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>AUSTRALIA</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>VICTORIA NPL 2</t>
+          <t>LEAGUE ONE</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Bulleen Lions - Bentleigh Greens</t>
+          <t>Northampton - Rotherham</t>
         </is>
       </c>
       <c r="E5" t="n">
         <v>53.3</v>
       </c>
       <c r="F5" t="n">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="G5" t="n">
-        <v>0.47</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>31-03-2025 23:30</t>
+          <t>01-04-2025 21:45</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>COLOMBIA</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>PRIMERA B</t>
+          <t>LEAGUE TWO</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Real Santander - Cucuta</t>
+          <t>Crewe - Grimsby</t>
         </is>
       </c>
       <c r="E6" t="n">
         <v>60</v>
       </c>
       <c r="F6" t="n">
-        <v>1.75</v>
+        <v>2.88</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>31-03-2025 21:00</t>
+          <t>01-04-2025 21:45</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -2277,214 +2683,214 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>PROFESSIONAL DEVELOPMENT LEAGUE</t>
+          <t>NATIONAL LEAGUE</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Swansea City U21 - Burnley U21</t>
+          <t>Wealdstone - Boston United</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>56.7</v>
+        <v>60</v>
       </c>
       <c r="F7" t="n">
-        <v>2.15</v>
+        <v>2.88</v>
       </c>
       <c r="G7" t="n">
-        <v>0.22</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>01-04-2025 00:00</t>
+          <t>01-04-2025 22:00</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>PARAGUAY</t>
+          <t>ITALY</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>DIVISION INTERMEDIA</t>
+          <t>COPPA ITALIA</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Deportivo Santani - Rubio NU</t>
+          <t>Empoli - Bologna</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>51.7</v>
+        <v>53.3</v>
       </c>
       <c r="F8" t="n">
-        <v>3.25</v>
+        <v>1.8</v>
       </c>
       <c r="G8" t="n">
-        <v>0.68</v>
+        <v>-0.04</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>31-03-2025 20:00</t>
+          <t>02-04-2025 01:00</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>POLAND</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>EKSTRAKLASA</t>
+          <t>CONMEBOL LIBERTADORES</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Zaglebie Lubin - Raków Częstochowa</t>
+          <t>Cerro Porteno - Bolívar</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>60</v>
+        <v>66.7</v>
       </c>
       <c r="F9" t="n">
-        <v>1.95</v>
+        <v>5.25</v>
       </c>
       <c r="G9" t="n">
-        <v>0.17</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>31-03-2025 20:00</t>
+          <t>02-04-2025 01:00</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>SWEDEN</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>SUPERETTAN</t>
+          <t>CONMEBOL SUDAMERICANA</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Oddevold - Umeå FC</t>
+          <t>Boston River - Club Guarani</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="F10" t="n">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="G10" t="n">
-        <v>1.25</v>
+        <v>1.52</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>31-03-2025 20:30</t>
+          <t>02-04-2025 01:00</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>SWITZERLAND</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>CHALLENGE LEAGUE</t>
+          <t>CONMEBOL SUDAMERICANA</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Bellinzona - FC Aarau</t>
+          <t>Deportes Iquique - Caracas FC</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>66.7</v>
+        <v>50</v>
       </c>
       <c r="F11" t="n">
-        <v>2.25</v>
+        <v>3.75</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>01-04-2025 21:45</t>
+          <t>02-04-2025 00:00</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>LEAGUE ONE</t>
+          <t>BRASILEIRO U20 A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Barnsley - Exeter City</t>
+          <t>Botafogo U20 - Corinthians U20</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>53.3</v>
+        <v>60</v>
       </c>
       <c r="F12" t="n">
-        <v>4.75</v>
+        <v>2.7</v>
       </c>
       <c r="G12" t="n">
-        <v>1.53</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>01-04-2025 21:45</t>
+          <t>02-04-2025 01:30</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>LEAGUE ONE</t>
+          <t>CAPIXABA</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Cambridge United - Wrexham</t>
+          <t>Porto Vitória - Rio Branco ES</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="F13" t="n">
-        <v>1.85</v>
+        <v>2.2</v>
       </c>
       <c r="G13" t="n">
-        <v>0.29</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>01-04-2025 21:45</t>
+          <t>01-04-2025 16:00</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2494,22 +2900,22 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>LEAGUE ONE</t>
+          <t>PROFESSIONAL DEVELOPMENT LEAGUE</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Mansfield Town - Charlton</t>
+          <t>Charlton Athletic U21 - Sheffield United U21</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="F14" t="n">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="15">
@@ -2520,27 +2926,27 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>NORTHERN-IRELAND</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>LEAGUE ONE</t>
+          <t>CHAMPIONSHIP</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Northampton - Rotherham</t>
+          <t>Armagh City - Ballyclare Comrades</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>53.3</v>
+        <v>60</v>
       </c>
       <c r="F15" t="n">
-        <v>2.5</v>
+        <v>3.4</v>
       </c>
       <c r="G15" t="n">
-        <v>0.33</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="16">
@@ -2551,95 +2957,95 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>NORTHERN-IRELAND</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>LEAGUE TWO</t>
+          <t>PREMIERSHIP</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Crewe - Grimsby</t>
+          <t>Dungannon Swifts - Larne</t>
         </is>
       </c>
       <c r="E16" t="n">
         <v>60</v>
       </c>
       <c r="F16" t="n">
-        <v>2.88</v>
+        <v>2.3</v>
       </c>
       <c r="G16" t="n">
-        <v>0.73</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>01-04-2025 21:45</t>
+          <t>01-04-2025 19:30</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>POLAND</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE</t>
+          <t>CUP</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Wealdstone - Boston United</t>
+          <t>Puszcza Niepołomice - Pogon Szczecin</t>
         </is>
       </c>
       <c r="E17" t="n">
         <v>60</v>
       </c>
       <c r="F17" t="n">
-        <v>2.88</v>
+        <v>1.8</v>
       </c>
       <c r="G17" t="n">
-        <v>0.73</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>01-04-2025 22:00</t>
+          <t>01-04-2025 02:30</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>ITALY</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>COPPA ITALIA</t>
+          <t>US OPEN CUP</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Empoli - Bologna</t>
+          <t>Charlotte Independence - Carolina Core</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>53.3</v>
+        <v>60</v>
       </c>
       <c r="F18" t="n">
-        <v>1.8</v>
+        <v>6.5</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.04</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>02-04-2025 01:00</t>
+          <t>01-04-2025 16:00</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2649,177 +3055,363 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>CONMEBOL LIBERTADORES</t>
+          <t>CAF CHAMPIONS LEAGUE</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Cerro Porteno - Bolívar</t>
+          <t>Mamelodi Sundowns - ES Tunis</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>66.7</v>
+        <v>53.3</v>
       </c>
       <c r="F19" t="n">
-        <v>5.25</v>
+        <v>3.85</v>
       </c>
       <c r="G19" t="n">
-        <v>2.5</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>02-04-2025 01:00</t>
+          <t>02-04-2025 21:45</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>CONMEBOL SUDAMERICANA</t>
+          <t>PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Boston River - Club Guarani</t>
+          <t>Bournemouth - Ipswich</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="F20" t="n">
-        <v>3.6</v>
+        <v>7</v>
       </c>
       <c r="G20" t="n">
-        <v>1.52</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>02-04-2025 01:00</t>
+          <t>02-04-2025 21:45</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>CONMEBOL SUDAMERICANA</t>
+          <t>PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Deportes Iquique - Caracas FC</t>
+          <t>Newcastle - Brentford</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>50</v>
+        <v>53.3</v>
       </c>
       <c r="F21" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="G21" t="n">
-        <v>0.88</v>
+        <v>1.13</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>01-04-2025 05:00</t>
+          <t>02-04-2025 05:00</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>COSTA-RICA</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>PRIMERA DIVISIÓN</t>
+          <t>CONMEBOL LIBERTADORES</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Perez Zeledon - LD Alajuelense</t>
+          <t>Alianza Lima - Libertad Asuncion</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>53.3</v>
+        <v>60</v>
       </c>
       <c r="F22" t="n">
-        <v>1.83</v>
+        <v>3.1</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.02</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>01-04-2025 21:45</t>
+          <t>02-04-2025 23:30</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>NORTHERN-IRELAND</t>
+          <t>ECUADOR</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>PREMIERSHIP</t>
+          <t>LIGA PRO SERIE B</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Dungannon Swifts - Larne</t>
+          <t>Ind. Juniors - Guayaquil City FC</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F23" t="n">
-        <v>2.3</v>
+        <v>1.9</v>
       </c>
       <c r="G23" t="n">
-        <v>0.38</v>
+        <v>-0.05</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>01-04-2025 19:30</t>
+          <t>02-04-2025 20:00</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>POLAND</t>
+          <t>GERMANY</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
+          <t>REGIONALLIGA - NORDOST</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Plauen - SV Babelsberg 03</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>50</v>
+      </c>
+      <c r="F24" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="G24" t="n">
+        <v>-0.05</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>02-04-2025 20:30</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>GREECE</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
           <t>CUP</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>Puszcza Niepołomice - Pogon Szczecin</t>
-        </is>
-      </c>
-      <c r="E24" t="n">
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>AEK Athens FC - Olympiakos Piraeus</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>53.3</v>
+      </c>
+      <c r="F25" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>02-04-2025 13:00</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>JAPAN</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>J1 LEAGUE</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Albirex Niigata - Avispa Fukuoka</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
         <v>60</v>
       </c>
-      <c r="F24" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="G24" t="n">
-        <v>0.08</v>
+      <c r="F26" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>02-04-2025 13:00</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>JAPAN</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>J1 LEAGUE</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Kyoto Sanga - Kashiwa Reysol</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>53.3</v>
+      </c>
+      <c r="F27" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>02-04-2025 13:00</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>JAPAN</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>J1 LEAGUE</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Gamba Osaka - Machida Zelvia</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="F28" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>02-04-2025 22:30</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>SPAIN</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>COPA DEL REY</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Atletico Madrid - Barcelona</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>60</v>
+      </c>
+      <c r="F29" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>02-04-2025 05:00</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>US OPEN CUP</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Monterey Bay - El Farolito</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>50</v>
+      </c>
+      <c r="F30" t="n">
+        <v>15</v>
+      </c>
+      <c r="G30" t="n">
+        <v>6.5</v>
       </c>
     </row>
   </sheetData>
@@ -2833,7 +3425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2881,187 +3473,280 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>31-03-2025 22:00</t>
+          <t>01-04-2025 21:45</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SPAIN</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>LA LIGA</t>
+          <t>LEAGUE TWO</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Celta Vigo - Las Palmas</t>
+          <t>Chesterfield - Carlisle</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="F2" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="G2" t="n">
-        <v>0.26</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>31-03-2025 20:00</t>
+          <t>01-04-2025 21:45</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SWEDEN</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>SUPERETTAN</t>
+          <t>NATIONAL LEAGUE</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Oddevold - Umeå FC</t>
+          <t>Wealdstone - Boston United</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>86.7</v>
+        <v>80</v>
       </c>
       <c r="F3" t="n">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="G3" t="n">
-        <v>0.52</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>01-04-2025 21:45</t>
+          <t>01-04-2025 16:15</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>BULGARIA</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>LEAGUE TWO</t>
+          <t>FIRST LEAGUE</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Chesterfield - Carlisle</t>
+          <t>Spartak Varna - Botev Vratsa</t>
         </is>
       </c>
       <c r="E4" t="n">
         <v>75</v>
       </c>
       <c r="F4" t="n">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="G4" t="n">
-        <v>0.39</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>01-04-2025 21:45</t>
+          <t>01-04-2025 22:00</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE</t>
+          <t>CAF CHAMPIONS LEAGUE</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Wealdstone - Boston United</t>
+          <t>Pyramids FC - FAR Rabat</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="F5" t="n">
-        <v>1.95</v>
+        <v>2.35</v>
       </c>
       <c r="G5" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>01-04-2025 16:15</t>
+          <t>02-04-2025 03:30</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>BULGARIA</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>FIRST LEAGUE</t>
+          <t>CONMEBOL SUDAMERICANA</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Spartak Varna - Botev Vratsa</t>
+          <t>Cienciano - Atletico-MG</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>75</v>
+        <v>73.3</v>
       </c>
       <c r="F6" t="n">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="G6" t="n">
-        <v>0.46</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>01-04-2025 03:45</t>
+          <t>02-04-2025 13:00</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>JAMAICA</t>
+          <t>JAPAN</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>PREMIER LEAGUE</t>
+          <t>J1 LEAGUE</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Arnett Gardens - Cavalier</t>
+          <t>Nagoya Grampus - Yokohama F. Marinos</t>
         </is>
       </c>
       <c r="E7" t="n">
+        <v>80</v>
+      </c>
+      <c r="F7" t="n">
+        <v>2</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>02-04-2025 13:00</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>JAPAN</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>J1 LEAGUE</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Gamba Osaka - Machida Zelvia</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>80</v>
+      </c>
+      <c r="F8" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>02-04-2025 17:00</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>SLOVAKIA</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>2. LIGA</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Stará Ľubovňa - Šamorín</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>100</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>02-04-2025 21:30</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>SWITZERLAND</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>SUPER LEAGUE</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>FC Zurich - Lausanne</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
         <v>75</v>
       </c>
-      <c r="F7" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0.65</v>
+      <c r="F10" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.35</v>
       </c>
     </row>
   </sheetData>
@@ -3075,7 +3760,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3123,311 +3808,311 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>31-03-2025 21:45</t>
+          <t>01-04-2025 21:45</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ITALY</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>SERIE A</t>
+          <t>PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Lazio - Torino</t>
+          <t>Arsenal - Fulham</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>80</v>
+        <v>73.3</v>
       </c>
       <c r="F2" t="n">
-        <v>1.95</v>
+        <v>2.25</v>
       </c>
       <c r="G2" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>31-03-2025 22:00</t>
+          <t>01-04-2025 21:45</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SPAIN</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>LA LIGA</t>
+          <t>LEAGUE ONE</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Celta Vigo - Las Palmas</t>
+          <t>Blackpool - Reading</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>76.7</v>
+        <v>71.7</v>
       </c>
       <c r="F3" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="G3" t="n">
-        <v>0.38</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>31-03-2025 20:30</t>
+          <t>01-04-2025 21:45</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ROMANIA</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>LIGA I</t>
+          <t>LEAGUE ONE</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Universitatea Cluj - CFR 1907 Cluj</t>
+          <t>Burton Albion - Leyton Orient</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>93.3</v>
+        <v>76.7</v>
       </c>
       <c r="F4" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="G4" t="n">
-        <v>0.87</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>31-03-2025 16:00</t>
+          <t>01-04-2025 21:45</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>COPA RIO U20</t>
+          <t>LEAGUE ONE</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Vasco Da Gama U20 - Bangu U20</t>
+          <t>Northampton - Rotherham</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>68.3</v>
+        <v>66.7</v>
       </c>
       <c r="F5" t="n">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="G5" t="n">
-        <v>0.33</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>01-04-2025 01:00</t>
+          <t>01-04-2025 21:45</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>JAMAICA</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>PREMIER LEAGUE</t>
+          <t>LEAGUE ONE</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Chapelton - Waterhouse</t>
+          <t>Wigan - Bolton</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>83.3</v>
+        <v>68.3</v>
       </c>
       <c r="F6" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="G6" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>31-03-2025 20:00</t>
+          <t>01-04-2025 21:45</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>NORWAY</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>1. DIVISION</t>
+          <t>NATIONAL LEAGUE</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>ODD Ballklubb - Skeid</t>
+          <t>Woking - Rochdale</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>88</v>
+        <v>66.7</v>
       </c>
       <c r="F7" t="n">
-        <v>1.7</v>
+        <v>1.95</v>
       </c>
       <c r="G7" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>31-03-2025 20:00</t>
+          <t>01-04-2025 21:45</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>SWEDEN</t>
+          <t>GERMANY</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>SUPERETTAN</t>
+          <t>DFB POKAL</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Oddevold - Umeå FC</t>
+          <t>Arminia Bielefeld - Bayer Leverkusen</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="F8" t="n">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="G8" t="n">
-        <v>0.3</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>01-04-2025 01:00</t>
+          <t>02-04-2025 01:00</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>URUGUAY</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>PRIMERA DIVISIÓN - APERTURA</t>
+          <t>CONMEBOL SUDAMERICANA</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Cerro - Wanderers</t>
+          <t>Union Santa Fe - Cruzeiro</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F9" t="n">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="G9" t="n">
-        <v>0.47</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>01-04-2025 21:45</t>
+          <t>01-04-2025 18:45</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>BULGARIA</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>PREMIER LEAGUE</t>
+          <t>FIRST LEAGUE</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Arsenal - Fulham</t>
+          <t>Slavia Sofia - Septemvri Sofia</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>73.3</v>
+        <v>65</v>
       </c>
       <c r="F10" t="n">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="G10" t="n">
-        <v>0.65</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>01-04-2025 21:45</t>
+          <t>01-04-2025 16:15</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>BULGARIA</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>LEAGUE ONE</t>
+          <t>FIRST LEAGUE</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Blackpool - Reading</t>
+          <t>Spartak Varna - Botev Vratsa</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>71.7</v>
+        <v>66.7</v>
       </c>
       <c r="F11" t="n">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="G11" t="n">
-        <v>0.25</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="12">
@@ -3443,281 +4128,281 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>LEAGUE ONE</t>
+          <t>NATIONAL LEAGUE - NORTH</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Burton Albion - Leyton Orient</t>
+          <t>Needham Market - Curzon Ashton</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>76.7</v>
+        <v>76</v>
       </c>
       <c r="F12" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="G12" t="n">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>01-04-2025 21:45</t>
+          <t>01-04-2025 17:00</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>PORTUGAL</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>LEAGUE ONE</t>
+          <t>LIGA REVELAÇÃO U23</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Northampton - Rotherham</t>
+          <t>Academico Viseu U23 - Mafra U23</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>66.7</v>
+        <v>73.3</v>
       </c>
       <c r="F13" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>01-04-2025 21:45</t>
+          <t>01-04-2025 19:00</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>SLOVAKIA</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>LEAGUE ONE</t>
+          <t>CUP</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Wigan - Bolton</t>
+          <t>Ružomberok - Dukla Banská Bystrica</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>68.3</v>
+        <v>66.7</v>
       </c>
       <c r="F14" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="G14" t="n">
-        <v>0.3</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>01-04-2025 21:45</t>
+          <t>01-04-2025 17:00</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>SLOVENIA</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE</t>
+          <t>CUP</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Woking - Rochdale</t>
+          <t>Bistrica - Koper</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>66.7</v>
+        <v>68</v>
       </c>
       <c r="F15" t="n">
-        <v>1.95</v>
+        <v>1.73</v>
       </c>
       <c r="G15" t="n">
-        <v>0.3</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>01-04-2025 21:45</t>
+          <t>01-04-2025 22:30</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>GERMANY</t>
+          <t>SPAIN</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>DFB POKAL</t>
+          <t>COPA DEL REY</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Arminia Bielefeld - Bayer Leverkusen</t>
+          <t>Real Madrid - Real Sociedad</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="F16" t="n">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="G16" t="n">
-        <v>0.58</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>02-04-2025 01:00</t>
+          <t>01-04-2025 20:00</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>SWEDEN</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>CONMEBOL SUDAMERICANA</t>
+          <t>SUPERETTAN</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Union Santa Fe - Cruzeiro</t>
+          <t>Orebro SK - Vasteras SK FK</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>68</v>
+        <v>74.5</v>
       </c>
       <c r="F17" t="n">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="G17" t="n">
-        <v>0.53</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>01-04-2025 18:45</t>
+          <t>01-04-2025 02:00</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>BULGARIA</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>FIRST LEAGUE</t>
+          <t>US OPEN CUP</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Slavia Sofia - Septemvri Sofia</t>
+          <t>Tormenta - Foro</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>65</v>
+        <v>69.3</v>
       </c>
       <c r="F18" t="n">
         <v>2.1</v>
       </c>
       <c r="G18" t="n">
-        <v>0.37</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>01-04-2025 16:15</t>
+          <t>01-04-2025 22:00</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>BULGARIA</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>FIRST LEAGUE</t>
+          <t>CAF CHAMPIONS LEAGUE</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Spartak Varna - Botev Vratsa</t>
+          <t>Pyramids FC - FAR Rabat</t>
         </is>
       </c>
       <c r="E19" t="n">
         <v>66.7</v>
       </c>
       <c r="F19" t="n">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="G19" t="n">
-        <v>0.27</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>01-04-2025 21:45</t>
+          <t>01-04-2025 22:00</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE - NORTH</t>
+          <t>CAF CHAMPIONS LEAGUE</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Needham Market - Curzon Ashton</t>
+          <t>MC Alger - Orlando Pirates</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="F20" t="n">
-        <v>1.75</v>
+        <v>2.2</v>
       </c>
       <c r="G20" t="n">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>01-04-2025 03:45</t>
+          <t>02-04-2025 21:45</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>JAMAICA</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -3727,79 +4412,358 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Arnett Gardens - Cavalier</t>
+          <t>Bournemouth - Ipswich</t>
         </is>
       </c>
       <c r="E21" t="n">
         <v>80</v>
       </c>
       <c r="F21" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="G21" t="n">
-        <v>0.48</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>01-04-2025 22:30</t>
+          <t>02-04-2025 21:45</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>SPAIN</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>COPA DEL REY</t>
+          <t>PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Real Madrid - Real Sociedad</t>
+          <t>Manchester City - Leicester</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="F22" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="G22" t="n">
-        <v>0.53</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>01-04-2025 20:00</t>
+          <t>03-04-2025 01:00</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>SWEDEN</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>SUPERETTAN</t>
+          <t>CONMEBOL LIBERTADORES</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Orebro SK - Vasteras SK FK</t>
+          <t>San Antonio Bulo Bulo - Olimpia</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>74.5</v>
+        <v>84</v>
       </c>
       <c r="F23" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="G23" t="n">
-        <v>0.34</v>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>02-04-2025 16:45</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>BULGARIA</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>FIRST LEAGUE</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Botev Plovdiv - Beroe</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="F24" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>02-04-2025 13:00</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>CHINA</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>SUPER LEAGUE</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Shanghai Shenhua - Yunnan Yukun</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>76</v>
+      </c>
+      <c r="F25" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>02-04-2025 22:00</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>FRANCE</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>COUPE DE FRANCE</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Cannes - Reims</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>72</v>
+      </c>
+      <c r="F26" t="n">
+        <v>2</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>02-04-2025 21:30</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>GUATEMALA</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>LIGA NACIONAL</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Municipal - Antigua GFC</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="F27" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>02-04-2025 13:00</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>JAPAN</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>J1 LEAGUE</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Tokyo Verdy - FC Tokyo</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="F28" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>02-04-2025 13:00</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>JAPAN</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>J1 LEAGUE</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Gamba Osaka - Machida Zelvia</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>76.7</v>
+      </c>
+      <c r="F29" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.57</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>02-04-2025 17:00</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>SLOVAKIA</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>2. LIGA</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Stará Ľubovňa - Šamorín</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>84</v>
+      </c>
+      <c r="F30" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>02-04-2025 21:30</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>SWITZERLAND</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>SUPER LEAGUE</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>FC Sion - FC Winterthur</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>78.90000000000001</v>
+      </c>
+      <c r="F31" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>02-04-2025 05:00</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>US OPEN CUP</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Monterey Bay - El Farolito</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>72</v>
+      </c>
+      <c r="F32" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.4</v>
       </c>
     </row>
   </sheetData>

--- a/scraper/data/betclever_predictions.xlsx
+++ b/scraper/data/betclever_predictions.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,113 +475,141 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>01-04-2025 21:45</t>
+          <t>02-04-2025 22:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>POLAND</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>LEAGUE ONE</t>
+          <t>SUPER CUP</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Stockport County - Stevenage</t>
+          <t>Jagiellonia - Wisla Krakow</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>73.3</v>
+        <v>78.3</v>
       </c>
       <c r="F2" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>01-04-2025 14:00</t>
+          <t>02-04-2025 13:00</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>AUSTRALIA</t>
+          <t>PORTUGAL</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>WESTERN AUSTRALIA NPL</t>
+          <t>LIGA REVELAÇÃO U23</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Armadale - Western Knights</t>
+          <t>Torreense U23 - Estrela U23</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>80</v>
+        <v>73.3</v>
       </c>
       <c r="F3" t="n">
-        <v>2.15</v>
+        <v>1.73</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>01-04-2025 16:00</t>
+          <t>04-04-2025 01:00</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>PROFESSIONAL DEVELOPMENT LEAGUE</t>
+          <t>CONMEBOL SUDAMERICANA</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Bristol City U21 - Hull City U21</t>
+          <t>Gualberto Villarroel SJ - Union Espanola</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>73.3</v>
+        <v>90</v>
       </c>
       <c r="F4" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>01-04-2025 02:30</t>
+          <t>04-04-2025 00:45</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>ARGENTINA</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>US OPEN CUP</t>
+          <t>COPA ARGENTINA</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Fort Lauderdale CF - Miami FC</t>
+          <t>Instituto Cordoba - Deportivo Madryn</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>70</v>
+        <v>73.3</v>
       </c>
       <c r="F5" t="n">
-        <v>3.7</v>
+        <v>1.85</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>03-04-2025 21:30</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>SWITZERLAND</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>SUPER LEAGUE</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>FC Luzern - FC ST. Gallen</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>73.3</v>
+      </c>
+      <c r="F6" t="n">
+        <v>2.2</v>
       </c>
     </row>
   </sheetData>
@@ -702,7 +730,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -745,7 +773,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>01-04-2025 21:45</t>
+          <t>02-04-2025 21:45</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -755,16 +783,16 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>LEAGUE ONE</t>
+          <t>PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Burton Albion - Leyton Orient</t>
+          <t>Bournemouth - Ipswich</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>76.7</v>
+        <v>80</v>
       </c>
       <c r="F2" t="n">
         <v>1.8</v>
@@ -773,152 +801,152 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>01-04-2025 21:45</t>
+          <t>03-04-2025 01:00</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GERMANY</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>DFB POKAL</t>
+          <t>CONMEBOL LIBERTADORES</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Arminia Bielefeld - Bayer Leverkusen</t>
+          <t>San Antonio Bulo Bulo - Olimpia</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="F3" t="n">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>01-04-2025 21:45</t>
+          <t>02-04-2025 13:00</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>CHINA</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE - NORTH</t>
+          <t>SUPER LEAGUE</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Needham Market - Curzon Ashton</t>
+          <t>Shanghai Shenhua - Yunnan Yukun</t>
         </is>
       </c>
       <c r="E4" t="n">
         <v>76</v>
       </c>
       <c r="F4" t="n">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>01-04-2025 22:30</t>
+          <t>02-04-2025 16:00</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SPAIN</t>
+          <t>ITALY</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>COPA DEL REY</t>
+          <t>SERIE D - GIRONE I</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Real Madrid - Real Sociedad</t>
+          <t>Locri 1909 - Igea Virtus</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>80</v>
+        <v>76.7</v>
       </c>
       <c r="F5" t="n">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>02-04-2025 21:45</t>
+          <t>02-04-2025 13:00</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>JAPAN</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>PREMIER LEAGUE</t>
+          <t>J1 LEAGUE</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Bournemouth - Ipswich</t>
+          <t>Gamba Osaka - Machida Zelvia</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>80</v>
+        <v>76.7</v>
       </c>
       <c r="F6" t="n">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>03-04-2025 01:00</t>
+          <t>02-04-2025 17:00</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>SLOVAKIA</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>CONMEBOL LIBERTADORES</t>
+          <t>2. LIGA</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>San Antonio Bulo Bulo - Olimpia</t>
+          <t>Stará Ľubovňa - Šamorín</t>
         </is>
       </c>
       <c r="E7" t="n">
         <v>84</v>
       </c>
       <c r="F7" t="n">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>02-04-2025 13:00</t>
+          <t>02-04-2025 21:30</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>CHINA</t>
+          <t>SWITZERLAND</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -928,76 +956,76 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Shanghai Shenhua - Yunnan Yukun</t>
+          <t>FC Sion - FC Winterthur</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>76</v>
+        <v>78.90000000000001</v>
       </c>
       <c r="F8" t="n">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>02-04-2025 13:00</t>
+          <t>02-04-2025 14:00</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>JAPAN</t>
+          <t>TURKEY</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>J1 LEAGUE</t>
+          <t>2. LIG</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Gamba Osaka - Machida Zelvia</t>
+          <t>Belediye Derincespor - Ankara Demirspor</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>76.7</v>
+        <v>80</v>
       </c>
       <c r="F9" t="n">
-        <v>2.05</v>
+        <v>1.91</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>02-04-2025 17:00</t>
+          <t>03-04-2025 22:15</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>SLOVAKIA</t>
+          <t>PORTUGAL</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2. LIGA</t>
+          <t>TAÇA DE PORTUGAL</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Stará Ľubovňa - Šamorín</t>
+          <t>Sporting CP - Rio Ave</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>84</v>
+        <v>83.3</v>
       </c>
       <c r="F10" t="n">
-        <v>1.75</v>
+        <v>2.15</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>02-04-2025 21:30</t>
+          <t>03-04-2025 21:30</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1012,14 +1040,42 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>FC Sion - FC Winterthur</t>
+          <t>FC Basel 1893 - Grasshoppers</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>78.90000000000001</v>
+        <v>76.7</v>
       </c>
       <c r="F11" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>03-04-2025 16:00</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>UGANDA</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>PREMIER LEAGUE</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Bright Stars - Police</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>82.5</v>
+      </c>
+      <c r="F12" t="n">
+        <v>2.15</v>
       </c>
     </row>
   </sheetData>
@@ -1033,7 +1089,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1086,103 +1142,103 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>01-04-2025 21:45</t>
+          <t>03-04-2025 01:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE</t>
+          <t>CONMEBOL LIBERTADORES</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Wealdstone - Boston United</t>
+          <t>San Antonio Bulo Bulo - Olimpia</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>80</v>
+        <v>66.7</v>
       </c>
       <c r="F2" t="n">
         <v>1.95</v>
       </c>
       <c r="G2" t="n">
-        <v>73.3</v>
+        <v>60</v>
       </c>
       <c r="H2" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>03-04-2025 01:00</t>
+          <t>02-04-2025 21:00</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CONMEBOL LIBERTADORES</t>
+          <t>BRASILEIRO U20 A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>San Antonio Bulo Bulo - Olimpia</t>
+          <t>RB Bragantino U20 - Cruzeiro U20</t>
         </is>
       </c>
       <c r="E3" t="n">
+        <v>80</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="G3" t="n">
         <v>66.7</v>
       </c>
-      <c r="F3" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="G3" t="n">
-        <v>60</v>
-      </c>
       <c r="H3" t="n">
-        <v>3.4</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>02-04-2025 03:30</t>
+          <t>02-04-2025 13:00</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>JAPAN</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>CONMEBOL SUDAMERICANA</t>
+          <t>J1 LEAGUE</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Cienciano - Atletico-MG</t>
+          <t>Nagoya Grampus - Yokohama F. Marinos</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>73.3</v>
+        <v>80</v>
       </c>
       <c r="F4" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="G4" t="n">
-        <v>66.7</v>
+        <v>35</v>
       </c>
       <c r="H4" t="n">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="5">
@@ -1203,54 +1259,54 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Nagoya Grampus - Yokohama F. Marinos</t>
+          <t>Gamba Osaka - Machida Zelvia</t>
         </is>
       </c>
       <c r="E5" t="n">
         <v>80</v>
       </c>
       <c r="F5" t="n">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="G5" t="n">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="H5" t="n">
-        <v>3.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>02-04-2025 13:00</t>
+          <t>02-04-2025 17:00</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>JAPAN</t>
+          <t>SLOVAKIA</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>J1 LEAGUE</t>
+          <t>2. LIGA</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Gamba Osaka - Machida Zelvia</t>
+          <t>Stará Ľubovňa - Šamorín</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="F6" t="n">
-        <v>2.5</v>
+        <v>1.73</v>
       </c>
       <c r="G6" t="n">
-        <v>65</v>
+        <v>73.3</v>
       </c>
       <c r="H6" t="n">
-        <v>5</v>
+        <v>2.88</v>
       </c>
     </row>
     <row r="7">
@@ -1261,30 +1317,132 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>SLOVAKIA</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2. LIGA</t>
+          <t>UEFA YOUTH LEAGUE</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Stará Ľubovňa - Šamorín</t>
+          <t>Stuttgart U19 - Barcelona U19</t>
         </is>
       </c>
       <c r="E7" t="n">
         <v>100</v>
       </c>
       <c r="F7" t="n">
-        <v>1.73</v>
+        <v>1.5</v>
       </c>
       <c r="G7" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="H7" t="n">
+        <v>2.3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>03-04-2025 18:35</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>KUWAIT</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>PREMIER LEAGUE</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Al Kuwait - Al Tadhamon</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>80</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="G8" t="n">
+        <v>80</v>
+      </c>
+      <c r="H8" t="n">
+        <v>2.38</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>03-04-2025 03:30</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>US OPEN CUP</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Des Moines Menace - Union Omaha</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>86.7</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="G9" t="n">
         <v>73.3</v>
       </c>
-      <c r="H7" t="n">
-        <v>2.88</v>
+      <c r="H9" t="n">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>03-04-2025 05:30</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>US OPEN CUP</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>LA Galaxy II - El Paso Locomotive</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>71.8</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="G10" t="n">
+        <v>61.8</v>
+      </c>
+      <c r="H10" t="n">
+        <v>2.4</v>
       </c>
     </row>
   </sheetData>
@@ -1298,7 +1456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G37"/>
+  <dimension ref="A1:G51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1346,7 +1504,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>01-04-2025 21:45</t>
+          <t>02-04-2025 21:45</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -1356,28 +1514,28 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>LEAGUE ONE</t>
+          <t>PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Lincoln - Huddersfield</t>
+          <t>Brighton - Aston Villa</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>50</v>
+        <v>53.3</v>
       </c>
       <c r="F2" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="G2" t="n">
-        <v>0.25</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>01-04-2025 21:45</t>
+          <t>02-04-2025 21:45</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -1387,1076 +1545,1510 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>LEAGUE ONE</t>
+          <t>CHAMPIONSHIP</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Stockport County - Stevenage</t>
+          <t>Derby - Preston</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>73.3</v>
+        <v>53.3</v>
       </c>
       <c r="F3" t="n">
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
       <c r="G3" t="n">
-        <v>0.32</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>01-04-2025 14:00</t>
+          <t>03-04-2025 01:00</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>AUSTRALIA</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>WESTERN AUSTRALIA NPL</t>
+          <t>CONMEBOL SUDAMERICANA</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Armadale - Western Knights</t>
+          <t>FBC Melgar - Vasco DA Gama</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="F4" t="n">
-        <v>2.15</v>
+        <v>2.24</v>
       </c>
       <c r="G4" t="n">
-        <v>0.72</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>01-04-2025 14:00</t>
+          <t>02-04-2025 21:30</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>CHINA</t>
+          <t>AUSTRIA</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>SUPER LEAGUE</t>
+          <t>CUP</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Henan Jianye - Qingdao Youth Island</t>
+          <t>Austria Vienna - TSV Hartberg</t>
         </is>
       </c>
       <c r="E5" t="n">
         <v>60</v>
       </c>
       <c r="F5" t="n">
-        <v>2.1</v>
+        <v>1.7</v>
       </c>
       <c r="G5" t="n">
-        <v>0.26</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>01-04-2025 02:00</t>
+          <t>02-04-2025 21:00</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>COLOMBIA</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>PRIMERA A</t>
+          <t>BRASILEIRO U20 A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Llaneros - Deportivo Pereira</t>
+          <t>RB Bragantino U20 - Cruzeiro U20</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>53.3</v>
+        <v>60</v>
       </c>
       <c r="F6" t="n">
-        <v>2.84</v>
+        <v>2.55</v>
       </c>
       <c r="G6" t="n">
-        <v>0.51</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>01-04-2025 18:00</t>
+          <t>02-04-2025 21:30</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>CYPRUS</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>1. DIVISION</t>
+          <t>MARANHENSE</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Apollon Limassol - Omonia Nicosia</t>
+          <t>Tuntum - Maranhão</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>53.3</v>
+        <v>60</v>
       </c>
       <c r="F7" t="n">
-        <v>2.7</v>
+        <v>4.2</v>
       </c>
       <c r="G7" t="n">
-        <v>0.44</v>
+        <v>1.52</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>01-04-2025 14:00</t>
+          <t>02-04-2025 17:00</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>CZECH-REPUBLIC</t>
+          <t>BULGARIA</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>1. LIGA U19</t>
+          <t>SECOND LEAGUE</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Jindřichův Hradec - Slovácko U19</t>
+          <t>FK Minyor Pernik - Fratria</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>55.7</v>
+        <v>60</v>
       </c>
       <c r="F8" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.04</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>01-04-2025 16:00</t>
+          <t>02-04-2025 10:30</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>CHINA</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>PROFESSIONAL DEVELOPMENT LEAGUE</t>
+          <t>SUPER LEAGUE</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Bristol City U21 - Hull City U21</t>
+          <t>Changchun Yatai - Wuhan Three Towns</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>73.3</v>
+        <v>51</v>
       </c>
       <c r="F9" t="n">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="G9" t="n">
-        <v>0.47</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>01-04-2025 15:00</t>
+          <t>02-04-2025 18:00</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>CROATIA</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>PROFESSIONAL DEVELOPMENT LEAGUE</t>
+          <t>CUP</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Cardiff City U21 - Peterborough United U21</t>
+          <t>NK Slaven Belupo - NK Osijek</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>60</v>
+        <v>66.7</v>
       </c>
       <c r="F10" t="n">
-        <v>1.75</v>
+        <v>2.3</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>01-04-2025 21:00</t>
+          <t>02-04-2025 19:00</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>CYPRUS</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>PROFESSIONAL DEVELOPMENT LEAGUE</t>
+          <t>1. DIVISION</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Queens Park Rangers U21 - Birmingham City U21</t>
+          <t>Aris - Pafos</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>50</v>
+        <v>53.3</v>
       </c>
       <c r="F11" t="n">
-        <v>1.95</v>
+        <v>2.55</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.03</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>01-04-2025 21:45</t>
+          <t>02-04-2025 16:30</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>NORTHERN-IRELAND</t>
+          <t>CYPRUS</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>CHAMPIONSHIP</t>
+          <t>2. DIVISION</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Newry City AFC - Ballinamallard United</t>
+          <t>MEAP Nisou - Spartakos Kitiou</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>66.7</v>
+        <v>60</v>
       </c>
       <c r="F12" t="n">
-        <v>2.6</v>
+        <v>2.2</v>
       </c>
       <c r="G12" t="n">
-        <v>0.73</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>01-04-2025 17:00</t>
+          <t>02-04-2025 22:00</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>SLOVENIA</t>
+          <t>FRANCE</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>CUP</t>
+          <t>COUPE DE FRANCE</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Bistrica - Koper</t>
+          <t>Cannes - Reims</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="F13" t="n">
-        <v>3.1</v>
+        <v>5.25</v>
       </c>
       <c r="G13" t="n">
-        <v>0.55</v>
+        <v>2.15</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>01-04-2025 20:00</t>
+          <t>02-04-2025 20:00</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>SWEDEN</t>
+          <t>GERMANY</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>SUPERETTAN</t>
+          <t>REGIONALLIGA - SUDWEST</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Orebro SK - Vasteras SK FK</t>
+          <t>Eintracht Frankfurt II - TSV Steinbach</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>51.3</v>
+        <v>60</v>
       </c>
       <c r="F14" t="n">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="G14" t="n">
-        <v>0.54</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>01-04-2025 20:30</t>
+          <t>02-04-2025 17:00</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>SWITZERLAND</t>
+          <t>GREECE</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>CHALLENGE LEAGUE</t>
+          <t>CUP</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>FC WIL 1900 - FC Vaduz</t>
+          <t>OFI - Asteras Tripolis</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>66.7</v>
+        <v>53.3</v>
       </c>
       <c r="F15" t="n">
-        <v>2</v>
+        <v>2.55</v>
       </c>
       <c r="G15" t="n">
-        <v>0.33</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>01-04-2025 21:30</t>
+          <t>02-04-2025 02:15</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>SWITZERLAND</t>
+          <t>HONDURAS</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>SUPER LEAGUE</t>
+          <t>LIGA NACIONAL</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Yverdon Sport - FC Lugano</t>
+          <t>Victoria - Lobos Upnfm</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>64.3</v>
+        <v>60</v>
       </c>
       <c r="F16" t="n">
-        <v>4</v>
+        <v>1.73</v>
       </c>
       <c r="G16" t="n">
-        <v>1.57</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>01-04-2025 02:30</t>
+          <t>02-04-2025 19:30</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>ITALY</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>US OPEN CUP</t>
+          <t>SERIE C - GIRONE A</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Fort Lauderdale CF - Miami FC</t>
+          <t>Pro Patria - Atalanta II</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>70</v>
+        <v>66.7</v>
       </c>
       <c r="F17" t="n">
-        <v>3.7</v>
+        <v>2.5</v>
       </c>
       <c r="G17" t="n">
-        <v>1.59</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>01-04-2025 22:00</t>
+          <t>02-04-2025 23:30</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>JAMAICA</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>CAF CHAMPIONS LEAGUE</t>
+          <t>PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>MC Alger - Orlando Pirates</t>
+          <t>Harbour View - Racing United</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>50</v>
+        <v>53.3</v>
       </c>
       <c r="F18" t="n">
-        <v>1.95</v>
+        <v>3.4</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.03</v>
+        <v>0.8100000000000001</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>02-04-2025 21:45</t>
+          <t>02-04-2025 13:00</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>JAPAN</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>PREMIER LEAGUE</t>
+          <t>J1 LEAGUE</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Brighton - Aston Villa</t>
+          <t>Yokohama FC - Vissel Kobe</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>53.3</v>
+        <v>50</v>
       </c>
       <c r="F19" t="n">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="G19" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>02-04-2025 21:45</t>
+          <t>02-04-2025 13:00</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>JAPAN</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>CHAMPIONSHIP</t>
+          <t>J1 LEAGUE</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Derby - Preston</t>
+          <t>Cerezo Osaka - Fagiano Okayama</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>53.3</v>
+        <v>60</v>
       </c>
       <c r="F20" t="n">
-        <v>2.4</v>
+        <v>2.15</v>
       </c>
       <c r="G20" t="n">
-        <v>0.28</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>02-04-2025 03:30</t>
+          <t>02-04-2025 02:00</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>MEXICO</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>CONMEBOL LIBERTADORES</t>
+          <t>LIGA PREMIER SERIE A</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Fortaleza EC - Racing Club</t>
+          <t>UA Zacatecas - Mineros De Fresnillo</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="F21" t="n">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="G21" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>03-04-2025 01:00</t>
+          <t>02-04-2025 15:00</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>MONTENEGRO</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>CONMEBOL SUDAMERICANA</t>
+          <t>SECOND LEAGUE</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>FBC Melgar - Vasco DA Gama</t>
+          <t>Lovćen - Ibar</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="F22" t="n">
-        <v>2.24</v>
+        <v>1.73</v>
       </c>
       <c r="G22" t="n">
-        <v>0.34</v>
+        <v>-0.12</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>02-04-2025 03:30</t>
+          <t>02-04-2025 22:00</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>POLAND</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>CONMEBOL SUDAMERICANA</t>
+          <t>SUPER CUP</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Cienciano - Atletico-MG</t>
+          <t>Jagiellonia - Wisla Krakow</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>50</v>
+        <v>78.3</v>
       </c>
       <c r="F23" t="n">
-        <v>3.5</v>
+        <v>1.75</v>
       </c>
       <c r="G23" t="n">
-        <v>0.75</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>02-04-2025 21:30</t>
+          <t>02-04-2025 17:00</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>AUSTRIA</t>
+          <t>PORTUGAL</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>CUP</t>
+          <t>LIGA REVELAÇÃO U23</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Austria Vienna - TSV Hartberg</t>
+          <t>Estoril U23 - Vizela U23</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>60</v>
+        <v>66.7</v>
       </c>
       <c r="F24" t="n">
-        <v>1.7</v>
+        <v>2.45</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>02-04-2025 17:00</t>
+          <t>02-04-2025 13:00</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>BULGARIA</t>
+          <t>PORTUGAL</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>SECOND LEAGUE</t>
+          <t>LIGA REVELAÇÃO U23</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>FK Minyor Pernik - Fratria</t>
+          <t>Torreense U23 - Estrela U23</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>60</v>
+        <v>73.3</v>
       </c>
       <c r="F25" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="G25" t="n">
-        <v>0.08</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>02-04-2025 10:30</t>
+          <t>02-04-2025 16:00</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>CHINA</t>
+          <t>RWANDA</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>SUPER LEAGUE</t>
+          <t>NATIONAL SOCCER LEAGUE</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Changchun Yatai - Wuhan Three Towns</t>
+          <t>Mukura - Rutsiro</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F26" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="G26" t="n">
-        <v>0.1</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>02-04-2025 19:00</t>
+          <t>02-04-2025 20:00</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>CYPRUS</t>
+          <t>SLOVENIA</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>1. DIVISION</t>
+          <t>CUP</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Aris - Pafos</t>
+          <t>Maribor - Celje</t>
         </is>
       </c>
       <c r="E27" t="n">
         <v>53.3</v>
       </c>
       <c r="F27" t="n">
-        <v>2.55</v>
+        <v>2.25</v>
       </c>
       <c r="G27" t="n">
-        <v>0.36</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>02-04-2025 22:00</t>
+          <t>02-04-2025 14:30</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>FRANCE</t>
+          <t>THAILAND</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>COUPE DE FRANCE</t>
+          <t>THAI LEAGUE 2</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Cannes - Reims</t>
+          <t>Trat FC - Kasetsart FC</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>60</v>
+        <v>66.7</v>
       </c>
       <c r="F28" t="n">
-        <v>5.25</v>
+        <v>2.8</v>
       </c>
       <c r="G28" t="n">
-        <v>2.15</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>02-04-2025 17:00</t>
+          <t>02-04-2025 13:00</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>GREECE</t>
+          <t>TURKEY</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>CUP</t>
+          <t>2. LIG</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>OFI - Asteras Tripolis</t>
+          <t>Fethiyespor - Hekimoğlu Trabzon</t>
         </is>
       </c>
       <c r="E29" t="n">
         <v>53.3</v>
       </c>
       <c r="F29" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="G29" t="n">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>02-04-2025 02:15</t>
+          <t>02-04-2025 14:00</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>HONDURAS</t>
+          <t>TURKEY</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>LIGA NACIONAL</t>
+          <t>2. LIG</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Victoria - Lobos Upnfm</t>
+          <t>İçel İdmanyurdu Spor - Diyarbekirspor</t>
         </is>
       </c>
       <c r="E30" t="n">
         <v>60</v>
       </c>
       <c r="F30" t="n">
-        <v>1.73</v>
+        <v>1.95</v>
       </c>
       <c r="G30" t="n">
-        <v>0.04</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>02-04-2025 13:00</t>
+          <t>02-04-2025 14:00</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>JAPAN</t>
+          <t>TURKEY</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>J1 LEAGUE</t>
+          <t>2. LIG</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Yokohama FC - Vissel Kobe</t>
+          <t>Karacabey Belediyespor - Buca FK</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>50</v>
+        <v>55.7</v>
       </c>
       <c r="F31" t="n">
-        <v>3.5</v>
+        <v>1.85</v>
       </c>
       <c r="G31" t="n">
-        <v>0.75</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>02-04-2025 13:00</t>
+          <t>02-04-2025 14:00</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>JAPAN</t>
+          <t>TURKEY</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>J1 LEAGUE</t>
+          <t>2. LIG</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Cerezo Osaka - Fagiano Okayama</t>
+          <t>Elazığspor - 68 Aksaray Belediyespor</t>
         </is>
       </c>
       <c r="E32" t="n">
         <v>60</v>
       </c>
       <c r="F32" t="n">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="G32" t="n">
-        <v>0.29</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>02-04-2025 02:00</t>
+          <t>02-04-2025 14:00</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>MEXICO</t>
+          <t>TURKEY</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>LIGA PREMIER SERIE A</t>
+          <t>3. LIG - GROUP 3</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>UA Zacatecas - Mineros De Fresnillo</t>
+          <t>Efeler 09 Spor - Çorluspor 1947</t>
         </is>
       </c>
       <c r="E33" t="n">
         <v>60</v>
       </c>
       <c r="F33" t="n">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="G33" t="n">
-        <v>0.2</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>02-04-2025 16:00</t>
+          <t>02-04-2025 14:00</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>RWANDA</t>
+          <t>TURKEY</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>NATIONAL SOCCER LEAGUE</t>
+          <t>3. LIG - GROUP 4</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Mukura - Rutsiro</t>
+          <t>Denizlispor - Ağrı 1970</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="F34" t="n">
-        <v>2.25</v>
+        <v>3.9</v>
       </c>
       <c r="G34" t="n">
-        <v>0.12</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>02-04-2025 20:00</t>
+          <t>02-04-2025 02:30</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>SLOVENIA</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>CUP</t>
+          <t>US OPEN CUP</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Maribor - Celje</t>
+          <t>Forward Madison - FC Tulsa</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>53.3</v>
+        <v>50</v>
       </c>
       <c r="F35" t="n">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="G35" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>02-04-2025 14:30</t>
+          <t>02-04-2025 18:00</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>THAILAND</t>
+          <t>UKRAINE</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>THAI LEAGUE 2</t>
+          <t>CUP</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Trat FC - Kasetsart FC</t>
+          <t>Veres Rivne - Polessya</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>66.7</v>
+        <v>53.3</v>
       </c>
       <c r="F36" t="n">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="G36" t="n">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>02-04-2025 18:00</t>
+          <t>03-04-2025 03:30</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>UKRAINE</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
+          <t>CONMEBOL LIBERTADORES</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Universidad De Chile - Botafogo</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>60</v>
+      </c>
+      <c r="F37" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.57</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>03-04-2025 03:30</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>WORLD</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>CONMEBOL LIBERTADORES</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Talleres Cordoba - Sao Paulo</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>53.3</v>
+      </c>
+      <c r="F38" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>03-04-2025 05:00</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>WORLD</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>CONMEBOL SUDAMERICANA</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Atletico Grau - Godoy Cruz</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>50</v>
+      </c>
+      <c r="F39" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.57</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>04-04-2025 01:00</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>WORLD</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>CONMEBOL SUDAMERICANA</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Gualberto Villarroel SJ - Union Espanola</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
+        <v>90</v>
+      </c>
+      <c r="F40" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>04-04-2025 00:45</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>ARGENTINA</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>COPA ARGENTINA</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Instituto Cordoba - Deportivo Madryn</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v>73.3</v>
+      </c>
+      <c r="F41" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>03-04-2025 17:00</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>BULGARIA</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>SECOND LEAGUE</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Yantra 2019 - CSKA Sofia II</t>
+        </is>
+      </c>
+      <c r="E42" t="n">
+        <v>50</v>
+      </c>
+      <c r="F42" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>03-04-2025 04:00</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>GUATEMALA</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>LIGA NACIONAL</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Marquense - Comunicaciones</t>
+        </is>
+      </c>
+      <c r="E43" t="n">
+        <v>60</v>
+      </c>
+      <c r="F43" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>04-04-2025 00:30</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>JAMAICA</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>PREMIER LEAGUE</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Dunbeholden - Chapelton</t>
+        </is>
+      </c>
+      <c r="E44" t="n">
+        <v>50</v>
+      </c>
+      <c r="F44" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>03-04-2025 20:00</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>ROMANIA</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>CUPA ROMÂNIEI</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>CFR 1907 Cluj - Universitatea Craiova</t>
+        </is>
+      </c>
+      <c r="E45" t="n">
+        <v>53.3</v>
+      </c>
+      <c r="F45" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>03-04-2025 17:00</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>ROMANIA</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>LIGA II</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Csikszereda - CSA Steaua Bucureşti</t>
+        </is>
+      </c>
+      <c r="E46" t="n">
+        <v>50</v>
+      </c>
+      <c r="F46" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>03-04-2025 21:30</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>SWITZERLAND</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>SUPER LEAGUE</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>FC Luzern - FC ST. Gallen</t>
+        </is>
+      </c>
+      <c r="E47" t="n">
+        <v>73.3</v>
+      </c>
+      <c r="F47" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>03-04-2025 20:30</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>TURKEY</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
           <t>CUP</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>Veres Rivne - Polessya</t>
-        </is>
-      </c>
-      <c r="E37" t="n">
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Besiktas - Goztepe</t>
+        </is>
+      </c>
+      <c r="E48" t="n">
         <v>53.3</v>
       </c>
-      <c r="F37" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="G37" t="n">
-        <v>0.8100000000000001</v>
+      <c r="F48" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="G48" t="n">
+        <v>-0.09</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>03-04-2025 03:30</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>US OPEN CUP</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Des Moines Menace - Union Omaha</t>
+        </is>
+      </c>
+      <c r="E49" t="n">
+        <v>60</v>
+      </c>
+      <c r="F49" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="G49" t="n">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>03-04-2025 05:00</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>US OPEN CUP</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Tacoma Defiance - Spokane Velocity</t>
+        </is>
+      </c>
+      <c r="E50" t="n">
+        <v>50</v>
+      </c>
+      <c r="F50" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="G50" t="n">
+        <v>-0.05</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>03-04-2025 05:30</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>US OPEN CUP</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>LA Galaxy II - El Paso Locomotive</t>
+        </is>
+      </c>
+      <c r="E51" t="n">
+        <v>62.3</v>
+      </c>
+      <c r="F51" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.63</v>
       </c>
     </row>
   </sheetData>
@@ -2470,7 +3062,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2518,7 +3110,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>01-04-2025 21:45</t>
+          <t>02-04-2025 21:45</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -2528,28 +3120,28 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>LEAGUE ONE</t>
+          <t>PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Barnsley - Exeter City</t>
+          <t>Bournemouth - Ipswich</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>53.3</v>
+        <v>50</v>
       </c>
       <c r="F2" t="n">
-        <v>4.75</v>
+        <v>7</v>
       </c>
       <c r="G2" t="n">
-        <v>1.53</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>01-04-2025 21:45</t>
+          <t>02-04-2025 21:45</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -2559,462 +3151,462 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>LEAGUE ONE</t>
+          <t>PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Cambridge United - Wrexham</t>
+          <t>Newcastle - Brentford</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>70</v>
+        <v>53.3</v>
       </c>
       <c r="F3" t="n">
-        <v>1.85</v>
+        <v>4</v>
       </c>
       <c r="G3" t="n">
-        <v>0.29</v>
+        <v>1.13</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>01-04-2025 21:45</t>
+          <t>02-04-2025 21:00</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>LEAGUE ONE</t>
+          <t>BRASILEIRO U20 A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Mansfield Town - Charlton</t>
+          <t>Atlético Mineiro U20 - Bahia U20</t>
         </is>
       </c>
       <c r="E4" t="n">
         <v>50</v>
       </c>
       <c r="F4" t="n">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>01-04-2025 21:45</t>
+          <t>02-04-2025 21:00</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>LEAGUE ONE</t>
+          <t>BRASILEIRO U20 A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Northampton - Rotherham</t>
+          <t>Fortaleza U20 - São Paulo U20</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>53.3</v>
+        <v>66.7</v>
       </c>
       <c r="F5" t="n">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="G5" t="n">
-        <v>0.33</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>01-04-2025 21:45</t>
+          <t>02-04-2025 23:30</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>ECUADOR</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>LEAGUE TWO</t>
+          <t>LIGA PRO SERIE B</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Crewe - Grimsby</t>
+          <t>Ind. Juniors - Guayaquil City FC</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F6" t="n">
-        <v>2.88</v>
+        <v>1.9</v>
       </c>
       <c r="G6" t="n">
-        <v>0.73</v>
+        <v>-0.05</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>01-04-2025 21:45</t>
+          <t>02-04-2025 20:00</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>GERMANY</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE</t>
+          <t>REGIONALLIGA - NORDOST</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Wealdstone - Boston United</t>
+          <t>Plauen - SV Babelsberg 03</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F7" t="n">
-        <v>2.88</v>
+        <v>1.91</v>
       </c>
       <c r="G7" t="n">
-        <v>0.73</v>
+        <v>-0.05</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>01-04-2025 22:00</t>
+          <t>02-04-2025 20:30</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ITALY</t>
+          <t>GREECE</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>COPPA ITALIA</t>
+          <t>CUP</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Empoli - Bologna</t>
+          <t>AEK Athens FC - Olympiakos Piraeus</t>
         </is>
       </c>
       <c r="E8" t="n">
         <v>53.3</v>
       </c>
       <c r="F8" t="n">
-        <v>1.8</v>
+        <v>2.55</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.04</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>02-04-2025 01:00</t>
+          <t>02-04-2025 13:00</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>JAPAN</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>CONMEBOL LIBERTADORES</t>
+          <t>J1 LEAGUE</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Cerro Porteno - Bolívar</t>
+          <t>Albirex Niigata - Avispa Fukuoka</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>66.7</v>
+        <v>60</v>
       </c>
       <c r="F9" t="n">
-        <v>5.25</v>
+        <v>3.1</v>
       </c>
       <c r="G9" t="n">
-        <v>2.5</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>02-04-2025 01:00</t>
+          <t>02-04-2025 13:00</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>JAPAN</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>CONMEBOL SUDAMERICANA</t>
+          <t>J1 LEAGUE</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Boston River - Club Guarani</t>
+          <t>Kyoto Sanga - Kashiwa Reysol</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>70</v>
+        <v>53.3</v>
       </c>
       <c r="F10" t="n">
-        <v>3.6</v>
+        <v>2.6</v>
       </c>
       <c r="G10" t="n">
-        <v>1.52</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>02-04-2025 01:00</t>
+          <t>02-04-2025 13:00</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>JAPAN</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>CONMEBOL SUDAMERICANA</t>
+          <t>J1 LEAGUE</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Deportes Iquique - Caracas FC</t>
+          <t>Gamba Osaka - Machida Zelvia</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>50</v>
+        <v>66.7</v>
       </c>
       <c r="F11" t="n">
-        <v>3.75</v>
+        <v>2.4</v>
       </c>
       <c r="G11" t="n">
-        <v>0.88</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>02-04-2025 00:00</t>
+          <t>02-04-2025 17:00</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>SERBIA</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>BRASILEIRO U20 A</t>
+          <t>CUP</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Botafogo U20 - Corinthians U20</t>
+          <t>Radnicki NIS - Vojvodina</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>60</v>
+        <v>66.7</v>
       </c>
       <c r="F12" t="n">
-        <v>2.7</v>
+        <v>2.38</v>
       </c>
       <c r="G12" t="n">
-        <v>0.62</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>02-04-2025 01:30</t>
+          <t>02-04-2025 22:30</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>SPAIN</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>CAPIXABA</t>
+          <t>COPA DEL REY</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Porto Vitória - Rio Branco ES</t>
+          <t>Atletico Madrid - Barcelona</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="F13" t="n">
-        <v>2.2</v>
+        <v>2.45</v>
       </c>
       <c r="G13" t="n">
-        <v>0.12</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>01-04-2025 16:00</t>
+          <t>02-04-2025 14:00</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>TURKEY</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>PROFESSIONAL DEVELOPMENT LEAGUE</t>
+          <t>2. LIG</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Charlton Athletic U21 - Sheffield United U21</t>
+          <t>Tuzlaspor - Adana 1954 FK</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F14" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="G14" t="n">
-        <v>0.23</v>
+        <v>-0.03</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>01-04-2025 21:45</t>
+          <t>02-04-2025 14:00</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>NORTHERN-IRELAND</t>
+          <t>TURKEY</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>CHAMPIONSHIP</t>
+          <t>3. LIG - GROUP 1</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Armagh City - Ballyclare Comrades</t>
+          <t>Silifke Belediyespor - Kütahyaspor</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F15" t="n">
-        <v>3.4</v>
+        <v>2.7</v>
       </c>
       <c r="G15" t="n">
-        <v>1.04</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>01-04-2025 21:45</t>
+          <t>02-04-2025 14:00</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>NORTHERN-IRELAND</t>
+          <t>TURKEY</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>PREMIERSHIP</t>
+          <t>3. LIG - GROUP 2</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Dungannon Swifts - Larne</t>
+          <t>Türk Metal 1963 - Fatsa Belediyespor</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F16" t="n">
-        <v>2.3</v>
+        <v>2.63</v>
       </c>
       <c r="G16" t="n">
-        <v>0.38</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>01-04-2025 19:30</t>
+          <t>02-04-2025 14:00</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>POLAND</t>
+          <t>TURKEY</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>CUP</t>
+          <t>3. LIG - GROUP 3</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Puszcza Niepołomice - Pogon Szczecin</t>
+          <t>Küçükçekmece Sinopspor - Yeni Orduspor</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>60</v>
+        <v>53.3</v>
       </c>
       <c r="F17" t="n">
-        <v>1.8</v>
+        <v>2.88</v>
       </c>
       <c r="G17" t="n">
-        <v>0.08</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>01-04-2025 02:30</t>
+          <t>03-04-2025 01:30</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -3029,389 +3621,110 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Charlotte Independence - Carolina Core</t>
+          <t>Loudoun United - Virginia Dream</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>60</v>
+        <v>67.5</v>
       </c>
       <c r="F18" t="n">
-        <v>6.5</v>
+        <v>17</v>
       </c>
       <c r="G18" t="n">
-        <v>2.9</v>
+        <v>10.48</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>01-04-2025 16:00</t>
+          <t>03-04-2025 14:30</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>BULGARIA</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>CAF CHAMPIONS LEAGUE</t>
+          <t>FIRST LEAGUE</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Mamelodi Sundowns - ES Tunis</t>
+          <t>Hebar 1918 - Lokomotiv Plovdiv</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>53.3</v>
+        <v>55.7</v>
       </c>
       <c r="F19" t="n">
-        <v>3.85</v>
+        <v>2.3</v>
       </c>
       <c r="G19" t="n">
-        <v>1.05</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>02-04-2025 21:45</t>
+          <t>03-04-2025 06:30</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>PREMIER LEAGUE</t>
+          <t>CONCACAF CHAMPIONS LEAGUE</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Bournemouth - Ipswich</t>
+          <t>Los Angeles FC - Inter Miami</t>
         </is>
       </c>
       <c r="E20" t="n">
         <v>50</v>
       </c>
       <c r="F20" t="n">
-        <v>7</v>
+        <v>2.72</v>
       </c>
       <c r="G20" t="n">
-        <v>2.5</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>02-04-2025 21:45</t>
+          <t>03-04-2025 04:30</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>PREMIER LEAGUE</t>
+          <t>CONCACAF CHAMPIONS LEAGUE</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Newcastle - Brentford</t>
+          <t>Vancouver Whitecaps - U.N.A.M. - Pumas</t>
         </is>
       </c>
       <c r="E21" t="n">
         <v>53.3</v>
       </c>
       <c r="F21" t="n">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="G21" t="n">
-        <v>1.13</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>02-04-2025 05:00</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>WORLD</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>CONMEBOL LIBERTADORES</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>Alianza Lima - Libertad Asuncion</t>
-        </is>
-      </c>
-      <c r="E22" t="n">
-        <v>60</v>
-      </c>
-      <c r="F22" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0.86</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>02-04-2025 23:30</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>ECUADOR</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>LIGA PRO SERIE B</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>Ind. Juniors - Guayaquil City FC</t>
-        </is>
-      </c>
-      <c r="E23" t="n">
-        <v>50</v>
-      </c>
-      <c r="F23" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="G23" t="n">
-        <v>-0.05</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>02-04-2025 20:00</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>GERMANY</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>REGIONALLIGA - NORDOST</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>Plauen - SV Babelsberg 03</t>
-        </is>
-      </c>
-      <c r="E24" t="n">
-        <v>50</v>
-      </c>
-      <c r="F24" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="G24" t="n">
-        <v>-0.05</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>02-04-2025 20:30</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>GREECE</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>CUP</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>AEK Athens FC - Olympiakos Piraeus</t>
-        </is>
-      </c>
-      <c r="E25" t="n">
-        <v>53.3</v>
-      </c>
-      <c r="F25" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0.36</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>02-04-2025 13:00</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>JAPAN</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>J1 LEAGUE</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>Albirex Niigata - Avispa Fukuoka</t>
-        </is>
-      </c>
-      <c r="E26" t="n">
-        <v>60</v>
-      </c>
-      <c r="F26" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0.86</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>02-04-2025 13:00</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>JAPAN</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>J1 LEAGUE</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>Kyoto Sanga - Kashiwa Reysol</t>
-        </is>
-      </c>
-      <c r="E27" t="n">
-        <v>53.3</v>
-      </c>
-      <c r="F27" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="G27" t="n">
-        <v>0.39</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>02-04-2025 13:00</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>JAPAN</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>J1 LEAGUE</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>Gamba Osaka - Machida Zelvia</t>
-        </is>
-      </c>
-      <c r="E28" t="n">
-        <v>66.7</v>
-      </c>
-      <c r="F28" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="G28" t="n">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>02-04-2025 22:30</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>SPAIN</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>COPA DEL REY</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>Atletico Madrid - Barcelona</t>
-        </is>
-      </c>
-      <c r="E29" t="n">
-        <v>60</v>
-      </c>
-      <c r="F29" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0.47</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>02-04-2025 05:00</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>USA</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>US OPEN CUP</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>Monterey Bay - El Farolito</t>
-        </is>
-      </c>
-      <c r="E30" t="n">
-        <v>50</v>
-      </c>
-      <c r="F30" t="n">
-        <v>15</v>
-      </c>
-      <c r="G30" t="n">
-        <v>6.5</v>
+        <v>0.92</v>
       </c>
     </row>
   </sheetData>
@@ -3425,7 +3738,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3473,280 +3786,373 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>01-04-2025 21:45</t>
+          <t>02-04-2025 21:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>LEAGUE TWO</t>
+          <t>BRASILEIRO U20 A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Chesterfield - Carlisle</t>
+          <t>Atlético Mineiro U20 - Bahia U20</t>
         </is>
       </c>
       <c r="E2" t="n">
         <v>75</v>
       </c>
       <c r="F2" t="n">
-        <v>1.85</v>
+        <v>1.73</v>
       </c>
       <c r="G2" t="n">
-        <v>0.39</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>01-04-2025 21:45</t>
+          <t>02-04-2025 15:00</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>GREECE</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE</t>
+          <t>SUPER LEAGUE 2</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Wealdstone - Boston United</t>
+          <t>PAOK II - Niki Volos</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="F3" t="n">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="G3" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>01-04-2025 16:15</t>
+          <t>02-04-2025 13:00</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>BULGARIA</t>
+          <t>JAPAN</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>FIRST LEAGUE</t>
+          <t>J1 LEAGUE</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Spartak Varna - Botev Vratsa</t>
+          <t>Nagoya Grampus - Yokohama F. Marinos</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="F4" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="G4" t="n">
-        <v>0.46</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>01-04-2025 22:00</t>
+          <t>02-04-2025 13:00</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>JAPAN</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>CAF CHAMPIONS LEAGUE</t>
+          <t>J1 LEAGUE</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Pyramids FC - FAR Rabat</t>
+          <t>Gamba Osaka - Machida Zelvia</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F5" t="n">
-        <v>2.35</v>
+        <v>2.5</v>
       </c>
       <c r="G5" t="n">
-        <v>0.64</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>02-04-2025 03:30</t>
+          <t>02-04-2025 22:00</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>POLAND</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>CONMEBOL SUDAMERICANA</t>
+          <t>SUPER CUP</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Cienciano - Atletico-MG</t>
+          <t>Jagiellonia - Wisla Krakow</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>73.3</v>
+        <v>72.5</v>
       </c>
       <c r="F6" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="G6" t="n">
-        <v>0.54</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>02-04-2025 13:00</t>
+          <t>02-04-2025 17:00</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>JAPAN</t>
+          <t>SERBIA</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>J1 LEAGUE</t>
+          <t>CUP</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Nagoya Grampus - Yokohama F. Marinos</t>
+          <t>Radnicki NIS - Vojvodina</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="F7" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>02-04-2025 13:00</t>
+          <t>02-04-2025 17:00</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>JAPAN</t>
+          <t>SLOVAKIA</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>J1 LEAGUE</t>
+          <t>2. LIGA</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Gamba Osaka - Machida Zelvia</t>
+          <t>Stará Ľubovňa - Šamorín</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="F8" t="n">
-        <v>2.5</v>
+        <v>1.73</v>
       </c>
       <c r="G8" t="n">
-        <v>1</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>02-04-2025 17:00</t>
+          <t>02-04-2025 21:30</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>SLOVAKIA</t>
+          <t>SWITZERLAND</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2. LIGA</t>
+          <t>SUPER LEAGUE</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Stará Ľubovňa - Šamorín</t>
+          <t>FC Zurich - Lausanne</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="F9" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="G9" t="n">
-        <v>0.73</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>02-04-2025 21:30</t>
+          <t>02-04-2025 14:00</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>SWITZERLAND</t>
+          <t>TURKEY</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>SUPER LEAGUE</t>
+          <t>2. LIG</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>FC Zurich - Lausanne</t>
+          <t>Ankaraspor - Sarıyer</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="F10" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="G10" t="n">
-        <v>0.35</v>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>02-04-2025 14:00</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>TURKEY</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>3. LIG - GROUP 4</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Denizlispor - Ağrı 1970</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>70</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>04-04-2025 01:00</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>WORLD</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>CONMEBOL LIBERTADORES</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Sporting Cristal - Palmeiras</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>73.3</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>03-04-2025 20:30</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>TURKEY</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>CUP</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Besiktas - Goztepe</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>70</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.29</v>
       </c>
     </row>
   </sheetData>
@@ -3760,7 +4166,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3808,7 +4214,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>01-04-2025 21:45</t>
+          <t>02-04-2025 21:45</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -3823,23 +4229,23 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Arsenal - Fulham</t>
+          <t>Bournemouth - Ipswich</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>73.3</v>
+        <v>80</v>
       </c>
       <c r="F2" t="n">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="G2" t="n">
-        <v>0.65</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>01-04-2025 21:45</t>
+          <t>02-04-2025 21:45</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -3849,338 +4255,338 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>LEAGUE ONE</t>
+          <t>PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Blackpool - Reading</t>
+          <t>Manchester City - Leicester</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>71.7</v>
+        <v>70</v>
       </c>
       <c r="F3" t="n">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="G3" t="n">
-        <v>0.25</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>01-04-2025 21:45</t>
+          <t>03-04-2025 01:00</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>LEAGUE ONE</t>
+          <t>CONMEBOL LIBERTADORES</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Burton Albion - Leyton Orient</t>
+          <t>San Antonio Bulo Bulo - Olimpia</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>76.7</v>
+        <v>84</v>
       </c>
       <c r="F4" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="G4" t="n">
-        <v>0.38</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>01-04-2025 21:45</t>
+          <t>02-04-2025 02:00</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>LEAGUE ONE</t>
+          <t>PARAENSE</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Northampton - Rotherham</t>
+          <t>Remo - Tuna Luso</t>
         </is>
       </c>
       <c r="E5" t="n">
         <v>66.7</v>
       </c>
       <c r="F5" t="n">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>01-04-2025 21:45</t>
+          <t>02-04-2025 16:45</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>BULGARIA</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>LEAGUE ONE</t>
+          <t>FIRST LEAGUE</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Wigan - Bolton</t>
+          <t>Botev Plovdiv - Beroe</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>68.3</v>
+        <v>66.7</v>
       </c>
       <c r="F6" t="n">
-        <v>1.91</v>
+        <v>2.1</v>
       </c>
       <c r="G6" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>01-04-2025 21:45</t>
+          <t>02-04-2025 17:00</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>BULGARIA</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE</t>
+          <t>SECOND LEAGUE</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Woking - Rochdale</t>
+          <t>Marek - CSKA 1948 Sofia II</t>
         </is>
       </c>
       <c r="E7" t="n">
         <v>66.7</v>
       </c>
       <c r="F7" t="n">
-        <v>1.95</v>
+        <v>2.06</v>
       </c>
       <c r="G7" t="n">
-        <v>0.3</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>01-04-2025 21:45</t>
+          <t>02-04-2025 13:00</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>GERMANY</t>
+          <t>CHINA</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>DFB POKAL</t>
+          <t>SUPER LEAGUE</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Arminia Bielefeld - Bayer Leverkusen</t>
+          <t>Shanghai Shenhua - Yunnan Yukun</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F8" t="n">
-        <v>2.1</v>
+        <v>1.83</v>
       </c>
       <c r="G8" t="n">
-        <v>0.58</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>02-04-2025 01:00</t>
+          <t>02-04-2025 22:00</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>FRANCE</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>CONMEBOL SUDAMERICANA</t>
+          <t>COUPE DE FRANCE</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Union Santa Fe - Cruzeiro</t>
+          <t>Cannes - Reims</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="F9" t="n">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="G9" t="n">
-        <v>0.53</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>01-04-2025 18:45</t>
+          <t>02-04-2025 21:30</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>BULGARIA</t>
+          <t>GUATEMALA</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>FIRST LEAGUE</t>
+          <t>LIGA NACIONAL</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Slavia Sofia - Septemvri Sofia</t>
+          <t>Municipal - Antigua GFC</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>65</v>
+        <v>66.7</v>
       </c>
       <c r="F10" t="n">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="G10" t="n">
-        <v>0.37</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>01-04-2025 16:15</t>
+          <t>02-04-2025 16:00</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>BULGARIA</t>
+          <t>ITALY</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>FIRST LEAGUE</t>
+          <t>SERIE D - GIRONE I</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Spartak Varna - Botev Vratsa</t>
+          <t>Locri 1909 - Igea Virtus</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>66.7</v>
+        <v>76.7</v>
       </c>
       <c r="F11" t="n">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="G11" t="n">
-        <v>0.27</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>01-04-2025 21:45</t>
+          <t>02-04-2025 13:00</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>JAPAN</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE - NORTH</t>
+          <t>J1 LEAGUE</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Needham Market - Curzon Ashton</t>
+          <t>Tokyo Verdy - FC Tokyo</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>76</v>
+        <v>66.7</v>
       </c>
       <c r="F12" t="n">
-        <v>1.75</v>
+        <v>2.15</v>
       </c>
       <c r="G12" t="n">
-        <v>0.33</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>01-04-2025 17:00</t>
+          <t>02-04-2025 13:00</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>PORTUGAL</t>
+          <t>JAPAN</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>LIGA REVELAÇÃO U23</t>
+          <t>J1 LEAGUE</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Academico Viseu U23 - Mafra U23</t>
+          <t>Gamba Osaka - Machida Zelvia</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>73.3</v>
+        <v>76.7</v>
       </c>
       <c r="F13" t="n">
-        <v>1.77</v>
+        <v>2.05</v>
       </c>
       <c r="G13" t="n">
-        <v>0.3</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>01-04-2025 19:00</t>
+          <t>02-04-2025 17:00</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -4190,580 +4596,332 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>CUP</t>
+          <t>2. LIGA</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Ružomberok - Dukla Banská Bystrica</t>
+          <t>Stará Ľubovňa - Šamorín</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>66.7</v>
+        <v>84</v>
       </c>
       <c r="F14" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="G14" t="n">
-        <v>0.33</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>01-04-2025 17:00</t>
+          <t>02-04-2025 21:30</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>SLOVENIA</t>
+          <t>SWITZERLAND</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>CUP</t>
+          <t>SUPER LEAGUE</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Bistrica - Koper</t>
+          <t>FC Sion - FC Winterthur</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>68</v>
+        <v>78.90000000000001</v>
       </c>
       <c r="F15" t="n">
         <v>1.73</v>
       </c>
       <c r="G15" t="n">
-        <v>0.18</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>01-04-2025 22:30</t>
+          <t>02-04-2025 14:00</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>SPAIN</t>
+          <t>TURKEY</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>COPA DEL REY</t>
+          <t>2. LIG</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Real Madrid - Real Sociedad</t>
+          <t>Isparta 32 Spor - Kepez Belediyespor</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="F16" t="n">
         <v>1.91</v>
       </c>
       <c r="G16" t="n">
-        <v>0.53</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>01-04-2025 20:00</t>
+          <t>02-04-2025 14:00</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>SWEDEN</t>
+          <t>TURKEY</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>SUPERETTAN</t>
+          <t>2. LIG</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Orebro SK - Vasteras SK FK</t>
+          <t>Belediye Derincespor - Ankara Demirspor</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>74.5</v>
+        <v>80</v>
       </c>
       <c r="F17" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="G17" t="n">
-        <v>0.34</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>01-04-2025 02:00</t>
+          <t>02-04-2025 14:00</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>TURKEY</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>US OPEN CUP</t>
+          <t>3. LIG - GROUP 1</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Tormenta - Foro</t>
+          <t>Silifke Belediyespor - Kütahyaspor</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>69.3</v>
+        <v>72</v>
       </c>
       <c r="F18" t="n">
-        <v>2.1</v>
+        <v>1.7</v>
       </c>
       <c r="G18" t="n">
-        <v>0.46</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>01-04-2025 22:00</t>
+          <t>02-04-2025 14:00</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>TURKEY</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>CAF CHAMPIONS LEAGUE</t>
+          <t>3. LIG - GROUP 2</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Pyramids FC - FAR Rabat</t>
+          <t>Türk Metal 1963 - Fatsa Belediyespor</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>66.7</v>
+        <v>68</v>
       </c>
       <c r="F19" t="n">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="G19" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>01-04-2025 22:00</t>
+          <t>03-04-2025 01:30</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>CAF CHAMPIONS LEAGUE</t>
+          <t>US OPEN CUP</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>MC Alger - Orlando Pirates</t>
+          <t>Loudoun United - Virginia Dream</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F20" t="n">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="G20" t="n">
-        <v>0.5</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>02-04-2025 21:45</t>
+          <t>03-04-2025 22:15</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>PORTUGAL</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>PREMIER LEAGUE</t>
+          <t>TAÇA DE PORTUGAL</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Bournemouth - Ipswich</t>
+          <t>Sporting CP - Rio Ave</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>80</v>
+        <v>83.3</v>
       </c>
       <c r="F21" t="n">
-        <v>1.8</v>
+        <v>2.15</v>
       </c>
       <c r="G21" t="n">
-        <v>0.44</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>02-04-2025 21:45</t>
+          <t>03-04-2025 21:30</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>SWITZERLAND</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>PREMIER LEAGUE</t>
+          <t>SUPER LEAGUE</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Manchester City - Leicester</t>
+          <t>FC Basel 1893 - Grasshoppers</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>70</v>
+        <v>76.7</v>
       </c>
       <c r="F22" t="n">
-        <v>1.95</v>
+        <v>1.7</v>
       </c>
       <c r="G22" t="n">
-        <v>0.36</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>03-04-2025 01:00</t>
+          <t>03-04-2025 20:30</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>TURKEY</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>CONMEBOL LIBERTADORES</t>
+          <t>CUP</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>San Antonio Bulo Bulo - Olimpia</t>
+          <t>Besiktas - Goztepe</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>84</v>
+        <v>66.7</v>
       </c>
       <c r="F23" t="n">
-        <v>1.91</v>
+        <v>1.77</v>
       </c>
       <c r="G23" t="n">
-        <v>0.6</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>02-04-2025 16:45</t>
+          <t>03-04-2025 16:00</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>BULGARIA</t>
+          <t>UGANDA</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>FIRST LEAGUE</t>
+          <t>PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Botev Plovdiv - Beroe</t>
+          <t>Bright Stars - Police</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>66.7</v>
+        <v>82.5</v>
       </c>
       <c r="F24" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="G24" t="n">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>02-04-2025 13:00</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>CHINA</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>SUPER LEAGUE</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>Shanghai Shenhua - Yunnan Yukun</t>
-        </is>
-      </c>
-      <c r="E25" t="n">
-        <v>76</v>
-      </c>
-      <c r="F25" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0.39</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>02-04-2025 22:00</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>FRANCE</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>COUPE DE FRANCE</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>Cannes - Reims</t>
-        </is>
-      </c>
-      <c r="E26" t="n">
-        <v>72</v>
-      </c>
-      <c r="F26" t="n">
-        <v>2</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0.44</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>02-04-2025 21:30</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>GUATEMALA</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>LIGA NACIONAL</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>Municipal - Antigua GFC</t>
-        </is>
-      </c>
-      <c r="E27" t="n">
-        <v>66.7</v>
-      </c>
-      <c r="F27" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="G27" t="n">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>02-04-2025 13:00</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>JAPAN</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>J1 LEAGUE</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>Tokyo Verdy - FC Tokyo</t>
-        </is>
-      </c>
-      <c r="E28" t="n">
-        <v>66.7</v>
-      </c>
-      <c r="F28" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="G28" t="n">
-        <v>0.43</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>02-04-2025 13:00</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>JAPAN</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>J1 LEAGUE</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>Gamba Osaka - Machida Zelvia</t>
-        </is>
-      </c>
-      <c r="E29" t="n">
-        <v>76.7</v>
-      </c>
-      <c r="F29" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0.57</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>02-04-2025 17:00</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>SLOVAKIA</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>2. LIGA</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>Stará Ľubovňa - Šamorín</t>
-        </is>
-      </c>
-      <c r="E30" t="n">
-        <v>84</v>
-      </c>
-      <c r="F30" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="G30" t="n">
-        <v>0.47</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>02-04-2025 21:30</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>SWITZERLAND</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>SUPER LEAGUE</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>FC Sion - FC Winterthur</t>
-        </is>
-      </c>
-      <c r="E31" t="n">
-        <v>78.90000000000001</v>
-      </c>
-      <c r="F31" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="G31" t="n">
-        <v>0.36</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>02-04-2025 05:00</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>USA</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>US OPEN CUP</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>Monterey Bay - El Farolito</t>
-        </is>
-      </c>
-      <c r="E32" t="n">
-        <v>72</v>
-      </c>
-      <c r="F32" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0.4</v>
+        <v>0.77</v>
       </c>
     </row>
   </sheetData>

--- a/scraper/data/betclever_predictions.xlsx
+++ b/scraper/data/betclever_predictions.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,91 +475,91 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>02-04-2025 22:00</t>
+          <t>04-04-2025 01:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>POLAND</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>SUPER CUP</t>
+          <t>CONMEBOL SUDAMERICANA</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Jagiellonia - Wisla Krakow</t>
+          <t>Gualberto Villarroel SJ - Union Espanola</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>78.3</v>
+        <v>90</v>
       </c>
       <c r="F2" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>02-04-2025 13:00</t>
+          <t>04-04-2025 00:45</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>PORTUGAL</t>
+          <t>ARGENTINA</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>LIGA REVELAÇÃO U23</t>
+          <t>COPA ARGENTINA</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Torreense U23 - Estrela U23</t>
+          <t>Instituto Cordoba - Deportivo Madryn</t>
         </is>
       </c>
       <c r="E3" t="n">
         <v>73.3</v>
       </c>
       <c r="F3" t="n">
-        <v>1.73</v>
+        <v>1.85</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>04-04-2025 01:00</t>
+          <t>03-04-2025 21:30</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>SWITZERLAND</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>CONMEBOL SUDAMERICANA</t>
+          <t>SUPER LEAGUE</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Gualberto Villarroel SJ - Union Espanola</t>
+          <t>FC Luzern - FC ST. Gallen</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>90</v>
+        <v>73.3</v>
       </c>
       <c r="F4" t="n">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>04-04-2025 00:45</t>
+          <t>05-04-2025 01:00</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -569,47 +569,187 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>COPA ARGENTINA</t>
+          <t>LIGA PROFESIONAL ARGENTINA</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Instituto Cordoba - Deportivo Madryn</t>
+          <t>Estudiantes L.P. - Belgrano Cordoba</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>73.3</v>
+        <v>71.7</v>
       </c>
       <c r="F5" t="n">
-        <v>1.85</v>
+        <v>1.73</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>03-04-2025 21:30</t>
+          <t>04-04-2025 21:45</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>SWITZERLAND</t>
+          <t>BELGIUM</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>SUPER LEAGUE</t>
+          <t>JUPILER PRO LEAGUE</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>FC Luzern - FC ST. Gallen</t>
+          <t>KV Mechelen - Dender</t>
         </is>
       </c>
       <c r="E6" t="n">
         <v>73.3</v>
       </c>
       <c r="F6" t="n">
-        <v>2.2</v>
+        <v>1.85</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>04-04-2025 21:00</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>ENGLAND</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>PREMIER LEAGUE 2 DIVISION ONE</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Sunderland U21 - Nottingham Forest U21</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>80</v>
+      </c>
+      <c r="F7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>04-04-2025 15:00</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>ENGLAND</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>PROFESSIONAL DEVELOPMENT LEAGUE</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>AFC Bournemouth U21 - Bristol City U21</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>80</v>
+      </c>
+      <c r="F8" t="n">
+        <v>2.35</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>04-04-2025 20:00</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>GERMANY</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>REGIONALLIGA - NORDOST</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>FSV Zwickau - Hertha BSC II</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>86.7</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1.85</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>04-04-2025 21:30</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>SPAIN</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>PRIMERA DIVISIÓN RFEF - GROUP 2</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Atlético Madrid II - Intercity</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>80</v>
+      </c>
+      <c r="F10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>04-04-2025 15:00</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>THAILAND</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>THAI LEAGUE 1</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Chiangrai United - Nong Bua Pitchaya</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>86.7</v>
+      </c>
+      <c r="F11" t="n">
+        <v>2.1</v>
       </c>
     </row>
   </sheetData>
@@ -623,7 +763,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -666,57 +806,29 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>01-04-2025 21:45</t>
+          <t>05-04-2025 01:45</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>MEXICO</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>LEAGUE ONE</t>
+          <t>U23 LEAGUE</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Cambridge United - Wrexham</t>
+          <t>Club Tijuana U23 - Necaxa U23</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>70</v>
+        <v>73.3</v>
       </c>
       <c r="F2" t="n">
-        <v>1.85</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>02-04-2025 01:00</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>WORLD</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>CONMEBOL SUDAMERICANA</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Boston River - Club Guarani</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>70</v>
-      </c>
-      <c r="F3" t="n">
-        <v>3.6</v>
+        <v>1.95</v>
       </c>
     </row>
   </sheetData>
@@ -730,7 +842,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -773,309 +885,393 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>02-04-2025 21:45</t>
+          <t>03-04-2025 18:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>MEXICO</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>PREMIER LEAGUE</t>
+          <t>U23 LEAGUE</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Bournemouth - Ipswich</t>
+          <t>Monterrey U23 - Guadalajara U23</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>80</v>
+        <v>83.3</v>
       </c>
       <c r="F2" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>03-04-2025 01:00</t>
+          <t>03-04-2025 22:15</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>PORTUGAL</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CONMEBOL LIBERTADORES</t>
+          <t>TAÇA DE PORTUGAL</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>San Antonio Bulo Bulo - Olimpia</t>
+          <t>Sporting CP - Rio Ave</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>84</v>
+        <v>83.3</v>
       </c>
       <c r="F3" t="n">
-        <v>1.91</v>
+        <v>2.15</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>02-04-2025 13:00</t>
+          <t>03-04-2025 18:00</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>CHINA</t>
+          <t>SAUDI-ARABIA</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>SUPER LEAGUE</t>
+          <t>DIVISION 1</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Shanghai Shenhua - Yunnan Yukun</t>
+          <t>Al Suqoor - Al Taee</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="F4" t="n">
-        <v>1.83</v>
+        <v>1.87</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>02-04-2025 16:00</t>
+          <t>03-04-2025 16:00</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ITALY</t>
+          <t>UGANDA</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>SERIE D - GIRONE I</t>
+          <t>PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Locri 1909 - Igea Virtus</t>
+          <t>Bright Stars - Police</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>76.7</v>
+        <v>82.5</v>
       </c>
       <c r="F5" t="n">
-        <v>1.75</v>
+        <v>2.15</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>02-04-2025 13:00</t>
+          <t>04-04-2025 21:00</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>JAPAN</t>
+          <t>NETHERLANDS</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>J1 LEAGUE</t>
+          <t>EREDIVISIE</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Gamba Osaka - Machida Zelvia</t>
+          <t>Heerenveen - Willem II</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>76.7</v>
+        <v>80</v>
       </c>
       <c r="F6" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>02-04-2025 17:00</t>
+          <t>04-04-2025 22:15</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>SLOVAKIA</t>
+          <t>PORTUGAL</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2. LIGA</t>
+          <t>PRIMEIRA LIGA</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Stará Ľubovňa - Šamorín</t>
+          <t>AVS - Estoril</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F7" t="n">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>02-04-2025 21:30</t>
+          <t>04-04-2025 05:00</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>SWITZERLAND</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>SUPER LEAGUE</t>
+          <t>CONMEBOL SUDAMERICANA</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>FC Sion - FC Winterthur</t>
+          <t>Mushuc Runa SC - Palestino</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>78.90000000000001</v>
+        <v>80</v>
       </c>
       <c r="F8" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>02-04-2025 14:00</t>
+          <t>04-04-2025 21:45</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>TURKEY</t>
+          <t>BELGIUM</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2. LIG</t>
+          <t>JUPILER PRO LEAGUE</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Belediye Derincespor - Ankara Demirspor</t>
+          <t>KV Mechelen - Dender</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>80</v>
+        <v>83.3</v>
       </c>
       <c r="F9" t="n">
-        <v>1.91</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>03-04-2025 22:15</t>
+          <t>04-04-2025 20:00</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>PORTUGAL</t>
+          <t>GERMANY</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>TAÇA DE PORTUGAL</t>
+          <t>REGIONALLIGA - NORDOST</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Sporting CP - Rio Ave</t>
+          <t>FSV Zwickau - Hertha BSC II</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>83.3</v>
+        <v>86.7</v>
       </c>
       <c r="F10" t="n">
-        <v>2.15</v>
+        <v>1.77</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>03-04-2025 21:30</t>
+          <t>04-04-2025 04:00</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>SWITZERLAND</t>
+          <t>MEXICO</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>SUPER LEAGUE</t>
+          <t>LIGA DE EXPANSIÓN MX</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>FC Basel 1893 - Grasshoppers</t>
+          <t>Correcaminos Uat - Atlante FC</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>76.7</v>
+        <v>83.3</v>
       </c>
       <c r="F11" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>03-04-2025 16:00</t>
+          <t>04-04-2025 02:30</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>UGANDA</t>
+          <t>PARAGUAY</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>PREMIER LEAGUE</t>
+          <t>DIVISION PROFESIONAL - APERTURA</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Bright Stars - Police</t>
+          <t>Sportivo Ameliano - Sportivo Trinidense</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>82.5</v>
+        <v>76.7</v>
       </c>
       <c r="F12" t="n">
-        <v>2.15</v>
+        <v>1.93</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>04-04-2025 18:40</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>SAUDI-ARABIA</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>DIVISION 1</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Al-Adalah - Abha</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>75.59999999999999</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>04-04-2025 21:30</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>SPAIN</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>PRIMERA DIVISIÓN RFEF - GROUP 1</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Celta De Vigo II - Barcelona B</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>86.7</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1.73</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>04-04-2025 20:00</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>SWEDEN</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>ETTAN - SÖDRA</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Hässleholms IF - Rosengård</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>80</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1.75</v>
       </c>
     </row>
   </sheetData>
@@ -1089,7 +1285,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1142,41 +1338,41 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>03-04-2025 01:00</t>
+          <t>03-04-2025 12:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>AZERBAIJAN</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>CONMEBOL LIBERTADORES</t>
+          <t>BIRINCI DASTA</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>San Antonio Bulo Bulo - Olimpia</t>
+          <t>Cəbrayıl - Qaradağ Lökbatan</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>66.7</v>
+        <v>80</v>
       </c>
       <c r="F2" t="n">
-        <v>1.95</v>
+        <v>2.3</v>
       </c>
       <c r="G2" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="H2" t="n">
-        <v>3.4</v>
+        <v>4.33</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>02-04-2025 21:00</t>
+          <t>03-04-2025 21:00</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -1191,17 +1387,17 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>RB Bragantino U20 - Cruzeiro U20</t>
+          <t>Santos U20 - Palmeiras U20</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="F3" t="n">
         <v>1.5</v>
       </c>
       <c r="G3" t="n">
-        <v>66.7</v>
+        <v>60</v>
       </c>
       <c r="H3" t="n">
         <v>2.25</v>
@@ -1210,202 +1406,202 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>02-04-2025 13:00</t>
+          <t>03-04-2025 21:00</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>JAPAN</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>J1 LEAGUE</t>
+          <t>BRASILEIRO U20 A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Nagoya Grampus - Yokohama F. Marinos</t>
+          <t>Vasco Da Gama U20 - Atlético GO U20</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="F4" t="n">
-        <v>2</v>
+        <v>1.57</v>
       </c>
       <c r="G4" t="n">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="H4" t="n">
-        <v>3.5</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>02-04-2025 13:00</t>
+          <t>03-04-2025 18:35</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>JAPAN</t>
+          <t>KUWAIT</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>J1 LEAGUE</t>
+          <t>PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Gamba Osaka - Machida Zelvia</t>
+          <t>Al Kuwait - Al Tadhamon</t>
         </is>
       </c>
       <c r="E5" t="n">
         <v>80</v>
       </c>
       <c r="F5" t="n">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="G5" t="n">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="H5" t="n">
-        <v>5</v>
+        <v>2.38</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>02-04-2025 17:00</t>
+          <t>04-04-2025 12:45</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>SLOVAKIA</t>
+          <t>AUSTRALIA</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2. LIGA</t>
+          <t>SOUTH AUSTRALIA NPL</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Stará Ľubovňa - Šamorín</t>
+          <t>West Torrens Birkalla - White City Woodville</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="F6" t="n">
-        <v>1.73</v>
+        <v>1.5</v>
       </c>
       <c r="G6" t="n">
-        <v>73.3</v>
+        <v>60</v>
       </c>
       <c r="H6" t="n">
-        <v>2.88</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>02-04-2025 17:00</t>
+          <t>04-04-2025 11:30</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>AUSTRALIA</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>UEFA YOUTH LEAGUE</t>
+          <t>VICTORIA NPL</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Stuttgart U19 - Barcelona U19</t>
+          <t>Melbourne Knights - Preston Lions</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>100</v>
+        <v>93.3</v>
       </c>
       <c r="F7" t="n">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="G7" t="n">
         <v>66.7</v>
       </c>
       <c r="H7" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>03-04-2025 18:35</t>
+          <t>04-04-2025 19:00</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>KUWAIT</t>
+          <t>AUSTRIA</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>PREMIER LEAGUE</t>
+          <t>2. LIGA</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Al Kuwait - Al Tadhamon</t>
+          <t>Rapid Wien II - First Vienna</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="F8" t="n">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="G8" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="H8" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>03-04-2025 03:30</t>
+          <t>04-04-2025 20:30</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>AUSTRIA</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>US OPEN CUP</t>
+          <t>REGIONALLIGA - OST</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Des Moines Menace - Union Omaha</t>
+          <t>Traiskirchen - Favoritner AC</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>86.7</v>
+        <v>85</v>
       </c>
       <c r="F9" t="n">
         <v>1.57</v>
       </c>
       <c r="G9" t="n">
-        <v>73.3</v>
+        <v>75</v>
       </c>
       <c r="H9" t="n">
         <v>2.4</v>
@@ -1414,35 +1610,205 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>03-04-2025 05:30</t>
+          <t>04-04-2025 19:00</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>BAHRAIN</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>US OPEN CUP</t>
+          <t>PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>LA Galaxy II - El Paso Locomotive</t>
+          <t>Muharraq - Malkiya</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>71.8</v>
+        <v>81.8</v>
       </c>
       <c r="F10" t="n">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="G10" t="n">
         <v>61.8</v>
       </c>
       <c r="H10" t="n">
-        <v>2.4</v>
+        <v>2.63</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>04-04-2025 20:00</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>GERMANY</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>REGIONALLIGA - NORDOST</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Hertha Zehlendorf - FC Rot-Weiß Erfurt</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>73.3</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="G11" t="n">
+        <v>60</v>
+      </c>
+      <c r="H11" t="n">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>04-04-2025 20:00</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>GERMANY</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>REGIONALLIGA - NORDOST</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>FSV Zwickau - Hertha BSC II</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>85</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="G12" t="n">
+        <v>70</v>
+      </c>
+      <c r="H12" t="n">
+        <v>3.25</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>04-04-2025 18:00</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>LATVIA</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>VIRSLIGA</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>BFC Daugavpils - Auda</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>85</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="G13" t="n">
+        <v>35</v>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>04-04-2025 20:00</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>SWEDEN</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>ETTAN - NORRA</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>AFC Eskilstuna - Enköping</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>80</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="G14" t="n">
+        <v>60</v>
+      </c>
+      <c r="H14" t="n">
+        <v>2.38</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>04-04-2025 02:00</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>URUGUAY</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>SEGUNDA DIVISIÓN</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Deportivo Maldonado - Tacuarembo</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>66.8</v>
+      </c>
+      <c r="F15" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="G15" t="n">
+        <v>61.8</v>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1456,7 +1822,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G51"/>
+  <dimension ref="A1:G53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1504,246 +1870,246 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>02-04-2025 21:45</t>
+          <t>04-04-2025 01:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>PREMIER LEAGUE</t>
+          <t>CONMEBOL SUDAMERICANA</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Brighton - Aston Villa</t>
+          <t>Gualberto Villarroel SJ - Union Espanola</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>53.3</v>
+        <v>90</v>
       </c>
       <c r="F2" t="n">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="G2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>02-04-2025 21:45</t>
+          <t>04-04-2025 00:45</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>ARGENTINA</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CHAMPIONSHIP</t>
+          <t>COPA ARGENTINA</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Derby - Preston</t>
+          <t>Instituto Cordoba - Deportivo Madryn</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>53.3</v>
+        <v>73.3</v>
       </c>
       <c r="F3" t="n">
-        <v>2.4</v>
+        <v>1.85</v>
       </c>
       <c r="G3" t="n">
-        <v>0.28</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>03-04-2025 01:00</t>
+          <t>03-04-2025 12:00</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>AZERBAIJAN</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>CONMEBOL SUDAMERICANA</t>
+          <t>BIRINCI DASTA</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>FBC Melgar - Vasco DA Gama</t>
+          <t>Cəbrayıl - Qaradağ Lökbatan</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>60</v>
+        <v>53.3</v>
       </c>
       <c r="F4" t="n">
-        <v>2.24</v>
+        <v>2</v>
       </c>
       <c r="G4" t="n">
-        <v>0.34</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>02-04-2025 21:30</t>
+          <t>03-04-2025 17:00</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>AUSTRIA</t>
+          <t>BULGARIA</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>CUP</t>
+          <t>SECOND LEAGUE</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Austria Vienna - TSV Hartberg</t>
+          <t>Yantra 2019 - CSKA Sofia II</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F5" t="n">
-        <v>1.7</v>
+        <v>2.1</v>
       </c>
       <c r="G5" t="n">
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>02-04-2025 21:00</t>
+          <t>03-04-2025 02:00</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>JAMAICA</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>BRASILEIRO U20 A</t>
+          <t>PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>RB Bragantino U20 - Cruzeiro U20</t>
+          <t>Waterhouse - Montego Bay United</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>60</v>
+        <v>53.3</v>
       </c>
       <c r="F6" t="n">
-        <v>2.55</v>
+        <v>4.75</v>
       </c>
       <c r="G6" t="n">
-        <v>0.53</v>
+        <v>1.53</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>02-04-2025 21:30</t>
+          <t>03-04-2025 18:00</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>MEXICO</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>MARANHENSE</t>
+          <t>U23 LEAGUE</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Tuntum - Maranhão</t>
+          <t>Monterrey U23 - Guadalajara U23</t>
         </is>
       </c>
       <c r="E7" t="n">
         <v>60</v>
       </c>
       <c r="F7" t="n">
-        <v>4.2</v>
+        <v>2.1</v>
       </c>
       <c r="G7" t="n">
-        <v>1.52</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>02-04-2025 17:00</t>
+          <t>03-04-2025 20:00</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>BULGARIA</t>
+          <t>ROMANIA</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>SECOND LEAGUE</t>
+          <t>CUPA ROMÂNIEI</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>FK Minyor Pernik - Fratria</t>
+          <t>CFR 1907 Cluj - Universitatea Craiova</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>60</v>
+        <v>53.3</v>
       </c>
       <c r="F8" t="n">
-        <v>1.8</v>
+        <v>2.15</v>
       </c>
       <c r="G8" t="n">
-        <v>0.08</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>02-04-2025 10:30</t>
+          <t>03-04-2025 17:00</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>CHINA</t>
+          <t>ROMANIA</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>SUPER LEAGUE</t>
+          <t>LIGA II</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Changchun Yatai - Wuhan Three Towns</t>
+          <t>Csikszereda - CSA Steaua Bucureşti</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F9" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="G9" t="n">
         <v>0.1</v>
@@ -1752,704 +2118,704 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>02-04-2025 18:00</t>
+          <t>03-04-2025 21:30</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>CROATIA</t>
+          <t>SWITZERLAND</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>CUP</t>
+          <t>SUPER LEAGUE</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>NK Slaven Belupo - NK Osijek</t>
+          <t>FC Luzern - FC ST. Gallen</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>66.7</v>
+        <v>73.3</v>
       </c>
       <c r="F10" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="G10" t="n">
-        <v>0.53</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>02-04-2025 19:00</t>
+          <t>03-04-2025 20:30</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>CYPRUS</t>
+          <t>TURKEY</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>1. DIVISION</t>
+          <t>CUP</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Aris - Pafos</t>
+          <t>Besiktas - Goztepe</t>
         </is>
       </c>
       <c r="E11" t="n">
         <v>53.3</v>
       </c>
       <c r="F11" t="n">
-        <v>2.55</v>
+        <v>1.79</v>
       </c>
       <c r="G11" t="n">
-        <v>0.36</v>
+        <v>-0.05</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>02-04-2025 16:30</t>
+          <t>04-04-2025 22:00</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>CYPRUS</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2. DIVISION</t>
+          <t>CHAMPIONSHIP</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>MEAP Nisou - Spartakos Kitiou</t>
+          <t>Blackburn - Middlesbrough</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>60</v>
+        <v>53.3</v>
       </c>
       <c r="F12" t="n">
-        <v>2.2</v>
+        <v>2.75</v>
       </c>
       <c r="G12" t="n">
-        <v>0.32</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>02-04-2025 22:00</t>
+          <t>04-04-2025 22:00</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>FRANCE</t>
+          <t>SPAIN</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>COUPE DE FRANCE</t>
+          <t>LA LIGA</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Cannes - Reims</t>
+          <t>Rayo Vallecano - Espanyol</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>60</v>
+        <v>53.3</v>
       </c>
       <c r="F13" t="n">
-        <v>5.25</v>
+        <v>1.73</v>
       </c>
       <c r="G13" t="n">
-        <v>2.15</v>
+        <v>-0.08</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>02-04-2025 20:00</t>
+          <t>04-04-2025 19:00</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>GERMANY</t>
+          <t>CROATIA</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>REGIONALLIGA - SUDWEST</t>
+          <t>HNL</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Eintracht Frankfurt II - TSV Steinbach</t>
+          <t>NK Varazdin - HNK Gorica</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>60</v>
+        <v>53.3</v>
       </c>
       <c r="F14" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="G14" t="n">
-        <v>0.26</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>02-04-2025 17:00</t>
+          <t>04-04-2025 21:00</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>GREECE</t>
+          <t>NETHERLANDS</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>CUP</t>
+          <t>EERSTE DIVISIE</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>OFI - Asteras Tripolis</t>
+          <t>Vitesse - Jong AZ</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>53.3</v>
+        <v>50</v>
       </c>
       <c r="F15" t="n">
-        <v>2.55</v>
+        <v>1.85</v>
       </c>
       <c r="G15" t="n">
-        <v>0.36</v>
+        <v>-0.07000000000000001</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>02-04-2025 02:15</t>
+          <t>05-04-2025 01:00</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>HONDURAS</t>
+          <t>ARGENTINA</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>LIGA NACIONAL</t>
+          <t>LIGA PROFESIONAL ARGENTINA</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Victoria - Lobos Upnfm</t>
+          <t>Estudiantes L.P. - Belgrano Cordoba</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>60</v>
+        <v>71.7</v>
       </c>
       <c r="F16" t="n">
         <v>1.73</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>02-04-2025 19:30</t>
+          <t>04-04-2025 11:30</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>ITALY</t>
+          <t>AUSTRALIA</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>SERIE C - GIRONE A</t>
+          <t>NEW SOUTH WALES NPL</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Pro Patria - Atalanta II</t>
+          <t>St. George Saints - Central Coast II</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>66.7</v>
+        <v>50</v>
       </c>
       <c r="F17" t="n">
-        <v>2.5</v>
+        <v>1.73</v>
       </c>
       <c r="G17" t="n">
-        <v>0.67</v>
+        <v>-0.14</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>02-04-2025 23:30</t>
+          <t>04-04-2025 12:15</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>JAMAICA</t>
+          <t>AUSTRALIA</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>PREMIER LEAGUE</t>
+          <t>NEW SOUTH WALES NPL 2</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Harbour View - Racing United</t>
+          <t>Blacktown Spartans - UNSW</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>53.3</v>
+        <v>60</v>
       </c>
       <c r="F18" t="n">
-        <v>3.4</v>
+        <v>1.95</v>
       </c>
       <c r="G18" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>02-04-2025 13:00</t>
+          <t>04-04-2025 12:00</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>JAPAN</t>
+          <t>AUSTRALIA</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>J1 LEAGUE</t>
+          <t>SOUTH AUSTRALIA NPL</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Yokohama FC - Vissel Kobe</t>
+          <t>Campbelltown City - Adelaide Comets</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="F19" t="n">
-        <v>3.5</v>
+        <v>1.75</v>
       </c>
       <c r="G19" t="n">
-        <v>0.75</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>02-04-2025 13:00</t>
+          <t>04-04-2025 11:30</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>JAPAN</t>
+          <t>AUSTRALIA</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>J1 LEAGUE</t>
+          <t>VICTORIA NPL</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Cerezo Osaka - Fagiano Okayama</t>
+          <t>Melbourne Knights - Preston Lions</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F20" t="n">
-        <v>2.15</v>
+        <v>2.4</v>
       </c>
       <c r="G20" t="n">
-        <v>0.29</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>02-04-2025 02:00</t>
+          <t>04-04-2025 11:30</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>MEXICO</t>
+          <t>AUSTRALIA</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>LIGA PREMIER SERIE A</t>
+          <t>VICTORIA NPL</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>UA Zacatecas - Mineros De Fresnillo</t>
+          <t>Heidelberg United - Green Gully</t>
         </is>
       </c>
       <c r="E21" t="n">
         <v>60</v>
       </c>
       <c r="F21" t="n">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>02-04-2025 15:00</t>
+          <t>04-04-2025 19:00</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>MONTENEGRO</t>
+          <t>AUSTRIA</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>SECOND LEAGUE</t>
+          <t>2. LIGA</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Lovćen - Ibar</t>
+          <t>Schwarz-Weiß Bregenz - Stripfing</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>51</v>
+        <v>53.3</v>
       </c>
       <c r="F22" t="n">
-        <v>1.73</v>
+        <v>2.2</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.12</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>02-04-2025 22:00</t>
+          <t>04-04-2025 19:00</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>POLAND</t>
+          <t>AUSTRIA</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>SUPER CUP</t>
+          <t>2. LIGA</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Jagiellonia - Wisla Krakow</t>
+          <t>SV Kapfenberg - SV Lafnitz</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>78.3</v>
+        <v>60</v>
       </c>
       <c r="F23" t="n">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="G23" t="n">
-        <v>0.37</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>02-04-2025 17:00</t>
+          <t>04-04-2025 20:30</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>PORTUGAL</t>
+          <t>AUSTRIA</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>LIGA REVELAÇÃO U23</t>
+          <t>BUNDESLIGA</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Estoril U23 - Vizela U23</t>
+          <t>Sturm Graz - Rapid Vienna</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>66.7</v>
+        <v>60</v>
       </c>
       <c r="F24" t="n">
-        <v>2.45</v>
+        <v>2.2</v>
       </c>
       <c r="G24" t="n">
-        <v>0.63</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>02-04-2025 13:00</t>
+          <t>04-04-2025 20:30</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>PORTUGAL</t>
+          <t>AUSTRIA</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>LIGA REVELAÇÃO U23</t>
+          <t>REGIONALLIGA - OST</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Torreense U23 - Estrela U23</t>
+          <t>TWL Elektra - Fach-Donaufeld</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>73.3</v>
+        <v>56.7</v>
       </c>
       <c r="F25" t="n">
-        <v>1.73</v>
+        <v>2.05</v>
       </c>
       <c r="G25" t="n">
-        <v>0.27</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>02-04-2025 16:00</t>
+          <t>04-04-2025 20:00</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>RWANDA</t>
+          <t>AUSTRIA</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>NATIONAL SOCCER LEAGUE</t>
+          <t>REGIONALLIGA - WEST</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Mukura - Rutsiro</t>
+          <t>Wals-Grünau - Pinzgau Saalfelden</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>50</v>
+        <v>51.3</v>
       </c>
       <c r="F26" t="n">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="G26" t="n">
-        <v>0.12</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>02-04-2025 20:00</t>
+          <t>04-04-2025 21:00</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>SLOVENIA</t>
+          <t>BELGIUM</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>CUP</t>
+          <t>CHALLENGER PRO LEAGUE</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Maribor - Celje</t>
+          <t>Waasland-beveren - AS Eupen</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>53.3</v>
+        <v>60</v>
       </c>
       <c r="F27" t="n">
-        <v>2.25</v>
+        <v>1.95</v>
       </c>
       <c r="G27" t="n">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>02-04-2025 14:30</t>
+          <t>04-04-2025 21:00</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>THAILAND</t>
+          <t>BELGIUM</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>THAI LEAGUE 2</t>
+          <t>FIRST AMATEUR DIVISION</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Trat FC - Kasetsart FC</t>
+          <t>Tienen - Cercle Brugge II</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>66.7</v>
+        <v>60</v>
       </c>
       <c r="F28" t="n">
-        <v>2.8</v>
+        <v>2.25</v>
       </c>
       <c r="G28" t="n">
-        <v>0.87</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>02-04-2025 13:00</t>
+          <t>04-04-2025 21:45</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>TURKEY</t>
+          <t>BELGIUM</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>2. LIG</t>
+          <t>JUPILER PRO LEAGUE</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Fethiyespor - Hekimoğlu Trabzon</t>
+          <t>KV Mechelen - Dender</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>53.3</v>
+        <v>73.3</v>
       </c>
       <c r="F29" t="n">
-        <v>2.5</v>
+        <v>1.85</v>
       </c>
       <c r="G29" t="n">
-        <v>0.33</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>02-04-2025 14:00</t>
+          <t>04-04-2025 03:00</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>TURKEY</t>
+          <t>BOLIVIA</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>2. LIG</t>
+          <t>PRIMERA DIVISIÓN</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>İçel İdmanyurdu Spor - Diyarbekirspor</t>
+          <t>Oriente Petrolero - Universitario De Vinto</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="F30" t="n">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="G30" t="n">
-        <v>0.17</v>
+        <v>-0.08</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>02-04-2025 14:00</t>
+          <t>04-04-2025 17:30</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>TURKEY</t>
+          <t>CROATIA</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>2. LIG</t>
+          <t>FIRST NL</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Karacabey Belediyespor - Buca FK</t>
+          <t>Sesvete - Dugopolje</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>55.7</v>
+        <v>60</v>
       </c>
       <c r="F31" t="n">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>02-04-2025 14:00</t>
+          <t>04-04-2025 19:00</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>TURKEY</t>
+          <t>CZECH-REPUBLIC</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>2. LIG</t>
+          <t>FNL</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Elazığspor - 68 Aksaray Belediyespor</t>
+          <t>Vysočina Jihlava - Prostějov</t>
         </is>
       </c>
       <c r="E32" t="n">
@@ -2465,590 +2831,652 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>02-04-2025 14:00</t>
+          <t>04-04-2025 21:00</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>TURKEY</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>3. LIG - GROUP 3</t>
+          <t>PREMIER LEAGUE 2 DIVISION ONE</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Efeler 09 Spor - Çorluspor 1947</t>
+          <t>Sunderland U21 - Nottingham Forest U21</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="F33" t="n">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="G33" t="n">
-        <v>1.1</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>02-04-2025 14:00</t>
+          <t>04-04-2025 15:00</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>TURKEY</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>3. LIG - GROUP 4</t>
+          <t>PROFESSIONAL DEVELOPMENT LEAGUE</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Denizlispor - Ağrı 1970</t>
+          <t>AFC Bournemouth U21 - Bristol City U21</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="F34" t="n">
-        <v>3.9</v>
+        <v>2.35</v>
       </c>
       <c r="G34" t="n">
-        <v>1.34</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>02-04-2025 02:30</t>
+          <t>04-04-2025 20:30</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>FRANCE</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>US OPEN CUP</t>
+          <t>NATIONAL 1</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Forward Madison - FC Tulsa</t>
+          <t>Quevilly - Nimes</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F35" t="n">
-        <v>3</v>
+        <v>1.95</v>
       </c>
       <c r="G35" t="n">
-        <v>0.5</v>
+        <v>-0.01</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>02-04-2025 18:00</t>
+          <t>04-04-2025 19:30</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>UKRAINE</t>
+          <t>GERMANY</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>CUP</t>
+          <t>REGIONALLIGA - NORD</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Veres Rivne - Polessya</t>
+          <t>VfB Oldenburg - Weiche Flensburg</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>53.3</v>
+        <v>50</v>
       </c>
       <c r="F36" t="n">
-        <v>3.4</v>
+        <v>1.75</v>
       </c>
       <c r="G36" t="n">
-        <v>0.8100000000000001</v>
+        <v>-0.12</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>03-04-2025 03:30</t>
+          <t>04-04-2025 20:00</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>GERMANY</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>CONMEBOL LIBERTADORES</t>
+          <t>REGIONALLIGA - NORDOST</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Universidad De Chile - Botafogo</t>
+          <t>Hertha Zehlendorf - FC Rot-Weiß Erfurt</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F37" t="n">
-        <v>2.62</v>
+        <v>3.3</v>
       </c>
       <c r="G37" t="n">
-        <v>0.57</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>03-04-2025 03:30</t>
+          <t>04-04-2025 20:00</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>GERMANY</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>CONMEBOL LIBERTADORES</t>
+          <t>REGIONALLIGA - NORDOST</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Talleres Cordoba - Sao Paulo</t>
+          <t>FSV Zwickau - Hertha BSC II</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>53.3</v>
+        <v>86.7</v>
       </c>
       <c r="F38" t="n">
-        <v>2.15</v>
+        <v>1.85</v>
       </c>
       <c r="G38" t="n">
-        <v>0.15</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>03-04-2025 05:00</t>
+          <t>04-04-2025 20:30</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>GERMANY</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>CONMEBOL SUDAMERICANA</t>
+          <t>REGIONALLIGA - WEST</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Atletico Grau - Godoy Cruz</t>
+          <t>Paderborn II - KFC Uerdingen 05</t>
         </is>
       </c>
       <c r="E39" t="n">
         <v>50</v>
       </c>
       <c r="F39" t="n">
-        <v>3.15</v>
+        <v>1.91</v>
       </c>
       <c r="G39" t="n">
-        <v>0.57</v>
+        <v>-0.05</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>04-04-2025 01:00</t>
+          <t>04-04-2025 21:45</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>IRELAND</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>CONMEBOL SUDAMERICANA</t>
+          <t>FIRST DIVISION</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Gualberto Villarroel SJ - Union Espanola</t>
+          <t>Cobh Ramblers - Wexford</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>90</v>
+        <v>53.3</v>
       </c>
       <c r="F40" t="n">
-        <v>2.1</v>
+        <v>1.7</v>
       </c>
       <c r="G40" t="n">
-        <v>0.89</v>
+        <v>-0.09</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>04-04-2025 00:45</t>
+          <t>04-04-2025 21:45</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>ARGENTINA</t>
+          <t>IRELAND</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>COPA ARGENTINA</t>
+          <t>FIRST DIVISION</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Instituto Cordoba - Deportivo Madryn</t>
+          <t>Finn Harps - Longford Town</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>73.3</v>
+        <v>53.3</v>
       </c>
       <c r="F41" t="n">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="G41" t="n">
-        <v>0.36</v>
+        <v>-0.07000000000000001</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>03-04-2025 17:00</t>
+          <t>04-04-2025 21:45</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>BULGARIA</t>
+          <t>IRELAND</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>SECOND LEAGUE</t>
+          <t>FIRST DIVISION</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Yantra 2019 - CSKA Sofia II</t>
+          <t>Treaty United - Kerry</t>
         </is>
       </c>
       <c r="E42" t="n">
         <v>50</v>
       </c>
       <c r="F42" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="G42" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>03-04-2025 04:00</t>
+          <t>04-04-2025 21:45</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>GUATEMALA</t>
+          <t>IRELAND</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>LIGA NACIONAL</t>
+          <t>PREMIER DIVISION</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Marquense - Comunicaciones</t>
+          <t>Drogheda United - Waterford</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F43" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="G43" t="n">
-        <v>0.26</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>04-04-2025 00:30</t>
+          <t>04-04-2025 21:45</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>JAMAICA</t>
+          <t>IRELAND</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>PREMIER LEAGUE</t>
+          <t>PREMIER DIVISION</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Dunbeholden - Chapelton</t>
+          <t>St Patrick's Athl. - Shelbourne</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>50</v>
+        <v>53.3</v>
       </c>
       <c r="F44" t="n">
-        <v>2.5</v>
+        <v>1.83</v>
       </c>
       <c r="G44" t="n">
-        <v>0.25</v>
+        <v>-0.02</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>03-04-2025 20:00</t>
+          <t>04-04-2025 21:30</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>ROMANIA</t>
+          <t>ITALY</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>CUPA ROMÂNIEI</t>
+          <t>SERIE C - GIRONE B</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>CFR 1907 Cluj - Universitatea Craiova</t>
+          <t>Pineto - Pescara</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>53.3</v>
+        <v>60</v>
       </c>
       <c r="F45" t="n">
-        <v>2.2</v>
+        <v>3.75</v>
       </c>
       <c r="G45" t="n">
-        <v>0.17</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>03-04-2025 17:00</t>
+          <t>04-04-2025 18:00</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>ROMANIA</t>
+          <t>MEXICO</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>LIGA II</t>
+          <t>U23 LEAGUE</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Csikszereda - CSA Steaua Bucureşti</t>
+          <t>Queretaro U23 - Club León U23</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>50</v>
+        <v>66.7</v>
       </c>
       <c r="F46" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="G46" t="n">
-        <v>0.1</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>03-04-2025 21:30</t>
+          <t>04-04-2025 19:00</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>SWITZERLAND</t>
+          <t>POLAND</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>SUPER LEAGUE</t>
+          <t>I LIGA</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>FC Luzern - FC ST. Gallen</t>
+          <t>Chrobry Głogów - Znicz Pruszków</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>73.3</v>
+        <v>60</v>
       </c>
       <c r="F47" t="n">
-        <v>2.2</v>
+        <v>2.65</v>
       </c>
       <c r="G47" t="n">
-        <v>0.61</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>03-04-2025 20:30</t>
+          <t>04-04-2025 19:10</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>TURKEY</t>
+          <t>SAUDI-ARABIA</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>CUP</t>
+          <t>DIVISION 1</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Besiktas - Goztepe</t>
+          <t>Al Jabalain - Al-Ain</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>53.3</v>
+        <v>56.7</v>
       </c>
       <c r="F48" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="G48" t="n">
-        <v>-0.09</v>
+        <v>-0.02</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>03-04-2025 03:30</t>
+          <t>04-04-2025 09:00</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>SOUTH-KOREA</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>US OPEN CUP</t>
+          <t>K3 LEAGUE</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Des Moines Menace - Union Omaha</t>
+          <t>Daejeon Korail - Gangneung City</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>60</v>
+        <v>66.7</v>
       </c>
       <c r="F49" t="n">
-        <v>3.9</v>
+        <v>1.85</v>
       </c>
       <c r="G49" t="n">
-        <v>1.34</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>03-04-2025 05:00</t>
+          <t>04-04-2025 21:30</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>SPAIN</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>US OPEN CUP</t>
+          <t>PRIMERA DIVISIÓN RFEF - GROUP 2</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Tacoma Defiance - Spokane Velocity</t>
+          <t>Atlético Madrid II - Intercity</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="F50" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="G50" t="n">
-        <v>-0.05</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>03-04-2025 05:30</t>
+          <t>04-04-2025 21:15</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>SWITZERLAND</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>US OPEN CUP</t>
+          <t>CHALLENGE LEAGUE</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>LA Galaxy II - El Paso Locomotive</t>
+          <t>FC Aarau - Stade Lausanne-Ouchy</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>62.3</v>
+        <v>60</v>
       </c>
       <c r="F51" t="n">
-        <v>2.62</v>
+        <v>1.75</v>
       </c>
       <c r="G51" t="n">
-        <v>0.63</v>
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>04-04-2025 15:00</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>THAILAND</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>THAI LEAGUE 1</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Chiangrai United - Nong Bua Pitchaya</t>
+        </is>
+      </c>
+      <c r="E52" t="n">
+        <v>86.7</v>
+      </c>
+      <c r="F52" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>04-04-2025 22:00</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>URUGUAY</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>SEGUNDA DIVISIÓN</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Albion FC - Central Espanol</t>
+        </is>
+      </c>
+      <c r="E53" t="n">
+        <v>58.3</v>
+      </c>
+      <c r="F53" t="n">
+        <v>2</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0.17</v>
       </c>
     </row>
   </sheetData>
@@ -3110,208 +3538,208 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>02-04-2025 21:45</t>
+          <t>03-04-2025 21:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>PREMIER LEAGUE</t>
+          <t>BRASILEIRO U20 A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Bournemouth - Ipswich</t>
+          <t>Santos U20 - Palmeiras U20</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>50</v>
+        <v>53.3</v>
       </c>
       <c r="F2" t="n">
-        <v>7</v>
+        <v>2.25</v>
       </c>
       <c r="G2" t="n">
-        <v>2.5</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>02-04-2025 21:45</t>
+          <t>03-04-2025 23:00</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>PREMIER LEAGUE</t>
+          <t>BRASILEIRO U20 A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Newcastle - Brentford</t>
+          <t>Fluminense U20 - Flamengo U20</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>53.3</v>
+        <v>50</v>
       </c>
       <c r="F3" t="n">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="G3" t="n">
-        <v>1.13</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>02-04-2025 21:00</t>
+          <t>03-04-2025 14:30</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>BULGARIA</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>BRASILEIRO U20 A</t>
+          <t>FIRST LEAGUE</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Atlético Mineiro U20 - Bahia U20</t>
+          <t>Hebar 1918 - Lokomotiv Plovdiv</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>50</v>
+        <v>55.7</v>
       </c>
       <c r="F4" t="n">
-        <v>3</v>
+        <v>2.35</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>02-04-2025 21:00</t>
+          <t>03-04-2025 16:30</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>EGYPT</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>BRASILEIRO U20 A</t>
+          <t>SECOND LEAGUE</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Fortaleza U20 - São Paulo U20</t>
+          <t>Tanta SC - El Dakhleya</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>66.7</v>
+        <v>60</v>
       </c>
       <c r="F5" t="n">
-        <v>2.3</v>
+        <v>3.25</v>
       </c>
       <c r="G5" t="n">
-        <v>0.53</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>02-04-2025 23:30</t>
+          <t>04-04-2025 21:00</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ECUADOR</t>
+          <t>NETHERLANDS</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>LIGA PRO SERIE B</t>
+          <t>EERSTE DIVISIE</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Ind. Juniors - Guayaquil City FC</t>
+          <t>FC OSS - VVV Venlo</t>
         </is>
       </c>
       <c r="E6" t="n">
         <v>50</v>
       </c>
       <c r="F6" t="n">
-        <v>1.9</v>
+        <v>2.38</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.05</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>02-04-2025 20:00</t>
+          <t>04-04-2025 11:35</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>GERMANY</t>
+          <t>AUSTRALIA</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>REGIONALLIGA - NORDOST</t>
+          <t>A-LEAGUE</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Plauen - SV Babelsberg 03</t>
+          <t>Brisbane Roar - Macarthur</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="F7" t="n">
-        <v>1.91</v>
+        <v>3</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.05</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>02-04-2025 20:30</t>
+          <t>04-04-2025 12:45</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>GREECE</t>
+          <t>AUSTRALIA</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>CUP</t>
+          <t>SOUTH AUSTRALIA NPL</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>AEK Athens FC - Olympiakos Piraeus</t>
+          <t>West Torrens Birkalla - White City Woodville</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -3327,404 +3755,404 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>02-04-2025 13:00</t>
+          <t>04-04-2025 12:30</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>JAPAN</t>
+          <t>AUSTRALIA</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>J1 LEAGUE</t>
+          <t>VICTORIA NPL</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Albirex Niigata - Avispa Fukuoka</t>
+          <t>Hume City - Oakleigh Cannons</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>60</v>
+        <v>58.3</v>
       </c>
       <c r="F9" t="n">
-        <v>3.1</v>
+        <v>1.83</v>
       </c>
       <c r="G9" t="n">
-        <v>0.86</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>02-04-2025 13:00</t>
+          <t>04-04-2025 20:30</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>JAPAN</t>
+          <t>AUSTRIA</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>J1 LEAGUE</t>
+          <t>REGIONALLIGA - OST</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Kyoto Sanga - Kashiwa Reysol</t>
+          <t>Traiskirchen - Favoritner AC</t>
         </is>
       </c>
       <c r="E10" t="n">
         <v>53.3</v>
       </c>
       <c r="F10" t="n">
-        <v>2.6</v>
+        <v>3.8</v>
       </c>
       <c r="G10" t="n">
-        <v>0.39</v>
+        <v>1.03</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>02-04-2025 13:00</t>
+          <t>04-04-2025 17:45</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>JAPAN</t>
+          <t>BULGARIA</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>J1 LEAGUE</t>
+          <t>SECOND LEAGUE</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Gamba Osaka - Machida Zelvia</t>
+          <t>Lokomotiv G. Oryahovitsa - Pirin Blagoevgrad</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>66.7</v>
+        <v>53.3</v>
       </c>
       <c r="F11" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="G11" t="n">
-        <v>0.6</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>02-04-2025 17:00</t>
+          <t>04-04-2025 02:00</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>SERBIA</t>
+          <t>CHILE</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>CUP</t>
+          <t>COPA CHILE</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Radnicki NIS - Vojvodina</t>
+          <t>Everton De Vina - Union La Calera</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>66.7</v>
+        <v>53.3</v>
       </c>
       <c r="F12" t="n">
-        <v>2.38</v>
+        <v>4.6</v>
       </c>
       <c r="G12" t="n">
-        <v>0.59</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>02-04-2025 22:30</t>
+          <t>04-04-2025 20:00</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>SPAIN</t>
+          <t>DENMARK</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>COPA DEL REY</t>
+          <t>1. DIVISION</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Atletico Madrid - Barcelona</t>
+          <t>Roskilde - B 93</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>60</v>
+        <v>66.7</v>
       </c>
       <c r="F13" t="n">
-        <v>2.45</v>
+        <v>3.4</v>
       </c>
       <c r="G13" t="n">
-        <v>0.47</v>
+        <v>1.27</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>02-04-2025 14:00</t>
+          <t>04-04-2025 20:30</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>TURKEY</t>
+          <t>FRANCE</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2. LIG</t>
+          <t>NATIONAL 1</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Tuzlaspor - Adana 1954 FK</t>
+          <t>Bourg-en-bresse 01 - Valenciennes</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>50</v>
+        <v>53.3</v>
       </c>
       <c r="F14" t="n">
-        <v>1.95</v>
+        <v>2.63</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.03</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>02-04-2025 14:00</t>
+          <t>04-04-2025 20:00</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>TURKEY</t>
+          <t>GERMANY</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>3. LIG - GROUP 1</t>
+          <t>REGIONALLIGA - BAYERN</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Silifke Belediyespor - Kütahyaspor</t>
+          <t>Illertissen - Schwaben Augsburg</t>
         </is>
       </c>
       <c r="E15" t="n">
         <v>50</v>
       </c>
       <c r="F15" t="n">
-        <v>2.7</v>
+        <v>5</v>
       </c>
       <c r="G15" t="n">
-        <v>0.35</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>02-04-2025 14:00</t>
+          <t>04-04-2025 21:45</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>TURKEY</t>
+          <t>IRELAND</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>3. LIG - GROUP 2</t>
+          <t>FIRST DIVISION</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Türk Metal 1963 - Fatsa Belediyespor</t>
+          <t>Athlone Town - Bray Wanderers</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>50</v>
+        <v>66.7</v>
       </c>
       <c r="F16" t="n">
-        <v>2.63</v>
+        <v>3.65</v>
       </c>
       <c r="G16" t="n">
-        <v>0.31</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>02-04-2025 14:00</t>
+          <t>04-04-2025 21:45</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>TURKEY</t>
+          <t>IRELAND</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>3. LIG - GROUP 3</t>
+          <t>FIRST DIVISION</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Küçükçekmece Sinopspor - Yeni Orduspor</t>
+          <t>UCD - Dundalk</t>
         </is>
       </c>
       <c r="E17" t="n">
         <v>53.3</v>
       </c>
       <c r="F17" t="n">
-        <v>2.88</v>
+        <v>1.73</v>
       </c>
       <c r="G17" t="n">
-        <v>0.54</v>
+        <v>-0.08</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>03-04-2025 01:30</t>
+          <t>05-04-2025 01:45</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>MEXICO</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>US OPEN CUP</t>
+          <t>U23 LEAGUE</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Loudoun United - Virginia Dream</t>
+          <t>Club Tijuana U23 - Necaxa U23</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>67.5</v>
+        <v>73.3</v>
       </c>
       <c r="F18" t="n">
-        <v>17</v>
+        <v>1.95</v>
       </c>
       <c r="G18" t="n">
-        <v>10.48</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>03-04-2025 14:30</t>
+          <t>04-04-2025 21:30</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>BULGARIA</t>
+          <t>POLAND</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>FIRST LEAGUE</t>
+          <t>EKSTRAKLASA</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Hebar 1918 - Lokomotiv Plovdiv</t>
+          <t>Widzew Łódź - Lechia Gdansk</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>55.7</v>
+        <v>53.3</v>
       </c>
       <c r="F19" t="n">
-        <v>2.3</v>
+        <v>3.3</v>
       </c>
       <c r="G19" t="n">
-        <v>0.28</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>03-04-2025 06:30</t>
+          <t>04-04-2025 17:00</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>QATAR</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>CONCACAF CHAMPIONS LEAGUE</t>
+          <t>STARS LEAGUE</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Los Angeles FC - Inter Miami</t>
+          <t>UMM Salal - Al Wakrah</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="F20" t="n">
-        <v>2.72</v>
+        <v>1.9</v>
       </c>
       <c r="G20" t="n">
-        <v>0.36</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>03-04-2025 04:30</t>
+          <t>04-04-2025 20:00</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>TURKEY</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>CONCACAF CHAMPIONS LEAGUE</t>
+          <t>1. LIG</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Vancouver Whitecaps - U.N.A.M. - Pumas</t>
+          <t>Şanlıurfaspor - Boluspor</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>53.3</v>
+        <v>66.7</v>
       </c>
       <c r="F21" t="n">
-        <v>3.6</v>
+        <v>2.45</v>
       </c>
       <c r="G21" t="n">
-        <v>0.92</v>
+        <v>0.63</v>
       </c>
     </row>
   </sheetData>
@@ -3786,177 +4214,177 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>02-04-2025 21:00</t>
+          <t>04-04-2025 01:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>BRASILEIRO U20 A</t>
+          <t>CONMEBOL LIBERTADORES</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Atlético Mineiro U20 - Bahia U20</t>
+          <t>Sporting Cristal - Palmeiras</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>75</v>
+        <v>73.3</v>
       </c>
       <c r="F2" t="n">
-        <v>1.73</v>
+        <v>1.85</v>
       </c>
       <c r="G2" t="n">
-        <v>0.3</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>02-04-2025 15:00</t>
+          <t>03-04-2025 12:00</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GREECE</t>
+          <t>AZERBAIJAN</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>SUPER LEAGUE 2</t>
+          <t>BIRINCI DASTA</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>PAOK II - Niki Volos</t>
+          <t>Cəbrayıl - Qaradağ Lökbatan</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="F3" t="n">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="G3" t="n">
-        <v>0.58</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>02-04-2025 13:00</t>
+          <t>03-04-2025 18:00</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>JAPAN</t>
+          <t>MEXICO</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>J1 LEAGUE</t>
+          <t>U23 LEAGUE</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Nagoya Grampus - Yokohama F. Marinos</t>
+          <t>Monterrey U23 - Guadalajara U23</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="F4" t="n">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>02-04-2025 13:00</t>
+          <t>03-04-2025 20:30</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>JAPAN</t>
+          <t>TURKEY</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>J1 LEAGUE</t>
+          <t>CUP</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Gamba Osaka - Machida Zelvia</t>
+          <t>Besiktas - Goztepe</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="F5" t="n">
-        <v>2.5</v>
+        <v>1.85</v>
       </c>
       <c r="G5" t="n">
-        <v>1</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>02-04-2025 22:00</t>
+          <t>04-04-2025 21:00</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>POLAND</t>
+          <t>FRANCE</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>SUPER CUP</t>
+          <t>LIGUE 2</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Jagiellonia - Wisla Krakow</t>
+          <t>Ajaccio - Amiens</t>
         </is>
       </c>
       <c r="E6" t="n">
         <v>72.5</v>
       </c>
       <c r="F6" t="n">
-        <v>2.08</v>
+        <v>2.55</v>
       </c>
       <c r="G6" t="n">
-        <v>0.51</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>02-04-2025 17:00</t>
+          <t>04-04-2025 21:45</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>SERBIA</t>
+          <t>BELGIUM</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>CUP</t>
+          <t>JUPILER PRO LEAGUE</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Radnicki NIS - Vojvodina</t>
+          <t>KV Mechelen - Dender</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -3972,187 +4400,187 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>02-04-2025 17:00</t>
+          <t>04-04-2025 17:00</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>SLOVAKIA</t>
+          <t>BULGARIA</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2. LIGA</t>
+          <t>SECOND LEAGUE</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Stará Ľubovňa - Šamorín</t>
+          <t>Belasitsa - Sportist Svoge</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="F8" t="n">
-        <v>1.73</v>
+        <v>2.75</v>
       </c>
       <c r="G8" t="n">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>02-04-2025 21:30</t>
+          <t>04-04-2025 20:00</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>SWITZERLAND</t>
+          <t>GERMANY</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>SUPER LEAGUE</t>
+          <t>REGIONALLIGA - NORDOST</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>FC Zurich - Lausanne</t>
+          <t>FSV Zwickau - Hertha BSC II</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="F9" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="G9" t="n">
-        <v>0.35</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>02-04-2025 14:00</t>
+          <t>04-04-2025 21:20</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>TURKEY</t>
+          <t>GERMANY</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2. LIG</t>
+          <t>REGIONALLIGA - NORDOST</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Ankaraspor - Sarıyer</t>
+          <t>FC Carl Zeiss Jena - Hallescher FC</t>
         </is>
       </c>
       <c r="E10" t="n">
         <v>70</v>
       </c>
       <c r="F10" t="n">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="G10" t="n">
-        <v>0.4</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>02-04-2025 14:00</t>
+          <t>04-04-2025 21:45</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>TURKEY</t>
+          <t>IRELAND</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>3. LIG - GROUP 4</t>
+          <t>FIRST DIVISION</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Denizlispor - Ağrı 1970</t>
+          <t>Finn Harps - Longford Town</t>
         </is>
       </c>
       <c r="E11" t="n">
         <v>70</v>
       </c>
       <c r="F11" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="G11" t="n">
-        <v>0.34</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>04-04-2025 01:00</t>
+          <t>04-04-2025 21:45</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>IRELAND</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>CONMEBOL LIBERTADORES</t>
+          <t>FIRST DIVISION</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Sporting Cristal - Palmeiras</t>
+          <t>Treaty United - Kerry</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>73.3</v>
+        <v>72.5</v>
       </c>
       <c r="F12" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="G12" t="n">
-        <v>0.36</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>03-04-2025 20:30</t>
+          <t>04-04-2025 18:00</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>TURKEY</t>
+          <t>LATVIA</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>CUP</t>
+          <t>VIRSLIGA</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Besiktas - Goztepe</t>
+          <t>BFC Daugavpils - Auda</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="F13" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="G13" t="n">
-        <v>0.29</v>
+        <v>0.53</v>
       </c>
     </row>
   </sheetData>
@@ -4166,7 +4594,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4214,432 +4642,432 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>02-04-2025 21:45</t>
+          <t>03-04-2025 21:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>PREMIER LEAGUE</t>
+          <t>BRASILEIRO U20 A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Bournemouth - Ipswich</t>
+          <t>Vasco Da Gama U20 - Atlético GO U20</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="F2" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="G2" t="n">
-        <v>0.44</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>02-04-2025 21:45</t>
+          <t>03-04-2025 02:00</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>CHILE</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>PREMIER LEAGUE</t>
+          <t>COPA CHILE</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Manchester City - Leicester</t>
+          <t>U. Catolica - San Luis</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>70</v>
+        <v>66.7</v>
       </c>
       <c r="F3" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="G3" t="n">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>03-04-2025 01:00</t>
+          <t>03-04-2025 16:30</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>EGYPT</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>CONMEBOL LIBERTADORES</t>
+          <t>SECOND LEAGUE</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>San Antonio Bulo Bulo - Olimpia</t>
+          <t>Tanta SC - El Dakhleya</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>84</v>
+        <v>68.3</v>
       </c>
       <c r="F4" t="n">
-        <v>1.91</v>
+        <v>2.7</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>02-04-2025 02:00</t>
+          <t>04-04-2025 00:00</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>HONDURAS</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>PARAENSE</t>
+          <t>LIGA NACIONAL</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Remo - Tuna Luso</t>
+          <t>CD Real Sociedad - CD Marathon</t>
         </is>
       </c>
       <c r="E5" t="n">
         <v>66.7</v>
       </c>
       <c r="F5" t="n">
-        <v>2.2</v>
+        <v>1.85</v>
       </c>
       <c r="G5" t="n">
-        <v>0.47</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>02-04-2025 16:45</t>
+          <t>03-04-2025 18:00</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>BULGARIA</t>
+          <t>MEXICO</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>FIRST LEAGUE</t>
+          <t>U23 LEAGUE</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Botev Plovdiv - Beroe</t>
+          <t>Monterrey U23 - Guadalajara U23</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>66.7</v>
+        <v>83.3</v>
       </c>
       <c r="F6" t="n">
-        <v>2.1</v>
+        <v>1.7</v>
       </c>
       <c r="G6" t="n">
-        <v>0.4</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>02-04-2025 17:00</t>
+          <t>03-04-2025 22:15</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>BULGARIA</t>
+          <t>PORTUGAL</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>SECOND LEAGUE</t>
+          <t>TAÇA DE PORTUGAL</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Marek - CSKA 1948 Sofia II</t>
+          <t>Sporting CP - Rio Ave</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>66.7</v>
+        <v>83.3</v>
       </c>
       <c r="F7" t="n">
-        <v>2.06</v>
+        <v>2.15</v>
       </c>
       <c r="G7" t="n">
-        <v>0.37</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>02-04-2025 13:00</t>
+          <t>03-04-2025 18:00</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>CHINA</t>
+          <t>SAUDI-ARABIA</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>SUPER LEAGUE</t>
+          <t>DIVISION 1</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Shanghai Shenhua - Yunnan Yukun</t>
+          <t>Al Suqoor - Al Taee</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="F8" t="n">
-        <v>1.83</v>
+        <v>1.87</v>
       </c>
       <c r="G8" t="n">
-        <v>0.39</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>02-04-2025 22:00</t>
+          <t>03-04-2025 20:45</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>FRANCE</t>
+          <t>SAUDI-ARABIA</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>COUPE DE FRANCE</t>
+          <t>DIVISION 1</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Cannes - Reims</t>
+          <t>Al Bukayriyah - Al Baten</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F9" t="n">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="G9" t="n">
-        <v>0.44</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>02-04-2025 21:30</t>
+          <t>03-04-2025 20:30</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>GUATEMALA</t>
+          <t>TURKEY</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>LIGA NACIONAL</t>
+          <t>CUP</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Municipal - Antigua GFC</t>
+          <t>Besiktas - Goztepe</t>
         </is>
       </c>
       <c r="E10" t="n">
         <v>66.7</v>
       </c>
       <c r="F10" t="n">
-        <v>1.95</v>
+        <v>1.77</v>
       </c>
       <c r="G10" t="n">
-        <v>0.3</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>02-04-2025 16:00</t>
+          <t>03-04-2025 16:00</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ITALY</t>
+          <t>UGANDA</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>SERIE D - GIRONE I</t>
+          <t>PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Locri 1909 - Igea Virtus</t>
+          <t>Bright Stars - Police</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>76.7</v>
+        <v>82.5</v>
       </c>
       <c r="F11" t="n">
-        <v>1.75</v>
+        <v>2.15</v>
       </c>
       <c r="G11" t="n">
-        <v>0.34</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>02-04-2025 13:00</t>
+          <t>04-04-2025 21:45</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>JAPAN</t>
+          <t>FRANCE</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>J1 LEAGUE</t>
+          <t>LIGUE 1</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Tokyo Verdy - FC Tokyo</t>
+          <t>Nice - Nantes</t>
         </is>
       </c>
       <c r="E12" t="n">
         <v>66.7</v>
       </c>
       <c r="F12" t="n">
-        <v>2.15</v>
+        <v>1.91</v>
       </c>
       <c r="G12" t="n">
-        <v>0.43</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>02-04-2025 13:00</t>
+          <t>04-04-2025 21:00</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>JAPAN</t>
+          <t>NETHERLANDS</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>J1 LEAGUE</t>
+          <t>EREDIVISIE</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Gamba Osaka - Machida Zelvia</t>
+          <t>Heerenveen - Willem II</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>76.7</v>
+        <v>80</v>
       </c>
       <c r="F13" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="G13" t="n">
-        <v>0.57</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>02-04-2025 17:00</t>
+          <t>04-04-2025 21:00</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>SLOVAKIA</t>
+          <t>FRANCE</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2. LIGA</t>
+          <t>LIGUE 2</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Stará Ľubovňa - Šamorín</t>
+          <t>Ajaccio - Amiens</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>84</v>
+        <v>72.5</v>
       </c>
       <c r="F14" t="n">
-        <v>1.75</v>
+        <v>2.05</v>
       </c>
       <c r="G14" t="n">
-        <v>0.47</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>02-04-2025 21:30</t>
+          <t>04-04-2025 21:30</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>SWITZERLAND</t>
+          <t>ITALY</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>SUPER LEAGUE</t>
+          <t>SERIE B</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>FC Sion - FC Winterthur</t>
+          <t>Reggiana - Cremonese</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>78.90000000000001</v>
+        <v>73.3</v>
       </c>
       <c r="F15" t="n">
-        <v>1.73</v>
+        <v>1.85</v>
       </c>
       <c r="G15" t="n">
         <v>0.36</v>
@@ -4648,280 +5076,559 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>02-04-2025 14:00</t>
+          <t>04-04-2025 22:15</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>TURKEY</t>
+          <t>PORTUGAL</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>2. LIG</t>
+          <t>PRIMEIRA LIGA</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Isparta 32 Spor - Kepez Belediyespor</t>
+          <t>AVS - Estoril</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="F16" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="G16" t="n">
-        <v>0.3</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>02-04-2025 14:00</t>
+          <t>04-04-2025 05:00</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>TURKEY</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2. LIG</t>
+          <t>CONMEBOL SUDAMERICANA</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Belediye Derincespor - Ankara Demirspor</t>
+          <t>Mushuc Runa SC - Palestino</t>
         </is>
       </c>
       <c r="E17" t="n">
         <v>80</v>
       </c>
       <c r="F17" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="G17" t="n">
-        <v>0.53</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>02-04-2025 14:00</t>
+          <t>04-04-2025 21:45</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>TURKEY</t>
+          <t>BELGIUM</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>3. LIG - GROUP 1</t>
+          <t>JUPILER PRO LEAGUE</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Silifke Belediyespor - Kütahyaspor</t>
+          <t>KV Mechelen - Dender</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>72</v>
+        <v>83.3</v>
       </c>
       <c r="F18" t="n">
         <v>1.7</v>
       </c>
       <c r="G18" t="n">
-        <v>0.22</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>02-04-2025 14:00</t>
+          <t>05-04-2025 00:00</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>TURKEY</t>
+          <t>COLOMBIA</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>3. LIG - GROUP 2</t>
+          <t>PRIMERA A</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Türk Metal 1963 - Fatsa Belediyespor</t>
+          <t>Alianza Petrolera - Envigado</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>68</v>
+        <v>66.7</v>
       </c>
       <c r="F19" t="n">
-        <v>1.91</v>
+        <v>2.35</v>
       </c>
       <c r="G19" t="n">
-        <v>0.3</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>03-04-2025 01:30</t>
+          <t>04-04-2025 20:00</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>DENMARK</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>US OPEN CUP</t>
+          <t>1. DIVISION</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Loudoun United - Virginia Dream</t>
+          <t>Hillerød - Hobro</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>69</v>
+        <v>68.3</v>
       </c>
       <c r="F20" t="n">
-        <v>2.05</v>
+        <v>1.7</v>
       </c>
       <c r="G20" t="n">
-        <v>0.41</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>03-04-2025 22:15</t>
+          <t>04-04-2025 20:00</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>PORTUGAL</t>
+          <t>GERMANY</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>TAÇA DE PORTUGAL</t>
+          <t>REGIONALLIGA - NORDOST</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Sporting CP - Rio Ave</t>
+          <t>FSV Zwickau - Hertha BSC II</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>83.3</v>
+        <v>86.7</v>
       </c>
       <c r="F21" t="n">
-        <v>2.15</v>
+        <v>1.77</v>
       </c>
       <c r="G21" t="n">
-        <v>0.79</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>03-04-2025 21:30</t>
+          <t>04-04-2025 21:45</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>SWITZERLAND</t>
+          <t>IRELAND</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>SUPER LEAGUE</t>
+          <t>FIRST DIVISION</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>FC Basel 1893 - Grasshoppers</t>
+          <t>Finn Harps - Longford Town</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>76.7</v>
+        <v>66.7</v>
       </c>
       <c r="F22" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="G22" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>03-04-2025 20:30</t>
+          <t>04-04-2025 21:45</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>TURKEY</t>
+          <t>IRELAND</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>CUP</t>
+          <t>PREMIER DIVISION</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Besiktas - Goztepe</t>
+          <t>Bohemians - Sligo Rovers</t>
         </is>
       </c>
       <c r="E23" t="n">
         <v>66.7</v>
       </c>
       <c r="F23" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="G23" t="n">
-        <v>0.18</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>03-04-2025 16:00</t>
+          <t>04-04-2025 21:45</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>UGANDA</t>
+          <t>IRELAND</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>PREMIER LEAGUE</t>
+          <t>PREMIER DIVISION</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Bright Stars - Police</t>
+          <t>Derry City - Cork City</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>82.5</v>
+        <v>70</v>
       </c>
       <c r="F24" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="G24" t="n">
-        <v>0.77</v>
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>04-04-2025 21:45</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>IRELAND</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>PREMIER DIVISION</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Galway United - Shamrock Rovers</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>74.5</v>
+      </c>
+      <c r="F25" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>04-04-2025 04:00</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>MEXICO</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>LIGA DE EXPANSIÓN MX</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Correcaminos Uat - Atlante FC</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>83.3</v>
+      </c>
+      <c r="F26" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>04-04-2025 02:30</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>PARAGUAY</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>DIVISION PROFESIONAL - APERTURA</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Sportivo Ameliano - Sportivo Trinidense</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>76.7</v>
+      </c>
+      <c r="F27" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>05-04-2025 01:30</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>PERU</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>PRIMERA DIVISIÓN</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Deportivo Binacional - Ayacucho FC</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>70</v>
+      </c>
+      <c r="F28" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>04-04-2025 19:00</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>POLAND</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>EKSTRAKLASA</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Stal Mielec - Cracovia Krakow</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>71.7</v>
+      </c>
+      <c r="F29" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>04-04-2025 18:40</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>SAUDI-ARABIA</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>DIVISION 1</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Al-Adalah - Abha</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>75.59999999999999</v>
+      </c>
+      <c r="F30" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>04-04-2025 20:30</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>SOUTH-AFRICA</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>1ST DIVISION</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Ajax Cape Town - Leruma United</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>68</v>
+      </c>
+      <c r="F31" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>04-04-2025 21:30</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>SPAIN</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>PRIMERA DIVISIÓN RFEF - GROUP 1</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Celta De Vigo II - Barcelona B</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>86.7</v>
+      </c>
+      <c r="F32" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>04-04-2025 20:00</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>SWEDEN</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>ETTAN - SÖDRA</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Hässleholms IF - Rosengård</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>80</v>
+      </c>
+      <c r="F33" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.4</v>
       </c>
     </row>
   </sheetData>

--- a/scraper/data/betclever_predictions.xlsx
+++ b/scraper/data/betclever_predictions.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,113 +475,253 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>07-04-2025 22:15</t>
+          <t>08-04-2025 15:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>PORTUGAL</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>PRIMEIRA LIGA</t>
+          <t>PROFESSIONAL DEVELOPMENT LEAGUE</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Rio Ave - Boavista</t>
+          <t>Wigan Athletic U21 - Swansea City U21</t>
         </is>
       </c>
       <c r="E2" t="n">
         <v>73.3</v>
       </c>
       <c r="F2" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>07-04-2025 20:10</t>
+          <t>08-04-2025 22:00</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SWEDEN</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>ALLSVENSKAN</t>
+          <t>CAF CHAMPIONS LEAGUE</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Malmo FF - IF Elfsborg</t>
+          <t>ES Tunis - Mamelodi Sundowns</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>80</v>
+        <v>73.3</v>
       </c>
       <c r="F3" t="n">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>08-04-2025 01:00</t>
+          <t>09-04-2025 21:45</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>JAMAICA</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>PREMIER LEAGUE</t>
+          <t>CHAMPIONSHIP</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Racing United - Chapelton</t>
+          <t>Oxford United - QPR</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>73.3</v>
+        <v>80</v>
       </c>
       <c r="F4" t="n">
-        <v>2.1</v>
+        <v>2.75</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>07-04-2025 18:00</t>
+          <t>10-04-2025 01:00</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>UKRAINE</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>PREMIER LEAGUE</t>
+          <t>CONMEBOL LIBERTADORES</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Polessya - Karpaty</t>
+          <t>Olimpia - Velez Sarsfield</t>
         </is>
       </c>
       <c r="E5" t="n">
+        <v>70</v>
+      </c>
+      <c r="F5" t="n">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>10-04-2025 01:00</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>WORLD</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>CONMEBOL SUDAMERICANA</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Palestino - Union Santa Fe</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>80</v>
+      </c>
+      <c r="F6" t="n">
+        <v>2.56</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>09-04-2025 14:00</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>CHINA</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>LEAGUE TWO</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Rizhao Yuqi - Hubei Chufeng Heli</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>73.3</v>
+      </c>
+      <c r="F7" t="n">
+        <v>2.3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>09-04-2025 03:30</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>COLOMBIA</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>PRIMERA B</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Real Soacha - Tigres FC</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
         <v>86.7</v>
       </c>
-      <c r="F5" t="n">
-        <v>2.15</v>
+      <c r="F8" t="n">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>09-04-2025 17:00</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>ROMANIA</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>LIGA II</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>CSA Steaua Bucureşti - FC Voluntari</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>80</v>
+      </c>
+      <c r="F9" t="n">
+        <v>2.3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>09-04-2025 04:00</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>WORLD</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>CONCACAF CHAMPIONS LEAGUE</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Tigres UANL - Los Angeles Galaxy</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>70</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1.73</v>
       </c>
     </row>
   </sheetData>
@@ -674,7 +814,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -717,309 +857,365 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>07-04-2025 20:00</t>
+          <t>08-04-2025 21:45</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>DENMARK</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>SUPERLIGA</t>
+          <t>LEAGUE TWO</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Brondby - Aarhus</t>
+          <t>Chesterfield - Gillingham</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>96.7</v>
+        <v>83.3</v>
       </c>
       <c r="F2" t="n">
-        <v>1.75</v>
+        <v>1.91</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>07-04-2025 20:00</t>
+          <t>08-04-2025 20:00</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>BULGARIA</t>
+          <t>GERMANY</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>FIRST LEAGUE</t>
+          <t>3. LIGA</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>CSKA 1948 - Ludogorets</t>
+          <t>Stuttgart II - FC Viktoria Köln</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>83.3</v>
+        <v>88</v>
       </c>
       <c r="F3" t="n">
-        <v>1.91</v>
+        <v>1.73</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>07-04-2025 20:00</t>
+          <t>08-04-2025 20:00</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ISRAEL</t>
+          <t>GERMANY</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>LIGAT HA'AL</t>
+          <t>3. LIGA</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Hapoel Hadera - Bnei Sakhnin</t>
+          <t>Arminia Bielefeld - SV Wehen</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="F4" t="n">
-        <v>1.85</v>
+        <v>1.73</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>07-04-2025 21:30</t>
+          <t>08-04-2025 19:00</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ITALY</t>
+          <t>GERMANY</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>SERIE C - GIRONE C</t>
+          <t>REGIONALLIGA - BAYERN</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Giugliano - Casertana</t>
+          <t>Vilzing - Hankofen-Hailing</t>
         </is>
       </c>
       <c r="E5" t="n">
         <v>76.7</v>
       </c>
       <c r="F5" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>07-04-2025 19:00</t>
+          <t>08-04-2025 16:15</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>SERBIA</t>
+          <t>ISRAEL</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>SUPER LIGA</t>
+          <t>LIGA ALEF</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>TSC Backa Topola - Železničar Pančevo</t>
+          <t>Holon Yermiyahu - Hapoel Azor</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>85</v>
+        <v>78.3</v>
       </c>
       <c r="F6" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>07-04-2025 20:00</t>
+          <t>08-04-2025 16:15</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>SWEDEN</t>
+          <t>ISRAEL</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>SUPERETTAN</t>
+          <t>LIGA ALEF</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Varbergs BoIS FC - Orebro SK</t>
+          <t>Hapoel Marmorek - Maccabi Kiryat Malachi</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>84.5</v>
+        <v>76.7</v>
       </c>
       <c r="F7" t="n">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>08-04-2025 21:45</t>
+          <t>08-04-2025 16:15</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>ISRAEL</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>LEAGUE TWO</t>
+          <t>LIGA ALEF</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Chesterfield - Gillingham</t>
+          <t>Shimshon Tel Aviv - FC Jerusalem</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>83.3</v>
+        <v>84</v>
       </c>
       <c r="F8" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>08-04-2025 05:00</t>
+          <t>08-04-2025 16:00</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>COSTA-RICA</t>
+          <t>MALAYSIA</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>LIGA DE ASCENSO</t>
+          <t>SUPER LEAGUE</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Municipal Grecia - AD Cofutpa</t>
+          <t>Pahang - Kedah</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>86.7</v>
+        <v>76.7</v>
       </c>
       <c r="F9" t="n">
-        <v>1.83</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>08-04-2025 20:00</t>
+          <t>08-04-2025 18:40</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>GERMANY</t>
+          <t>SAUDI-ARABIA</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>3. LIGA</t>
+          <t>DIVISION 1</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Stuttgart II - FC Viktoria Köln</t>
+          <t>Al Jubail - Jeddah Club</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="F10" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>08-04-2025 20:00</t>
+          <t>09-04-2025 03:30</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>GERMANY</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>3. LIGA</t>
+          <t>CONMEBOL LIBERTADORES</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Arminia Bielefeld - SV Wehen</t>
+          <t>Estudiantes L.P. - Universidad De Chile</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F11" t="n">
-        <v>1.73</v>
+        <v>2.05</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>08-04-2025 18:40</t>
+          <t>10-04-2025 01:00</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>SAUDI-ARABIA</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>DIVISION 1</t>
+          <t>CONMEBOL LIBERTADORES</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Al Jubail - Jeddah Club</t>
+          <t>Club Nacional - Bahia</t>
         </is>
       </c>
       <c r="E12" t="n">
+        <v>84</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1.95</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>09-04-2025 19:00</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>POLAND</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>I LIGA</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Wisla Krakow - Chrobry Głogów</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>76.7</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>09-04-2025 17:00</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>TURKEY</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>1. LIG</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Erokspor - Fatih Karagümrük</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
         <v>80</v>
       </c>
-      <c r="F12" t="n">
-        <v>1.7</v>
+      <c r="F14" t="n">
+        <v>1.73</v>
       </c>
     </row>
   </sheetData>
@@ -1033,7 +1229,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1086,35 +1282,35 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>07-04-2025 20:00</t>
+          <t>08-04-2025 20:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>DENMARK</t>
+          <t>GERMANY</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>SUPERLIGA</t>
+          <t>3. LIGA</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Brondby - Aarhus</t>
+          <t>Waldhof Mannheim - SpVgg Unterhaching</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F2" t="n">
-        <v>1.95</v>
+        <v>1.74</v>
       </c>
       <c r="G2" t="n">
-        <v>65</v>
+        <v>56.8</v>
       </c>
       <c r="H2" t="n">
-        <v>3.4</v>
+        <v>2.84</v>
       </c>
     </row>
     <row r="3">
@@ -1135,54 +1331,88 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Waldhof Mannheim - SpVgg Unterhaching</t>
+          <t>Hannover 96 II - Alemannia Aachen</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>80</v>
+        <v>86.7</v>
       </c>
       <c r="F3" t="n">
-        <v>1.74</v>
+        <v>1.89</v>
       </c>
       <c r="G3" t="n">
-        <v>56.8</v>
+        <v>73.3</v>
       </c>
       <c r="H3" t="n">
-        <v>2.84</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>08-04-2025 20:00</t>
+          <t>09-04-2025 22:00</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>GERMANY</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>3. LIGA</t>
+          <t>UEFA CHAMPIONS LEAGUE</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Hannover 96 II - Alemannia Aachen</t>
+          <t>Paris Saint Germain - Aston Villa</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>86.7</v>
+        <v>80</v>
       </c>
       <c r="F4" t="n">
-        <v>1.89</v>
+        <v>1.57</v>
       </c>
       <c r="G4" t="n">
-        <v>73.3</v>
+        <v>66.7</v>
       </c>
       <c r="H4" t="n">
-        <v>3.1</v>
+        <v>2.38</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>09-04-2025 17:00</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>ROMANIA</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>LIGA II</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>CSA Steaua Bucureşti - FC Voluntari</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>85</v>
+      </c>
+      <c r="F5" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="G5" t="n">
+        <v>15</v>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1196,7 +1426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1244,131 +1474,131 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>07-04-2025 22:15</t>
+          <t>08-04-2025 22:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>PORTUGAL</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>PRIMEIRA LIGA</t>
+          <t>UEFA CHAMPIONS LEAGUE</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Rio Ave - Boavista</t>
+          <t>Bayern München - Inter</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>73.3</v>
+        <v>60</v>
       </c>
       <c r="F2" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="G2" t="n">
-        <v>0.36</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>07-04-2025 20:10</t>
+          <t>08-04-2025 22:00</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SWEDEN</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>ALLSVENSKAN</t>
+          <t>UEFA CHAMPIONS LEAGUE</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Malmo FF - IF Elfsborg</t>
+          <t>Arsenal - Real Madrid</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="F3" t="n">
-        <v>1.7</v>
+        <v>2.35</v>
       </c>
       <c r="G3" t="n">
-        <v>0.36</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>07-04-2025 17:30</t>
+          <t>08-04-2025 21:45</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>BULGARIA</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>FIRST LEAGUE</t>
+          <t>CHAMPIONSHIP</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Lokomotiv Plovdiv - Spartak Varna</t>
+          <t>Sheffield Utd - Millwall</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>66.7</v>
+        <v>53.3</v>
       </c>
       <c r="F4" t="n">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="G4" t="n">
-        <v>0.53</v>
+        <v>-0.04</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>08-04-2025 00:30</t>
+          <t>08-04-2025 21:45</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>CHILE</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>SEGUNDA DIVISIÓN</t>
+          <t>CHAMPIONSHIP</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Deportes Rengo - Real San Joaquín</t>
+          <t>Stoke City - Luton</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>66.7</v>
+        <v>65</v>
       </c>
       <c r="F5" t="n">
-        <v>1.95</v>
+        <v>2.2</v>
       </c>
       <c r="G5" t="n">
-        <v>0.3</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>07-04-2025 21:00</t>
+          <t>08-04-2025 21:45</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1378,28 +1608,28 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>PREMIER LEAGUE 2 DIVISION ONE</t>
+          <t>LEAGUE ONE</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Manchester United U21 - Nottingham Forest U21</t>
+          <t>Peterborough - Birmingham</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>60</v>
+        <v>66.7</v>
       </c>
       <c r="F6" t="n">
-        <v>2.2</v>
+        <v>4.5</v>
       </c>
       <c r="G6" t="n">
-        <v>0.32</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>07-04-2025 21:00</t>
+          <t>08-04-2025 21:45</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1409,28 +1639,28 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>PREMIER LEAGUE 2 DIVISION ONE</t>
+          <t>LEAGUE ONE</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Everton U21 - Norwich City U21</t>
+          <t>Bolton - Rotherham</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>53.3</v>
+        <v>56.7</v>
       </c>
       <c r="F7" t="n">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.04</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>07-04-2025 21:00</t>
+          <t>08-04-2025 15:00</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1440,338 +1670,338 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>PREMIER LEAGUE 2 DIVISION ONE</t>
+          <t>PROFESSIONAL DEVELOPMENT LEAGUE</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Sunderland U21 - Tottenham Hotspur U21</t>
+          <t>Wigan Athletic U21 - Swansea City U21</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>53.3</v>
+        <v>73.3</v>
       </c>
       <c r="F8" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="G8" t="n">
-        <v>0.01</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>07-04-2025 22:15</t>
+          <t>08-04-2025 20:00</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ICELAND</t>
+          <t>GERMANY</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>ÚRVALSDEILD</t>
+          <t>3. LIGA</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Stjarnan - FH Hafnarfjordur</t>
+          <t>Stuttgart II - FC Viktoria Köln</t>
         </is>
       </c>
       <c r="E9" t="n">
         <v>60</v>
       </c>
       <c r="F9" t="n">
-        <v>2.15</v>
+        <v>2.37</v>
       </c>
       <c r="G9" t="n">
-        <v>0.29</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>07-04-2025 19:00</t>
+          <t>08-04-2025 20:00</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ISRAEL</t>
+          <t>GERMANY</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>LIGA LEUMIT</t>
+          <t>3. LIGA</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Hapoel Kfar Shalem - Maccabi Herzliya</t>
+          <t>Arminia Bielefeld - SV Wehen</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>53.3</v>
+        <v>63.3</v>
       </c>
       <c r="F10" t="n">
-        <v>1.85</v>
+        <v>1.74</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.01</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>08-04-2025 01:00</t>
+          <t>08-04-2025 20:00</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>JAMAICA</t>
+          <t>GERMANY</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>PREMIER LEAGUE</t>
+          <t>3. LIGA</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Racing United - Chapelton</t>
+          <t>FC Saarbrücken - Erzgebirge Aue</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>73.3</v>
+        <v>63.3</v>
       </c>
       <c r="F11" t="n">
-        <v>2.1</v>
+        <v>1.75</v>
       </c>
       <c r="G11" t="n">
-        <v>0.54</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>07-04-2025 15:00</t>
+          <t>08-04-2025 16:15</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>NORWAY</t>
+          <t>ISRAEL</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2. DIVISION - GROUP 1</t>
+          <t>LIGA ALEF</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Brann II - Brattvåg</t>
+          <t>Holon Yermiyahu - Hapoel Azor</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F12" t="n">
-        <v>2.16</v>
+        <v>1.75</v>
       </c>
       <c r="G12" t="n">
-        <v>0.3</v>
+        <v>-0.12</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>07-04-2025 20:00</t>
+          <t>06-04-2025 16:00</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>SWEDEN</t>
+          <t>ITALY</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>SUPERETTAN</t>
+          <t>SERIE D - GIRONE E</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Varbergs BoIS FC - Orebro SK</t>
+          <t>Grosseto - San Donato Tavarnelle</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>55.7</v>
+        <v>50</v>
       </c>
       <c r="F13" t="n">
-        <v>2.3</v>
+        <v>1.73</v>
       </c>
       <c r="G13" t="n">
-        <v>0.28</v>
+        <v>-0.14</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>07-04-2025 18:00</t>
+          <t>08-04-2025 19:00</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>UKRAINE</t>
+          <t>POLAND</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>PREMIER LEAGUE</t>
+          <t>I LIGA</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Polessya - Karpaty</t>
+          <t>Znicz Pruszków - Odra Opole</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>86.7</v>
+        <v>53.3</v>
       </c>
       <c r="F14" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="G14" t="n">
-        <v>0.86</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>08-04-2025 22:00</t>
+          <t>08-04-2025 13:00</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>PORTUGAL</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>UEFA CHAMPIONS LEAGUE</t>
+          <t>LIGA REVELAÇÃO U23</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Bayern München - Inter</t>
+          <t>Vizela U23 - Gil Vicente U23</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>60</v>
+        <v>58.3</v>
       </c>
       <c r="F15" t="n">
-        <v>1.9</v>
+        <v>1.77</v>
       </c>
       <c r="G15" t="n">
-        <v>0.14</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>08-04-2025 22:00</t>
+          <t>08-04-2025 14:00</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>TURKEY</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>UEFA CHAMPIONS LEAGUE</t>
+          <t>1. LIG</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Arsenal - Real Madrid</t>
+          <t>Keçiörengücü - Şanlıurfaspor</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>50</v>
+        <v>53.3</v>
       </c>
       <c r="F16" t="n">
-        <v>2.35</v>
+        <v>1.8</v>
       </c>
       <c r="G16" t="n">
-        <v>0.18</v>
+        <v>-0.04</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>08-04-2025 21:45</t>
+          <t>08-04-2025 22:00</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>CHAMPIONSHIP</t>
+          <t>CAF CHAMPIONS LEAGUE</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Sheffield Utd - Millwall</t>
+          <t>FAR Rabat - Pyramids FC</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>53.3</v>
+        <v>60</v>
       </c>
       <c r="F17" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.04</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>08-04-2025 21:45</t>
+          <t>08-04-2025 22:00</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>CHAMPIONSHIP</t>
+          <t>CAF CHAMPIONS LEAGUE</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Stoke City - Luton</t>
+          <t>ES Tunis - Mamelodi Sundowns</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>65</v>
+        <v>73.3</v>
       </c>
       <c r="F18" t="n">
-        <v>2.2</v>
+        <v>1.9</v>
       </c>
       <c r="G18" t="n">
-        <v>0.43</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>08-04-2025 21:45</t>
+          <t>09-04-2025 21:45</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1781,270 +2011,518 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>LEAGUE ONE</t>
+          <t>CHAMPIONSHIP</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Peterborough - Birmingham</t>
+          <t>Oxford United - QPR</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>66.7</v>
+        <v>80</v>
       </c>
       <c r="F19" t="n">
-        <v>4.5</v>
+        <v>2.75</v>
       </c>
       <c r="G19" t="n">
-        <v>2</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>08-04-2025 21:45</t>
+          <t>10-04-2025 01:00</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>LEAGUE ONE</t>
+          <t>CONMEBOL LIBERTADORES</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Bolton - Rotherham</t>
+          <t>Olimpia - Velez Sarsfield</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>56.7</v>
+        <v>70</v>
       </c>
       <c r="F20" t="n">
-        <v>1.95</v>
+        <v>2.4</v>
       </c>
       <c r="G20" t="n">
-        <v>0.11</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>08-04-2025 03:00</t>
+          <t>09-04-2025 03:30</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>ARGENTINA</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>LIGA PROFESIONAL ARGENTINA</t>
+          <t>CONMEBOL SUDAMERICANA</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Atletico Tucuman - Instituto Cordoba</t>
+          <t>America De Cali - Corinthians</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>56.7</v>
+        <v>60</v>
       </c>
       <c r="F21" t="n">
-        <v>2.45</v>
+        <v>2.8</v>
       </c>
       <c r="G21" t="n">
-        <v>0.39</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>08-04-2025 20:00</t>
+          <t>10-04-2025 01:00</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>GERMANY</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>3. LIGA</t>
+          <t>CONMEBOL SUDAMERICANA</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Stuttgart II - FC Viktoria Köln</t>
+          <t>Palestino - Union Santa Fe</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="F22" t="n">
-        <v>2.37</v>
+        <v>2.56</v>
       </c>
       <c r="G22" t="n">
-        <v>0.42</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>08-04-2025 20:00</t>
+          <t>09-04-2025 14:00</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>GERMANY</t>
+          <t>CHINA</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>3. LIGA</t>
+          <t>LEAGUE TWO</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Arminia Bielefeld - SV Wehen</t>
+          <t>Rizhao Yuqi - Hubei Chufeng Heli</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>63.3</v>
+        <v>73.3</v>
       </c>
       <c r="F23" t="n">
-        <v>1.74</v>
+        <v>2.3</v>
       </c>
       <c r="G23" t="n">
-        <v>0.1</v>
+        <v>0.6899999999999999</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>08-04-2025 20:00</t>
+          <t>09-04-2025 03:30</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>GERMANY</t>
+          <t>COLOMBIA</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>3. LIGA</t>
+          <t>PRIMERA B</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>FC Saarbrücken - Erzgebirge Aue</t>
+          <t>Real Soacha - Tigres FC</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>63.3</v>
+        <v>86.7</v>
       </c>
       <c r="F24" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="G24" t="n">
-        <v>0.11</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>06-04-2025 16:00</t>
+          <t>09-04-2025 15:00</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>ITALY</t>
+          <t>ETHIOPIA</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>SERIE D - GIRONE E</t>
+          <t>PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Grosseto - San Donato Tavarnelle</t>
+          <t>Mebrat Hayl - Awassa Kenema</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>50</v>
+        <v>53.3</v>
       </c>
       <c r="F25" t="n">
-        <v>1.73</v>
+        <v>2.3</v>
       </c>
       <c r="G25" t="n">
-        <v>-0.14</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>08-04-2025 19:00</t>
+          <t>09-04-2025 18:00</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>POLAND</t>
+          <t>ETHIOPIA</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>I LIGA</t>
+          <t>PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Znicz Pruszków - Odra Opole</t>
+          <t>Suhul Shire - Sidama Bunna</t>
         </is>
       </c>
       <c r="E26" t="n">
         <v>53.3</v>
       </c>
       <c r="F26" t="n">
-        <v>2.2</v>
+        <v>3.25</v>
       </c>
       <c r="G26" t="n">
-        <v>0.17</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>08-04-2025 14:00</t>
+          <t>09-04-2025 20:00</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
+          <t>GERMANY</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>3. LIGA</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Energie Cottbus - Rot-Weiß Essen</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>50</v>
+      </c>
+      <c r="F27" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>09-04-2025 20:00</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>GERMANY</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>3. LIGA</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Verl - Borussia Dortmund II</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>50</v>
+      </c>
+      <c r="F28" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="G28" t="n">
+        <v>-0.09</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>09-04-2025 13:00</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>JAPAN</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>J-LEAGUE CUP</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Matsumoto Yamaga - Albirex Niigata</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>62.3</v>
+      </c>
+      <c r="F29" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="G29" t="n">
+        <v>2.27</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>09-04-2025 13:00</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>JAPAN</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>J-LEAGUE CUP</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>V-varen Nagasaki - Shonan Bellmare</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>51</v>
+      </c>
+      <c r="F30" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>09-04-2025 17:00</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>ROMANIA</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>LIGA II</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>CSA Steaua Bucureşti - FC Voluntari</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>80</v>
+      </c>
+      <c r="F31" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>09-04-2025 14:00</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
           <t>TURKEY</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="C32" t="inlineStr">
         <is>
           <t>1. LIG</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>Keçiörengücü - Şanlıurfaspor</t>
-        </is>
-      </c>
-      <c r="E27" t="n">
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Erzurum BB - Yeni Çorumspor</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>60</v>
+      </c>
+      <c r="F32" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>09-04-2025 19:00</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>WORLD</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>CAF CHAMPIONS LEAGUE</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Orlando Pirates - MC Alger</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>60</v>
+      </c>
+      <c r="F33" t="n">
+        <v>2</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>09-04-2025 04:00</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>WORLD</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>CONCACAF CHAMPIONS LEAGUE</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Tigres UANL - Los Angeles Galaxy</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>70</v>
+      </c>
+      <c r="F34" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>09-04-2025 06:30</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>WORLD</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>CONCACAF CHAMPIONS LEAGUE</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Cruz Azul - Club America</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
         <v>53.3</v>
       </c>
-      <c r="F27" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="G27" t="n">
-        <v>-0.04</v>
+      <c r="F35" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.26</v>
       </c>
     </row>
   </sheetData>
@@ -2058,7 +2536,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2106,229 +2584,229 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>07-04-2025 21:45</t>
+          <t>08-04-2025 21:45</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>FRANCE</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>LIGUE 2</t>
+          <t>CHAMPIONSHIP</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Dunkerque - Guingamp</t>
+          <t>Blackburn - Sheffield Wednesday</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>55.7</v>
+        <v>53.3</v>
       </c>
       <c r="F2" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="G2" t="n">
-        <v>0.53</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>07-04-2025 20:45</t>
+          <t>08-04-2025 22:00</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>PORTUGAL</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>PRIMEIRA LIGA</t>
+          <t>CHAMPIONSHIP</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Farense - Casa Pia</t>
+          <t>Middlesbrough - Leeds</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>62.3</v>
+        <v>50</v>
       </c>
       <c r="F3" t="n">
-        <v>2.9</v>
+        <v>1.73</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8100000000000001</v>
+        <v>-0.14</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>07-04-2025 13:00</t>
+          <t>08-04-2025 21:45</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>AUSTRALIA</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>VICTORIA NPL</t>
+          <t>CHAMPIONSHIP</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Melbourne Victory II - St. Albans Saints</t>
+          <t>Norwich - Sunderland</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>50</v>
+        <v>58.3</v>
       </c>
       <c r="F4" t="n">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>07-04-2025 14:30</t>
+          <t>08-04-2025 21:45</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>AZERBAIJAN</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>PREMYER LIQA</t>
+          <t>LEAGUE ONE</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Keshla FC - Neftchi Baku</t>
+          <t>Huddersfield - Wycombe</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>53.3</v>
+        <v>60</v>
       </c>
       <c r="F5" t="n">
-        <v>2.5</v>
+        <v>2.88</v>
       </c>
       <c r="G5" t="n">
-        <v>0.33</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>07-04-2025 15:00</t>
+          <t>09-04-2025 01:00</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>BULGARIA</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>FIRST LEAGUE</t>
+          <t>CONMEBOL LIBERTADORES</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Septemvri Sofia - Arda Kardzhali</t>
+          <t>Botafogo - Carabobo FC</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>53.3</v>
+        <v>60</v>
       </c>
       <c r="F6" t="n">
-        <v>1.83</v>
+        <v>17</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.02</v>
+        <v>9.199999999999999</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>07-04-2025 19:00</t>
+          <t>08-04-2025 15:00</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>SERBIA</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>SUPER LIGA</t>
+          <t>PROFESSIONAL DEVELOPMENT LEAGUE</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Cukaricki - IMT Novi Beograd</t>
+          <t>Fleetwood Town U21 - Charlton Athletic U21</t>
         </is>
       </c>
       <c r="E7" t="n">
         <v>60</v>
       </c>
       <c r="F7" t="n">
-        <v>3.9</v>
+        <v>1.91</v>
       </c>
       <c r="G7" t="n">
-        <v>1.34</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>07-04-2025 20:00</t>
+          <t>08-04-2025 15:30</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>SWEDEN</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>SUPERETTAN</t>
+          <t>PROFESSIONAL DEVELOPMENT LEAGUE</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>IK Brage - Falkenbergs FF</t>
+          <t>Peterborough United U21 - Ipswich Town U21</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>66.7</v>
+        <v>50</v>
       </c>
       <c r="F8" t="n">
-        <v>3.4</v>
+        <v>1.8</v>
       </c>
       <c r="G8" t="n">
-        <v>1.27</v>
+        <v>-0.1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>07-04-2025 15:30</t>
+          <t>08-04-2025 09:30</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>UKRAINE</t>
+          <t>ETHIOPIA</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -2338,265 +2816,358 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Kolos Kovalivka - Ruh Lviv</t>
+          <t>Adama Kenema - Welayta Dicha</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>60</v>
+        <v>66.7</v>
       </c>
       <c r="F9" t="n">
-        <v>3.1</v>
+        <v>2.1</v>
       </c>
       <c r="G9" t="n">
-        <v>0.86</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>07-04-2025 19:45</t>
+          <t>08-04-2025 20:00</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>URUGUAY</t>
+          <t>GERMANY</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>SEGUNDA DIVISIÓN</t>
+          <t>3. LIGA</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Fenix - Colón</t>
+          <t>Hannover 96 II - Alemannia Aachen</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F10" t="n">
-        <v>2.45</v>
+        <v>2.08</v>
       </c>
       <c r="G10" t="n">
-        <v>1.45</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>08-04-2025 21:45</t>
+          <t>08-04-2025 16:15</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>ISRAEL</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>CHAMPIONSHIP</t>
+          <t>LIGA ALEF</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Blackburn - Sheffield Wednesday</t>
+          <t>Hapoel Marmorek - Maccabi Kiryat Malachi</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>53.3</v>
+        <v>66.7</v>
       </c>
       <c r="F11" t="n">
-        <v>2.88</v>
+        <v>2.6</v>
       </c>
       <c r="G11" t="n">
-        <v>0.54</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>08-04-2025 22:00</t>
+          <t>08-04-2025 13:00</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>PORTUGAL</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>CHAMPIONSHIP</t>
+          <t>LIGA REVELAÇÃO U23</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Middlesbrough - Leeds</t>
+          <t>Mafra U23 - Santa Clara U23</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="F12" t="n">
-        <v>1.73</v>
+        <v>2.7</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.14</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>08-04-2025 21:45</t>
+          <t>08-04-2025 13:00</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>PORTUGAL</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>CHAMPIONSHIP</t>
+          <t>LIGA REVELAÇÃO U23</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Norwich - Sunderland</t>
+          <t>Portimonense U23 - Farense U23</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>58.3</v>
+        <v>53.3</v>
       </c>
       <c r="F13" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="G13" t="n">
-        <v>0.75</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>08-04-2025 21:45</t>
+          <t>09-04-2025 22:00</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>LEAGUE ONE</t>
+          <t>UEFA CHAMPIONS LEAGUE</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Huddersfield - Wycombe</t>
+          <t>Paris Saint Germain - Aston Villa</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F14" t="n">
-        <v>2.88</v>
+        <v>7</v>
       </c>
       <c r="G14" t="n">
-        <v>0.73</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>09-04-2025 01:00</t>
+          <t>09-04-2025 20:00</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>NORWAY</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>CONMEBOL LIBERTADORES</t>
+          <t>ELITESERIEN</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Botafogo - Carabobo FC</t>
+          <t>Fredrikstad - Valerenga</t>
         </is>
       </c>
       <c r="E15" t="n">
         <v>60</v>
       </c>
       <c r="F15" t="n">
-        <v>17</v>
+        <v>3.1</v>
       </c>
       <c r="G15" t="n">
-        <v>9.199999999999999</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>08-04-2025 03:00</t>
+          <t>09-04-2025 03:30</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>COLOMBIA</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>PRIMERA B</t>
+          <t>CONMEBOL LIBERTADORES</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Bogota FC - Jaguares</t>
+          <t>River Plate - Barcelona SC</t>
         </is>
       </c>
       <c r="E16" t="n">
         <v>50</v>
       </c>
       <c r="F16" t="n">
-        <v>1.73</v>
+        <v>7</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.14</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>08-04-2025 20:00</t>
+          <t>09-04-2025 16:30</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>GERMANY</t>
+          <t>EGYPT</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>3. LIGA</t>
+          <t>SECOND LEAGUE</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Hannover 96 II - Alemannia Aachen</t>
+          <t>El Dakhleya - La Viena FC</t>
         </is>
       </c>
       <c r="E17" t="n">
         <v>50</v>
       </c>
       <c r="F17" t="n">
-        <v>2.08</v>
+        <v>2.35</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04</v>
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>09-04-2025 13:00</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>JAPAN</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>J-LEAGUE CUP</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Montedio Yamagata - Kyoto Sanga</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>53.3</v>
+      </c>
+      <c r="F18" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>09-04-2025 21:30</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>POLAND</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>I LIGA</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Polonia Warszawa - Pogoń Siedlce</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>53.3</v>
+      </c>
+      <c r="F19" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="G19" t="n">
+        <v>1.03</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>09-04-2025 17:00</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>TURKEY</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>1. LIG</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Erokspor - Fatih Karagümrük</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>50</v>
+      </c>
+      <c r="F20" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.15</v>
       </c>
     </row>
   </sheetData>
@@ -2610,7 +3181,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2658,311 +3229,218 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>07-04-2025 20:00</t>
+          <t>08-04-2025 21:45</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>DENMARK</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>SUPERLIGA</t>
+          <t>LEAGUE TWO</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Brondby - Aarhus</t>
+          <t>Chesterfield - Gillingham</t>
         </is>
       </c>
       <c r="E2" t="n">
         <v>70</v>
       </c>
       <c r="F2" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="G2" t="n">
-        <v>0.36</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>07-04-2025 22:45</t>
+          <t>08-04-2025 20:00</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>PORTUGAL</t>
+          <t>GERMANY</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>PRIMEIRA LIGA</t>
+          <t>3. LIGA</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Sporting CP - SC Braga</t>
+          <t>Waldhof Mannheim - SpVgg Unterhaching</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="F3" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="G3" t="n">
-        <v>0.3</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>07-04-2025 20:00</t>
+          <t>08-04-2025 20:00</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>BULGARIA</t>
+          <t>GERMANY</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>FIRST LEAGUE</t>
+          <t>3. LIGA</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>CSKA 1948 - Ludogorets</t>
+          <t>Arminia Bielefeld - SV Wehen</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>70</v>
+        <v>72.5</v>
       </c>
       <c r="F4" t="n">
-        <v>1.87</v>
+        <v>1.82</v>
       </c>
       <c r="G4" t="n">
-        <v>0.31</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>07-04-2025 20:00</t>
+          <t>08-04-2025 20:00</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ISRAEL</t>
+          <t>GERMANY</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>LIGAT HA'AL</t>
+          <t>3. LIGA</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Hapoel Hadera - Bnei Sakhnin</t>
+          <t>Hannover 96 II - Alemannia Aachen</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>70</v>
+        <v>86.7</v>
       </c>
       <c r="F5" t="n">
-        <v>2.15</v>
+        <v>1.89</v>
       </c>
       <c r="G5" t="n">
-        <v>0.5</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>07-04-2025 19:00</t>
+          <t>10-04-2025 01:00</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>SERBIA</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>SUPER LIGA</t>
+          <t>CONMEBOL LIBERTADORES</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>TSC Backa Topola - Železničar Pančevo</t>
+          <t>Olimpia - Velez Sarsfield</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>77.5</v>
+        <v>73.3</v>
       </c>
       <c r="F6" t="n">
-        <v>1.85</v>
+        <v>2.7</v>
       </c>
       <c r="G6" t="n">
-        <v>0.43</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>07-04-2025 18:00</t>
+          <t>09-04-2025 17:00</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>UKRAINE</t>
+          <t>ROMANIA</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>PREMIER LEAGUE</t>
+          <t>LIGA II</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Polessya - Karpaty</t>
+          <t>CSA Steaua Bucureşti - FC Voluntari</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>72.5</v>
+        <v>85</v>
       </c>
       <c r="F7" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="G7" t="n">
-        <v>0.45</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>08-04-2025 21:45</t>
+          <t>09-04-2025 14:00</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>TURKEY</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>LEAGUE TWO</t>
+          <t>1. LIG</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Chesterfield - Gillingham</t>
+          <t>Erzurum BB - Yeni Çorumspor</t>
         </is>
       </c>
       <c r="E8" t="n">
         <v>70</v>
       </c>
       <c r="F8" t="n">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="G8" t="n">
-        <v>0.43</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>08-04-2025 20:00</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>GERMANY</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>3. LIGA</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Waldhof Mannheim - SpVgg Unterhaching</t>
-        </is>
-      </c>
-      <c r="E9" t="n">
-        <v>80</v>
-      </c>
-      <c r="F9" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0.39</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>08-04-2025 20:00</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>GERMANY</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>3. LIGA</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Arminia Bielefeld - SV Wehen</t>
-        </is>
-      </c>
-      <c r="E10" t="n">
-        <v>72.5</v>
-      </c>
-      <c r="F10" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0.32</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>08-04-2025 20:00</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>GERMANY</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>3. LIGA</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Hannover 96 II - Alemannia Aachen</t>
-        </is>
-      </c>
-      <c r="E11" t="n">
-        <v>86.7</v>
-      </c>
-      <c r="F11" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0.64</v>
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
@@ -2976,7 +3454,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3024,714 +3502,900 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>07-04-2025 20:00</t>
+          <t>08-04-2025 22:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>DENMARK</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>SUPERLIGA</t>
+          <t>UEFA CHAMPIONS LEAGUE</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Brondby - Aarhus</t>
+          <t>Arsenal - Real Madrid</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>96.7</v>
+        <v>68</v>
       </c>
       <c r="F2" t="n">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="G2" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>07-04-2025 22:15</t>
+          <t>08-04-2025 21:45</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>PORTUGAL</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>PRIMEIRA LIGA</t>
+          <t>CHAMPIONSHIP</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Rio Ave - Boavista</t>
+          <t>Bristol City - West Brom</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>70</v>
+        <v>66.7</v>
       </c>
       <c r="F3" t="n">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="G3" t="n">
-        <v>0.36</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>07-04-2025 21:30</t>
+          <t>08-04-2025 21:45</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ARGENTINA</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>PRIMERA C</t>
+          <t>CHAMPIONSHIP</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Centro Español - Deportivo Camioneros</t>
+          <t>Sheffield Utd - Millwall</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F4" t="n">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="G4" t="n">
-        <v>0.46</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>07-04-2025 20:00</t>
+          <t>08-04-2025 21:45</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>BULGARIA</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>FIRST LEAGUE</t>
+          <t>LEAGUE ONE</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>CSKA 1948 - Ludogorets</t>
+          <t>Mansfield Town - Leyton Orient</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>83.3</v>
+        <v>66.7</v>
       </c>
       <c r="F5" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="G5" t="n">
-        <v>0.59</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>07-04-2025 20:00</t>
+          <t>08-04-2025 21:45</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ISRAEL</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>LIGAT HA'AL</t>
+          <t>LEAGUE TWO</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Hapoel Hadera - Bnei Sakhnin</t>
+          <t>Chesterfield - Gillingham</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>80</v>
+        <v>83.3</v>
       </c>
       <c r="F6" t="n">
-        <v>1.85</v>
+        <v>1.91</v>
       </c>
       <c r="G6" t="n">
-        <v>0.48</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>07-04-2025 21:30</t>
+          <t>09-04-2025 01:00</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ITALY</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>SERIE C - GIRONE C</t>
+          <t>CONMEBOL SUDAMERICANA</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Giugliano - Casertana</t>
+          <t>Gremio - Atletico Grau</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>76.7</v>
+        <v>68</v>
       </c>
       <c r="F7" t="n">
-        <v>1.8</v>
+        <v>2.35</v>
       </c>
       <c r="G7" t="n">
-        <v>0.38</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>07-04-2025 19:00</t>
+          <t>08-04-2025 20:00</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>SERBIA</t>
+          <t>GERMANY</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>SUPER LIGA</t>
+          <t>3. LIGA</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>TSC Backa Topola - Železničar Pančevo</t>
+          <t>Waldhof Mannheim - SpVgg Unterhaching</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>85</v>
+        <v>71.09999999999999</v>
       </c>
       <c r="F8" t="n">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="G8" t="n">
-        <v>0.61</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>07-04-2025 20:00</t>
+          <t>08-04-2025 20:00</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>SWEDEN</t>
+          <t>GERMANY</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>SUPERETTAN</t>
+          <t>3. LIGA</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Varbergs BoIS FC - Orebro SK</t>
+          <t>Stuttgart II - FC Viktoria Köln</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>84.5</v>
+        <v>88</v>
       </c>
       <c r="F9" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="G9" t="n">
-        <v>0.48</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>08-04-2025 22:00</t>
+          <t>08-04-2025 20:00</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>GERMANY</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>UEFA CHAMPIONS LEAGUE</t>
+          <t>3. LIGA</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Arsenal - Real Madrid</t>
+          <t>Arminia Bielefeld - SV Wehen</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="F10" t="n">
-        <v>1.95</v>
+        <v>1.73</v>
       </c>
       <c r="G10" t="n">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>08-04-2025 21:45</t>
+          <t>08-04-2025 20:00</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>GERMANY</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>CHAMPIONSHIP</t>
+          <t>3. LIGA</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Bristol City - West Brom</t>
+          <t>FC Saarbrücken - Erzgebirge Aue</t>
         </is>
       </c>
       <c r="E11" t="n">
         <v>66.7</v>
       </c>
       <c r="F11" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="G11" t="n">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>08-04-2025 21:45</t>
+          <t>08-04-2025 19:00</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>GERMANY</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>CHAMPIONSHIP</t>
+          <t>REGIONALLIGA - BAYERN</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Sheffield Utd - Millwall</t>
+          <t>Vilzing - Hankofen-Hailing</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>70</v>
+        <v>76.7</v>
       </c>
       <c r="F12" t="n">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="G12" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>08-04-2025 21:45</t>
+          <t>08-04-2025 16:15</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>ISRAEL</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>LEAGUE ONE</t>
+          <t>LIGA ALEF</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Mansfield Town - Leyton Orient</t>
+          <t>Holon Yermiyahu - Hapoel Azor</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>66.7</v>
+        <v>78.3</v>
       </c>
       <c r="F13" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>08-04-2025 21:45</t>
+          <t>08-04-2025 16:15</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>ISRAEL</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>LEAGUE TWO</t>
+          <t>LIGA ALEF</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Chesterfield - Gillingham</t>
+          <t>Hapoel Marmorek - Maccabi Kiryat Malachi</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>83.3</v>
+        <v>76.7</v>
       </c>
       <c r="F14" t="n">
-        <v>1.91</v>
+        <v>2.25</v>
       </c>
       <c r="G14" t="n">
-        <v>0.59</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>09-04-2025 01:00</t>
+          <t>08-04-2025 16:15</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>ISRAEL</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>CONMEBOL SUDAMERICANA</t>
+          <t>LIGA ALEF</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Gremio - Atletico Grau</t>
+          <t>Shimshon Tel Aviv - FC Jerusalem</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="F15" t="n">
-        <v>2.35</v>
+        <v>1.8</v>
       </c>
       <c r="G15" t="n">
-        <v>0.6</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>08-04-2025 03:00</t>
+          <t>08-04-2025 16:00</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>COLOMBIA</t>
+          <t>MALAYSIA</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>PRIMERA B</t>
+          <t>SUPER LEAGUE</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Bogota FC - Jaguares</t>
+          <t>Pahang - Kedah</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>68</v>
+        <v>76.7</v>
       </c>
       <c r="F16" t="n">
-        <v>1.95</v>
+        <v>2.6</v>
       </c>
       <c r="G16" t="n">
-        <v>0.33</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>08-04-2025 05:00</t>
+          <t>08-04-2025 20:30</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>COSTA-RICA</t>
+          <t>POLAND</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>LIGA DE ASCENSO</t>
+          <t>I LIGA</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Municipal Grecia - AD Cofutpa</t>
+          <t>Górnik Łęczna - Kotwica Kołobrzeg</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>86.7</v>
+        <v>72</v>
       </c>
       <c r="F17" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="G17" t="n">
-        <v>0.59</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>08-04-2025 20:00</t>
+          <t>08-04-2025 16:00</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>GERMANY</t>
+          <t>PORTUGAL</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>3. LIGA</t>
+          <t>LIGA REVELAÇÃO U23</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Waldhof Mannheim - SpVgg Unterhaching</t>
+          <t>Sporting CP U23 - Famalicão U23</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>71.09999999999999</v>
+        <v>68.3</v>
       </c>
       <c r="F18" t="n">
         <v>1.73</v>
       </c>
       <c r="G18" t="n">
-        <v>0.23</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>08-04-2025 20:00</t>
+          <t>08-04-2025 18:40</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>GERMANY</t>
+          <t>SAUDI-ARABIA</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>3. LIGA</t>
+          <t>DIVISION 1</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Stuttgart II - FC Viktoria Köln</t>
+          <t>Al Jubail - Jeddah Club</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="F19" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="G19" t="n">
-        <v>0.52</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>08-04-2025 20:00</t>
+          <t>08-04-2025 14:00</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>GERMANY</t>
+          <t>TURKEY</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>3. LIGA</t>
+          <t>1. LIG</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Arminia Bielefeld - SV Wehen</t>
+          <t>Keçiörengücü - Şanlıurfaspor</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="F20" t="n">
-        <v>1.73</v>
+        <v>1.77</v>
       </c>
       <c r="G20" t="n">
-        <v>0.3</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>08-04-2025 20:00</t>
+          <t>08-04-2025 22:00</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>GERMANY</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>3. LIGA</t>
+          <t>CAF CHAMPIONS LEAGUE</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>FC Saarbrücken - Erzgebirge Aue</t>
+          <t>ES Tunis - Mamelodi Sundowns</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>66.7</v>
+        <v>70</v>
       </c>
       <c r="F21" t="n">
-        <v>1.75</v>
+        <v>2.2</v>
       </c>
       <c r="G21" t="n">
-        <v>0.17</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>08-04-2025 20:30</t>
+          <t>09-04-2025 03:30</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>POLAND</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>I LIGA</t>
+          <t>CONMEBOL LIBERTADORES</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Górnik Łęczna - Kotwica Kołobrzeg</t>
+          <t>Estudiantes L.P. - Universidad De Chile</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F22" t="n">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="G22" t="n">
-        <v>0.33</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>08-04-2025 18:40</t>
+          <t>10-04-2025 01:00</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>SAUDI-ARABIA</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>DIVISION 1</t>
+          <t>CONMEBOL LIBERTADORES</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Al Jubail - Jeddah Club</t>
+          <t>Club Nacional - Bahia</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="F23" t="n">
-        <v>1.7</v>
+        <v>1.95</v>
       </c>
       <c r="G23" t="n">
-        <v>0.36</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>08-04-2025 14:00</t>
+          <t>09-04-2025 20:00</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
+          <t>CZECH-REPUBLIC</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>CUP</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Sparta Praha - Teplice</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="F24" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>09-04-2025 19:00</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>POLAND</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>I LIGA</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Wisla Krakow - Chrobry Głogów</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>76.7</v>
+      </c>
+      <c r="F25" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>09-04-2025 16:15</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>SAUDI-ARABIA</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>DIVISION 1</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Al-Ain - Ohod</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>72.5</v>
+      </c>
+      <c r="F26" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>09-04-2025 20:00</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
           <t>TURKEY</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="C27" t="inlineStr">
         <is>
           <t>1. LIG</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>Keçiörengücü - Şanlıurfaspor</t>
-        </is>
-      </c>
-      <c r="E24" t="n">
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Pendikspor - Ankaragucu</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
         <v>70</v>
       </c>
-      <c r="F24" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="G24" t="n">
-        <v>0.24</v>
+      <c r="F27" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>09-04-2025 17:00</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>TURKEY</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>1. LIG</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Erokspor - Fatih Karagümrük</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>80</v>
+      </c>
+      <c r="F28" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>09-04-2025 14:00</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>TURKEY</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>1. LIG</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Erzurum BB - Yeni Çorumspor</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="F29" t="n">
+        <v>2</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>09-04-2025 19:00</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>WORLD</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>CAF CHAMPIONS LEAGUE</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Orlando Pirates - MC Alger</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>68</v>
+      </c>
+      <c r="F30" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.46</v>
       </c>
     </row>
   </sheetData>

--- a/scraper/data/betclever_predictions.xlsx
+++ b/scraper/data/betclever_predictions.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,7 +475,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>08-04-2025 15:00</t>
+          <t>09-04-2025 21:45</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -485,25 +485,25 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>PROFESSIONAL DEVELOPMENT LEAGUE</t>
+          <t>CHAMPIONSHIP</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Wigan Athletic U21 - Swansea City U21</t>
+          <t>Oxford United - QPR</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>73.3</v>
+        <v>80</v>
       </c>
       <c r="F2" t="n">
-        <v>1.8</v>
+        <v>2.75</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>08-04-2025 22:00</t>
+          <t>10-04-2025 01:00</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -513,193 +513,193 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CAF CHAMPIONS LEAGUE</t>
+          <t>CONMEBOL LIBERTADORES</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>ES Tunis - Mamelodi Sundowns</t>
+          <t>Olimpia - Velez Sarsfield</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>73.3</v>
+        <v>70</v>
       </c>
       <c r="F3" t="n">
-        <v>1.9</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>09-04-2025 21:45</t>
+          <t>10-04-2025 01:00</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>CHAMPIONSHIP</t>
+          <t>CONMEBOL SUDAMERICANA</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Oxford United - QPR</t>
+          <t>Palestino - Union Santa Fe</t>
         </is>
       </c>
       <c r="E4" t="n">
         <v>80</v>
       </c>
       <c r="F4" t="n">
-        <v>2.75</v>
+        <v>2.56</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>10-04-2025 01:00</t>
+          <t>09-04-2025 14:00</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>CHINA</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>CONMEBOL LIBERTADORES</t>
+          <t>LEAGUE TWO</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Olimpia - Velez Sarsfield</t>
+          <t>Rizhao Yuqi - Hubei Chufeng Heli</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>70</v>
+        <v>73.3</v>
       </c>
       <c r="F5" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>10-04-2025 01:00</t>
+          <t>09-04-2025 17:00</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>ROMANIA</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>CONMEBOL SUDAMERICANA</t>
+          <t>LIGA II</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Palestino - Union Santa Fe</t>
+          <t>CSA Steaua Bucureşti - FC Voluntari</t>
         </is>
       </c>
       <c r="E6" t="n">
         <v>80</v>
       </c>
       <c r="F6" t="n">
-        <v>2.56</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>09-04-2025 14:00</t>
+          <t>09-04-2025 16:15</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>CHINA</t>
+          <t>TANZANIA</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>LEAGUE TWO</t>
+          <t>LIGI KUU BARA</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Rizhao Yuqi - Hubei Chufeng Heli</t>
+          <t>KenGold - Tanzania Prisons</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>73.3</v>
+        <v>70</v>
       </c>
       <c r="F7" t="n">
-        <v>2.3</v>
+        <v>3.05</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>09-04-2025 03:30</t>
+          <t>09-04-2025 02:30</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>COLOMBIA</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>PRIMERA B</t>
+          <t>MLS NEXT PRO</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Real Soacha - Tigres FC</t>
+          <t>New York City II - FC Cincinnati II</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>86.7</v>
+        <v>80</v>
       </c>
       <c r="F8" t="n">
-        <v>1.7</v>
+        <v>2.45</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>09-04-2025 17:00</t>
+          <t>10-04-2025 22:00</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ROMANIA</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>LIGA II</t>
+          <t>UEFA EUROPA CONFERENCE LEAGUE</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>CSA Steaua Bucureşti - FC Voluntari</t>
+          <t>Celje - Fiorentina</t>
         </is>
       </c>
       <c r="E9" t="n">
         <v>80</v>
       </c>
       <c r="F9" t="n">
-        <v>2.3</v>
+        <v>6.25</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>09-04-2025 04:00</t>
+          <t>10-04-2025 19:45</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -709,18 +709,102 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>CONCACAF CHAMPIONS LEAGUE</t>
+          <t>UEFA EUROPA CONFERENCE LEAGUE</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Tigres UANL - Los Angeles Galaxy</t>
+          <t>Legia Warszawa - Chelsea</t>
         </is>
       </c>
       <c r="E10" t="n">
+        <v>80</v>
+      </c>
+      <c r="F10" t="n">
+        <v>5.25</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>10-04-2025 19:45</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>WORLD</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>UEFA EUROPA LEAGUE</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Bodo/Glimt - Lazio</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
         <v>70</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F11" t="n">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>10-04-2025 03:00</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>ECUADOR</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>LIGA PRO</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Cuniburo - Delfin SC</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>80</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>11-04-2025 01:00</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>VENEZUELA</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>PRIMERA DIVISIÓN</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Monagas SC - Rayo Zuliano</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>70</v>
+      </c>
+      <c r="F13" t="n">
         <v>1.73</v>
       </c>
     </row>
@@ -814,7 +898,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -857,166 +941,166 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>08-04-2025 21:45</t>
+          <t>10-04-2025 01:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>LEAGUE TWO</t>
+          <t>CONMEBOL LIBERTADORES</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Chesterfield - Gillingham</t>
+          <t>Club Nacional - Bahia</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>83.3</v>
+        <v>84</v>
       </c>
       <c r="F2" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>08-04-2025 20:00</t>
+          <t>09-04-2025 16:30</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GERMANY</t>
+          <t>EGYPT</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>3. LIGA</t>
+          <t>SECOND LEAGUE</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Stuttgart II - FC Viktoria Köln</t>
+          <t>Suez - Dayrout</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="F3" t="n">
-        <v>1.73</v>
+        <v>1.91</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>08-04-2025 20:00</t>
+          <t>09-04-2025 19:00</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>GERMANY</t>
+          <t>POLAND</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>3. LIGA</t>
+          <t>I LIGA</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Arminia Bielefeld - SV Wehen</t>
+          <t>Wisla Krakow - Chrobry Głogów</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>75</v>
+        <v>76.7</v>
       </c>
       <c r="F4" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>08-04-2025 19:00</t>
+          <t>09-04-2025 17:00</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GERMANY</t>
+          <t>TURKEY</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>REGIONALLIGA - BAYERN</t>
+          <t>1. LIG</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Vilzing - Hankofen-Hailing</t>
+          <t>Erokspor - Fatih Karagümrük</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>76.7</v>
+        <v>80</v>
       </c>
       <c r="F5" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>08-04-2025 16:15</t>
+          <t>10-04-2025 22:00</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ISRAEL</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>LIGA ALEF</t>
+          <t>UEFA EUROPA CONFERENCE LEAGUE</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Holon Yermiyahu - Hapoel Azor</t>
+          <t>Celje - Fiorentina</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>78.3</v>
+        <v>84</v>
       </c>
       <c r="F6" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>08-04-2025 16:15</t>
+          <t>10-04-2025 03:30</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ISRAEL</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>LIGA ALEF</t>
+          <t>CONMEBOL SUDAMERICANA</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Hapoel Marmorek - Maccabi Kiryat Malachi</t>
+          <t>Cruzeiro - Mushuc Runa SC</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>76.7</v>
+        <v>84</v>
       </c>
       <c r="F7" t="n">
         <v>2.25</v>
@@ -1025,197 +1109,141 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>08-04-2025 16:15</t>
+          <t>10-04-2025 03:10</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ISRAEL</t>
+          <t>ARGENTINA</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>LIGA ALEF</t>
+          <t>COPA ARGENTINA</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Shimshon Tel Aviv - FC Jerusalem</t>
+          <t>Sarmiento Junin - Central Cordoba</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F8" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>08-04-2025 16:00</t>
+          <t>10-04-2025 03:00</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>MALAYSIA</t>
+          <t>ECUADOR</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>SUPER LEAGUE</t>
+          <t>LIGA PRO</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Pahang - Kedah</t>
+          <t>Cuniburo - Delfin SC</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>76.7</v>
+        <v>84</v>
       </c>
       <c r="F9" t="n">
-        <v>2.6</v>
+        <v>1.94</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>08-04-2025 18:40</t>
+          <t>10-04-2025 16:30</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>SAUDI-ARABIA</t>
+          <t>EGYPT</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>DIVISION 1</t>
+          <t>SECOND LEAGUE</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Al Jubail - Jeddah Club</t>
+          <t>Kahraba Ismailia - Proxy</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="F10" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>09-04-2025 03:30</t>
+          <t>11-04-2025 00:00</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>PARAGUAY</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>CONMEBOL LIBERTADORES</t>
+          <t>DIVISION PROFESIONAL - APERTURA</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Estudiantes L.P. - Universidad De Chile</t>
+          <t>2 De Mayo - Deportivo Recoleta</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>76</v>
+        <v>86.7</v>
       </c>
       <c r="F11" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>10-04-2025 01:00</t>
+          <t>10-04-2025 21:00</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>SAUDI-ARABIA</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>CONMEBOL LIBERTADORES</t>
+          <t>PRO LEAGUE</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Club Nacional - Bahia</t>
+          <t>Al-Ittihad FC - Al Orubah</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F12" t="n">
-        <v>1.95</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>09-04-2025 19:00</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>POLAND</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>I LIGA</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>Wisla Krakow - Chrobry Głogów</t>
-        </is>
-      </c>
-      <c r="E13" t="n">
-        <v>76.7</v>
-      </c>
-      <c r="F13" t="n">
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>09-04-2025 17:00</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>TURKEY</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>1. LIG</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>Erokspor - Fatih Karagümrük</t>
-        </is>
-      </c>
-      <c r="E14" t="n">
-        <v>80</v>
-      </c>
-      <c r="F14" t="n">
-        <v>1.73</v>
+        <v>1.77</v>
       </c>
     </row>
   </sheetData>
@@ -1229,7 +1257,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1282,137 +1310,307 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>08-04-2025 20:00</t>
+          <t>09-04-2025 22:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>GERMANY</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>3. LIGA</t>
+          <t>UEFA CHAMPIONS LEAGUE</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Waldhof Mannheim - SpVgg Unterhaching</t>
+          <t>Paris Saint Germain - Aston Villa</t>
         </is>
       </c>
       <c r="E2" t="n">
         <v>80</v>
       </c>
       <c r="F2" t="n">
-        <v>1.74</v>
+        <v>1.57</v>
       </c>
       <c r="G2" t="n">
-        <v>56.8</v>
+        <v>66.7</v>
       </c>
       <c r="H2" t="n">
-        <v>2.84</v>
+        <v>2.38</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>08-04-2025 20:00</t>
+          <t>09-04-2025 17:00</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GERMANY</t>
+          <t>POLAND</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>3. LIGA</t>
+          <t>III LIGA - GROUP 2</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Hannover 96 II - Alemannia Aachen</t>
+          <t>Lech Poznań II - Wybrzeże Rewalskie Rewal</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>86.7</v>
+        <v>66.7</v>
       </c>
       <c r="F3" t="n">
-        <v>1.89</v>
+        <v>1.49</v>
       </c>
       <c r="G3" t="n">
-        <v>73.3</v>
+        <v>66.7</v>
       </c>
       <c r="H3" t="n">
-        <v>3.1</v>
+        <v>2.33</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>09-04-2025 22:00</t>
+          <t>09-04-2025 17:00</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>ROMANIA</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>UEFA CHAMPIONS LEAGUE</t>
+          <t>LIGA II</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Paris Saint Germain - Aston Villa</t>
+          <t>CSA Steaua Bucureşti - FC Voluntari</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="F4" t="n">
-        <v>1.57</v>
+        <v>2.2</v>
       </c>
       <c r="G4" t="n">
-        <v>66.7</v>
+        <v>15</v>
       </c>
       <c r="H4" t="n">
-        <v>2.38</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>09-04-2025 17:00</t>
+          <t>10-04-2025 22:00</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ROMANIA</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>LIGA II</t>
+          <t>UEFA EUROPA CONFERENCE LEAGUE</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>CSA Steaua Bucureşti - FC Voluntari</t>
+          <t>Celje - Fiorentina</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="F5" t="n">
-        <v>2.2</v>
+        <v>1.65</v>
       </c>
       <c r="G5" t="n">
-        <v>15</v>
+        <v>66.7</v>
       </c>
       <c r="H5" t="n">
-        <v>4</v>
+        <v>2.62</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>10-04-2025 19:45</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>WORLD</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>UEFA EUROPA LEAGUE</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Bodo/Glimt - Lazio</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>86.7</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="G6" t="n">
+        <v>33.3</v>
+      </c>
+      <c r="H6" t="n">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>10-04-2025 22:00</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>WORLD</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>UEFA EUROPA LEAGUE</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Lyon - Manchester United</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>80</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="G7" t="n">
+        <v>46.7</v>
+      </c>
+      <c r="H7" t="n">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>10-04-2025 03:00</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>ECUADOR</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>LIGA PRO</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Cuniburo - Delfin SC</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>80</v>
+      </c>
+      <c r="F8" t="n">
+        <v>2</v>
+      </c>
+      <c r="G8" t="n">
+        <v>46.7</v>
+      </c>
+      <c r="H8" t="n">
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>10-04-2025 15:00</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>INDONESIA</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>LIGA 1</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Bali United - Dewa United</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>65</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="G9" t="n">
+        <v>60</v>
+      </c>
+      <c r="H9" t="n">
+        <v>2.42</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>10-04-2025 14:00</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>THAILAND</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>THAI LEAGUE 1</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Port FC - Prachuap</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>65</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="G10" t="n">
+        <v>60</v>
+      </c>
+      <c r="H10" t="n">
+        <v>2.45</v>
       </c>
     </row>
   </sheetData>
@@ -1426,7 +1624,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G35"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1474,38 +1672,38 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>08-04-2025 22:00</t>
+          <t>09-04-2025 21:45</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>UEFA CHAMPIONS LEAGUE</t>
+          <t>CHAMPIONSHIP</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Bayern München - Inter</t>
+          <t>Oxford United - QPR</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="F2" t="n">
-        <v>1.9</v>
+        <v>2.75</v>
       </c>
       <c r="G2" t="n">
-        <v>0.14</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>08-04-2025 22:00</t>
+          <t>10-04-2025 01:00</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -1515,245 +1713,245 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>UEFA CHAMPIONS LEAGUE</t>
+          <t>CONMEBOL LIBERTADORES</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Arsenal - Real Madrid</t>
+          <t>Olimpia - Velez Sarsfield</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="F3" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="G3" t="n">
-        <v>0.18</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>08-04-2025 21:45</t>
+          <t>10-04-2025 01:00</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>CHAMPIONSHIP</t>
+          <t>CONMEBOL SUDAMERICANA</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Sheffield Utd - Millwall</t>
+          <t>Palestino - Union Santa Fe</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>53.3</v>
+        <v>80</v>
       </c>
       <c r="F4" t="n">
-        <v>1.8</v>
+        <v>2.56</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.04</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>08-04-2025 21:45</t>
+          <t>10-04-2025 01:00</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>CHAMPIONSHIP</t>
+          <t>MARANHENSE</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Stoke City - Luton</t>
+          <t>Maranhão - Pinheiro</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="F5" t="n">
-        <v>2.2</v>
+        <v>1.7</v>
       </c>
       <c r="G5" t="n">
-        <v>0.43</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>08-04-2025 21:45</t>
+          <t>09-04-2025 17:00</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>BULGARIA</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>LEAGUE ONE</t>
+          <t>SECOND LEAGUE</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Peterborough - Birmingham</t>
+          <t>Fratria - Belasitsa</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>66.7</v>
+        <v>60</v>
       </c>
       <c r="F6" t="n">
-        <v>4.5</v>
+        <v>1.85</v>
       </c>
       <c r="G6" t="n">
-        <v>2</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>08-04-2025 21:45</t>
+          <t>09-04-2025 14:00</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>CHINA</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>LEAGUE ONE</t>
+          <t>LEAGUE TWO</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Bolton - Rotherham</t>
+          <t>Rizhao Yuqi - Hubei Chufeng Heli</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>56.7</v>
+        <v>73.3</v>
       </c>
       <c r="F7" t="n">
-        <v>1.95</v>
+        <v>2.3</v>
       </c>
       <c r="G7" t="n">
-        <v>0.11</v>
+        <v>0.6899999999999999</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>08-04-2025 15:00</t>
+          <t>09-04-2025 15:00</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>ETHIOPIA</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>PROFESSIONAL DEVELOPMENT LEAGUE</t>
+          <t>PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Wigan Athletic U21 - Swansea City U21</t>
+          <t>Mebrat Hayl - Awassa Kenema</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>73.3</v>
+        <v>53.3</v>
       </c>
       <c r="F8" t="n">
-        <v>1.8</v>
+        <v>2.3</v>
       </c>
       <c r="G8" t="n">
-        <v>0.32</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>08-04-2025 20:00</t>
+          <t>09-04-2025 18:00</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>GERMANY</t>
+          <t>ETHIOPIA</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>3. LIGA</t>
+          <t>PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Stuttgart II - FC Viktoria Köln</t>
+          <t>Suhul Shire - Sidama Bunna</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>60</v>
+        <v>53.3</v>
       </c>
       <c r="F9" t="n">
-        <v>2.37</v>
+        <v>3.25</v>
       </c>
       <c r="G9" t="n">
-        <v>0.42</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>08-04-2025 20:00</t>
+          <t>09-04-2025 16:00</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>GERMANY</t>
+          <t>GEORGIA</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>3. LIGA</t>
+          <t>EROVNULI LIGA</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Arminia Bielefeld - SV Wehen</t>
+          <t>Kolkheti Poti - Torpedo Kutaisi</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>63.3</v>
+        <v>55.7</v>
       </c>
       <c r="F10" t="n">
-        <v>1.74</v>
+        <v>3.6</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>08-04-2025 20:00</t>
+          <t>09-04-2025 20:00</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1768,761 +1966,947 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>FC Saarbrücken - Erzgebirge Aue</t>
+          <t>Energie Cottbus - Rot-Weiß Essen</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>63.3</v>
+        <v>50</v>
       </c>
       <c r="F11" t="n">
-        <v>1.75</v>
+        <v>2.1</v>
       </c>
       <c r="G11" t="n">
-        <v>0.11</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>08-04-2025 16:15</t>
+          <t>09-04-2025 20:00</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>ISRAEL</t>
+          <t>GERMANY</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>LIGA ALEF</t>
+          <t>3. LIGA</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Holon Yermiyahu - Hapoel Azor</t>
+          <t>Verl - Borussia Dortmund II</t>
         </is>
       </c>
       <c r="E12" t="n">
         <v>50</v>
       </c>
       <c r="F12" t="n">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.12</v>
+        <v>-0.09</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>06-04-2025 16:00</t>
+          <t>09-04-2025 13:00</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>ITALY</t>
+          <t>JAPAN</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>SERIE D - GIRONE E</t>
+          <t>J-LEAGUE CUP</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Grosseto - San Donato Tavarnelle</t>
+          <t>Matsumoto Yamaga - Albirex Niigata</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>50</v>
+        <v>62.3</v>
       </c>
       <c r="F13" t="n">
-        <v>1.73</v>
+        <v>5.25</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.14</v>
+        <v>2.27</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>08-04-2025 19:00</t>
+          <t>09-04-2025 13:00</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>POLAND</t>
+          <t>JAPAN</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>I LIGA</t>
+          <t>J-LEAGUE CUP</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Znicz Pruszków - Odra Opole</t>
+          <t>V-varen Nagasaki - Shonan Bellmare</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>53.3</v>
+        <v>51</v>
       </c>
       <c r="F14" t="n">
-        <v>2.2</v>
+        <v>2.9</v>
       </c>
       <c r="G14" t="n">
-        <v>0.17</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>08-04-2025 13:00</t>
+          <t>09-04-2025 18:00</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>PORTUGAL</t>
+          <t>POLAND</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>LIGA REVELAÇÃO U23</t>
+          <t>II LIGA - EAST</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Vizela U23 - Gil Vicente U23</t>
+          <t>Rekord Bielsko-Biała - Zagłębie Lubin II</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>58.3</v>
+        <v>56.7</v>
       </c>
       <c r="F15" t="n">
-        <v>1.77</v>
+        <v>1.84</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>08-04-2025 14:00</t>
+          <t>09-04-2025 17:00</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>TURKEY</t>
+          <t>ROMANIA</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>1. LIG</t>
+          <t>LIGA II</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Keçiörengücü - Şanlıurfaspor</t>
+          <t>CSA Steaua Bucureşti - FC Voluntari</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>53.3</v>
+        <v>80</v>
       </c>
       <c r="F16" t="n">
-        <v>1.8</v>
+        <v>2.3</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.04</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>08-04-2025 22:00</t>
+          <t>09-04-2025 20:30</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>SWITZERLAND</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>CAF CHAMPIONS LEAGUE</t>
+          <t>1. LIGA PROMOTION</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>FAR Rabat - Pyramids FC</t>
+          <t>Cham - Lugano II</t>
         </is>
       </c>
       <c r="E17" t="n">
         <v>60</v>
       </c>
       <c r="F17" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="G17" t="n">
-        <v>0.15</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>08-04-2025 22:00</t>
+          <t>09-04-2025 20:30</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>SWITZERLAND</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>CAF CHAMPIONS LEAGUE</t>
+          <t>1. LIGA PROMOTION</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>ES Tunis - Mamelodi Sundowns</t>
+          <t>Bavois - Young Boys II</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>73.3</v>
+        <v>66.7</v>
       </c>
       <c r="F18" t="n">
-        <v>1.9</v>
+        <v>2.3</v>
       </c>
       <c r="G18" t="n">
-        <v>0.39</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>09-04-2025 21:45</t>
+          <t>09-04-2025 19:00</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>SWITZERLAND</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>CHAMPIONSHIP</t>
+          <t>1. LIGA PROMOTION</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Oxford United - QPR</t>
+          <t>Paradiso - Vevey Sports</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="F19" t="n">
-        <v>2.75</v>
+        <v>1.95</v>
       </c>
       <c r="G19" t="n">
-        <v>1.2</v>
+        <v>-0.03</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>10-04-2025 01:00</t>
+          <t>09-04-2025 16:15</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>TANZANIA</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>CONMEBOL LIBERTADORES</t>
+          <t>LIGI KUU BARA</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Olimpia - Velez Sarsfield</t>
+          <t>KenGold - Tanzania Prisons</t>
         </is>
       </c>
       <c r="E20" t="n">
         <v>70</v>
       </c>
       <c r="F20" t="n">
-        <v>2.4</v>
+        <v>3.05</v>
       </c>
       <c r="G20" t="n">
-        <v>0.68</v>
+        <v>1.13</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>09-04-2025 03:30</t>
+          <t>09-04-2025 19:00</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>TANZANIA</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>CONMEBOL SUDAMERICANA</t>
+          <t>LIGI KUU BARA</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>America De Cali - Corinthians</t>
+          <t>Dodoma Jiji - Kagera Sugar</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>60</v>
+        <v>63.3</v>
       </c>
       <c r="F21" t="n">
-        <v>2.8</v>
+        <v>1.86</v>
       </c>
       <c r="G21" t="n">
-        <v>0.68</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>10-04-2025 01:00</t>
+          <t>09-04-2025 14:00</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>TURKEY</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>CONMEBOL SUDAMERICANA</t>
+          <t>1. LIG</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Palestino - Union Santa Fe</t>
+          <t>Erzurum BB - Yeni Çorumspor</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="F22" t="n">
-        <v>2.56</v>
+        <v>2.05</v>
       </c>
       <c r="G22" t="n">
-        <v>1.05</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>09-04-2025 14:00</t>
+          <t>09-04-2025 02:30</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>CHINA</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>LEAGUE TWO</t>
+          <t>MLS NEXT PRO</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Rizhao Yuqi - Hubei Chufeng Heli</t>
+          <t>New York City II - FC Cincinnati II</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>73.3</v>
+        <v>80</v>
       </c>
       <c r="F23" t="n">
-        <v>2.3</v>
+        <v>2.45</v>
       </c>
       <c r="G23" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>09-04-2025 03:30</t>
+          <t>09-04-2025 19:00</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>COLOMBIA</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>PRIMERA B</t>
+          <t>CAF CHAMPIONS LEAGUE</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Real Soacha - Tigres FC</t>
+          <t>Orlando Pirates - MC Alger</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>86.7</v>
+        <v>60</v>
       </c>
       <c r="F24" t="n">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="G24" t="n">
-        <v>0.47</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>09-04-2025 15:00</t>
+          <t>10-04-2025 22:00</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>ETHIOPIA</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>PREMIER LEAGUE</t>
+          <t>UEFA EUROPA CONFERENCE LEAGUE</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Mebrat Hayl - Awassa Kenema</t>
+          <t>Celje - Fiorentina</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>53.3</v>
+        <v>80</v>
       </c>
       <c r="F25" t="n">
-        <v>2.3</v>
+        <v>6.25</v>
       </c>
       <c r="G25" t="n">
-        <v>0.23</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>09-04-2025 18:00</t>
+          <t>10-04-2025 19:45</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>ETHIOPIA</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>PREMIER LEAGUE</t>
+          <t>UEFA EUROPA CONFERENCE LEAGUE</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Suhul Shire - Sidama Bunna</t>
+          <t>Legia Warszawa - Chelsea</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>53.3</v>
+        <v>80</v>
       </c>
       <c r="F26" t="n">
-        <v>3.25</v>
+        <v>5.25</v>
       </c>
       <c r="G26" t="n">
-        <v>0.73</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>09-04-2025 20:00</t>
+          <t>10-04-2025 22:00</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>GERMANY</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>3. LIGA</t>
+          <t>UEFA EUROPA CONFERENCE LEAGUE</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Energie Cottbus - Rot-Weiß Essen</t>
+          <t>Djurgardens IF - Rapid Vienna</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="F27" t="n">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="G27" t="n">
-        <v>0.05</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>09-04-2025 20:00</t>
+          <t>10-04-2025 19:45</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>GERMANY</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>3. LIGA</t>
+          <t>UEFA EUROPA LEAGUE</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Verl - Borussia Dortmund II</t>
+          <t>Bodo/Glimt - Lazio</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="F28" t="n">
-        <v>1.82</v>
+        <v>3.3</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.09</v>
+        <v>1.31</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>09-04-2025 13:00</t>
+          <t>10-04-2025 22:00</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>JAPAN</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>J-LEAGUE CUP</t>
+          <t>UEFA EUROPA LEAGUE</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Matsumoto Yamaga - Albirex Niigata</t>
+          <t>Tottenham - Eintracht Frankfurt</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>62.3</v>
+        <v>66.7</v>
       </c>
       <c r="F29" t="n">
-        <v>5.25</v>
+        <v>1.75</v>
       </c>
       <c r="G29" t="n">
-        <v>2.27</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>09-04-2025 13:00</t>
+          <t>10-04-2025 22:00</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>JAPAN</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>J-LEAGUE CUP</t>
+          <t>UEFA EUROPA LEAGUE</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>V-varen Nagasaki - Shonan Bellmare</t>
+          <t>Lyon - Manchester United</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="F30" t="n">
-        <v>2.9</v>
+        <v>2.55</v>
       </c>
       <c r="G30" t="n">
-        <v>0.48</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>09-04-2025 17:00</t>
+          <t>11-04-2025 01:00</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>ROMANIA</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>LIGA II</t>
+          <t>CONMEBOL SUDAMERICANA</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>CSA Steaua Bucureşti - FC Voluntari</t>
+          <t>Defensa Y Justicia - Vitoria</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="F31" t="n">
-        <v>2.3</v>
+        <v>2.16</v>
       </c>
       <c r="G31" t="n">
-        <v>0.84</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>09-04-2025 14:00</t>
+          <t>10-04-2025 17:00</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>TURKEY</t>
+          <t>ALGERIA</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>1. LIG</t>
+          <t>LIGUE 2</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Erzurum BB - Yeni Çorumspor</t>
+          <t>MSP Batna - Khroub</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>60</v>
+        <v>63.3</v>
       </c>
       <c r="F32" t="n">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="G32" t="n">
-        <v>0.23</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>09-04-2025 19:00</t>
+          <t>10-04-2025 17:00</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>ALGERIA</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>CAF CHAMPIONS LEAGUE</t>
+          <t>LIGUE 2</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Orlando Pirates - MC Alger</t>
+          <t>MO Constantine - JS Jijel</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F33" t="n">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="G33" t="n">
-        <v>0.2</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>09-04-2025 04:00</t>
+          <t>11-04-2025 01:00</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>CONCACAF CHAMPIONS LEAGUE</t>
+          <t>SERIE B</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Tigres UANL - Los Angeles Galaxy</t>
+          <t>Atletico Paranaense - Criciuma</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>70</v>
+        <v>53.3</v>
       </c>
       <c r="F34" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="G34" t="n">
-        <v>0.21</v>
+        <v>-0.07000000000000001</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>09-04-2025 06:30</t>
+          <t>10-04-2025 03:00</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>ECUADOR</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>CONCACAF CHAMPIONS LEAGUE</t>
+          <t>LIGA PRO</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Cruz Azul - Club America</t>
+          <t>Cuniburo - Delfin SC</t>
         </is>
       </c>
       <c r="E35" t="n">
+        <v>80</v>
+      </c>
+      <c r="F35" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>10-04-2025 03:00</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>GUATEMALA</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>LIGA NACIONAL</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Malacateco - Antigua GFC</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="F36" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>10-04-2025 15:00</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>INDONESIA</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>LIGA 1</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Bali United - Dewa United</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
         <v>53.3</v>
       </c>
-      <c r="F35" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="G35" t="n">
-        <v>0.26</v>
+      <c r="F37" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>10-04-2025 18:00</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>MEXICO</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>U23 LEAGUE</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Tigres UANL U23 - Monterrey U23</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="F38" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>10-04-2025 02:00</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>PARAGUAY</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>DIVISION PROFESIONAL - APERTURA</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Sportivo Trinidense - Atlético Tembetary</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>50</v>
+      </c>
+      <c r="F39" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>10-04-2025 17:00</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>TURKEY</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>1. LIG</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Genclerbirligi - Ümraniyespor</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
+        <v>55.7</v>
+      </c>
+      <c r="F40" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>11-04-2025 01:00</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>VENEZUELA</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>PRIMERA DIVISIÓN</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Monagas SC - Rayo Zuliano</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v>70</v>
+      </c>
+      <c r="F41" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.21</v>
       </c>
     </row>
   </sheetData>
@@ -2536,7 +2920,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2584,441 +2968,441 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>08-04-2025 21:45</t>
+          <t>09-04-2025 22:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>CHAMPIONSHIP</t>
+          <t>UEFA CHAMPIONS LEAGUE</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Blackburn - Sheffield Wednesday</t>
+          <t>Paris Saint Germain - Aston Villa</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>53.3</v>
+        <v>50</v>
       </c>
       <c r="F2" t="n">
-        <v>2.88</v>
+        <v>7</v>
       </c>
       <c r="G2" t="n">
-        <v>0.54</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>08-04-2025 22:00</t>
+          <t>09-04-2025 20:00</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>NORWAY</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CHAMPIONSHIP</t>
+          <t>ELITESERIEN</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Middlesbrough - Leeds</t>
+          <t>Fredrikstad - Valerenga</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="F3" t="n">
-        <v>1.73</v>
+        <v>3.1</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.14</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>08-04-2025 21:45</t>
+          <t>09-04-2025 16:30</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>EGYPT</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>CHAMPIONSHIP</t>
+          <t>SECOND LEAGUE</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Norwich - Sunderland</t>
+          <t>Suez - Dayrout</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>58.3</v>
+        <v>50</v>
       </c>
       <c r="F4" t="n">
         <v>3</v>
       </c>
       <c r="G4" t="n">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>08-04-2025 21:45</t>
+          <t>09-04-2025 16:30</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>EGYPT</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>LEAGUE ONE</t>
+          <t>SECOND LEAGUE</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Huddersfield - Wycombe</t>
+          <t>El Dakhleya - La Viena FC</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F5" t="n">
-        <v>2.88</v>
+        <v>2.35</v>
       </c>
       <c r="G5" t="n">
-        <v>0.73</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>09-04-2025 01:00</t>
+          <t>10-04-2025 00:30</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>EL-SALVADOR</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>CONMEBOL LIBERTADORES</t>
+          <t>PRIMERA DIVISION</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Botafogo - Carabobo FC</t>
+          <t>Dragón - Isidro Metapán</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>60</v>
+        <v>56.7</v>
       </c>
       <c r="F6" t="n">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="G6" t="n">
-        <v>9.199999999999999</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>08-04-2025 15:00</t>
+          <t>09-04-2025 13:00</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>JAPAN</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>PROFESSIONAL DEVELOPMENT LEAGUE</t>
+          <t>J-LEAGUE CUP</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Fleetwood Town U21 - Charlton Athletic U21</t>
+          <t>Montedio Yamagata - Kyoto Sanga</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>60</v>
+        <v>53.3</v>
       </c>
       <c r="F7" t="n">
-        <v>1.91</v>
+        <v>2.2</v>
       </c>
       <c r="G7" t="n">
-        <v>0.15</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>08-04-2025 15:30</t>
+          <t>09-04-2025 21:30</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>POLAND</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>PROFESSIONAL DEVELOPMENT LEAGUE</t>
+          <t>I LIGA</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Peterborough United U21 - Ipswich Town U21</t>
+          <t>Polonia Warszawa - Pogoń Siedlce</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>50</v>
+        <v>53.3</v>
       </c>
       <c r="F8" t="n">
-        <v>1.8</v>
+        <v>3.8</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.1</v>
+        <v>1.03</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>08-04-2025 09:30</t>
+          <t>09-04-2025 17:00</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ETHIOPIA</t>
+          <t>TURKEY</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>PREMIER LEAGUE</t>
+          <t>1. LIG</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Adama Kenema - Welayta Dicha</t>
+          <t>Erokspor - Fatih Karagümrük</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>66.7</v>
+        <v>50</v>
       </c>
       <c r="F9" t="n">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="G9" t="n">
-        <v>0.4</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>08-04-2025 20:00</t>
+          <t>10-04-2025 22:00</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>GERMANY</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>3. LIGA</t>
+          <t>UEFA EUROPA LEAGUE</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Hannover 96 II - Alemannia Aachen</t>
+          <t>Rangers - Athletic Club</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="F10" t="n">
-        <v>2.08</v>
+        <v>2.3</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>08-04-2025 16:15</t>
+          <t>10-04-2025 19:30</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ISRAEL</t>
+          <t>DENMARK</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>LIGA ALEF</t>
+          <t>1. DIVISION</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Hapoel Marmorek - Maccabi Kiryat Malachi</t>
+          <t>FC Fredericia - AC Horsens</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>66.7</v>
+        <v>60</v>
       </c>
       <c r="F11" t="n">
-        <v>2.6</v>
+        <v>2.25</v>
       </c>
       <c r="G11" t="n">
-        <v>0.73</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>08-04-2025 13:00</t>
+          <t>10-04-2025 19:00</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>PORTUGAL</t>
+          <t>EGYPT</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>LIGA REVELAÇÃO U23</t>
+          <t>SECOND LEAGUE</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Mafra U23 - Santa Clara U23</t>
+          <t>Itesalat - Wadi Degla</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>60</v>
+        <v>56.7</v>
       </c>
       <c r="F12" t="n">
-        <v>2.7</v>
+        <v>1.7</v>
       </c>
       <c r="G12" t="n">
-        <v>0.62</v>
+        <v>-0.04</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>08-04-2025 13:00</t>
+          <t>10-04-2025 15:00</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>PORTUGAL</t>
+          <t>ETHIOPIA</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>LIGA REVELAÇÃO U23</t>
+          <t>PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Portimonense U23 - Farense U23</t>
+          <t>Arba Minch Kenema - Ethiopia Nigd Bank</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>53.3</v>
+        <v>60</v>
       </c>
       <c r="F13" t="n">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="G13" t="n">
-        <v>0.33</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>09-04-2025 22:00</t>
+          <t>10-04-2025 21:45</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>POLAND</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>UEFA CHAMPIONS LEAGUE</t>
+          <t>I LIGA</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Paris Saint Germain - Aston Villa</t>
+          <t>Ruch Chorzów - Miedz Legnica</t>
         </is>
       </c>
       <c r="E14" t="n">
         <v>50</v>
       </c>
       <c r="F14" t="n">
-        <v>7</v>
+        <v>3.3</v>
       </c>
       <c r="G14" t="n">
-        <v>2.5</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>09-04-2025 20:00</t>
+          <t>10-04-2025 19:00</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>NORWAY</t>
+          <t>POLAND</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>ELITESERIEN</t>
+          <t>I LIGA</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Fredrikstad - Valerenga</t>
+          <t>Stal Rzeszów - Wisla Plock</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>60</v>
+        <v>53.3</v>
       </c>
       <c r="F15" t="n">
-        <v>3.1</v>
+        <v>2.4</v>
       </c>
       <c r="G15" t="n">
-        <v>0.86</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>09-04-2025 03:30</t>
+          <t>10-04-2025 05:30</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -3028,146 +3412,22 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>CONMEBOL LIBERTADORES</t>
+          <t>CONCACAF CHAMPIONS LEAGUE</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>River Plate - Barcelona SC</t>
+          <t>U.N.A.M. - Pumas - Vancouver Whitecaps</t>
         </is>
       </c>
       <c r="E16" t="n">
         <v>50</v>
       </c>
       <c r="F16" t="n">
-        <v>7</v>
+        <v>3.3</v>
       </c>
       <c r="G16" t="n">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>09-04-2025 16:30</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>EGYPT</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>SECOND LEAGUE</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>El Dakhleya - La Viena FC</t>
-        </is>
-      </c>
-      <c r="E17" t="n">
-        <v>50</v>
-      </c>
-      <c r="F17" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0.18</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>09-04-2025 13:00</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>JAPAN</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>J-LEAGUE CUP</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>Montedio Yamagata - Kyoto Sanga</t>
-        </is>
-      </c>
-      <c r="E18" t="n">
-        <v>53.3</v>
-      </c>
-      <c r="F18" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0.17</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>09-04-2025 21:30</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>POLAND</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>I LIGA</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>Polonia Warszawa - Pogoń Siedlce</t>
-        </is>
-      </c>
-      <c r="E19" t="n">
-        <v>53.3</v>
-      </c>
-      <c r="F19" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="G19" t="n">
-        <v>1.03</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>09-04-2025 17:00</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>TURKEY</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>1. LIG</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>Erokspor - Fatih Karagümrük</t>
-        </is>
-      </c>
-      <c r="E20" t="n">
-        <v>50</v>
-      </c>
-      <c r="F20" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0.15</v>
+        <v>0.65</v>
       </c>
     </row>
   </sheetData>
@@ -3229,131 +3489,131 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>08-04-2025 21:45</t>
+          <t>10-04-2025 01:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>LEAGUE TWO</t>
+          <t>CONMEBOL LIBERTADORES</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Chesterfield - Gillingham</t>
+          <t>Olimpia - Velez Sarsfield</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>70</v>
+        <v>73.3</v>
       </c>
       <c r="F2" t="n">
-        <v>2.05</v>
+        <v>2.7</v>
       </c>
       <c r="G2" t="n">
-        <v>0.43</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>08-04-2025 20:00</t>
+          <t>09-04-2025 17:00</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GERMANY</t>
+          <t>ROMANIA</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>3. LIGA</t>
+          <t>LIGA II</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Waldhof Mannheim - SpVgg Unterhaching</t>
+          <t>CSA Steaua Bucureşti - FC Voluntari</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="F3" t="n">
-        <v>1.74</v>
+        <v>2.2</v>
       </c>
       <c r="G3" t="n">
-        <v>0.39</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>08-04-2025 20:00</t>
+          <t>09-04-2025 14:00</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>GERMANY</t>
+          <t>TURKEY</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>3. LIGA</t>
+          <t>1. LIG</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Arminia Bielefeld - SV Wehen</t>
+          <t>Erzurum BB - Yeni Çorumspor</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>72.5</v>
+        <v>70</v>
       </c>
       <c r="F4" t="n">
-        <v>1.82</v>
+        <v>2.15</v>
       </c>
       <c r="G4" t="n">
-        <v>0.32</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>08-04-2025 20:00</t>
+          <t>09-04-2025 02:00</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GERMANY</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>3. LIGA</t>
+          <t>USL LEAGUE ONE</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Hannover 96 II - Alemannia Aachen</t>
+          <t>Richmond Kickers - Union Omaha</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>86.7</v>
+        <v>70</v>
       </c>
       <c r="F5" t="n">
-        <v>1.89</v>
+        <v>1.77</v>
       </c>
       <c r="G5" t="n">
-        <v>0.64</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>10-04-2025 01:00</t>
+          <t>10-04-2025 19:45</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -3363,84 +3623,84 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>CONMEBOL LIBERTADORES</t>
+          <t>UEFA EUROPA LEAGUE</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Olimpia - Velez Sarsfield</t>
+          <t>Bodo/Glimt - Lazio</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>73.3</v>
+        <v>86.7</v>
       </c>
       <c r="F6" t="n">
-        <v>2.7</v>
+        <v>1.91</v>
       </c>
       <c r="G6" t="n">
-        <v>0.98</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>09-04-2025 17:00</t>
+          <t>10-04-2025 22:00</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ROMANIA</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>LIGA II</t>
+          <t>UEFA EUROPA LEAGUE</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>CSA Steaua Bucureşti - FC Voluntari</t>
+          <t>Lyon - Manchester United</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="F7" t="n">
-        <v>2.2</v>
+        <v>1.91</v>
       </c>
       <c r="G7" t="n">
-        <v>0.87</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>09-04-2025 14:00</t>
+          <t>10-04-2025 03:00</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>TURKEY</t>
+          <t>ECUADOR</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>1. LIG</t>
+          <t>LIGA PRO</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Erzurum BB - Yeni Çorumspor</t>
+          <t>Cuniburo - Delfin SC</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F8" t="n">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="G8" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
   </sheetData>
@@ -3454,7 +3714,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3502,7 +3762,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>08-04-2025 22:00</t>
+          <t>10-04-2025 01:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -3512,890 +3772,611 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>UEFA CHAMPIONS LEAGUE</t>
+          <t>CONMEBOL LIBERTADORES</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Arsenal - Real Madrid</t>
+          <t>Club Nacional - Bahia</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="F2" t="n">
         <v>1.95</v>
       </c>
       <c r="G2" t="n">
-        <v>0.33</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>08-04-2025 21:45</t>
+          <t>09-04-2025 22:00</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>ARGENTINA</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CHAMPIONSHIP</t>
+          <t>COPA ARGENTINA</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Bristol City - West Brom</t>
+          <t>Rosario Central - Los Andes</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>66.7</v>
+        <v>72</v>
       </c>
       <c r="F3" t="n">
-        <v>1.8</v>
+        <v>2.38</v>
       </c>
       <c r="G3" t="n">
-        <v>0.2</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>08-04-2025 21:45</t>
+          <t>09-04-2025 10:30</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>CHINA</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>CHAMPIONSHIP</t>
+          <t>LEAGUE TWO</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Sheffield Utd - Millwall</t>
+          <t>Nantong Haimen Codion - Tai'an Tiankuang</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="F4" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="G4" t="n">
-        <v>0.4</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>08-04-2025 21:45</t>
+          <t>09-04-2025 20:00</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>CZECH-REPUBLIC</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>LEAGUE ONE</t>
+          <t>CUP</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Mansfield Town - Leyton Orient</t>
+          <t>Sparta Praha - Teplice</t>
         </is>
       </c>
       <c r="E5" t="n">
         <v>66.7</v>
       </c>
       <c r="F5" t="n">
-        <v>1.8</v>
+        <v>1.89</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>08-04-2025 21:45</t>
+          <t>09-04-2025 16:30</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>EGYPT</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>LEAGUE TWO</t>
+          <t>SECOND LEAGUE</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Chesterfield - Gillingham</t>
+          <t>Suez - Dayrout</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>83.3</v>
+        <v>80</v>
       </c>
       <c r="F6" t="n">
         <v>1.91</v>
       </c>
       <c r="G6" t="n">
-        <v>0.59</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>09-04-2025 01:00</t>
+          <t>09-04-2025 22:00</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>GUATEMALA</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>CONMEBOL SUDAMERICANA</t>
+          <t>LIGA NACIONAL</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Gremio - Atletico Grau</t>
+          <t>Municipal - Xinabajul</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>68</v>
+        <v>67.5</v>
       </c>
       <c r="F7" t="n">
-        <v>2.35</v>
+        <v>2.15</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>08-04-2025 20:00</t>
+          <t>09-04-2025 19:00</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>GERMANY</t>
+          <t>POLAND</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>3. LIGA</t>
+          <t>I LIGA</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Waldhof Mannheim - SpVgg Unterhaching</t>
+          <t>Wisla Krakow - Chrobry Głogów</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>71.09999999999999</v>
+        <v>76.7</v>
       </c>
       <c r="F8" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="G8" t="n">
-        <v>0.23</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>08-04-2025 20:00</t>
+          <t>09-04-2025 16:15</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>GERMANY</t>
+          <t>SAUDI-ARABIA</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>3. LIGA</t>
+          <t>DIVISION 1</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Stuttgart II - FC Viktoria Köln</t>
+          <t>Al-Ain - Ohod</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>88</v>
+        <v>72.5</v>
       </c>
       <c r="F9" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="G9" t="n">
-        <v>0.52</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>08-04-2025 20:00</t>
+          <t>09-04-2025 20:00</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>GERMANY</t>
+          <t>TURKEY</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>3. LIGA</t>
+          <t>1. LIG</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Arminia Bielefeld - SV Wehen</t>
+          <t>Pendikspor - Ankaragucu</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="F10" t="n">
         <v>1.73</v>
       </c>
       <c r="G10" t="n">
-        <v>0.3</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>08-04-2025 20:00</t>
+          <t>09-04-2025 17:00</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>GERMANY</t>
+          <t>TURKEY</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>3. LIGA</t>
+          <t>1. LIG</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>FC Saarbrücken - Erzgebirge Aue</t>
+          <t>Erokspor - Fatih Karagümrük</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>66.7</v>
+        <v>80</v>
       </c>
       <c r="F11" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="G11" t="n">
-        <v>0.17</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>08-04-2025 19:00</t>
+          <t>09-04-2025 14:00</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>GERMANY</t>
+          <t>TURKEY</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>REGIONALLIGA - BAYERN</t>
+          <t>1. LIG</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Vilzing - Hankofen-Hailing</t>
+          <t>Erzurum BB - Yeni Çorumspor</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>76.7</v>
+        <v>66.7</v>
       </c>
       <c r="F12" t="n">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="G12" t="n">
-        <v>0.3</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>08-04-2025 16:15</t>
+          <t>09-04-2025 19:00</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>ISRAEL</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>LIGA ALEF</t>
+          <t>CAF CHAMPIONS LEAGUE</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Holon Yermiyahu - Hapoel Azor</t>
+          <t>Orlando Pirates - MC Alger</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>78.3</v>
+        <v>68</v>
       </c>
       <c r="F13" t="n">
-        <v>1.91</v>
+        <v>2.15</v>
       </c>
       <c r="G13" t="n">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>08-04-2025 16:15</t>
+          <t>10-04-2025 22:00</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>ISRAEL</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>LIGA ALEF</t>
+          <t>UEFA EUROPA CONFERENCE LEAGUE</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Hapoel Marmorek - Maccabi Kiryat Malachi</t>
+          <t>Celje - Fiorentina</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>76.7</v>
+        <v>84</v>
       </c>
       <c r="F14" t="n">
-        <v>2.25</v>
+        <v>1.83</v>
       </c>
       <c r="G14" t="n">
-        <v>0.73</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>08-04-2025 16:15</t>
+          <t>10-04-2025 03:30</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>ISRAEL</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>LIGA ALEF</t>
+          <t>CONMEBOL SUDAMERICANA</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Shimshon Tel Aviv - FC Jerusalem</t>
+          <t>Cruzeiro - Mushuc Runa SC</t>
         </is>
       </c>
       <c r="E15" t="n">
         <v>84</v>
       </c>
       <c r="F15" t="n">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="G15" t="n">
-        <v>0.51</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>08-04-2025 16:00</t>
+          <t>10-04-2025 03:10</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>MALAYSIA</t>
+          <t>ARGENTINA</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>SUPER LEAGUE</t>
+          <t>COPA ARGENTINA</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Pahang - Kedah</t>
+          <t>Sarmiento Junin - Central Cordoba</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>76.7</v>
+        <v>80</v>
       </c>
       <c r="F16" t="n">
-        <v>2.6</v>
+        <v>2</v>
       </c>
       <c r="G16" t="n">
-        <v>0.99</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>08-04-2025 20:30</t>
+          <t>10-04-2025 03:00</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>POLAND</t>
+          <t>ECUADOR</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>I LIGA</t>
+          <t>LIGA PRO</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Górnik Łęczna - Kotwica Kołobrzeg</t>
+          <t>Cuniburo - Delfin SC</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="F17" t="n">
-        <v>1.85</v>
+        <v>1.94</v>
       </c>
       <c r="G17" t="n">
-        <v>0.33</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>08-04-2025 16:00</t>
+          <t>10-04-2025 16:30</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>PORTUGAL</t>
+          <t>EGYPT</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>LIGA REVELAÇÃO U23</t>
+          <t>SECOND LEAGUE</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Sporting CP U23 - Famalicão U23</t>
+          <t>Kahraba Ismailia - Proxy</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>68.3</v>
+        <v>96</v>
       </c>
       <c r="F18" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="G18" t="n">
-        <v>0.18</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>08-04-2025 18:40</t>
+          <t>11-04-2025 00:00</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>SAUDI-ARABIA</t>
+          <t>PARAGUAY</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>DIVISION 1</t>
+          <t>DIVISION PROFESIONAL - APERTURA</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Al Jubail - Jeddah Club</t>
+          <t>2 De Mayo - Deportivo Recoleta</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>80</v>
+        <v>86.7</v>
       </c>
       <c r="F19" t="n">
-        <v>1.7</v>
+        <v>1.95</v>
       </c>
       <c r="G19" t="n">
-        <v>0.36</v>
+        <v>0.6899999999999999</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>08-04-2025 14:00</t>
+          <t>10-04-2025 21:00</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>TURKEY</t>
+          <t>SAUDI-ARABIA</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>1. LIG</t>
+          <t>PRO LEAGUE</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Keçiörengücü - Şanlıurfaspor</t>
+          <t>Al-Ittihad FC - Al Orubah</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F20" t="n">
         <v>1.77</v>
       </c>
       <c r="G20" t="n">
-        <v>0.24</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>08-04-2025 22:00</t>
+          <t>10-04-2025 20:00</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>TURKEY</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>CAF CHAMPIONS LEAGUE</t>
+          <t>1. LIG</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>ES Tunis - Mamelodi Sundowns</t>
+          <t>Adanaspor - Kocaelispor</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>70</v>
+        <v>65.59999999999999</v>
       </c>
       <c r="F21" t="n">
-        <v>2.2</v>
+        <v>1.95</v>
       </c>
       <c r="G21" t="n">
-        <v>0.54</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>09-04-2025 03:30</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>WORLD</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>CONMEBOL LIBERTADORES</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>Estudiantes L.P. - Universidad De Chile</t>
-        </is>
-      </c>
-      <c r="E22" t="n">
-        <v>76</v>
-      </c>
-      <c r="F22" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>10-04-2025 01:00</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>WORLD</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>CONMEBOL LIBERTADORES</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>Club Nacional - Bahia</t>
-        </is>
-      </c>
-      <c r="E23" t="n">
-        <v>84</v>
-      </c>
-      <c r="F23" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0.64</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>09-04-2025 20:00</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>CZECH-REPUBLIC</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>CUP</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>Sparta Praha - Teplice</t>
-        </is>
-      </c>
-      <c r="E24" t="n">
-        <v>66.7</v>
-      </c>
-      <c r="F24" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="G24" t="n">
-        <v>0.26</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>09-04-2025 19:00</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>POLAND</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>I LIGA</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>Wisla Krakow - Chrobry Głogów</t>
-        </is>
-      </c>
-      <c r="E25" t="n">
-        <v>76.7</v>
-      </c>
-      <c r="F25" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0.38</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>09-04-2025 16:15</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>SAUDI-ARABIA</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>DIVISION 1</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>Al-Ain - Ohod</t>
-        </is>
-      </c>
-      <c r="E26" t="n">
-        <v>72.5</v>
-      </c>
-      <c r="F26" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>09-04-2025 20:00</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>TURKEY</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>1. LIG</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>Pendikspor - Ankaragucu</t>
-        </is>
-      </c>
-      <c r="E27" t="n">
-        <v>70</v>
-      </c>
-      <c r="F27" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="G27" t="n">
-        <v>0.21</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>09-04-2025 17:00</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>TURKEY</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>1. LIG</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>Erokspor - Fatih Karagümrük</t>
-        </is>
-      </c>
-      <c r="E28" t="n">
-        <v>80</v>
-      </c>
-      <c r="F28" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="G28" t="n">
-        <v>0.38</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>09-04-2025 14:00</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>TURKEY</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>1. LIG</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>Erzurum BB - Yeni Çorumspor</t>
-        </is>
-      </c>
-      <c r="E29" t="n">
-        <v>66.7</v>
-      </c>
-      <c r="F29" t="n">
-        <v>2</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0.33</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>09-04-2025 19:00</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>WORLD</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>CAF CHAMPIONS LEAGUE</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>Orlando Pirates - MC Alger</t>
-        </is>
-      </c>
-      <c r="E30" t="n">
-        <v>68</v>
-      </c>
-      <c r="F30" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="G30" t="n">
-        <v>0.46</v>
+        <v>0.28</v>
       </c>
     </row>
   </sheetData>

--- a/scraper/data/betclever_predictions.xlsx
+++ b/scraper/data/betclever_predictions.xlsx
@@ -475,35 +475,35 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>09-04-2025 21:45</t>
+          <t>10-04-2025 22:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>CHAMPIONSHIP</t>
+          <t>UEFA EUROPA CONFERENCE LEAGUE</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Oxford United - QPR</t>
+          <t>Celje - Fiorentina</t>
         </is>
       </c>
       <c r="E2" t="n">
         <v>80</v>
       </c>
       <c r="F2" t="n">
-        <v>2.75</v>
+        <v>6.25</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>10-04-2025 01:00</t>
+          <t>10-04-2025 19:45</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -513,25 +513,25 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CONMEBOL LIBERTADORES</t>
+          <t>UEFA EUROPA CONFERENCE LEAGUE</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Olimpia - Velez Sarsfield</t>
+          <t>Legia Warszawa - Chelsea</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F3" t="n">
-        <v>2.4</v>
+        <v>5.25</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>10-04-2025 01:00</t>
+          <t>10-04-2025 19:45</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -541,271 +541,271 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>CONMEBOL SUDAMERICANA</t>
+          <t>UEFA EUROPA LEAGUE</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Palestino - Union Santa Fe</t>
+          <t>Bodo/Glimt - Lazio</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="F4" t="n">
-        <v>2.56</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>09-04-2025 14:00</t>
+          <t>10-04-2025 19:00</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>CHINA</t>
+          <t>LATVIA</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>LEAGUE TWO</t>
+          <t>VIRSLIGA</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Rizhao Yuqi - Hubei Chufeng Heli</t>
+          <t>Super Nova - Grobiņa</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>73.3</v>
+        <v>86.7</v>
       </c>
       <c r="F5" t="n">
-        <v>2.3</v>
+        <v>1.91</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>09-04-2025 17:00</t>
+          <t>11-04-2025 01:00</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ROMANIA</t>
+          <t>VENEZUELA</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>LIGA II</t>
+          <t>PRIMERA DIVISIÓN</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>CSA Steaua Bucureşti - FC Voluntari</t>
+          <t>Monagas SC - Rayo Zuliano</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="F6" t="n">
-        <v>2.3</v>
+        <v>1.73</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>09-04-2025 16:15</t>
+          <t>11-04-2025 21:00</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>TANZANIA</t>
+          <t>FRANCE</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>LIGI KUU BARA</t>
+          <t>LIGUE 2</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>KenGold - Tanzania Prisons</t>
+          <t>PAU - Clermont Foot</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F7" t="n">
-        <v>3.05</v>
+        <v>2.05</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>09-04-2025 02:30</t>
+          <t>11-04-2025 21:00</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>FRANCE</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>MLS NEXT PRO</t>
+          <t>LIGUE 2</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>New York City II - FC Cincinnati II</t>
+          <t>RED Star FC 93 - Annecy</t>
         </is>
       </c>
       <c r="E8" t="n">
         <v>80</v>
       </c>
       <c r="F8" t="n">
-        <v>2.45</v>
+        <v>2.15</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>10-04-2025 22:00</t>
+          <t>11-04-2025 19:00</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>AUSTRIA</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>UEFA EUROPA CONFERENCE LEAGUE</t>
+          <t>2. LIGA</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Celje - Fiorentina</t>
+          <t>FC Liefering - SV Kapfenberg</t>
         </is>
       </c>
       <c r="E